--- a/structure-books_network1.xlsx
+++ b/structure-books_network1.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CHiLO-Producer\chilo-producer-master\chiloPro\chilo001\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17730" windowHeight="8175"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17730" windowHeight="8175" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="series-information" sheetId="37" r:id="rId1"/>
@@ -24,8 +19,8 @@
     <sheet name="書籍構成シート選択用" sheetId="35" state="hidden" r:id="rId10"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -36,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="520">
   <si>
     <t>cover</t>
     <phoneticPr fontId="3"/>
@@ -1176,27 +1171,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>第1章の学習内容は以下のとおりです。
-1. インターネットの歴史を理解する。
-2. ビットの計算ができる。</t>
-    <rPh sb="0" eb="1">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ショウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ガクシュウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>イカ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>vol-2</t>
   </si>
   <si>
@@ -1231,133 +1205,6 @@
   </si>
   <si>
     <t>001_cover_image_7.png</t>
-  </si>
-  <si>
-    <t>第2章の学習内容は以下のとおりです。
-1. IPアドレスのオクテット表記を理解する。
-2. IPアドレスをネットマスクを使ってネットワーク部、ホスト部に分割できる。</t>
-    <rPh sb="0" eb="1">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ショウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ガクシュウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>イカ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>第3章の学習内容は以下のとおりです。
-1. ルータの役割を理解する。
-2. ネットワーク通信に必要な3つの情報について理解する。</t>
-    <rPh sb="0" eb="1">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ショウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ガクシュウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>イカ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>第4章の学習内容は以下のとおりです。
-1. ルータついてさらに理解を深める。
-2. ルーティングテーブルについて理解する。
-3. ダイナミックルーティングについて理解する。</t>
-    <rPh sb="0" eb="1">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ショウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ガクシュウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>イカ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>第5章の学習内容は以下のとおりです。
-1. MACアドレスの役割とARPを理解する。
-2. ネットワークコマンドを入力して、ネットワークの状態を確認する。</t>
-    <rPh sb="0" eb="1">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ショウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ガクシュウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>イカ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>第6章の学習内容は以下のとおりです。
-1. 無線LANの規格とその特徴を説明できる。
-2. 無線LANのセキュリティについて説明することができる。</t>
-    <rPh sb="0" eb="1">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ショウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ガクシュウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>イカ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>第7章の学習内容は以下のとおりです。
-1. ADSLの仕組みを理解する。
-2. NATやNAPTについて説明することができる。</t>
-    <rPh sb="0" eb="1">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ショウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ガクシュウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>イカ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>IPアドレスとネットワークアドレス</t>
@@ -2453,11 +2300,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3799,20 +3646,20 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="55.625" customWidth="1"/>
@@ -3821,7 +3668,7 @@
     <col min="5" max="5" width="48.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="14.25">
       <c r="A1" s="33" t="s">
         <v>81</v>
       </c>
@@ -3835,7 +3682,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" ht="28.5" hidden="1">
       <c r="A2" s="33" t="s">
         <v>61</v>
       </c>
@@ -3847,7 +3694,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="42.75" hidden="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" ht="42.75" hidden="1">
       <c r="A3" s="33" t="s">
         <v>62</v>
       </c>
@@ -3859,7 +3706,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="28.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" ht="28.5">
       <c r="A4" s="33" t="s">
         <v>63</v>
       </c>
@@ -3873,7 +3720,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="28.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" ht="28.5">
       <c r="A5" s="33" t="s">
         <v>64</v>
       </c>
@@ -3887,7 +3734,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" ht="14.25">
       <c r="A6" s="33" t="s">
         <v>65</v>
       </c>
@@ -3901,7 +3748,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" ht="14.25">
       <c r="A7" s="33" t="s">
         <v>66</v>
       </c>
@@ -3915,7 +3762,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" ht="13.5" customHeight="1">
       <c r="A8" s="33" t="s">
         <v>68</v>
       </c>
@@ -3927,7 +3774,7 @@
       </c>
       <c r="D8" s="64"/>
     </row>
-    <row r="9" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" ht="13.5" customHeight="1">
       <c r="A9" s="33" t="s">
         <v>69</v>
       </c>
@@ -3939,7 +3786,7 @@
       </c>
       <c r="D9" s="64"/>
     </row>
-    <row r="10" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" ht="13.5" customHeight="1">
       <c r="A10" s="33" t="s">
         <v>157</v>
       </c>
@@ -3951,7 +3798,7 @@
       </c>
       <c r="D10" s="64"/>
     </row>
-    <row r="11" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" ht="13.5" customHeight="1">
       <c r="A11" s="33" t="s">
         <v>70</v>
       </c>
@@ -3963,7 +3810,7 @@
       </c>
       <c r="D11" s="65"/>
     </row>
-    <row r="12" spans="1:5" ht="114" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" ht="114">
       <c r="A12" s="33" t="s">
         <v>88</v>
       </c>
@@ -3977,7 +3824,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="142.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" ht="142.5">
       <c r="A13" s="33" t="s">
         <v>71</v>
       </c>
@@ -3991,7 +3838,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="28.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" ht="28.5">
       <c r="A14" s="33" t="s">
         <v>72</v>
       </c>
@@ -4005,7 +3852,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5" ht="14.25">
       <c r="A15" s="33" t="s">
         <v>0</v>
       </c>
@@ -4019,7 +3866,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5" ht="14.25">
       <c r="A16" s="33" t="s">
         <v>145</v>
       </c>
@@ -4036,7 +3883,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5" ht="14.25">
       <c r="A17" s="33" t="s">
         <v>73</v>
       </c>
@@ -4051,7 +3898,7 @@
       </c>
       <c r="E17" s="75"/>
     </row>
-    <row r="18" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5" ht="13.5" customHeight="1">
       <c r="A18" s="33" t="s">
         <v>75</v>
       </c>
@@ -4064,7 +3911,7 @@
       <c r="D18" s="64"/>
       <c r="E18" s="75"/>
     </row>
-    <row r="19" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5" ht="13.5" customHeight="1">
       <c r="A19" s="33" t="s">
         <v>77</v>
       </c>
@@ -4077,7 +3924,7 @@
       <c r="D19" s="65"/>
       <c r="E19" s="75"/>
     </row>
-    <row r="20" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5" ht="13.5" customHeight="1">
       <c r="A20" s="33" t="s">
         <v>79</v>
       </c>
@@ -4092,31 +3939,31 @@
       </c>
       <c r="E20" s="75"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:5">
       <c r="A21" s="30" t="s">
         <v>86</v>
       </c>
       <c r="C21" s="28"/>
       <c r="D21" s="29"/>
     </row>
-    <row r="23" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:5" ht="13.5" customHeight="1">
       <c r="A23" s="66" t="s">
         <v>93</v>
       </c>
       <c r="B23" s="67"/>
       <c r="C23" s="68"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:5">
       <c r="A24" s="69"/>
       <c r="B24" s="70"/>
       <c r="C24" s="71"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:5">
       <c r="A25" s="69"/>
       <c r="B25" s="70"/>
       <c r="C25" s="71"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:5">
       <c r="A26" s="72"/>
       <c r="B26" s="73"/>
       <c r="C26" s="74"/>
@@ -4141,7 +3988,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:C8"/>
   <sheetViews>
@@ -4149,12 +3996,12 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="3" width="13.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="14.25" thickBot="1">
       <c r="A1" s="16" t="s">
         <v>21</v>
       </c>
@@ -4165,7 +4012,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" ht="14.25" thickTop="1">
       <c r="A2" s="15" t="s">
         <v>23</v>
       </c>
@@ -4176,7 +4023,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3">
       <c r="A3" s="14" t="s">
         <v>138</v>
       </c>
@@ -4185,35 +4032,35 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3">
       <c r="A4" s="14"/>
       <c r="B4" s="14"/>
       <c r="C4" s="14" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3">
       <c r="A5" s="14"/>
       <c r="B5" s="14"/>
       <c r="C5" s="14" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3">
       <c r="A6" s="14"/>
       <c r="B6" s="14"/>
       <c r="C6" s="14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3">
       <c r="A8" s="14"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -4231,15 +4078,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="14.5" style="2" customWidth="1"/>
     <col min="2" max="2" width="47.625" style="2" bestFit="1" customWidth="1"/>
@@ -4250,7 +4097,7 @@
     <col min="8" max="16384" width="8.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="15" thickBot="1">
       <c r="A1" s="5" t="s">
         <v>12</v>
       </c>
@@ -4273,16 +4120,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="66.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="66.75" customHeight="1" thickTop="1">
       <c r="A2" s="55" t="s">
         <v>103</v>
       </c>
       <c r="B2" s="56" t="s">
         <v>104</v>
       </c>
-      <c r="C2" s="52" t="s">
-        <v>158</v>
-      </c>
+      <c r="C2" s="52"/>
       <c r="D2" s="50" t="s">
         <v>152</v>
       </c>
@@ -4290,151 +4135,139 @@
         <v>149</v>
       </c>
       <c r="F2" s="57" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="G2" s="57" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="66.75" customHeight="1">
+      <c r="A3" s="55" t="s">
+        <v>158</v>
+      </c>
+      <c r="B3" s="60" t="s">
+        <v>170</v>
+      </c>
+      <c r="C3" s="52"/>
+      <c r="D3" s="50" t="s">
+        <v>164</v>
+      </c>
+      <c r="E3" s="59" t="s">
+        <v>298</v>
+      </c>
+      <c r="F3" s="57" t="s">
         <v>519</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="66.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="55" t="s">
+      <c r="G3" s="57" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="66.75" customHeight="1">
+      <c r="A4" s="55" t="s">
         <v>159</v>
       </c>
-      <c r="B3" s="60" t="s">
-        <v>177</v>
-      </c>
-      <c r="C3" s="52" t="s">
+      <c r="B4" s="60" t="s">
         <v>171</v>
       </c>
-      <c r="D3" s="50" t="s">
+      <c r="C4" s="52"/>
+      <c r="D4" s="50" t="s">
         <v>165</v>
       </c>
-      <c r="E3" s="59" t="s">
-        <v>305</v>
-      </c>
-      <c r="F3" s="57" t="s">
-        <v>526</v>
-      </c>
-      <c r="G3" s="57" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="66.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="55" t="s">
+      <c r="E4" s="59" t="s">
+        <v>299</v>
+      </c>
+      <c r="F4" s="57" t="s">
+        <v>519</v>
+      </c>
+      <c r="G4" s="57" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="66.75" customHeight="1">
+      <c r="A5" s="55" t="s">
         <v>160</v>
       </c>
-      <c r="B4" s="60" t="s">
-        <v>178</v>
-      </c>
-      <c r="C4" s="52" t="s">
+      <c r="B5" s="60" t="s">
         <v>172</v>
       </c>
-      <c r="D4" s="50" t="s">
+      <c r="C5" s="52"/>
+      <c r="D5" s="50" t="s">
         <v>166</v>
       </c>
-      <c r="E4" s="59" t="s">
-        <v>306</v>
-      </c>
-      <c r="F4" s="57" t="s">
-        <v>526</v>
-      </c>
-      <c r="G4" s="57" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="66.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="55" t="s">
+      <c r="E5" s="59" t="s">
+        <v>300</v>
+      </c>
+      <c r="F5" s="57" t="s">
+        <v>519</v>
+      </c>
+      <c r="G5" s="57" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="66.75" customHeight="1">
+      <c r="A6" s="55" t="s">
         <v>161</v>
       </c>
-      <c r="B5" s="60" t="s">
-        <v>179</v>
-      </c>
-      <c r="C5" s="52" t="s">
+      <c r="B6" s="60" t="s">
         <v>173</v>
       </c>
-      <c r="D5" s="50" t="s">
+      <c r="C6" s="52"/>
+      <c r="D6" s="50" t="s">
         <v>167</v>
       </c>
-      <c r="E5" s="59" t="s">
-        <v>307</v>
-      </c>
-      <c r="F5" s="57" t="s">
-        <v>526</v>
-      </c>
-      <c r="G5" s="57" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="66.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="55" t="s">
+      <c r="E6" s="59" t="s">
+        <v>301</v>
+      </c>
+      <c r="F6" s="57" t="s">
+        <v>519</v>
+      </c>
+      <c r="G6" s="57" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="66.75" customHeight="1">
+      <c r="A7" s="55" t="s">
         <v>162</v>
       </c>
-      <c r="B6" s="60" t="s">
-        <v>180</v>
-      </c>
-      <c r="C6" s="52" t="s">
+      <c r="B7" s="60" t="s">
         <v>174</v>
       </c>
-      <c r="D6" s="50" t="s">
+      <c r="C7" s="52"/>
+      <c r="D7" s="50" t="s">
         <v>168</v>
       </c>
-      <c r="E6" s="59" t="s">
-        <v>308</v>
-      </c>
-      <c r="F6" s="57" t="s">
-        <v>526</v>
-      </c>
-      <c r="G6" s="57" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="66.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="55" t="s">
+      <c r="E7" s="59" t="s">
+        <v>302</v>
+      </c>
+      <c r="F7" s="57" t="s">
+        <v>519</v>
+      </c>
+      <c r="G7" s="57" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="66.75" customHeight="1">
+      <c r="A8" s="55" t="s">
         <v>163</v>
       </c>
-      <c r="B7" s="60" t="s">
-        <v>181</v>
-      </c>
-      <c r="C7" s="52" t="s">
+      <c r="B8" s="61" t="s">
         <v>175</v>
       </c>
-      <c r="D7" s="50" t="s">
+      <c r="C8" s="52"/>
+      <c r="D8" s="50" t="s">
         <v>169</v>
       </c>
-      <c r="E7" s="59" t="s">
-        <v>309</v>
-      </c>
-      <c r="F7" s="57" t="s">
-        <v>526</v>
-      </c>
-      <c r="G7" s="57" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="66.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="55" t="s">
-        <v>164</v>
-      </c>
-      <c r="B8" s="61" t="s">
-        <v>182</v>
-      </c>
-      <c r="C8" s="52" t="s">
-        <v>176</v>
-      </c>
-      <c r="D8" s="50" t="s">
-        <v>170</v>
-      </c>
       <c r="E8" s="62" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="F8" s="57" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="G8" s="57" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="128.25" x14ac:dyDescent="0.15">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="128.25">
       <c r="A9" s="22" t="s">
         <v>49</v>
       </c>
@@ -4457,7 +4290,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="28.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="28.5">
       <c r="A10" s="43"/>
       <c r="B10" s="43"/>
       <c r="C10" s="43"/>
@@ -4467,18 +4300,18 @@
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7">
       <c r="F11" s="7"/>
       <c r="G11" s="42"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="F12" s="6"/>
     </row>
-    <row r="13" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="14.25" customHeight="1">
       <c r="A13" s="6"/>
       <c r="B13" s="76" t="s">
         <v>92</v>
@@ -4487,32 +4320,32 @@
       <c r="D13" s="78"/>
       <c r="F13" s="53"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7">
       <c r="A14" s="6"/>
       <c r="B14" s="79"/>
       <c r="C14" s="80"/>
       <c r="D14" s="81"/>
       <c r="F14" s="53"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7">
       <c r="B15" s="79"/>
       <c r="C15" s="80"/>
       <c r="D15" s="81"/>
       <c r="F15" s="53"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7">
       <c r="B16" s="79"/>
       <c r="C16" s="80"/>
       <c r="D16" s="81"/>
       <c r="F16" s="53"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:6">
       <c r="B17" s="82"/>
       <c r="C17" s="83"/>
       <c r="D17" s="84"/>
       <c r="F17" s="53"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:6">
       <c r="F18" s="54"/>
     </row>
   </sheetData>
@@ -4536,7 +4369,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:K27"/>
   <sheetViews>
@@ -4544,7 +4377,7 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="21.625" style="8" customWidth="1"/>
     <col min="2" max="2" width="19" style="8" bestFit="1" customWidth="1"/>
@@ -4560,7 +4393,7 @@
     <col min="12" max="16384" width="8.875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" customFormat="1">
       <c r="A1" s="11" t="s">
         <v>13</v>
       </c>
@@ -4595,7 +4428,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11">
       <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
@@ -4609,13 +4442,13 @@
         <v>136</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="H2" s="12"/>
       <c r="I2" s="12" t="s">
@@ -4626,7 +4459,7 @@
       </c>
       <c r="K2" s="10"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11">
       <c r="A3" s="12" t="s">
         <v>1</v>
       </c>
@@ -4640,13 +4473,13 @@
         <v>136</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="H3" s="12"/>
       <c r="I3" s="12" t="s">
@@ -4657,7 +4490,7 @@
       </c>
       <c r="K3" s="10"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11">
       <c r="A4" s="12" t="s">
         <v>1</v>
       </c>
@@ -4671,13 +4504,13 @@
         <v>136</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="H4" s="12"/>
       <c r="I4" s="12" t="s">
@@ -4688,7 +4521,7 @@
       </c>
       <c r="K4" s="10"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11">
       <c r="A5" s="12" t="s">
         <v>1</v>
       </c>
@@ -4702,13 +4535,13 @@
         <v>136</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="H5" s="12"/>
       <c r="I5" s="12" t="s">
@@ -4719,7 +4552,7 @@
       </c>
       <c r="K5" s="10"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11">
       <c r="A6" s="12" t="s">
         <v>1</v>
       </c>
@@ -4733,13 +4566,13 @@
         <v>136</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="H6" s="12"/>
       <c r="I6" s="12" t="s">
@@ -4750,7 +4583,7 @@
       </c>
       <c r="K6" s="10"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11">
       <c r="A7" s="12" t="s">
         <v>1</v>
       </c>
@@ -4764,13 +4597,13 @@
         <v>136</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="H7" s="12"/>
       <c r="I7" s="12" t="s">
@@ -4781,7 +4614,7 @@
       </c>
       <c r="K7" s="10"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11">
       <c r="A8" s="12" t="s">
         <v>1</v>
       </c>
@@ -4795,13 +4628,13 @@
         <v>136</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="H8" s="12"/>
       <c r="I8" s="12" t="s">
@@ -4812,7 +4645,7 @@
       </c>
       <c r="K8" s="10"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11">
       <c r="A9" s="12" t="s">
         <v>1</v>
       </c>
@@ -4826,13 +4659,13 @@
         <v>136</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="H9" s="12"/>
       <c r="I9" s="12" t="s">
@@ -4843,7 +4676,7 @@
       </c>
       <c r="K9" s="10"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11">
       <c r="A10" s="12" t="s">
         <v>1</v>
       </c>
@@ -4857,13 +4690,13 @@
         <v>136</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="H10" s="12"/>
       <c r="I10" s="12" t="s">
@@ -4874,7 +4707,7 @@
       </c>
       <c r="K10" s="10"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11">
       <c r="A11" s="12" t="s">
         <v>1</v>
       </c>
@@ -4888,13 +4721,13 @@
         <v>136</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="H11" s="12"/>
       <c r="I11" s="12" t="s">
@@ -4905,7 +4738,7 @@
       </c>
       <c r="K11" s="10"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11">
       <c r="A12" s="12" t="s">
         <v>1</v>
       </c>
@@ -4919,13 +4752,13 @@
         <v>136</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="H12" s="12"/>
       <c r="I12" s="12" t="s">
@@ -4936,7 +4769,7 @@
       </c>
       <c r="K12" s="10"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11">
       <c r="A13" s="12" t="s">
         <v>1</v>
       </c>
@@ -4950,13 +4783,13 @@
         <v>136</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="H13" s="12"/>
       <c r="I13" s="12" t="s">
@@ -4967,7 +4800,7 @@
       </c>
       <c r="K13" s="10"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11">
       <c r="A14" s="12" t="s">
         <v>1</v>
       </c>
@@ -4981,13 +4814,13 @@
         <v>136</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="H14" s="12"/>
       <c r="I14" s="12" t="s">
@@ -4998,7 +4831,7 @@
       </c>
       <c r="K14" s="10"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11">
       <c r="A15" s="12" t="s">
         <v>1</v>
       </c>
@@ -5012,13 +4845,13 @@
         <v>136</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="H15" s="12"/>
       <c r="I15" s="12" t="s">
@@ -5029,7 +4862,7 @@
       </c>
       <c r="K15" s="10"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:11">
       <c r="A16" s="12" t="s">
         <v>11</v>
       </c>
@@ -5048,7 +4881,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="10"/>
     </row>
-    <row r="17" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:11" s="21" customFormat="1">
       <c r="A17" s="23"/>
       <c r="B17" s="24"/>
       <c r="C17" s="24"/>
@@ -5063,7 +4896,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="41" customFormat="1" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:11" s="41" customFormat="1" ht="148.5">
       <c r="A18" s="38" t="s">
         <v>41</v>
       </c>
@@ -5096,15 +4929,15 @@
       </c>
       <c r="K18" s="40"/>
     </row>
-    <row r="19" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:11" s="17" customFormat="1">
       <c r="D19" s="18"/>
       <c r="K19" s="19"/>
     </row>
-    <row r="20" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:11" s="17" customFormat="1">
       <c r="D20" s="18"/>
       <c r="K20" s="19"/>
     </row>
-    <row r="21" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:11" ht="14.25" customHeight="1">
       <c r="B21" s="85" t="s">
         <v>91</v>
       </c>
@@ -5112,37 +4945,37 @@
       <c r="D21" s="86"/>
       <c r="E21" s="87"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:11">
       <c r="B22" s="88"/>
       <c r="C22" s="89"/>
       <c r="D22" s="89"/>
       <c r="E22" s="90"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:11">
       <c r="B23" s="88"/>
       <c r="C23" s="89"/>
       <c r="D23" s="89"/>
       <c r="E23" s="90"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:11">
       <c r="B24" s="88"/>
       <c r="C24" s="89"/>
       <c r="D24" s="89"/>
       <c r="E24" s="90"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:11">
       <c r="B25" s="88"/>
       <c r="C25" s="89"/>
       <c r="D25" s="89"/>
       <c r="E25" s="90"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:11">
       <c r="B26" s="88"/>
       <c r="C26" s="89"/>
       <c r="D26" s="89"/>
       <c r="E26" s="90"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:11">
       <c r="B27" s="91"/>
       <c r="C27" s="92"/>
       <c r="D27" s="92"/>
@@ -5190,14 +5023,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="21.625" style="8" customWidth="1"/>
     <col min="2" max="2" width="19" style="8" bestFit="1" customWidth="1"/>
@@ -5213,7 +5046,7 @@
     <col min="12" max="16384" width="8.875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" customFormat="1">
       <c r="A1" s="11" t="s">
         <v>13</v>
       </c>
@@ -5248,255 +5081,255 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11">
       <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="D2" s="47" t="s">
         <v>136</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="H2" s="12"/>
       <c r="I2" s="12" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="J2" s="12" t="s">
         <v>10</v>
       </c>
       <c r="K2" s="10"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11">
       <c r="A3" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="C3" s="12" t="s">
         <v>244</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>251</v>
       </c>
       <c r="D3" s="47" t="s">
         <v>136</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="H3" s="12"/>
       <c r="I3" s="12" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="J3" s="12" t="s">
         <v>10</v>
       </c>
       <c r="K3" s="10"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11">
       <c r="A4" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="D4" s="47" t="s">
         <v>136</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="H4" s="12"/>
       <c r="I4" s="12" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="J4" s="12" t="s">
         <v>10</v>
       </c>
       <c r="K4" s="10"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11">
       <c r="A5" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="D5" s="47" t="s">
         <v>136</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="H5" s="12"/>
       <c r="I5" s="12" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="J5" s="12" t="s">
         <v>10</v>
       </c>
       <c r="K5" s="10"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11">
       <c r="A6" s="12" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="D6" s="47" t="s">
         <v>136</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="H6" s="12"/>
       <c r="I6" s="12" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="J6" s="12" t="s">
         <v>10</v>
       </c>
       <c r="K6" s="10"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11">
       <c r="A7" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="D7" s="47" t="s">
         <v>136</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="H7" s="12"/>
       <c r="I7" s="12" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="J7" s="12" t="s">
         <v>10</v>
       </c>
       <c r="K7" s="10"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11">
       <c r="A8" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="D8" s="47" t="s">
         <v>136</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="H8" s="12"/>
       <c r="I8" s="12" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="J8" s="12" t="s">
         <v>10</v>
       </c>
       <c r="K8" s="10"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11">
       <c r="A9" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="D9" s="47" t="s">
         <v>136</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="H9" s="12"/>
       <c r="I9" s="12" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="J9" s="12" t="s">
         <v>10</v>
       </c>
       <c r="K9" s="10"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11">
       <c r="A10" s="12" t="s">
         <v>11</v>
       </c>
@@ -5506,7 +5339,7 @@
       <c r="C10" s="12"/>
       <c r="D10" s="47"/>
       <c r="E10" s="13" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
@@ -5515,7 +5348,7 @@
       <c r="J10" s="12"/>
       <c r="K10" s="10"/>
     </row>
-    <row r="11" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" s="21" customFormat="1">
       <c r="A11" s="23"/>
       <c r="B11" s="24"/>
       <c r="C11" s="24"/>
@@ -5530,7 +5363,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="41" customFormat="1" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11" s="41" customFormat="1" ht="148.5">
       <c r="A12" s="38" t="s">
         <v>41</v>
       </c>
@@ -5563,15 +5396,15 @@
       </c>
       <c r="K12" s="40"/>
     </row>
-    <row r="13" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11" s="17" customFormat="1">
       <c r="D13" s="18"/>
       <c r="K13" s="19"/>
     </row>
-    <row r="14" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11" s="17" customFormat="1">
       <c r="D14" s="18"/>
       <c r="K14" s="19"/>
     </row>
-    <row r="15" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11" ht="14.25" customHeight="1">
       <c r="B15" s="85" t="s">
         <v>91</v>
       </c>
@@ -5579,37 +5412,37 @@
       <c r="D15" s="86"/>
       <c r="E15" s="87"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:11">
       <c r="B16" s="88"/>
       <c r="C16" s="89"/>
       <c r="D16" s="89"/>
       <c r="E16" s="90"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:5">
       <c r="B17" s="88"/>
       <c r="C17" s="89"/>
       <c r="D17" s="89"/>
       <c r="E17" s="90"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:5">
       <c r="B18" s="88"/>
       <c r="C18" s="89"/>
       <c r="D18" s="89"/>
       <c r="E18" s="90"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:5">
       <c r="B19" s="88"/>
       <c r="C19" s="89"/>
       <c r="D19" s="89"/>
       <c r="E19" s="90"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:5">
       <c r="B20" s="88"/>
       <c r="C20" s="89"/>
       <c r="D20" s="89"/>
       <c r="E20" s="90"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:5">
       <c r="B21" s="91"/>
       <c r="C21" s="92"/>
       <c r="D21" s="92"/>
@@ -5654,14 +5487,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="21.625" style="8" customWidth="1"/>
     <col min="2" max="2" width="19" style="8" bestFit="1" customWidth="1"/>
@@ -5677,7 +5510,7 @@
     <col min="12" max="16384" width="8.875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" customFormat="1">
       <c r="A1" s="11" t="s">
         <v>13</v>
       </c>
@@ -5712,224 +5545,224 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11">
       <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="D2" s="47" t="s">
         <v>136</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="H2" s="12"/>
       <c r="I2" s="12" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="J2" s="12" t="s">
         <v>10</v>
       </c>
       <c r="K2" s="10"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11">
       <c r="A3" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="D3" s="47" t="s">
         <v>136</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="H3" s="12"/>
       <c r="I3" s="12" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="J3" s="12" t="s">
         <v>10</v>
       </c>
       <c r="K3" s="10"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11">
       <c r="A4" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="D4" s="47" t="s">
         <v>136</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="H4" s="12"/>
       <c r="I4" s="12" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="J4" s="12" t="s">
         <v>10</v>
       </c>
       <c r="K4" s="10"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11">
       <c r="A5" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="D5" s="47" t="s">
         <v>136</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="H5" s="12"/>
       <c r="I5" s="12" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="J5" s="12" t="s">
         <v>10</v>
       </c>
       <c r="K5" s="10"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11">
       <c r="A6" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="D6" s="47" t="s">
         <v>136</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="H6" s="12"/>
       <c r="I6" s="12" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="J6" s="12" t="s">
         <v>10</v>
       </c>
       <c r="K6" s="10"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11">
       <c r="A7" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="D7" s="47" t="s">
         <v>136</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="H7" s="12"/>
       <c r="I7" s="12" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="J7" s="12" t="s">
         <v>10</v>
       </c>
       <c r="K7" s="10"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11">
       <c r="A8" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="D8" s="47" t="s">
         <v>136</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="H8" s="12"/>
       <c r="I8" s="12" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="J8" s="12" t="s">
         <v>10</v>
       </c>
       <c r="K8" s="10"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11">
       <c r="A9" s="12" t="s">
         <v>11</v>
       </c>
@@ -5939,7 +5772,7 @@
       <c r="C9" s="12"/>
       <c r="D9" s="47"/>
       <c r="E9" s="13" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
@@ -5948,7 +5781,7 @@
       <c r="J9" s="12"/>
       <c r="K9" s="10"/>
     </row>
-    <row r="10" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" s="21" customFormat="1">
       <c r="A10" s="23"/>
       <c r="B10" s="24"/>
       <c r="C10" s="24"/>
@@ -5963,7 +5796,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="41" customFormat="1" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" s="41" customFormat="1" ht="148.5">
       <c r="A11" s="38" t="s">
         <v>41</v>
       </c>
@@ -5996,15 +5829,15 @@
       </c>
       <c r="K11" s="40"/>
     </row>
-    <row r="12" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11" s="17" customFormat="1">
       <c r="D12" s="18"/>
       <c r="K12" s="19"/>
     </row>
-    <row r="13" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11" s="17" customFormat="1">
       <c r="D13" s="18"/>
       <c r="K13" s="19"/>
     </row>
-    <row r="14" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11" ht="14.25" customHeight="1">
       <c r="B14" s="85" t="s">
         <v>91</v>
       </c>
@@ -6012,37 +5845,37 @@
       <c r="D14" s="86"/>
       <c r="E14" s="87"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11">
       <c r="B15" s="88"/>
       <c r="C15" s="89"/>
       <c r="D15" s="89"/>
       <c r="E15" s="90"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:11">
       <c r="B16" s="88"/>
       <c r="C16" s="89"/>
       <c r="D16" s="89"/>
       <c r="E16" s="90"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:5">
       <c r="B17" s="88"/>
       <c r="C17" s="89"/>
       <c r="D17" s="89"/>
       <c r="E17" s="90"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:5">
       <c r="B18" s="88"/>
       <c r="C18" s="89"/>
       <c r="D18" s="89"/>
       <c r="E18" s="90"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:5">
       <c r="B19" s="88"/>
       <c r="C19" s="89"/>
       <c r="D19" s="89"/>
       <c r="E19" s="90"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:5">
       <c r="B20" s="91"/>
       <c r="C20" s="92"/>
       <c r="D20" s="92"/>
@@ -6087,14 +5920,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="21.625" style="8" customWidth="1"/>
     <col min="2" max="2" width="19" style="8" bestFit="1" customWidth="1"/>
@@ -6110,7 +5943,7 @@
     <col min="12" max="16384" width="8.875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" customFormat="1">
       <c r="A1" s="11" t="s">
         <v>13</v>
       </c>
@@ -6145,286 +5978,286 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11">
       <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="D2" s="47" t="s">
         <v>136</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="H2" s="12"/>
       <c r="I2" s="12" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="J2" s="12" t="s">
         <v>10</v>
       </c>
       <c r="K2" s="10"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11">
       <c r="A3" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="D3" s="47" t="s">
         <v>136</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="H3" s="12"/>
       <c r="I3" s="12" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="J3" s="12" t="s">
         <v>10</v>
       </c>
       <c r="K3" s="10"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11">
       <c r="A4" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="D4" s="47" t="s">
         <v>136</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="H4" s="12"/>
       <c r="I4" s="12" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="J4" s="12" t="s">
         <v>10</v>
       </c>
       <c r="K4" s="10"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11">
       <c r="A5" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="D5" s="47" t="s">
         <v>136</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="H5" s="12"/>
       <c r="I5" s="12" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="J5" s="12" t="s">
         <v>10</v>
       </c>
       <c r="K5" s="10"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11">
       <c r="A6" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="D6" s="47" t="s">
         <v>136</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="H6" s="12"/>
       <c r="I6" s="12" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="J6" s="12" t="s">
         <v>10</v>
       </c>
       <c r="K6" s="10"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11">
       <c r="A7" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="D7" s="47" t="s">
         <v>136</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="H7" s="12"/>
       <c r="I7" s="12" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="J7" s="12" t="s">
         <v>10</v>
       </c>
       <c r="K7" s="10"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11">
       <c r="A8" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="D8" s="47" t="s">
         <v>136</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="H8" s="12"/>
       <c r="I8" s="12" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="J8" s="12" t="s">
         <v>10</v>
       </c>
       <c r="K8" s="10"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11">
       <c r="A9" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="D9" s="47" t="s">
         <v>136</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="H9" s="12"/>
       <c r="I9" s="12" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="J9" s="12" t="s">
         <v>10</v>
       </c>
       <c r="K9" s="10"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11">
       <c r="A10" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D10" s="47" t="s">
         <v>136</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="H10" s="12"/>
       <c r="I10" s="12" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="J10" s="12" t="s">
         <v>10</v>
       </c>
       <c r="K10" s="10"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11">
       <c r="A11" s="12" t="s">
         <v>11</v>
       </c>
@@ -6434,7 +6267,7 @@
       <c r="C11" s="12"/>
       <c r="D11" s="47"/>
       <c r="E11" s="13" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
@@ -6443,7 +6276,7 @@
       <c r="J11" s="12"/>
       <c r="K11" s="10"/>
     </row>
-    <row r="12" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11" s="21" customFormat="1">
       <c r="A12" s="23"/>
       <c r="B12" s="24"/>
       <c r="C12" s="24"/>
@@ -6458,7 +6291,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="41" customFormat="1" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11" s="41" customFormat="1" ht="148.5">
       <c r="A13" s="38" t="s">
         <v>41</v>
       </c>
@@ -6491,15 +6324,15 @@
       </c>
       <c r="K13" s="40"/>
     </row>
-    <row r="14" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11" s="17" customFormat="1">
       <c r="D14" s="18"/>
       <c r="K14" s="19"/>
     </row>
-    <row r="15" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11" s="17" customFormat="1">
       <c r="D15" s="18"/>
       <c r="K15" s="19"/>
     </row>
-    <row r="16" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:11" ht="14.25" customHeight="1">
       <c r="B16" s="85" t="s">
         <v>91</v>
       </c>
@@ -6507,37 +6340,37 @@
       <c r="D16" s="86"/>
       <c r="E16" s="87"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:5">
       <c r="B17" s="88"/>
       <c r="C17" s="89"/>
       <c r="D17" s="89"/>
       <c r="E17" s="90"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:5">
       <c r="B18" s="88"/>
       <c r="C18" s="89"/>
       <c r="D18" s="89"/>
       <c r="E18" s="90"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:5">
       <c r="B19" s="88"/>
       <c r="C19" s="89"/>
       <c r="D19" s="89"/>
       <c r="E19" s="90"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:5">
       <c r="B20" s="88"/>
       <c r="C20" s="89"/>
       <c r="D20" s="89"/>
       <c r="E20" s="90"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:5">
       <c r="B21" s="88"/>
       <c r="C21" s="89"/>
       <c r="D21" s="89"/>
       <c r="E21" s="90"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:5">
       <c r="B22" s="91"/>
       <c r="C22" s="92"/>
       <c r="D22" s="92"/>
@@ -6582,14 +6415,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="21.625" style="8" customWidth="1"/>
     <col min="2" max="2" width="19" style="8" bestFit="1" customWidth="1"/>
@@ -6605,7 +6438,7 @@
     <col min="12" max="16384" width="8.875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" customFormat="1">
       <c r="A1" s="11" t="s">
         <v>13</v>
       </c>
@@ -6640,348 +6473,348 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11">
       <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="D2" s="47" t="s">
         <v>136</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="H2" s="12"/>
       <c r="I2" s="13" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="J2" s="12" t="s">
         <v>10</v>
       </c>
       <c r="K2" s="10"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11">
       <c r="A3" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="D3" s="47" t="s">
         <v>136</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="H3" s="12"/>
       <c r="I3" s="12" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="J3" s="12" t="s">
         <v>10</v>
       </c>
       <c r="K3" s="10"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11">
       <c r="A4" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="D4" s="47" t="s">
         <v>136</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="H4" s="12"/>
       <c r="I4" s="12" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="J4" s="12" t="s">
         <v>10</v>
       </c>
       <c r="K4" s="10"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11">
       <c r="A5" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="D5" s="47" t="s">
         <v>136</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="H5" s="12"/>
       <c r="I5" s="12" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="J5" s="12" t="s">
         <v>10</v>
       </c>
       <c r="K5" s="10"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11">
       <c r="A6" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="D6" s="47" t="s">
         <v>136</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H6" s="12"/>
       <c r="I6" s="12" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="J6" s="12" t="s">
         <v>10</v>
       </c>
       <c r="K6" s="10"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11">
       <c r="A7" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="D7" s="47" t="s">
         <v>136</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="H7" s="12"/>
       <c r="I7" s="12" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="J7" s="12" t="s">
         <v>10</v>
       </c>
       <c r="K7" s="10"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11">
       <c r="A8" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="D8" s="47" t="s">
         <v>136</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="H8" s="12"/>
       <c r="I8" s="12" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="J8" s="12" t="s">
         <v>10</v>
       </c>
       <c r="K8" s="10"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11">
       <c r="A9" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="D9" s="47" t="s">
         <v>136</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="H9" s="12"/>
       <c r="I9" s="12" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="J9" s="12" t="s">
         <v>10</v>
       </c>
       <c r="K9" s="10"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11">
       <c r="A10" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="D10" s="47" t="s">
         <v>136</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="H10" s="12"/>
       <c r="I10" s="12" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="J10" s="12" t="s">
         <v>10</v>
       </c>
       <c r="K10" s="10"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11">
       <c r="A11" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="D11" s="47" t="s">
         <v>136</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="H11" s="12"/>
       <c r="I11" s="12" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="J11" s="12" t="s">
         <v>10</v>
       </c>
       <c r="K11" s="10"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11">
       <c r="A12" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="D12" s="47" t="s">
         <v>136</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="H12" s="12"/>
       <c r="I12" s="12" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="J12" s="12" t="s">
         <v>10</v>
       </c>
       <c r="K12" s="10"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11">
       <c r="A13" s="12" t="s">
         <v>11</v>
       </c>
@@ -6991,7 +6824,7 @@
       <c r="C13" s="12"/>
       <c r="D13" s="47"/>
       <c r="E13" s="13" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
@@ -7000,7 +6833,7 @@
       <c r="J13" s="12"/>
       <c r="K13" s="10"/>
     </row>
-    <row r="14" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11" s="21" customFormat="1">
       <c r="A14" s="23"/>
       <c r="B14" s="24"/>
       <c r="C14" s="24"/>
@@ -7015,7 +6848,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="41" customFormat="1" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11" s="41" customFormat="1" ht="148.5">
       <c r="A15" s="38" t="s">
         <v>41</v>
       </c>
@@ -7048,15 +6881,15 @@
       </c>
       <c r="K15" s="40"/>
     </row>
-    <row r="16" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:11" s="17" customFormat="1">
       <c r="D16" s="18"/>
       <c r="K16" s="19"/>
     </row>
-    <row r="17" spans="2:11" s="17" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:11" s="17" customFormat="1">
       <c r="D17" s="18"/>
       <c r="K17" s="19"/>
     </row>
-    <row r="18" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:11" ht="14.25" customHeight="1">
       <c r="B18" s="85" t="s">
         <v>91</v>
       </c>
@@ -7064,37 +6897,37 @@
       <c r="D18" s="86"/>
       <c r="E18" s="87"/>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:11">
       <c r="B19" s="88"/>
       <c r="C19" s="89"/>
       <c r="D19" s="89"/>
       <c r="E19" s="90"/>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:11">
       <c r="B20" s="88"/>
       <c r="C20" s="89"/>
       <c r="D20" s="89"/>
       <c r="E20" s="90"/>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:11">
       <c r="B21" s="88"/>
       <c r="C21" s="89"/>
       <c r="D21" s="89"/>
       <c r="E21" s="90"/>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:11">
       <c r="B22" s="88"/>
       <c r="C22" s="89"/>
       <c r="D22" s="89"/>
       <c r="E22" s="90"/>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:11">
       <c r="B23" s="88"/>
       <c r="C23" s="89"/>
       <c r="D23" s="89"/>
       <c r="E23" s="90"/>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:11">
       <c r="B24" s="91"/>
       <c r="C24" s="92"/>
       <c r="D24" s="92"/>
@@ -7140,14 +6973,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="21.625" style="8" customWidth="1"/>
     <col min="2" max="2" width="19" style="8" bestFit="1" customWidth="1"/>
@@ -7163,7 +6996,7 @@
     <col min="12" max="16384" width="8.875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" customFormat="1">
       <c r="A1" s="11" t="s">
         <v>13</v>
       </c>
@@ -7198,255 +7031,255 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11">
       <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="D2" s="47" t="s">
         <v>136</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="H2" s="12"/>
       <c r="I2" s="12" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="J2" s="12" t="s">
         <v>10</v>
       </c>
       <c r="K2" s="10"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11">
       <c r="A3" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="D3" s="47" t="s">
         <v>136</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="H3" s="12"/>
       <c r="I3" s="12" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="J3" s="12" t="s">
         <v>10</v>
       </c>
       <c r="K3" s="10"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11">
       <c r="A4" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="D4" s="47" t="s">
         <v>136</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="H4" s="12"/>
       <c r="I4" s="12" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="J4" s="12" t="s">
         <v>10</v>
       </c>
       <c r="K4" s="10"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11">
       <c r="A5" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="D5" s="47" t="s">
         <v>136</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="H5" s="12"/>
       <c r="I5" s="12" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="J5" s="12" t="s">
         <v>10</v>
       </c>
       <c r="K5" s="10"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11">
       <c r="A6" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="D6" s="47" t="s">
         <v>136</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="H6" s="12"/>
       <c r="I6" s="12" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="J6" s="12" t="s">
         <v>10</v>
       </c>
       <c r="K6" s="10"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11">
       <c r="A7" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="D7" s="47" t="s">
         <v>136</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="H7" s="12"/>
       <c r="I7" s="12" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="J7" s="12" t="s">
         <v>10</v>
       </c>
       <c r="K7" s="10"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11">
       <c r="A8" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="D8" s="47" t="s">
         <v>136</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="H8" s="12"/>
       <c r="I8" s="12" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="J8" s="12" t="s">
         <v>10</v>
       </c>
       <c r="K8" s="10"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11">
       <c r="A9" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="D9" s="47" t="s">
         <v>136</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="H9" s="12"/>
       <c r="I9" s="12" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="J9" s="12" t="s">
         <v>10</v>
       </c>
       <c r="K9" s="10"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11">
       <c r="A10" s="12" t="s">
         <v>11</v>
       </c>
@@ -7456,7 +7289,7 @@
       <c r="C10" s="12"/>
       <c r="D10" s="47"/>
       <c r="E10" s="13" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
@@ -7465,7 +7298,7 @@
       <c r="J10" s="12"/>
       <c r="K10" s="10"/>
     </row>
-    <row r="11" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" s="21" customFormat="1">
       <c r="A11" s="23"/>
       <c r="B11" s="24"/>
       <c r="C11" s="24"/>
@@ -7480,7 +7313,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="41" customFormat="1" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11" s="41" customFormat="1" ht="148.5">
       <c r="A12" s="38" t="s">
         <v>41</v>
       </c>
@@ -7513,15 +7346,15 @@
       </c>
       <c r="K12" s="40"/>
     </row>
-    <row r="13" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11" s="17" customFormat="1">
       <c r="D13" s="18"/>
       <c r="K13" s="19"/>
     </row>
-    <row r="14" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11" s="17" customFormat="1">
       <c r="D14" s="18"/>
       <c r="K14" s="19"/>
     </row>
-    <row r="15" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11" ht="14.25" customHeight="1">
       <c r="B15" s="85" t="s">
         <v>91</v>
       </c>
@@ -7529,37 +7362,37 @@
       <c r="D15" s="86"/>
       <c r="E15" s="87"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:11">
       <c r="B16" s="88"/>
       <c r="C16" s="89"/>
       <c r="D16" s="89"/>
       <c r="E16" s="90"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:5">
       <c r="B17" s="88"/>
       <c r="C17" s="89"/>
       <c r="D17" s="89"/>
       <c r="E17" s="90"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:5">
       <c r="B18" s="88"/>
       <c r="C18" s="89"/>
       <c r="D18" s="89"/>
       <c r="E18" s="90"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:5">
       <c r="B19" s="88"/>
       <c r="C19" s="89"/>
       <c r="D19" s="89"/>
       <c r="E19" s="90"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:5">
       <c r="B20" s="88"/>
       <c r="C20" s="89"/>
       <c r="D20" s="89"/>
       <c r="E20" s="90"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:5">
       <c r="B21" s="91"/>
       <c r="C21" s="92"/>
       <c r="D21" s="92"/>
@@ -7604,14 +7437,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="21.625" style="8" customWidth="1"/>
     <col min="2" max="2" width="19" style="8" bestFit="1" customWidth="1"/>
@@ -7627,7 +7460,7 @@
     <col min="12" max="16384" width="8.875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" customFormat="1">
       <c r="A1" s="11" t="s">
         <v>13</v>
       </c>
@@ -7662,379 +7495,379 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11">
       <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="D2" s="47" t="s">
         <v>136</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="H2" s="12"/>
       <c r="I2" s="12" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="J2" s="12" t="s">
         <v>10</v>
       </c>
       <c r="K2" s="10"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11">
       <c r="A3" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="D3" s="47" t="s">
         <v>136</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="H3" s="12"/>
       <c r="I3" s="12" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="J3" s="12" t="s">
         <v>10</v>
       </c>
       <c r="K3" s="10"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11">
       <c r="A4" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="D4" s="47" t="s">
         <v>136</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="H4" s="12"/>
       <c r="I4" s="12" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="J4" s="12" t="s">
         <v>10</v>
       </c>
       <c r="K4" s="10"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11">
       <c r="A5" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="D5" s="47" t="s">
         <v>136</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="H5" s="12"/>
       <c r="I5" s="12" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="J5" s="12" t="s">
         <v>10</v>
       </c>
       <c r="K5" s="10"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11">
       <c r="A6" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="D6" s="47" t="s">
         <v>136</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="H6" s="12"/>
       <c r="I6" s="12" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="J6" s="12" t="s">
         <v>10</v>
       </c>
       <c r="K6" s="10"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11">
       <c r="A7" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="D7" s="47" t="s">
         <v>136</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="H7" s="12"/>
       <c r="I7" s="12" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="J7" s="12" t="s">
         <v>10</v>
       </c>
       <c r="K7" s="10"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11">
       <c r="A8" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="D8" s="47" t="s">
         <v>136</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="H8" s="12"/>
       <c r="I8" s="12" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="J8" s="12" t="s">
         <v>10</v>
       </c>
       <c r="K8" s="10"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11">
       <c r="A9" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="D9" s="47" t="s">
         <v>136</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="H9" s="12"/>
       <c r="I9" s="12" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="J9" s="12" t="s">
         <v>10</v>
       </c>
       <c r="K9" s="10"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11">
       <c r="A10" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="D10" s="47" t="s">
         <v>136</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="H10" s="12"/>
       <c r="I10" s="12" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="J10" s="12" t="s">
         <v>10</v>
       </c>
       <c r="K10" s="10"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11">
       <c r="A11" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="D11" s="47" t="s">
         <v>136</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="H11" s="12"/>
       <c r="I11" s="12" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="J11" s="12" t="s">
         <v>10</v>
       </c>
       <c r="K11" s="10"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11">
       <c r="A12" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="D12" s="47" t="s">
         <v>136</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="H12" s="12"/>
       <c r="I12" s="12" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="J12" s="12" t="s">
         <v>10</v>
       </c>
       <c r="K12" s="10"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11">
       <c r="A13" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="D13" s="47" t="s">
         <v>136</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="H13" s="12"/>
       <c r="I13" s="12" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="J13" s="12" t="s">
         <v>10</v>
       </c>
       <c r="K13" s="10"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11">
       <c r="A14" s="12" t="s">
         <v>11</v>
       </c>
@@ -8044,7 +7877,7 @@
       <c r="C14" s="12"/>
       <c r="D14" s="47"/>
       <c r="E14" s="13" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
@@ -8053,7 +7886,7 @@
       <c r="J14" s="12"/>
       <c r="K14" s="10"/>
     </row>
-    <row r="15" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11" s="21" customFormat="1">
       <c r="A15" s="23"/>
       <c r="B15" s="24"/>
       <c r="C15" s="24"/>
@@ -8068,7 +7901,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="41" customFormat="1" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:11" s="41" customFormat="1" ht="148.5">
       <c r="A16" s="38" t="s">
         <v>41</v>
       </c>
@@ -8101,15 +7934,15 @@
       </c>
       <c r="K16" s="40"/>
     </row>
-    <row r="17" spans="2:11" s="17" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:11" s="17" customFormat="1">
       <c r="D17" s="18"/>
       <c r="K17" s="19"/>
     </row>
-    <row r="18" spans="2:11" s="17" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:11" s="17" customFormat="1">
       <c r="D18" s="18"/>
       <c r="K18" s="19"/>
     </row>
-    <row r="19" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:11" ht="14.25" customHeight="1">
       <c r="B19" s="85" t="s">
         <v>91</v>
       </c>
@@ -8117,37 +7950,37 @@
       <c r="D19" s="86"/>
       <c r="E19" s="87"/>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:11">
       <c r="B20" s="88"/>
       <c r="C20" s="89"/>
       <c r="D20" s="89"/>
       <c r="E20" s="90"/>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:11">
       <c r="B21" s="88"/>
       <c r="C21" s="89"/>
       <c r="D21" s="89"/>
       <c r="E21" s="90"/>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:11">
       <c r="B22" s="88"/>
       <c r="C22" s="89"/>
       <c r="D22" s="89"/>
       <c r="E22" s="90"/>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:11">
       <c r="B23" s="88"/>
       <c r="C23" s="89"/>
       <c r="D23" s="89"/>
       <c r="E23" s="90"/>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:11">
       <c r="B24" s="88"/>
       <c r="C24" s="89"/>
       <c r="D24" s="89"/>
       <c r="E24" s="90"/>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:11">
       <c r="B25" s="91"/>
       <c r="C25" s="92"/>
       <c r="D25" s="92"/>

--- a/structure-books_network1.xlsx
+++ b/structure-books_network1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17730" windowHeight="8175" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17730" windowHeight="8175"/>
   </bookViews>
   <sheets>
     <sheet name="series-information" sheetId="37" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="vol-7" sheetId="44" r:id="rId9"/>
     <sheet name="書籍構成シート選択用" sheetId="35" state="hidden" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1066,10 +1066,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>http://in1.chilobook.net</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>CHiLO</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -2294,6 +2290,10 @@
   </si>
   <si>
     <t>http://proxy.chilos.jp/co001</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>http://proxy.chilos.jp/p001</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -3646,7 +3646,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3657,7 +3657,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -3673,7 +3675,7 @@
         <v>81</v>
       </c>
       <c r="B1" s="34">
-        <v>1</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="C1" s="32" t="s">
         <v>82</v>
@@ -3788,13 +3790,13 @@
     </row>
     <row r="10" spans="1:5" ht="13.5" customHeight="1">
       <c r="A10" s="33" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B10" s="36">
-        <v>42094</v>
+        <v>42188</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D10" s="64"/>
     </row>
@@ -3843,7 +3845,7 @@
         <v>72</v>
       </c>
       <c r="B14" s="46" t="s">
-        <v>141</v>
+        <v>519</v>
       </c>
       <c r="C14" s="32" t="s">
         <v>34</v>
@@ -3868,16 +3870,16 @@
     </row>
     <row r="16" spans="1:5" ht="14.25">
       <c r="A16" s="33" t="s">
+        <v>144</v>
+      </c>
+      <c r="B16" s="46" t="s">
         <v>145</v>
       </c>
-      <c r="B16" s="46" t="s">
+      <c r="C16" s="32" t="s">
         <v>146</v>
       </c>
-      <c r="C16" s="32" t="s">
+      <c r="D16" s="49" t="s">
         <v>147</v>
-      </c>
-      <c r="D16" s="49" t="s">
-        <v>148</v>
       </c>
       <c r="E16" s="75" t="s">
         <v>96</v>
@@ -3903,7 +3905,7 @@
         <v>75</v>
       </c>
       <c r="B18" s="45" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C18" s="32" t="s">
         <v>76</v>
@@ -3916,7 +3918,7 @@
         <v>77</v>
       </c>
       <c r="B19" s="34" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C19" s="32" t="s">
         <v>78</v>
@@ -3929,7 +3931,7 @@
         <v>79</v>
       </c>
       <c r="B20" s="34" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C20" s="32" t="s">
         <v>80</v>
@@ -4082,7 +4084,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -4108,10 +4110,10 @@
         <v>19</v>
       </c>
       <c r="D1" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E1" s="26" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>20</v>
@@ -4129,142 +4131,142 @@
       </c>
       <c r="C2" s="52"/>
       <c r="D2" s="50" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E2" s="59" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F2" s="57" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="G2" s="57" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="66.75" customHeight="1">
       <c r="A3" s="55" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B3" s="60" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C3" s="52"/>
       <c r="D3" s="50" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E3" s="59" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F3" s="57" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="G3" s="57" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="66.75" customHeight="1">
       <c r="A4" s="55" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B4" s="60" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C4" s="52"/>
       <c r="D4" s="50" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E4" s="59" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F4" s="57" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="G4" s="57" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="66.75" customHeight="1">
       <c r="A5" s="55" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B5" s="60" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C5" s="52"/>
       <c r="D5" s="50" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E5" s="59" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F5" s="57" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="G5" s="57" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="66.75" customHeight="1">
       <c r="A6" s="55" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B6" s="60" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C6" s="52"/>
       <c r="D6" s="50" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E6" s="59" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F6" s="57" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="G6" s="57" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="66.75" customHeight="1">
       <c r="A7" s="55" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B7" s="60" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C7" s="52"/>
       <c r="D7" s="50" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E7" s="59" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F7" s="57" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="G7" s="57" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="66.75" customHeight="1">
       <c r="A8" s="55" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B8" s="61" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C8" s="52"/>
       <c r="D8" s="50" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E8" s="62" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F8" s="57" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="G8" s="57" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="128.25">
@@ -4278,10 +4280,10 @@
         <v>51</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F9" s="22" t="s">
         <v>39</v>
@@ -4442,13 +4444,13 @@
         <v>136</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H2" s="12"/>
       <c r="I2" s="12" t="s">
@@ -4473,13 +4475,13 @@
         <v>136</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H3" s="12"/>
       <c r="I3" s="12" t="s">
@@ -4504,13 +4506,13 @@
         <v>136</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H4" s="12"/>
       <c r="I4" s="12" t="s">
@@ -4535,13 +4537,13 @@
         <v>136</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H5" s="12"/>
       <c r="I5" s="12" t="s">
@@ -4566,13 +4568,13 @@
         <v>136</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H6" s="12"/>
       <c r="I6" s="12" t="s">
@@ -4597,13 +4599,13 @@
         <v>136</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H7" s="12"/>
       <c r="I7" s="12" t="s">
@@ -4628,13 +4630,13 @@
         <v>136</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H8" s="12"/>
       <c r="I8" s="12" t="s">
@@ -4659,13 +4661,13 @@
         <v>136</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H9" s="12"/>
       <c r="I9" s="12" t="s">
@@ -4690,13 +4692,13 @@
         <v>136</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H10" s="12"/>
       <c r="I10" s="12" t="s">
@@ -4721,13 +4723,13 @@
         <v>136</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H11" s="12"/>
       <c r="I11" s="12" t="s">
@@ -4752,13 +4754,13 @@
         <v>136</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H12" s="12"/>
       <c r="I12" s="12" t="s">
@@ -4783,13 +4785,13 @@
         <v>136</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H13" s="12"/>
       <c r="I13" s="12" t="s">
@@ -4814,13 +4816,13 @@
         <v>136</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H14" s="12"/>
       <c r="I14" s="12" t="s">
@@ -4845,13 +4847,13 @@
         <v>136</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H15" s="12"/>
       <c r="I15" s="12" t="s">
@@ -4872,7 +4874,7 @@
       <c r="C16" s="12"/>
       <c r="D16" s="47"/>
       <c r="E16" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F16" s="12"/>
       <c r="G16" s="12"/>
@@ -5086,26 +5088,26 @@
         <v>1</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D2" s="47" t="s">
         <v>136</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H2" s="12"/>
       <c r="I2" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J2" s="12" t="s">
         <v>10</v>
@@ -5117,26 +5119,26 @@
         <v>1</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D3" s="47" t="s">
         <v>136</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H3" s="12"/>
       <c r="I3" s="12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J3" s="12" t="s">
         <v>10</v>
@@ -5148,26 +5150,26 @@
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D4" s="47" t="s">
         <v>136</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H4" s="12"/>
       <c r="I4" s="12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J4" s="12" t="s">
         <v>10</v>
@@ -5179,26 +5181,26 @@
         <v>1</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D5" s="47" t="s">
         <v>136</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H5" s="12"/>
       <c r="I5" s="12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J5" s="12" t="s">
         <v>10</v>
@@ -5207,29 +5209,29 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="12" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D6" s="47" t="s">
         <v>136</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H6" s="12"/>
       <c r="I6" s="12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J6" s="12" t="s">
         <v>10</v>
@@ -5241,26 +5243,26 @@
         <v>1</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D7" s="47" t="s">
         <v>136</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H7" s="12"/>
       <c r="I7" s="12" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J7" s="12" t="s">
         <v>10</v>
@@ -5272,26 +5274,26 @@
         <v>1</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D8" s="47" t="s">
         <v>136</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H8" s="12"/>
       <c r="I8" s="12" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J8" s="12" t="s">
         <v>10</v>
@@ -5303,26 +5305,26 @@
         <v>1</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D9" s="47" t="s">
         <v>136</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H9" s="12"/>
       <c r="I9" s="12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J9" s="12" t="s">
         <v>10</v>
@@ -5339,7 +5341,7 @@
       <c r="C10" s="12"/>
       <c r="D10" s="47"/>
       <c r="E10" s="13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
@@ -5550,26 +5552,26 @@
         <v>1</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D2" s="47" t="s">
         <v>136</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H2" s="12"/>
       <c r="I2" s="12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J2" s="12" t="s">
         <v>10</v>
@@ -5581,26 +5583,26 @@
         <v>1</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D3" s="47" t="s">
         <v>136</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H3" s="12"/>
       <c r="I3" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J3" s="12" t="s">
         <v>10</v>
@@ -5612,26 +5614,26 @@
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D4" s="47" t="s">
         <v>136</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H4" s="12"/>
       <c r="I4" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J4" s="12" t="s">
         <v>10</v>
@@ -5643,26 +5645,26 @@
         <v>1</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D5" s="47" t="s">
         <v>136</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H5" s="12"/>
       <c r="I5" s="12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J5" s="12" t="s">
         <v>10</v>
@@ -5674,26 +5676,26 @@
         <v>1</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D6" s="47" t="s">
         <v>136</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H6" s="12"/>
       <c r="I6" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J6" s="12" t="s">
         <v>10</v>
@@ -5705,26 +5707,26 @@
         <v>1</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D7" s="47" t="s">
         <v>136</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H7" s="12"/>
       <c r="I7" s="12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J7" s="12" t="s">
         <v>10</v>
@@ -5736,26 +5738,26 @@
         <v>1</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D8" s="47" t="s">
         <v>136</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H8" s="12"/>
       <c r="I8" s="12" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J8" s="12" t="s">
         <v>10</v>
@@ -5772,7 +5774,7 @@
       <c r="C9" s="12"/>
       <c r="D9" s="47"/>
       <c r="E9" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
@@ -5983,26 +5985,26 @@
         <v>1</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D2" s="47" t="s">
         <v>136</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H2" s="12"/>
       <c r="I2" s="12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J2" s="12" t="s">
         <v>10</v>
@@ -6014,26 +6016,26 @@
         <v>1</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D3" s="47" t="s">
         <v>136</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H3" s="12"/>
       <c r="I3" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J3" s="12" t="s">
         <v>10</v>
@@ -6045,26 +6047,26 @@
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D4" s="47" t="s">
         <v>136</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H4" s="12"/>
       <c r="I4" s="12" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J4" s="12" t="s">
         <v>10</v>
@@ -6076,26 +6078,26 @@
         <v>1</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D5" s="47" t="s">
         <v>136</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H5" s="12"/>
       <c r="I5" s="12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J5" s="12" t="s">
         <v>10</v>
@@ -6107,26 +6109,26 @@
         <v>1</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D6" s="47" t="s">
         <v>136</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H6" s="12"/>
       <c r="I6" s="12" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J6" s="12" t="s">
         <v>10</v>
@@ -6138,26 +6140,26 @@
         <v>1</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D7" s="47" t="s">
         <v>136</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H7" s="12"/>
       <c r="I7" s="12" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J7" s="12" t="s">
         <v>10</v>
@@ -6169,26 +6171,26 @@
         <v>1</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D8" s="47" t="s">
         <v>136</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H8" s="12"/>
       <c r="I8" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J8" s="12" t="s">
         <v>10</v>
@@ -6200,26 +6202,26 @@
         <v>1</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D9" s="47" t="s">
         <v>136</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H9" s="12"/>
       <c r="I9" s="12" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J9" s="12" t="s">
         <v>10</v>
@@ -6231,26 +6233,26 @@
         <v>1</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D10" s="47" t="s">
         <v>136</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H10" s="12"/>
       <c r="I10" s="12" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J10" s="12" t="s">
         <v>10</v>
@@ -6267,7 +6269,7 @@
       <c r="C11" s="12"/>
       <c r="D11" s="47"/>
       <c r="E11" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
@@ -6478,26 +6480,26 @@
         <v>1</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D2" s="47" t="s">
         <v>136</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H2" s="12"/>
       <c r="I2" s="13" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J2" s="12" t="s">
         <v>10</v>
@@ -6509,26 +6511,26 @@
         <v>1</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D3" s="47" t="s">
         <v>136</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H3" s="12"/>
       <c r="I3" s="12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J3" s="12" t="s">
         <v>10</v>
@@ -6540,26 +6542,26 @@
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D4" s="47" t="s">
         <v>136</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H4" s="12"/>
       <c r="I4" s="12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J4" s="12" t="s">
         <v>10</v>
@@ -6571,26 +6573,26 @@
         <v>1</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D5" s="47" t="s">
         <v>136</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H5" s="12"/>
       <c r="I5" s="12" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J5" s="12" t="s">
         <v>10</v>
@@ -6602,26 +6604,26 @@
         <v>1</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D6" s="47" t="s">
         <v>136</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H6" s="12"/>
       <c r="I6" s="12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J6" s="12" t="s">
         <v>10</v>
@@ -6633,26 +6635,26 @@
         <v>1</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D7" s="47" t="s">
         <v>136</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H7" s="12"/>
       <c r="I7" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J7" s="12" t="s">
         <v>10</v>
@@ -6664,26 +6666,26 @@
         <v>1</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D8" s="47" t="s">
         <v>136</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H8" s="12"/>
       <c r="I8" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J8" s="12" t="s">
         <v>10</v>
@@ -6695,26 +6697,26 @@
         <v>1</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D9" s="47" t="s">
         <v>136</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H9" s="12"/>
       <c r="I9" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J9" s="12" t="s">
         <v>10</v>
@@ -6726,26 +6728,26 @@
         <v>1</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D10" s="47" t="s">
         <v>136</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H10" s="12"/>
       <c r="I10" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J10" s="12" t="s">
         <v>10</v>
@@ -6757,26 +6759,26 @@
         <v>1</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D11" s="47" t="s">
         <v>136</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H11" s="12"/>
       <c r="I11" s="12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J11" s="12" t="s">
         <v>10</v>
@@ -6788,26 +6790,26 @@
         <v>1</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D12" s="47" t="s">
         <v>136</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H12" s="12"/>
       <c r="I12" s="12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J12" s="12" t="s">
         <v>10</v>
@@ -6824,7 +6826,7 @@
       <c r="C13" s="12"/>
       <c r="D13" s="47"/>
       <c r="E13" s="13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
@@ -7036,26 +7038,26 @@
         <v>1</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D2" s="47" t="s">
         <v>136</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H2" s="12"/>
       <c r="I2" s="12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J2" s="12" t="s">
         <v>10</v>
@@ -7067,26 +7069,26 @@
         <v>1</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D3" s="47" t="s">
         <v>136</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H3" s="12"/>
       <c r="I3" s="12" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="J3" s="12" t="s">
         <v>10</v>
@@ -7098,26 +7100,26 @@
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D4" s="47" t="s">
         <v>136</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H4" s="12"/>
       <c r="I4" s="12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J4" s="12" t="s">
         <v>10</v>
@@ -7129,26 +7131,26 @@
         <v>1</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D5" s="47" t="s">
         <v>136</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H5" s="12"/>
       <c r="I5" s="12" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J5" s="12" t="s">
         <v>10</v>
@@ -7160,26 +7162,26 @@
         <v>1</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D6" s="47" t="s">
         <v>136</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H6" s="12"/>
       <c r="I6" s="12" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="J6" s="12" t="s">
         <v>10</v>
@@ -7191,26 +7193,26 @@
         <v>1</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D7" s="47" t="s">
         <v>136</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H7" s="12"/>
       <c r="I7" s="12" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="J7" s="12" t="s">
         <v>10</v>
@@ -7222,26 +7224,26 @@
         <v>1</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D8" s="47" t="s">
         <v>136</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H8" s="12"/>
       <c r="I8" s="12" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="J8" s="12" t="s">
         <v>10</v>
@@ -7253,26 +7255,26 @@
         <v>1</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D9" s="47" t="s">
         <v>136</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H9" s="12"/>
       <c r="I9" s="12" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J9" s="12" t="s">
         <v>10</v>
@@ -7289,7 +7291,7 @@
       <c r="C10" s="12"/>
       <c r="D10" s="47"/>
       <c r="E10" s="13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
@@ -7500,26 +7502,26 @@
         <v>1</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D2" s="47" t="s">
         <v>136</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H2" s="12"/>
       <c r="I2" s="12" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="J2" s="12" t="s">
         <v>10</v>
@@ -7531,26 +7533,26 @@
         <v>1</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D3" s="47" t="s">
         <v>136</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H3" s="12"/>
       <c r="I3" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J3" s="12" t="s">
         <v>10</v>
@@ -7562,26 +7564,26 @@
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D4" s="47" t="s">
         <v>136</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H4" s="12"/>
       <c r="I4" s="12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J4" s="12" t="s">
         <v>10</v>
@@ -7593,26 +7595,26 @@
         <v>1</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D5" s="47" t="s">
         <v>136</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H5" s="12"/>
       <c r="I5" s="12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J5" s="12" t="s">
         <v>10</v>
@@ -7624,26 +7626,26 @@
         <v>1</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D6" s="47" t="s">
         <v>136</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H6" s="12"/>
       <c r="I6" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J6" s="12" t="s">
         <v>10</v>
@@ -7655,26 +7657,26 @@
         <v>1</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D7" s="47" t="s">
         <v>136</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H7" s="12"/>
       <c r="I7" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J7" s="12" t="s">
         <v>10</v>
@@ -7686,26 +7688,26 @@
         <v>1</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D8" s="47" t="s">
         <v>136</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H8" s="12"/>
       <c r="I8" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J8" s="12" t="s">
         <v>10</v>
@@ -7717,26 +7719,26 @@
         <v>1</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D9" s="47" t="s">
         <v>136</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H9" s="12"/>
       <c r="I9" s="12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J9" s="12" t="s">
         <v>10</v>
@@ -7748,26 +7750,26 @@
         <v>1</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D10" s="47" t="s">
         <v>136</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H10" s="12"/>
       <c r="I10" s="12" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J10" s="12" t="s">
         <v>10</v>
@@ -7779,26 +7781,26 @@
         <v>1</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D11" s="47" t="s">
         <v>136</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H11" s="12"/>
       <c r="I11" s="12" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="J11" s="12" t="s">
         <v>10</v>
@@ -7810,26 +7812,26 @@
         <v>1</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D12" s="47" t="s">
         <v>136</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H12" s="12"/>
       <c r="I12" s="12" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="J12" s="12" t="s">
         <v>10</v>
@@ -7841,26 +7843,26 @@
         <v>1</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D13" s="47" t="s">
         <v>136</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H13" s="12"/>
       <c r="I13" s="12" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="J13" s="12" t="s">
         <v>10</v>
@@ -7877,7 +7879,7 @@
       <c r="C14" s="12"/>
       <c r="D14" s="47"/>
       <c r="E14" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>

--- a/structure-books_network1.xlsx
+++ b/structure-books_network1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17730" windowHeight="8175"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17730" windowHeight="8175" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="series-information" sheetId="37" r:id="rId1"/>
@@ -1251,172 +1251,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=-tumki-skDM</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=ev3RTZF2nVQ</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=qsr0Gvyanu0</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=s0zkVT-4Idw</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=AzE0D3KnfVE</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=5rHM4FQZy30</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=7wVBlai6Ffo</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=4VDDJ8rRidk</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=AWPovePCCJQ</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=Z6miHmbWgEQ</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=E-4Uqm9dV80</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=iLHWADNF-kQ</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=8KVqUud2quE</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=I5-3Vy9prTQ</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=oZPID58cnfw</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=iL4NA45DSwc</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=fukDX2dQU7g</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=GXCwBgjNcG0</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=hfLrDnzGWpk</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=bM6vuuP7exs</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=yW5LD12OZzQ</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=C772_GuvH-o</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=vKk-ab2vTTY</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=3ZIteN2E4mI</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=W68zFlYorKI</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=xDIjC3w3nDU</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=yZaPPX5mEfA</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=WluNZs15-rI</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=FFHMUi0JauE</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=jLLRdoRB3HU</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=NJM69Iszv_Q</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=uqGK8is9n1I</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=yiHlY92w9zs</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=MhPx_MgLpHQ</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=SPd9rX6LeT4</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=8dEPL45ottk</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=iEe9dV-55eA</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=L_LhQayZMDE</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=Bc5G-repgb4</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=uReZCaIPQZE</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=9FkPyeYrdCU</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=g7LgfsDWfmQ</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=KnNJTUYCAjg</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=v1-VoqRjxho</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=5wgAenzPvcQ</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=AZVCJ_5k7Pg</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=_hrbvONQldY</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=aiMan1tmZwM</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=hSm9roeLXT0</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=w3tXjIv2CRg</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=eXqezXzbLsA</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=TQ0EzmoLTn8</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=nMCZZyEm5Lw</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=_wEQ5AWGrXA</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=uFpGIB26QUk</t>
-  </si>
-  <si>
     <t>IPアドレス、ネットワークアドレス</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2294,6 +2128,226 @@
   </si>
   <si>
     <t>http://proxy.chilos.jp/p001</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>v1-VoqRjxho</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>-tumki-skDM</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ev3RTZF2nVQ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>qsr0Gvyanu0</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>s0zkVT-4Idw</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>AzE0D3KnfVE</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>5rHM4FQZy30</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>7wVBlai6Ffo</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>4VDDJ8rRidk</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>AWPovePCCJQ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Z6miHmbWgEQ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>E-4Uqm9dV80</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>iLHWADNF-kQ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>8KVqUud2quE</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>I5-3Vy9prTQ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>oZPID58cnfw</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>iL4NA45DSwc</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>fukDX2dQU7g</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>GXCwBgjNcG0</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>hfLrDnzGWpk</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>bM6vuuP7exs</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>yW5LD12OZzQ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>C772_GuvH-o</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>vKk-ab2vTTY</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>3ZIteN2E4mI</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>W68zFlYorKI</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>xDIjC3w3nDU</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>yZaPPX5mEfA</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>WluNZs15-rI</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>FFHMUi0JauE</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>jLLRdoRB3HU</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>NJM69Iszv_Q</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>uqGK8is9n1I</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>yiHlY92w9zs</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>MhPx_MgLpHQ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>SPd9rX6LeT4</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>8dEPL45ottk</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>iEe9dV-55eA</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>L_LhQayZMDE</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Bc5G-repgb4</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>uReZCaIPQZE</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>9FkPyeYrdCU</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>g7LgfsDWfmQ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>KnNJTUYCAjg</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>5wgAenzPvcQ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>AZVCJ_5k7Pg</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>_hrbvONQldY</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>aiMan1tmZwM</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>hSm9roeLXT0</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>w3tXjIv2CRg</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>eXqezXzbLsA</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>TQ0EzmoLTn8</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>nMCZZyEm5Lw</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>_wEQ5AWGrXA</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>uFpGIB26QUk</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -2932,7 +2986,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3248,6 +3302,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -3646,7 +3704,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3657,7 +3715,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
@@ -3845,7 +3903,7 @@
         <v>72</v>
       </c>
       <c r="B14" s="46" t="s">
-        <v>519</v>
+        <v>464</v>
       </c>
       <c r="C14" s="32" t="s">
         <v>34</v>
@@ -4137,10 +4195,10 @@
         <v>148</v>
       </c>
       <c r="F2" s="57" t="s">
-        <v>518</v>
+        <v>463</v>
       </c>
       <c r="G2" s="57" t="s">
-        <v>511</v>
+        <v>456</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="66.75" customHeight="1">
@@ -4155,13 +4213,13 @@
         <v>163</v>
       </c>
       <c r="E3" s="59" t="s">
-        <v>297</v>
+        <v>242</v>
       </c>
       <c r="F3" s="57" t="s">
-        <v>518</v>
+        <v>463</v>
       </c>
       <c r="G3" s="57" t="s">
-        <v>512</v>
+        <v>457</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="66.75" customHeight="1">
@@ -4176,13 +4234,13 @@
         <v>164</v>
       </c>
       <c r="E4" s="59" t="s">
-        <v>298</v>
+        <v>243</v>
       </c>
       <c r="F4" s="57" t="s">
-        <v>518</v>
+        <v>463</v>
       </c>
       <c r="G4" s="57" t="s">
-        <v>513</v>
+        <v>458</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="66.75" customHeight="1">
@@ -4197,13 +4255,13 @@
         <v>165</v>
       </c>
       <c r="E5" s="59" t="s">
-        <v>299</v>
+        <v>244</v>
       </c>
       <c r="F5" s="57" t="s">
-        <v>518</v>
+        <v>463</v>
       </c>
       <c r="G5" s="57" t="s">
-        <v>514</v>
+        <v>459</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="66.75" customHeight="1">
@@ -4218,13 +4276,13 @@
         <v>166</v>
       </c>
       <c r="E6" s="59" t="s">
-        <v>300</v>
+        <v>245</v>
       </c>
       <c r="F6" s="57" t="s">
-        <v>518</v>
+        <v>463</v>
       </c>
       <c r="G6" s="57" t="s">
-        <v>515</v>
+        <v>460</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="66.75" customHeight="1">
@@ -4239,13 +4297,13 @@
         <v>167</v>
       </c>
       <c r="E7" s="59" t="s">
-        <v>301</v>
+        <v>246</v>
       </c>
       <c r="F7" s="57" t="s">
-        <v>518</v>
+        <v>463</v>
       </c>
       <c r="G7" s="57" t="s">
-        <v>516</v>
+        <v>461</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="66.75" customHeight="1">
@@ -4260,13 +4318,13 @@
         <v>168</v>
       </c>
       <c r="E8" s="62" t="s">
-        <v>302</v>
+        <v>247</v>
       </c>
       <c r="F8" s="57" t="s">
-        <v>518</v>
+        <v>463</v>
       </c>
       <c r="G8" s="57" t="s">
-        <v>517</v>
+        <v>462</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="128.25">
@@ -4375,8 +4433,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -4388,7 +4446,7 @@
     <col min="5" max="5" width="40.625" style="8" customWidth="1"/>
     <col min="6" max="6" width="30.625" style="8" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.875" style="8" customWidth="1"/>
-    <col min="8" max="8" width="11.375" style="8" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="11.375" style="8" customWidth="1"/>
     <col min="9" max="9" width="37.5" style="8" customWidth="1"/>
     <col min="10" max="10" width="17.875" style="8" customWidth="1"/>
     <col min="11" max="11" width="8.875" style="4"/>
@@ -4444,13 +4502,13 @@
         <v>136</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>303</v>
+        <v>248</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>317</v>
+        <v>262</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>442</v>
+        <v>387</v>
       </c>
       <c r="H2" s="12"/>
       <c r="I2" s="12" t="s">
@@ -4475,13 +4533,13 @@
         <v>136</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>304</v>
+        <v>249</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>318</v>
+        <v>263</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>443</v>
+        <v>388</v>
       </c>
       <c r="H3" s="12"/>
       <c r="I3" s="12" t="s">
@@ -4506,13 +4564,13 @@
         <v>136</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>305</v>
+        <v>250</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>319</v>
+        <v>264</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>444</v>
+        <v>389</v>
       </c>
       <c r="H4" s="12"/>
       <c r="I4" s="12" t="s">
@@ -4537,13 +4595,13 @@
         <v>136</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>306</v>
+        <v>251</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>320</v>
+        <v>265</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>445</v>
+        <v>390</v>
       </c>
       <c r="H5" s="12"/>
       <c r="I5" s="12" t="s">
@@ -4568,13 +4626,13 @@
         <v>136</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>307</v>
+        <v>252</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>321</v>
+        <v>266</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>446</v>
+        <v>391</v>
       </c>
       <c r="H6" s="12"/>
       <c r="I6" s="12" t="s">
@@ -4599,13 +4657,13 @@
         <v>136</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>308</v>
+        <v>253</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>322</v>
+        <v>267</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>447</v>
+        <v>392</v>
       </c>
       <c r="H7" s="12"/>
       <c r="I7" s="12" t="s">
@@ -4630,13 +4688,13 @@
         <v>136</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>309</v>
+        <v>254</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>323</v>
+        <v>268</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>448</v>
+        <v>393</v>
       </c>
       <c r="H8" s="12"/>
       <c r="I8" s="12" t="s">
@@ -4661,13 +4719,13 @@
         <v>136</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>310</v>
+        <v>255</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>324</v>
+        <v>269</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>449</v>
+        <v>394</v>
       </c>
       <c r="H9" s="12"/>
       <c r="I9" s="12" t="s">
@@ -4692,13 +4750,13 @@
         <v>136</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>311</v>
+        <v>256</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>325</v>
+        <v>270</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>450</v>
+        <v>395</v>
       </c>
       <c r="H10" s="12"/>
       <c r="I10" s="12" t="s">
@@ -4723,13 +4781,13 @@
         <v>136</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>312</v>
+        <v>257</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>326</v>
+        <v>271</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>451</v>
+        <v>396</v>
       </c>
       <c r="H11" s="12"/>
       <c r="I11" s="12" t="s">
@@ -4754,13 +4812,13 @@
         <v>136</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>313</v>
+        <v>258</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>327</v>
+        <v>272</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>452</v>
+        <v>397</v>
       </c>
       <c r="H12" s="12"/>
       <c r="I12" s="12" t="s">
@@ -4785,13 +4843,13 @@
         <v>136</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>314</v>
+        <v>259</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>328</v>
+        <v>273</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>453</v>
+        <v>398</v>
       </c>
       <c r="H13" s="12"/>
       <c r="I13" s="12" t="s">
@@ -4816,13 +4874,13 @@
         <v>136</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>315</v>
+        <v>260</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>329</v>
+        <v>274</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>454</v>
+        <v>399</v>
       </c>
       <c r="H14" s="12"/>
       <c r="I14" s="12" t="s">
@@ -4847,13 +4905,13 @@
         <v>136</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>316</v>
+        <v>261</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>330</v>
+        <v>275</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>455</v>
+        <v>400</v>
       </c>
       <c r="H15" s="12"/>
       <c r="I15" s="12" t="s">
@@ -5028,8 +5086,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -5041,7 +5099,7 @@
     <col min="5" max="5" width="40.625" style="8" customWidth="1"/>
     <col min="6" max="6" width="30.625" style="8" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.875" style="8" customWidth="1"/>
-    <col min="8" max="8" width="12.5" style="8" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5" style="8" customWidth="1"/>
     <col min="9" max="9" width="37.5" style="8" customWidth="1"/>
     <col min="10" max="10" width="17.875" style="8" customWidth="1"/>
     <col min="11" max="11" width="8.875" style="4"/>
@@ -5088,26 +5146,26 @@
         <v>1</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>236</v>
+        <v>181</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>242</v>
+        <v>187</v>
       </c>
       <c r="D2" s="47" t="s">
         <v>136</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>441</v>
+        <v>386</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>385</v>
+        <v>330</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>456</v>
+        <v>401</v>
       </c>
       <c r="H2" s="12"/>
-      <c r="I2" s="12" t="s">
-        <v>181</v>
+      <c r="I2" s="94" t="s">
+        <v>466</v>
       </c>
       <c r="J2" s="12" t="s">
         <v>10</v>
@@ -5119,26 +5177,26 @@
         <v>1</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>236</v>
+        <v>181</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>243</v>
+        <v>188</v>
       </c>
       <c r="D3" s="47" t="s">
         <v>136</v>
       </c>
       <c r="E3" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="F3" s="12" t="s">
         <v>331</v>
       </c>
-      <c r="F3" s="12" t="s">
-        <v>386</v>
-      </c>
       <c r="G3" s="12" t="s">
-        <v>457</v>
+        <v>402</v>
       </c>
       <c r="H3" s="12"/>
       <c r="I3" s="12" t="s">
-        <v>182</v>
+        <v>467</v>
       </c>
       <c r="J3" s="12" t="s">
         <v>10</v>
@@ -5150,26 +5208,26 @@
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>236</v>
+        <v>181</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>244</v>
+        <v>189</v>
       </c>
       <c r="D4" s="47" t="s">
         <v>136</v>
       </c>
       <c r="E4" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="F4" s="12" t="s">
         <v>332</v>
       </c>
-      <c r="F4" s="12" t="s">
-        <v>387</v>
-      </c>
       <c r="G4" s="12" t="s">
-        <v>458</v>
+        <v>403</v>
       </c>
       <c r="H4" s="12"/>
       <c r="I4" s="12" t="s">
-        <v>183</v>
+        <v>468</v>
       </c>
       <c r="J4" s="12" t="s">
         <v>10</v>
@@ -5181,26 +5239,26 @@
         <v>1</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>236</v>
+        <v>181</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>245</v>
+        <v>190</v>
       </c>
       <c r="D5" s="47" t="s">
         <v>136</v>
       </c>
       <c r="E5" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="F5" s="12" t="s">
         <v>333</v>
       </c>
-      <c r="F5" s="12" t="s">
-        <v>388</v>
-      </c>
       <c r="G5" s="12" t="s">
-        <v>459</v>
+        <v>404</v>
       </c>
       <c r="H5" s="12"/>
       <c r="I5" s="12" t="s">
-        <v>184</v>
+        <v>469</v>
       </c>
       <c r="J5" s="12" t="s">
         <v>10</v>
@@ -5209,29 +5267,29 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="12" t="s">
-        <v>440</v>
+        <v>385</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>236</v>
+        <v>181</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>246</v>
+        <v>191</v>
       </c>
       <c r="D6" s="47" t="s">
         <v>136</v>
       </c>
       <c r="E6" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="F6" s="12" t="s">
         <v>334</v>
       </c>
-      <c r="F6" s="12" t="s">
-        <v>389</v>
-      </c>
       <c r="G6" s="12" t="s">
-        <v>460</v>
+        <v>405</v>
       </c>
       <c r="H6" s="12"/>
       <c r="I6" s="12" t="s">
-        <v>185</v>
+        <v>470</v>
       </c>
       <c r="J6" s="12" t="s">
         <v>10</v>
@@ -5243,26 +5301,26 @@
         <v>1</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>236</v>
+        <v>181</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>247</v>
+        <v>192</v>
       </c>
       <c r="D7" s="47" t="s">
         <v>136</v>
       </c>
       <c r="E7" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="F7" s="12" t="s">
         <v>335</v>
       </c>
-      <c r="F7" s="12" t="s">
-        <v>390</v>
-      </c>
       <c r="G7" s="12" t="s">
-        <v>461</v>
+        <v>406</v>
       </c>
       <c r="H7" s="12"/>
       <c r="I7" s="12" t="s">
-        <v>186</v>
+        <v>471</v>
       </c>
       <c r="J7" s="12" t="s">
         <v>10</v>
@@ -5274,26 +5332,26 @@
         <v>1</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>236</v>
+        <v>181</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>248</v>
+        <v>193</v>
       </c>
       <c r="D8" s="47" t="s">
         <v>136</v>
       </c>
       <c r="E8" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="F8" s="12" t="s">
         <v>336</v>
       </c>
-      <c r="F8" s="12" t="s">
-        <v>391</v>
-      </c>
       <c r="G8" s="12" t="s">
-        <v>462</v>
+        <v>407</v>
       </c>
       <c r="H8" s="12"/>
       <c r="I8" s="12" t="s">
-        <v>187</v>
+        <v>472</v>
       </c>
       <c r="J8" s="12" t="s">
         <v>10</v>
@@ -5305,26 +5363,26 @@
         <v>1</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>236</v>
+        <v>181</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>249</v>
+        <v>194</v>
       </c>
       <c r="D9" s="47" t="s">
         <v>136</v>
       </c>
       <c r="E9" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="F9" s="12" t="s">
         <v>337</v>
       </c>
-      <c r="F9" s="12" t="s">
-        <v>392</v>
-      </c>
       <c r="G9" s="12" t="s">
-        <v>463</v>
+        <v>408</v>
       </c>
       <c r="H9" s="12"/>
       <c r="I9" s="12" t="s">
-        <v>188</v>
+        <v>473</v>
       </c>
       <c r="J9" s="12" t="s">
         <v>10</v>
@@ -5492,8 +5550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -5505,7 +5563,7 @@
     <col min="5" max="5" width="40.625" style="8" customWidth="1"/>
     <col min="6" max="6" width="30.625" style="8" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.875" style="8" customWidth="1"/>
-    <col min="8" max="8" width="12.5" style="8" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5" style="8" customWidth="1"/>
     <col min="9" max="9" width="37.5" style="8" customWidth="1"/>
     <col min="10" max="10" width="17.875" style="8" customWidth="1"/>
     <col min="11" max="11" width="8.875" style="4"/>
@@ -5552,26 +5610,26 @@
         <v>1</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>237</v>
+        <v>182</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>250</v>
+        <v>195</v>
       </c>
       <c r="D2" s="47" t="s">
         <v>136</v>
       </c>
       <c r="E2" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="F2" s="12" t="s">
         <v>338</v>
       </c>
-      <c r="F2" s="12" t="s">
-        <v>393</v>
-      </c>
       <c r="G2" s="12" t="s">
-        <v>464</v>
+        <v>409</v>
       </c>
       <c r="H2" s="12"/>
       <c r="I2" s="12" t="s">
-        <v>189</v>
+        <v>474</v>
       </c>
       <c r="J2" s="12" t="s">
         <v>10</v>
@@ -5583,26 +5641,26 @@
         <v>1</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>237</v>
+        <v>182</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>251</v>
+        <v>196</v>
       </c>
       <c r="D3" s="47" t="s">
         <v>136</v>
       </c>
       <c r="E3" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="F3" s="12" t="s">
         <v>339</v>
       </c>
-      <c r="F3" s="12" t="s">
-        <v>394</v>
-      </c>
       <c r="G3" s="12" t="s">
-        <v>465</v>
+        <v>410</v>
       </c>
       <c r="H3" s="12"/>
       <c r="I3" s="12" t="s">
-        <v>190</v>
+        <v>475</v>
       </c>
       <c r="J3" s="12" t="s">
         <v>10</v>
@@ -5614,26 +5672,26 @@
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>237</v>
+        <v>182</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>252</v>
+        <v>197</v>
       </c>
       <c r="D4" s="47" t="s">
         <v>136</v>
       </c>
       <c r="E4" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="F4" s="12" t="s">
         <v>340</v>
       </c>
-      <c r="F4" s="12" t="s">
-        <v>395</v>
-      </c>
       <c r="G4" s="12" t="s">
-        <v>466</v>
+        <v>411</v>
       </c>
       <c r="H4" s="12"/>
       <c r="I4" s="12" t="s">
-        <v>191</v>
+        <v>476</v>
       </c>
       <c r="J4" s="12" t="s">
         <v>10</v>
@@ -5645,26 +5703,26 @@
         <v>1</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>237</v>
+        <v>182</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>253</v>
+        <v>198</v>
       </c>
       <c r="D5" s="47" t="s">
         <v>136</v>
       </c>
       <c r="E5" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="F5" s="12" t="s">
         <v>341</v>
       </c>
-      <c r="F5" s="12" t="s">
-        <v>396</v>
-      </c>
       <c r="G5" s="12" t="s">
-        <v>467</v>
+        <v>412</v>
       </c>
       <c r="H5" s="12"/>
       <c r="I5" s="12" t="s">
-        <v>192</v>
+        <v>477</v>
       </c>
       <c r="J5" s="12" t="s">
         <v>10</v>
@@ -5676,26 +5734,26 @@
         <v>1</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>237</v>
+        <v>182</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>254</v>
+        <v>199</v>
       </c>
       <c r="D6" s="47" t="s">
         <v>136</v>
       </c>
       <c r="E6" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="F6" s="12" t="s">
         <v>342</v>
       </c>
-      <c r="F6" s="12" t="s">
-        <v>397</v>
-      </c>
       <c r="G6" s="12" t="s">
-        <v>468</v>
+        <v>413</v>
       </c>
       <c r="H6" s="12"/>
       <c r="I6" s="12" t="s">
-        <v>193</v>
+        <v>478</v>
       </c>
       <c r="J6" s="12" t="s">
         <v>10</v>
@@ -5707,26 +5765,26 @@
         <v>1</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>237</v>
+        <v>182</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>255</v>
+        <v>200</v>
       </c>
       <c r="D7" s="47" t="s">
         <v>136</v>
       </c>
       <c r="E7" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="F7" s="12" t="s">
         <v>343</v>
       </c>
-      <c r="F7" s="12" t="s">
-        <v>398</v>
-      </c>
       <c r="G7" s="12" t="s">
-        <v>469</v>
+        <v>414</v>
       </c>
       <c r="H7" s="12"/>
       <c r="I7" s="12" t="s">
-        <v>194</v>
+        <v>479</v>
       </c>
       <c r="J7" s="12" t="s">
         <v>10</v>
@@ -5738,26 +5796,26 @@
         <v>1</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>237</v>
+        <v>182</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>256</v>
+        <v>201</v>
       </c>
       <c r="D8" s="47" t="s">
         <v>136</v>
       </c>
       <c r="E8" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="F8" s="12" t="s">
         <v>344</v>
       </c>
-      <c r="F8" s="12" t="s">
-        <v>399</v>
-      </c>
       <c r="G8" s="12" t="s">
-        <v>470</v>
+        <v>415</v>
       </c>
       <c r="H8" s="12"/>
       <c r="I8" s="12" t="s">
-        <v>195</v>
+        <v>480</v>
       </c>
       <c r="J8" s="12" t="s">
         <v>10</v>
@@ -5925,8 +5983,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -5938,7 +5996,7 @@
     <col min="5" max="5" width="40.625" style="8" customWidth="1"/>
     <col min="6" max="6" width="30.625" style="8" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.875" style="8" customWidth="1"/>
-    <col min="8" max="8" width="12.5" style="8" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5" style="8" customWidth="1"/>
     <col min="9" max="9" width="37.5" style="8" customWidth="1"/>
     <col min="10" max="10" width="17.875" style="8" customWidth="1"/>
     <col min="11" max="11" width="8.875" style="4"/>
@@ -5985,26 +6043,26 @@
         <v>1</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>238</v>
+        <v>183</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>257</v>
+        <v>202</v>
       </c>
       <c r="D2" s="47" t="s">
         <v>136</v>
       </c>
       <c r="E2" s="12" t="s">
+        <v>290</v>
+      </c>
+      <c r="F2" s="12" t="s">
         <v>345</v>
       </c>
-      <c r="F2" s="12" t="s">
-        <v>400</v>
-      </c>
       <c r="G2" s="12" t="s">
-        <v>479</v>
+        <v>424</v>
       </c>
       <c r="H2" s="12"/>
       <c r="I2" s="12" t="s">
-        <v>196</v>
+        <v>481</v>
       </c>
       <c r="J2" s="12" t="s">
         <v>10</v>
@@ -6016,26 +6074,26 @@
         <v>1</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>238</v>
+        <v>183</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>258</v>
+        <v>203</v>
       </c>
       <c r="D3" s="47" t="s">
         <v>136</v>
       </c>
       <c r="E3" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="F3" s="12" t="s">
         <v>346</v>
       </c>
-      <c r="F3" s="12" t="s">
-        <v>401</v>
-      </c>
       <c r="G3" s="12" t="s">
-        <v>471</v>
+        <v>416</v>
       </c>
       <c r="H3" s="12"/>
       <c r="I3" s="12" t="s">
-        <v>197</v>
+        <v>482</v>
       </c>
       <c r="J3" s="12" t="s">
         <v>10</v>
@@ -6047,26 +6105,26 @@
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>238</v>
+        <v>183</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>259</v>
+        <v>204</v>
       </c>
       <c r="D4" s="47" t="s">
         <v>136</v>
       </c>
       <c r="E4" s="12" t="s">
+        <v>292</v>
+      </c>
+      <c r="F4" s="12" t="s">
         <v>347</v>
       </c>
-      <c r="F4" s="12" t="s">
-        <v>402</v>
-      </c>
       <c r="G4" s="12" t="s">
-        <v>472</v>
+        <v>417</v>
       </c>
       <c r="H4" s="12"/>
       <c r="I4" s="12" t="s">
-        <v>198</v>
+        <v>483</v>
       </c>
       <c r="J4" s="12" t="s">
         <v>10</v>
@@ -6078,26 +6136,26 @@
         <v>1</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>238</v>
+        <v>183</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>260</v>
+        <v>205</v>
       </c>
       <c r="D5" s="47" t="s">
         <v>136</v>
       </c>
       <c r="E5" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="F5" s="12" t="s">
         <v>348</v>
       </c>
-      <c r="F5" s="12" t="s">
-        <v>403</v>
-      </c>
       <c r="G5" s="12" t="s">
-        <v>473</v>
+        <v>418</v>
       </c>
       <c r="H5" s="12"/>
       <c r="I5" s="12" t="s">
-        <v>199</v>
+        <v>484</v>
       </c>
       <c r="J5" s="12" t="s">
         <v>10</v>
@@ -6109,26 +6167,26 @@
         <v>1</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>238</v>
+        <v>183</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>261</v>
+        <v>206</v>
       </c>
       <c r="D6" s="47" t="s">
         <v>136</v>
       </c>
       <c r="E6" s="12" t="s">
+        <v>294</v>
+      </c>
+      <c r="F6" s="12" t="s">
         <v>349</v>
       </c>
-      <c r="F6" s="12" t="s">
-        <v>404</v>
-      </c>
       <c r="G6" s="12" t="s">
-        <v>474</v>
+        <v>419</v>
       </c>
       <c r="H6" s="12"/>
       <c r="I6" s="12" t="s">
-        <v>200</v>
+        <v>485</v>
       </c>
       <c r="J6" s="12" t="s">
         <v>10</v>
@@ -6140,26 +6198,26 @@
         <v>1</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>238</v>
+        <v>183</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>262</v>
+        <v>207</v>
       </c>
       <c r="D7" s="47" t="s">
         <v>136</v>
       </c>
       <c r="E7" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="F7" s="12" t="s">
         <v>350</v>
       </c>
-      <c r="F7" s="12" t="s">
-        <v>405</v>
-      </c>
       <c r="G7" s="12" t="s">
-        <v>475</v>
+        <v>420</v>
       </c>
       <c r="H7" s="12"/>
       <c r="I7" s="12" t="s">
-        <v>201</v>
+        <v>486</v>
       </c>
       <c r="J7" s="12" t="s">
         <v>10</v>
@@ -6171,26 +6229,26 @@
         <v>1</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>238</v>
+        <v>183</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>263</v>
+        <v>208</v>
       </c>
       <c r="D8" s="47" t="s">
         <v>136</v>
       </c>
       <c r="E8" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="F8" s="12" t="s">
         <v>351</v>
       </c>
-      <c r="F8" s="12" t="s">
-        <v>406</v>
-      </c>
       <c r="G8" s="12" t="s">
-        <v>476</v>
+        <v>421</v>
       </c>
       <c r="H8" s="12"/>
       <c r="I8" s="12" t="s">
-        <v>202</v>
+        <v>487</v>
       </c>
       <c r="J8" s="12" t="s">
         <v>10</v>
@@ -6202,26 +6260,26 @@
         <v>1</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>238</v>
+        <v>183</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>264</v>
+        <v>209</v>
       </c>
       <c r="D9" s="47" t="s">
         <v>136</v>
       </c>
       <c r="E9" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="F9" s="12" t="s">
         <v>352</v>
       </c>
-      <c r="F9" s="12" t="s">
-        <v>407</v>
-      </c>
       <c r="G9" s="12" t="s">
-        <v>477</v>
+        <v>422</v>
       </c>
       <c r="H9" s="12"/>
       <c r="I9" s="12" t="s">
-        <v>203</v>
+        <v>488</v>
       </c>
       <c r="J9" s="12" t="s">
         <v>10</v>
@@ -6233,26 +6291,26 @@
         <v>1</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>238</v>
+        <v>183</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>265</v>
+        <v>210</v>
       </c>
       <c r="D10" s="47" t="s">
         <v>136</v>
       </c>
       <c r="E10" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="F10" s="12" t="s">
         <v>353</v>
       </c>
-      <c r="F10" s="12" t="s">
-        <v>408</v>
-      </c>
       <c r="G10" s="12" t="s">
-        <v>478</v>
+        <v>423</v>
       </c>
       <c r="H10" s="12"/>
       <c r="I10" s="12" t="s">
-        <v>204</v>
+        <v>489</v>
       </c>
       <c r="J10" s="12" t="s">
         <v>10</v>
@@ -6420,8 +6478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -6433,7 +6491,7 @@
     <col min="5" max="5" width="40.625" style="8" customWidth="1"/>
     <col min="6" max="6" width="30.625" style="8" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.875" style="8" customWidth="1"/>
-    <col min="8" max="8" width="12.5" style="8" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5" style="8" customWidth="1"/>
     <col min="9" max="9" width="37.5" style="8" customWidth="1"/>
     <col min="10" max="10" width="17.875" style="8" customWidth="1"/>
     <col min="11" max="11" width="8.875" style="4"/>
@@ -6480,26 +6538,26 @@
         <v>1</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>239</v>
+        <v>184</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>266</v>
+        <v>211</v>
       </c>
       <c r="D2" s="47" t="s">
         <v>136</v>
       </c>
       <c r="E2" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="F2" s="12" t="s">
         <v>354</v>
       </c>
-      <c r="F2" s="12" t="s">
-        <v>409</v>
-      </c>
       <c r="G2" s="12" t="s">
+        <v>435</v>
+      </c>
+      <c r="H2" s="12"/>
+      <c r="I2" t="s">
         <v>490</v>
-      </c>
-      <c r="H2" s="12"/>
-      <c r="I2" s="13" t="s">
-        <v>205</v>
       </c>
       <c r="J2" s="12" t="s">
         <v>10</v>
@@ -6511,26 +6569,26 @@
         <v>1</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>239</v>
+        <v>184</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>267</v>
+        <v>212</v>
       </c>
       <c r="D3" s="47" t="s">
         <v>136</v>
       </c>
       <c r="E3" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="F3" s="12" t="s">
         <v>355</v>
       </c>
-      <c r="F3" s="12" t="s">
-        <v>410</v>
-      </c>
       <c r="G3" s="12" t="s">
-        <v>480</v>
+        <v>425</v>
       </c>
       <c r="H3" s="12"/>
       <c r="I3" s="12" t="s">
-        <v>206</v>
+        <v>491</v>
       </c>
       <c r="J3" s="12" t="s">
         <v>10</v>
@@ -6542,26 +6600,26 @@
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>239</v>
+        <v>184</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>268</v>
+        <v>213</v>
       </c>
       <c r="D4" s="47" t="s">
         <v>136</v>
       </c>
       <c r="E4" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="F4" s="12" t="s">
         <v>356</v>
       </c>
-      <c r="F4" s="12" t="s">
-        <v>411</v>
-      </c>
       <c r="G4" s="12" t="s">
-        <v>481</v>
+        <v>426</v>
       </c>
       <c r="H4" s="12"/>
       <c r="I4" s="12" t="s">
-        <v>207</v>
+        <v>492</v>
       </c>
       <c r="J4" s="12" t="s">
         <v>10</v>
@@ -6573,26 +6631,26 @@
         <v>1</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>239</v>
+        <v>184</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>269</v>
+        <v>214</v>
       </c>
       <c r="D5" s="47" t="s">
         <v>136</v>
       </c>
       <c r="E5" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="F5" s="12" t="s">
         <v>357</v>
       </c>
-      <c r="F5" s="12" t="s">
-        <v>412</v>
-      </c>
       <c r="G5" s="12" t="s">
-        <v>482</v>
+        <v>427</v>
       </c>
       <c r="H5" s="12"/>
       <c r="I5" s="12" t="s">
-        <v>208</v>
+        <v>493</v>
       </c>
       <c r="J5" s="12" t="s">
         <v>10</v>
@@ -6604,26 +6662,26 @@
         <v>1</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>239</v>
+        <v>184</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>270</v>
+        <v>215</v>
       </c>
       <c r="D6" s="47" t="s">
         <v>136</v>
       </c>
       <c r="E6" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="F6" s="12" t="s">
         <v>358</v>
       </c>
-      <c r="F6" s="12" t="s">
-        <v>413</v>
-      </c>
       <c r="G6" s="12" t="s">
-        <v>483</v>
+        <v>428</v>
       </c>
       <c r="H6" s="12"/>
       <c r="I6" s="12" t="s">
-        <v>209</v>
+        <v>494</v>
       </c>
       <c r="J6" s="12" t="s">
         <v>10</v>
@@ -6635,26 +6693,26 @@
         <v>1</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>239</v>
+        <v>184</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>271</v>
+        <v>216</v>
       </c>
       <c r="D7" s="47" t="s">
         <v>136</v>
       </c>
       <c r="E7" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="F7" s="12" t="s">
         <v>359</v>
       </c>
-      <c r="F7" s="12" t="s">
-        <v>414</v>
-      </c>
       <c r="G7" s="12" t="s">
-        <v>484</v>
+        <v>429</v>
       </c>
       <c r="H7" s="12"/>
       <c r="I7" s="12" t="s">
-        <v>210</v>
+        <v>495</v>
       </c>
       <c r="J7" s="12" t="s">
         <v>10</v>
@@ -6666,26 +6724,26 @@
         <v>1</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>239</v>
+        <v>184</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>272</v>
+        <v>217</v>
       </c>
       <c r="D8" s="47" t="s">
         <v>136</v>
       </c>
       <c r="E8" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="F8" s="12" t="s">
         <v>360</v>
       </c>
-      <c r="F8" s="12" t="s">
-        <v>415</v>
-      </c>
       <c r="G8" s="12" t="s">
-        <v>485</v>
+        <v>430</v>
       </c>
       <c r="H8" s="12"/>
       <c r="I8" s="12" t="s">
-        <v>211</v>
+        <v>496</v>
       </c>
       <c r="J8" s="12" t="s">
         <v>10</v>
@@ -6697,26 +6755,26 @@
         <v>1</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>239</v>
+        <v>184</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>273</v>
+        <v>218</v>
       </c>
       <c r="D9" s="47" t="s">
         <v>136</v>
       </c>
       <c r="E9" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="F9" s="12" t="s">
         <v>361</v>
       </c>
-      <c r="F9" s="12" t="s">
-        <v>416</v>
-      </c>
       <c r="G9" s="12" t="s">
-        <v>486</v>
+        <v>431</v>
       </c>
       <c r="H9" s="12"/>
       <c r="I9" s="12" t="s">
-        <v>212</v>
+        <v>497</v>
       </c>
       <c r="J9" s="12" t="s">
         <v>10</v>
@@ -6728,26 +6786,26 @@
         <v>1</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>239</v>
+        <v>184</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>274</v>
+        <v>219</v>
       </c>
       <c r="D10" s="47" t="s">
         <v>136</v>
       </c>
       <c r="E10" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="F10" s="12" t="s">
         <v>362</v>
       </c>
-      <c r="F10" s="12" t="s">
-        <v>417</v>
-      </c>
       <c r="G10" s="12" t="s">
-        <v>487</v>
+        <v>432</v>
       </c>
       <c r="H10" s="12"/>
       <c r="I10" s="12" t="s">
-        <v>213</v>
+        <v>498</v>
       </c>
       <c r="J10" s="12" t="s">
         <v>10</v>
@@ -6759,26 +6817,26 @@
         <v>1</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>239</v>
+        <v>184</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>275</v>
+        <v>220</v>
       </c>
       <c r="D11" s="47" t="s">
         <v>136</v>
       </c>
       <c r="E11" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="F11" s="12" t="s">
         <v>363</v>
       </c>
-      <c r="F11" s="12" t="s">
-        <v>418</v>
-      </c>
       <c r="G11" s="12" t="s">
-        <v>488</v>
+        <v>433</v>
       </c>
       <c r="H11" s="12"/>
       <c r="I11" s="12" t="s">
-        <v>214</v>
+        <v>499</v>
       </c>
       <c r="J11" s="12" t="s">
         <v>10</v>
@@ -6790,26 +6848,26 @@
         <v>1</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>239</v>
+        <v>184</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>276</v>
+        <v>221</v>
       </c>
       <c r="D12" s="47" t="s">
         <v>136</v>
       </c>
       <c r="E12" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="F12" s="12" t="s">
         <v>364</v>
       </c>
-      <c r="F12" s="12" t="s">
-        <v>419</v>
-      </c>
       <c r="G12" s="12" t="s">
-        <v>489</v>
+        <v>434</v>
       </c>
       <c r="H12" s="12"/>
       <c r="I12" s="12" t="s">
-        <v>215</v>
+        <v>500</v>
       </c>
       <c r="J12" s="12" t="s">
         <v>10</v>
@@ -6943,10 +7001,9 @@
   <phoneticPr fontId="3"/>
   <hyperlinks>
     <hyperlink ref="E13" r:id="rId1"/>
-    <hyperlink ref="I2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
@@ -6978,8 +7035,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -6991,7 +7048,7 @@
     <col min="5" max="5" width="40.625" style="8" customWidth="1"/>
     <col min="6" max="6" width="30.625" style="8" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.875" style="8" customWidth="1"/>
-    <col min="8" max="8" width="12.5" style="8" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5" style="8" customWidth="1"/>
     <col min="9" max="9" width="37.5" style="8" customWidth="1"/>
     <col min="10" max="10" width="17.875" style="8" customWidth="1"/>
     <col min="11" max="11" width="8.875" style="4"/>
@@ -7038,26 +7095,26 @@
         <v>1</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>240</v>
+        <v>185</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>277</v>
+        <v>222</v>
       </c>
       <c r="D2" s="47" t="s">
         <v>136</v>
       </c>
       <c r="E2" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="F2" s="12" t="s">
         <v>365</v>
       </c>
-      <c r="F2" s="12" t="s">
-        <v>420</v>
-      </c>
       <c r="G2" s="12" t="s">
-        <v>498</v>
+        <v>443</v>
       </c>
       <c r="H2" s="12"/>
       <c r="I2" s="12" t="s">
-        <v>216</v>
+        <v>501</v>
       </c>
       <c r="J2" s="12" t="s">
         <v>10</v>
@@ -7069,26 +7126,26 @@
         <v>1</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>240</v>
+        <v>185</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>278</v>
+        <v>223</v>
       </c>
       <c r="D3" s="47" t="s">
         <v>136</v>
       </c>
       <c r="E3" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="F3" s="12" t="s">
         <v>366</v>
       </c>
-      <c r="F3" s="12" t="s">
-        <v>421</v>
-      </c>
       <c r="G3" s="12" t="s">
-        <v>491</v>
+        <v>436</v>
       </c>
       <c r="H3" s="12"/>
       <c r="I3" s="12" t="s">
-        <v>217</v>
+        <v>502</v>
       </c>
       <c r="J3" s="12" t="s">
         <v>10</v>
@@ -7100,26 +7157,26 @@
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>240</v>
+        <v>185</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>279</v>
+        <v>224</v>
       </c>
       <c r="D4" s="47" t="s">
         <v>136</v>
       </c>
       <c r="E4" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="F4" s="12" t="s">
         <v>367</v>
       </c>
-      <c r="F4" s="12" t="s">
-        <v>422</v>
-      </c>
       <c r="G4" s="12" t="s">
-        <v>492</v>
+        <v>437</v>
       </c>
       <c r="H4" s="12"/>
       <c r="I4" s="12" t="s">
-        <v>218</v>
+        <v>503</v>
       </c>
       <c r="J4" s="12" t="s">
         <v>10</v>
@@ -7131,26 +7188,26 @@
         <v>1</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>240</v>
+        <v>185</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>280</v>
+        <v>225</v>
       </c>
       <c r="D5" s="47" t="s">
         <v>136</v>
       </c>
       <c r="E5" s="12" t="s">
+        <v>313</v>
+      </c>
+      <c r="F5" s="12" t="s">
         <v>368</v>
       </c>
-      <c r="F5" s="12" t="s">
-        <v>423</v>
-      </c>
       <c r="G5" s="12" t="s">
-        <v>493</v>
+        <v>438</v>
       </c>
       <c r="H5" s="12"/>
       <c r="I5" s="12" t="s">
-        <v>219</v>
+        <v>504</v>
       </c>
       <c r="J5" s="12" t="s">
         <v>10</v>
@@ -7162,26 +7219,26 @@
         <v>1</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>240</v>
+        <v>185</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>281</v>
+        <v>226</v>
       </c>
       <c r="D6" s="47" t="s">
         <v>136</v>
       </c>
       <c r="E6" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="F6" s="12" t="s">
         <v>369</v>
       </c>
-      <c r="F6" s="12" t="s">
-        <v>424</v>
-      </c>
       <c r="G6" s="12" t="s">
-        <v>494</v>
+        <v>439</v>
       </c>
       <c r="H6" s="12"/>
       <c r="I6" s="12" t="s">
-        <v>220</v>
+        <v>505</v>
       </c>
       <c r="J6" s="12" t="s">
         <v>10</v>
@@ -7193,26 +7250,26 @@
         <v>1</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>240</v>
+        <v>185</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>282</v>
+        <v>227</v>
       </c>
       <c r="D7" s="47" t="s">
         <v>136</v>
       </c>
       <c r="E7" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F7" s="12" t="s">
         <v>370</v>
       </c>
-      <c r="F7" s="12" t="s">
-        <v>425</v>
-      </c>
       <c r="G7" s="12" t="s">
-        <v>495</v>
+        <v>440</v>
       </c>
       <c r="H7" s="12"/>
       <c r="I7" s="12" t="s">
-        <v>221</v>
+        <v>506</v>
       </c>
       <c r="J7" s="12" t="s">
         <v>10</v>
@@ -7224,26 +7281,26 @@
         <v>1</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>240</v>
+        <v>185</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>283</v>
+        <v>228</v>
       </c>
       <c r="D8" s="47" t="s">
         <v>136</v>
       </c>
       <c r="E8" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="F8" s="12" t="s">
         <v>371</v>
       </c>
-      <c r="F8" s="12" t="s">
-        <v>426</v>
-      </c>
       <c r="G8" s="12" t="s">
-        <v>496</v>
+        <v>441</v>
       </c>
       <c r="H8" s="12"/>
       <c r="I8" s="12" t="s">
-        <v>222</v>
+        <v>507</v>
       </c>
       <c r="J8" s="12" t="s">
         <v>10</v>
@@ -7255,26 +7312,26 @@
         <v>1</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>240</v>
+        <v>185</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>284</v>
+        <v>229</v>
       </c>
       <c r="D9" s="47" t="s">
         <v>136</v>
       </c>
       <c r="E9" s="12" t="s">
+        <v>317</v>
+      </c>
+      <c r="F9" s="12" t="s">
         <v>372</v>
       </c>
-      <c r="F9" s="12" t="s">
-        <v>427</v>
-      </c>
       <c r="G9" s="12" t="s">
-        <v>497</v>
+        <v>442</v>
       </c>
       <c r="H9" s="12"/>
       <c r="I9" s="12" t="s">
-        <v>223</v>
+        <v>508</v>
       </c>
       <c r="J9" s="12" t="s">
         <v>10</v>
@@ -7443,7 +7500,7 @@
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -7455,7 +7512,7 @@
     <col min="5" max="5" width="40.625" style="8" customWidth="1"/>
     <col min="6" max="6" width="30.625" style="8" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.875" style="8" customWidth="1"/>
-    <col min="8" max="8" width="12.5" style="8" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5" style="8" customWidth="1"/>
     <col min="9" max="9" width="37.5" style="8" customWidth="1"/>
     <col min="10" max="10" width="17.875" style="8" customWidth="1"/>
     <col min="11" max="11" width="8.875" style="4"/>
@@ -7502,26 +7559,26 @@
         <v>1</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>241</v>
+        <v>186</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>285</v>
+        <v>230</v>
       </c>
       <c r="D2" s="47" t="s">
         <v>136</v>
       </c>
       <c r="E2" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="F2" s="12" t="s">
         <v>373</v>
       </c>
-      <c r="F2" s="12" t="s">
-        <v>428</v>
-      </c>
       <c r="G2" s="12" t="s">
-        <v>499</v>
+        <v>444</v>
       </c>
       <c r="H2" s="12"/>
       <c r="I2" s="12" t="s">
-        <v>224</v>
+        <v>465</v>
       </c>
       <c r="J2" s="12" t="s">
         <v>10</v>
@@ -7533,26 +7590,26 @@
         <v>1</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>241</v>
+        <v>186</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>286</v>
+        <v>231</v>
       </c>
       <c r="D3" s="47" t="s">
         <v>136</v>
       </c>
       <c r="E3" s="12" t="s">
+        <v>319</v>
+      </c>
+      <c r="F3" s="12" t="s">
         <v>374</v>
       </c>
-      <c r="F3" s="12" t="s">
-        <v>429</v>
-      </c>
       <c r="G3" s="12" t="s">
-        <v>500</v>
+        <v>445</v>
       </c>
       <c r="H3" s="12"/>
       <c r="I3" s="12" t="s">
-        <v>225</v>
+        <v>509</v>
       </c>
       <c r="J3" s="12" t="s">
         <v>10</v>
@@ -7564,26 +7621,26 @@
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>241</v>
+        <v>186</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>287</v>
+        <v>232</v>
       </c>
       <c r="D4" s="47" t="s">
         <v>136</v>
       </c>
       <c r="E4" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="F4" s="12" t="s">
         <v>375</v>
       </c>
-      <c r="F4" s="12" t="s">
-        <v>430</v>
-      </c>
       <c r="G4" s="12" t="s">
-        <v>501</v>
+        <v>446</v>
       </c>
       <c r="H4" s="12"/>
       <c r="I4" s="12" t="s">
-        <v>226</v>
+        <v>510</v>
       </c>
       <c r="J4" s="12" t="s">
         <v>10</v>
@@ -7595,26 +7652,26 @@
         <v>1</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>241</v>
+        <v>186</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>288</v>
+        <v>233</v>
       </c>
       <c r="D5" s="47" t="s">
         <v>136</v>
       </c>
       <c r="E5" s="12" t="s">
+        <v>321</v>
+      </c>
+      <c r="F5" s="12" t="s">
         <v>376</v>
       </c>
-      <c r="F5" s="12" t="s">
-        <v>431</v>
-      </c>
       <c r="G5" s="12" t="s">
-        <v>502</v>
+        <v>447</v>
       </c>
       <c r="H5" s="12"/>
       <c r="I5" s="12" t="s">
-        <v>227</v>
+        <v>511</v>
       </c>
       <c r="J5" s="12" t="s">
         <v>10</v>
@@ -7626,26 +7683,26 @@
         <v>1</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>241</v>
+        <v>186</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>289</v>
+        <v>234</v>
       </c>
       <c r="D6" s="47" t="s">
         <v>136</v>
       </c>
       <c r="E6" s="12" t="s">
+        <v>322</v>
+      </c>
+      <c r="F6" s="12" t="s">
         <v>377</v>
       </c>
-      <c r="F6" s="12" t="s">
-        <v>432</v>
-      </c>
       <c r="G6" s="12" t="s">
-        <v>503</v>
+        <v>448</v>
       </c>
       <c r="H6" s="12"/>
       <c r="I6" s="12" t="s">
-        <v>228</v>
+        <v>512</v>
       </c>
       <c r="J6" s="12" t="s">
         <v>10</v>
@@ -7657,26 +7714,26 @@
         <v>1</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>241</v>
+        <v>186</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>290</v>
+        <v>235</v>
       </c>
       <c r="D7" s="47" t="s">
         <v>136</v>
       </c>
       <c r="E7" s="12" t="s">
+        <v>323</v>
+      </c>
+      <c r="F7" s="12" t="s">
         <v>378</v>
       </c>
-      <c r="F7" s="12" t="s">
-        <v>433</v>
-      </c>
       <c r="G7" s="12" t="s">
-        <v>504</v>
+        <v>449</v>
       </c>
       <c r="H7" s="12"/>
       <c r="I7" s="12" t="s">
-        <v>229</v>
+        <v>513</v>
       </c>
       <c r="J7" s="12" t="s">
         <v>10</v>
@@ -7688,26 +7745,26 @@
         <v>1</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>241</v>
+        <v>186</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>291</v>
+        <v>236</v>
       </c>
       <c r="D8" s="47" t="s">
         <v>136</v>
       </c>
       <c r="E8" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="F8" s="12" t="s">
         <v>379</v>
       </c>
-      <c r="F8" s="12" t="s">
-        <v>434</v>
-      </c>
       <c r="G8" s="12" t="s">
-        <v>505</v>
+        <v>450</v>
       </c>
       <c r="H8" s="12"/>
       <c r="I8" s="12" t="s">
-        <v>230</v>
+        <v>514</v>
       </c>
       <c r="J8" s="12" t="s">
         <v>10</v>
@@ -7719,26 +7776,26 @@
         <v>1</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>241</v>
+        <v>186</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>292</v>
+        <v>237</v>
       </c>
       <c r="D9" s="47" t="s">
         <v>136</v>
       </c>
       <c r="E9" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="F9" s="12" t="s">
         <v>380</v>
       </c>
-      <c r="F9" s="12" t="s">
-        <v>435</v>
-      </c>
       <c r="G9" s="12" t="s">
-        <v>506</v>
+        <v>451</v>
       </c>
       <c r="H9" s="12"/>
       <c r="I9" s="12" t="s">
-        <v>231</v>
+        <v>515</v>
       </c>
       <c r="J9" s="12" t="s">
         <v>10</v>
@@ -7750,26 +7807,26 @@
         <v>1</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>241</v>
+        <v>186</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>293</v>
+        <v>238</v>
       </c>
       <c r="D10" s="47" t="s">
         <v>136</v>
       </c>
       <c r="E10" s="12" t="s">
+        <v>326</v>
+      </c>
+      <c r="F10" s="12" t="s">
         <v>381</v>
       </c>
-      <c r="F10" s="12" t="s">
-        <v>436</v>
-      </c>
       <c r="G10" s="12" t="s">
-        <v>507</v>
+        <v>452</v>
       </c>
       <c r="H10" s="12"/>
       <c r="I10" s="12" t="s">
-        <v>232</v>
+        <v>516</v>
       </c>
       <c r="J10" s="12" t="s">
         <v>10</v>
@@ -7781,26 +7838,26 @@
         <v>1</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>241</v>
+        <v>186</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>294</v>
+        <v>239</v>
       </c>
       <c r="D11" s="47" t="s">
         <v>136</v>
       </c>
       <c r="E11" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="F11" s="12" t="s">
         <v>382</v>
       </c>
-      <c r="F11" s="12" t="s">
-        <v>437</v>
-      </c>
       <c r="G11" s="12" t="s">
-        <v>508</v>
+        <v>453</v>
       </c>
       <c r="H11" s="12"/>
       <c r="I11" s="12" t="s">
-        <v>233</v>
+        <v>517</v>
       </c>
       <c r="J11" s="12" t="s">
         <v>10</v>
@@ -7812,26 +7869,26 @@
         <v>1</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>241</v>
+        <v>186</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>295</v>
+        <v>240</v>
       </c>
       <c r="D12" s="47" t="s">
         <v>136</v>
       </c>
       <c r="E12" s="12" t="s">
+        <v>328</v>
+      </c>
+      <c r="F12" s="12" t="s">
         <v>383</v>
       </c>
-      <c r="F12" s="12" t="s">
-        <v>438</v>
-      </c>
       <c r="G12" s="12" t="s">
-        <v>509</v>
+        <v>454</v>
       </c>
       <c r="H12" s="12"/>
       <c r="I12" s="12" t="s">
-        <v>234</v>
+        <v>518</v>
       </c>
       <c r="J12" s="12" t="s">
         <v>10</v>
@@ -7843,26 +7900,26 @@
         <v>1</v>
       </c>
       <c r="B13" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="C13" s="12" t="s">
         <v>241</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>296</v>
       </c>
       <c r="D13" s="47" t="s">
         <v>136</v>
       </c>
       <c r="E13" s="12" t="s">
+        <v>329</v>
+      </c>
+      <c r="F13" s="12" t="s">
         <v>384</v>
       </c>
-      <c r="F13" s="12" t="s">
-        <v>439</v>
-      </c>
       <c r="G13" s="12" t="s">
-        <v>510</v>
+        <v>455</v>
       </c>
       <c r="H13" s="12"/>
       <c r="I13" s="12" t="s">
-        <v>235</v>
+        <v>519</v>
       </c>
       <c r="J13" s="12" t="s">
         <v>10</v>

--- a/structure-books_network1.xlsx
+++ b/structure-books_network1.xlsx
@@ -997,13 +997,7 @@
     <t>2進数と10進数の変換</t>
   </si>
   <si>
-    <t>ZHTOQLNQCng</t>
-  </si>
-  <si>
     <t>10進数の対応</t>
-  </si>
-  <si>
-    <t>mpFgXpQ2tSs</t>
   </si>
   <si>
     <t>10進数から2進数への変換</t>
@@ -2348,6 +2342,14 @@
   </si>
   <si>
     <t>uFpGIB26QUk</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>mpFgXpQ2tSs</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ZHTOQLNQCng</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -3202,6 +3204,10 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3302,10 +3308,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -3704,7 +3706,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3818,7 +3820,7 @@
       <c r="C7" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="63" t="s">
+      <c r="D7" s="64" t="s">
         <v>55</v>
       </c>
     </row>
@@ -3832,7 +3834,7 @@
       <c r="C8" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="64"/>
+      <c r="D8" s="65"/>
     </row>
     <row r="9" spans="1:5" ht="13.5" customHeight="1">
       <c r="A9" s="33" t="s">
@@ -3842,21 +3844,21 @@
         <v>41530</v>
       </c>
       <c r="C9" s="32" t="s">
-        <v>140</v>
-      </c>
-      <c r="D9" s="64"/>
+        <v>138</v>
+      </c>
+      <c r="D9" s="65"/>
     </row>
     <row r="10" spans="1:5" ht="13.5" customHeight="1">
       <c r="A10" s="33" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B10" s="36">
         <v>42188</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>152</v>
-      </c>
-      <c r="D10" s="64"/>
+        <v>150</v>
+      </c>
+      <c r="D10" s="65"/>
     </row>
     <row r="11" spans="1:5" ht="13.5" customHeight="1">
       <c r="A11" s="33" t="s">
@@ -3868,7 +3870,7 @@
       <c r="C11" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="65"/>
+      <c r="D11" s="66"/>
     </row>
     <row r="12" spans="1:5" ht="114">
       <c r="A12" s="33" t="s">
@@ -3903,7 +3905,7 @@
         <v>72</v>
       </c>
       <c r="B14" s="46" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C14" s="32" t="s">
         <v>34</v>
@@ -3928,18 +3930,18 @@
     </row>
     <row r="16" spans="1:5" ht="14.25">
       <c r="A16" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="B16" s="46" t="s">
+        <v>143</v>
+      </c>
+      <c r="C16" s="32" t="s">
         <v>144</v>
       </c>
-      <c r="B16" s="46" t="s">
+      <c r="D16" s="49" t="s">
         <v>145</v>
       </c>
-      <c r="C16" s="32" t="s">
-        <v>146</v>
-      </c>
-      <c r="D16" s="49" t="s">
-        <v>147</v>
-      </c>
-      <c r="E16" s="75" t="s">
+      <c r="E16" s="76" t="s">
         <v>96</v>
       </c>
     </row>
@@ -3953,43 +3955,43 @@
       <c r="C17" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="D17" s="63" t="s">
+      <c r="D17" s="64" t="s">
         <v>57</v>
       </c>
-      <c r="E17" s="75"/>
+      <c r="E17" s="76"/>
     </row>
     <row r="18" spans="1:5" ht="13.5" customHeight="1">
       <c r="A18" s="33" t="s">
         <v>75</v>
       </c>
       <c r="B18" s="45" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C18" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="D18" s="64"/>
-      <c r="E18" s="75"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="76"/>
     </row>
     <row r="19" spans="1:5" ht="13.5" customHeight="1">
       <c r="A19" s="33" t="s">
         <v>77</v>
       </c>
       <c r="B19" s="34" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C19" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="D19" s="65"/>
-      <c r="E19" s="75"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="76"/>
     </row>
     <row r="20" spans="1:5" ht="13.5" customHeight="1">
       <c r="A20" s="33" t="s">
         <v>79</v>
       </c>
       <c r="B20" s="34" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C20" s="32" t="s">
         <v>80</v>
@@ -3997,7 +3999,7 @@
       <c r="D20" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="E20" s="75"/>
+      <c r="E20" s="76"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="30" t="s">
@@ -4007,26 +4009,26 @@
       <c r="D21" s="29"/>
     </row>
     <row r="23" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A23" s="66" t="s">
+      <c r="A23" s="67" t="s">
         <v>93</v>
       </c>
-      <c r="B23" s="67"/>
-      <c r="C23" s="68"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="69"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="69"/>
-      <c r="B24" s="70"/>
-      <c r="C24" s="71"/>
+      <c r="A24" s="70"/>
+      <c r="B24" s="71"/>
+      <c r="C24" s="72"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="69"/>
-      <c r="B25" s="70"/>
-      <c r="C25" s="71"/>
+      <c r="A25" s="70"/>
+      <c r="B25" s="71"/>
+      <c r="C25" s="72"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="72"/>
-      <c r="B26" s="73"/>
-      <c r="C26" s="74"/>
+      <c r="A26" s="73"/>
+      <c r="B26" s="74"/>
+      <c r="C26" s="75"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
@@ -4077,7 +4079,7 @@
         <v>23</v>
       </c>
       <c r="B2" s="48" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>10</v>
@@ -4085,7 +4087,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="14" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B3" s="14"/>
       <c r="C3" s="14" t="s">
@@ -4168,10 +4170,10 @@
         <v>19</v>
       </c>
       <c r="D1" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E1" s="26" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>20</v>
@@ -4189,142 +4191,142 @@
       </c>
       <c r="C2" s="52"/>
       <c r="D2" s="50" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E2" s="59" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F2" s="57" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="G2" s="57" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="66.75" customHeight="1">
       <c r="A3" s="55" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B3" s="60" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C3" s="52"/>
       <c r="D3" s="50" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E3" s="59" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F3" s="57" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="G3" s="57" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="66.75" customHeight="1">
       <c r="A4" s="55" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B4" s="60" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C4" s="52"/>
       <c r="D4" s="50" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E4" s="59" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F4" s="57" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="G4" s="57" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="66.75" customHeight="1">
       <c r="A5" s="55" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B5" s="60" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C5" s="52"/>
       <c r="D5" s="50" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E5" s="59" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F5" s="57" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="G5" s="57" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="66.75" customHeight="1">
       <c r="A6" s="55" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B6" s="60" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C6" s="52"/>
       <c r="D6" s="50" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E6" s="59" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F6" s="57" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="G6" s="57" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="66.75" customHeight="1">
       <c r="A7" s="55" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B7" s="60" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C7" s="52"/>
       <c r="D7" s="50" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E7" s="59" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F7" s="57" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="G7" s="57" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="66.75" customHeight="1">
       <c r="A8" s="55" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B8" s="61" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C8" s="52"/>
       <c r="D8" s="50" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E8" s="62" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F8" s="57" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="G8" s="57" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="128.25">
@@ -4338,10 +4340,10 @@
         <v>51</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F9" s="22" t="s">
         <v>39</v>
@@ -4373,36 +4375,36 @@
     </row>
     <row r="13" spans="1:7" ht="14.25" customHeight="1">
       <c r="A13" s="6"/>
-      <c r="B13" s="76" t="s">
+      <c r="B13" s="77" t="s">
         <v>92</v>
       </c>
-      <c r="C13" s="77"/>
-      <c r="D13" s="78"/>
+      <c r="C13" s="78"/>
+      <c r="D13" s="79"/>
       <c r="F13" s="53"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="6"/>
-      <c r="B14" s="79"/>
-      <c r="C14" s="80"/>
-      <c r="D14" s="81"/>
+      <c r="B14" s="80"/>
+      <c r="C14" s="81"/>
+      <c r="D14" s="82"/>
       <c r="F14" s="53"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="B15" s="79"/>
-      <c r="C15" s="80"/>
-      <c r="D15" s="81"/>
+      <c r="B15" s="80"/>
+      <c r="C15" s="81"/>
+      <c r="D15" s="82"/>
       <c r="F15" s="53"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="B16" s="79"/>
-      <c r="C16" s="80"/>
-      <c r="D16" s="81"/>
+      <c r="B16" s="80"/>
+      <c r="C16" s="81"/>
+      <c r="D16" s="82"/>
       <c r="F16" s="53"/>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="82"/>
-      <c r="C17" s="83"/>
-      <c r="D17" s="84"/>
+      <c r="B17" s="83"/>
+      <c r="C17" s="84"/>
+      <c r="D17" s="85"/>
       <c r="F17" s="53"/>
     </row>
     <row r="18" spans="2:6">
@@ -4434,7 +4436,7 @@
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -4499,16 +4501,16 @@
         <v>106</v>
       </c>
       <c r="D2" s="47" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="H2" s="12"/>
       <c r="I2" s="12" t="s">
@@ -4530,16 +4532,16 @@
         <v>108</v>
       </c>
       <c r="D3" s="47" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="H3" s="12"/>
       <c r="I3" s="12" t="s">
@@ -4561,16 +4563,16 @@
         <v>110</v>
       </c>
       <c r="D4" s="47" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="H4" s="12"/>
       <c r="I4" s="12" t="s">
@@ -4592,16 +4594,16 @@
         <v>112</v>
       </c>
       <c r="D5" s="47" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="H5" s="12"/>
       <c r="I5" s="12" t="s">
@@ -4623,16 +4625,16 @@
         <v>114</v>
       </c>
       <c r="D6" s="47" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="H6" s="12"/>
       <c r="I6" s="12" t="s">
@@ -4654,16 +4656,16 @@
         <v>116</v>
       </c>
       <c r="D7" s="47" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="H7" s="12"/>
       <c r="I7" s="12" t="s">
@@ -4685,16 +4687,16 @@
         <v>118</v>
       </c>
       <c r="D8" s="47" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="H8" s="12"/>
       <c r="I8" s="12" t="s">
@@ -4716,16 +4718,16 @@
         <v>120</v>
       </c>
       <c r="D9" s="47" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="H9" s="12"/>
       <c r="I9" s="12" t="s">
@@ -4747,16 +4749,16 @@
         <v>123</v>
       </c>
       <c r="D10" s="47" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="H10" s="12"/>
       <c r="I10" s="12" t="s">
@@ -4778,16 +4780,16 @@
         <v>125</v>
       </c>
       <c r="D11" s="47" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="H11" s="12"/>
       <c r="I11" s="12" t="s">
@@ -4809,16 +4811,16 @@
         <v>127</v>
       </c>
       <c r="D12" s="47" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="H12" s="12"/>
       <c r="I12" s="12" t="s">
@@ -4840,20 +4842,20 @@
         <v>129</v>
       </c>
       <c r="D13" s="47" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="H13" s="12"/>
       <c r="I13" s="12" t="s">
-        <v>130</v>
+        <v>518</v>
       </c>
       <c r="J13" s="12" t="s">
         <v>10</v>
@@ -4868,23 +4870,23 @@
         <v>122</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D14" s="47" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="H14" s="12"/>
       <c r="I14" s="12" t="s">
-        <v>132</v>
+        <v>519</v>
       </c>
       <c r="J14" s="12" t="s">
         <v>10</v>
@@ -4899,23 +4901,23 @@
         <v>122</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D15" s="47" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="H15" s="12"/>
       <c r="I15" s="12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J15" s="12" t="s">
         <v>10</v>
@@ -4927,12 +4929,12 @@
         <v>11</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C16" s="12"/>
       <c r="D16" s="47"/>
       <c r="E16" s="13" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F16" s="12"/>
       <c r="G16" s="12"/>
@@ -4982,7 +4984,7 @@
         <v>50</v>
       </c>
       <c r="I18" s="38" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J18" s="38" t="s">
         <v>47</v>
@@ -4998,48 +5000,48 @@
       <c r="K20" s="19"/>
     </row>
     <row r="21" spans="1:11" ht="14.25" customHeight="1">
-      <c r="B21" s="85" t="s">
+      <c r="B21" s="86" t="s">
         <v>91</v>
       </c>
-      <c r="C21" s="86"/>
-      <c r="D21" s="86"/>
-      <c r="E21" s="87"/>
+      <c r="C21" s="87"/>
+      <c r="D21" s="87"/>
+      <c r="E21" s="88"/>
     </row>
     <row r="22" spans="1:11">
-      <c r="B22" s="88"/>
-      <c r="C22" s="89"/>
-      <c r="D22" s="89"/>
-      <c r="E22" s="90"/>
+      <c r="B22" s="89"/>
+      <c r="C22" s="90"/>
+      <c r="D22" s="90"/>
+      <c r="E22" s="91"/>
     </row>
     <row r="23" spans="1:11">
-      <c r="B23" s="88"/>
-      <c r="C23" s="89"/>
-      <c r="D23" s="89"/>
-      <c r="E23" s="90"/>
+      <c r="B23" s="89"/>
+      <c r="C23" s="90"/>
+      <c r="D23" s="90"/>
+      <c r="E23" s="91"/>
     </row>
     <row r="24" spans="1:11">
-      <c r="B24" s="88"/>
-      <c r="C24" s="89"/>
-      <c r="D24" s="89"/>
-      <c r="E24" s="90"/>
+      <c r="B24" s="89"/>
+      <c r="C24" s="90"/>
+      <c r="D24" s="90"/>
+      <c r="E24" s="91"/>
     </row>
     <row r="25" spans="1:11">
-      <c r="B25" s="88"/>
-      <c r="C25" s="89"/>
-      <c r="D25" s="89"/>
-      <c r="E25" s="90"/>
+      <c r="B25" s="89"/>
+      <c r="C25" s="90"/>
+      <c r="D25" s="90"/>
+      <c r="E25" s="91"/>
     </row>
     <row r="26" spans="1:11">
-      <c r="B26" s="88"/>
-      <c r="C26" s="89"/>
-      <c r="D26" s="89"/>
-      <c r="E26" s="90"/>
+      <c r="B26" s="89"/>
+      <c r="C26" s="90"/>
+      <c r="D26" s="90"/>
+      <c r="E26" s="91"/>
     </row>
     <row r="27" spans="1:11">
-      <c r="B27" s="91"/>
-      <c r="C27" s="92"/>
-      <c r="D27" s="92"/>
-      <c r="E27" s="93"/>
+      <c r="B27" s="92"/>
+      <c r="C27" s="93"/>
+      <c r="D27" s="93"/>
+      <c r="E27" s="94"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
@@ -5146,26 +5148,26 @@
         <v>1</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D2" s="47" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="H2" s="12"/>
-      <c r="I2" s="94" t="s">
-        <v>466</v>
+      <c r="I2" s="63" t="s">
+        <v>464</v>
       </c>
       <c r="J2" s="12" t="s">
         <v>10</v>
@@ -5177,26 +5179,26 @@
         <v>1</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D3" s="47" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="H3" s="12"/>
       <c r="I3" s="12" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="J3" s="12" t="s">
         <v>10</v>
@@ -5208,26 +5210,26 @@
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D4" s="47" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="H4" s="12"/>
       <c r="I4" s="12" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="J4" s="12" t="s">
         <v>10</v>
@@ -5239,26 +5241,26 @@
         <v>1</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D5" s="47" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="H5" s="12"/>
       <c r="I5" s="12" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="J5" s="12" t="s">
         <v>10</v>
@@ -5267,29 +5269,29 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="12" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D6" s="47" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H6" s="12"/>
       <c r="I6" s="12" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="J6" s="12" t="s">
         <v>10</v>
@@ -5301,26 +5303,26 @@
         <v>1</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D7" s="47" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="H7" s="12"/>
       <c r="I7" s="12" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="J7" s="12" t="s">
         <v>10</v>
@@ -5332,26 +5334,26 @@
         <v>1</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D8" s="47" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="H8" s="12"/>
       <c r="I8" s="12" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="J8" s="12" t="s">
         <v>10</v>
@@ -5363,26 +5365,26 @@
         <v>1</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D9" s="47" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="H9" s="12"/>
       <c r="I9" s="12" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="J9" s="12" t="s">
         <v>10</v>
@@ -5394,12 +5396,12 @@
         <v>11</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C10" s="12"/>
       <c r="D10" s="47"/>
       <c r="E10" s="13" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
@@ -5449,7 +5451,7 @@
         <v>50</v>
       </c>
       <c r="I12" s="38" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J12" s="38" t="s">
         <v>47</v>
@@ -5465,48 +5467,48 @@
       <c r="K14" s="19"/>
     </row>
     <row r="15" spans="1:11" ht="14.25" customHeight="1">
-      <c r="B15" s="85" t="s">
+      <c r="B15" s="86" t="s">
         <v>91</v>
       </c>
-      <c r="C15" s="86"/>
-      <c r="D15" s="86"/>
-      <c r="E15" s="87"/>
+      <c r="C15" s="87"/>
+      <c r="D15" s="87"/>
+      <c r="E15" s="88"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="B16" s="88"/>
-      <c r="C16" s="89"/>
-      <c r="D16" s="89"/>
-      <c r="E16" s="90"/>
+      <c r="B16" s="89"/>
+      <c r="C16" s="90"/>
+      <c r="D16" s="90"/>
+      <c r="E16" s="91"/>
     </row>
     <row r="17" spans="2:5">
-      <c r="B17" s="88"/>
-      <c r="C17" s="89"/>
-      <c r="D17" s="89"/>
-      <c r="E17" s="90"/>
+      <c r="B17" s="89"/>
+      <c r="C17" s="90"/>
+      <c r="D17" s="90"/>
+      <c r="E17" s="91"/>
     </row>
     <row r="18" spans="2:5">
-      <c r="B18" s="88"/>
-      <c r="C18" s="89"/>
-      <c r="D18" s="89"/>
-      <c r="E18" s="90"/>
+      <c r="B18" s="89"/>
+      <c r="C18" s="90"/>
+      <c r="D18" s="90"/>
+      <c r="E18" s="91"/>
     </row>
     <row r="19" spans="2:5">
-      <c r="B19" s="88"/>
-      <c r="C19" s="89"/>
-      <c r="D19" s="89"/>
-      <c r="E19" s="90"/>
+      <c r="B19" s="89"/>
+      <c r="C19" s="90"/>
+      <c r="D19" s="90"/>
+      <c r="E19" s="91"/>
     </row>
     <row r="20" spans="2:5">
-      <c r="B20" s="88"/>
-      <c r="C20" s="89"/>
-      <c r="D20" s="89"/>
-      <c r="E20" s="90"/>
+      <c r="B20" s="89"/>
+      <c r="C20" s="90"/>
+      <c r="D20" s="90"/>
+      <c r="E20" s="91"/>
     </row>
     <row r="21" spans="2:5">
-      <c r="B21" s="91"/>
-      <c r="C21" s="92"/>
-      <c r="D21" s="92"/>
-      <c r="E21" s="93"/>
+      <c r="B21" s="92"/>
+      <c r="C21" s="93"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="94"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
@@ -5610,26 +5612,26 @@
         <v>1</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D2" s="47" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="H2" s="12"/>
       <c r="I2" s="12" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="J2" s="12" t="s">
         <v>10</v>
@@ -5641,26 +5643,26 @@
         <v>1</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D3" s="47" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="H3" s="12"/>
       <c r="I3" s="12" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="J3" s="12" t="s">
         <v>10</v>
@@ -5672,26 +5674,26 @@
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D4" s="47" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="H4" s="12"/>
       <c r="I4" s="12" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="J4" s="12" t="s">
         <v>10</v>
@@ -5703,26 +5705,26 @@
         <v>1</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D5" s="47" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="H5" s="12"/>
       <c r="I5" s="12" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="J5" s="12" t="s">
         <v>10</v>
@@ -5734,26 +5736,26 @@
         <v>1</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D6" s="47" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="H6" s="12"/>
       <c r="I6" s="12" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="J6" s="12" t="s">
         <v>10</v>
@@ -5765,26 +5767,26 @@
         <v>1</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D7" s="47" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="H7" s="12"/>
       <c r="I7" s="12" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="J7" s="12" t="s">
         <v>10</v>
@@ -5796,26 +5798,26 @@
         <v>1</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D8" s="47" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="H8" s="12"/>
       <c r="I8" s="12" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="J8" s="12" t="s">
         <v>10</v>
@@ -5827,12 +5829,12 @@
         <v>11</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="47"/>
       <c r="E9" s="13" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
@@ -5882,7 +5884,7 @@
         <v>50</v>
       </c>
       <c r="I11" s="38" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J11" s="38" t="s">
         <v>47</v>
@@ -5898,48 +5900,48 @@
       <c r="K13" s="19"/>
     </row>
     <row r="14" spans="1:11" ht="14.25" customHeight="1">
-      <c r="B14" s="85" t="s">
+      <c r="B14" s="86" t="s">
         <v>91</v>
       </c>
-      <c r="C14" s="86"/>
-      <c r="D14" s="86"/>
-      <c r="E14" s="87"/>
+      <c r="C14" s="87"/>
+      <c r="D14" s="87"/>
+      <c r="E14" s="88"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="B15" s="88"/>
-      <c r="C15" s="89"/>
-      <c r="D15" s="89"/>
-      <c r="E15" s="90"/>
+      <c r="B15" s="89"/>
+      <c r="C15" s="90"/>
+      <c r="D15" s="90"/>
+      <c r="E15" s="91"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="B16" s="88"/>
-      <c r="C16" s="89"/>
-      <c r="D16" s="89"/>
-      <c r="E16" s="90"/>
+      <c r="B16" s="89"/>
+      <c r="C16" s="90"/>
+      <c r="D16" s="90"/>
+      <c r="E16" s="91"/>
     </row>
     <row r="17" spans="2:5">
-      <c r="B17" s="88"/>
-      <c r="C17" s="89"/>
-      <c r="D17" s="89"/>
-      <c r="E17" s="90"/>
+      <c r="B17" s="89"/>
+      <c r="C17" s="90"/>
+      <c r="D17" s="90"/>
+      <c r="E17" s="91"/>
     </row>
     <row r="18" spans="2:5">
-      <c r="B18" s="88"/>
-      <c r="C18" s="89"/>
-      <c r="D18" s="89"/>
-      <c r="E18" s="90"/>
+      <c r="B18" s="89"/>
+      <c r="C18" s="90"/>
+      <c r="D18" s="90"/>
+      <c r="E18" s="91"/>
     </row>
     <row r="19" spans="2:5">
-      <c r="B19" s="88"/>
-      <c r="C19" s="89"/>
-      <c r="D19" s="89"/>
-      <c r="E19" s="90"/>
+      <c r="B19" s="89"/>
+      <c r="C19" s="90"/>
+      <c r="D19" s="90"/>
+      <c r="E19" s="91"/>
     </row>
     <row r="20" spans="2:5">
-      <c r="B20" s="91"/>
-      <c r="C20" s="92"/>
-      <c r="D20" s="92"/>
-      <c r="E20" s="93"/>
+      <c r="B20" s="92"/>
+      <c r="C20" s="93"/>
+      <c r="D20" s="93"/>
+      <c r="E20" s="94"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
@@ -6043,26 +6045,26 @@
         <v>1</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D2" s="47" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="H2" s="12"/>
       <c r="I2" s="12" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="J2" s="12" t="s">
         <v>10</v>
@@ -6074,26 +6076,26 @@
         <v>1</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D3" s="47" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="H3" s="12"/>
       <c r="I3" s="12" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="J3" s="12" t="s">
         <v>10</v>
@@ -6105,26 +6107,26 @@
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D4" s="47" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="H4" s="12"/>
       <c r="I4" s="12" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="J4" s="12" t="s">
         <v>10</v>
@@ -6136,26 +6138,26 @@
         <v>1</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D5" s="47" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="H5" s="12"/>
       <c r="I5" s="12" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="J5" s="12" t="s">
         <v>10</v>
@@ -6167,26 +6169,26 @@
         <v>1</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D6" s="47" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="H6" s="12"/>
       <c r="I6" s="12" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="J6" s="12" t="s">
         <v>10</v>
@@ -6198,26 +6200,26 @@
         <v>1</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D7" s="47" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="H7" s="12"/>
       <c r="I7" s="12" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="J7" s="12" t="s">
         <v>10</v>
@@ -6229,26 +6231,26 @@
         <v>1</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D8" s="47" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="H8" s="12"/>
       <c r="I8" s="12" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="J8" s="12" t="s">
         <v>10</v>
@@ -6260,26 +6262,26 @@
         <v>1</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D9" s="47" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="H9" s="12"/>
       <c r="I9" s="12" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="J9" s="12" t="s">
         <v>10</v>
@@ -6291,26 +6293,26 @@
         <v>1</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D10" s="47" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="H10" s="12"/>
       <c r="I10" s="12" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="J10" s="12" t="s">
         <v>10</v>
@@ -6322,12 +6324,12 @@
         <v>11</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C11" s="12"/>
       <c r="D11" s="47"/>
       <c r="E11" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
@@ -6377,7 +6379,7 @@
         <v>50</v>
       </c>
       <c r="I13" s="38" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J13" s="38" t="s">
         <v>47</v>
@@ -6393,48 +6395,48 @@
       <c r="K15" s="19"/>
     </row>
     <row r="16" spans="1:11" ht="14.25" customHeight="1">
-      <c r="B16" s="85" t="s">
+      <c r="B16" s="86" t="s">
         <v>91</v>
       </c>
-      <c r="C16" s="86"/>
-      <c r="D16" s="86"/>
-      <c r="E16" s="87"/>
+      <c r="C16" s="87"/>
+      <c r="D16" s="87"/>
+      <c r="E16" s="88"/>
     </row>
     <row r="17" spans="2:5">
-      <c r="B17" s="88"/>
-      <c r="C17" s="89"/>
-      <c r="D17" s="89"/>
-      <c r="E17" s="90"/>
+      <c r="B17" s="89"/>
+      <c r="C17" s="90"/>
+      <c r="D17" s="90"/>
+      <c r="E17" s="91"/>
     </row>
     <row r="18" spans="2:5">
-      <c r="B18" s="88"/>
-      <c r="C18" s="89"/>
-      <c r="D18" s="89"/>
-      <c r="E18" s="90"/>
+      <c r="B18" s="89"/>
+      <c r="C18" s="90"/>
+      <c r="D18" s="90"/>
+      <c r="E18" s="91"/>
     </row>
     <row r="19" spans="2:5">
-      <c r="B19" s="88"/>
-      <c r="C19" s="89"/>
-      <c r="D19" s="89"/>
-      <c r="E19" s="90"/>
+      <c r="B19" s="89"/>
+      <c r="C19" s="90"/>
+      <c r="D19" s="90"/>
+      <c r="E19" s="91"/>
     </row>
     <row r="20" spans="2:5">
-      <c r="B20" s="88"/>
-      <c r="C20" s="89"/>
-      <c r="D20" s="89"/>
-      <c r="E20" s="90"/>
+      <c r="B20" s="89"/>
+      <c r="C20" s="90"/>
+      <c r="D20" s="90"/>
+      <c r="E20" s="91"/>
     </row>
     <row r="21" spans="2:5">
-      <c r="B21" s="88"/>
-      <c r="C21" s="89"/>
-      <c r="D21" s="89"/>
-      <c r="E21" s="90"/>
+      <c r="B21" s="89"/>
+      <c r="C21" s="90"/>
+      <c r="D21" s="90"/>
+      <c r="E21" s="91"/>
     </row>
     <row r="22" spans="2:5">
-      <c r="B22" s="91"/>
-      <c r="C22" s="92"/>
-      <c r="D22" s="92"/>
-      <c r="E22" s="93"/>
+      <c r="B22" s="92"/>
+      <c r="C22" s="93"/>
+      <c r="D22" s="93"/>
+      <c r="E22" s="94"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
@@ -6538,26 +6540,26 @@
         <v>1</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D2" s="47" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="H2" s="12"/>
       <c r="I2" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="J2" s="12" t="s">
         <v>10</v>
@@ -6569,26 +6571,26 @@
         <v>1</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D3" s="47" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="H3" s="12"/>
       <c r="I3" s="12" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="J3" s="12" t="s">
         <v>10</v>
@@ -6600,26 +6602,26 @@
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D4" s="47" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="H4" s="12"/>
       <c r="I4" s="12" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="J4" s="12" t="s">
         <v>10</v>
@@ -6631,26 +6633,26 @@
         <v>1</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D5" s="47" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="H5" s="12"/>
       <c r="I5" s="12" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="J5" s="12" t="s">
         <v>10</v>
@@ -6662,26 +6664,26 @@
         <v>1</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D6" s="47" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="H6" s="12"/>
       <c r="I6" s="12" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="J6" s="12" t="s">
         <v>10</v>
@@ -6693,26 +6695,26 @@
         <v>1</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D7" s="47" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="H7" s="12"/>
       <c r="I7" s="12" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="J7" s="12" t="s">
         <v>10</v>
@@ -6724,26 +6726,26 @@
         <v>1</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D8" s="47" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="H8" s="12"/>
       <c r="I8" s="12" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="J8" s="12" t="s">
         <v>10</v>
@@ -6755,26 +6757,26 @@
         <v>1</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D9" s="47" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="H9" s="12"/>
       <c r="I9" s="12" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="J9" s="12" t="s">
         <v>10</v>
@@ -6786,26 +6788,26 @@
         <v>1</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D10" s="47" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="H10" s="12"/>
       <c r="I10" s="12" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="J10" s="12" t="s">
         <v>10</v>
@@ -6817,26 +6819,26 @@
         <v>1</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D11" s="47" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="H11" s="12"/>
       <c r="I11" s="12" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="J11" s="12" t="s">
         <v>10</v>
@@ -6848,26 +6850,26 @@
         <v>1</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D12" s="47" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="H12" s="12"/>
       <c r="I12" s="12" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="J12" s="12" t="s">
         <v>10</v>
@@ -6879,12 +6881,12 @@
         <v>11</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C13" s="12"/>
       <c r="D13" s="47"/>
       <c r="E13" s="13" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
@@ -6934,7 +6936,7 @@
         <v>50</v>
       </c>
       <c r="I15" s="38" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J15" s="38" t="s">
         <v>47</v>
@@ -6950,48 +6952,48 @@
       <c r="K17" s="19"/>
     </row>
     <row r="18" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B18" s="85" t="s">
+      <c r="B18" s="86" t="s">
         <v>91</v>
       </c>
-      <c r="C18" s="86"/>
-      <c r="D18" s="86"/>
-      <c r="E18" s="87"/>
+      <c r="C18" s="87"/>
+      <c r="D18" s="87"/>
+      <c r="E18" s="88"/>
     </row>
     <row r="19" spans="2:11">
-      <c r="B19" s="88"/>
-      <c r="C19" s="89"/>
-      <c r="D19" s="89"/>
-      <c r="E19" s="90"/>
+      <c r="B19" s="89"/>
+      <c r="C19" s="90"/>
+      <c r="D19" s="90"/>
+      <c r="E19" s="91"/>
     </row>
     <row r="20" spans="2:11">
-      <c r="B20" s="88"/>
-      <c r="C20" s="89"/>
-      <c r="D20" s="89"/>
-      <c r="E20" s="90"/>
+      <c r="B20" s="89"/>
+      <c r="C20" s="90"/>
+      <c r="D20" s="90"/>
+      <c r="E20" s="91"/>
     </row>
     <row r="21" spans="2:11">
-      <c r="B21" s="88"/>
-      <c r="C21" s="89"/>
-      <c r="D21" s="89"/>
-      <c r="E21" s="90"/>
+      <c r="B21" s="89"/>
+      <c r="C21" s="90"/>
+      <c r="D21" s="90"/>
+      <c r="E21" s="91"/>
     </row>
     <row r="22" spans="2:11">
-      <c r="B22" s="88"/>
-      <c r="C22" s="89"/>
-      <c r="D22" s="89"/>
-      <c r="E22" s="90"/>
+      <c r="B22" s="89"/>
+      <c r="C22" s="90"/>
+      <c r="D22" s="90"/>
+      <c r="E22" s="91"/>
     </row>
     <row r="23" spans="2:11">
-      <c r="B23" s="88"/>
-      <c r="C23" s="89"/>
-      <c r="D23" s="89"/>
-      <c r="E23" s="90"/>
+      <c r="B23" s="89"/>
+      <c r="C23" s="90"/>
+      <c r="D23" s="90"/>
+      <c r="E23" s="91"/>
     </row>
     <row r="24" spans="2:11">
-      <c r="B24" s="91"/>
-      <c r="C24" s="92"/>
-      <c r="D24" s="92"/>
-      <c r="E24" s="93"/>
+      <c r="B24" s="92"/>
+      <c r="C24" s="93"/>
+      <c r="D24" s="93"/>
+      <c r="E24" s="94"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
@@ -7095,26 +7097,26 @@
         <v>1</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D2" s="47" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="H2" s="12"/>
       <c r="I2" s="12" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="J2" s="12" t="s">
         <v>10</v>
@@ -7126,26 +7128,26 @@
         <v>1</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D3" s="47" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="H3" s="12"/>
       <c r="I3" s="12" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="J3" s="12" t="s">
         <v>10</v>
@@ -7157,26 +7159,26 @@
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D4" s="47" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="H4" s="12"/>
       <c r="I4" s="12" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="J4" s="12" t="s">
         <v>10</v>
@@ -7188,26 +7190,26 @@
         <v>1</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D5" s="47" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="H5" s="12"/>
       <c r="I5" s="12" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="J5" s="12" t="s">
         <v>10</v>
@@ -7219,26 +7221,26 @@
         <v>1</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D6" s="47" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="H6" s="12"/>
       <c r="I6" s="12" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="J6" s="12" t="s">
         <v>10</v>
@@ -7250,26 +7252,26 @@
         <v>1</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D7" s="47" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="H7" s="12"/>
       <c r="I7" s="12" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="J7" s="12" t="s">
         <v>10</v>
@@ -7281,26 +7283,26 @@
         <v>1</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D8" s="47" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="H8" s="12"/>
       <c r="I8" s="12" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="J8" s="12" t="s">
         <v>10</v>
@@ -7312,26 +7314,26 @@
         <v>1</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D9" s="47" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="H9" s="12"/>
       <c r="I9" s="12" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="J9" s="12" t="s">
         <v>10</v>
@@ -7343,12 +7345,12 @@
         <v>11</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C10" s="12"/>
       <c r="D10" s="47"/>
       <c r="E10" s="13" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
@@ -7398,7 +7400,7 @@
         <v>50</v>
       </c>
       <c r="I12" s="38" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J12" s="38" t="s">
         <v>47</v>
@@ -7414,48 +7416,48 @@
       <c r="K14" s="19"/>
     </row>
     <row r="15" spans="1:11" ht="14.25" customHeight="1">
-      <c r="B15" s="85" t="s">
+      <c r="B15" s="86" t="s">
         <v>91</v>
       </c>
-      <c r="C15" s="86"/>
-      <c r="D15" s="86"/>
-      <c r="E15" s="87"/>
+      <c r="C15" s="87"/>
+      <c r="D15" s="87"/>
+      <c r="E15" s="88"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="B16" s="88"/>
-      <c r="C16" s="89"/>
-      <c r="D16" s="89"/>
-      <c r="E16" s="90"/>
+      <c r="B16" s="89"/>
+      <c r="C16" s="90"/>
+      <c r="D16" s="90"/>
+      <c r="E16" s="91"/>
     </row>
     <row r="17" spans="2:5">
-      <c r="B17" s="88"/>
-      <c r="C17" s="89"/>
-      <c r="D17" s="89"/>
-      <c r="E17" s="90"/>
+      <c r="B17" s="89"/>
+      <c r="C17" s="90"/>
+      <c r="D17" s="90"/>
+      <c r="E17" s="91"/>
     </row>
     <row r="18" spans="2:5">
-      <c r="B18" s="88"/>
-      <c r="C18" s="89"/>
-      <c r="D18" s="89"/>
-      <c r="E18" s="90"/>
+      <c r="B18" s="89"/>
+      <c r="C18" s="90"/>
+      <c r="D18" s="90"/>
+      <c r="E18" s="91"/>
     </row>
     <row r="19" spans="2:5">
-      <c r="B19" s="88"/>
-      <c r="C19" s="89"/>
-      <c r="D19" s="89"/>
-      <c r="E19" s="90"/>
+      <c r="B19" s="89"/>
+      <c r="C19" s="90"/>
+      <c r="D19" s="90"/>
+      <c r="E19" s="91"/>
     </row>
     <row r="20" spans="2:5">
-      <c r="B20" s="88"/>
-      <c r="C20" s="89"/>
-      <c r="D20" s="89"/>
-      <c r="E20" s="90"/>
+      <c r="B20" s="89"/>
+      <c r="C20" s="90"/>
+      <c r="D20" s="90"/>
+      <c r="E20" s="91"/>
     </row>
     <row r="21" spans="2:5">
-      <c r="B21" s="91"/>
-      <c r="C21" s="92"/>
-      <c r="D21" s="92"/>
-      <c r="E21" s="93"/>
+      <c r="B21" s="92"/>
+      <c r="C21" s="93"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="94"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
@@ -7559,26 +7561,26 @@
         <v>1</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D2" s="47" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H2" s="12"/>
       <c r="I2" s="12" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="J2" s="12" t="s">
         <v>10</v>
@@ -7590,26 +7592,26 @@
         <v>1</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D3" s="47" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="H3" s="12"/>
       <c r="I3" s="12" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="J3" s="12" t="s">
         <v>10</v>
@@ -7621,26 +7623,26 @@
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D4" s="47" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="H4" s="12"/>
       <c r="I4" s="12" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="J4" s="12" t="s">
         <v>10</v>
@@ -7652,26 +7654,26 @@
         <v>1</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D5" s="47" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="H5" s="12"/>
       <c r="I5" s="12" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="J5" s="12" t="s">
         <v>10</v>
@@ -7683,26 +7685,26 @@
         <v>1</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D6" s="47" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="H6" s="12"/>
       <c r="I6" s="12" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="J6" s="12" t="s">
         <v>10</v>
@@ -7714,26 +7716,26 @@
         <v>1</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D7" s="47" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="H7" s="12"/>
       <c r="I7" s="12" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="J7" s="12" t="s">
         <v>10</v>
@@ -7745,26 +7747,26 @@
         <v>1</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D8" s="47" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="H8" s="12"/>
       <c r="I8" s="12" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="J8" s="12" t="s">
         <v>10</v>
@@ -7776,26 +7778,26 @@
         <v>1</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D9" s="47" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="H9" s="12"/>
       <c r="I9" s="12" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="J9" s="12" t="s">
         <v>10</v>
@@ -7807,26 +7809,26 @@
         <v>1</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D10" s="47" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="H10" s="12"/>
       <c r="I10" s="12" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="J10" s="12" t="s">
         <v>10</v>
@@ -7838,26 +7840,26 @@
         <v>1</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D11" s="47" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="H11" s="12"/>
       <c r="I11" s="12" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="J11" s="12" t="s">
         <v>10</v>
@@ -7869,26 +7871,26 @@
         <v>1</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D12" s="47" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="H12" s="12"/>
       <c r="I12" s="12" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="J12" s="12" t="s">
         <v>10</v>
@@ -7900,26 +7902,26 @@
         <v>1</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D13" s="47" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="H13" s="12"/>
       <c r="I13" s="12" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="J13" s="12" t="s">
         <v>10</v>
@@ -7931,12 +7933,12 @@
         <v>11</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C14" s="12"/>
       <c r="D14" s="47"/>
       <c r="E14" s="13" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
@@ -7986,7 +7988,7 @@
         <v>50</v>
       </c>
       <c r="I16" s="38" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J16" s="38" t="s">
         <v>47</v>
@@ -8002,48 +8004,48 @@
       <c r="K18" s="19"/>
     </row>
     <row r="19" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B19" s="85" t="s">
+      <c r="B19" s="86" t="s">
         <v>91</v>
       </c>
-      <c r="C19" s="86"/>
-      <c r="D19" s="86"/>
-      <c r="E19" s="87"/>
+      <c r="C19" s="87"/>
+      <c r="D19" s="87"/>
+      <c r="E19" s="88"/>
     </row>
     <row r="20" spans="2:11">
-      <c r="B20" s="88"/>
-      <c r="C20" s="89"/>
-      <c r="D20" s="89"/>
-      <c r="E20" s="90"/>
+      <c r="B20" s="89"/>
+      <c r="C20" s="90"/>
+      <c r="D20" s="90"/>
+      <c r="E20" s="91"/>
     </row>
     <row r="21" spans="2:11">
-      <c r="B21" s="88"/>
-      <c r="C21" s="89"/>
-      <c r="D21" s="89"/>
-      <c r="E21" s="90"/>
+      <c r="B21" s="89"/>
+      <c r="C21" s="90"/>
+      <c r="D21" s="90"/>
+      <c r="E21" s="91"/>
     </row>
     <row r="22" spans="2:11">
-      <c r="B22" s="88"/>
-      <c r="C22" s="89"/>
-      <c r="D22" s="89"/>
-      <c r="E22" s="90"/>
+      <c r="B22" s="89"/>
+      <c r="C22" s="90"/>
+      <c r="D22" s="90"/>
+      <c r="E22" s="91"/>
     </row>
     <row r="23" spans="2:11">
-      <c r="B23" s="88"/>
-      <c r="C23" s="89"/>
-      <c r="D23" s="89"/>
-      <c r="E23" s="90"/>
+      <c r="B23" s="89"/>
+      <c r="C23" s="90"/>
+      <c r="D23" s="90"/>
+      <c r="E23" s="91"/>
     </row>
     <row r="24" spans="2:11">
-      <c r="B24" s="88"/>
-      <c r="C24" s="89"/>
-      <c r="D24" s="89"/>
-      <c r="E24" s="90"/>
+      <c r="B24" s="89"/>
+      <c r="C24" s="90"/>
+      <c r="D24" s="90"/>
+      <c r="E24" s="91"/>
     </row>
     <row r="25" spans="2:11">
-      <c r="B25" s="91"/>
-      <c r="C25" s="92"/>
-      <c r="D25" s="92"/>
-      <c r="E25" s="93"/>
+      <c r="B25" s="92"/>
+      <c r="C25" s="93"/>
+      <c r="D25" s="93"/>
+      <c r="E25" s="94"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>

--- a/structure-books_network1.xlsx
+++ b/structure-books_network1.xlsx
@@ -2354,7 +2354,7 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>http://proxy.chilos.jp/p001</t>
+    <t>http://proxy.chilos.jp/p001d</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>

--- a/structure-books_network1.xlsx
+++ b/structure-books_network1.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="526">
   <si>
     <t>cover</t>
     <phoneticPr fontId="3"/>
@@ -2118,10 +2118,6 @@
     <t>http://proxy.chilos.jp/dl00107</t>
   </si>
   <si>
-    <t>http://proxy.chilos.jp/co001</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>v1-VoqRjxho</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -2354,8 +2350,30 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>http://proxy.chilos.jp/p001d</t>
-    <phoneticPr fontId="3"/>
+    <t>http://proxy.chilos.jp/p001</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>http://proxy.chilos.jp/co00101</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>http://proxy.chilos.jp/co00102</t>
+  </si>
+  <si>
+    <t>http://proxy.chilos.jp/co00103</t>
+  </si>
+  <si>
+    <t>http://proxy.chilos.jp/co00104</t>
+  </si>
+  <si>
+    <t>http://proxy.chilos.jp/co00105</t>
+  </si>
+  <si>
+    <t>http://proxy.chilos.jp/co00106</t>
+  </si>
+  <si>
+    <t>http://proxy.chilos.jp/co00107</t>
   </si>
 </sst>
 </file>
@@ -3723,7 +3741,7 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3855,7 +3873,7 @@
     </row>
     <row r="10" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="33" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B10" s="36">
         <v>42188</v>
@@ -3910,7 +3928,7 @@
         <v>72</v>
       </c>
       <c r="B14" s="46" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C14" s="32" t="s">
         <v>34</v>
@@ -4149,7 +4167,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -4201,7 +4219,7 @@
         <v>146</v>
       </c>
       <c r="F2" s="57" t="s">
-        <v>460</v>
+        <v>519</v>
       </c>
       <c r="G2" s="57" t="s">
         <v>453</v>
@@ -4222,7 +4240,7 @@
         <v>239</v>
       </c>
       <c r="F3" s="57" t="s">
-        <v>460</v>
+        <v>520</v>
       </c>
       <c r="G3" s="57" t="s">
         <v>454</v>
@@ -4243,7 +4261,7 @@
         <v>240</v>
       </c>
       <c r="F4" s="57" t="s">
-        <v>460</v>
+        <v>521</v>
       </c>
       <c r="G4" s="57" t="s">
         <v>455</v>
@@ -4264,7 +4282,7 @@
         <v>241</v>
       </c>
       <c r="F5" s="57" t="s">
-        <v>460</v>
+        <v>522</v>
       </c>
       <c r="G5" s="57" t="s">
         <v>456</v>
@@ -4285,7 +4303,7 @@
         <v>242</v>
       </c>
       <c r="F6" s="57" t="s">
-        <v>460</v>
+        <v>523</v>
       </c>
       <c r="G6" s="57" t="s">
         <v>457</v>
@@ -4306,7 +4324,7 @@
         <v>243</v>
       </c>
       <c r="F7" s="57" t="s">
-        <v>460</v>
+        <v>524</v>
       </c>
       <c r="G7" s="57" t="s">
         <v>458</v>
@@ -4327,7 +4345,7 @@
         <v>244</v>
       </c>
       <c r="F8" s="57" t="s">
-        <v>460</v>
+        <v>525</v>
       </c>
       <c r="G8" s="57" t="s">
         <v>459</v>
@@ -4422,7 +4440,7 @@
   <phoneticPr fontId="3"/>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1"/>
-    <hyperlink ref="F3:F8" r:id="rId2" display="http://proxy.chilos.jp/co001"/>
+    <hyperlink ref="F3:F8" r:id="rId2" display="http://proxy.chilos.jp/co00101"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId3"/>
@@ -4859,7 +4877,7 @@
       </c>
       <c r="H13" s="12"/>
       <c r="I13" s="12" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="J13" s="12" t="s">
         <v>10</v>
@@ -4890,7 +4908,7 @@
       </c>
       <c r="H14" s="12"/>
       <c r="I14" s="12" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="J14" s="12" t="s">
         <v>10</v>
@@ -5171,7 +5189,7 @@
       </c>
       <c r="H2" s="12"/>
       <c r="I2" s="63" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="J2" s="12" t="s">
         <v>10</v>
@@ -5202,7 +5220,7 @@
       </c>
       <c r="H3" s="12"/>
       <c r="I3" s="12" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="J3" s="12" t="s">
         <v>10</v>
@@ -5233,7 +5251,7 @@
       </c>
       <c r="H4" s="12"/>
       <c r="I4" s="12" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="J4" s="12" t="s">
         <v>10</v>
@@ -5264,7 +5282,7 @@
       </c>
       <c r="H5" s="12"/>
       <c r="I5" s="12" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="J5" s="12" t="s">
         <v>10</v>
@@ -5295,7 +5313,7 @@
       </c>
       <c r="H6" s="12"/>
       <c r="I6" s="12" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="J6" s="12" t="s">
         <v>10</v>
@@ -5326,7 +5344,7 @@
       </c>
       <c r="H7" s="12"/>
       <c r="I7" s="12" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="J7" s="12" t="s">
         <v>10</v>
@@ -5357,7 +5375,7 @@
       </c>
       <c r="H8" s="12"/>
       <c r="I8" s="12" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J8" s="12" t="s">
         <v>10</v>
@@ -5388,7 +5406,7 @@
       </c>
       <c r="H9" s="12"/>
       <c r="I9" s="12" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="J9" s="12" t="s">
         <v>10</v>
@@ -5635,7 +5653,7 @@
       </c>
       <c r="H2" s="12"/>
       <c r="I2" s="12" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="J2" s="12" t="s">
         <v>10</v>
@@ -5666,7 +5684,7 @@
       </c>
       <c r="H3" s="12"/>
       <c r="I3" s="12" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="J3" s="12" t="s">
         <v>10</v>
@@ -5697,7 +5715,7 @@
       </c>
       <c r="H4" s="12"/>
       <c r="I4" s="12" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="J4" s="12" t="s">
         <v>10</v>
@@ -5728,7 +5746,7 @@
       </c>
       <c r="H5" s="12"/>
       <c r="I5" s="12" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="J5" s="12" t="s">
         <v>10</v>
@@ -5759,7 +5777,7 @@
       </c>
       <c r="H6" s="12"/>
       <c r="I6" s="12" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="J6" s="12" t="s">
         <v>10</v>
@@ -5790,7 +5808,7 @@
       </c>
       <c r="H7" s="12"/>
       <c r="I7" s="12" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="J7" s="12" t="s">
         <v>10</v>
@@ -5821,7 +5839,7 @@
       </c>
       <c r="H8" s="12"/>
       <c r="I8" s="12" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="J8" s="12" t="s">
         <v>10</v>
@@ -6068,7 +6086,7 @@
       </c>
       <c r="H2" s="12"/>
       <c r="I2" s="12" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="J2" s="12" t="s">
         <v>10</v>
@@ -6099,7 +6117,7 @@
       </c>
       <c r="H3" s="12"/>
       <c r="I3" s="12" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="J3" s="12" t="s">
         <v>10</v>
@@ -6130,7 +6148,7 @@
       </c>
       <c r="H4" s="12"/>
       <c r="I4" s="12" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="J4" s="12" t="s">
         <v>10</v>
@@ -6161,7 +6179,7 @@
       </c>
       <c r="H5" s="12"/>
       <c r="I5" s="12" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="J5" s="12" t="s">
         <v>10</v>
@@ -6192,7 +6210,7 @@
       </c>
       <c r="H6" s="12"/>
       <c r="I6" s="12" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="J6" s="12" t="s">
         <v>10</v>
@@ -6223,7 +6241,7 @@
       </c>
       <c r="H7" s="12"/>
       <c r="I7" s="12" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="J7" s="12" t="s">
         <v>10</v>
@@ -6254,7 +6272,7 @@
       </c>
       <c r="H8" s="12"/>
       <c r="I8" s="12" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="J8" s="12" t="s">
         <v>10</v>
@@ -6285,7 +6303,7 @@
       </c>
       <c r="H9" s="12"/>
       <c r="I9" s="12" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="J9" s="12" t="s">
         <v>10</v>
@@ -6316,7 +6334,7 @@
       </c>
       <c r="H10" s="12"/>
       <c r="I10" s="12" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="J10" s="12" t="s">
         <v>10</v>
@@ -6563,7 +6581,7 @@
       </c>
       <c r="H2" s="12"/>
       <c r="I2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="J2" s="12" t="s">
         <v>10</v>
@@ -6594,7 +6612,7 @@
       </c>
       <c r="H3" s="12"/>
       <c r="I3" s="12" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="J3" s="12" t="s">
         <v>10</v>
@@ -6625,7 +6643,7 @@
       </c>
       <c r="H4" s="12"/>
       <c r="I4" s="12" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="J4" s="12" t="s">
         <v>10</v>
@@ -6656,7 +6674,7 @@
       </c>
       <c r="H5" s="12"/>
       <c r="I5" s="12" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="J5" s="12" t="s">
         <v>10</v>
@@ -6687,7 +6705,7 @@
       </c>
       <c r="H6" s="12"/>
       <c r="I6" s="12" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="J6" s="12" t="s">
         <v>10</v>
@@ -6718,7 +6736,7 @@
       </c>
       <c r="H7" s="12"/>
       <c r="I7" s="12" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="J7" s="12" t="s">
         <v>10</v>
@@ -6749,7 +6767,7 @@
       </c>
       <c r="H8" s="12"/>
       <c r="I8" s="12" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J8" s="12" t="s">
         <v>10</v>
@@ -6780,7 +6798,7 @@
       </c>
       <c r="H9" s="12"/>
       <c r="I9" s="12" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="J9" s="12" t="s">
         <v>10</v>
@@ -6811,7 +6829,7 @@
       </c>
       <c r="H10" s="12"/>
       <c r="I10" s="12" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J10" s="12" t="s">
         <v>10</v>
@@ -6842,7 +6860,7 @@
       </c>
       <c r="H11" s="12"/>
       <c r="I11" s="12" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="J11" s="12" t="s">
         <v>10</v>
@@ -6873,7 +6891,7 @@
       </c>
       <c r="H12" s="12"/>
       <c r="I12" s="12" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="J12" s="12" t="s">
         <v>10</v>
@@ -7120,7 +7138,7 @@
       </c>
       <c r="H2" s="12"/>
       <c r="I2" s="12" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="J2" s="12" t="s">
         <v>10</v>
@@ -7151,7 +7169,7 @@
       </c>
       <c r="H3" s="12"/>
       <c r="I3" s="12" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="J3" s="12" t="s">
         <v>10</v>
@@ -7182,7 +7200,7 @@
       </c>
       <c r="H4" s="12"/>
       <c r="I4" s="12" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J4" s="12" t="s">
         <v>10</v>
@@ -7213,7 +7231,7 @@
       </c>
       <c r="H5" s="12"/>
       <c r="I5" s="12" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="J5" s="12" t="s">
         <v>10</v>
@@ -7244,7 +7262,7 @@
       </c>
       <c r="H6" s="12"/>
       <c r="I6" s="12" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="J6" s="12" t="s">
         <v>10</v>
@@ -7275,7 +7293,7 @@
       </c>
       <c r="H7" s="12"/>
       <c r="I7" s="12" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="J7" s="12" t="s">
         <v>10</v>
@@ -7306,7 +7324,7 @@
       </c>
       <c r="H8" s="12"/>
       <c r="I8" s="12" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="J8" s="12" t="s">
         <v>10</v>
@@ -7337,7 +7355,7 @@
       </c>
       <c r="H9" s="12"/>
       <c r="I9" s="12" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="J9" s="12" t="s">
         <v>10</v>
@@ -7584,7 +7602,7 @@
       </c>
       <c r="H2" s="12"/>
       <c r="I2" s="12" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="J2" s="12" t="s">
         <v>10</v>
@@ -7615,7 +7633,7 @@
       </c>
       <c r="H3" s="12"/>
       <c r="I3" s="12" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="J3" s="12" t="s">
         <v>10</v>
@@ -7646,7 +7664,7 @@
       </c>
       <c r="H4" s="12"/>
       <c r="I4" s="12" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="J4" s="12" t="s">
         <v>10</v>
@@ -7677,7 +7695,7 @@
       </c>
       <c r="H5" s="12"/>
       <c r="I5" s="12" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="J5" s="12" t="s">
         <v>10</v>
@@ -7708,7 +7726,7 @@
       </c>
       <c r="H6" s="12"/>
       <c r="I6" s="12" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J6" s="12" t="s">
         <v>10</v>
@@ -7739,7 +7757,7 @@
       </c>
       <c r="H7" s="12"/>
       <c r="I7" s="12" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J7" s="12" t="s">
         <v>10</v>
@@ -7770,7 +7788,7 @@
       </c>
       <c r="H8" s="12"/>
       <c r="I8" s="12" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="J8" s="12" t="s">
         <v>10</v>
@@ -7801,7 +7819,7 @@
       </c>
       <c r="H9" s="12"/>
       <c r="I9" s="12" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="J9" s="12" t="s">
         <v>10</v>
@@ -7832,7 +7850,7 @@
       </c>
       <c r="H10" s="12"/>
       <c r="I10" s="12" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="J10" s="12" t="s">
         <v>10</v>
@@ -7863,7 +7881,7 @@
       </c>
       <c r="H11" s="12"/>
       <c r="I11" s="12" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="J11" s="12" t="s">
         <v>10</v>
@@ -7894,7 +7912,7 @@
       </c>
       <c r="H12" s="12"/>
       <c r="I12" s="12" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="J12" s="12" t="s">
         <v>10</v>
@@ -7925,7 +7943,7 @@
       </c>
       <c r="H13" s="12"/>
       <c r="I13" s="12" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="J13" s="12" t="s">
         <v>10</v>

--- a/structure-books_network1.xlsx
+++ b/structure-books_network1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17730" windowHeight="8175"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17730" windowHeight="8175" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="series-information" sheetId="37" r:id="rId1"/>
@@ -2350,30 +2350,30 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
+    <t>http://proxy.chilos.jp/co00101</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>http://proxy.chilos.jp/co00102</t>
+  </si>
+  <si>
+    <t>http://proxy.chilos.jp/co00103</t>
+  </si>
+  <si>
+    <t>http://proxy.chilos.jp/co00104</t>
+  </si>
+  <si>
+    <t>http://proxy.chilos.jp/co00105</t>
+  </si>
+  <si>
+    <t>http://proxy.chilos.jp/co00106</t>
+  </si>
+  <si>
+    <t>http://proxy.chilos.jp/co00107</t>
+  </si>
+  <si>
     <t>http://proxy.chilos.jp/p001</t>
     <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>http://proxy.chilos.jp/co00101</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>http://proxy.chilos.jp/co00102</t>
-  </si>
-  <si>
-    <t>http://proxy.chilos.jp/co00103</t>
-  </si>
-  <si>
-    <t>http://proxy.chilos.jp/co00104</t>
-  </si>
-  <si>
-    <t>http://proxy.chilos.jp/co00105</t>
-  </si>
-  <si>
-    <t>http://proxy.chilos.jp/co00106</t>
-  </si>
-  <si>
-    <t>http://proxy.chilos.jp/co00107</t>
   </si>
 </sst>
 </file>
@@ -3740,8 +3740,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3928,7 +3928,7 @@
         <v>72</v>
       </c>
       <c r="B14" s="46" t="s">
-        <v>518</v>
+        <v>525</v>
       </c>
       <c r="C14" s="32" t="s">
         <v>34</v>
@@ -4219,7 +4219,7 @@
         <v>146</v>
       </c>
       <c r="F2" s="57" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="G2" s="57" t="s">
         <v>453</v>
@@ -4240,7 +4240,7 @@
         <v>239</v>
       </c>
       <c r="F3" s="57" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="G3" s="57" t="s">
         <v>454</v>
@@ -4261,7 +4261,7 @@
         <v>240</v>
       </c>
       <c r="F4" s="57" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="G4" s="57" t="s">
         <v>455</v>
@@ -4282,7 +4282,7 @@
         <v>241</v>
       </c>
       <c r="F5" s="57" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="G5" s="57" t="s">
         <v>456</v>
@@ -4303,7 +4303,7 @@
         <v>242</v>
       </c>
       <c r="F6" s="57" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="G6" s="57" t="s">
         <v>457</v>
@@ -4324,7 +4324,7 @@
         <v>243</v>
       </c>
       <c r="F7" s="57" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="G7" s="57" t="s">
         <v>458</v>
@@ -4345,7 +4345,7 @@
         <v>244</v>
       </c>
       <c r="F8" s="57" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="G8" s="57" t="s">
         <v>459</v>
@@ -4457,7 +4457,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>

--- a/structure-books_network1.xlsx
+++ b/structure-books_network1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="7785"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="series-information" sheetId="37" r:id="rId1"/>
@@ -831,9 +831,6 @@
     <t>001m_0101.png</t>
   </si>
   <si>
-    <t>vol-001-011.xhtml</t>
-  </si>
-  <si>
     <t>hT7vw_D-GXg</t>
   </si>
   <si>
@@ -846,9 +843,6 @@
     <t>001m_0102.png</t>
   </si>
   <si>
-    <t>vol-001-012.xhtml</t>
-  </si>
-  <si>
     <t>4C-Yl_PJCIw</t>
   </si>
   <si>
@@ -861,9 +855,6 @@
     <t>001m_0103.png</t>
   </si>
   <si>
-    <t>vol-001-013.xhtml</t>
-  </si>
-  <si>
     <t>XfN90SUtMQE</t>
   </si>
   <si>
@@ -876,9 +867,6 @@
     <t>001m_0104.png</t>
   </si>
   <si>
-    <t>vol-001-014.xhtml</t>
-  </si>
-  <si>
     <t>yjyoKzAbEUM</t>
   </si>
   <si>
@@ -891,9 +879,6 @@
     <t>001m_0105.png</t>
   </si>
   <si>
-    <t>vol-001-015.xhtml</t>
-  </si>
-  <si>
     <t>JbxJomDCEjo</t>
   </si>
   <si>
@@ -906,9 +891,6 @@
     <t>001m_0106.png</t>
   </si>
   <si>
-    <t>vol-001-016.xhtml</t>
-  </si>
-  <si>
     <t>djA5g6ee6e4</t>
   </si>
   <si>
@@ -921,9 +903,6 @@
     <t>001m_0107.png</t>
   </si>
   <si>
-    <t>vol-001-017.xhtml</t>
-  </si>
-  <si>
     <t>XXVlWce8MBo</t>
   </si>
   <si>
@@ -936,9 +915,6 @@
     <t>001m_0108.png</t>
   </si>
   <si>
-    <t>vol-001-018.xhtml</t>
-  </si>
-  <si>
     <t>y4-41rFGdmI</t>
   </si>
   <si>
@@ -954,9 +930,6 @@
     <t>001m_0109.png</t>
   </si>
   <si>
-    <t>vol-001-020.xhtml</t>
-  </si>
-  <si>
     <t>FTcGkjv50Bk</t>
   </si>
   <si>
@@ -969,9 +942,6 @@
     <t>001m_0110.png</t>
   </si>
   <si>
-    <t>vol-001-021.xhtml</t>
-  </si>
-  <si>
     <t>UfgFifcmjU0</t>
   </si>
   <si>
@@ -984,9 +954,6 @@
     <t>001m_0111.png</t>
   </si>
   <si>
-    <t>vol-001-022.xhtml</t>
-  </si>
-  <si>
     <t>FrjDuHqH1E4</t>
   </si>
   <si>
@@ -999,9 +966,6 @@
     <t>001m_0112.png</t>
   </si>
   <si>
-    <t>vol-001-023.xhtml</t>
-  </si>
-  <si>
     <t>mpFgXpQ2tSs</t>
   </si>
   <si>
@@ -1014,9 +978,6 @@
     <t>001m_0113.png</t>
   </si>
   <si>
-    <t>vol-001-024.xhtml</t>
-  </si>
-  <si>
     <t>ZHTOQLNQCng</t>
   </si>
   <si>
@@ -1027,9 +988,6 @@
   </si>
   <si>
     <t>001m_0114.png</t>
-  </si>
-  <si>
-    <t>vol-001-025.xhtml</t>
   </si>
   <si>
     <t>85l1JkRzTDg</t>
@@ -1061,9 +1019,6 @@
     <t>001m_0201.png</t>
   </si>
   <si>
-    <t>vol-002-011.xhtml</t>
-  </si>
-  <si>
     <t>-tumki-skDM</t>
   </si>
   <si>
@@ -1076,9 +1031,6 @@
     <t>001m_0202.png</t>
   </si>
   <si>
-    <t>vol-002-012.xhtml</t>
-  </si>
-  <si>
     <t>ev3RTZF2nVQ</t>
   </si>
   <si>
@@ -1091,9 +1043,6 @@
     <t>001m_0203.png</t>
   </si>
   <si>
-    <t>vol-002-013.xhtml</t>
-  </si>
-  <si>
     <t>qsr0Gvyanu0</t>
   </si>
   <si>
@@ -1106,9 +1055,6 @@
     <t>001m_0204.png</t>
   </si>
   <si>
-    <t>vol-002-014.xhtml</t>
-  </si>
-  <si>
     <t>s0zkVT-4Idw</t>
   </si>
   <si>
@@ -1121,9 +1067,6 @@
     <t>001m_0205.png</t>
   </si>
   <si>
-    <t>vol-002-015.xhtml</t>
-  </si>
-  <si>
     <t>AzE0D3KnfVE</t>
   </si>
   <si>
@@ -1136,9 +1079,6 @@
     <t>001m_0206.png</t>
   </si>
   <si>
-    <t>vol-002-016.xhtml</t>
-  </si>
-  <si>
     <t>5rHM4FQZy30</t>
   </si>
   <si>
@@ -1151,9 +1091,6 @@
     <t>001m_0207.png</t>
   </si>
   <si>
-    <t>vol-002-017.xhtml</t>
-  </si>
-  <si>
     <t>7wVBlai6Ffo</t>
   </si>
   <si>
@@ -1164,9 +1101,6 @@
   </si>
   <si>
     <t>001m_0208.png</t>
-  </si>
-  <si>
-    <t>vol-002-018.xhtml</t>
   </si>
   <si>
     <t>4VDDJ8rRidk</t>
@@ -1185,9 +1119,6 @@
     <t>001m_0301.png</t>
   </si>
   <si>
-    <t>vol-003-011.xhtml</t>
-  </si>
-  <si>
     <t>AWPovePCCJQ</t>
   </si>
   <si>
@@ -1200,9 +1131,6 @@
     <t>001m_0302.png</t>
   </si>
   <si>
-    <t>vol-003-012.xhtml</t>
-  </si>
-  <si>
     <t>Z6miHmbWgEQ</t>
   </si>
   <si>
@@ -1215,9 +1143,6 @@
     <t>001m_0303.png</t>
   </si>
   <si>
-    <t>vol-003-013.xhtml</t>
-  </si>
-  <si>
     <t>E-4Uqm9dV80</t>
   </si>
   <si>
@@ -1230,9 +1155,6 @@
     <t>001m_0304.png</t>
   </si>
   <si>
-    <t>vol-003-014.xhtml</t>
-  </si>
-  <si>
     <t>iLHWADNF-kQ</t>
   </si>
   <si>
@@ -1245,9 +1167,6 @@
     <t>001m_0305.png</t>
   </si>
   <si>
-    <t>vol-003-015.xhtml</t>
-  </si>
-  <si>
     <t>8KVqUud2quE</t>
   </si>
   <si>
@@ -1260,9 +1179,6 @@
     <t>001m_0306.png</t>
   </si>
   <si>
-    <t>vol-003-016.xhtml</t>
-  </si>
-  <si>
     <t>I5-3Vy9prTQ</t>
   </si>
   <si>
@@ -1273,9 +1189,6 @@
   </si>
   <si>
     <t>001m_0307.png</t>
-  </si>
-  <si>
-    <t>vol-003-017.xhtml</t>
   </si>
   <si>
     <t>oZPID58cnfw</t>
@@ -1297,9 +1210,6 @@
     <t>001m_0401.png</t>
   </si>
   <si>
-    <t>vol-004-011.xhtml</t>
-  </si>
-  <si>
     <t>iL4NA45DSwc</t>
   </si>
   <si>
@@ -1312,9 +1222,6 @@
     <t>001m_0402.png</t>
   </si>
   <si>
-    <t>vol-004-012.xhtml</t>
-  </si>
-  <si>
     <t>fukDX2dQU7g</t>
   </si>
   <si>
@@ -1327,9 +1234,6 @@
     <t>001m_0403.png</t>
   </si>
   <si>
-    <t>vol-004-013.xhtml</t>
-  </si>
-  <si>
     <t>GXCwBgjNcG0</t>
   </si>
   <si>
@@ -1342,9 +1246,6 @@
     <t>001m_0404.png</t>
   </si>
   <si>
-    <t>vol-004-014.xhtml</t>
-  </si>
-  <si>
     <t>hfLrDnzGWpk</t>
   </si>
   <si>
@@ -1357,9 +1258,6 @@
     <t>001m_0405.png</t>
   </si>
   <si>
-    <t>vol-004-015.xhtml</t>
-  </si>
-  <si>
     <t>bM6vuuP7exs</t>
   </si>
   <si>
@@ -1372,9 +1270,6 @@
     <t>001m_0406.png</t>
   </si>
   <si>
-    <t>vol-004-016.xhtml</t>
-  </si>
-  <si>
     <t>yW5LD12OZzQ</t>
   </si>
   <si>
@@ -1387,9 +1282,6 @@
     <t>001m_0407.png</t>
   </si>
   <si>
-    <t>vol-004-017.xhtml</t>
-  </si>
-  <si>
     <t>C772_GuvH-o</t>
   </si>
   <si>
@@ -1402,9 +1294,6 @@
     <t>001m_0408.png</t>
   </si>
   <si>
-    <t>vol-004-018.xhtml</t>
-  </si>
-  <si>
     <t>vKk-ab2vTTY</t>
   </si>
   <si>
@@ -1415,9 +1304,6 @@
   </si>
   <si>
     <t>001m_0409.png</t>
-  </si>
-  <si>
-    <t>vol-004-019.xhtml</t>
   </si>
   <si>
     <t>3ZIteN2E4mI</t>
@@ -1443,9 +1329,6 @@
     <t>001m_0501.png</t>
   </si>
   <si>
-    <t>vol-005-011.xhtml</t>
-  </si>
-  <si>
     <t>W68zFlYorKI</t>
   </si>
   <si>
@@ -1458,9 +1341,6 @@
     <t>001m_0502.png</t>
   </si>
   <si>
-    <t>vol-005-012.xhtml</t>
-  </si>
-  <si>
     <t>xDIjC3w3nDU</t>
   </si>
   <si>
@@ -1473,9 +1353,6 @@
     <t>001m_0503.png</t>
   </si>
   <si>
-    <t>vol-005-013.xhtml</t>
-  </si>
-  <si>
     <t>yZaPPX5mEfA</t>
   </si>
   <si>
@@ -1488,9 +1365,6 @@
     <t>001m_0504.png</t>
   </si>
   <si>
-    <t>vol-005-014.xhtml</t>
-  </si>
-  <si>
     <t>WluNZs15-rI</t>
   </si>
   <si>
@@ -1503,9 +1377,6 @@
     <t>001m_0505.png</t>
   </si>
   <si>
-    <t>vol-005-015.xhtml</t>
-  </si>
-  <si>
     <t>FFHMUi0JauE</t>
   </si>
   <si>
@@ -1518,9 +1389,6 @@
     <t>001m_0506.png</t>
   </si>
   <si>
-    <t>vol-005-016.xhtml</t>
-  </si>
-  <si>
     <t>jLLRdoRB3HU</t>
   </si>
   <si>
@@ -1533,9 +1401,6 @@
     <t>001m_0507.png</t>
   </si>
   <si>
-    <t>vol-005-017.xhtml</t>
-  </si>
-  <si>
     <t>NJM69Iszv_Q</t>
   </si>
   <si>
@@ -1548,9 +1413,6 @@
     <t>001m_0508.png</t>
   </si>
   <si>
-    <t>vol-005-018.xhtml</t>
-  </si>
-  <si>
     <t>uqGK8is9n1I</t>
   </si>
   <si>
@@ -1563,9 +1425,6 @@
     <t>001m_0509.png</t>
   </si>
   <si>
-    <t>vol-005-019.xhtml</t>
-  </si>
-  <si>
     <t>yiHlY92w9zs</t>
   </si>
   <si>
@@ -1578,9 +1437,6 @@
     <t>001m_0510.png</t>
   </si>
   <si>
-    <t>vol-005-020.xhtml</t>
-  </si>
-  <si>
     <t>MhPx_MgLpHQ</t>
   </si>
   <si>
@@ -1591,9 +1447,6 @@
   </si>
   <si>
     <t>001m_0511.png</t>
-  </si>
-  <si>
-    <t>vol-005-021.xhtml</t>
   </si>
   <si>
     <t>SPd9rX6LeT4</t>
@@ -1619,9 +1472,6 @@
     <t>001m_0601.png</t>
   </si>
   <si>
-    <t>vol-006-011.xhtml</t>
-  </si>
-  <si>
     <t>8dEPL45ottk</t>
   </si>
   <si>
@@ -1634,9 +1484,6 @@
     <t>001m_0602.png</t>
   </si>
   <si>
-    <t>vol-006-012.xhtml</t>
-  </si>
-  <si>
     <t>iEe9dV-55eA</t>
   </si>
   <si>
@@ -1649,9 +1496,6 @@
     <t>001m_0603.png</t>
   </si>
   <si>
-    <t>vol-006-013.xhtml</t>
-  </si>
-  <si>
     <t>L_LhQayZMDE</t>
   </si>
   <si>
@@ -1664,9 +1508,6 @@
     <t>001m_0604.png</t>
   </si>
   <si>
-    <t>vol-006-014.xhtml</t>
-  </si>
-  <si>
     <t>Bc5G-repgb4</t>
   </si>
   <si>
@@ -1679,9 +1520,6 @@
     <t>001m_0605.png</t>
   </si>
   <si>
-    <t>vol-006-015.xhtml</t>
-  </si>
-  <si>
     <t>uReZCaIPQZE</t>
   </si>
   <si>
@@ -1694,9 +1532,6 @@
     <t>001m_0606.png</t>
   </si>
   <si>
-    <t>vol-006-016.xhtml</t>
-  </si>
-  <si>
     <t>9FkPyeYrdCU</t>
   </si>
   <si>
@@ -1709,9 +1544,6 @@
     <t>001m_0607.png</t>
   </si>
   <si>
-    <t>vol-006-017.xhtml</t>
-  </si>
-  <si>
     <t>g7LgfsDWfmQ</t>
   </si>
   <si>
@@ -1722,9 +1554,6 @@
   </si>
   <si>
     <t>001m_0608.png</t>
-  </si>
-  <si>
-    <t>vol-006-018.xhtml</t>
   </si>
   <si>
     <t>KnNJTUYCAjg</t>
@@ -1743,9 +1572,6 @@
     <t>001m_0701.png</t>
   </si>
   <si>
-    <t>vol-007-011.xhtml</t>
-  </si>
-  <si>
     <t>v1-VoqRjxho</t>
   </si>
   <si>
@@ -1758,9 +1584,6 @@
     <t>001m_0702.png</t>
   </si>
   <si>
-    <t>vol-007-012.xhtml</t>
-  </si>
-  <si>
     <t>5wgAenzPvcQ</t>
   </si>
   <si>
@@ -1773,9 +1596,6 @@
     <t>001m_0703.png</t>
   </si>
   <si>
-    <t>vol-007-013.xhtml</t>
-  </si>
-  <si>
     <t>AZVCJ_5k7Pg</t>
   </si>
   <si>
@@ -1788,9 +1608,6 @@
     <t>001m_0704.png</t>
   </si>
   <si>
-    <t>vol-007-014.xhtml</t>
-  </si>
-  <si>
     <t>_hrbvONQldY</t>
   </si>
   <si>
@@ -1803,9 +1620,6 @@
     <t>001m_0705.png</t>
   </si>
   <si>
-    <t>vol-007-015.xhtml</t>
-  </si>
-  <si>
     <t>aiMan1tmZwM</t>
   </si>
   <si>
@@ -1818,9 +1632,6 @@
     <t>001m_0706.png</t>
   </si>
   <si>
-    <t>vol-007-016.xhtml</t>
-  </si>
-  <si>
     <t>hSm9roeLXT0</t>
   </si>
   <si>
@@ -1833,9 +1644,6 @@
     <t>001m_0707.png</t>
   </si>
   <si>
-    <t>vol-007-017.xhtml</t>
-  </si>
-  <si>
     <t>w3tXjIv2CRg</t>
   </si>
   <si>
@@ -1848,9 +1656,6 @@
     <t>001m_0708.png</t>
   </si>
   <si>
-    <t>vol-007-018.xhtml</t>
-  </si>
-  <si>
     <t>eXqezXzbLsA</t>
   </si>
   <si>
@@ -1863,9 +1668,6 @@
     <t>001m_0709.png</t>
   </si>
   <si>
-    <t>vol-007-019.xhtml</t>
-  </si>
-  <si>
     <t>TQ0EzmoLTn8</t>
   </si>
   <si>
@@ -1878,9 +1680,6 @@
     <t>001m_0710.png</t>
   </si>
   <si>
-    <t>vol-007-020.xhtml</t>
-  </si>
-  <si>
     <t>nMCZZyEm5Lw</t>
   </si>
   <si>
@@ -1893,9 +1692,6 @@
     <t>001m_0711.png</t>
   </si>
   <si>
-    <t>vol-007-021.xhtml</t>
-  </si>
-  <si>
     <t>_wEQ5AWGrXA</t>
   </si>
   <si>
@@ -1906,9 +1702,6 @@
   </si>
   <si>
     <t>001m_0712.png</t>
-  </si>
-  <si>
-    <t>vol-007-022.xhtml</t>
   </si>
   <si>
     <t>uFpGIB26QUk</t>
@@ -1916,6 +1709,213 @@
   <si>
     <t>http://proxy.chilos.jp/q00107010</t>
     <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>vol-001-011.txt</t>
+  </si>
+  <si>
+    <t>vol-001-012.txt</t>
+  </si>
+  <si>
+    <t>vol-001-013.txt</t>
+  </si>
+  <si>
+    <t>vol-001-014.txt</t>
+  </si>
+  <si>
+    <t>vol-001-015.txt</t>
+  </si>
+  <si>
+    <t>vol-001-016.txt</t>
+  </si>
+  <si>
+    <t>vol-001-017.txt</t>
+  </si>
+  <si>
+    <t>vol-001-018.txt</t>
+  </si>
+  <si>
+    <t>vol-001-020.txt</t>
+  </si>
+  <si>
+    <t>vol-001-021.txt</t>
+  </si>
+  <si>
+    <t>vol-001-022.txt</t>
+  </si>
+  <si>
+    <t>vol-001-023.txt</t>
+  </si>
+  <si>
+    <t>vol-001-024.txt</t>
+  </si>
+  <si>
+    <t>vol-001-025.txt</t>
+  </si>
+  <si>
+    <t>vol-002-011.txt</t>
+  </si>
+  <si>
+    <t>vol-002-012.txt</t>
+  </si>
+  <si>
+    <t>vol-002-013.txt</t>
+  </si>
+  <si>
+    <t>vol-002-014.txt</t>
+  </si>
+  <si>
+    <t>vol-002-015.txt</t>
+  </si>
+  <si>
+    <t>vol-002-016.txt</t>
+  </si>
+  <si>
+    <t>vol-002-017.txt</t>
+  </si>
+  <si>
+    <t>vol-002-018.txt</t>
+  </si>
+  <si>
+    <t>vol-003-011.txt</t>
+  </si>
+  <si>
+    <t>vol-003-012.txt</t>
+  </si>
+  <si>
+    <t>vol-003-013.txt</t>
+  </si>
+  <si>
+    <t>vol-003-014.txt</t>
+  </si>
+  <si>
+    <t>vol-003-015.txt</t>
+  </si>
+  <si>
+    <t>vol-003-016.txt</t>
+  </si>
+  <si>
+    <t>vol-003-017.txt</t>
+  </si>
+  <si>
+    <t>vol-004-011.txt</t>
+  </si>
+  <si>
+    <t>vol-004-012.txt</t>
+  </si>
+  <si>
+    <t>vol-004-013.txt</t>
+  </si>
+  <si>
+    <t>vol-004-014.txt</t>
+  </si>
+  <si>
+    <t>vol-004-015.txt</t>
+  </si>
+  <si>
+    <t>vol-004-016.txt</t>
+  </si>
+  <si>
+    <t>vol-004-017.txt</t>
+  </si>
+  <si>
+    <t>vol-004-018.txt</t>
+  </si>
+  <si>
+    <t>vol-004-019.txt</t>
+  </si>
+  <si>
+    <t>vol-005-011.txt</t>
+  </si>
+  <si>
+    <t>vol-005-012.txt</t>
+  </si>
+  <si>
+    <t>vol-005-013.txt</t>
+  </si>
+  <si>
+    <t>vol-005-014.txt</t>
+  </si>
+  <si>
+    <t>vol-005-015.txt</t>
+  </si>
+  <si>
+    <t>vol-005-016.txt</t>
+  </si>
+  <si>
+    <t>vol-005-017.txt</t>
+  </si>
+  <si>
+    <t>vol-005-018.txt</t>
+  </si>
+  <si>
+    <t>vol-005-019.txt</t>
+  </si>
+  <si>
+    <t>vol-005-020.txt</t>
+  </si>
+  <si>
+    <t>vol-005-021.txt</t>
+  </si>
+  <si>
+    <t>vol-006-011.txt</t>
+  </si>
+  <si>
+    <t>vol-006-012.txt</t>
+  </si>
+  <si>
+    <t>vol-006-013.txt</t>
+  </si>
+  <si>
+    <t>vol-006-014.txt</t>
+  </si>
+  <si>
+    <t>vol-006-015.txt</t>
+  </si>
+  <si>
+    <t>vol-006-016.txt</t>
+  </si>
+  <si>
+    <t>vol-006-017.txt</t>
+  </si>
+  <si>
+    <t>vol-006-018.txt</t>
+  </si>
+  <si>
+    <t>vol-007-011.txt</t>
+  </si>
+  <si>
+    <t>vol-007-012.txt</t>
+  </si>
+  <si>
+    <t>vol-007-013.txt</t>
+  </si>
+  <si>
+    <t>vol-007-014.txt</t>
+  </si>
+  <si>
+    <t>vol-007-015.txt</t>
+  </si>
+  <si>
+    <t>vol-007-016.txt</t>
+  </si>
+  <si>
+    <t>vol-007-017.txt</t>
+  </si>
+  <si>
+    <t>vol-007-018.txt</t>
+  </si>
+  <si>
+    <t>vol-007-019.txt</t>
+  </si>
+  <si>
+    <t>vol-007-020.txt</t>
+  </si>
+  <si>
+    <t>vol-007-021.txt</t>
+  </si>
+  <si>
+    <t>vol-007-022.txt</t>
   </si>
 </sst>
 </file>
@@ -3805,11 +3805,11 @@
         <v>128</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>129</v>
+        <v>416</v>
       </c>
       <c r="H2" s="11"/>
       <c r="I2" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J2" s="11" t="s">
         <v>6</v>
@@ -3824,23 +3824,23 @@
         <v>124</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D3" s="42" t="s">
         <v>126</v>
       </c>
       <c r="E3" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="F3" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="F3" s="11" t="s">
-        <v>133</v>
-      </c>
       <c r="G3" s="11" t="s">
-        <v>134</v>
+        <v>417</v>
       </c>
       <c r="H3" s="11"/>
       <c r="I3" s="11" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="J3" s="11" t="s">
         <v>6</v>
@@ -3855,23 +3855,23 @@
         <v>124</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D4" s="42" t="s">
         <v>126</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>139</v>
+        <v>418</v>
       </c>
       <c r="H4" s="11"/>
       <c r="I4" s="11" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="J4" s="11" t="s">
         <v>6</v>
@@ -3886,23 +3886,23 @@
         <v>124</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D5" s="42" t="s">
         <v>126</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>144</v>
+        <v>419</v>
       </c>
       <c r="H5" s="11"/>
       <c r="I5" s="11" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="J5" s="11" t="s">
         <v>6</v>
@@ -3917,23 +3917,23 @@
         <v>124</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D6" s="42" t="s">
         <v>126</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>149</v>
+        <v>420</v>
       </c>
       <c r="H6" s="11"/>
       <c r="I6" s="11" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="J6" s="11" t="s">
         <v>6</v>
@@ -3948,23 +3948,23 @@
         <v>124</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D7" s="42" t="s">
         <v>126</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>154</v>
+        <v>421</v>
       </c>
       <c r="H7" s="11"/>
       <c r="I7" s="11" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="J7" s="11" t="s">
         <v>6</v>
@@ -3979,23 +3979,23 @@
         <v>124</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D8" s="42" t="s">
         <v>126</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>159</v>
+        <v>422</v>
       </c>
       <c r="H8" s="11"/>
       <c r="I8" s="11" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="J8" s="11" t="s">
         <v>6</v>
@@ -4010,23 +4010,23 @@
         <v>124</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="D9" s="42" t="s">
         <v>126</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>164</v>
+        <v>423</v>
       </c>
       <c r="H9" s="11"/>
       <c r="I9" s="11" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="J9" s="11" t="s">
         <v>6</v>
@@ -4038,26 +4038,26 @@
         <v>123</v>
       </c>
       <c r="B10" s="58" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="D10" s="42" t="s">
         <v>126</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>170</v>
+        <v>424</v>
       </c>
       <c r="H10" s="11"/>
       <c r="I10" s="11" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="J10" s="11" t="s">
         <v>6</v>
@@ -4069,26 +4069,26 @@
         <v>123</v>
       </c>
       <c r="B11" s="58" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="D11" s="42" t="s">
         <v>126</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>175</v>
+        <v>425</v>
       </c>
       <c r="H11" s="11"/>
       <c r="I11" s="11" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="J11" s="11" t="s">
         <v>6</v>
@@ -4100,26 +4100,26 @@
         <v>123</v>
       </c>
       <c r="B12" s="58" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="D12" s="42" t="s">
         <v>126</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>180</v>
+        <v>426</v>
       </c>
       <c r="H12" s="11"/>
       <c r="I12" s="11" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="J12" s="11" t="s">
         <v>6</v>
@@ -4131,26 +4131,26 @@
         <v>123</v>
       </c>
       <c r="B13" s="58" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="D13" s="42" t="s">
         <v>126</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>185</v>
+        <v>427</v>
       </c>
       <c r="H13" s="11"/>
       <c r="I13" s="11" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="J13" s="11" t="s">
         <v>6</v>
@@ -4162,26 +4162,26 @@
         <v>123</v>
       </c>
       <c r="B14" s="58" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="D14" s="42" t="s">
         <v>126</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>190</v>
+        <v>428</v>
       </c>
       <c r="H14" s="11"/>
       <c r="I14" s="11" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="J14" s="11" t="s">
         <v>6</v>
@@ -4193,26 +4193,26 @@
         <v>123</v>
       </c>
       <c r="B15" s="58" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="D15" s="42" t="s">
         <v>126</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>195</v>
+        <v>429</v>
       </c>
       <c r="H15" s="11"/>
       <c r="I15" s="11" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="J15" s="11" t="s">
         <v>6</v>
@@ -4221,15 +4221,15 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="58" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="B16" s="58" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="42"/>
       <c r="E16" s="12" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
@@ -4436,26 +4436,26 @@
         <v>123</v>
       </c>
       <c r="B2" s="58" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="D2" s="42" t="s">
         <v>126</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>204</v>
+        <v>430</v>
       </c>
       <c r="H2" s="11"/>
       <c r="I2" s="11" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="J2" s="11" t="s">
         <v>6</v>
@@ -4467,26 +4467,26 @@
         <v>123</v>
       </c>
       <c r="B3" s="58" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="D3" s="42" t="s">
         <v>126</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>209</v>
+        <v>431</v>
       </c>
       <c r="H3" s="11"/>
       <c r="I3" s="11" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="J3" s="11" t="s">
         <v>6</v>
@@ -4498,26 +4498,26 @@
         <v>123</v>
       </c>
       <c r="B4" s="58" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="D4" s="42" t="s">
         <v>126</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>214</v>
+        <v>432</v>
       </c>
       <c r="H4" s="11"/>
       <c r="I4" s="11" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="J4" s="11" t="s">
         <v>6</v>
@@ -4529,26 +4529,26 @@
         <v>123</v>
       </c>
       <c r="B5" s="58" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="D5" s="42" t="s">
         <v>126</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>219</v>
+        <v>433</v>
       </c>
       <c r="H5" s="11"/>
       <c r="I5" s="11" t="s">
-        <v>220</v>
+        <v>202</v>
       </c>
       <c r="J5" s="11" t="s">
         <v>6</v>
@@ -4560,26 +4560,26 @@
         <v>123</v>
       </c>
       <c r="B6" s="58" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>221</v>
+        <v>203</v>
       </c>
       <c r="D6" s="42" t="s">
         <v>126</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>222</v>
+        <v>204</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>223</v>
+        <v>205</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>224</v>
+        <v>434</v>
       </c>
       <c r="H6" s="11"/>
       <c r="I6" s="11" t="s">
-        <v>225</v>
+        <v>206</v>
       </c>
       <c r="J6" s="11" t="s">
         <v>6</v>
@@ -4591,26 +4591,26 @@
         <v>123</v>
       </c>
       <c r="B7" s="58" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>226</v>
+        <v>207</v>
       </c>
       <c r="D7" s="42" t="s">
         <v>126</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>227</v>
+        <v>208</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>228</v>
+        <v>209</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>229</v>
+        <v>435</v>
       </c>
       <c r="H7" s="11"/>
       <c r="I7" s="11" t="s">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="J7" s="11" t="s">
         <v>6</v>
@@ -4622,26 +4622,26 @@
         <v>123</v>
       </c>
       <c r="B8" s="58" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>231</v>
+        <v>211</v>
       </c>
       <c r="D8" s="42" t="s">
         <v>126</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>232</v>
+        <v>212</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>234</v>
+        <v>436</v>
       </c>
       <c r="H8" s="11"/>
       <c r="I8" s="11" t="s">
-        <v>235</v>
+        <v>214</v>
       </c>
       <c r="J8" s="11" t="s">
         <v>6</v>
@@ -4653,26 +4653,26 @@
         <v>123</v>
       </c>
       <c r="B9" s="58" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>236</v>
+        <v>215</v>
       </c>
       <c r="D9" s="42" t="s">
         <v>126</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>237</v>
+        <v>216</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>238</v>
+        <v>217</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>239</v>
+        <v>437</v>
       </c>
       <c r="H9" s="11"/>
       <c r="I9" s="11" t="s">
-        <v>240</v>
+        <v>218</v>
       </c>
       <c r="J9" s="11" t="s">
         <v>6</v>
@@ -4681,15 +4681,15 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="58" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="B10" s="58" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="42"/>
       <c r="E10" s="12" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
@@ -4899,23 +4899,23 @@
         <v>99</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>242</v>
+        <v>220</v>
       </c>
       <c r="D2" s="42" t="s">
         <v>126</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>244</v>
+        <v>222</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>245</v>
+        <v>438</v>
       </c>
       <c r="H2" s="11"/>
       <c r="I2" s="11" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
       <c r="J2" s="11" t="s">
         <v>6</v>
@@ -4930,23 +4930,23 @@
         <v>99</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>247</v>
+        <v>224</v>
       </c>
       <c r="D3" s="42" t="s">
         <v>126</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>248</v>
+        <v>225</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>249</v>
+        <v>226</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>250</v>
+        <v>439</v>
       </c>
       <c r="H3" s="11"/>
       <c r="I3" s="11" t="s">
-        <v>251</v>
+        <v>227</v>
       </c>
       <c r="J3" s="11" t="s">
         <v>6</v>
@@ -4961,23 +4961,23 @@
         <v>99</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>252</v>
+        <v>228</v>
       </c>
       <c r="D4" s="42" t="s">
         <v>126</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>253</v>
+        <v>229</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>254</v>
+        <v>230</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>255</v>
+        <v>440</v>
       </c>
       <c r="H4" s="11"/>
       <c r="I4" s="11" t="s">
-        <v>256</v>
+        <v>231</v>
       </c>
       <c r="J4" s="11" t="s">
         <v>6</v>
@@ -4992,23 +4992,23 @@
         <v>99</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>257</v>
+        <v>232</v>
       </c>
       <c r="D5" s="42" t="s">
         <v>126</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>258</v>
+        <v>233</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>260</v>
+        <v>441</v>
       </c>
       <c r="H5" s="11"/>
       <c r="I5" s="11" t="s">
-        <v>261</v>
+        <v>235</v>
       </c>
       <c r="J5" s="11" t="s">
         <v>6</v>
@@ -5023,23 +5023,23 @@
         <v>99</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>262</v>
+        <v>236</v>
       </c>
       <c r="D6" s="42" t="s">
         <v>126</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>263</v>
+        <v>237</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>264</v>
+        <v>238</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>265</v>
+        <v>442</v>
       </c>
       <c r="H6" s="11"/>
       <c r="I6" s="11" t="s">
-        <v>266</v>
+        <v>239</v>
       </c>
       <c r="J6" s="11" t="s">
         <v>6</v>
@@ -5054,23 +5054,23 @@
         <v>99</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>267</v>
+        <v>240</v>
       </c>
       <c r="D7" s="42" t="s">
         <v>126</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>268</v>
+        <v>241</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>269</v>
+        <v>242</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>270</v>
+        <v>443</v>
       </c>
       <c r="H7" s="11"/>
       <c r="I7" s="11" t="s">
-        <v>271</v>
+        <v>243</v>
       </c>
       <c r="J7" s="11" t="s">
         <v>6</v>
@@ -5085,23 +5085,23 @@
         <v>99</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>272</v>
+        <v>244</v>
       </c>
       <c r="D8" s="42" t="s">
         <v>126</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>273</v>
+        <v>245</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>274</v>
+        <v>246</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>275</v>
+        <v>444</v>
       </c>
       <c r="H8" s="11"/>
       <c r="I8" s="11" t="s">
-        <v>276</v>
+        <v>247</v>
       </c>
       <c r="J8" s="11" t="s">
         <v>6</v>
@@ -5110,15 +5110,15 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="58" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="B9" s="58" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="42"/>
       <c r="E9" s="12" t="s">
-        <v>277</v>
+        <v>248</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
@@ -5325,26 +5325,26 @@
         <v>123</v>
       </c>
       <c r="B2" s="58" t="s">
-        <v>278</v>
+        <v>249</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>279</v>
+        <v>250</v>
       </c>
       <c r="D2" s="42" t="s">
         <v>126</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>280</v>
+        <v>251</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>281</v>
+        <v>252</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>282</v>
+        <v>445</v>
       </c>
       <c r="H2" s="11"/>
       <c r="I2" s="11" t="s">
-        <v>283</v>
+        <v>253</v>
       </c>
       <c r="J2" s="11" t="s">
         <v>6</v>
@@ -5356,26 +5356,26 @@
         <v>123</v>
       </c>
       <c r="B3" s="58" t="s">
-        <v>278</v>
+        <v>249</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>284</v>
+        <v>254</v>
       </c>
       <c r="D3" s="42" t="s">
         <v>126</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>285</v>
+        <v>255</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>286</v>
+        <v>256</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>287</v>
+        <v>446</v>
       </c>
       <c r="H3" s="11"/>
       <c r="I3" s="11" t="s">
-        <v>288</v>
+        <v>257</v>
       </c>
       <c r="J3" s="11" t="s">
         <v>6</v>
@@ -5387,26 +5387,26 @@
         <v>123</v>
       </c>
       <c r="B4" s="58" t="s">
-        <v>278</v>
+        <v>249</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>289</v>
+        <v>258</v>
       </c>
       <c r="D4" s="42" t="s">
         <v>126</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>290</v>
+        <v>259</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>291</v>
+        <v>260</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>292</v>
+        <v>447</v>
       </c>
       <c r="H4" s="11"/>
       <c r="I4" s="11" t="s">
-        <v>293</v>
+        <v>261</v>
       </c>
       <c r="J4" s="11" t="s">
         <v>6</v>
@@ -5418,26 +5418,26 @@
         <v>123</v>
       </c>
       <c r="B5" s="58" t="s">
-        <v>278</v>
+        <v>249</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>294</v>
+        <v>262</v>
       </c>
       <c r="D5" s="42" t="s">
         <v>126</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>295</v>
+        <v>263</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>296</v>
+        <v>264</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>297</v>
+        <v>448</v>
       </c>
       <c r="H5" s="11"/>
       <c r="I5" s="11" t="s">
-        <v>298</v>
+        <v>265</v>
       </c>
       <c r="J5" s="11" t="s">
         <v>6</v>
@@ -5449,26 +5449,26 @@
         <v>123</v>
       </c>
       <c r="B6" s="58" t="s">
-        <v>278</v>
+        <v>249</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>299</v>
+        <v>266</v>
       </c>
       <c r="D6" s="42" t="s">
         <v>126</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>300</v>
+        <v>267</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>301</v>
+        <v>268</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>302</v>
+        <v>449</v>
       </c>
       <c r="H6" s="11"/>
       <c r="I6" s="11" t="s">
-        <v>303</v>
+        <v>269</v>
       </c>
       <c r="J6" s="11" t="s">
         <v>6</v>
@@ -5480,26 +5480,26 @@
         <v>123</v>
       </c>
       <c r="B7" s="58" t="s">
-        <v>278</v>
+        <v>249</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>304</v>
+        <v>270</v>
       </c>
       <c r="D7" s="42" t="s">
         <v>126</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>305</v>
+        <v>271</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>306</v>
+        <v>272</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>307</v>
+        <v>450</v>
       </c>
       <c r="H7" s="11"/>
       <c r="I7" s="11" t="s">
-        <v>308</v>
+        <v>273</v>
       </c>
       <c r="J7" s="11" t="s">
         <v>6</v>
@@ -5511,26 +5511,26 @@
         <v>123</v>
       </c>
       <c r="B8" s="58" t="s">
-        <v>278</v>
+        <v>249</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>309</v>
+        <v>274</v>
       </c>
       <c r="D8" s="42" t="s">
         <v>126</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>310</v>
+        <v>275</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>311</v>
+        <v>276</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>312</v>
+        <v>451</v>
       </c>
       <c r="H8" s="11"/>
       <c r="I8" s="11" t="s">
-        <v>313</v>
+        <v>277</v>
       </c>
       <c r="J8" s="11" t="s">
         <v>6</v>
@@ -5542,26 +5542,26 @@
         <v>123</v>
       </c>
       <c r="B9" s="58" t="s">
+        <v>249</v>
+      </c>
+      <c r="C9" s="11" t="s">
         <v>278</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>314</v>
       </c>
       <c r="D9" s="42" t="s">
         <v>126</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>315</v>
+        <v>279</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>316</v>
+        <v>280</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>317</v>
+        <v>452</v>
       </c>
       <c r="H9" s="11"/>
       <c r="I9" s="11" t="s">
-        <v>318</v>
+        <v>281</v>
       </c>
       <c r="J9" s="11" t="s">
         <v>6</v>
@@ -5573,26 +5573,26 @@
         <v>123</v>
       </c>
       <c r="B10" s="58" t="s">
-        <v>278</v>
+        <v>249</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>319</v>
+        <v>282</v>
       </c>
       <c r="D10" s="42" t="s">
         <v>126</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>320</v>
+        <v>283</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>321</v>
+        <v>284</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>322</v>
+        <v>453</v>
       </c>
       <c r="H10" s="11"/>
       <c r="I10" s="11" t="s">
-        <v>323</v>
+        <v>285</v>
       </c>
       <c r="J10" s="11" t="s">
         <v>6</v>
@@ -5601,15 +5601,15 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="58" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="B11" s="58" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="42"/>
       <c r="E11" s="12" t="s">
-        <v>324</v>
+        <v>286</v>
       </c>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
@@ -5816,26 +5816,26 @@
         <v>123</v>
       </c>
       <c r="B2" s="58" t="s">
-        <v>325</v>
+        <v>287</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>326</v>
+        <v>288</v>
       </c>
       <c r="D2" s="42" t="s">
         <v>126</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>327</v>
+        <v>289</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>328</v>
+        <v>290</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>329</v>
+        <v>454</v>
       </c>
       <c r="H2" s="11"/>
       <c r="I2" s="11" t="s">
-        <v>330</v>
+        <v>291</v>
       </c>
       <c r="J2" s="11" t="s">
         <v>6</v>
@@ -5847,26 +5847,26 @@
         <v>123</v>
       </c>
       <c r="B3" s="58" t="s">
-        <v>325</v>
+        <v>287</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>331</v>
+        <v>292</v>
       </c>
       <c r="D3" s="42" t="s">
         <v>126</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>332</v>
+        <v>293</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>333</v>
+        <v>294</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>334</v>
+        <v>455</v>
       </c>
       <c r="H3" s="11"/>
       <c r="I3" s="11" t="s">
-        <v>335</v>
+        <v>295</v>
       </c>
       <c r="J3" s="11" t="s">
         <v>6</v>
@@ -5878,26 +5878,26 @@
         <v>123</v>
       </c>
       <c r="B4" s="58" t="s">
-        <v>325</v>
+        <v>287</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>336</v>
+        <v>296</v>
       </c>
       <c r="D4" s="42" t="s">
         <v>126</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>337</v>
+        <v>297</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>338</v>
+        <v>298</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>339</v>
+        <v>456</v>
       </c>
       <c r="H4" s="11"/>
       <c r="I4" s="11" t="s">
-        <v>340</v>
+        <v>299</v>
       </c>
       <c r="J4" s="11" t="s">
         <v>6</v>
@@ -5909,26 +5909,26 @@
         <v>123</v>
       </c>
       <c r="B5" s="58" t="s">
-        <v>325</v>
+        <v>287</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>341</v>
+        <v>300</v>
       </c>
       <c r="D5" s="42" t="s">
         <v>126</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>342</v>
+        <v>301</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>343</v>
+        <v>302</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>344</v>
+        <v>457</v>
       </c>
       <c r="H5" s="11"/>
       <c r="I5" s="11" t="s">
-        <v>345</v>
+        <v>303</v>
       </c>
       <c r="J5" s="11" t="s">
         <v>6</v>
@@ -5940,26 +5940,26 @@
         <v>123</v>
       </c>
       <c r="B6" s="58" t="s">
-        <v>325</v>
+        <v>287</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>346</v>
+        <v>304</v>
       </c>
       <c r="D6" s="42" t="s">
         <v>126</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>347</v>
+        <v>305</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>348</v>
+        <v>306</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>349</v>
+        <v>458</v>
       </c>
       <c r="H6" s="11"/>
       <c r="I6" s="11" t="s">
-        <v>350</v>
+        <v>307</v>
       </c>
       <c r="J6" s="11" t="s">
         <v>6</v>
@@ -5971,26 +5971,26 @@
         <v>123</v>
       </c>
       <c r="B7" s="58" t="s">
-        <v>325</v>
+        <v>287</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>351</v>
+        <v>308</v>
       </c>
       <c r="D7" s="42" t="s">
         <v>126</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>352</v>
+        <v>309</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>353</v>
+        <v>310</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>354</v>
+        <v>459</v>
       </c>
       <c r="H7" s="11"/>
       <c r="I7" s="11" t="s">
-        <v>355</v>
+        <v>311</v>
       </c>
       <c r="J7" s="11" t="s">
         <v>6</v>
@@ -6002,26 +6002,26 @@
         <v>123</v>
       </c>
       <c r="B8" s="58" t="s">
-        <v>325</v>
+        <v>287</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>356</v>
+        <v>312</v>
       </c>
       <c r="D8" s="42" t="s">
         <v>126</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>357</v>
+        <v>313</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>358</v>
+        <v>314</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>359</v>
+        <v>460</v>
       </c>
       <c r="H8" s="11"/>
       <c r="I8" s="11" t="s">
-        <v>360</v>
+        <v>315</v>
       </c>
       <c r="J8" s="11" t="s">
         <v>6</v>
@@ -6033,26 +6033,26 @@
         <v>123</v>
       </c>
       <c r="B9" s="58" t="s">
-        <v>325</v>
+        <v>287</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>361</v>
+        <v>316</v>
       </c>
       <c r="D9" s="42" t="s">
         <v>126</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>362</v>
+        <v>317</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>363</v>
+        <v>318</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>364</v>
+        <v>461</v>
       </c>
       <c r="H9" s="11"/>
       <c r="I9" s="11" t="s">
-        <v>365</v>
+        <v>319</v>
       </c>
       <c r="J9" s="11" t="s">
         <v>6</v>
@@ -6064,26 +6064,26 @@
         <v>123</v>
       </c>
       <c r="B10" s="58" t="s">
-        <v>325</v>
+        <v>287</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>366</v>
+        <v>320</v>
       </c>
       <c r="D10" s="42" t="s">
         <v>126</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>367</v>
+        <v>321</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>368</v>
+        <v>322</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>369</v>
+        <v>462</v>
       </c>
       <c r="H10" s="11"/>
       <c r="I10" s="11" t="s">
-        <v>370</v>
+        <v>323</v>
       </c>
       <c r="J10" s="11" t="s">
         <v>6</v>
@@ -6095,26 +6095,26 @@
         <v>123</v>
       </c>
       <c r="B11" s="58" t="s">
-        <v>325</v>
+        <v>287</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>371</v>
+        <v>324</v>
       </c>
       <c r="D11" s="42" t="s">
         <v>126</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>372</v>
+        <v>325</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>373</v>
+        <v>326</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>374</v>
+        <v>463</v>
       </c>
       <c r="H11" s="11"/>
       <c r="I11" s="11" t="s">
-        <v>375</v>
+        <v>327</v>
       </c>
       <c r="J11" s="11" t="s">
         <v>6</v>
@@ -6126,26 +6126,26 @@
         <v>123</v>
       </c>
       <c r="B12" s="58" t="s">
-        <v>325</v>
+        <v>287</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>376</v>
+        <v>328</v>
       </c>
       <c r="D12" s="42" t="s">
         <v>126</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>377</v>
+        <v>329</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>378</v>
+        <v>330</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>379</v>
+        <v>464</v>
       </c>
       <c r="H12" s="11"/>
       <c r="I12" s="11" t="s">
-        <v>380</v>
+        <v>331</v>
       </c>
       <c r="J12" s="11" t="s">
         <v>6</v>
@@ -6154,15 +6154,15 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="58" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="B13" s="58" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="42"/>
       <c r="E13" s="12" t="s">
-        <v>381</v>
+        <v>332</v>
       </c>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
@@ -6369,26 +6369,26 @@
         <v>123</v>
       </c>
       <c r="B2" s="58" t="s">
-        <v>382</v>
+        <v>333</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>383</v>
+        <v>334</v>
       </c>
       <c r="D2" s="42" t="s">
         <v>126</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>384</v>
+        <v>335</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>385</v>
+        <v>336</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>386</v>
+        <v>465</v>
       </c>
       <c r="H2" s="11"/>
       <c r="I2" s="11" t="s">
-        <v>387</v>
+        <v>337</v>
       </c>
       <c r="J2" s="11" t="s">
         <v>6</v>
@@ -6400,26 +6400,26 @@
         <v>123</v>
       </c>
       <c r="B3" s="58" t="s">
-        <v>382</v>
+        <v>333</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>388</v>
+        <v>338</v>
       </c>
       <c r="D3" s="42" t="s">
         <v>126</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>389</v>
+        <v>339</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>390</v>
+        <v>340</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>391</v>
+        <v>466</v>
       </c>
       <c r="H3" s="11"/>
       <c r="I3" s="11" t="s">
-        <v>392</v>
+        <v>341</v>
       </c>
       <c r="J3" s="11" t="s">
         <v>6</v>
@@ -6431,26 +6431,26 @@
         <v>123</v>
       </c>
       <c r="B4" s="58" t="s">
-        <v>382</v>
+        <v>333</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>393</v>
+        <v>342</v>
       </c>
       <c r="D4" s="42" t="s">
         <v>126</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>394</v>
+        <v>343</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>395</v>
+        <v>344</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>396</v>
+        <v>467</v>
       </c>
       <c r="H4" s="11"/>
       <c r="I4" s="11" t="s">
-        <v>397</v>
+        <v>345</v>
       </c>
       <c r="J4" s="11" t="s">
         <v>6</v>
@@ -6462,26 +6462,26 @@
         <v>123</v>
       </c>
       <c r="B5" s="58" t="s">
-        <v>382</v>
+        <v>333</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>398</v>
+        <v>346</v>
       </c>
       <c r="D5" s="42" t="s">
         <v>126</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>399</v>
+        <v>347</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>400</v>
+        <v>348</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>401</v>
+        <v>468</v>
       </c>
       <c r="H5" s="11"/>
       <c r="I5" s="11" t="s">
-        <v>402</v>
+        <v>349</v>
       </c>
       <c r="J5" s="11" t="s">
         <v>6</v>
@@ -6493,26 +6493,26 @@
         <v>123</v>
       </c>
       <c r="B6" s="58" t="s">
-        <v>382</v>
+        <v>333</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>403</v>
+        <v>350</v>
       </c>
       <c r="D6" s="42" t="s">
         <v>126</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>404</v>
+        <v>351</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>405</v>
+        <v>352</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>406</v>
+        <v>469</v>
       </c>
       <c r="H6" s="11"/>
       <c r="I6" s="11" t="s">
-        <v>407</v>
+        <v>353</v>
       </c>
       <c r="J6" s="11" t="s">
         <v>6</v>
@@ -6524,26 +6524,26 @@
         <v>123</v>
       </c>
       <c r="B7" s="58" t="s">
-        <v>382</v>
+        <v>333</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>408</v>
+        <v>354</v>
       </c>
       <c r="D7" s="42" t="s">
         <v>126</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>409</v>
+        <v>355</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>410</v>
+        <v>356</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>411</v>
+        <v>470</v>
       </c>
       <c r="H7" s="11"/>
       <c r="I7" s="11" t="s">
-        <v>412</v>
+        <v>357</v>
       </c>
       <c r="J7" s="11" t="s">
         <v>6</v>
@@ -6555,26 +6555,26 @@
         <v>123</v>
       </c>
       <c r="B8" s="58" t="s">
-        <v>382</v>
+        <v>333</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>413</v>
+        <v>358</v>
       </c>
       <c r="D8" s="42" t="s">
         <v>126</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>414</v>
+        <v>359</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>415</v>
+        <v>360</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>416</v>
+        <v>471</v>
       </c>
       <c r="H8" s="11"/>
       <c r="I8" s="11" t="s">
-        <v>417</v>
+        <v>361</v>
       </c>
       <c r="J8" s="11" t="s">
         <v>6</v>
@@ -6586,26 +6586,26 @@
         <v>123</v>
       </c>
       <c r="B9" s="58" t="s">
-        <v>382</v>
+        <v>333</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>418</v>
+        <v>362</v>
       </c>
       <c r="D9" s="42" t="s">
         <v>126</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>419</v>
+        <v>363</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>420</v>
+        <v>364</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>421</v>
+        <v>472</v>
       </c>
       <c r="H9" s="11"/>
       <c r="I9" s="11" t="s">
-        <v>422</v>
+        <v>365</v>
       </c>
       <c r="J9" s="11" t="s">
         <v>6</v>
@@ -6614,15 +6614,15 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="58" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="B10" s="58" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="42"/>
       <c r="E10" s="12" t="s">
-        <v>423</v>
+        <v>366</v>
       </c>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
@@ -6832,23 +6832,23 @@
         <v>119</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>424</v>
+        <v>367</v>
       </c>
       <c r="D2" s="42" t="s">
         <v>126</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>425</v>
+        <v>368</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>426</v>
+        <v>369</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>427</v>
+        <v>473</v>
       </c>
       <c r="H2" s="11"/>
       <c r="I2" s="11" t="s">
-        <v>428</v>
+        <v>370</v>
       </c>
       <c r="J2" s="11" t="s">
         <v>6</v>
@@ -6863,23 +6863,23 @@
         <v>119</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>429</v>
+        <v>371</v>
       </c>
       <c r="D3" s="42" t="s">
         <v>126</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>430</v>
+        <v>372</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>431</v>
+        <v>373</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>432</v>
+        <v>474</v>
       </c>
       <c r="H3" s="11"/>
       <c r="I3" s="11" t="s">
-        <v>433</v>
+        <v>374</v>
       </c>
       <c r="J3" s="11" t="s">
         <v>6</v>
@@ -6894,23 +6894,23 @@
         <v>119</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>434</v>
+        <v>375</v>
       </c>
       <c r="D4" s="42" t="s">
         <v>126</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>435</v>
+        <v>376</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>436</v>
+        <v>377</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>437</v>
+        <v>475</v>
       </c>
       <c r="H4" s="11"/>
       <c r="I4" s="11" t="s">
-        <v>438</v>
+        <v>378</v>
       </c>
       <c r="J4" s="11" t="s">
         <v>6</v>
@@ -6925,23 +6925,23 @@
         <v>119</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>439</v>
+        <v>379</v>
       </c>
       <c r="D5" s="42" t="s">
         <v>126</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>440</v>
+        <v>380</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>441</v>
+        <v>381</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>442</v>
+        <v>476</v>
       </c>
       <c r="H5" s="11"/>
       <c r="I5" s="11" t="s">
-        <v>443</v>
+        <v>382</v>
       </c>
       <c r="J5" s="11" t="s">
         <v>6</v>
@@ -6956,23 +6956,23 @@
         <v>119</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>444</v>
+        <v>383</v>
       </c>
       <c r="D6" s="42" t="s">
         <v>126</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>445</v>
+        <v>384</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>446</v>
+        <v>385</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>447</v>
+        <v>477</v>
       </c>
       <c r="H6" s="11"/>
       <c r="I6" s="11" t="s">
-        <v>448</v>
+        <v>386</v>
       </c>
       <c r="J6" s="11" t="s">
         <v>6</v>
@@ -6987,23 +6987,23 @@
         <v>119</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>449</v>
+        <v>387</v>
       </c>
       <c r="D7" s="42" t="s">
         <v>126</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>450</v>
+        <v>388</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>451</v>
+        <v>389</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>452</v>
+        <v>478</v>
       </c>
       <c r="H7" s="11"/>
       <c r="I7" s="11" t="s">
-        <v>453</v>
+        <v>390</v>
       </c>
       <c r="J7" s="11" t="s">
         <v>6</v>
@@ -7018,23 +7018,23 @@
         <v>119</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>454</v>
+        <v>391</v>
       </c>
       <c r="D8" s="42" t="s">
         <v>126</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>455</v>
+        <v>392</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>456</v>
+        <v>393</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>457</v>
+        <v>479</v>
       </c>
       <c r="H8" s="11"/>
       <c r="I8" s="11" t="s">
-        <v>458</v>
+        <v>394</v>
       </c>
       <c r="J8" s="11" t="s">
         <v>6</v>
@@ -7049,23 +7049,23 @@
         <v>119</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>459</v>
+        <v>395</v>
       </c>
       <c r="D9" s="42" t="s">
         <v>126</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>460</v>
+        <v>396</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>461</v>
+        <v>397</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>462</v>
+        <v>480</v>
       </c>
       <c r="H9" s="11"/>
       <c r="I9" s="11" t="s">
-        <v>463</v>
+        <v>398</v>
       </c>
       <c r="J9" s="11" t="s">
         <v>6</v>
@@ -7080,23 +7080,23 @@
         <v>119</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>464</v>
+        <v>399</v>
       </c>
       <c r="D10" s="42" t="s">
         <v>126</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>465</v>
+        <v>400</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>466</v>
+        <v>401</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>467</v>
+        <v>481</v>
       </c>
       <c r="H10" s="11"/>
       <c r="I10" s="11" t="s">
-        <v>468</v>
+        <v>402</v>
       </c>
       <c r="J10" s="11" t="s">
         <v>6</v>
@@ -7111,23 +7111,23 @@
         <v>119</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>469</v>
+        <v>403</v>
       </c>
       <c r="D11" s="42" t="s">
         <v>126</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>470</v>
+        <v>404</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>471</v>
+        <v>405</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>472</v>
+        <v>482</v>
       </c>
       <c r="H11" s="11"/>
       <c r="I11" s="11" t="s">
-        <v>473</v>
+        <v>406</v>
       </c>
       <c r="J11" s="11" t="s">
         <v>6</v>
@@ -7142,23 +7142,23 @@
         <v>119</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>474</v>
+        <v>407</v>
       </c>
       <c r="D12" s="42" t="s">
         <v>126</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>475</v>
+        <v>408</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>476</v>
+        <v>409</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="H12" s="11"/>
       <c r="I12" s="11" t="s">
-        <v>478</v>
+        <v>410</v>
       </c>
       <c r="J12" s="11" t="s">
         <v>6</v>
@@ -7173,23 +7173,23 @@
         <v>119</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>479</v>
+        <v>411</v>
       </c>
       <c r="D13" s="42" t="s">
         <v>126</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>480</v>
+        <v>412</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>481</v>
+        <v>413</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="H13" s="11"/>
       <c r="I13" s="11" t="s">
-        <v>483</v>
+        <v>414</v>
       </c>
       <c r="J13" s="11" t="s">
         <v>6</v>
@@ -7198,15 +7198,15 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="58" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="B14" s="58" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="42"/>
       <c r="E14" s="12" t="s">
-        <v>484</v>
+        <v>415</v>
       </c>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>

--- a/structure-books_network1.xlsx
+++ b/structure-books_network1.xlsx
@@ -289,10 +289,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>identifier</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>revised</t>
     <phoneticPr fontId="4"/>
   </si>
@@ -434,12 +430,6 @@
   </si>
   <si>
     <t>series-name</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>CHiLO BookのユニークID。
-──────────────────
-content.opfに設定されます。</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -1916,6 +1906,16 @@
   </si>
   <si>
     <t>vol-007-022.txt</t>
+  </si>
+  <si>
+    <t>（必須）CHiLO BookのユニークID。
+──────────────────
+content.opfに設定されます。</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>identifier（必須）</t>
+    <phoneticPr fontId="4"/>
   </si>
 </sst>
 </file>
@@ -2710,10 +2710,6 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
@@ -2834,6 +2830,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="59">
@@ -3195,10 +3194,10 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D1" s="29" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="21" customHeight="1">
@@ -3206,13 +3205,13 @@
         <v>27</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="21" customHeight="1">
@@ -3220,13 +3219,13 @@
         <v>28</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C3" s="30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="21" customHeight="1">
@@ -3234,13 +3233,13 @@
         <v>29</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C4" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="59" t="s">
-        <v>50</v>
+      <c r="D4" s="58" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="21" customHeight="1">
@@ -3248,12 +3247,12 @@
         <v>30</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C5" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="60"/>
+      <c r="D5" s="59"/>
     </row>
     <row r="6" spans="1:4" ht="21" customHeight="1">
       <c r="A6" s="31" t="s">
@@ -3263,46 +3262,46 @@
         <v>41530</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="D6" s="60"/>
+        <v>51</v>
+      </c>
+      <c r="D6" s="59"/>
     </row>
     <row r="7" spans="1:4" ht="21" customHeight="1">
       <c r="A7" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B7" s="34">
         <v>42188</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="D7" s="60"/>
+        <v>44</v>
+      </c>
+      <c r="D7" s="59"/>
     </row>
     <row r="8" spans="1:4" ht="21" customHeight="1">
       <c r="A8" s="31" t="s">
         <v>32</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C8" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="61"/>
+      <c r="D8" s="60"/>
     </row>
     <row r="9" spans="1:4" ht="21" customHeight="1">
-      <c r="A9" s="57" t="s">
-        <v>61</v>
+      <c r="A9" s="56" t="s">
+        <v>60</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D9" s="29" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="214.5">
@@ -3310,13 +3309,13 @@
         <v>33</v>
       </c>
       <c r="B10" s="35" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C10" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D10" s="29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="21" customHeight="1">
@@ -3324,13 +3323,13 @@
         <v>34</v>
       </c>
       <c r="B11" s="41" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C11" s="30" t="s">
         <v>22</v>
       </c>
       <c r="D11" s="29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="21" customHeight="1">
@@ -3338,13 +3337,13 @@
         <v>0</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C12" s="30" t="s">
         <v>37</v>
       </c>
       <c r="D12" s="29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -3355,26 +3354,26 @@
       <c r="D13" s="27"/>
     </row>
     <row r="15" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A15" s="62" t="s">
-        <v>70</v>
-      </c>
-      <c r="B15" s="63"/>
-      <c r="C15" s="64"/>
+      <c r="A15" s="61" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" s="62"/>
+      <c r="C15" s="63"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="65"/>
-      <c r="B16" s="66"/>
-      <c r="C16" s="67"/>
+      <c r="A16" s="64"/>
+      <c r="B16" s="65"/>
+      <c r="C16" s="66"/>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="65"/>
-      <c r="B17" s="66"/>
-      <c r="C17" s="67"/>
+      <c r="A17" s="64"/>
+      <c r="B17" s="65"/>
+      <c r="C17" s="66"/>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="68"/>
-      <c r="B18" s="69"/>
-      <c r="C18" s="70"/>
+      <c r="A18" s="67"/>
+      <c r="B18" s="68"/>
+      <c r="C18" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3491,7 +3490,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="20.25" thickBot="1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="88" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="24" t="s">
@@ -3503,137 +3502,137 @@
       <c r="D1" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="24" t="s">
-        <v>43</v>
+      <c r="E1" s="88" t="s">
+        <v>484</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="48" customHeight="1" thickTop="1">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="53" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="47" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="55"/>
+      <c r="D2" s="44" t="s">
         <v>88</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="E2" s="53" t="s">
         <v>89</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="44" t="s">
+      <c r="F2" s="48" t="s">
         <v>90</v>
       </c>
-      <c r="E2" s="52" t="s">
+    </row>
+    <row r="3" spans="1:6" ht="48" customHeight="1">
+      <c r="A3" s="53" t="s">
         <v>91</v>
       </c>
-      <c r="F2" s="48" t="s">
+      <c r="B3" s="47" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="48" customHeight="1">
-      <c r="A3" s="54" t="s">
+      <c r="C3" s="55"/>
+      <c r="D3" s="44" t="s">
         <v>93</v>
       </c>
-      <c r="B3" s="47" t="s">
+      <c r="E3" s="53" t="s">
         <v>94</v>
       </c>
-      <c r="C3" s="56"/>
-      <c r="D3" s="44" t="s">
+      <c r="F3" s="48" t="s">
         <v>95</v>
       </c>
-      <c r="E3" s="52" t="s">
+    </row>
+    <row r="4" spans="1:6" ht="48" customHeight="1">
+      <c r="A4" s="53" t="s">
         <v>96</v>
       </c>
-      <c r="F3" s="48" t="s">
+      <c r="B4" s="47" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="48" customHeight="1">
-      <c r="A4" s="54" t="s">
+      <c r="C4" s="55"/>
+      <c r="D4" s="44" t="s">
         <v>98</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="E4" s="53" t="s">
         <v>99</v>
       </c>
-      <c r="C4" s="56"/>
-      <c r="D4" s="44" t="s">
+      <c r="F4" s="48" t="s">
         <v>100</v>
       </c>
-      <c r="E4" s="52" t="s">
+    </row>
+    <row r="5" spans="1:6" ht="48" customHeight="1">
+      <c r="A5" s="53" t="s">
         <v>101</v>
       </c>
-      <c r="F4" s="48" t="s">
+      <c r="B5" s="47" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="48" customHeight="1">
-      <c r="A5" s="54" t="s">
+      <c r="C5" s="55"/>
+      <c r="D5" s="44" t="s">
         <v>103</v>
       </c>
-      <c r="B5" s="47" t="s">
+      <c r="E5" s="53" t="s">
         <v>104</v>
       </c>
-      <c r="C5" s="56"/>
-      <c r="D5" s="44" t="s">
+      <c r="F5" s="48" t="s">
         <v>105</v>
       </c>
-      <c r="E5" s="52" t="s">
+    </row>
+    <row r="6" spans="1:6" ht="48" customHeight="1">
+      <c r="A6" s="53" t="s">
         <v>106</v>
       </c>
-      <c r="F5" s="48" t="s">
+      <c r="B6" s="47" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="48" customHeight="1">
-      <c r="A6" s="54" t="s">
+      <c r="C6" s="55"/>
+      <c r="D6" s="44" t="s">
         <v>108</v>
       </c>
-      <c r="B6" s="47" t="s">
+      <c r="E6" s="53" t="s">
         <v>109</v>
       </c>
-      <c r="C6" s="56"/>
-      <c r="D6" s="44" t="s">
+      <c r="F6" s="48" t="s">
         <v>110</v>
       </c>
-      <c r="E6" s="52" t="s">
+    </row>
+    <row r="7" spans="1:6" ht="48" customHeight="1">
+      <c r="A7" s="53" t="s">
         <v>111</v>
       </c>
-      <c r="F6" s="48" t="s">
+      <c r="B7" s="47" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="48" customHeight="1">
-      <c r="A7" s="54" t="s">
+      <c r="C7" s="55"/>
+      <c r="D7" s="44" t="s">
         <v>113</v>
       </c>
-      <c r="B7" s="47" t="s">
+      <c r="E7" s="53" t="s">
         <v>114</v>
       </c>
-      <c r="C7" s="56"/>
-      <c r="D7" s="44" t="s">
+      <c r="F7" s="48" t="s">
         <v>115</v>
       </c>
-      <c r="E7" s="52" t="s">
+    </row>
+    <row r="8" spans="1:6" ht="48" customHeight="1">
+      <c r="A8" s="53" t="s">
         <v>116</v>
       </c>
-      <c r="F7" s="48" t="s">
+      <c r="B8" s="47" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="48" customHeight="1">
-      <c r="A8" s="54" t="s">
+      <c r="C8" s="55"/>
+      <c r="D8" s="44" t="s">
         <v>118</v>
       </c>
-      <c r="B8" s="47" t="s">
+      <c r="E8" s="53" t="s">
         <v>119</v>
       </c>
-      <c r="C8" s="56"/>
-      <c r="D8" s="44" t="s">
+      <c r="F8" s="48" t="s">
         <v>120</v>
-      </c>
-      <c r="E8" s="52" t="s">
-        <v>121</v>
-      </c>
-      <c r="F8" s="48" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="48" customHeight="1">
@@ -3641,27 +3640,27 @@
       <c r="B9" s="50"/>
       <c r="C9" s="50"/>
       <c r="D9" s="50"/>
-      <c r="E9" s="53"/>
+      <c r="E9" s="52"/>
       <c r="F9" s="50"/>
     </row>
     <row r="10" spans="1:6" ht="214.5">
       <c r="A10" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D10" s="20" t="s">
         <v>42</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>62</v>
+        <v>483</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3683,36 +3682,36 @@
     </row>
     <row r="14" spans="1:6" ht="14.25" customHeight="1">
       <c r="A14" s="6"/>
-      <c r="B14" s="71" t="s">
-        <v>71</v>
-      </c>
-      <c r="C14" s="72"/>
-      <c r="D14" s="73"/>
+      <c r="B14" s="70" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="71"/>
+      <c r="D14" s="72"/>
       <c r="F14" s="45"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="6"/>
-      <c r="B15" s="74"/>
-      <c r="C15" s="75"/>
-      <c r="D15" s="76"/>
+      <c r="B15" s="73"/>
+      <c r="C15" s="74"/>
+      <c r="D15" s="75"/>
       <c r="F15" s="45"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="B16" s="74"/>
-      <c r="C16" s="75"/>
-      <c r="D16" s="76"/>
+      <c r="B16" s="73"/>
+      <c r="C16" s="74"/>
+      <c r="D16" s="75"/>
       <c r="F16" s="45"/>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="74"/>
-      <c r="C17" s="75"/>
-      <c r="D17" s="76"/>
+      <c r="B17" s="73"/>
+      <c r="C17" s="74"/>
+      <c r="D17" s="75"/>
       <c r="F17" s="45"/>
     </row>
     <row r="18" spans="2:6">
-      <c r="B18" s="77"/>
-      <c r="C18" s="78"/>
-      <c r="D18" s="79"/>
+      <c r="B18" s="76"/>
+      <c r="C18" s="77"/>
+      <c r="D18" s="78"/>
       <c r="F18" s="45"/>
     </row>
     <row r="19" spans="2:6">
@@ -3757,13 +3756,13 @@
         <v>8</v>
       </c>
       <c r="B1" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D1" s="55" t="s">
-        <v>46</v>
+      <c r="D1" s="54" t="s">
+        <v>45</v>
       </c>
       <c r="E1" s="15" t="s">
         <v>1</v>
@@ -3778,7 +3777,7 @@
         <v>4</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J1" s="15" t="s">
         <v>5</v>
@@ -3786,30 +3785,30 @@
       <c r="K1" s="3"/>
     </row>
     <row r="2" spans="1:11" ht="20.25" thickTop="1">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="57" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2" s="57" t="s">
+        <v>122</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="B2" s="58" t="s">
+      <c r="D2" s="42" t="s">
         <v>124</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="E2" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="D2" s="42" t="s">
+      <c r="F2" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="E2" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>128</v>
-      </c>
       <c r="G2" s="11" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="H2" s="11"/>
       <c r="I2" s="11" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J2" s="11" t="s">
         <v>6</v>
@@ -3817,30 +3816,30 @@
       <c r="K2" s="10"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="58" t="s">
-        <v>123</v>
-      </c>
-      <c r="B3" s="58" t="s">
+      <c r="A3" s="57" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" s="57" t="s">
+        <v>122</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="D3" s="42" t="s">
         <v>124</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="E3" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="F3" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="D3" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>132</v>
-      </c>
       <c r="G3" s="11" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="H3" s="11"/>
       <c r="I3" s="11" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="J3" s="11" t="s">
         <v>6</v>
@@ -3848,30 +3847,30 @@
       <c r="K3" s="10"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="58" t="s">
-        <v>123</v>
-      </c>
-      <c r="B4" s="58" t="s">
+      <c r="A4" s="57" t="s">
+        <v>121</v>
+      </c>
+      <c r="B4" s="57" t="s">
+        <v>122</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="D4" s="42" t="s">
         <v>124</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="E4" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="F4" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="D4" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>136</v>
-      </c>
       <c r="G4" s="11" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="H4" s="11"/>
       <c r="I4" s="11" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J4" s="11" t="s">
         <v>6</v>
@@ -3879,30 +3878,30 @@
       <c r="K4" s="10"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="58" t="s">
-        <v>123</v>
-      </c>
-      <c r="B5" s="58" t="s">
+      <c r="A5" s="57" t="s">
+        <v>121</v>
+      </c>
+      <c r="B5" s="57" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="D5" s="42" t="s">
         <v>124</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="E5" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="F5" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="D5" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>140</v>
-      </c>
       <c r="G5" s="11" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="H5" s="11"/>
       <c r="I5" s="11" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="J5" s="11" t="s">
         <v>6</v>
@@ -3910,30 +3909,30 @@
       <c r="K5" s="10"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="58" t="s">
-        <v>123</v>
-      </c>
-      <c r="B6" s="58" t="s">
+      <c r="A6" s="57" t="s">
+        <v>121</v>
+      </c>
+      <c r="B6" s="57" t="s">
+        <v>122</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="D6" s="42" t="s">
         <v>124</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="E6" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="F6" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="D6" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>144</v>
-      </c>
       <c r="G6" s="11" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="H6" s="11"/>
       <c r="I6" s="11" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J6" s="11" t="s">
         <v>6</v>
@@ -3941,30 +3940,30 @@
       <c r="K6" s="10"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="58" t="s">
-        <v>123</v>
-      </c>
-      <c r="B7" s="58" t="s">
+      <c r="A7" s="57" t="s">
+        <v>121</v>
+      </c>
+      <c r="B7" s="57" t="s">
+        <v>122</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="D7" s="42" t="s">
         <v>124</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="E7" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="F7" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="D7" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>148</v>
-      </c>
       <c r="G7" s="11" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="H7" s="11"/>
       <c r="I7" s="11" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="J7" s="11" t="s">
         <v>6</v>
@@ -3972,30 +3971,30 @@
       <c r="K7" s="10"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="58" t="s">
-        <v>123</v>
-      </c>
-      <c r="B8" s="58" t="s">
+      <c r="A8" s="57" t="s">
+        <v>121</v>
+      </c>
+      <c r="B8" s="57" t="s">
+        <v>122</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D8" s="42" t="s">
         <v>124</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="E8" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="F8" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="D8" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>152</v>
-      </c>
       <c r="G8" s="11" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="H8" s="11"/>
       <c r="I8" s="11" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="J8" s="11" t="s">
         <v>6</v>
@@ -4003,30 +4002,30 @@
       <c r="K8" s="10"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="58" t="s">
-        <v>123</v>
-      </c>
-      <c r="B9" s="58" t="s">
+      <c r="A9" s="57" t="s">
+        <v>121</v>
+      </c>
+      <c r="B9" s="57" t="s">
+        <v>122</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="D9" s="42" t="s">
         <v>124</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="E9" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="F9" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="D9" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>156</v>
-      </c>
       <c r="G9" s="11" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="H9" s="11"/>
       <c r="I9" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J9" s="11" t="s">
         <v>6</v>
@@ -4034,30 +4033,30 @@
       <c r="K9" s="10"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="58" t="s">
-        <v>123</v>
-      </c>
-      <c r="B10" s="58" t="s">
+      <c r="A10" s="57" t="s">
+        <v>121</v>
+      </c>
+      <c r="B10" s="57" t="s">
+        <v>156</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="D10" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="E10" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="F10" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="D10" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>161</v>
-      </c>
       <c r="G10" s="11" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="H10" s="11"/>
       <c r="I10" s="11" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="J10" s="11" t="s">
         <v>6</v>
@@ -4065,30 +4064,30 @@
       <c r="K10" s="10"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="58" t="s">
-        <v>123</v>
-      </c>
-      <c r="B11" s="58" t="s">
-        <v>158</v>
+      <c r="A11" s="57" t="s">
+        <v>121</v>
+      </c>
+      <c r="B11" s="57" t="s">
+        <v>156</v>
       </c>
       <c r="C11" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="D11" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="F11" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="D11" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>165</v>
-      </c>
       <c r="G11" s="11" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="H11" s="11"/>
       <c r="I11" s="11" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="J11" s="11" t="s">
         <v>6</v>
@@ -4096,30 +4095,30 @@
       <c r="K11" s="10"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="58" t="s">
-        <v>123</v>
-      </c>
-      <c r="B12" s="58" t="s">
-        <v>158</v>
+      <c r="A12" s="57" t="s">
+        <v>121</v>
+      </c>
+      <c r="B12" s="57" t="s">
+        <v>156</v>
       </c>
       <c r="C12" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="D12" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="F12" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="D12" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>169</v>
-      </c>
       <c r="G12" s="11" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="H12" s="11"/>
       <c r="I12" s="11" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="J12" s="11" t="s">
         <v>6</v>
@@ -4127,30 +4126,30 @@
       <c r="K12" s="10"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="58" t="s">
-        <v>123</v>
-      </c>
-      <c r="B13" s="58" t="s">
-        <v>158</v>
+      <c r="A13" s="57" t="s">
+        <v>121</v>
+      </c>
+      <c r="B13" s="57" t="s">
+        <v>156</v>
       </c>
       <c r="C13" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="D13" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="F13" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="D13" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>173</v>
-      </c>
       <c r="G13" s="11" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="H13" s="11"/>
       <c r="I13" s="11" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="J13" s="11" t="s">
         <v>6</v>
@@ -4158,30 +4157,30 @@
       <c r="K13" s="10"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="58" t="s">
-        <v>123</v>
-      </c>
-      <c r="B14" s="58" t="s">
-        <v>158</v>
+      <c r="A14" s="57" t="s">
+        <v>121</v>
+      </c>
+      <c r="B14" s="57" t="s">
+        <v>156</v>
       </c>
       <c r="C14" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="D14" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="F14" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="D14" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>177</v>
-      </c>
       <c r="G14" s="11" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="H14" s="11"/>
       <c r="I14" s="11" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="J14" s="11" t="s">
         <v>6</v>
@@ -4189,30 +4188,30 @@
       <c r="K14" s="10"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="58" t="s">
-        <v>123</v>
-      </c>
-      <c r="B15" s="58" t="s">
-        <v>158</v>
+      <c r="A15" s="57" t="s">
+        <v>121</v>
+      </c>
+      <c r="B15" s="57" t="s">
+        <v>156</v>
       </c>
       <c r="C15" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="D15" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="F15" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="D15" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>181</v>
-      </c>
       <c r="G15" s="11" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="H15" s="11"/>
       <c r="I15" s="11" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J15" s="11" t="s">
         <v>6</v>
@@ -4220,16 +4219,16 @@
       <c r="K15" s="10"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="58" t="s">
-        <v>183</v>
-      </c>
-      <c r="B16" s="58" t="s">
-        <v>184</v>
+      <c r="A16" s="57" t="s">
+        <v>181</v>
+      </c>
+      <c r="B16" s="57" t="s">
+        <v>182</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="42"/>
       <c r="E16" s="12" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
@@ -4255,34 +4254,34 @@
     </row>
     <row r="18" spans="1:11" s="39" customFormat="1" ht="165" customHeight="1">
       <c r="A18" s="36" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B18" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="E18" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="F18" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="G18" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="H18" s="36" t="s">
         <v>64</v>
-      </c>
-      <c r="C18" s="36" t="s">
-        <v>76</v>
-      </c>
-      <c r="D18" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="E18" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="F18" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="G18" s="36" t="s">
-        <v>74</v>
-      </c>
-      <c r="H18" s="36" t="s">
-        <v>66</v>
       </c>
       <c r="I18" s="36" t="s">
         <v>40</v>
       </c>
       <c r="J18" s="36" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K18" s="38"/>
     </row>
@@ -4295,48 +4294,48 @@
       <c r="K20" s="18"/>
     </row>
     <row r="21" spans="1:11" ht="14.25" customHeight="1">
-      <c r="B21" s="80" t="s">
-        <v>75</v>
-      </c>
-      <c r="C21" s="81"/>
-      <c r="D21" s="81"/>
-      <c r="E21" s="82"/>
+      <c r="B21" s="79" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21" s="80"/>
+      <c r="D21" s="80"/>
+      <c r="E21" s="81"/>
     </row>
     <row r="22" spans="1:11">
-      <c r="B22" s="83"/>
-      <c r="C22" s="84"/>
-      <c r="D22" s="84"/>
-      <c r="E22" s="85"/>
+      <c r="B22" s="82"/>
+      <c r="C22" s="83"/>
+      <c r="D22" s="83"/>
+      <c r="E22" s="84"/>
     </row>
     <row r="23" spans="1:11">
-      <c r="B23" s="83"/>
-      <c r="C23" s="84"/>
-      <c r="D23" s="84"/>
-      <c r="E23" s="85"/>
+      <c r="B23" s="82"/>
+      <c r="C23" s="83"/>
+      <c r="D23" s="83"/>
+      <c r="E23" s="84"/>
     </row>
     <row r="24" spans="1:11">
-      <c r="B24" s="83"/>
-      <c r="C24" s="84"/>
-      <c r="D24" s="84"/>
-      <c r="E24" s="85"/>
+      <c r="B24" s="82"/>
+      <c r="C24" s="83"/>
+      <c r="D24" s="83"/>
+      <c r="E24" s="84"/>
     </row>
     <row r="25" spans="1:11">
-      <c r="B25" s="83"/>
-      <c r="C25" s="84"/>
-      <c r="D25" s="84"/>
-      <c r="E25" s="85"/>
+      <c r="B25" s="82"/>
+      <c r="C25" s="83"/>
+      <c r="D25" s="83"/>
+      <c r="E25" s="84"/>
     </row>
     <row r="26" spans="1:11">
-      <c r="B26" s="83"/>
-      <c r="C26" s="84"/>
-      <c r="D26" s="84"/>
-      <c r="E26" s="85"/>
+      <c r="B26" s="82"/>
+      <c r="C26" s="83"/>
+      <c r="D26" s="83"/>
+      <c r="E26" s="84"/>
     </row>
     <row r="27" spans="1:11">
-      <c r="B27" s="86"/>
-      <c r="C27" s="87"/>
-      <c r="D27" s="87"/>
-      <c r="E27" s="88"/>
+      <c r="B27" s="85"/>
+      <c r="C27" s="86"/>
+      <c r="D27" s="86"/>
+      <c r="E27" s="87"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
@@ -4403,13 +4402,13 @@
         <v>8</v>
       </c>
       <c r="B1" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D1" s="55" t="s">
-        <v>46</v>
+      <c r="D1" s="54" t="s">
+        <v>45</v>
       </c>
       <c r="E1" s="15" t="s">
         <v>1</v>
@@ -4424,7 +4423,7 @@
         <v>4</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J1" s="15" t="s">
         <v>5</v>
@@ -4432,30 +4431,30 @@
       <c r="K1" s="3"/>
     </row>
     <row r="2" spans="1:11" ht="20.25" thickTop="1">
-      <c r="A2" s="58" t="s">
-        <v>123</v>
-      </c>
-      <c r="B2" s="58" t="s">
+      <c r="A2" s="57" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2" s="57" t="s">
+        <v>184</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="D2" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="E2" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="F2" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="D2" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>189</v>
-      </c>
       <c r="G2" s="11" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="H2" s="11"/>
       <c r="I2" s="11" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="J2" s="11" t="s">
         <v>6</v>
@@ -4463,30 +4462,30 @@
       <c r="K2" s="10"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="58" t="s">
-        <v>123</v>
-      </c>
-      <c r="B3" s="58" t="s">
-        <v>186</v>
+      <c r="A3" s="57" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" s="57" t="s">
+        <v>184</v>
       </c>
       <c r="C3" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="D3" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="F3" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="D3" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>193</v>
-      </c>
       <c r="G3" s="11" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="H3" s="11"/>
       <c r="I3" s="11" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="J3" s="11" t="s">
         <v>6</v>
@@ -4494,30 +4493,30 @@
       <c r="K3" s="10"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="58" t="s">
-        <v>123</v>
-      </c>
-      <c r="B4" s="58" t="s">
-        <v>186</v>
+      <c r="A4" s="57" t="s">
+        <v>121</v>
+      </c>
+      <c r="B4" s="57" t="s">
+        <v>184</v>
       </c>
       <c r="C4" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="D4" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="F4" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="D4" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>197</v>
-      </c>
       <c r="G4" s="11" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="H4" s="11"/>
       <c r="I4" s="11" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="J4" s="11" t="s">
         <v>6</v>
@@ -4525,30 +4524,30 @@
       <c r="K4" s="10"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="58" t="s">
-        <v>123</v>
-      </c>
-      <c r="B5" s="58" t="s">
-        <v>186</v>
+      <c r="A5" s="57" t="s">
+        <v>121</v>
+      </c>
+      <c r="B5" s="57" t="s">
+        <v>184</v>
       </c>
       <c r="C5" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="D5" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="F5" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="D5" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>201</v>
-      </c>
       <c r="G5" s="11" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="H5" s="11"/>
       <c r="I5" s="11" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J5" s="11" t="s">
         <v>6</v>
@@ -4556,30 +4555,30 @@
       <c r="K5" s="10"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="58" t="s">
-        <v>123</v>
-      </c>
-      <c r="B6" s="58" t="s">
-        <v>186</v>
+      <c r="A6" s="57" t="s">
+        <v>121</v>
+      </c>
+      <c r="B6" s="57" t="s">
+        <v>184</v>
       </c>
       <c r="C6" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="D6" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="F6" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="D6" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>205</v>
-      </c>
       <c r="G6" s="11" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="H6" s="11"/>
       <c r="I6" s="11" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="J6" s="11" t="s">
         <v>6</v>
@@ -4587,30 +4586,30 @@
       <c r="K6" s="10"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="58" t="s">
-        <v>123</v>
-      </c>
-      <c r="B7" s="58" t="s">
-        <v>186</v>
+      <c r="A7" s="57" t="s">
+        <v>121</v>
+      </c>
+      <c r="B7" s="57" t="s">
+        <v>184</v>
       </c>
       <c r="C7" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="D7" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="F7" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="D7" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>209</v>
-      </c>
       <c r="G7" s="11" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="H7" s="11"/>
       <c r="I7" s="11" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J7" s="11" t="s">
         <v>6</v>
@@ -4618,30 +4617,30 @@
       <c r="K7" s="10"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="58" t="s">
-        <v>123</v>
-      </c>
-      <c r="B8" s="58" t="s">
-        <v>186</v>
+      <c r="A8" s="57" t="s">
+        <v>121</v>
+      </c>
+      <c r="B8" s="57" t="s">
+        <v>184</v>
       </c>
       <c r="C8" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="D8" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="F8" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="D8" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>213</v>
-      </c>
       <c r="G8" s="11" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="H8" s="11"/>
       <c r="I8" s="11" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="J8" s="11" t="s">
         <v>6</v>
@@ -4649,30 +4648,30 @@
       <c r="K8" s="10"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="58" t="s">
-        <v>123</v>
-      </c>
-      <c r="B9" s="58" t="s">
-        <v>186</v>
+      <c r="A9" s="57" t="s">
+        <v>121</v>
+      </c>
+      <c r="B9" s="57" t="s">
+        <v>184</v>
       </c>
       <c r="C9" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="D9" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="F9" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="D9" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>217</v>
-      </c>
       <c r="G9" s="11" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="H9" s="11"/>
       <c r="I9" s="11" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="J9" s="11" t="s">
         <v>6</v>
@@ -4680,16 +4679,16 @@
       <c r="K9" s="10"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="58" t="s">
-        <v>183</v>
-      </c>
-      <c r="B10" s="58" t="s">
-        <v>184</v>
+      <c r="A10" s="57" t="s">
+        <v>181</v>
+      </c>
+      <c r="B10" s="57" t="s">
+        <v>182</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="42"/>
       <c r="E10" s="12" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
@@ -4715,34 +4714,34 @@
     </row>
     <row r="12" spans="1:11" s="39" customFormat="1" ht="165" customHeight="1">
       <c r="A12" s="36" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B12" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="E12" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="G12" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="H12" s="36" t="s">
         <v>64</v>
-      </c>
-      <c r="C12" s="36" t="s">
-        <v>76</v>
-      </c>
-      <c r="D12" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="E12" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="F12" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="G12" s="36" t="s">
-        <v>74</v>
-      </c>
-      <c r="H12" s="36" t="s">
-        <v>66</v>
       </c>
       <c r="I12" s="36" t="s">
         <v>40</v>
       </c>
       <c r="J12" s="36" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K12" s="38"/>
     </row>
@@ -4755,48 +4754,48 @@
       <c r="K14" s="18"/>
     </row>
     <row r="15" spans="1:11" ht="14.25" customHeight="1">
-      <c r="B15" s="80" t="s">
-        <v>75</v>
-      </c>
-      <c r="C15" s="81"/>
-      <c r="D15" s="81"/>
-      <c r="E15" s="82"/>
+      <c r="B15" s="79" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" s="80"/>
+      <c r="D15" s="80"/>
+      <c r="E15" s="81"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="B16" s="83"/>
-      <c r="C16" s="84"/>
-      <c r="D16" s="84"/>
-      <c r="E16" s="85"/>
+      <c r="B16" s="82"/>
+      <c r="C16" s="83"/>
+      <c r="D16" s="83"/>
+      <c r="E16" s="84"/>
     </row>
     <row r="17" spans="2:5">
-      <c r="B17" s="83"/>
-      <c r="C17" s="84"/>
-      <c r="D17" s="84"/>
-      <c r="E17" s="85"/>
+      <c r="B17" s="82"/>
+      <c r="C17" s="83"/>
+      <c r="D17" s="83"/>
+      <c r="E17" s="84"/>
     </row>
     <row r="18" spans="2:5">
-      <c r="B18" s="83"/>
-      <c r="C18" s="84"/>
-      <c r="D18" s="84"/>
-      <c r="E18" s="85"/>
+      <c r="B18" s="82"/>
+      <c r="C18" s="83"/>
+      <c r="D18" s="83"/>
+      <c r="E18" s="84"/>
     </row>
     <row r="19" spans="2:5">
-      <c r="B19" s="83"/>
-      <c r="C19" s="84"/>
-      <c r="D19" s="84"/>
-      <c r="E19" s="85"/>
+      <c r="B19" s="82"/>
+      <c r="C19" s="83"/>
+      <c r="D19" s="83"/>
+      <c r="E19" s="84"/>
     </row>
     <row r="20" spans="2:5">
-      <c r="B20" s="83"/>
-      <c r="C20" s="84"/>
-      <c r="D20" s="84"/>
-      <c r="E20" s="85"/>
+      <c r="B20" s="82"/>
+      <c r="C20" s="83"/>
+      <c r="D20" s="83"/>
+      <c r="E20" s="84"/>
     </row>
     <row r="21" spans="2:5">
-      <c r="B21" s="86"/>
-      <c r="C21" s="87"/>
-      <c r="D21" s="87"/>
-      <c r="E21" s="88"/>
+      <c r="B21" s="85"/>
+      <c r="C21" s="86"/>
+      <c r="D21" s="86"/>
+      <c r="E21" s="87"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
@@ -4863,13 +4862,13 @@
         <v>8</v>
       </c>
       <c r="B1" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D1" s="55" t="s">
-        <v>46</v>
+      <c r="D1" s="54" t="s">
+        <v>45</v>
       </c>
       <c r="E1" s="15" t="s">
         <v>1</v>
@@ -4884,7 +4883,7 @@
         <v>4</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J1" s="15" t="s">
         <v>5</v>
@@ -4892,30 +4891,30 @@
       <c r="K1" s="3"/>
     </row>
     <row r="2" spans="1:11" ht="20.25" thickTop="1">
-      <c r="A2" s="58" t="s">
-        <v>123</v>
-      </c>
-      <c r="B2" s="58" t="s">
-        <v>99</v>
+      <c r="A2" s="57" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2" s="57" t="s">
+        <v>97</v>
       </c>
       <c r="C2" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="D2" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="F2" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="D2" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>222</v>
-      </c>
       <c r="G2" s="11" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="H2" s="11"/>
       <c r="I2" s="11" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="J2" s="11" t="s">
         <v>6</v>
@@ -4923,30 +4922,30 @@
       <c r="K2" s="10"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="58" t="s">
-        <v>123</v>
-      </c>
-      <c r="B3" s="58" t="s">
-        <v>99</v>
+      <c r="A3" s="57" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" s="57" t="s">
+        <v>97</v>
       </c>
       <c r="C3" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="D3" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="F3" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="D3" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>225</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>226</v>
-      </c>
       <c r="G3" s="11" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="H3" s="11"/>
       <c r="I3" s="11" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="J3" s="11" t="s">
         <v>6</v>
@@ -4954,30 +4953,30 @@
       <c r="K3" s="10"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="58" t="s">
-        <v>123</v>
-      </c>
-      <c r="B4" s="58" t="s">
-        <v>99</v>
+      <c r="A4" s="57" t="s">
+        <v>121</v>
+      </c>
+      <c r="B4" s="57" t="s">
+        <v>97</v>
       </c>
       <c r="C4" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="D4" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="F4" s="11" t="s">
         <v>228</v>
       </c>
-      <c r="D4" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>229</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>230</v>
-      </c>
       <c r="G4" s="11" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="H4" s="11"/>
       <c r="I4" s="11" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="J4" s="11" t="s">
         <v>6</v>
@@ -4985,30 +4984,30 @@
       <c r="K4" s="10"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="58" t="s">
-        <v>123</v>
-      </c>
-      <c r="B5" s="58" t="s">
-        <v>99</v>
+      <c r="A5" s="57" t="s">
+        <v>121</v>
+      </c>
+      <c r="B5" s="57" t="s">
+        <v>97</v>
       </c>
       <c r="C5" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="D5" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="F5" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="D5" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>234</v>
-      </c>
       <c r="G5" s="11" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="H5" s="11"/>
       <c r="I5" s="11" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="J5" s="11" t="s">
         <v>6</v>
@@ -5016,30 +5015,30 @@
       <c r="K5" s="10"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="58" t="s">
-        <v>123</v>
-      </c>
-      <c r="B6" s="58" t="s">
-        <v>99</v>
+      <c r="A6" s="57" t="s">
+        <v>121</v>
+      </c>
+      <c r="B6" s="57" t="s">
+        <v>97</v>
       </c>
       <c r="C6" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="D6" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="F6" s="11" t="s">
         <v>236</v>
       </c>
-      <c r="D6" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>237</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>238</v>
-      </c>
       <c r="G6" s="11" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="H6" s="11"/>
       <c r="I6" s="11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J6" s="11" t="s">
         <v>6</v>
@@ -5047,30 +5046,30 @@
       <c r="K6" s="10"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="58" t="s">
-        <v>123</v>
-      </c>
-      <c r="B7" s="58" t="s">
-        <v>99</v>
+      <c r="A7" s="57" t="s">
+        <v>121</v>
+      </c>
+      <c r="B7" s="57" t="s">
+        <v>97</v>
       </c>
       <c r="C7" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="D7" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="F7" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="D7" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>241</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>242</v>
-      </c>
       <c r="G7" s="11" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="H7" s="11"/>
       <c r="I7" s="11" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="J7" s="11" t="s">
         <v>6</v>
@@ -5078,30 +5077,30 @@
       <c r="K7" s="10"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="58" t="s">
-        <v>123</v>
-      </c>
-      <c r="B8" s="58" t="s">
-        <v>99</v>
+      <c r="A8" s="57" t="s">
+        <v>121</v>
+      </c>
+      <c r="B8" s="57" t="s">
+        <v>97</v>
       </c>
       <c r="C8" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="D8" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="F8" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="D8" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>246</v>
-      </c>
       <c r="G8" s="11" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H8" s="11"/>
       <c r="I8" s="11" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="J8" s="11" t="s">
         <v>6</v>
@@ -5109,16 +5108,16 @@
       <c r="K8" s="10"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="58" t="s">
-        <v>183</v>
-      </c>
-      <c r="B9" s="58" t="s">
-        <v>184</v>
+      <c r="A9" s="57" t="s">
+        <v>181</v>
+      </c>
+      <c r="B9" s="57" t="s">
+        <v>182</v>
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="42"/>
       <c r="E9" s="12" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
@@ -5144,34 +5143,34 @@
     </row>
     <row r="11" spans="1:11" s="39" customFormat="1" ht="165" customHeight="1">
       <c r="A11" s="36" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B11" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="E11" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="F11" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="G11" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="H11" s="36" t="s">
         <v>64</v>
-      </c>
-      <c r="C11" s="36" t="s">
-        <v>76</v>
-      </c>
-      <c r="D11" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="E11" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="F11" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="G11" s="36" t="s">
-        <v>74</v>
-      </c>
-      <c r="H11" s="36" t="s">
-        <v>66</v>
       </c>
       <c r="I11" s="36" t="s">
         <v>40</v>
       </c>
       <c r="J11" s="36" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K11" s="38"/>
     </row>
@@ -5184,48 +5183,48 @@
       <c r="K13" s="18"/>
     </row>
     <row r="14" spans="1:11" ht="14.25" customHeight="1">
-      <c r="B14" s="80" t="s">
-        <v>75</v>
-      </c>
-      <c r="C14" s="81"/>
-      <c r="D14" s="81"/>
-      <c r="E14" s="82"/>
+      <c r="B14" s="79" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" s="80"/>
+      <c r="D14" s="80"/>
+      <c r="E14" s="81"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="B15" s="83"/>
-      <c r="C15" s="84"/>
-      <c r="D15" s="84"/>
-      <c r="E15" s="85"/>
+      <c r="B15" s="82"/>
+      <c r="C15" s="83"/>
+      <c r="D15" s="83"/>
+      <c r="E15" s="84"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="B16" s="83"/>
-      <c r="C16" s="84"/>
-      <c r="D16" s="84"/>
-      <c r="E16" s="85"/>
+      <c r="B16" s="82"/>
+      <c r="C16" s="83"/>
+      <c r="D16" s="83"/>
+      <c r="E16" s="84"/>
     </row>
     <row r="17" spans="2:5">
-      <c r="B17" s="83"/>
-      <c r="C17" s="84"/>
-      <c r="D17" s="84"/>
-      <c r="E17" s="85"/>
+      <c r="B17" s="82"/>
+      <c r="C17" s="83"/>
+      <c r="D17" s="83"/>
+      <c r="E17" s="84"/>
     </row>
     <row r="18" spans="2:5">
-      <c r="B18" s="83"/>
-      <c r="C18" s="84"/>
-      <c r="D18" s="84"/>
-      <c r="E18" s="85"/>
+      <c r="B18" s="82"/>
+      <c r="C18" s="83"/>
+      <c r="D18" s="83"/>
+      <c r="E18" s="84"/>
     </row>
     <row r="19" spans="2:5">
-      <c r="B19" s="83"/>
-      <c r="C19" s="84"/>
-      <c r="D19" s="84"/>
-      <c r="E19" s="85"/>
+      <c r="B19" s="82"/>
+      <c r="C19" s="83"/>
+      <c r="D19" s="83"/>
+      <c r="E19" s="84"/>
     </row>
     <row r="20" spans="2:5">
-      <c r="B20" s="86"/>
-      <c r="C20" s="87"/>
-      <c r="D20" s="87"/>
-      <c r="E20" s="88"/>
+      <c r="B20" s="85"/>
+      <c r="C20" s="86"/>
+      <c r="D20" s="86"/>
+      <c r="E20" s="87"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
@@ -5292,13 +5291,13 @@
         <v>8</v>
       </c>
       <c r="B1" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D1" s="55" t="s">
-        <v>46</v>
+      <c r="D1" s="54" t="s">
+        <v>45</v>
       </c>
       <c r="E1" s="15" t="s">
         <v>1</v>
@@ -5313,7 +5312,7 @@
         <v>4</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J1" s="15" t="s">
         <v>5</v>
@@ -5321,30 +5320,30 @@
       <c r="K1" s="3"/>
     </row>
     <row r="2" spans="1:11" ht="20.25" thickTop="1">
-      <c r="A2" s="58" t="s">
-        <v>123</v>
-      </c>
-      <c r="B2" s="58" t="s">
+      <c r="A2" s="57" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2" s="57" t="s">
+        <v>247</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="D2" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="E2" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="F2" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="D2" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>251</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>252</v>
-      </c>
       <c r="G2" s="11" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="H2" s="11"/>
       <c r="I2" s="11" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="J2" s="11" t="s">
         <v>6</v>
@@ -5352,30 +5351,30 @@
       <c r="K2" s="10"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="58" t="s">
-        <v>123</v>
-      </c>
-      <c r="B3" s="58" t="s">
-        <v>249</v>
+      <c r="A3" s="57" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" s="57" t="s">
+        <v>247</v>
       </c>
       <c r="C3" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="D3" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="F3" s="11" t="s">
         <v>254</v>
       </c>
-      <c r="D3" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>256</v>
-      </c>
       <c r="G3" s="11" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="H3" s="11"/>
       <c r="I3" s="11" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="J3" s="11" t="s">
         <v>6</v>
@@ -5383,30 +5382,30 @@
       <c r="K3" s="10"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="58" t="s">
-        <v>123</v>
-      </c>
-      <c r="B4" s="58" t="s">
-        <v>249</v>
+      <c r="A4" s="57" t="s">
+        <v>121</v>
+      </c>
+      <c r="B4" s="57" t="s">
+        <v>247</v>
       </c>
       <c r="C4" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="D4" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="F4" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="D4" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>259</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>260</v>
-      </c>
       <c r="G4" s="11" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="H4" s="11"/>
       <c r="I4" s="11" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="J4" s="11" t="s">
         <v>6</v>
@@ -5414,30 +5413,30 @@
       <c r="K4" s="10"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="58" t="s">
-        <v>123</v>
-      </c>
-      <c r="B5" s="58" t="s">
-        <v>249</v>
+      <c r="A5" s="57" t="s">
+        <v>121</v>
+      </c>
+      <c r="B5" s="57" t="s">
+        <v>247</v>
       </c>
       <c r="C5" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="D5" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="F5" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="D5" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>263</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>264</v>
-      </c>
       <c r="G5" s="11" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="H5" s="11"/>
       <c r="I5" s="11" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="J5" s="11" t="s">
         <v>6</v>
@@ -5445,30 +5444,30 @@
       <c r="K5" s="10"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="58" t="s">
-        <v>123</v>
-      </c>
-      <c r="B6" s="58" t="s">
-        <v>249</v>
+      <c r="A6" s="57" t="s">
+        <v>121</v>
+      </c>
+      <c r="B6" s="57" t="s">
+        <v>247</v>
       </c>
       <c r="C6" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="D6" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="F6" s="11" t="s">
         <v>266</v>
       </c>
-      <c r="D6" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>267</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>268</v>
-      </c>
       <c r="G6" s="11" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="H6" s="11"/>
       <c r="I6" s="11" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="J6" s="11" t="s">
         <v>6</v>
@@ -5476,30 +5475,30 @@
       <c r="K6" s="10"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="58" t="s">
-        <v>123</v>
-      </c>
-      <c r="B7" s="58" t="s">
-        <v>249</v>
+      <c r="A7" s="57" t="s">
+        <v>121</v>
+      </c>
+      <c r="B7" s="57" t="s">
+        <v>247</v>
       </c>
       <c r="C7" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="D7" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="F7" s="11" t="s">
         <v>270</v>
       </c>
-      <c r="D7" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>271</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>272</v>
-      </c>
       <c r="G7" s="11" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="H7" s="11"/>
       <c r="I7" s="11" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="J7" s="11" t="s">
         <v>6</v>
@@ -5507,30 +5506,30 @@
       <c r="K7" s="10"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="58" t="s">
-        <v>123</v>
-      </c>
-      <c r="B8" s="58" t="s">
-        <v>249</v>
+      <c r="A8" s="57" t="s">
+        <v>121</v>
+      </c>
+      <c r="B8" s="57" t="s">
+        <v>247</v>
       </c>
       <c r="C8" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="D8" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="F8" s="11" t="s">
         <v>274</v>
       </c>
-      <c r="D8" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>275</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>276</v>
-      </c>
       <c r="G8" s="11" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="H8" s="11"/>
       <c r="I8" s="11" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="J8" s="11" t="s">
         <v>6</v>
@@ -5538,30 +5537,30 @@
       <c r="K8" s="10"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="58" t="s">
-        <v>123</v>
-      </c>
-      <c r="B9" s="58" t="s">
-        <v>249</v>
+      <c r="A9" s="57" t="s">
+        <v>121</v>
+      </c>
+      <c r="B9" s="57" t="s">
+        <v>247</v>
       </c>
       <c r="C9" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="D9" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="F9" s="11" t="s">
         <v>278</v>
       </c>
-      <c r="D9" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>280</v>
-      </c>
       <c r="G9" s="11" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="H9" s="11"/>
       <c r="I9" s="11" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="J9" s="11" t="s">
         <v>6</v>
@@ -5569,30 +5568,30 @@
       <c r="K9" s="10"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="58" t="s">
-        <v>123</v>
-      </c>
-      <c r="B10" s="58" t="s">
-        <v>249</v>
+      <c r="A10" s="57" t="s">
+        <v>121</v>
+      </c>
+      <c r="B10" s="57" t="s">
+        <v>247</v>
       </c>
       <c r="C10" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="D10" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="F10" s="11" t="s">
         <v>282</v>
       </c>
-      <c r="D10" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>283</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>284</v>
-      </c>
       <c r="G10" s="11" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="H10" s="11"/>
       <c r="I10" s="11" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="J10" s="11" t="s">
         <v>6</v>
@@ -5600,16 +5599,16 @@
       <c r="K10" s="10"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="58" t="s">
-        <v>183</v>
-      </c>
-      <c r="B11" s="58" t="s">
-        <v>184</v>
+      <c r="A11" s="57" t="s">
+        <v>181</v>
+      </c>
+      <c r="B11" s="57" t="s">
+        <v>182</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="42"/>
       <c r="E11" s="12" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
@@ -5635,34 +5634,34 @@
     </row>
     <row r="13" spans="1:11" s="39" customFormat="1" ht="165" customHeight="1">
       <c r="A13" s="36" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B13" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="G13" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="H13" s="36" t="s">
         <v>64</v>
-      </c>
-      <c r="C13" s="36" t="s">
-        <v>76</v>
-      </c>
-      <c r="D13" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="E13" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="F13" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="G13" s="36" t="s">
-        <v>74</v>
-      </c>
-      <c r="H13" s="36" t="s">
-        <v>66</v>
       </c>
       <c r="I13" s="36" t="s">
         <v>40</v>
       </c>
       <c r="J13" s="36" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K13" s="38"/>
     </row>
@@ -5675,48 +5674,48 @@
       <c r="K15" s="18"/>
     </row>
     <row r="16" spans="1:11" ht="14.25" customHeight="1">
-      <c r="B16" s="80" t="s">
-        <v>75</v>
-      </c>
-      <c r="C16" s="81"/>
-      <c r="D16" s="81"/>
-      <c r="E16" s="82"/>
+      <c r="B16" s="79" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" s="80"/>
+      <c r="D16" s="80"/>
+      <c r="E16" s="81"/>
     </row>
     <row r="17" spans="2:5">
-      <c r="B17" s="83"/>
-      <c r="C17" s="84"/>
-      <c r="D17" s="84"/>
-      <c r="E17" s="85"/>
+      <c r="B17" s="82"/>
+      <c r="C17" s="83"/>
+      <c r="D17" s="83"/>
+      <c r="E17" s="84"/>
     </row>
     <row r="18" spans="2:5">
-      <c r="B18" s="83"/>
-      <c r="C18" s="84"/>
-      <c r="D18" s="84"/>
-      <c r="E18" s="85"/>
+      <c r="B18" s="82"/>
+      <c r="C18" s="83"/>
+      <c r="D18" s="83"/>
+      <c r="E18" s="84"/>
     </row>
     <row r="19" spans="2:5">
-      <c r="B19" s="83"/>
-      <c r="C19" s="84"/>
-      <c r="D19" s="84"/>
-      <c r="E19" s="85"/>
+      <c r="B19" s="82"/>
+      <c r="C19" s="83"/>
+      <c r="D19" s="83"/>
+      <c r="E19" s="84"/>
     </row>
     <row r="20" spans="2:5">
-      <c r="B20" s="83"/>
-      <c r="C20" s="84"/>
-      <c r="D20" s="84"/>
-      <c r="E20" s="85"/>
+      <c r="B20" s="82"/>
+      <c r="C20" s="83"/>
+      <c r="D20" s="83"/>
+      <c r="E20" s="84"/>
     </row>
     <row r="21" spans="2:5">
-      <c r="B21" s="83"/>
-      <c r="C21" s="84"/>
-      <c r="D21" s="84"/>
-      <c r="E21" s="85"/>
+      <c r="B21" s="82"/>
+      <c r="C21" s="83"/>
+      <c r="D21" s="83"/>
+      <c r="E21" s="84"/>
     </row>
     <row r="22" spans="2:5">
-      <c r="B22" s="86"/>
-      <c r="C22" s="87"/>
-      <c r="D22" s="87"/>
-      <c r="E22" s="88"/>
+      <c r="B22" s="85"/>
+      <c r="C22" s="86"/>
+      <c r="D22" s="86"/>
+      <c r="E22" s="87"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
@@ -5783,13 +5782,13 @@
         <v>8</v>
       </c>
       <c r="B1" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D1" s="55" t="s">
-        <v>46</v>
+      <c r="D1" s="54" t="s">
+        <v>45</v>
       </c>
       <c r="E1" s="15" t="s">
         <v>1</v>
@@ -5804,7 +5803,7 @@
         <v>4</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J1" s="15" t="s">
         <v>5</v>
@@ -5812,30 +5811,30 @@
       <c r="K1" s="3"/>
     </row>
     <row r="2" spans="1:11" ht="20.25" thickTop="1">
-      <c r="A2" s="58" t="s">
-        <v>123</v>
-      </c>
-      <c r="B2" s="58" t="s">
+      <c r="A2" s="57" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2" s="57" t="s">
+        <v>285</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="D2" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="E2" s="11" t="s">
         <v>287</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="F2" s="11" t="s">
         <v>288</v>
       </c>
-      <c r="D2" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>289</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>290</v>
-      </c>
       <c r="G2" s="11" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="H2" s="11"/>
       <c r="I2" s="11" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="J2" s="11" t="s">
         <v>6</v>
@@ -5843,30 +5842,30 @@
       <c r="K2" s="10"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="58" t="s">
-        <v>123</v>
-      </c>
-      <c r="B3" s="58" t="s">
-        <v>287</v>
+      <c r="A3" s="57" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" s="57" t="s">
+        <v>285</v>
       </c>
       <c r="C3" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="D3" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="F3" s="11" t="s">
         <v>292</v>
       </c>
-      <c r="D3" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>293</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>294</v>
-      </c>
       <c r="G3" s="11" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="H3" s="11"/>
       <c r="I3" s="11" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="J3" s="11" t="s">
         <v>6</v>
@@ -5874,30 +5873,30 @@
       <c r="K3" s="10"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="58" t="s">
-        <v>123</v>
-      </c>
-      <c r="B4" s="58" t="s">
-        <v>287</v>
+      <c r="A4" s="57" t="s">
+        <v>121</v>
+      </c>
+      <c r="B4" s="57" t="s">
+        <v>285</v>
       </c>
       <c r="C4" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="D4" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>295</v>
+      </c>
+      <c r="F4" s="11" t="s">
         <v>296</v>
       </c>
-      <c r="D4" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>297</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>298</v>
-      </c>
       <c r="G4" s="11" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="H4" s="11"/>
       <c r="I4" s="11" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="J4" s="11" t="s">
         <v>6</v>
@@ -5905,30 +5904,30 @@
       <c r="K4" s="10"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="58" t="s">
-        <v>123</v>
-      </c>
-      <c r="B5" s="58" t="s">
-        <v>287</v>
+      <c r="A5" s="57" t="s">
+        <v>121</v>
+      </c>
+      <c r="B5" s="57" t="s">
+        <v>285</v>
       </c>
       <c r="C5" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="D5" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="F5" s="11" t="s">
         <v>300</v>
       </c>
-      <c r="D5" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>301</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>302</v>
-      </c>
       <c r="G5" s="11" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="H5" s="11"/>
       <c r="I5" s="11" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="J5" s="11" t="s">
         <v>6</v>
@@ -5936,30 +5935,30 @@
       <c r="K5" s="10"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="58" t="s">
-        <v>123</v>
-      </c>
-      <c r="B6" s="58" t="s">
-        <v>287</v>
+      <c r="A6" s="57" t="s">
+        <v>121</v>
+      </c>
+      <c r="B6" s="57" t="s">
+        <v>285</v>
       </c>
       <c r="C6" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="D6" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="F6" s="11" t="s">
         <v>304</v>
       </c>
-      <c r="D6" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>305</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>306</v>
-      </c>
       <c r="G6" s="11" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="H6" s="11"/>
       <c r="I6" s="11" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="J6" s="11" t="s">
         <v>6</v>
@@ -5967,30 +5966,30 @@
       <c r="K6" s="10"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="58" t="s">
-        <v>123</v>
-      </c>
-      <c r="B7" s="58" t="s">
-        <v>287</v>
+      <c r="A7" s="57" t="s">
+        <v>121</v>
+      </c>
+      <c r="B7" s="57" t="s">
+        <v>285</v>
       </c>
       <c r="C7" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="D7" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="F7" s="11" t="s">
         <v>308</v>
       </c>
-      <c r="D7" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>309</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>310</v>
-      </c>
       <c r="G7" s="11" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="H7" s="11"/>
       <c r="I7" s="11" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="J7" s="11" t="s">
         <v>6</v>
@@ -5998,30 +5997,30 @@
       <c r="K7" s="10"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="58" t="s">
-        <v>123</v>
-      </c>
-      <c r="B8" s="58" t="s">
-        <v>287</v>
+      <c r="A8" s="57" t="s">
+        <v>121</v>
+      </c>
+      <c r="B8" s="57" t="s">
+        <v>285</v>
       </c>
       <c r="C8" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="D8" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="F8" s="11" t="s">
         <v>312</v>
       </c>
-      <c r="D8" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>313</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>314</v>
-      </c>
       <c r="G8" s="11" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="H8" s="11"/>
       <c r="I8" s="11" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="J8" s="11" t="s">
         <v>6</v>
@@ -6029,30 +6028,30 @@
       <c r="K8" s="10"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="58" t="s">
-        <v>123</v>
-      </c>
-      <c r="B9" s="58" t="s">
-        <v>287</v>
+      <c r="A9" s="57" t="s">
+        <v>121</v>
+      </c>
+      <c r="B9" s="57" t="s">
+        <v>285</v>
       </c>
       <c r="C9" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="D9" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="F9" s="11" t="s">
         <v>316</v>
       </c>
-      <c r="D9" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>317</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>318</v>
-      </c>
       <c r="G9" s="11" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="H9" s="11"/>
       <c r="I9" s="11" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="J9" s="11" t="s">
         <v>6</v>
@@ -6060,30 +6059,30 @@
       <c r="K9" s="10"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="58" t="s">
-        <v>123</v>
-      </c>
-      <c r="B10" s="58" t="s">
-        <v>287</v>
+      <c r="A10" s="57" t="s">
+        <v>121</v>
+      </c>
+      <c r="B10" s="57" t="s">
+        <v>285</v>
       </c>
       <c r="C10" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="D10" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>319</v>
+      </c>
+      <c r="F10" s="11" t="s">
         <v>320</v>
       </c>
-      <c r="D10" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>321</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>322</v>
-      </c>
       <c r="G10" s="11" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="H10" s="11"/>
       <c r="I10" s="11" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="J10" s="11" t="s">
         <v>6</v>
@@ -6091,30 +6090,30 @@
       <c r="K10" s="10"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="58" t="s">
-        <v>123</v>
-      </c>
-      <c r="B11" s="58" t="s">
-        <v>287</v>
+      <c r="A11" s="57" t="s">
+        <v>121</v>
+      </c>
+      <c r="B11" s="57" t="s">
+        <v>285</v>
       </c>
       <c r="C11" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="D11" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="F11" s="11" t="s">
         <v>324</v>
       </c>
-      <c r="D11" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>325</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>326</v>
-      </c>
       <c r="G11" s="11" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="H11" s="11"/>
       <c r="I11" s="11" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="J11" s="11" t="s">
         <v>6</v>
@@ -6122,30 +6121,30 @@
       <c r="K11" s="10"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="58" t="s">
-        <v>123</v>
-      </c>
-      <c r="B12" s="58" t="s">
-        <v>287</v>
+      <c r="A12" s="57" t="s">
+        <v>121</v>
+      </c>
+      <c r="B12" s="57" t="s">
+        <v>285</v>
       </c>
       <c r="C12" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="D12" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="F12" s="11" t="s">
         <v>328</v>
       </c>
-      <c r="D12" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>329</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>330</v>
-      </c>
       <c r="G12" s="11" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="H12" s="11"/>
       <c r="I12" s="11" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="J12" s="11" t="s">
         <v>6</v>
@@ -6153,16 +6152,16 @@
       <c r="K12" s="10"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="58" t="s">
-        <v>183</v>
-      </c>
-      <c r="B13" s="58" t="s">
-        <v>184</v>
+      <c r="A13" s="57" t="s">
+        <v>181</v>
+      </c>
+      <c r="B13" s="57" t="s">
+        <v>182</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="42"/>
       <c r="E13" s="12" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
@@ -6188,34 +6187,34 @@
     </row>
     <row r="15" spans="1:11" s="39" customFormat="1" ht="165" customHeight="1">
       <c r="A15" s="36" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B15" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="D15" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="E15" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="F15" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="G15" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="H15" s="36" t="s">
         <v>64</v>
-      </c>
-      <c r="C15" s="36" t="s">
-        <v>76</v>
-      </c>
-      <c r="D15" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="E15" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="F15" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="G15" s="36" t="s">
-        <v>74</v>
-      </c>
-      <c r="H15" s="36" t="s">
-        <v>66</v>
       </c>
       <c r="I15" s="36" t="s">
         <v>40</v>
       </c>
       <c r="J15" s="36" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K15" s="38"/>
     </row>
@@ -6228,48 +6227,48 @@
       <c r="K17" s="18"/>
     </row>
     <row r="18" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B18" s="80" t="s">
-        <v>75</v>
-      </c>
-      <c r="C18" s="81"/>
-      <c r="D18" s="81"/>
-      <c r="E18" s="82"/>
+      <c r="B18" s="79" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" s="80"/>
+      <c r="D18" s="80"/>
+      <c r="E18" s="81"/>
     </row>
     <row r="19" spans="2:11">
-      <c r="B19" s="83"/>
-      <c r="C19" s="84"/>
-      <c r="D19" s="84"/>
-      <c r="E19" s="85"/>
+      <c r="B19" s="82"/>
+      <c r="C19" s="83"/>
+      <c r="D19" s="83"/>
+      <c r="E19" s="84"/>
     </row>
     <row r="20" spans="2:11">
-      <c r="B20" s="83"/>
-      <c r="C20" s="84"/>
-      <c r="D20" s="84"/>
-      <c r="E20" s="85"/>
+      <c r="B20" s="82"/>
+      <c r="C20" s="83"/>
+      <c r="D20" s="83"/>
+      <c r="E20" s="84"/>
     </row>
     <row r="21" spans="2:11">
-      <c r="B21" s="83"/>
-      <c r="C21" s="84"/>
-      <c r="D21" s="84"/>
-      <c r="E21" s="85"/>
+      <c r="B21" s="82"/>
+      <c r="C21" s="83"/>
+      <c r="D21" s="83"/>
+      <c r="E21" s="84"/>
     </row>
     <row r="22" spans="2:11">
-      <c r="B22" s="83"/>
-      <c r="C22" s="84"/>
-      <c r="D22" s="84"/>
-      <c r="E22" s="85"/>
+      <c r="B22" s="82"/>
+      <c r="C22" s="83"/>
+      <c r="D22" s="83"/>
+      <c r="E22" s="84"/>
     </row>
     <row r="23" spans="2:11">
-      <c r="B23" s="83"/>
-      <c r="C23" s="84"/>
-      <c r="D23" s="84"/>
-      <c r="E23" s="85"/>
+      <c r="B23" s="82"/>
+      <c r="C23" s="83"/>
+      <c r="D23" s="83"/>
+      <c r="E23" s="84"/>
     </row>
     <row r="24" spans="2:11">
-      <c r="B24" s="86"/>
-      <c r="C24" s="87"/>
-      <c r="D24" s="87"/>
-      <c r="E24" s="88"/>
+      <c r="B24" s="85"/>
+      <c r="C24" s="86"/>
+      <c r="D24" s="86"/>
+      <c r="E24" s="87"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
@@ -6336,13 +6335,13 @@
         <v>8</v>
       </c>
       <c r="B1" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D1" s="55" t="s">
-        <v>46</v>
+      <c r="D1" s="54" t="s">
+        <v>45</v>
       </c>
       <c r="E1" s="15" t="s">
         <v>1</v>
@@ -6357,7 +6356,7 @@
         <v>4</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J1" s="15" t="s">
         <v>5</v>
@@ -6365,30 +6364,30 @@
       <c r="K1" s="3"/>
     </row>
     <row r="2" spans="1:11" ht="20.25" thickTop="1">
-      <c r="A2" s="58" t="s">
-        <v>123</v>
-      </c>
-      <c r="B2" s="58" t="s">
+      <c r="A2" s="57" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2" s="57" t="s">
+        <v>331</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>332</v>
+      </c>
+      <c r="D2" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="E2" s="11" t="s">
         <v>333</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="F2" s="11" t="s">
         <v>334</v>
       </c>
-      <c r="D2" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>335</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>336</v>
-      </c>
       <c r="G2" s="11" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="H2" s="11"/>
       <c r="I2" s="11" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="J2" s="11" t="s">
         <v>6</v>
@@ -6396,30 +6395,30 @@
       <c r="K2" s="10"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="58" t="s">
-        <v>123</v>
-      </c>
-      <c r="B3" s="58" t="s">
-        <v>333</v>
+      <c r="A3" s="57" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" s="57" t="s">
+        <v>331</v>
       </c>
       <c r="C3" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="D3" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="F3" s="11" t="s">
         <v>338</v>
       </c>
-      <c r="D3" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>339</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>340</v>
-      </c>
       <c r="G3" s="11" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="H3" s="11"/>
       <c r="I3" s="11" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="J3" s="11" t="s">
         <v>6</v>
@@ -6427,30 +6426,30 @@
       <c r="K3" s="10"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="58" t="s">
-        <v>123</v>
-      </c>
-      <c r="B4" s="58" t="s">
-        <v>333</v>
+      <c r="A4" s="57" t="s">
+        <v>121</v>
+      </c>
+      <c r="B4" s="57" t="s">
+        <v>331</v>
       </c>
       <c r="C4" s="11" t="s">
+        <v>340</v>
+      </c>
+      <c r="D4" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="F4" s="11" t="s">
         <v>342</v>
       </c>
-      <c r="D4" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>343</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>344</v>
-      </c>
       <c r="G4" s="11" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="H4" s="11"/>
       <c r="I4" s="11" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="J4" s="11" t="s">
         <v>6</v>
@@ -6458,30 +6457,30 @@
       <c r="K4" s="10"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="58" t="s">
-        <v>123</v>
-      </c>
-      <c r="B5" s="58" t="s">
-        <v>333</v>
+      <c r="A5" s="57" t="s">
+        <v>121</v>
+      </c>
+      <c r="B5" s="57" t="s">
+        <v>331</v>
       </c>
       <c r="C5" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="D5" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="F5" s="11" t="s">
         <v>346</v>
       </c>
-      <c r="D5" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>347</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>348</v>
-      </c>
       <c r="G5" s="11" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="H5" s="11"/>
       <c r="I5" s="11" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="J5" s="11" t="s">
         <v>6</v>
@@ -6489,30 +6488,30 @@
       <c r="K5" s="10"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="58" t="s">
-        <v>123</v>
-      </c>
-      <c r="B6" s="58" t="s">
-        <v>333</v>
+      <c r="A6" s="57" t="s">
+        <v>121</v>
+      </c>
+      <c r="B6" s="57" t="s">
+        <v>331</v>
       </c>
       <c r="C6" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D6" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>349</v>
+      </c>
+      <c r="F6" s="11" t="s">
         <v>350</v>
       </c>
-      <c r="D6" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>351</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>352</v>
-      </c>
       <c r="G6" s="11" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="H6" s="11"/>
       <c r="I6" s="11" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="J6" s="11" t="s">
         <v>6</v>
@@ -6520,30 +6519,30 @@
       <c r="K6" s="10"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="58" t="s">
-        <v>123</v>
-      </c>
-      <c r="B7" s="58" t="s">
-        <v>333</v>
+      <c r="A7" s="57" t="s">
+        <v>121</v>
+      </c>
+      <c r="B7" s="57" t="s">
+        <v>331</v>
       </c>
       <c r="C7" s="11" t="s">
+        <v>352</v>
+      </c>
+      <c r="D7" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="F7" s="11" t="s">
         <v>354</v>
       </c>
-      <c r="D7" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>355</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>356</v>
-      </c>
       <c r="G7" s="11" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="H7" s="11"/>
       <c r="I7" s="11" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="J7" s="11" t="s">
         <v>6</v>
@@ -6551,30 +6550,30 @@
       <c r="K7" s="10"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="58" t="s">
-        <v>123</v>
-      </c>
-      <c r="B8" s="58" t="s">
-        <v>333</v>
+      <c r="A8" s="57" t="s">
+        <v>121</v>
+      </c>
+      <c r="B8" s="57" t="s">
+        <v>331</v>
       </c>
       <c r="C8" s="11" t="s">
+        <v>356</v>
+      </c>
+      <c r="D8" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>357</v>
+      </c>
+      <c r="F8" s="11" t="s">
         <v>358</v>
       </c>
-      <c r="D8" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>359</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>360</v>
-      </c>
       <c r="G8" s="11" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="H8" s="11"/>
       <c r="I8" s="11" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="J8" s="11" t="s">
         <v>6</v>
@@ -6582,30 +6581,30 @@
       <c r="K8" s="10"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="58" t="s">
-        <v>123</v>
-      </c>
-      <c r="B9" s="58" t="s">
-        <v>333</v>
+      <c r="A9" s="57" t="s">
+        <v>121</v>
+      </c>
+      <c r="B9" s="57" t="s">
+        <v>331</v>
       </c>
       <c r="C9" s="11" t="s">
+        <v>360</v>
+      </c>
+      <c r="D9" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>361</v>
+      </c>
+      <c r="F9" s="11" t="s">
         <v>362</v>
       </c>
-      <c r="D9" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>363</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>364</v>
-      </c>
       <c r="G9" s="11" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="H9" s="11"/>
       <c r="I9" s="11" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="J9" s="11" t="s">
         <v>6</v>
@@ -6613,16 +6612,16 @@
       <c r="K9" s="10"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="58" t="s">
-        <v>183</v>
-      </c>
-      <c r="B10" s="58" t="s">
-        <v>184</v>
+      <c r="A10" s="57" t="s">
+        <v>181</v>
+      </c>
+      <c r="B10" s="57" t="s">
+        <v>182</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="42"/>
       <c r="E10" s="12" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
@@ -6648,34 +6647,34 @@
     </row>
     <row r="12" spans="1:11" s="39" customFormat="1" ht="165" customHeight="1">
       <c r="A12" s="36" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B12" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="E12" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="G12" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="H12" s="36" t="s">
         <v>64</v>
-      </c>
-      <c r="C12" s="36" t="s">
-        <v>76</v>
-      </c>
-      <c r="D12" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="E12" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="F12" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="G12" s="36" t="s">
-        <v>74</v>
-      </c>
-      <c r="H12" s="36" t="s">
-        <v>66</v>
       </c>
       <c r="I12" s="36" t="s">
         <v>40</v>
       </c>
       <c r="J12" s="36" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K12" s="38"/>
     </row>
@@ -6688,48 +6687,48 @@
       <c r="K14" s="18"/>
     </row>
     <row r="15" spans="1:11" ht="14.25" customHeight="1">
-      <c r="B15" s="80" t="s">
-        <v>75</v>
-      </c>
-      <c r="C15" s="81"/>
-      <c r="D15" s="81"/>
-      <c r="E15" s="82"/>
+      <c r="B15" s="79" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" s="80"/>
+      <c r="D15" s="80"/>
+      <c r="E15" s="81"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="B16" s="83"/>
-      <c r="C16" s="84"/>
-      <c r="D16" s="84"/>
-      <c r="E16" s="85"/>
+      <c r="B16" s="82"/>
+      <c r="C16" s="83"/>
+      <c r="D16" s="83"/>
+      <c r="E16" s="84"/>
     </row>
     <row r="17" spans="2:5">
-      <c r="B17" s="83"/>
-      <c r="C17" s="84"/>
-      <c r="D17" s="84"/>
-      <c r="E17" s="85"/>
+      <c r="B17" s="82"/>
+      <c r="C17" s="83"/>
+      <c r="D17" s="83"/>
+      <c r="E17" s="84"/>
     </row>
     <row r="18" spans="2:5">
-      <c r="B18" s="83"/>
-      <c r="C18" s="84"/>
-      <c r="D18" s="84"/>
-      <c r="E18" s="85"/>
+      <c r="B18" s="82"/>
+      <c r="C18" s="83"/>
+      <c r="D18" s="83"/>
+      <c r="E18" s="84"/>
     </row>
     <row r="19" spans="2:5">
-      <c r="B19" s="83"/>
-      <c r="C19" s="84"/>
-      <c r="D19" s="84"/>
-      <c r="E19" s="85"/>
+      <c r="B19" s="82"/>
+      <c r="C19" s="83"/>
+      <c r="D19" s="83"/>
+      <c r="E19" s="84"/>
     </row>
     <row r="20" spans="2:5">
-      <c r="B20" s="83"/>
-      <c r="C20" s="84"/>
-      <c r="D20" s="84"/>
-      <c r="E20" s="85"/>
+      <c r="B20" s="82"/>
+      <c r="C20" s="83"/>
+      <c r="D20" s="83"/>
+      <c r="E20" s="84"/>
     </row>
     <row r="21" spans="2:5">
-      <c r="B21" s="86"/>
-      <c r="C21" s="87"/>
-      <c r="D21" s="87"/>
-      <c r="E21" s="88"/>
+      <c r="B21" s="85"/>
+      <c r="C21" s="86"/>
+      <c r="D21" s="86"/>
+      <c r="E21" s="87"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
@@ -6796,13 +6795,13 @@
         <v>8</v>
       </c>
       <c r="B1" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D1" s="55" t="s">
-        <v>46</v>
+      <c r="D1" s="54" t="s">
+        <v>45</v>
       </c>
       <c r="E1" s="15" t="s">
         <v>1</v>
@@ -6817,7 +6816,7 @@
         <v>4</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J1" s="15" t="s">
         <v>5</v>
@@ -6825,30 +6824,30 @@
       <c r="K1" s="3"/>
     </row>
     <row r="2" spans="1:11" ht="20.25" thickTop="1">
-      <c r="A2" s="58" t="s">
-        <v>123</v>
-      </c>
-      <c r="B2" s="58" t="s">
-        <v>119</v>
+      <c r="A2" s="57" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2" s="57" t="s">
+        <v>117</v>
       </c>
       <c r="C2" s="11" t="s">
+        <v>365</v>
+      </c>
+      <c r="D2" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="F2" s="11" t="s">
         <v>367</v>
       </c>
-      <c r="D2" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>368</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>369</v>
-      </c>
       <c r="G2" s="11" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="H2" s="11"/>
       <c r="I2" s="11" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="J2" s="11" t="s">
         <v>6</v>
@@ -6856,30 +6855,30 @@
       <c r="K2" s="10"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="58" t="s">
-        <v>123</v>
-      </c>
-      <c r="B3" s="58" t="s">
-        <v>119</v>
+      <c r="A3" s="57" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" s="57" t="s">
+        <v>117</v>
       </c>
       <c r="C3" s="11" t="s">
+        <v>369</v>
+      </c>
+      <c r="D3" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>370</v>
+      </c>
+      <c r="F3" s="11" t="s">
         <v>371</v>
       </c>
-      <c r="D3" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>372</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>373</v>
-      </c>
       <c r="G3" s="11" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="H3" s="11"/>
       <c r="I3" s="11" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="J3" s="11" t="s">
         <v>6</v>
@@ -6887,30 +6886,30 @@
       <c r="K3" s="10"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="58" t="s">
-        <v>123</v>
-      </c>
-      <c r="B4" s="58" t="s">
-        <v>119</v>
+      <c r="A4" s="57" t="s">
+        <v>121</v>
+      </c>
+      <c r="B4" s="57" t="s">
+        <v>117</v>
       </c>
       <c r="C4" s="11" t="s">
+        <v>373</v>
+      </c>
+      <c r="D4" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>374</v>
+      </c>
+      <c r="F4" s="11" t="s">
         <v>375</v>
       </c>
-      <c r="D4" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>376</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>377</v>
-      </c>
       <c r="G4" s="11" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="H4" s="11"/>
       <c r="I4" s="11" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="J4" s="11" t="s">
         <v>6</v>
@@ -6918,30 +6917,30 @@
       <c r="K4" s="10"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="58" t="s">
-        <v>123</v>
-      </c>
-      <c r="B5" s="58" t="s">
-        <v>119</v>
+      <c r="A5" s="57" t="s">
+        <v>121</v>
+      </c>
+      <c r="B5" s="57" t="s">
+        <v>117</v>
       </c>
       <c r="C5" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D5" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>378</v>
+      </c>
+      <c r="F5" s="11" t="s">
         <v>379</v>
       </c>
-      <c r="D5" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>380</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>381</v>
-      </c>
       <c r="G5" s="11" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="H5" s="11"/>
       <c r="I5" s="11" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J5" s="11" t="s">
         <v>6</v>
@@ -6949,30 +6948,30 @@
       <c r="K5" s="10"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="58" t="s">
-        <v>123</v>
-      </c>
-      <c r="B6" s="58" t="s">
-        <v>119</v>
+      <c r="A6" s="57" t="s">
+        <v>121</v>
+      </c>
+      <c r="B6" s="57" t="s">
+        <v>117</v>
       </c>
       <c r="C6" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="D6" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="F6" s="11" t="s">
         <v>383</v>
       </c>
-      <c r="D6" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>384</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>385</v>
-      </c>
       <c r="G6" s="11" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="H6" s="11"/>
       <c r="I6" s="11" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="J6" s="11" t="s">
         <v>6</v>
@@ -6980,30 +6979,30 @@
       <c r="K6" s="10"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="58" t="s">
-        <v>123</v>
-      </c>
-      <c r="B7" s="58" t="s">
-        <v>119</v>
+      <c r="A7" s="57" t="s">
+        <v>121</v>
+      </c>
+      <c r="B7" s="57" t="s">
+        <v>117</v>
       </c>
       <c r="C7" s="11" t="s">
+        <v>385</v>
+      </c>
+      <c r="D7" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>386</v>
+      </c>
+      <c r="F7" s="11" t="s">
         <v>387</v>
       </c>
-      <c r="D7" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>388</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>389</v>
-      </c>
       <c r="G7" s="11" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="H7" s="11"/>
       <c r="I7" s="11" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="J7" s="11" t="s">
         <v>6</v>
@@ -7011,30 +7010,30 @@
       <c r="K7" s="10"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="58" t="s">
-        <v>123</v>
-      </c>
-      <c r="B8" s="58" t="s">
-        <v>119</v>
+      <c r="A8" s="57" t="s">
+        <v>121</v>
+      </c>
+      <c r="B8" s="57" t="s">
+        <v>117</v>
       </c>
       <c r="C8" s="11" t="s">
+        <v>389</v>
+      </c>
+      <c r="D8" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>390</v>
+      </c>
+      <c r="F8" s="11" t="s">
         <v>391</v>
       </c>
-      <c r="D8" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>392</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>393</v>
-      </c>
       <c r="G8" s="11" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="H8" s="11"/>
       <c r="I8" s="11" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="J8" s="11" t="s">
         <v>6</v>
@@ -7042,30 +7041,30 @@
       <c r="K8" s="10"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="58" t="s">
-        <v>123</v>
-      </c>
-      <c r="B9" s="58" t="s">
-        <v>119</v>
+      <c r="A9" s="57" t="s">
+        <v>121</v>
+      </c>
+      <c r="B9" s="57" t="s">
+        <v>117</v>
       </c>
       <c r="C9" s="11" t="s">
+        <v>393</v>
+      </c>
+      <c r="D9" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>394</v>
+      </c>
+      <c r="F9" s="11" t="s">
         <v>395</v>
       </c>
-      <c r="D9" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>396</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>397</v>
-      </c>
       <c r="G9" s="11" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="H9" s="11"/>
       <c r="I9" s="11" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="J9" s="11" t="s">
         <v>6</v>
@@ -7073,30 +7072,30 @@
       <c r="K9" s="10"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="58" t="s">
-        <v>123</v>
-      </c>
-      <c r="B10" s="58" t="s">
-        <v>119</v>
+      <c r="A10" s="57" t="s">
+        <v>121</v>
+      </c>
+      <c r="B10" s="57" t="s">
+        <v>117</v>
       </c>
       <c r="C10" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D10" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>398</v>
+      </c>
+      <c r="F10" s="11" t="s">
         <v>399</v>
       </c>
-      <c r="D10" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>400</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>401</v>
-      </c>
       <c r="G10" s="11" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="H10" s="11"/>
       <c r="I10" s="11" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="J10" s="11" t="s">
         <v>6</v>
@@ -7104,30 +7103,30 @@
       <c r="K10" s="10"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="58" t="s">
-        <v>123</v>
-      </c>
-      <c r="B11" s="58" t="s">
-        <v>119</v>
+      <c r="A11" s="57" t="s">
+        <v>121</v>
+      </c>
+      <c r="B11" s="57" t="s">
+        <v>117</v>
       </c>
       <c r="C11" s="11" t="s">
+        <v>401</v>
+      </c>
+      <c r="D11" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="F11" s="11" t="s">
         <v>403</v>
       </c>
-      <c r="D11" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>404</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>405</v>
-      </c>
       <c r="G11" s="11" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="H11" s="11"/>
       <c r="I11" s="11" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="J11" s="11" t="s">
         <v>6</v>
@@ -7135,30 +7134,30 @@
       <c r="K11" s="10"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="58" t="s">
-        <v>123</v>
-      </c>
-      <c r="B12" s="58" t="s">
-        <v>119</v>
+      <c r="A12" s="57" t="s">
+        <v>121</v>
+      </c>
+      <c r="B12" s="57" t="s">
+        <v>117</v>
       </c>
       <c r="C12" s="11" t="s">
+        <v>405</v>
+      </c>
+      <c r="D12" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>406</v>
+      </c>
+      <c r="F12" s="11" t="s">
         <v>407</v>
       </c>
-      <c r="D12" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>408</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>409</v>
-      </c>
       <c r="G12" s="11" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="H12" s="11"/>
       <c r="I12" s="11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="J12" s="11" t="s">
         <v>6</v>
@@ -7166,30 +7165,30 @@
       <c r="K12" s="10"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="58" t="s">
-        <v>123</v>
-      </c>
-      <c r="B13" s="58" t="s">
-        <v>119</v>
+      <c r="A13" s="57" t="s">
+        <v>121</v>
+      </c>
+      <c r="B13" s="57" t="s">
+        <v>117</v>
       </c>
       <c r="C13" s="11" t="s">
+        <v>409</v>
+      </c>
+      <c r="D13" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>410</v>
+      </c>
+      <c r="F13" s="11" t="s">
         <v>411</v>
       </c>
-      <c r="D13" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>412</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>413</v>
-      </c>
       <c r="G13" s="11" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H13" s="11"/>
       <c r="I13" s="11" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="J13" s="11" t="s">
         <v>6</v>
@@ -7197,16 +7196,16 @@
       <c r="K13" s="10"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="58" t="s">
-        <v>183</v>
-      </c>
-      <c r="B14" s="58" t="s">
-        <v>184</v>
+      <c r="A14" s="57" t="s">
+        <v>181</v>
+      </c>
+      <c r="B14" s="57" t="s">
+        <v>182</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="42"/>
       <c r="E14" s="12" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
@@ -7232,34 +7231,34 @@
     </row>
     <row r="16" spans="1:11" s="39" customFormat="1" ht="165" customHeight="1">
       <c r="A16" s="36" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B16" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="F16" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="G16" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="H16" s="36" t="s">
         <v>64</v>
-      </c>
-      <c r="C16" s="36" t="s">
-        <v>76</v>
-      </c>
-      <c r="D16" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="E16" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="F16" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="G16" s="36" t="s">
-        <v>74</v>
-      </c>
-      <c r="H16" s="36" t="s">
-        <v>66</v>
       </c>
       <c r="I16" s="36" t="s">
         <v>40</v>
       </c>
       <c r="J16" s="36" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K16" s="38"/>
     </row>
@@ -7272,48 +7271,48 @@
       <c r="K18" s="18"/>
     </row>
     <row r="19" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B19" s="80" t="s">
-        <v>75</v>
-      </c>
-      <c r="C19" s="81"/>
-      <c r="D19" s="81"/>
-      <c r="E19" s="82"/>
+      <c r="B19" s="79" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" s="80"/>
+      <c r="D19" s="80"/>
+      <c r="E19" s="81"/>
     </row>
     <row r="20" spans="2:11">
-      <c r="B20" s="83"/>
-      <c r="C20" s="84"/>
-      <c r="D20" s="84"/>
-      <c r="E20" s="85"/>
+      <c r="B20" s="82"/>
+      <c r="C20" s="83"/>
+      <c r="D20" s="83"/>
+      <c r="E20" s="84"/>
     </row>
     <row r="21" spans="2:11">
-      <c r="B21" s="83"/>
-      <c r="C21" s="84"/>
-      <c r="D21" s="84"/>
-      <c r="E21" s="85"/>
+      <c r="B21" s="82"/>
+      <c r="C21" s="83"/>
+      <c r="D21" s="83"/>
+      <c r="E21" s="84"/>
     </row>
     <row r="22" spans="2:11">
-      <c r="B22" s="83"/>
-      <c r="C22" s="84"/>
-      <c r="D22" s="84"/>
-      <c r="E22" s="85"/>
+      <c r="B22" s="82"/>
+      <c r="C22" s="83"/>
+      <c r="D22" s="83"/>
+      <c r="E22" s="84"/>
     </row>
     <row r="23" spans="2:11">
-      <c r="B23" s="83"/>
-      <c r="C23" s="84"/>
-      <c r="D23" s="84"/>
-      <c r="E23" s="85"/>
+      <c r="B23" s="82"/>
+      <c r="C23" s="83"/>
+      <c r="D23" s="83"/>
+      <c r="E23" s="84"/>
     </row>
     <row r="24" spans="2:11">
-      <c r="B24" s="83"/>
-      <c r="C24" s="84"/>
-      <c r="D24" s="84"/>
-      <c r="E24" s="85"/>
+      <c r="B24" s="82"/>
+      <c r="C24" s="83"/>
+      <c r="D24" s="83"/>
+      <c r="E24" s="84"/>
     </row>
     <row r="25" spans="2:11">
-      <c r="B25" s="86"/>
-      <c r="C25" s="87"/>
-      <c r="D25" s="87"/>
-      <c r="E25" s="88"/>
+      <c r="B25" s="85"/>
+      <c r="C25" s="86"/>
+      <c r="D25" s="86"/>
+      <c r="E25" s="87"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>

--- a/structure-books_network1.xlsx
+++ b/structure-books_network1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CHiLO-Producer_ddd\chiloPro\chilo001\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\chilo-producer\chiloPro\chilo001\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" firstSheet="1" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="series-information" sheetId="37" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="480">
   <si>
     <t>cover</t>
     <phoneticPr fontId="4"/>
@@ -706,9 +706,6 @@
     <t>urn:uuid:41fe5bb9-686f-47dd-8197-61fc9f817bcd</t>
   </si>
   <si>
-    <t>http://proxy.chilos.jp/co00101</t>
-  </si>
-  <si>
     <t>vol-2</t>
   </si>
   <si>
@@ -721,9 +718,6 @@
     <t>urn:uuid:605c25a1-07a6-4a65-81a4-95cd77ba86b8</t>
   </si>
   <si>
-    <t>http://proxy.chilos.jp/co00102</t>
-  </si>
-  <si>
     <t>vol-3</t>
   </si>
   <si>
@@ -736,9 +730,6 @@
     <t>urn:uuid:1a060993-7cab-4f91-896d-195da30a1978</t>
   </si>
   <si>
-    <t>http://proxy.chilos.jp/co00103</t>
-  </si>
-  <si>
     <t>vol-4</t>
   </si>
   <si>
@@ -751,9 +742,6 @@
     <t>urn:uuid:1842b29a-b875-4a6e-9580-0ba33d193d46</t>
   </si>
   <si>
-    <t>http://proxy.chilos.jp/co00104</t>
-  </si>
-  <si>
     <t>vol-5</t>
   </si>
   <si>
@@ -766,9 +754,6 @@
     <t>urn:uuid:c603ba2c-a8f7-4855-a3f6-ad530da05ded</t>
   </si>
   <si>
-    <t>http://proxy.chilos.jp/co00105</t>
-  </si>
-  <si>
     <t>vol-6</t>
   </si>
   <si>
@@ -781,9 +766,6 @@
     <t>urn:uuid:9c815d35-585b-4209-b87a-0621c76dac5c</t>
   </si>
   <si>
-    <t>http://proxy.chilos.jp/co00106</t>
-  </si>
-  <si>
     <t>vol-7</t>
   </si>
   <si>
@@ -794,9 +776,6 @@
   </si>
   <si>
     <t>urn:uuid:303974f7-bac7-4e31-9a39-470bf6a4380f</t>
-  </si>
-  <si>
-    <t>http://proxy.chilos.jp/co00107</t>
   </si>
   <si>
     <t>document</t>
@@ -993,10 +972,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>http://proxy.chilos.jp/q00101010</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>IPアドレス、ネットワークアドレス</t>
   </si>
   <si>
@@ -1096,10 +1071,6 @@
     <t>4VDDJ8rRidk</t>
   </si>
   <si>
-    <t>http://proxy.chilos.jp/q00102010</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>2章の復習</t>
   </si>
   <si>
@@ -1184,10 +1155,6 @@
     <t>oZPID58cnfw</t>
   </si>
   <si>
-    <t>http://proxy.chilos.jp/q00103010</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>ルータ、ルーティング</t>
   </si>
   <si>
@@ -1297,10 +1264,6 @@
   </si>
   <si>
     <t>3ZIteN2E4mI</t>
-  </si>
-  <si>
-    <t>http://proxy.chilos.jp/q00104010</t>
-    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>MACアドレス、IPアドレス、ネットワーク各種コマンド</t>
@@ -1442,10 +1405,6 @@
     <t>SPd9rX6LeT4</t>
   </si>
   <si>
-    <t>http://proxy.chilos.jp/q00105010</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>無線LAN</t>
     <rPh sb="0" eb="2">
       <t>ムセン</t>
@@ -1549,10 +1508,6 @@
     <t>KnNJTUYCAjg</t>
   </si>
   <si>
-    <t>http://proxy.chilos.jp/q00106010</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>自宅でインターネット、ADSL</t>
   </si>
   <si>
@@ -1695,10 +1650,6 @@
   </si>
   <si>
     <t>uFpGIB26QUk</t>
-  </si>
-  <si>
-    <t>http://proxy.chilos.jp/q00107010</t>
-    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>vol-001-011.txt</t>
@@ -1915,6 +1866,42 @@
   </si>
   <si>
     <t>identifier（必須）</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>http://chilos.jp/en/c/?c=1</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>http://chilos.jp/en/c/?c=1</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>https://dev.chilos.jp/mod/quiz/view.php?id=1058</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>https://dev.chilos.jp/mod/quiz/view.php?id=1060</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>https://dev.chilos.jp/mod/quiz/view.php?id=1061</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>https://dev.chilos.jp/mod/quiz/view.php?id=1062</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>https://dev.chilos.jp/mod/quiz/view.php?id=1063</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>https://dev.chilos.jp/mod/quiz/view.php?id=1064</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>https://dev.chilos.jp/mod/quiz/view.php?id=1065</t>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -2095,7 +2082,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -2352,6 +2339,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2532,7 +2543,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2694,10 +2705,6 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="37" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
@@ -2732,6 +2739,9 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2831,8 +2841,18 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="37">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="37" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="37" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="59">
@@ -3175,7 +3195,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
   <cols>
@@ -3258,7 +3278,7 @@
       <c r="A6" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="51">
+      <c r="B6" s="50">
         <v>41530</v>
       </c>
       <c r="C6" s="30" t="s">
@@ -3291,7 +3311,7 @@
       <c r="D8" s="60"/>
     </row>
     <row r="9" spans="1:4" ht="21" customHeight="1">
-      <c r="A9" s="56" t="s">
+      <c r="A9" s="55" t="s">
         <v>60</v>
       </c>
       <c r="B9" s="33" t="s">
@@ -3476,7 +3496,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="19.5"/>
   <cols>
@@ -3490,7 +3512,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="20.25" thickBot="1">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="57" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="24" t="s">
@@ -3502,146 +3524,146 @@
       <c r="D1" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="88" t="s">
-        <v>484</v>
-      </c>
-      <c r="F1" s="5" t="s">
+      <c r="E1" s="57" t="s">
+        <v>470</v>
+      </c>
+      <c r="F1" s="89" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="48" customHeight="1" thickTop="1">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="52" t="s">
         <v>86</v>
       </c>
       <c r="B2" s="47" t="s">
         <v>87</v>
       </c>
-      <c r="C2" s="55"/>
+      <c r="C2" s="54"/>
       <c r="D2" s="44" t="s">
         <v>88</v>
       </c>
-      <c r="E2" s="53" t="s">
+      <c r="E2" s="52" t="s">
         <v>89</v>
       </c>
-      <c r="F2" s="48" t="s">
+      <c r="F2" s="12" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="48" customHeight="1">
+      <c r="A3" s="52" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="48" customHeight="1">
-      <c r="A3" s="53" t="s">
+      <c r="B3" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="B3" s="47" t="s">
+      <c r="C3" s="54"/>
+      <c r="D3" s="44" t="s">
         <v>92</v>
       </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="44" t="s">
+      <c r="E3" s="52" t="s">
         <v>93</v>
       </c>
-      <c r="E3" s="53" t="s">
+      <c r="F3" s="90" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="48" customHeight="1">
+      <c r="A4" s="52" t="s">
         <v>94</v>
       </c>
-      <c r="F3" s="48" t="s">
+      <c r="B4" s="47" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="48" customHeight="1">
-      <c r="A4" s="53" t="s">
+      <c r="C4" s="54"/>
+      <c r="D4" s="44" t="s">
         <v>96</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="E4" s="52" t="s">
         <v>97</v>
       </c>
-      <c r="C4" s="55"/>
-      <c r="D4" s="44" t="s">
+      <c r="F4" s="12" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="48" customHeight="1">
+      <c r="A5" s="52" t="s">
         <v>98</v>
       </c>
-      <c r="E4" s="53" t="s">
+      <c r="B5" s="47" t="s">
         <v>99</v>
       </c>
-      <c r="F4" s="48" t="s">
+      <c r="C5" s="54"/>
+      <c r="D5" s="44" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="48" customHeight="1">
-      <c r="A5" s="53" t="s">
+      <c r="E5" s="52" t="s">
         <v>101</v>
       </c>
-      <c r="B5" s="47" t="s">
+      <c r="F5" s="12" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="48" customHeight="1">
+      <c r="A6" s="52" t="s">
         <v>102</v>
       </c>
-      <c r="C5" s="55"/>
-      <c r="D5" s="44" t="s">
+      <c r="B6" s="47" t="s">
         <v>103</v>
       </c>
-      <c r="E5" s="53" t="s">
+      <c r="C6" s="54"/>
+      <c r="D6" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F5" s="48" t="s">
+      <c r="E6" s="52" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="48" customHeight="1">
-      <c r="A6" s="53" t="s">
+      <c r="F6" s="12" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="48" customHeight="1">
+      <c r="A7" s="52" t="s">
         <v>106</v>
       </c>
-      <c r="B6" s="47" t="s">
+      <c r="B7" s="47" t="s">
         <v>107</v>
       </c>
-      <c r="C6" s="55"/>
-      <c r="D6" s="44" t="s">
+      <c r="C7" s="54"/>
+      <c r="D7" s="44" t="s">
         <v>108</v>
       </c>
-      <c r="E6" s="53" t="s">
+      <c r="E7" s="52" t="s">
         <v>109</v>
       </c>
-      <c r="F6" s="48" t="s">
+      <c r="F7" s="12" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="48" customHeight="1">
+      <c r="A8" s="52" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="48" customHeight="1">
-      <c r="A7" s="53" t="s">
+      <c r="B8" s="47" t="s">
         <v>111</v>
       </c>
-      <c r="B7" s="47" t="s">
+      <c r="C8" s="54"/>
+      <c r="D8" s="44" t="s">
         <v>112</v>
       </c>
-      <c r="C7" s="55"/>
-      <c r="D7" s="44" t="s">
+      <c r="E8" s="52" t="s">
         <v>113</v>
       </c>
-      <c r="E7" s="53" t="s">
-        <v>114</v>
-      </c>
-      <c r="F7" s="48" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="48" customHeight="1">
-      <c r="A8" s="53" t="s">
-        <v>116</v>
-      </c>
-      <c r="B8" s="47" t="s">
-        <v>117</v>
-      </c>
-      <c r="C8" s="55"/>
-      <c r="D8" s="44" t="s">
-        <v>118</v>
-      </c>
-      <c r="E8" s="53" t="s">
-        <v>119</v>
-      </c>
-      <c r="F8" s="48" t="s">
-        <v>120</v>
+      <c r="F8" s="12" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="48" customHeight="1">
-      <c r="A9" s="49"/>
-      <c r="B9" s="50"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="50"/>
+      <c r="A9" s="48"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="49"/>
     </row>
     <row r="10" spans="1:6" ht="214.5">
       <c r="A10" s="20" t="s">
@@ -3657,7 +3679,7 @@
         <v>42</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>483</v>
+        <v>469</v>
       </c>
       <c r="F10" s="20" t="s">
         <v>66</v>
@@ -3723,8 +3745,17 @@
     <mergeCell ref="B14:D18"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
+  <hyperlinks>
+    <hyperlink ref="F3" r:id="rId1"/>
+    <hyperlink ref="F2" r:id="rId2"/>
+    <hyperlink ref="F4" r:id="rId3"/>
+    <hyperlink ref="F5" r:id="rId4"/>
+    <hyperlink ref="F6" r:id="rId5"/>
+    <hyperlink ref="F7" r:id="rId6"/>
+    <hyperlink ref="F8" r:id="rId7"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId8"/>
 </worksheet>
 </file>
 
@@ -3733,7 +3764,9 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="19.5"/>
   <cols>
@@ -3761,7 +3794,7 @@
       <c r="C1" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="D1" s="54" t="s">
+      <c r="D1" s="53" t="s">
         <v>45</v>
       </c>
       <c r="E1" s="15" t="s">
@@ -3785,30 +3818,30 @@
       <c r="K1" s="3"/>
     </row>
     <row r="2" spans="1:11" ht="20.25" thickTop="1">
-      <c r="A2" s="57" t="s">
-        <v>121</v>
-      </c>
-      <c r="B2" s="57" t="s">
-        <v>122</v>
+      <c r="A2" s="56" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" s="56" t="s">
+        <v>115</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="D2" s="42" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>414</v>
+        <v>400</v>
       </c>
       <c r="H2" s="11"/>
       <c r="I2" s="11" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="J2" s="11" t="s">
         <v>6</v>
@@ -3816,30 +3849,30 @@
       <c r="K2" s="10"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="56" t="s">
+        <v>114</v>
+      </c>
+      <c r="B3" s="56" t="s">
+        <v>115</v>
+      </c>
+      <c r="C3" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="B3" s="57" t="s">
+      <c r="D3" s="42" t="s">
+        <v>117</v>
+      </c>
+      <c r="E3" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="D3" s="42" t="s">
-        <v>124</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>129</v>
-      </c>
       <c r="F3" s="11" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>415</v>
+        <v>401</v>
       </c>
       <c r="H3" s="11"/>
       <c r="I3" s="11" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="J3" s="11" t="s">
         <v>6</v>
@@ -3847,30 +3880,30 @@
       <c r="K3" s="10"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="57" t="s">
-        <v>121</v>
-      </c>
-      <c r="B4" s="57" t="s">
-        <v>122</v>
+      <c r="A4" s="56" t="s">
+        <v>114</v>
+      </c>
+      <c r="B4" s="56" t="s">
+        <v>115</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="D4" s="42" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>416</v>
+        <v>402</v>
       </c>
       <c r="H4" s="11"/>
       <c r="I4" s="11" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="J4" s="11" t="s">
         <v>6</v>
@@ -3878,30 +3911,30 @@
       <c r="K4" s="10"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="57" t="s">
-        <v>121</v>
-      </c>
-      <c r="B5" s="57" t="s">
-        <v>122</v>
+      <c r="A5" s="56" t="s">
+        <v>114</v>
+      </c>
+      <c r="B5" s="56" t="s">
+        <v>115</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="D5" s="42" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>417</v>
+        <v>403</v>
       </c>
       <c r="H5" s="11"/>
       <c r="I5" s="11" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="J5" s="11" t="s">
         <v>6</v>
@@ -3909,30 +3942,30 @@
       <c r="K5" s="10"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="57" t="s">
-        <v>121</v>
-      </c>
-      <c r="B6" s="57" t="s">
-        <v>122</v>
+      <c r="A6" s="56" t="s">
+        <v>114</v>
+      </c>
+      <c r="B6" s="56" t="s">
+        <v>115</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="D6" s="42" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>418</v>
+        <v>404</v>
       </c>
       <c r="H6" s="11"/>
       <c r="I6" s="11" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="J6" s="11" t="s">
         <v>6</v>
@@ -3940,30 +3973,30 @@
       <c r="K6" s="10"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="57" t="s">
-        <v>121</v>
-      </c>
-      <c r="B7" s="57" t="s">
-        <v>122</v>
+      <c r="A7" s="56" t="s">
+        <v>114</v>
+      </c>
+      <c r="B7" s="56" t="s">
+        <v>115</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="D7" s="42" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>419</v>
+        <v>405</v>
       </c>
       <c r="H7" s="11"/>
       <c r="I7" s="11" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="J7" s="11" t="s">
         <v>6</v>
@@ -3971,30 +4004,30 @@
       <c r="K7" s="10"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="57" t="s">
-        <v>121</v>
-      </c>
-      <c r="B8" s="57" t="s">
-        <v>122</v>
+      <c r="A8" s="56" t="s">
+        <v>114</v>
+      </c>
+      <c r="B8" s="56" t="s">
+        <v>115</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="D8" s="42" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>420</v>
+        <v>406</v>
       </c>
       <c r="H8" s="11"/>
       <c r="I8" s="11" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="J8" s="11" t="s">
         <v>6</v>
@@ -4002,30 +4035,30 @@
       <c r="K8" s="10"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="57" t="s">
-        <v>121</v>
-      </c>
-      <c r="B9" s="57" t="s">
-        <v>122</v>
+      <c r="A9" s="56" t="s">
+        <v>114</v>
+      </c>
+      <c r="B9" s="56" t="s">
+        <v>115</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="D9" s="42" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>421</v>
+        <v>407</v>
       </c>
       <c r="H9" s="11"/>
       <c r="I9" s="11" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="J9" s="11" t="s">
         <v>6</v>
@@ -4033,30 +4066,30 @@
       <c r="K9" s="10"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="57" t="s">
-        <v>121</v>
-      </c>
-      <c r="B10" s="57" t="s">
-        <v>156</v>
+      <c r="A10" s="56" t="s">
+        <v>114</v>
+      </c>
+      <c r="B10" s="56" t="s">
+        <v>149</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="D10" s="42" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="H10" s="11"/>
       <c r="I10" s="11" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="J10" s="11" t="s">
         <v>6</v>
@@ -4064,30 +4097,30 @@
       <c r="K10" s="10"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="57" t="s">
-        <v>121</v>
-      </c>
-      <c r="B11" s="57" t="s">
+      <c r="A11" s="56" t="s">
+        <v>114</v>
+      </c>
+      <c r="B11" s="56" t="s">
+        <v>149</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="D11" s="42" t="s">
+        <v>117</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="F11" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="C11" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="D11" s="42" t="s">
-        <v>124</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>163</v>
-      </c>
       <c r="G11" s="11" t="s">
-        <v>423</v>
+        <v>409</v>
       </c>
       <c r="H11" s="11"/>
       <c r="I11" s="11" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="J11" s="11" t="s">
         <v>6</v>
@@ -4095,30 +4128,30 @@
       <c r="K11" s="10"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="57" t="s">
-        <v>121</v>
-      </c>
-      <c r="B12" s="57" t="s">
-        <v>156</v>
+      <c r="A12" s="56" t="s">
+        <v>114</v>
+      </c>
+      <c r="B12" s="56" t="s">
+        <v>149</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="D12" s="42" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>424</v>
+        <v>410</v>
       </c>
       <c r="H12" s="11"/>
       <c r="I12" s="11" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="J12" s="11" t="s">
         <v>6</v>
@@ -4126,30 +4159,30 @@
       <c r="K12" s="10"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="57" t="s">
-        <v>121</v>
-      </c>
-      <c r="B13" s="57" t="s">
-        <v>156</v>
+      <c r="A13" s="56" t="s">
+        <v>114</v>
+      </c>
+      <c r="B13" s="56" t="s">
+        <v>149</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="D13" s="42" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>425</v>
+        <v>411</v>
       </c>
       <c r="H13" s="11"/>
       <c r="I13" s="11" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="J13" s="11" t="s">
         <v>6</v>
@@ -4157,30 +4190,30 @@
       <c r="K13" s="10"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="57" t="s">
-        <v>121</v>
-      </c>
-      <c r="B14" s="57" t="s">
-        <v>156</v>
+      <c r="A14" s="56" t="s">
+        <v>114</v>
+      </c>
+      <c r="B14" s="56" t="s">
+        <v>149</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="D14" s="42" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>426</v>
+        <v>412</v>
       </c>
       <c r="H14" s="11"/>
       <c r="I14" s="11" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="J14" s="11" t="s">
         <v>6</v>
@@ -4188,30 +4221,30 @@
       <c r="K14" s="10"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="57" t="s">
-        <v>121</v>
-      </c>
-      <c r="B15" s="57" t="s">
-        <v>156</v>
+      <c r="A15" s="56" t="s">
+        <v>114</v>
+      </c>
+      <c r="B15" s="56" t="s">
+        <v>149</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="D15" s="42" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>427</v>
+        <v>413</v>
       </c>
       <c r="H15" s="11"/>
       <c r="I15" s="11" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="J15" s="11" t="s">
         <v>6</v>
@@ -4219,16 +4252,16 @@
       <c r="K15" s="10"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="57" t="s">
-        <v>181</v>
-      </c>
-      <c r="B16" s="57" t="s">
-        <v>182</v>
+      <c r="A16" s="56" t="s">
+        <v>174</v>
+      </c>
+      <c r="B16" s="56" t="s">
+        <v>175</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="42"/>
-      <c r="E16" s="12" t="s">
-        <v>183</v>
+      <c r="E16" s="91" t="s">
+        <v>473</v>
       </c>
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
@@ -4379,7 +4412,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="19.5"/>
   <cols>
@@ -4407,7 +4442,7 @@
       <c r="C1" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="D1" s="54" t="s">
+      <c r="D1" s="53" t="s">
         <v>45</v>
       </c>
       <c r="E1" s="15" t="s">
@@ -4431,30 +4466,30 @@
       <c r="K1" s="3"/>
     </row>
     <row r="2" spans="1:11" ht="20.25" thickTop="1">
-      <c r="A2" s="57" t="s">
-        <v>121</v>
-      </c>
-      <c r="B2" s="57" t="s">
-        <v>184</v>
+      <c r="A2" s="56" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" s="56" t="s">
+        <v>176</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="D2" s="42" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>428</v>
+        <v>414</v>
       </c>
       <c r="H2" s="11"/>
       <c r="I2" s="11" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="J2" s="11" t="s">
         <v>6</v>
@@ -4462,30 +4497,30 @@
       <c r="K2" s="10"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="57" t="s">
-        <v>121</v>
-      </c>
-      <c r="B3" s="57" t="s">
-        <v>184</v>
+      <c r="A3" s="56" t="s">
+        <v>114</v>
+      </c>
+      <c r="B3" s="56" t="s">
+        <v>176</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="D3" s="42" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>429</v>
+        <v>415</v>
       </c>
       <c r="H3" s="11"/>
       <c r="I3" s="11" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="J3" s="11" t="s">
         <v>6</v>
@@ -4493,30 +4528,30 @@
       <c r="K3" s="10"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="57" t="s">
-        <v>121</v>
-      </c>
-      <c r="B4" s="57" t="s">
-        <v>184</v>
+      <c r="A4" s="56" t="s">
+        <v>114</v>
+      </c>
+      <c r="B4" s="56" t="s">
+        <v>176</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="D4" s="42" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>430</v>
+        <v>416</v>
       </c>
       <c r="H4" s="11"/>
       <c r="I4" s="11" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="J4" s="11" t="s">
         <v>6</v>
@@ -4524,30 +4559,30 @@
       <c r="K4" s="10"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="57" t="s">
-        <v>121</v>
-      </c>
-      <c r="B5" s="57" t="s">
-        <v>184</v>
+      <c r="A5" s="56" t="s">
+        <v>114</v>
+      </c>
+      <c r="B5" s="56" t="s">
+        <v>176</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="D5" s="42" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>431</v>
+        <v>417</v>
       </c>
       <c r="H5" s="11"/>
       <c r="I5" s="11" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="J5" s="11" t="s">
         <v>6</v>
@@ -4555,30 +4590,30 @@
       <c r="K5" s="10"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="57" t="s">
-        <v>121</v>
-      </c>
-      <c r="B6" s="57" t="s">
-        <v>184</v>
+      <c r="A6" s="56" t="s">
+        <v>114</v>
+      </c>
+      <c r="B6" s="56" t="s">
+        <v>176</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="D6" s="42" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>432</v>
+        <v>418</v>
       </c>
       <c r="H6" s="11"/>
       <c r="I6" s="11" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="J6" s="11" t="s">
         <v>6</v>
@@ -4586,30 +4621,30 @@
       <c r="K6" s="10"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="57" t="s">
-        <v>121</v>
-      </c>
-      <c r="B7" s="57" t="s">
-        <v>184</v>
+      <c r="A7" s="56" t="s">
+        <v>114</v>
+      </c>
+      <c r="B7" s="56" t="s">
+        <v>176</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="D7" s="42" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>433</v>
+        <v>419</v>
       </c>
       <c r="H7" s="11"/>
       <c r="I7" s="11" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="J7" s="11" t="s">
         <v>6</v>
@@ -4617,30 +4652,30 @@
       <c r="K7" s="10"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="57" t="s">
-        <v>121</v>
-      </c>
-      <c r="B8" s="57" t="s">
-        <v>184</v>
+      <c r="A8" s="56" t="s">
+        <v>114</v>
+      </c>
+      <c r="B8" s="56" t="s">
+        <v>176</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="D8" s="42" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>434</v>
+        <v>420</v>
       </c>
       <c r="H8" s="11"/>
       <c r="I8" s="11" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="J8" s="11" t="s">
         <v>6</v>
@@ -4648,30 +4683,30 @@
       <c r="K8" s="10"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="57" t="s">
-        <v>121</v>
-      </c>
-      <c r="B9" s="57" t="s">
-        <v>184</v>
+      <c r="A9" s="56" t="s">
+        <v>114</v>
+      </c>
+      <c r="B9" s="56" t="s">
+        <v>176</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="D9" s="42" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>435</v>
+        <v>421</v>
       </c>
       <c r="H9" s="11"/>
       <c r="I9" s="11" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="J9" s="11" t="s">
         <v>6</v>
@@ -4679,16 +4714,16 @@
       <c r="K9" s="10"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="57" t="s">
-        <v>181</v>
-      </c>
-      <c r="B10" s="57" t="s">
-        <v>182</v>
+      <c r="A10" s="56" t="s">
+        <v>174</v>
+      </c>
+      <c r="B10" s="56" t="s">
+        <v>175</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="42"/>
-      <c r="E10" s="12" t="s">
-        <v>217</v>
+      <c r="E10" s="88" t="s">
+        <v>474</v>
       </c>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
@@ -4839,7 +4874,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="19.5"/>
   <cols>
@@ -4867,7 +4904,7 @@
       <c r="C1" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="D1" s="54" t="s">
+      <c r="D1" s="53" t="s">
         <v>45</v>
       </c>
       <c r="E1" s="15" t="s">
@@ -4891,30 +4928,30 @@
       <c r="K1" s="3"/>
     </row>
     <row r="2" spans="1:11" ht="20.25" thickTop="1">
-      <c r="A2" s="57" t="s">
-        <v>121</v>
-      </c>
-      <c r="B2" s="57" t="s">
-        <v>97</v>
+      <c r="A2" s="56" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" s="56" t="s">
+        <v>95</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="D2" s="42" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>436</v>
+        <v>422</v>
       </c>
       <c r="H2" s="11"/>
       <c r="I2" s="11" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="J2" s="11" t="s">
         <v>6</v>
@@ -4922,30 +4959,30 @@
       <c r="K2" s="10"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="57" t="s">
-        <v>121</v>
-      </c>
-      <c r="B3" s="57" t="s">
-        <v>97</v>
+      <c r="A3" s="56" t="s">
+        <v>114</v>
+      </c>
+      <c r="B3" s="56" t="s">
+        <v>95</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="D3" s="42" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>437</v>
+        <v>423</v>
       </c>
       <c r="H3" s="11"/>
       <c r="I3" s="11" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="J3" s="11" t="s">
         <v>6</v>
@@ -4953,30 +4990,30 @@
       <c r="K3" s="10"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="57" t="s">
-        <v>121</v>
-      </c>
-      <c r="B4" s="57" t="s">
-        <v>97</v>
+      <c r="A4" s="56" t="s">
+        <v>114</v>
+      </c>
+      <c r="B4" s="56" t="s">
+        <v>95</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="D4" s="42" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>438</v>
+        <v>424</v>
       </c>
       <c r="H4" s="11"/>
       <c r="I4" s="11" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="J4" s="11" t="s">
         <v>6</v>
@@ -4984,30 +5021,30 @@
       <c r="K4" s="10"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="57" t="s">
-        <v>121</v>
-      </c>
-      <c r="B5" s="57" t="s">
-        <v>97</v>
+      <c r="A5" s="56" t="s">
+        <v>114</v>
+      </c>
+      <c r="B5" s="56" t="s">
+        <v>95</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="D5" s="42" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>439</v>
+        <v>425</v>
       </c>
       <c r="H5" s="11"/>
       <c r="I5" s="11" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="J5" s="11" t="s">
         <v>6</v>
@@ -5015,30 +5052,30 @@
       <c r="K5" s="10"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="57" t="s">
-        <v>121</v>
-      </c>
-      <c r="B6" s="57" t="s">
-        <v>97</v>
+      <c r="A6" s="56" t="s">
+        <v>114</v>
+      </c>
+      <c r="B6" s="56" t="s">
+        <v>95</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="D6" s="42" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>440</v>
+        <v>426</v>
       </c>
       <c r="H6" s="11"/>
       <c r="I6" s="11" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="J6" s="11" t="s">
         <v>6</v>
@@ -5046,30 +5083,30 @@
       <c r="K6" s="10"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="57" t="s">
-        <v>121</v>
-      </c>
-      <c r="B7" s="57" t="s">
-        <v>97</v>
+      <c r="A7" s="56" t="s">
+        <v>114</v>
+      </c>
+      <c r="B7" s="56" t="s">
+        <v>95</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="D7" s="42" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>441</v>
+        <v>427</v>
       </c>
       <c r="H7" s="11"/>
       <c r="I7" s="11" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="J7" s="11" t="s">
         <v>6</v>
@@ -5077,30 +5114,30 @@
       <c r="K7" s="10"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="57" t="s">
-        <v>121</v>
-      </c>
-      <c r="B8" s="57" t="s">
-        <v>97</v>
+      <c r="A8" s="56" t="s">
+        <v>114</v>
+      </c>
+      <c r="B8" s="56" t="s">
+        <v>95</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="D8" s="42" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>442</v>
+        <v>428</v>
       </c>
       <c r="H8" s="11"/>
       <c r="I8" s="11" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="J8" s="11" t="s">
         <v>6</v>
@@ -5108,16 +5145,16 @@
       <c r="K8" s="10"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="57" t="s">
-        <v>181</v>
-      </c>
-      <c r="B9" s="57" t="s">
-        <v>182</v>
+      <c r="A9" s="56" t="s">
+        <v>174</v>
+      </c>
+      <c r="B9" s="56" t="s">
+        <v>175</v>
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="42"/>
-      <c r="E9" s="12" t="s">
-        <v>246</v>
+      <c r="E9" s="91" t="s">
+        <v>475</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
@@ -5268,7 +5305,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="19.5"/>
   <cols>
@@ -5296,7 +5335,7 @@
       <c r="C1" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="D1" s="54" t="s">
+      <c r="D1" s="53" t="s">
         <v>45</v>
       </c>
       <c r="E1" s="15" t="s">
@@ -5320,30 +5359,30 @@
       <c r="K1" s="3"/>
     </row>
     <row r="2" spans="1:11" ht="20.25" thickTop="1">
-      <c r="A2" s="57" t="s">
-        <v>121</v>
-      </c>
-      <c r="B2" s="57" t="s">
-        <v>247</v>
+      <c r="A2" s="56" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" s="56" t="s">
+        <v>237</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="D2" s="42" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>443</v>
+        <v>429</v>
       </c>
       <c r="H2" s="11"/>
       <c r="I2" s="11" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="J2" s="11" t="s">
         <v>6</v>
@@ -5351,30 +5390,30 @@
       <c r="K2" s="10"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="57" t="s">
-        <v>121</v>
-      </c>
-      <c r="B3" s="57" t="s">
-        <v>247</v>
+      <c r="A3" s="56" t="s">
+        <v>114</v>
+      </c>
+      <c r="B3" s="56" t="s">
+        <v>237</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="D3" s="42" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>444</v>
+        <v>430</v>
       </c>
       <c r="H3" s="11"/>
       <c r="I3" s="11" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="J3" s="11" t="s">
         <v>6</v>
@@ -5382,30 +5421,30 @@
       <c r="K3" s="10"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="57" t="s">
-        <v>121</v>
-      </c>
-      <c r="B4" s="57" t="s">
+      <c r="A4" s="56" t="s">
+        <v>114</v>
+      </c>
+      <c r="B4" s="56" t="s">
+        <v>237</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="D4" s="42" t="s">
+        <v>117</v>
+      </c>
+      <c r="E4" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>256</v>
-      </c>
-      <c r="D4" s="42" t="s">
-        <v>124</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>257</v>
-      </c>
       <c r="F4" s="11" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>445</v>
+        <v>431</v>
       </c>
       <c r="H4" s="11"/>
       <c r="I4" s="11" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="J4" s="11" t="s">
         <v>6</v>
@@ -5413,30 +5452,30 @@
       <c r="K4" s="10"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="57" t="s">
-        <v>121</v>
-      </c>
-      <c r="B5" s="57" t="s">
-        <v>247</v>
+      <c r="A5" s="56" t="s">
+        <v>114</v>
+      </c>
+      <c r="B5" s="56" t="s">
+        <v>237</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="D5" s="42" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>446</v>
+        <v>432</v>
       </c>
       <c r="H5" s="11"/>
       <c r="I5" s="11" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="J5" s="11" t="s">
         <v>6</v>
@@ -5444,30 +5483,30 @@
       <c r="K5" s="10"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="57" t="s">
-        <v>121</v>
-      </c>
-      <c r="B6" s="57" t="s">
-        <v>247</v>
+      <c r="A6" s="56" t="s">
+        <v>114</v>
+      </c>
+      <c r="B6" s="56" t="s">
+        <v>237</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="D6" s="42" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>447</v>
+        <v>433</v>
       </c>
       <c r="H6" s="11"/>
       <c r="I6" s="11" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="J6" s="11" t="s">
         <v>6</v>
@@ -5475,30 +5514,30 @@
       <c r="K6" s="10"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="57" t="s">
-        <v>121</v>
-      </c>
-      <c r="B7" s="57" t="s">
-        <v>247</v>
+      <c r="A7" s="56" t="s">
+        <v>114</v>
+      </c>
+      <c r="B7" s="56" t="s">
+        <v>237</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="D7" s="42" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>448</v>
+        <v>434</v>
       </c>
       <c r="H7" s="11"/>
       <c r="I7" s="11" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="J7" s="11" t="s">
         <v>6</v>
@@ -5506,30 +5545,30 @@
       <c r="K7" s="10"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="57" t="s">
-        <v>121</v>
-      </c>
-      <c r="B8" s="57" t="s">
-        <v>247</v>
+      <c r="A8" s="56" t="s">
+        <v>114</v>
+      </c>
+      <c r="B8" s="56" t="s">
+        <v>237</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="D8" s="42" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>449</v>
+        <v>435</v>
       </c>
       <c r="H8" s="11"/>
       <c r="I8" s="11" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="J8" s="11" t="s">
         <v>6</v>
@@ -5537,30 +5576,30 @@
       <c r="K8" s="10"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="57" t="s">
-        <v>121</v>
-      </c>
-      <c r="B9" s="57" t="s">
-        <v>247</v>
+      <c r="A9" s="56" t="s">
+        <v>114</v>
+      </c>
+      <c r="B9" s="56" t="s">
+        <v>237</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="D9" s="42" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="H9" s="11"/>
       <c r="I9" s="11" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="J9" s="11" t="s">
         <v>6</v>
@@ -5568,30 +5607,30 @@
       <c r="K9" s="10"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="57" t="s">
-        <v>121</v>
-      </c>
-      <c r="B10" s="57" t="s">
-        <v>247</v>
+      <c r="A10" s="56" t="s">
+        <v>114</v>
+      </c>
+      <c r="B10" s="56" t="s">
+        <v>237</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="D10" s="42" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>451</v>
+        <v>437</v>
       </c>
       <c r="H10" s="11"/>
       <c r="I10" s="11" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="J10" s="11" t="s">
         <v>6</v>
@@ -5599,16 +5638,16 @@
       <c r="K10" s="10"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="57" t="s">
-        <v>181</v>
-      </c>
-      <c r="B11" s="57" t="s">
-        <v>182</v>
+      <c r="A11" s="56" t="s">
+        <v>174</v>
+      </c>
+      <c r="B11" s="56" t="s">
+        <v>175</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="42"/>
-      <c r="E11" s="12" t="s">
-        <v>284</v>
+      <c r="E11" s="91" t="s">
+        <v>476</v>
       </c>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
@@ -5759,7 +5798,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="19.5"/>
   <cols>
@@ -5787,7 +5828,7 @@
       <c r="C1" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="D1" s="54" t="s">
+      <c r="D1" s="53" t="s">
         <v>45</v>
       </c>
       <c r="E1" s="15" t="s">
@@ -5811,30 +5852,30 @@
       <c r="K1" s="3"/>
     </row>
     <row r="2" spans="1:11" ht="20.25" thickTop="1">
-      <c r="A2" s="57" t="s">
-        <v>121</v>
-      </c>
-      <c r="B2" s="57" t="s">
-        <v>285</v>
+      <c r="A2" s="56" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" s="56" t="s">
+        <v>274</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="D2" s="42" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>452</v>
+        <v>438</v>
       </c>
       <c r="H2" s="11"/>
       <c r="I2" s="11" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="J2" s="11" t="s">
         <v>6</v>
@@ -5842,30 +5883,30 @@
       <c r="K2" s="10"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="57" t="s">
-        <v>121</v>
-      </c>
-      <c r="B3" s="57" t="s">
-        <v>285</v>
+      <c r="A3" s="56" t="s">
+        <v>114</v>
+      </c>
+      <c r="B3" s="56" t="s">
+        <v>274</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="D3" s="42" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>453</v>
+        <v>439</v>
       </c>
       <c r="H3" s="11"/>
       <c r="I3" s="11" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="J3" s="11" t="s">
         <v>6</v>
@@ -5873,30 +5914,30 @@
       <c r="K3" s="10"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="57" t="s">
-        <v>121</v>
-      </c>
-      <c r="B4" s="57" t="s">
+      <c r="A4" s="56" t="s">
+        <v>114</v>
+      </c>
+      <c r="B4" s="56" t="s">
+        <v>274</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="D4" s="42" t="s">
+        <v>117</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="F4" s="11" t="s">
         <v>285</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>294</v>
-      </c>
-      <c r="D4" s="42" t="s">
-        <v>124</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>295</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>296</v>
-      </c>
       <c r="G4" s="11" t="s">
-        <v>454</v>
+        <v>440</v>
       </c>
       <c r="H4" s="11"/>
       <c r="I4" s="11" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="J4" s="11" t="s">
         <v>6</v>
@@ -5904,30 +5945,30 @@
       <c r="K4" s="10"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="57" t="s">
-        <v>121</v>
-      </c>
-      <c r="B5" s="57" t="s">
-        <v>285</v>
+      <c r="A5" s="56" t="s">
+        <v>114</v>
+      </c>
+      <c r="B5" s="56" t="s">
+        <v>274</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="D5" s="42" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>455</v>
+        <v>441</v>
       </c>
       <c r="H5" s="11"/>
       <c r="I5" s="11" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="J5" s="11" t="s">
         <v>6</v>
@@ -5935,30 +5976,30 @@
       <c r="K5" s="10"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="57" t="s">
-        <v>121</v>
-      </c>
-      <c r="B6" s="57" t="s">
-        <v>285</v>
+      <c r="A6" s="56" t="s">
+        <v>114</v>
+      </c>
+      <c r="B6" s="56" t="s">
+        <v>274</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="D6" s="42" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>456</v>
+        <v>442</v>
       </c>
       <c r="H6" s="11"/>
       <c r="I6" s="11" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="J6" s="11" t="s">
         <v>6</v>
@@ -5966,30 +6007,30 @@
       <c r="K6" s="10"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="57" t="s">
-        <v>121</v>
-      </c>
-      <c r="B7" s="57" t="s">
-        <v>285</v>
+      <c r="A7" s="56" t="s">
+        <v>114</v>
+      </c>
+      <c r="B7" s="56" t="s">
+        <v>274</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="D7" s="42" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>457</v>
+        <v>443</v>
       </c>
       <c r="H7" s="11"/>
       <c r="I7" s="11" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="J7" s="11" t="s">
         <v>6</v>
@@ -5997,30 +6038,30 @@
       <c r="K7" s="10"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="57" t="s">
-        <v>121</v>
-      </c>
-      <c r="B8" s="57" t="s">
-        <v>285</v>
+      <c r="A8" s="56" t="s">
+        <v>114</v>
+      </c>
+      <c r="B8" s="56" t="s">
+        <v>274</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="D8" s="42" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>458</v>
+        <v>444</v>
       </c>
       <c r="H8" s="11"/>
       <c r="I8" s="11" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="J8" s="11" t="s">
         <v>6</v>
@@ -6028,30 +6069,30 @@
       <c r="K8" s="10"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="57" t="s">
-        <v>121</v>
-      </c>
-      <c r="B9" s="57" t="s">
-        <v>285</v>
+      <c r="A9" s="56" t="s">
+        <v>114</v>
+      </c>
+      <c r="B9" s="56" t="s">
+        <v>274</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="D9" s="42" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>459</v>
+        <v>445</v>
       </c>
       <c r="H9" s="11"/>
       <c r="I9" s="11" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="J9" s="11" t="s">
         <v>6</v>
@@ -6059,30 +6100,30 @@
       <c r="K9" s="10"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="57" t="s">
-        <v>121</v>
-      </c>
-      <c r="B10" s="57" t="s">
-        <v>285</v>
+      <c r="A10" s="56" t="s">
+        <v>114</v>
+      </c>
+      <c r="B10" s="56" t="s">
+        <v>274</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="D10" s="42" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>460</v>
+        <v>446</v>
       </c>
       <c r="H10" s="11"/>
       <c r="I10" s="11" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="J10" s="11" t="s">
         <v>6</v>
@@ -6090,30 +6131,30 @@
       <c r="K10" s="10"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="57" t="s">
-        <v>121</v>
-      </c>
-      <c r="B11" s="57" t="s">
-        <v>285</v>
+      <c r="A11" s="56" t="s">
+        <v>114</v>
+      </c>
+      <c r="B11" s="56" t="s">
+        <v>274</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="D11" s="42" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>461</v>
+        <v>447</v>
       </c>
       <c r="H11" s="11"/>
       <c r="I11" s="11" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="J11" s="11" t="s">
         <v>6</v>
@@ -6121,30 +6162,30 @@
       <c r="K11" s="10"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="57" t="s">
-        <v>121</v>
-      </c>
-      <c r="B12" s="57" t="s">
-        <v>285</v>
+      <c r="A12" s="56" t="s">
+        <v>114</v>
+      </c>
+      <c r="B12" s="56" t="s">
+        <v>274</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="D12" s="42" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>462</v>
+        <v>448</v>
       </c>
       <c r="H12" s="11"/>
       <c r="I12" s="11" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="J12" s="11" t="s">
         <v>6</v>
@@ -6152,16 +6193,16 @@
       <c r="K12" s="10"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="57" t="s">
-        <v>181</v>
-      </c>
-      <c r="B13" s="57" t="s">
-        <v>182</v>
+      <c r="A13" s="56" t="s">
+        <v>174</v>
+      </c>
+      <c r="B13" s="56" t="s">
+        <v>175</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="42"/>
-      <c r="E13" s="12" t="s">
-        <v>330</v>
+      <c r="E13" s="91" t="s">
+        <v>477</v>
       </c>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
@@ -6312,7 +6353,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="19.5"/>
   <cols>
@@ -6340,7 +6383,7 @@
       <c r="C1" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="D1" s="54" t="s">
+      <c r="D1" s="53" t="s">
         <v>45</v>
       </c>
       <c r="E1" s="15" t="s">
@@ -6364,30 +6407,30 @@
       <c r="K1" s="3"/>
     </row>
     <row r="2" spans="1:11" ht="20.25" thickTop="1">
-      <c r="A2" s="57" t="s">
-        <v>121</v>
-      </c>
-      <c r="B2" s="57" t="s">
-        <v>331</v>
+      <c r="A2" s="56" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" s="56" t="s">
+        <v>319</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="D2" s="42" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>463</v>
+        <v>449</v>
       </c>
       <c r="H2" s="11"/>
       <c r="I2" s="11" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="J2" s="11" t="s">
         <v>6</v>
@@ -6395,30 +6438,30 @@
       <c r="K2" s="10"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="57" t="s">
-        <v>121</v>
-      </c>
-      <c r="B3" s="57" t="s">
-        <v>331</v>
+      <c r="A3" s="56" t="s">
+        <v>114</v>
+      </c>
+      <c r="B3" s="56" t="s">
+        <v>319</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="D3" s="42" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>464</v>
+        <v>450</v>
       </c>
       <c r="H3" s="11"/>
       <c r="I3" s="11" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="J3" s="11" t="s">
         <v>6</v>
@@ -6426,30 +6469,30 @@
       <c r="K3" s="10"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="57" t="s">
-        <v>121</v>
-      </c>
-      <c r="B4" s="57" t="s">
-        <v>331</v>
+      <c r="A4" s="56" t="s">
+        <v>114</v>
+      </c>
+      <c r="B4" s="56" t="s">
+        <v>319</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="D4" s="42" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>465</v>
+        <v>451</v>
       </c>
       <c r="H4" s="11"/>
       <c r="I4" s="11" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="J4" s="11" t="s">
         <v>6</v>
@@ -6457,30 +6500,30 @@
       <c r="K4" s="10"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="57" t="s">
-        <v>121</v>
-      </c>
-      <c r="B5" s="57" t="s">
-        <v>331</v>
+      <c r="A5" s="56" t="s">
+        <v>114</v>
+      </c>
+      <c r="B5" s="56" t="s">
+        <v>319</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="D5" s="42" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>466</v>
+        <v>452</v>
       </c>
       <c r="H5" s="11"/>
       <c r="I5" s="11" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="J5" s="11" t="s">
         <v>6</v>
@@ -6488,30 +6531,30 @@
       <c r="K5" s="10"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="57" t="s">
-        <v>121</v>
-      </c>
-      <c r="B6" s="57" t="s">
-        <v>331</v>
+      <c r="A6" s="56" t="s">
+        <v>114</v>
+      </c>
+      <c r="B6" s="56" t="s">
+        <v>319</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="D6" s="42" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>467</v>
+        <v>453</v>
       </c>
       <c r="H6" s="11"/>
       <c r="I6" s="11" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="J6" s="11" t="s">
         <v>6</v>
@@ -6519,30 +6562,30 @@
       <c r="K6" s="10"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="57" t="s">
-        <v>121</v>
-      </c>
-      <c r="B7" s="57" t="s">
-        <v>331</v>
+      <c r="A7" s="56" t="s">
+        <v>114</v>
+      </c>
+      <c r="B7" s="56" t="s">
+        <v>319</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="D7" s="42" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>468</v>
+        <v>454</v>
       </c>
       <c r="H7" s="11"/>
       <c r="I7" s="11" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="J7" s="11" t="s">
         <v>6</v>
@@ -6550,30 +6593,30 @@
       <c r="K7" s="10"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="57" t="s">
-        <v>121</v>
-      </c>
-      <c r="B8" s="57" t="s">
-        <v>331</v>
+      <c r="A8" s="56" t="s">
+        <v>114</v>
+      </c>
+      <c r="B8" s="56" t="s">
+        <v>319</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="D8" s="42" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>469</v>
+        <v>455</v>
       </c>
       <c r="H8" s="11"/>
       <c r="I8" s="11" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="J8" s="11" t="s">
         <v>6</v>
@@ -6581,30 +6624,30 @@
       <c r="K8" s="10"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="57" t="s">
-        <v>121</v>
-      </c>
-      <c r="B9" s="57" t="s">
-        <v>331</v>
+      <c r="A9" s="56" t="s">
+        <v>114</v>
+      </c>
+      <c r="B9" s="56" t="s">
+        <v>319</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="D9" s="42" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>470</v>
+        <v>456</v>
       </c>
       <c r="H9" s="11"/>
       <c r="I9" s="11" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="J9" s="11" t="s">
         <v>6</v>
@@ -6612,16 +6655,16 @@
       <c r="K9" s="10"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="57" t="s">
-        <v>181</v>
-      </c>
-      <c r="B10" s="57" t="s">
-        <v>182</v>
+      <c r="A10" s="56" t="s">
+        <v>174</v>
+      </c>
+      <c r="B10" s="56" t="s">
+        <v>175</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="42"/>
-      <c r="E10" s="12" t="s">
-        <v>364</v>
+      <c r="E10" s="91" t="s">
+        <v>478</v>
       </c>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
@@ -6772,7 +6815,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="19.5"/>
   <cols>
@@ -6800,7 +6845,7 @@
       <c r="C1" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="D1" s="54" t="s">
+      <c r="D1" s="53" t="s">
         <v>45</v>
       </c>
       <c r="E1" s="15" t="s">
@@ -6824,30 +6869,30 @@
       <c r="K1" s="3"/>
     </row>
     <row r="2" spans="1:11" ht="20.25" thickTop="1">
-      <c r="A2" s="57" t="s">
-        <v>121</v>
-      </c>
-      <c r="B2" s="57" t="s">
+      <c r="A2" s="56" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" s="56" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>352</v>
+      </c>
+      <c r="D2" s="42" t="s">
         <v>117</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>365</v>
-      </c>
-      <c r="D2" s="42" t="s">
-        <v>124</v>
-      </c>
       <c r="E2" s="11" t="s">
-        <v>366</v>
+        <v>353</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>471</v>
+        <v>457</v>
       </c>
       <c r="H2" s="11"/>
       <c r="I2" s="11" t="s">
-        <v>368</v>
+        <v>355</v>
       </c>
       <c r="J2" s="11" t="s">
         <v>6</v>
@@ -6855,30 +6900,30 @@
       <c r="K2" s="10"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="57" t="s">
-        <v>121</v>
-      </c>
-      <c r="B3" s="57" t="s">
+      <c r="A3" s="56" t="s">
+        <v>114</v>
+      </c>
+      <c r="B3" s="56" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>356</v>
+      </c>
+      <c r="D3" s="42" t="s">
         <v>117</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>369</v>
-      </c>
-      <c r="D3" s="42" t="s">
-        <v>124</v>
-      </c>
       <c r="E3" s="11" t="s">
-        <v>370</v>
+        <v>357</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>371</v>
+        <v>358</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>472</v>
+        <v>458</v>
       </c>
       <c r="H3" s="11"/>
       <c r="I3" s="11" t="s">
-        <v>372</v>
+        <v>359</v>
       </c>
       <c r="J3" s="11" t="s">
         <v>6</v>
@@ -6886,30 +6931,30 @@
       <c r="K3" s="10"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="57" t="s">
-        <v>121</v>
-      </c>
-      <c r="B4" s="57" t="s">
+      <c r="A4" s="56" t="s">
+        <v>114</v>
+      </c>
+      <c r="B4" s="56" t="s">
+        <v>111</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>360</v>
+      </c>
+      <c r="D4" s="42" t="s">
         <v>117</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>373</v>
-      </c>
-      <c r="D4" s="42" t="s">
-        <v>124</v>
-      </c>
       <c r="E4" s="11" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>375</v>
+        <v>362</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>473</v>
+        <v>459</v>
       </c>
       <c r="H4" s="11"/>
       <c r="I4" s="11" t="s">
-        <v>376</v>
+        <v>363</v>
       </c>
       <c r="J4" s="11" t="s">
         <v>6</v>
@@ -6917,30 +6962,30 @@
       <c r="K4" s="10"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="57" t="s">
-        <v>121</v>
-      </c>
-      <c r="B5" s="57" t="s">
+      <c r="A5" s="56" t="s">
+        <v>114</v>
+      </c>
+      <c r="B5" s="56" t="s">
+        <v>111</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>364</v>
+      </c>
+      <c r="D5" s="42" t="s">
         <v>117</v>
       </c>
-      <c r="C5" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D5" s="42" t="s">
-        <v>124</v>
-      </c>
       <c r="E5" s="11" t="s">
-        <v>378</v>
+        <v>365</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>379</v>
+        <v>366</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>474</v>
+        <v>460</v>
       </c>
       <c r="H5" s="11"/>
       <c r="I5" s="11" t="s">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="J5" s="11" t="s">
         <v>6</v>
@@ -6948,30 +6993,30 @@
       <c r="K5" s="10"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="57" t="s">
-        <v>121</v>
-      </c>
-      <c r="B6" s="57" t="s">
+      <c r="A6" s="56" t="s">
+        <v>114</v>
+      </c>
+      <c r="B6" s="56" t="s">
+        <v>111</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="D6" s="42" t="s">
         <v>117</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>381</v>
-      </c>
-      <c r="D6" s="42" t="s">
-        <v>124</v>
-      </c>
       <c r="E6" s="11" t="s">
-        <v>382</v>
+        <v>369</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>475</v>
+        <v>461</v>
       </c>
       <c r="H6" s="11"/>
       <c r="I6" s="11" t="s">
-        <v>384</v>
+        <v>371</v>
       </c>
       <c r="J6" s="11" t="s">
         <v>6</v>
@@ -6979,30 +7024,30 @@
       <c r="K6" s="10"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="57" t="s">
-        <v>121</v>
-      </c>
-      <c r="B7" s="57" t="s">
+      <c r="A7" s="56" t="s">
+        <v>114</v>
+      </c>
+      <c r="B7" s="56" t="s">
+        <v>111</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>372</v>
+      </c>
+      <c r="D7" s="42" t="s">
         <v>117</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>385</v>
-      </c>
-      <c r="D7" s="42" t="s">
-        <v>124</v>
-      </c>
       <c r="E7" s="11" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>476</v>
+        <v>462</v>
       </c>
       <c r="H7" s="11"/>
       <c r="I7" s="11" t="s">
-        <v>388</v>
+        <v>375</v>
       </c>
       <c r="J7" s="11" t="s">
         <v>6</v>
@@ -7010,30 +7055,30 @@
       <c r="K7" s="10"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="57" t="s">
-        <v>121</v>
-      </c>
-      <c r="B8" s="57" t="s">
+      <c r="A8" s="56" t="s">
+        <v>114</v>
+      </c>
+      <c r="B8" s="56" t="s">
+        <v>111</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>376</v>
+      </c>
+      <c r="D8" s="42" t="s">
         <v>117</v>
       </c>
-      <c r="C8" s="11" t="s">
-        <v>389</v>
-      </c>
-      <c r="D8" s="42" t="s">
-        <v>124</v>
-      </c>
       <c r="E8" s="11" t="s">
-        <v>390</v>
+        <v>377</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>391</v>
+        <v>378</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>477</v>
+        <v>463</v>
       </c>
       <c r="H8" s="11"/>
       <c r="I8" s="11" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
       <c r="J8" s="11" t="s">
         <v>6</v>
@@ -7041,30 +7086,30 @@
       <c r="K8" s="10"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="57" t="s">
-        <v>121</v>
-      </c>
-      <c r="B9" s="57" t="s">
+      <c r="A9" s="56" t="s">
+        <v>114</v>
+      </c>
+      <c r="B9" s="56" t="s">
+        <v>111</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D9" s="42" t="s">
         <v>117</v>
       </c>
-      <c r="C9" s="11" t="s">
-        <v>393</v>
-      </c>
-      <c r="D9" s="42" t="s">
-        <v>124</v>
-      </c>
       <c r="E9" s="11" t="s">
-        <v>394</v>
+        <v>381</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>395</v>
+        <v>382</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>478</v>
+        <v>464</v>
       </c>
       <c r="H9" s="11"/>
       <c r="I9" s="11" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="J9" s="11" t="s">
         <v>6</v>
@@ -7072,30 +7117,30 @@
       <c r="K9" s="10"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="57" t="s">
-        <v>121</v>
-      </c>
-      <c r="B10" s="57" t="s">
+      <c r="A10" s="56" t="s">
+        <v>114</v>
+      </c>
+      <c r="B10" s="56" t="s">
+        <v>111</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>384</v>
+      </c>
+      <c r="D10" s="42" t="s">
         <v>117</v>
       </c>
-      <c r="C10" s="11" t="s">
-        <v>397</v>
-      </c>
-      <c r="D10" s="42" t="s">
-        <v>124</v>
-      </c>
       <c r="E10" s="11" t="s">
-        <v>398</v>
+        <v>385</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>479</v>
+        <v>465</v>
       </c>
       <c r="H10" s="11"/>
       <c r="I10" s="11" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="J10" s="11" t="s">
         <v>6</v>
@@ -7103,30 +7148,30 @@
       <c r="K10" s="10"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="57" t="s">
-        <v>121</v>
-      </c>
-      <c r="B11" s="57" t="s">
+      <c r="A11" s="56" t="s">
+        <v>114</v>
+      </c>
+      <c r="B11" s="56" t="s">
+        <v>111</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="D11" s="42" t="s">
         <v>117</v>
       </c>
-      <c r="C11" s="11" t="s">
-        <v>401</v>
-      </c>
-      <c r="D11" s="42" t="s">
-        <v>124</v>
-      </c>
       <c r="E11" s="11" t="s">
-        <v>402</v>
+        <v>389</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>403</v>
+        <v>390</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>480</v>
+        <v>466</v>
       </c>
       <c r="H11" s="11"/>
       <c r="I11" s="11" t="s">
-        <v>404</v>
+        <v>391</v>
       </c>
       <c r="J11" s="11" t="s">
         <v>6</v>
@@ -7134,30 +7179,30 @@
       <c r="K11" s="10"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="57" t="s">
-        <v>121</v>
-      </c>
-      <c r="B12" s="57" t="s">
+      <c r="A12" s="56" t="s">
+        <v>114</v>
+      </c>
+      <c r="B12" s="56" t="s">
+        <v>111</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="D12" s="42" t="s">
         <v>117</v>
       </c>
-      <c r="C12" s="11" t="s">
-        <v>405</v>
-      </c>
-      <c r="D12" s="42" t="s">
-        <v>124</v>
-      </c>
       <c r="E12" s="11" t="s">
-        <v>406</v>
+        <v>393</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>481</v>
+        <v>467</v>
       </c>
       <c r="H12" s="11"/>
       <c r="I12" s="11" t="s">
-        <v>408</v>
+        <v>395</v>
       </c>
       <c r="J12" s="11" t="s">
         <v>6</v>
@@ -7165,30 +7210,30 @@
       <c r="K12" s="10"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="57" t="s">
-        <v>121</v>
-      </c>
-      <c r="B13" s="57" t="s">
+      <c r="A13" s="56" t="s">
+        <v>114</v>
+      </c>
+      <c r="B13" s="56" t="s">
+        <v>111</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>396</v>
+      </c>
+      <c r="D13" s="42" t="s">
         <v>117</v>
       </c>
-      <c r="C13" s="11" t="s">
-        <v>409</v>
-      </c>
-      <c r="D13" s="42" t="s">
-        <v>124</v>
-      </c>
       <c r="E13" s="11" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>482</v>
+        <v>468</v>
       </c>
       <c r="H13" s="11"/>
       <c r="I13" s="11" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="J13" s="11" t="s">
         <v>6</v>
@@ -7196,16 +7241,16 @@
       <c r="K13" s="10"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="57" t="s">
-        <v>181</v>
-      </c>
-      <c r="B14" s="57" t="s">
-        <v>182</v>
+      <c r="A14" s="56" t="s">
+        <v>174</v>
+      </c>
+      <c r="B14" s="56" t="s">
+        <v>175</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="42"/>
-      <c r="E14" s="12" t="s">
-        <v>413</v>
+      <c r="E14" s="91" t="s">
+        <v>479</v>
       </c>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>

--- a/structure-books_network1.xlsx
+++ b/structure-books_network1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" firstSheet="1" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="series-information" sheetId="37" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="483">
   <si>
     <t>cover</t>
     <phoneticPr fontId="4"/>
@@ -1904,6 +1904,18 @@
     <t>https://dev.chilos.jp/mod/quiz/view.php?id=1065</t>
     <phoneticPr fontId="4"/>
   </si>
+  <si>
+    <t>b_quiz.png</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>b_quiz.png</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>b_quiz.png</t>
+    <phoneticPr fontId="4"/>
+  </si>
 </sst>
 </file>
 
@@ -1912,7 +1924,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2046,6 +2058,13 @@
       <sz val="12"/>
       <name val="Yu Gothic"/>
       <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -2543,7 +2562,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2742,6 +2761,19 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="37">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="37" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="37" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2841,16 +2873,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="37">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="37" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="37" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -3258,7 +3281,7 @@
       <c r="C4" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="58" t="s">
+      <c r="D4" s="62" t="s">
         <v>49</v>
       </c>
     </row>
@@ -3272,7 +3295,7 @@
       <c r="C5" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="59"/>
+      <c r="D5" s="63"/>
     </row>
     <row r="6" spans="1:4" ht="21" customHeight="1">
       <c r="A6" s="31" t="s">
@@ -3284,7 +3307,7 @@
       <c r="C6" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="D6" s="59"/>
+      <c r="D6" s="63"/>
     </row>
     <row r="7" spans="1:4" ht="21" customHeight="1">
       <c r="A7" s="31" t="s">
@@ -3296,7 +3319,7 @@
       <c r="C7" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="59"/>
+      <c r="D7" s="63"/>
     </row>
     <row r="8" spans="1:4" ht="21" customHeight="1">
       <c r="A8" s="31" t="s">
@@ -3308,7 +3331,7 @@
       <c r="C8" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="60"/>
+      <c r="D8" s="64"/>
     </row>
     <row r="9" spans="1:4" ht="21" customHeight="1">
       <c r="A9" s="55" t="s">
@@ -3374,26 +3397,26 @@
       <c r="D13" s="27"/>
     </row>
     <row r="15" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A15" s="61" t="s">
+      <c r="A15" s="65" t="s">
         <v>68</v>
       </c>
-      <c r="B15" s="62"/>
-      <c r="C15" s="63"/>
+      <c r="B15" s="66"/>
+      <c r="C15" s="67"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="64"/>
-      <c r="B16" s="65"/>
-      <c r="C16" s="66"/>
+      <c r="A16" s="68"/>
+      <c r="B16" s="69"/>
+      <c r="C16" s="70"/>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="64"/>
-      <c r="B17" s="65"/>
-      <c r="C17" s="66"/>
+      <c r="A17" s="68"/>
+      <c r="B17" s="69"/>
+      <c r="C17" s="70"/>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="67"/>
-      <c r="B18" s="68"/>
-      <c r="C18" s="69"/>
+      <c r="A18" s="71"/>
+      <c r="B18" s="72"/>
+      <c r="C18" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3527,7 +3550,7 @@
       <c r="E1" s="57" t="s">
         <v>470</v>
       </c>
-      <c r="F1" s="89" t="s">
+      <c r="F1" s="59" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3563,7 +3586,7 @@
       <c r="E3" s="52" t="s">
         <v>93</v>
       </c>
-      <c r="F3" s="90" t="s">
+      <c r="F3" s="60" t="s">
         <v>471</v>
       </c>
     </row>
@@ -3704,36 +3727,36 @@
     </row>
     <row r="14" spans="1:6" ht="14.25" customHeight="1">
       <c r="A14" s="6"/>
-      <c r="B14" s="70" t="s">
+      <c r="B14" s="74" t="s">
         <v>69</v>
       </c>
-      <c r="C14" s="71"/>
-      <c r="D14" s="72"/>
+      <c r="C14" s="75"/>
+      <c r="D14" s="76"/>
       <c r="F14" s="45"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="6"/>
-      <c r="B15" s="73"/>
-      <c r="C15" s="74"/>
-      <c r="D15" s="75"/>
+      <c r="B15" s="77"/>
+      <c r="C15" s="78"/>
+      <c r="D15" s="79"/>
       <c r="F15" s="45"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="B16" s="73"/>
-      <c r="C16" s="74"/>
-      <c r="D16" s="75"/>
+      <c r="B16" s="77"/>
+      <c r="C16" s="78"/>
+      <c r="D16" s="79"/>
       <c r="F16" s="45"/>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="73"/>
-      <c r="C17" s="74"/>
-      <c r="D17" s="75"/>
+      <c r="B17" s="77"/>
+      <c r="C17" s="78"/>
+      <c r="D17" s="79"/>
       <c r="F17" s="45"/>
     </row>
     <row r="18" spans="2:6">
-      <c r="B18" s="76"/>
-      <c r="C18" s="77"/>
-      <c r="D18" s="78"/>
+      <c r="B18" s="80"/>
+      <c r="C18" s="81"/>
+      <c r="D18" s="82"/>
       <c r="F18" s="45"/>
     </row>
     <row r="19" spans="2:6">
@@ -3764,8 +3787,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="19.5"/>
@@ -4260,10 +4283,12 @@
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="42"/>
-      <c r="E16" s="91" t="s">
+      <c r="E16" s="61" t="s">
         <v>473</v>
       </c>
-      <c r="F16" s="11"/>
+      <c r="F16" s="92" t="s">
+        <v>480</v>
+      </c>
       <c r="G16" s="11"/>
       <c r="H16" s="11"/>
       <c r="I16" s="11"/>
@@ -4327,48 +4352,48 @@
       <c r="K20" s="18"/>
     </row>
     <row r="21" spans="1:11" ht="14.25" customHeight="1">
-      <c r="B21" s="79" t="s">
+      <c r="B21" s="83" t="s">
         <v>73</v>
       </c>
-      <c r="C21" s="80"/>
-      <c r="D21" s="80"/>
-      <c r="E21" s="81"/>
+      <c r="C21" s="84"/>
+      <c r="D21" s="84"/>
+      <c r="E21" s="85"/>
     </row>
     <row r="22" spans="1:11">
-      <c r="B22" s="82"/>
-      <c r="C22" s="83"/>
-      <c r="D22" s="83"/>
-      <c r="E22" s="84"/>
+      <c r="B22" s="86"/>
+      <c r="C22" s="87"/>
+      <c r="D22" s="87"/>
+      <c r="E22" s="88"/>
     </row>
     <row r="23" spans="1:11">
-      <c r="B23" s="82"/>
-      <c r="C23" s="83"/>
-      <c r="D23" s="83"/>
-      <c r="E23" s="84"/>
+      <c r="B23" s="86"/>
+      <c r="C23" s="87"/>
+      <c r="D23" s="87"/>
+      <c r="E23" s="88"/>
     </row>
     <row r="24" spans="1:11">
-      <c r="B24" s="82"/>
-      <c r="C24" s="83"/>
-      <c r="D24" s="83"/>
-      <c r="E24" s="84"/>
+      <c r="B24" s="86"/>
+      <c r="C24" s="87"/>
+      <c r="D24" s="87"/>
+      <c r="E24" s="88"/>
     </row>
     <row r="25" spans="1:11">
-      <c r="B25" s="82"/>
-      <c r="C25" s="83"/>
-      <c r="D25" s="83"/>
-      <c r="E25" s="84"/>
+      <c r="B25" s="86"/>
+      <c r="C25" s="87"/>
+      <c r="D25" s="87"/>
+      <c r="E25" s="88"/>
     </row>
     <row r="26" spans="1:11">
-      <c r="B26" s="82"/>
-      <c r="C26" s="83"/>
-      <c r="D26" s="83"/>
-      <c r="E26" s="84"/>
+      <c r="B26" s="86"/>
+      <c r="C26" s="87"/>
+      <c r="D26" s="87"/>
+      <c r="E26" s="88"/>
     </row>
     <row r="27" spans="1:11">
-      <c r="B27" s="85"/>
-      <c r="C27" s="86"/>
-      <c r="D27" s="86"/>
-      <c r="E27" s="87"/>
+      <c r="B27" s="89"/>
+      <c r="C27" s="90"/>
+      <c r="D27" s="90"/>
+      <c r="E27" s="91"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
@@ -4412,8 +4437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="19.5"/>
@@ -4722,10 +4747,12 @@
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="42"/>
-      <c r="E10" s="88" t="s">
+      <c r="E10" s="58" t="s">
         <v>474</v>
       </c>
-      <c r="F10" s="11"/>
+      <c r="F10" s="92" t="s">
+        <v>480</v>
+      </c>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
@@ -4789,48 +4816,48 @@
       <c r="K14" s="18"/>
     </row>
     <row r="15" spans="1:11" ht="14.25" customHeight="1">
-      <c r="B15" s="79" t="s">
+      <c r="B15" s="83" t="s">
         <v>73</v>
       </c>
-      <c r="C15" s="80"/>
-      <c r="D15" s="80"/>
-      <c r="E15" s="81"/>
+      <c r="C15" s="84"/>
+      <c r="D15" s="84"/>
+      <c r="E15" s="85"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="B16" s="82"/>
-      <c r="C16" s="83"/>
-      <c r="D16" s="83"/>
-      <c r="E16" s="84"/>
+      <c r="B16" s="86"/>
+      <c r="C16" s="87"/>
+      <c r="D16" s="87"/>
+      <c r="E16" s="88"/>
     </row>
     <row r="17" spans="2:5">
-      <c r="B17" s="82"/>
-      <c r="C17" s="83"/>
-      <c r="D17" s="83"/>
-      <c r="E17" s="84"/>
+      <c r="B17" s="86"/>
+      <c r="C17" s="87"/>
+      <c r="D17" s="87"/>
+      <c r="E17" s="88"/>
     </row>
     <row r="18" spans="2:5">
-      <c r="B18" s="82"/>
-      <c r="C18" s="83"/>
-      <c r="D18" s="83"/>
-      <c r="E18" s="84"/>
+      <c r="B18" s="86"/>
+      <c r="C18" s="87"/>
+      <c r="D18" s="87"/>
+      <c r="E18" s="88"/>
     </row>
     <row r="19" spans="2:5">
-      <c r="B19" s="82"/>
-      <c r="C19" s="83"/>
-      <c r="D19" s="83"/>
-      <c r="E19" s="84"/>
+      <c r="B19" s="86"/>
+      <c r="C19" s="87"/>
+      <c r="D19" s="87"/>
+      <c r="E19" s="88"/>
     </row>
     <row r="20" spans="2:5">
-      <c r="B20" s="82"/>
-      <c r="C20" s="83"/>
-      <c r="D20" s="83"/>
-      <c r="E20" s="84"/>
+      <c r="B20" s="86"/>
+      <c r="C20" s="87"/>
+      <c r="D20" s="87"/>
+      <c r="E20" s="88"/>
     </row>
     <row r="21" spans="2:5">
-      <c r="B21" s="85"/>
-      <c r="C21" s="86"/>
-      <c r="D21" s="86"/>
-      <c r="E21" s="87"/>
+      <c r="B21" s="89"/>
+      <c r="C21" s="90"/>
+      <c r="D21" s="90"/>
+      <c r="E21" s="91"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
@@ -4875,7 +4902,7 @@
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="19.5"/>
@@ -5153,10 +5180,12 @@
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="42"/>
-      <c r="E9" s="91" t="s">
+      <c r="E9" s="61" t="s">
         <v>475</v>
       </c>
-      <c r="F9" s="11"/>
+      <c r="F9" s="92" t="s">
+        <v>480</v>
+      </c>
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
       <c r="I9" s="11"/>
@@ -5220,48 +5249,48 @@
       <c r="K13" s="18"/>
     </row>
     <row r="14" spans="1:11" ht="14.25" customHeight="1">
-      <c r="B14" s="79" t="s">
+      <c r="B14" s="83" t="s">
         <v>73</v>
       </c>
-      <c r="C14" s="80"/>
-      <c r="D14" s="80"/>
-      <c r="E14" s="81"/>
+      <c r="C14" s="84"/>
+      <c r="D14" s="84"/>
+      <c r="E14" s="85"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="B15" s="82"/>
-      <c r="C15" s="83"/>
-      <c r="D15" s="83"/>
-      <c r="E15" s="84"/>
+      <c r="B15" s="86"/>
+      <c r="C15" s="87"/>
+      <c r="D15" s="87"/>
+      <c r="E15" s="88"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="B16" s="82"/>
-      <c r="C16" s="83"/>
-      <c r="D16" s="83"/>
-      <c r="E16" s="84"/>
+      <c r="B16" s="86"/>
+      <c r="C16" s="87"/>
+      <c r="D16" s="87"/>
+      <c r="E16" s="88"/>
     </row>
     <row r="17" spans="2:5">
-      <c r="B17" s="82"/>
-      <c r="C17" s="83"/>
-      <c r="D17" s="83"/>
-      <c r="E17" s="84"/>
+      <c r="B17" s="86"/>
+      <c r="C17" s="87"/>
+      <c r="D17" s="87"/>
+      <c r="E17" s="88"/>
     </row>
     <row r="18" spans="2:5">
-      <c r="B18" s="82"/>
-      <c r="C18" s="83"/>
-      <c r="D18" s="83"/>
-      <c r="E18" s="84"/>
+      <c r="B18" s="86"/>
+      <c r="C18" s="87"/>
+      <c r="D18" s="87"/>
+      <c r="E18" s="88"/>
     </row>
     <row r="19" spans="2:5">
-      <c r="B19" s="82"/>
-      <c r="C19" s="83"/>
-      <c r="D19" s="83"/>
-      <c r="E19" s="84"/>
+      <c r="B19" s="86"/>
+      <c r="C19" s="87"/>
+      <c r="D19" s="87"/>
+      <c r="E19" s="88"/>
     </row>
     <row r="20" spans="2:5">
-      <c r="B20" s="85"/>
-      <c r="C20" s="86"/>
-      <c r="D20" s="86"/>
-      <c r="E20" s="87"/>
+      <c r="B20" s="89"/>
+      <c r="C20" s="90"/>
+      <c r="D20" s="90"/>
+      <c r="E20" s="91"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
@@ -5306,7 +5335,7 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="19.5"/>
@@ -5646,10 +5675,12 @@
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="42"/>
-      <c r="E11" s="91" t="s">
+      <c r="E11" s="61" t="s">
         <v>476</v>
       </c>
-      <c r="F11" s="11"/>
+      <c r="F11" s="92" t="s">
+        <v>481</v>
+      </c>
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
@@ -5713,48 +5744,48 @@
       <c r="K15" s="18"/>
     </row>
     <row r="16" spans="1:11" ht="14.25" customHeight="1">
-      <c r="B16" s="79" t="s">
+      <c r="B16" s="83" t="s">
         <v>73</v>
       </c>
-      <c r="C16" s="80"/>
-      <c r="D16" s="80"/>
-      <c r="E16" s="81"/>
+      <c r="C16" s="84"/>
+      <c r="D16" s="84"/>
+      <c r="E16" s="85"/>
     </row>
     <row r="17" spans="2:5">
-      <c r="B17" s="82"/>
-      <c r="C17" s="83"/>
-      <c r="D17" s="83"/>
-      <c r="E17" s="84"/>
+      <c r="B17" s="86"/>
+      <c r="C17" s="87"/>
+      <c r="D17" s="87"/>
+      <c r="E17" s="88"/>
     </row>
     <row r="18" spans="2:5">
-      <c r="B18" s="82"/>
-      <c r="C18" s="83"/>
-      <c r="D18" s="83"/>
-      <c r="E18" s="84"/>
+      <c r="B18" s="86"/>
+      <c r="C18" s="87"/>
+      <c r="D18" s="87"/>
+      <c r="E18" s="88"/>
     </row>
     <row r="19" spans="2:5">
-      <c r="B19" s="82"/>
-      <c r="C19" s="83"/>
-      <c r="D19" s="83"/>
-      <c r="E19" s="84"/>
+      <c r="B19" s="86"/>
+      <c r="C19" s="87"/>
+      <c r="D19" s="87"/>
+      <c r="E19" s="88"/>
     </row>
     <row r="20" spans="2:5">
-      <c r="B20" s="82"/>
-      <c r="C20" s="83"/>
-      <c r="D20" s="83"/>
-      <c r="E20" s="84"/>
+      <c r="B20" s="86"/>
+      <c r="C20" s="87"/>
+      <c r="D20" s="87"/>
+      <c r="E20" s="88"/>
     </row>
     <row r="21" spans="2:5">
-      <c r="B21" s="82"/>
-      <c r="C21" s="83"/>
-      <c r="D21" s="83"/>
-      <c r="E21" s="84"/>
+      <c r="B21" s="86"/>
+      <c r="C21" s="87"/>
+      <c r="D21" s="87"/>
+      <c r="E21" s="88"/>
     </row>
     <row r="22" spans="2:5">
-      <c r="B22" s="85"/>
-      <c r="C22" s="86"/>
-      <c r="D22" s="86"/>
-      <c r="E22" s="87"/>
+      <c r="B22" s="89"/>
+      <c r="C22" s="90"/>
+      <c r="D22" s="90"/>
+      <c r="E22" s="91"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
@@ -5799,7 +5830,7 @@
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="19.5"/>
@@ -6201,10 +6232,12 @@
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="42"/>
-      <c r="E13" s="91" t="s">
+      <c r="E13" s="61" t="s">
         <v>477</v>
       </c>
-      <c r="F13" s="11"/>
+      <c r="F13" s="92" t="s">
+        <v>480</v>
+      </c>
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
@@ -6268,48 +6301,48 @@
       <c r="K17" s="18"/>
     </row>
     <row r="18" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B18" s="79" t="s">
+      <c r="B18" s="83" t="s">
         <v>73</v>
       </c>
-      <c r="C18" s="80"/>
-      <c r="D18" s="80"/>
-      <c r="E18" s="81"/>
+      <c r="C18" s="84"/>
+      <c r="D18" s="84"/>
+      <c r="E18" s="85"/>
     </row>
     <row r="19" spans="2:11">
-      <c r="B19" s="82"/>
-      <c r="C19" s="83"/>
-      <c r="D19" s="83"/>
-      <c r="E19" s="84"/>
+      <c r="B19" s="86"/>
+      <c r="C19" s="87"/>
+      <c r="D19" s="87"/>
+      <c r="E19" s="88"/>
     </row>
     <row r="20" spans="2:11">
-      <c r="B20" s="82"/>
-      <c r="C20" s="83"/>
-      <c r="D20" s="83"/>
-      <c r="E20" s="84"/>
+      <c r="B20" s="86"/>
+      <c r="C20" s="87"/>
+      <c r="D20" s="87"/>
+      <c r="E20" s="88"/>
     </row>
     <row r="21" spans="2:11">
-      <c r="B21" s="82"/>
-      <c r="C21" s="83"/>
-      <c r="D21" s="83"/>
-      <c r="E21" s="84"/>
+      <c r="B21" s="86"/>
+      <c r="C21" s="87"/>
+      <c r="D21" s="87"/>
+      <c r="E21" s="88"/>
     </row>
     <row r="22" spans="2:11">
-      <c r="B22" s="82"/>
-      <c r="C22" s="83"/>
-      <c r="D22" s="83"/>
-      <c r="E22" s="84"/>
+      <c r="B22" s="86"/>
+      <c r="C22" s="87"/>
+      <c r="D22" s="87"/>
+      <c r="E22" s="88"/>
     </row>
     <row r="23" spans="2:11">
-      <c r="B23" s="82"/>
-      <c r="C23" s="83"/>
-      <c r="D23" s="83"/>
-      <c r="E23" s="84"/>
+      <c r="B23" s="86"/>
+      <c r="C23" s="87"/>
+      <c r="D23" s="87"/>
+      <c r="E23" s="88"/>
     </row>
     <row r="24" spans="2:11">
-      <c r="B24" s="85"/>
-      <c r="C24" s="86"/>
-      <c r="D24" s="86"/>
-      <c r="E24" s="87"/>
+      <c r="B24" s="89"/>
+      <c r="C24" s="90"/>
+      <c r="D24" s="90"/>
+      <c r="E24" s="91"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
@@ -6353,8 +6386,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="19.5"/>
@@ -6663,10 +6696,12 @@
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="42"/>
-      <c r="E10" s="91" t="s">
+      <c r="E10" s="61" t="s">
         <v>478</v>
       </c>
-      <c r="F10" s="11"/>
+      <c r="F10" s="92" t="s">
+        <v>480</v>
+      </c>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
@@ -6730,48 +6765,48 @@
       <c r="K14" s="18"/>
     </row>
     <row r="15" spans="1:11" ht="14.25" customHeight="1">
-      <c r="B15" s="79" t="s">
+      <c r="B15" s="83" t="s">
         <v>73</v>
       </c>
-      <c r="C15" s="80"/>
-      <c r="D15" s="80"/>
-      <c r="E15" s="81"/>
+      <c r="C15" s="84"/>
+      <c r="D15" s="84"/>
+      <c r="E15" s="85"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="B16" s="82"/>
-      <c r="C16" s="83"/>
-      <c r="D16" s="83"/>
-      <c r="E16" s="84"/>
+      <c r="B16" s="86"/>
+      <c r="C16" s="87"/>
+      <c r="D16" s="87"/>
+      <c r="E16" s="88"/>
     </row>
     <row r="17" spans="2:5">
-      <c r="B17" s="82"/>
-      <c r="C17" s="83"/>
-      <c r="D17" s="83"/>
-      <c r="E17" s="84"/>
+      <c r="B17" s="86"/>
+      <c r="C17" s="87"/>
+      <c r="D17" s="87"/>
+      <c r="E17" s="88"/>
     </row>
     <row r="18" spans="2:5">
-      <c r="B18" s="82"/>
-      <c r="C18" s="83"/>
-      <c r="D18" s="83"/>
-      <c r="E18" s="84"/>
+      <c r="B18" s="86"/>
+      <c r="C18" s="87"/>
+      <c r="D18" s="87"/>
+      <c r="E18" s="88"/>
     </row>
     <row r="19" spans="2:5">
-      <c r="B19" s="82"/>
-      <c r="C19" s="83"/>
-      <c r="D19" s="83"/>
-      <c r="E19" s="84"/>
+      <c r="B19" s="86"/>
+      <c r="C19" s="87"/>
+      <c r="D19" s="87"/>
+      <c r="E19" s="88"/>
     </row>
     <row r="20" spans="2:5">
-      <c r="B20" s="82"/>
-      <c r="C20" s="83"/>
-      <c r="D20" s="83"/>
-      <c r="E20" s="84"/>
+      <c r="B20" s="86"/>
+      <c r="C20" s="87"/>
+      <c r="D20" s="87"/>
+      <c r="E20" s="88"/>
     </row>
     <row r="21" spans="2:5">
-      <c r="B21" s="85"/>
-      <c r="C21" s="86"/>
-      <c r="D21" s="86"/>
-      <c r="E21" s="87"/>
+      <c r="B21" s="89"/>
+      <c r="C21" s="90"/>
+      <c r="D21" s="90"/>
+      <c r="E21" s="91"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
@@ -6815,8 +6850,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="19.5"/>
@@ -7249,10 +7284,12 @@
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="42"/>
-      <c r="E14" s="91" t="s">
+      <c r="E14" s="61" t="s">
         <v>479</v>
       </c>
-      <c r="F14" s="11"/>
+      <c r="F14" s="92" t="s">
+        <v>482</v>
+      </c>
       <c r="G14" s="11"/>
       <c r="H14" s="11"/>
       <c r="I14" s="11"/>
@@ -7316,48 +7353,48 @@
       <c r="K18" s="18"/>
     </row>
     <row r="19" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B19" s="79" t="s">
+      <c r="B19" s="83" t="s">
         <v>73</v>
       </c>
-      <c r="C19" s="80"/>
-      <c r="D19" s="80"/>
-      <c r="E19" s="81"/>
+      <c r="C19" s="84"/>
+      <c r="D19" s="84"/>
+      <c r="E19" s="85"/>
     </row>
     <row r="20" spans="2:11">
-      <c r="B20" s="82"/>
-      <c r="C20" s="83"/>
-      <c r="D20" s="83"/>
-      <c r="E20" s="84"/>
+      <c r="B20" s="86"/>
+      <c r="C20" s="87"/>
+      <c r="D20" s="87"/>
+      <c r="E20" s="88"/>
     </row>
     <row r="21" spans="2:11">
-      <c r="B21" s="82"/>
-      <c r="C21" s="83"/>
-      <c r="D21" s="83"/>
-      <c r="E21" s="84"/>
+      <c r="B21" s="86"/>
+      <c r="C21" s="87"/>
+      <c r="D21" s="87"/>
+      <c r="E21" s="88"/>
     </row>
     <row r="22" spans="2:11">
-      <c r="B22" s="82"/>
-      <c r="C22" s="83"/>
-      <c r="D22" s="83"/>
-      <c r="E22" s="84"/>
+      <c r="B22" s="86"/>
+      <c r="C22" s="87"/>
+      <c r="D22" s="87"/>
+      <c r="E22" s="88"/>
     </row>
     <row r="23" spans="2:11">
-      <c r="B23" s="82"/>
-      <c r="C23" s="83"/>
-      <c r="D23" s="83"/>
-      <c r="E23" s="84"/>
+      <c r="B23" s="86"/>
+      <c r="C23" s="87"/>
+      <c r="D23" s="87"/>
+      <c r="E23" s="88"/>
     </row>
     <row r="24" spans="2:11">
-      <c r="B24" s="82"/>
-      <c r="C24" s="83"/>
-      <c r="D24" s="83"/>
-      <c r="E24" s="84"/>
+      <c r="B24" s="86"/>
+      <c r="C24" s="87"/>
+      <c r="D24" s="87"/>
+      <c r="E24" s="88"/>
     </row>
     <row r="25" spans="2:11">
-      <c r="B25" s="85"/>
-      <c r="C25" s="86"/>
-      <c r="D25" s="86"/>
-      <c r="E25" s="87"/>
+      <c r="B25" s="89"/>
+      <c r="C25" s="90"/>
+      <c r="D25" s="90"/>
+      <c r="E25" s="91"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>

--- a/structure-books_network1.xlsx
+++ b/structure-books_network1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\chilo-producer\chiloPro\chilo001\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CHiLO-Producer_ddd\chiloPro\chilo001\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="series-information" sheetId="37" r:id="rId1"/>
@@ -39,11 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="483">
-  <si>
-    <t>cover</t>
-    <phoneticPr fontId="4"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="913" uniqueCount="491">
   <si>
     <t>main</t>
   </si>
@@ -130,13 +126,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>シリーズ紹介ページのURL</t>
-    <rPh sb="4" eb="6">
-      <t>ショウカイ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>発行者名</t>
     <rPh sb="3" eb="4">
       <t>メイ</t>
@@ -181,10 +170,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>creator</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>publisher</t>
     <phoneticPr fontId="4"/>
   </si>
@@ -205,24 +190,10 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>series-url</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>version</t>
   </si>
   <si>
     <t>↑項目名は変更できません</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>「必要な素材」の「B. 内表紙画像」のファイル名</t>
-    <rPh sb="1" eb="3">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ソザイ</t>
-    </rPh>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -260,8 +231,1607 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
+    <t>表紙画像
+―――――――――――――
+表紙画像のファイル名（表紙画像が無い場合は空白にしてください）</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウシ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>revised</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>改訂版発行日</t>
+    <rPh sb="0" eb="3">
+      <t>カイテイバン</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ハッコウビ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>community</t>
+  </si>
+  <si>
+    <t>video-id</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>書籍の言語</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>* 必須</t>
+    <rPh sb="2" eb="4">
+      <t>ヒッス</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>* 必須
+* 「Copyright」ページに挿入されます。記載しない場合は、項目自体が表示されません。</t>
+    <rPh sb="2" eb="4">
+      <t>ヒッス</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ソウニュウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>CHiLO Bookのシリーズ名</t>
+    <rPh sb="15" eb="16">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>初版発行日</t>
+    <rPh sb="0" eb="2">
+      <t>ショハン</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ハッコウビ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>* 「はじめにお読みください」セクションの「シリーズの紹介」ページに挿入されます。</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>著者名</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>section（必須）</t>
+    <rPh sb="8" eb="10">
+      <t>ヒッス</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>topic</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>structure-books.xlsxのバージョン</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>（必須）巻数
+──────
+「vol-数字」
+の形式で順に記載します。</t>
+    <rPh sb="1" eb="3">
+      <t>ヒッス</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>サッスウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ジュン</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>series-name</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>各CHiLO Bookの概要
+────────────
+「はじめにお読みください」セクションの「ブック概要」に挿入されます。</t>
+    <rPh sb="0" eb="1">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>ソウニュウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>セクションタイトル
+────────</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ページのメインコンテンツ
+────────────
+page-typeによって指定するメインコンテンツが違います。
+document…解説ビデオのファイル名
+test…MoodleクイズのURL</t>
+    <rPh sb="39" eb="41">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>チガ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>カイセツ</t>
+    </rPh>
+    <rPh sb="77" eb="78">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Javascriptのファイル名
+─────
+ページに組み込むJavascriptのファイル名を記入してください。</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ページタイプ
+──────
+ページのタイプ
+document
+…ビデオ解説ページ
+test
+…クイズページ
+小文字で入力してください。</t>
+    <rPh sb="35" eb="37">
+      <t>カイセツ</t>
+    </rPh>
+    <rPh sb="54" eb="57">
+      <t>コモジ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>SNSのURL
+────────────
+Facebook、Twitter、Moodleフォーラムなど、任意のSNSを学習コミュニティとして指定できます。
+記載しない場合は、コミュニティアイコンが表示されません。</t>
+    <rPh sb="52" eb="54">
+      <t>ニンイ</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="83" eb="85">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="98" eb="100">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>* 必須　authors.xlsxのシート名と一致させてください。</t>
+    <rPh sb="2" eb="4">
+      <t>ヒッス</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>・ シリーズに関する情報を記載するシートです。
+・ 色のついているセルは必須項目です。
+・ 変更してはいけないセルに保護がかかっています。シートの保護解除のパスワードはつけていません。</t>
+  </si>
+  <si>
+    <t>・ シリーズの各ブックに関する情報を記載するシートです。
+・ 色のついているセルは必須項目です。
+・ 制作するブックの冊数分だけ、行を挿入して必要事項を記載ください。
+・ 変更してはいけないセルに保護がかかっています。シートの保護解除のパスワードはつけていません。</t>
+  </si>
+  <si>
+    <t>コミュニティの表示
+──────────
+ページのコミュニティリンクボタンの表示非表示を指定できます。リンクボタンの表示する場合は、「TRUE」とします。book-listシートのcommunity-url項目を記載した場合のみ有効です。</t>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="106" eb="108">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="110" eb="112">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>解説ビデオサムネイルのファイル名
+────────────
+page-type項目を「document」とした場合のみ有効です。</t>
+    <rPh sb="0" eb="2">
+      <t>カイセツ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>解説文のファイル名
+─────
+page-type項目を「document」とした場合のみ有効です。</t>
+    <rPh sb="0" eb="2">
+      <t>カイセツ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t xml:space="preserve">・ ブックの解説ページと確認テストページに関するシートです。
+・ 色のついているセルは必須項目です。
+・ page-typeを指定して、行を追加するとCHiLO Bookのページが追加されます。
+・ ブックの数だけ書籍構成シートをコピーして、1冊のブックにつき1シート作成します。
+・ シート名は、book-listの「vol」の列と一致させてください。
+・変更してはいけないセルに保護がかかっています。シートの保護解除のパスワードはつけていません。
+</t>
+  </si>
+  <si>
+    <t>トピックタイトル
+───────
+page-type項目を「document」とした場合のみ有効です。「test」とした場合は記載する必要がありません。</t>
+    <rPh sb="63" eb="65">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>CCのライセンス
+────────
+CCライセンスでない場合は記載する必要がありません。</t>
+    <rPh sb="28" eb="30">
+      <t>ナイバアイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>CHiLO Bookのタイトル
+────────────
+実際の書先タイトルは、
+「series-name 第n章 book-title」
+となります。series-nameは、series-informationシートのseries-name項目です。
+例）はじめての情報ネットワークI 第1章インターネットの歴史とビットの復習
+この書籍タイトルは、content.opfに設定されるほか、「Copyright」ページに挿入されます。</t>
+    <rPh sb="10" eb="11">
+      <t>ホンンオ</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>ショウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>あくまでも、structure-books.xlsxファイルの管理用であり、CHiLO Bookの書き出しには使われていません。ご自由に設定ください。</t>
+  </si>
+  <si>
+    <t>* 必須　ja, enなど、言語をRFC 5646形式で記載します。</t>
+    <rPh sb="2" eb="4">
+      <t>ヒッス</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ゲンゴ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>はじめての情報ネットワークⅠ</t>
+  </si>
+  <si>
+    <t>本書の主題と目標は、インターネットを主体としたネットワークについて深く理解をすることです。
+今やインターネットは地球規模のネットワークに成長しています。例えば、パソコンなど小さなコンピュータから、サーバと言われる大規模で強力なコンピュータまでネットワークにつながっています。また最近では、携帯電話や一般の電話もネットワークにつながっている時代です。さらに最近では、家電製品までもがインターネットにつながるようになりつつあります。
+まずは、ネットワークを理解して、セキュリティについても学習しましょう。</t>
+  </si>
+  <si>
+    <t>vol-1</t>
+  </si>
+  <si>
+    <t>インターネットの歴史とビットの復習</t>
+    <rPh sb="8" eb="10">
+      <t>レキシ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>フクシュウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>urn:uuid:41fe5bb9-686f-47dd-8197-61fc9f817bcd</t>
+  </si>
+  <si>
+    <t>vol-2</t>
+  </si>
+  <si>
+    <t>IPアドレスとネットワークアドレス</t>
+  </si>
+  <si>
+    <t>001_cover_image_2.png</t>
+  </si>
+  <si>
+    <t>urn:uuid:605c25a1-07a6-4a65-81a4-95cd77ba86b8</t>
+  </si>
+  <si>
+    <t>vol-3</t>
+  </si>
+  <si>
+    <t>ネットワークとデフォルトゲートウェイ</t>
+  </si>
+  <si>
+    <t>001_cover_image_3.png</t>
+  </si>
+  <si>
+    <t>urn:uuid:1a060993-7cab-4f91-896d-195da30a1978</t>
+  </si>
+  <si>
+    <t>vol-4</t>
+  </si>
+  <si>
+    <t>ルータとルーティング</t>
+  </si>
+  <si>
+    <t>001_cover_image_4.png</t>
+  </si>
+  <si>
+    <t>urn:uuid:1842b29a-b875-4a6e-9580-0ba33d193d46</t>
+  </si>
+  <si>
+    <t>vol-5</t>
+  </si>
+  <si>
+    <t>MACアドレス、IPアドレス、ネットワーク各種コマンド</t>
+  </si>
+  <si>
+    <t>001_cover_image_5.png</t>
+  </si>
+  <si>
+    <t>urn:uuid:c603ba2c-a8f7-4855-a3f6-ad530da05ded</t>
+  </si>
+  <si>
+    <t>vol-6</t>
+  </si>
+  <si>
+    <t>無線LAN</t>
+  </si>
+  <si>
+    <t>001_cover_image_6.png</t>
+  </si>
+  <si>
+    <t>urn:uuid:9c815d35-585b-4209-b87a-0621c76dac5c</t>
+  </si>
+  <si>
+    <t>vol-7</t>
+  </si>
+  <si>
+    <t>ADSL、NAT、NAPT</t>
+  </si>
+  <si>
+    <t>001_cover_image_7.png</t>
+  </si>
+  <si>
+    <t>urn:uuid:303974f7-bac7-4e31-9a39-470bf6a4380f</t>
+  </si>
+  <si>
+    <t>document</t>
+  </si>
+  <si>
+    <t>インターネットの歴史</t>
+    <rPh sb="8" eb="10">
+      <t>レキシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>戦争が作ったインターネット</t>
+  </si>
+  <si>
+    <t>TRUE</t>
+  </si>
+  <si>
+    <t>001m_0101.mp4</t>
+  </si>
+  <si>
+    <t>001m_0101.png</t>
+  </si>
+  <si>
+    <t>hT7vw_D-GXg</t>
+  </si>
+  <si>
+    <t>スプートニックショック</t>
+  </si>
+  <si>
+    <t>001m_0102.mp4</t>
+  </si>
+  <si>
+    <t>001m_0102.png</t>
+  </si>
+  <si>
+    <t>4C-Yl_PJCIw</t>
+  </si>
+  <si>
+    <t>中央集約型ネットワーク</t>
+  </si>
+  <si>
+    <t>001m_0103.mp4</t>
+  </si>
+  <si>
+    <t>001m_0103.png</t>
+  </si>
+  <si>
+    <t>XfN90SUtMQE</t>
+  </si>
+  <si>
+    <t>分散型ネットワークの登場</t>
+  </si>
+  <si>
+    <t>001m_0104.mp4</t>
+  </si>
+  <si>
+    <t>001m_0104.png</t>
+  </si>
+  <si>
+    <t>yjyoKzAbEUM</t>
+  </si>
+  <si>
+    <t>ルータの役割</t>
+  </si>
+  <si>
+    <t>001m_0105.mp4</t>
+  </si>
+  <si>
+    <t>001m_0105.png</t>
+  </si>
+  <si>
+    <t>JbxJomDCEjo</t>
+  </si>
+  <si>
+    <t>コンピュータが作られた背景</t>
+  </si>
+  <si>
+    <t>001m_0106.mp4</t>
+  </si>
+  <si>
+    <t>001m_0106.png</t>
+  </si>
+  <si>
+    <t>djA5g6ee6e4</t>
+  </si>
+  <si>
+    <t>コンピュートニック</t>
+  </si>
+  <si>
+    <t>001m_0107.mp4</t>
+  </si>
+  <si>
+    <t>001m_0107.png</t>
+  </si>
+  <si>
+    <t>XXVlWce8MBo</t>
+  </si>
+  <si>
+    <t>地球シミュレータ</t>
+  </si>
+  <si>
+    <t>001m_0108.mp4</t>
+  </si>
+  <si>
+    <t>001m_0108.png</t>
+  </si>
+  <si>
+    <t>y4-41rFGdmI</t>
+  </si>
+  <si>
+    <t>ビットの復習</t>
+  </si>
+  <si>
+    <t>ビット</t>
+  </si>
+  <si>
+    <t>001m_0109.mp4</t>
+  </si>
+  <si>
+    <t>001m_0109.png</t>
+  </si>
+  <si>
+    <t>FTcGkjv50Bk</t>
+  </si>
+  <si>
+    <t>3桁2進数</t>
+  </si>
+  <si>
+    <t>001m_0110.mp4</t>
+  </si>
+  <si>
+    <t>001m_0110.png</t>
+  </si>
+  <si>
+    <t>UfgFifcmjU0</t>
+  </si>
+  <si>
+    <t>ビットで表現できる数の種類</t>
+  </si>
+  <si>
+    <t>001m_0111.mp4</t>
+  </si>
+  <si>
+    <t>001m_0111.png</t>
+  </si>
+  <si>
+    <t>FrjDuHqH1E4</t>
+  </si>
+  <si>
+    <t>2進数と10進数の変換</t>
+  </si>
+  <si>
+    <t>001m_0112.mp4</t>
+  </si>
+  <si>
+    <t>001m_0112.png</t>
+  </si>
+  <si>
+    <t>mpFgXpQ2tSs</t>
+  </si>
+  <si>
+    <t>10進数の対応</t>
+  </si>
+  <si>
+    <t>001m_0113.mp4</t>
+  </si>
+  <si>
+    <t>001m_0113.png</t>
+  </si>
+  <si>
+    <t>ZHTOQLNQCng</t>
+  </si>
+  <si>
+    <t>10進数から2進数への変換</t>
+  </si>
+  <si>
+    <t>001m_0114.mp4</t>
+  </si>
+  <si>
+    <t>001m_0114.png</t>
+  </si>
+  <si>
+    <t>85l1JkRzTDg</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>章末テスト</t>
+    <rPh sb="0" eb="2">
+      <t>ショウマツ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>IPアドレス、ネットワークアドレス</t>
+  </si>
+  <si>
+    <t>1章の復習</t>
+  </si>
+  <si>
+    <t>001m_0201.mp4</t>
+  </si>
+  <si>
+    <t>001m_0201.png</t>
+  </si>
+  <si>
+    <t>-tumki-skDM</t>
+  </si>
+  <si>
+    <t>IPアドレス</t>
+  </si>
+  <si>
+    <t>001m_0202.mp4</t>
+  </si>
+  <si>
+    <t>001m_0202.png</t>
+  </si>
+  <si>
+    <t>ev3RTZF2nVQ</t>
+  </si>
+  <si>
+    <t>オクテット表記</t>
+  </si>
+  <si>
+    <t>001m_0203.mp4</t>
+  </si>
+  <si>
+    <t>001m_0203.png</t>
+  </si>
+  <si>
+    <t>qsr0Gvyanu0</t>
+  </si>
+  <si>
+    <t>IPアドレスにおける注意点</t>
+  </si>
+  <si>
+    <t>001m_0204.mp4</t>
+  </si>
+  <si>
+    <t>001m_0204.png</t>
+  </si>
+  <si>
+    <t>s0zkVT-4Idw</t>
+  </si>
+  <si>
+    <t>IPアドレスの意味</t>
+  </si>
+  <si>
+    <t>001m_0205.mp4</t>
+  </si>
+  <si>
+    <t>001m_0205.png</t>
+  </si>
+  <si>
+    <t>AzE0D3KnfVE</t>
+  </si>
+  <si>
+    <t>ネットワーク部とホスト部</t>
+  </si>
+  <si>
+    <t>001m_0206.mp4</t>
+  </si>
+  <si>
+    <t>001m_0206.png</t>
+  </si>
+  <si>
+    <t>5rHM4FQZy30</t>
+  </si>
+  <si>
+    <t>ネットマスク</t>
+  </si>
+  <si>
+    <t>001m_0207.mp4</t>
+  </si>
+  <si>
+    <t>001m_0207.png</t>
+  </si>
+  <si>
+    <t>7wVBlai6Ffo</t>
+  </si>
+  <si>
+    <t>ネットワークアドレスの計算</t>
+  </si>
+  <si>
+    <t>001m_0208.mp4</t>
+  </si>
+  <si>
+    <t>001m_0208.png</t>
+  </si>
+  <si>
+    <t>4VDDJ8rRidk</t>
+  </si>
+  <si>
+    <t>2章の復習</t>
+  </si>
+  <si>
+    <t>001m_0301.mp4</t>
+  </si>
+  <si>
+    <t>001m_0301.png</t>
+  </si>
+  <si>
+    <t>AWPovePCCJQ</t>
+  </si>
+  <si>
+    <t>ネットワーク</t>
+  </si>
+  <si>
+    <t>001m_0302.mp4</t>
+  </si>
+  <si>
+    <t>001m_0302.png</t>
+  </si>
+  <si>
+    <t>Z6miHmbWgEQ</t>
+  </si>
+  <si>
+    <t>ネットワークアドレスとネットワーク</t>
+  </si>
+  <si>
+    <t>001m_0303.mp4</t>
+  </si>
+  <si>
+    <t>001m_0303.png</t>
+  </si>
+  <si>
+    <t>E-4Uqm9dV80</t>
+  </si>
+  <si>
+    <t>ルータ</t>
+  </si>
+  <si>
+    <t>001m_0304.mp4</t>
+  </si>
+  <si>
+    <t>001m_0304.png</t>
+  </si>
+  <si>
+    <t>iLHWADNF-kQ</t>
+  </si>
+  <si>
+    <t>ルータの必要性</t>
+  </si>
+  <si>
+    <t>001m_0305.mp4</t>
+  </si>
+  <si>
+    <t>001m_0305.png</t>
+  </si>
+  <si>
+    <t>8KVqUud2quE</t>
+  </si>
+  <si>
+    <t>ネットワークについて考える</t>
+  </si>
+  <si>
+    <t>001m_0306.mp4</t>
+  </si>
+  <si>
+    <t>001m_0306.png</t>
+  </si>
+  <si>
+    <t>I5-3Vy9prTQ</t>
+  </si>
+  <si>
+    <t>ネットワーク通信に必要な3情報</t>
+  </si>
+  <si>
+    <t>001m_0307.mp4</t>
+  </si>
+  <si>
+    <t>001m_0307.png</t>
+  </si>
+  <si>
+    <t>oZPID58cnfw</t>
+  </si>
+  <si>
+    <t>ルータ、ルーティング</t>
+  </si>
+  <si>
+    <t>3章の復習</t>
+  </si>
+  <si>
+    <t>001m_0401.mp4</t>
+  </si>
+  <si>
+    <t>001m_0401.png</t>
+  </si>
+  <si>
+    <t>iL4NA45DSwc</t>
+  </si>
+  <si>
+    <t>経由するルータ</t>
+  </si>
+  <si>
+    <t>001m_0402.mp4</t>
+  </si>
+  <si>
+    <t>001m_0402.png</t>
+  </si>
+  <si>
+    <t>fukDX2dQU7g</t>
+  </si>
+  <si>
+    <t>ルータの2つの仕事</t>
+  </si>
+  <si>
+    <t>001m_0403.mp4</t>
+  </si>
+  <si>
+    <t>001m_0403.png</t>
+  </si>
+  <si>
+    <t>GXCwBgjNcG0</t>
+  </si>
+  <si>
+    <t>ルーティングテーブル</t>
+  </si>
+  <si>
+    <t>001m_0404.mp4</t>
+  </si>
+  <si>
+    <t>001m_0404.png</t>
+  </si>
+  <si>
+    <t>hfLrDnzGWpk</t>
+  </si>
+  <si>
+    <t>スタティックルーティング</t>
+  </si>
+  <si>
+    <t>001m_0405.mp4</t>
+  </si>
+  <si>
+    <t>001m_0405.png</t>
+  </si>
+  <si>
+    <t>bM6vuuP7exs</t>
+  </si>
+  <si>
+    <t>ダイナミックルーティング</t>
+  </si>
+  <si>
+    <t>001m_0406.mp4</t>
+  </si>
+  <si>
+    <t>001m_0406.png</t>
+  </si>
+  <si>
+    <t>yW5LD12OZzQ</t>
+  </si>
+  <si>
+    <t>ルーティングテーブルの長所と短所</t>
+  </si>
+  <si>
+    <t>001m_0407.mp4</t>
+  </si>
+  <si>
+    <t>001m_0407.png</t>
+  </si>
+  <si>
+    <t>C772_GuvH-o</t>
+  </si>
+  <si>
+    <t>ネットワークが3つある場合のルーティングテーブル</t>
+  </si>
+  <si>
+    <t>001m_0408.mp4</t>
+  </si>
+  <si>
+    <t>001m_0408.png</t>
+  </si>
+  <si>
+    <t>vKk-ab2vTTY</t>
+  </si>
+  <si>
+    <t>ネットワークが5つある場合のルーティングテーブル</t>
+  </si>
+  <si>
+    <t>001m_0409.mp4</t>
+  </si>
+  <si>
+    <t>001m_0409.png</t>
+  </si>
+  <si>
+    <t>3ZIteN2E4mI</t>
+  </si>
+  <si>
+    <t>MACアドレス、IPアドレス、ネットワーク各種コマンド</t>
+    <rPh sb="21" eb="23">
+      <t>カクシュ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2段階のアドレス</t>
+  </si>
+  <si>
+    <t>001m_0501.mp4</t>
+  </si>
+  <si>
+    <t>001m_0501.png</t>
+  </si>
+  <si>
+    <t>W68zFlYorKI</t>
+  </si>
+  <si>
+    <t>手紙の例で2段階のアドレスを理解する</t>
+  </si>
+  <si>
+    <t>001m_0502.mp4</t>
+  </si>
+  <si>
+    <t>001m_0502.png</t>
+  </si>
+  <si>
+    <t>xDIjC3w3nDU</t>
+  </si>
+  <si>
+    <t>宛先IPアドレスと送信元IPアドレス</t>
+  </si>
+  <si>
+    <t>001m_0503.mp4</t>
+  </si>
+  <si>
+    <t>001m_0503.png</t>
+  </si>
+  <si>
+    <t>yZaPPX5mEfA</t>
+  </si>
+  <si>
+    <t>IPアドレスとMACアドレス</t>
+  </si>
+  <si>
+    <t>001m_0504.mp4</t>
+  </si>
+  <si>
+    <t>001m_0504.png</t>
+  </si>
+  <si>
+    <t>WluNZs15-rI</t>
+  </si>
+  <si>
+    <t>MACアドレス</t>
+  </si>
+  <si>
+    <t>001m_0505.mp4</t>
+  </si>
+  <si>
+    <t>001m_0505.png</t>
+  </si>
+  <si>
+    <t>FFHMUi0JauE</t>
+  </si>
+  <si>
+    <t>同一ネットワークの場合</t>
+  </si>
+  <si>
+    <t>001m_0506.mp4</t>
+  </si>
+  <si>
+    <t>001m_0506.png</t>
+  </si>
+  <si>
+    <t>jLLRdoRB3HU</t>
+  </si>
+  <si>
+    <t>異なるネットワークの場合</t>
+  </si>
+  <si>
+    <t>001m_0507.mp4</t>
+  </si>
+  <si>
+    <t>001m_0507.png</t>
+  </si>
+  <si>
+    <t>NJM69Iszv_Q</t>
+  </si>
+  <si>
+    <t>カプセル化</t>
+  </si>
+  <si>
+    <t>001m_0508.mp4</t>
+  </si>
+  <si>
+    <t>001m_0508.png</t>
+  </si>
+  <si>
+    <t>uqGK8is9n1I</t>
+  </si>
+  <si>
+    <t>MACアドレスを知る仕組み（ARP）</t>
+  </si>
+  <si>
+    <t>001m_0509.mp4</t>
+  </si>
+  <si>
+    <t>001m_0509.png</t>
+  </si>
+  <si>
+    <t>yiHlY92w9zs</t>
+  </si>
+  <si>
+    <t>ネットワークコマンド：ipconfig</t>
+  </si>
+  <si>
+    <t>001m_0510.mp4</t>
+  </si>
+  <si>
+    <t>001m_0510.png</t>
+  </si>
+  <si>
+    <t>MhPx_MgLpHQ</t>
+  </si>
+  <si>
+    <t>ネットワークコマンド：ping, arp, tracert, nslookup</t>
+  </si>
+  <si>
+    <t>001m_0511.mp4</t>
+  </si>
+  <si>
+    <t>001m_0511.png</t>
+  </si>
+  <si>
+    <t>SPd9rX6LeT4</t>
+  </si>
+  <si>
+    <t>無線LAN</t>
+    <rPh sb="0" eb="2">
+      <t>ムセン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>有線LANと無線LAN</t>
+  </si>
+  <si>
+    <t>001m_0601.mp4</t>
+  </si>
+  <si>
+    <t>001m_0601.png</t>
+  </si>
+  <si>
+    <t>8dEPL45ottk</t>
+  </si>
+  <si>
+    <t>無線LANの規格</t>
+  </si>
+  <si>
+    <t>001m_0602.mp4</t>
+  </si>
+  <si>
+    <t>001m_0602.png</t>
+  </si>
+  <si>
+    <t>iEe9dV-55eA</t>
+  </si>
+  <si>
+    <t>11b, 11a, 11g</t>
+  </si>
+  <si>
+    <t>001m_0603.mp4</t>
+  </si>
+  <si>
+    <t>001m_0603.png</t>
+  </si>
+  <si>
+    <t>L_LhQayZMDE</t>
+  </si>
+  <si>
+    <t>無線LANの弱点</t>
+  </si>
+  <si>
+    <t>001m_0604.mp4</t>
+  </si>
+  <si>
+    <t>001m_0604.png</t>
+  </si>
+  <si>
+    <t>Bc5G-repgb4</t>
+  </si>
+  <si>
+    <t>SSID</t>
+  </si>
+  <si>
+    <t>001m_0605.mp4</t>
+  </si>
+  <si>
+    <t>001m_0605.png</t>
+  </si>
+  <si>
+    <t>uReZCaIPQZE</t>
+  </si>
+  <si>
+    <t>MACアドレスフィルタリング</t>
+  </si>
+  <si>
+    <t>001m_0606.mp4</t>
+  </si>
+  <si>
+    <t>001m_0606.png</t>
+  </si>
+  <si>
+    <t>9FkPyeYrdCU</t>
+  </si>
+  <si>
+    <t>IEEE 802.1X</t>
+  </si>
+  <si>
+    <t>001m_0607.mp4</t>
+  </si>
+  <si>
+    <t>001m_0607.png</t>
+  </si>
+  <si>
+    <t>g7LgfsDWfmQ</t>
+  </si>
+  <si>
+    <t>無線LANセキュリティ</t>
+  </si>
+  <si>
+    <t>001m_0608.mp4</t>
+  </si>
+  <si>
+    <t>001m_0608.png</t>
+  </si>
+  <si>
+    <t>KnNJTUYCAjg</t>
+  </si>
+  <si>
+    <t>自宅でインターネット、ADSL</t>
+  </si>
+  <si>
+    <t>001m_0701.mp4</t>
+  </si>
+  <si>
+    <t>001m_0701.png</t>
+  </si>
+  <si>
+    <t>v1-VoqRjxho</t>
+  </si>
+  <si>
+    <t>電話線を使った接続</t>
+  </si>
+  <si>
+    <t>001m_0702.mp4</t>
+  </si>
+  <si>
+    <t>001m_0702.png</t>
+  </si>
+  <si>
+    <t>5wgAenzPvcQ</t>
+  </si>
+  <si>
+    <t>電話線と周波数</t>
+  </si>
+  <si>
+    <t>001m_0703.mp4</t>
+  </si>
+  <si>
+    <t>001m_0703.png</t>
+  </si>
+  <si>
+    <t>AZVCJ_5k7Pg</t>
+  </si>
+  <si>
+    <t>DSL（Digital Subscriber Line）</t>
+  </si>
+  <si>
+    <t>001m_0704.mp4</t>
+  </si>
+  <si>
+    <t>001m_0704.png</t>
+  </si>
+  <si>
+    <t>_hrbvONQldY</t>
+  </si>
+  <si>
+    <t>アナログデジタル変換</t>
+  </si>
+  <si>
+    <t>001m_0705.mp4</t>
+  </si>
+  <si>
+    <t>001m_0705.png</t>
+  </si>
+  <si>
+    <t>aiMan1tmZwM</t>
+  </si>
+  <si>
+    <t>スプリッタ</t>
+  </si>
+  <si>
+    <t>001m_0706.mp4</t>
+  </si>
+  <si>
+    <t>001m_0706.png</t>
+  </si>
+  <si>
+    <t>hSm9roeLXT0</t>
+  </si>
+  <si>
+    <t>NAT（Network Address Translation）</t>
+  </si>
+  <si>
+    <t>001m_0707.mp4</t>
+  </si>
+  <si>
+    <t>001m_0707.png</t>
+  </si>
+  <si>
+    <t>w3tXjIv2CRg</t>
+  </si>
+  <si>
+    <t>NATの例</t>
+  </si>
+  <si>
+    <t>001m_0708.mp4</t>
+  </si>
+  <si>
+    <t>001m_0708.png</t>
+  </si>
+  <si>
+    <t>eXqezXzbLsA</t>
+  </si>
+  <si>
+    <t>NATの弱点</t>
+  </si>
+  <si>
+    <t>001m_0709.mp4</t>
+  </si>
+  <si>
+    <t>001m_0709.png</t>
+  </si>
+  <si>
+    <t>TQ0EzmoLTn8</t>
+  </si>
+  <si>
+    <t>NAPT（Network Address Port Translation）</t>
+  </si>
+  <si>
+    <t>001m_0710.mp4</t>
+  </si>
+  <si>
+    <t>001m_0710.png</t>
+  </si>
+  <si>
+    <t>nMCZZyEm5Lw</t>
+  </si>
+  <si>
+    <t>IPアドレスを複数のPCで利用する</t>
+  </si>
+  <si>
+    <t>001m_0711.mp4</t>
+  </si>
+  <si>
+    <t>001m_0711.png</t>
+  </si>
+  <si>
+    <t>_wEQ5AWGrXA</t>
+  </si>
+  <si>
+    <t>プライベートIPアドレス</t>
+  </si>
+  <si>
+    <t>001m_0712.mp4</t>
+  </si>
+  <si>
+    <t>001m_0712.png</t>
+  </si>
+  <si>
+    <t>uFpGIB26QUk</t>
+  </si>
+  <si>
+    <t>vol-001-011.txt</t>
+  </si>
+  <si>
+    <t>vol-001-012.txt</t>
+  </si>
+  <si>
+    <t>vol-001-013.txt</t>
+  </si>
+  <si>
+    <t>vol-001-014.txt</t>
+  </si>
+  <si>
+    <t>vol-001-015.txt</t>
+  </si>
+  <si>
+    <t>vol-001-016.txt</t>
+  </si>
+  <si>
+    <t>vol-001-017.txt</t>
+  </si>
+  <si>
+    <t>vol-001-018.txt</t>
+  </si>
+  <si>
+    <t>vol-001-020.txt</t>
+  </si>
+  <si>
+    <t>vol-001-021.txt</t>
+  </si>
+  <si>
+    <t>vol-001-022.txt</t>
+  </si>
+  <si>
+    <t>vol-001-023.txt</t>
+  </si>
+  <si>
+    <t>vol-001-024.txt</t>
+  </si>
+  <si>
+    <t>vol-001-025.txt</t>
+  </si>
+  <si>
+    <t>vol-002-011.txt</t>
+  </si>
+  <si>
+    <t>vol-002-012.txt</t>
+  </si>
+  <si>
+    <t>vol-002-013.txt</t>
+  </si>
+  <si>
+    <t>vol-002-014.txt</t>
+  </si>
+  <si>
+    <t>vol-002-015.txt</t>
+  </si>
+  <si>
+    <t>vol-002-016.txt</t>
+  </si>
+  <si>
+    <t>vol-002-017.txt</t>
+  </si>
+  <si>
+    <t>vol-002-018.txt</t>
+  </si>
+  <si>
+    <t>vol-003-011.txt</t>
+  </si>
+  <si>
+    <t>vol-003-012.txt</t>
+  </si>
+  <si>
+    <t>vol-003-013.txt</t>
+  </si>
+  <si>
+    <t>vol-003-014.txt</t>
+  </si>
+  <si>
+    <t>vol-003-015.txt</t>
+  </si>
+  <si>
+    <t>vol-003-016.txt</t>
+  </si>
+  <si>
+    <t>vol-003-017.txt</t>
+  </si>
+  <si>
+    <t>vol-004-011.txt</t>
+  </si>
+  <si>
+    <t>vol-004-012.txt</t>
+  </si>
+  <si>
+    <t>vol-004-013.txt</t>
+  </si>
+  <si>
+    <t>vol-004-014.txt</t>
+  </si>
+  <si>
+    <t>vol-004-015.txt</t>
+  </si>
+  <si>
+    <t>vol-004-016.txt</t>
+  </si>
+  <si>
+    <t>vol-004-017.txt</t>
+  </si>
+  <si>
+    <t>vol-004-018.txt</t>
+  </si>
+  <si>
+    <t>vol-004-019.txt</t>
+  </si>
+  <si>
+    <t>vol-005-011.txt</t>
+  </si>
+  <si>
+    <t>vol-005-012.txt</t>
+  </si>
+  <si>
+    <t>vol-005-013.txt</t>
+  </si>
+  <si>
+    <t>vol-005-014.txt</t>
+  </si>
+  <si>
+    <t>vol-005-015.txt</t>
+  </si>
+  <si>
+    <t>vol-005-016.txt</t>
+  </si>
+  <si>
+    <t>vol-005-017.txt</t>
+  </si>
+  <si>
+    <t>vol-005-018.txt</t>
+  </si>
+  <si>
+    <t>vol-005-019.txt</t>
+  </si>
+  <si>
+    <t>vol-005-020.txt</t>
+  </si>
+  <si>
+    <t>vol-005-021.txt</t>
+  </si>
+  <si>
+    <t>vol-006-011.txt</t>
+  </si>
+  <si>
+    <t>vol-006-012.txt</t>
+  </si>
+  <si>
+    <t>vol-006-013.txt</t>
+  </si>
+  <si>
+    <t>vol-006-014.txt</t>
+  </si>
+  <si>
+    <t>vol-006-015.txt</t>
+  </si>
+  <si>
+    <t>vol-006-016.txt</t>
+  </si>
+  <si>
+    <t>vol-006-017.txt</t>
+  </si>
+  <si>
+    <t>vol-006-018.txt</t>
+  </si>
+  <si>
+    <t>vol-007-011.txt</t>
+  </si>
+  <si>
+    <t>vol-007-012.txt</t>
+  </si>
+  <si>
+    <t>vol-007-013.txt</t>
+  </si>
+  <si>
+    <t>vol-007-014.txt</t>
+  </si>
+  <si>
+    <t>vol-007-015.txt</t>
+  </si>
+  <si>
+    <t>vol-007-016.txt</t>
+  </si>
+  <si>
+    <t>vol-007-017.txt</t>
+  </si>
+  <si>
+    <t>vol-007-018.txt</t>
+  </si>
+  <si>
+    <t>vol-007-019.txt</t>
+  </si>
+  <si>
+    <t>vol-007-020.txt</t>
+  </si>
+  <si>
+    <t>vol-007-021.txt</t>
+  </si>
+  <si>
+    <t>vol-007-022.txt</t>
+  </si>
+  <si>
+    <t>（必須）CHiLO BookのユニークID。
+──────────────────
+content.opfに設定されます。</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>identifier（必須）</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>http://chilos.jp/en/c/?c=1</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>http://chilos.jp/en/c/?c=1</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>https://dev.chilos.jp/mod/quiz/view.php?id=1058</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>https://dev.chilos.jp/mod/quiz/view.php?id=1060</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>https://dev.chilos.jp/mod/quiz/view.php?id=1061</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>https://dev.chilos.jp/mod/quiz/view.php?id=1062</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>https://dev.chilos.jp/mod/quiz/view.php?id=1063</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>https://dev.chilos.jp/mod/quiz/view.php?id=1064</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>https://dev.chilos.jp/mod/quiz/view.php?id=1065</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>b_quiz.png</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>b_quiz.png</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>b_quiz.png</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>language</t>
+  </si>
+  <si>
+    <t>publisher</t>
+  </si>
+  <si>
+    <t>editor</t>
+  </si>
+  <si>
+    <t>published</t>
+  </si>
+  <si>
+    <t>revised</t>
+  </si>
+  <si>
+    <t>rights</t>
+  </si>
+  <si>
     <r>
-      <t>c</t>
+      <t>b</t>
     </r>
     <r>
       <rPr>
@@ -272,84 +1842,56 @@
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>over</t>
+      <t>ook-cover</t>
     </r>
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>表紙画像
-―――――――――――――
-表紙画像のファイル名（表紙画像が無い場合は空白にしてください）</t>
-    <rPh sb="0" eb="2">
-      <t>ヒョウシ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ガゾウ</t>
-    </rPh>
+    <r>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>uthor</t>
+    </r>
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>revised</t>
+    <r>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>uthor</t>
+    </r>
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>改訂版発行日</t>
-    <rPh sb="0" eb="3">
-      <t>カイテイバン</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>ハッコウビ</t>
-    </rPh>
+    <t>series-url</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>community</t>
-  </si>
-  <si>
-    <t>video-id</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>書籍の言語</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>* 必須</t>
-    <rPh sb="2" eb="4">
-      <t>ヒッス</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>* 必須
-* 「Copyright」ページに挿入されます。記載しない場合は、項目自体が表示されません。</t>
-    <rPh sb="2" eb="4">
-      <t>ヒッス</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ソウニュウ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>CHiLO Bookのシリーズ名</t>
-    <rPh sb="15" eb="16">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>初版発行日</t>
-    <rPh sb="0" eb="2">
-      <t>ショハン</t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t>ハッコウビ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>* 「はじめにお読みください」セクションの「シリーズの紹介」ページに挿入されます。</t>
+    <t>http://proxy.chilos.jp/p001</t>
+  </si>
+  <si>
+    <t>シリーズ紹介ページのURL</t>
+    <rPh sb="4" eb="6">
+      <t>ショウカイ</t>
+    </rPh>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -366,6 +1908,20 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
+    <t>cover</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>「必要な素材」の「B. 内表紙画像」のファイル名</t>
+    <rPh sb="1" eb="3">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ソザイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
     <t>* 各セクションの内表紙画像として使用されます。</t>
     <rPh sb="2" eb="3">
       <t>カク</t>
@@ -385,274 +1941,8 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>著者名</t>
+    <t>001_inside_cover.png</t>
     <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>section（必須）</t>
-    <rPh sb="8" eb="10">
-      <t>ヒッス</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>topic</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>structure-books.xlsxのバージョン</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>（必須）巻数
-──────
-「vol-数字」
-の形式で順に記載します。</t>
-    <rPh sb="1" eb="3">
-      <t>ヒッス</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>カン</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>サッスウ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ケイシキ</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>ジュン</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>キサイ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>series-name</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>各CHiLO Bookの概要
-────────────
-「はじめにお読みください」セクションの「ブック概要」に挿入されます。</t>
-    <rPh sb="0" eb="1">
-      <t>カク</t>
-    </rPh>
-    <rPh sb="55" eb="57">
-      <t>ソウニュウ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>セクションタイトル
-────────</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>ページのメインコンテンツ
-────────────
-page-typeによって指定するメインコンテンツが違います。
-document…解説ビデオのファイル名
-test…MoodleクイズのURL</t>
-    <rPh sb="39" eb="41">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="52" eb="53">
-      <t>チガ</t>
-    </rPh>
-    <rPh sb="67" eb="69">
-      <t>カイセツ</t>
-    </rPh>
-    <rPh sb="77" eb="78">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>Javascriptのファイル名
-─────
-ページに組み込むJavascriptのファイル名を記入してください。</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>ページタイプ
-──────
-ページのタイプ
-document
-…ビデオ解説ページ
-test
-…クイズページ
-小文字で入力してください。</t>
-    <rPh sb="35" eb="37">
-      <t>カイセツ</t>
-    </rPh>
-    <rPh sb="54" eb="57">
-      <t>コモジ</t>
-    </rPh>
-    <rPh sb="58" eb="60">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>SNSのURL
-────────────
-Facebook、Twitter、Moodleフォーラムなど、任意のSNSを学習コミュニティとして指定できます。
-記載しない場合は、コミュニティアイコンが表示されません。</t>
-    <rPh sb="52" eb="54">
-      <t>ニンイ</t>
-    </rPh>
-    <rPh sb="70" eb="72">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="78" eb="80">
-      <t>キサイ</t>
-    </rPh>
-    <rPh sb="83" eb="85">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="98" eb="100">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>* 必須　authors.xlsxのシート名と一致させてください。</t>
-    <rPh sb="2" eb="4">
-      <t>ヒッス</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>・ シリーズに関する情報を記載するシートです。
-・ 色のついているセルは必須項目です。
-・ 変更してはいけないセルに保護がかかっています。シートの保護解除のパスワードはつけていません。</t>
-  </si>
-  <si>
-    <t>・ シリーズの各ブックに関する情報を記載するシートです。
-・ 色のついているセルは必須項目です。
-・ 制作するブックの冊数分だけ、行を挿入して必要事項を記載ください。
-・ 変更してはいけないセルに保護がかかっています。シートの保護解除のパスワードはつけていません。</t>
-  </si>
-  <si>
-    <t>コミュニティの表示
-──────────
-ページのコミュニティリンクボタンの表示非表示を指定できます。リンクボタンの表示する場合は、「TRUE」とします。book-listシートのcommunity-url項目を記載した場合のみ有効です。</t>
-    <rPh sb="7" eb="9">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="58" eb="60">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="62" eb="64">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="106" eb="108">
-      <t>キサイ</t>
-    </rPh>
-    <rPh sb="110" eb="112">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>解説ビデオサムネイルのファイル名
-────────────
-page-type項目を「document」とした場合のみ有効です。</t>
-    <rPh sb="0" eb="2">
-      <t>カイセツ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>解説文のファイル名
-─────
-page-type項目を「document」とした場合のみ有効です。</t>
-    <rPh sb="0" eb="2">
-      <t>カイセツ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t xml:space="preserve">・ ブックの解説ページと確認テストページに関するシートです。
-・ 色のついているセルは必須項目です。
-・ page-typeを指定して、行を追加するとCHiLO Bookのページが追加されます。
-・ ブックの数だけ書籍構成シートをコピーして、1冊のブックにつき1シート作成します。
-・ シート名は、book-listの「vol」の列と一致させてください。
-・変更してはいけないセルに保護がかかっています。シートの保護解除のパスワードはつけていません。
-</t>
-  </si>
-  <si>
-    <t>トピックタイトル
-───────
-page-type項目を「document」とした場合のみ有効です。「test」とした場合は記載する必要がありません。</t>
-    <rPh sb="63" eb="65">
-      <t>キサイ</t>
-    </rPh>
-    <rPh sb="67" eb="69">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>CCのライセンス
-────────
-CCライセンスでない場合は記載する必要がありません。</t>
-    <rPh sb="28" eb="30">
-      <t>ナイバアイ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>キサイ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>CHiLO Bookのタイトル
-────────────
-実際の書先タイトルは、
-「series-name 第n章 book-title」
-となります。series-nameは、series-informationシートのseries-name項目です。
-例）はじめての情報ネットワークI 第1章インターネットの歴史とビットの復習
-この書籍タイトルは、content.opfに設定されるほか、「Copyright」ページに挿入されます。</t>
-    <rPh sb="10" eb="11">
-      <t>ホンンオ</t>
-    </rPh>
-    <rPh sb="54" eb="55">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="56" eb="57">
-      <t>ショウ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>あくまでも、structure-books.xlsxファイルの管理用であり、CHiLO Bookの書き出しには使われていません。ご自由に設定ください。</t>
-  </si>
-  <si>
-    <t>* 必須　ja, enなど、言語をRFC 5646形式で記載します。</t>
-    <rPh sb="2" eb="4">
-      <t>ヒッス</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ゲンゴ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ケイシキ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>キサイ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>ja</t>
@@ -663,1258 +1953,66 @@
     <rPh sb="0" eb="2">
       <t>ヒオキ</t>
     </rPh>
-    <rPh sb="2" eb="4">
-      <t>シンジ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
+    <rPh sb="2" eb="3">
+      <t>マコト</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>NPO CCC-TIES</t>
-  </si>
-  <si>
-    <t>はじめての情報ネットワークⅠ</t>
-  </si>
-  <si>
-    <t>本書の主題と目標は、インターネットを主体としたネットワークについて深く理解をすることです。
-今やインターネットは地球規模のネットワークに成長しています。例えば、パソコンなど小さなコンピュータから、サーバと言われる大規模で強力なコンピュータまでネットワークにつながっています。また最近では、携帯電話や一般の電話もネットワークにつながっている時代です。さらに最近では、家電製品までもがインターネットにつながるようになりつつあります。
-まずは、ネットワークを理解して、セキュリティについても学習しましょう。</t>
-  </si>
-  <si>
-    <t>http://proxy.chilos.jp/p001</t>
-  </si>
-  <si>
-    <t>001_inside_cover.png</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>vol-1</t>
-  </si>
-  <si>
-    <t>インターネットの歴史とビットの復習</t>
-    <rPh sb="8" eb="10">
-      <t>レキシ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>フクシュウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
+    <t>章ごとに変更するシリーズ情報
+────────────
+[series-information]の情報のうち、章ごとに変更したい箇所があればここに記入します。
+（[series-information]と同じ情報を使いたい場合は、空白のままにしてください）</t>
+    <rPh sb="0" eb="1">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>カショ</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>キニュウ</t>
+    </rPh>
+    <rPh sb="102" eb="103">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="104" eb="106">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="107" eb="108">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="111" eb="113">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="115" eb="117">
+      <t>クウハク</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>001_cover_image_1.png</t>
-  </si>
-  <si>
-    <t>urn:uuid:41fe5bb9-686f-47dd-8197-61fc9f817bcd</t>
-  </si>
-  <si>
-    <t>vol-2</t>
-  </si>
-  <si>
-    <t>IPアドレスとネットワークアドレス</t>
-  </si>
-  <si>
-    <t>001_cover_image_2.png</t>
-  </si>
-  <si>
-    <t>urn:uuid:605c25a1-07a6-4a65-81a4-95cd77ba86b8</t>
-  </si>
-  <si>
-    <t>vol-3</t>
-  </si>
-  <si>
-    <t>ネットワークとデフォルトゲートウェイ</t>
-  </si>
-  <si>
-    <t>001_cover_image_3.png</t>
-  </si>
-  <si>
-    <t>urn:uuid:1a060993-7cab-4f91-896d-195da30a1978</t>
-  </si>
-  <si>
-    <t>vol-4</t>
-  </si>
-  <si>
-    <t>ルータとルーティング</t>
-  </si>
-  <si>
-    <t>001_cover_image_4.png</t>
-  </si>
-  <si>
-    <t>urn:uuid:1842b29a-b875-4a6e-9580-0ba33d193d46</t>
-  </si>
-  <si>
-    <t>vol-5</t>
-  </si>
-  <si>
-    <t>MACアドレス、IPアドレス、ネットワーク各種コマンド</t>
-  </si>
-  <si>
-    <t>001_cover_image_5.png</t>
-  </si>
-  <si>
-    <t>urn:uuid:c603ba2c-a8f7-4855-a3f6-ad530da05ded</t>
-  </si>
-  <si>
-    <t>vol-6</t>
-  </si>
-  <si>
-    <t>無線LAN</t>
-  </si>
-  <si>
-    <t>001_cover_image_6.png</t>
-  </si>
-  <si>
-    <t>urn:uuid:9c815d35-585b-4209-b87a-0621c76dac5c</t>
-  </si>
-  <si>
-    <t>vol-7</t>
-  </si>
-  <si>
-    <t>ADSL、NAT、NAPT</t>
-  </si>
-  <si>
-    <t>001_cover_image_7.png</t>
-  </si>
-  <si>
-    <t>urn:uuid:303974f7-bac7-4e31-9a39-470bf6a4380f</t>
-  </si>
-  <si>
-    <t>document</t>
-  </si>
-  <si>
-    <t>インターネットの歴史</t>
-    <rPh sb="8" eb="10">
-      <t>レキシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>戦争が作ったインターネット</t>
-  </si>
-  <si>
-    <t>TRUE</t>
-  </si>
-  <si>
-    <t>001m_0101.mp4</t>
-  </si>
-  <si>
-    <t>001m_0101.png</t>
-  </si>
-  <si>
-    <t>hT7vw_D-GXg</t>
-  </si>
-  <si>
-    <t>スプートニックショック</t>
-  </si>
-  <si>
-    <t>001m_0102.mp4</t>
-  </si>
-  <si>
-    <t>001m_0102.png</t>
-  </si>
-  <si>
-    <t>4C-Yl_PJCIw</t>
-  </si>
-  <si>
-    <t>中央集約型ネットワーク</t>
-  </si>
-  <si>
-    <t>001m_0103.mp4</t>
-  </si>
-  <si>
-    <t>001m_0103.png</t>
-  </si>
-  <si>
-    <t>XfN90SUtMQE</t>
-  </si>
-  <si>
-    <t>分散型ネットワークの登場</t>
-  </si>
-  <si>
-    <t>001m_0104.mp4</t>
-  </si>
-  <si>
-    <t>001m_0104.png</t>
-  </si>
-  <si>
-    <t>yjyoKzAbEUM</t>
-  </si>
-  <si>
-    <t>ルータの役割</t>
-  </si>
-  <si>
-    <t>001m_0105.mp4</t>
-  </si>
-  <si>
-    <t>001m_0105.png</t>
-  </si>
-  <si>
-    <t>JbxJomDCEjo</t>
-  </si>
-  <si>
-    <t>コンピュータが作られた背景</t>
-  </si>
-  <si>
-    <t>001m_0106.mp4</t>
-  </si>
-  <si>
-    <t>001m_0106.png</t>
-  </si>
-  <si>
-    <t>djA5g6ee6e4</t>
-  </si>
-  <si>
-    <t>コンピュートニック</t>
-  </si>
-  <si>
-    <t>001m_0107.mp4</t>
-  </si>
-  <si>
-    <t>001m_0107.png</t>
-  </si>
-  <si>
-    <t>XXVlWce8MBo</t>
-  </si>
-  <si>
-    <t>地球シミュレータ</t>
-  </si>
-  <si>
-    <t>001m_0108.mp4</t>
-  </si>
-  <si>
-    <t>001m_0108.png</t>
-  </si>
-  <si>
-    <t>y4-41rFGdmI</t>
-  </si>
-  <si>
-    <t>ビットの復習</t>
-  </si>
-  <si>
-    <t>ビット</t>
-  </si>
-  <si>
-    <t>001m_0109.mp4</t>
-  </si>
-  <si>
-    <t>001m_0109.png</t>
-  </si>
-  <si>
-    <t>FTcGkjv50Bk</t>
-  </si>
-  <si>
-    <t>3桁2進数</t>
-  </si>
-  <si>
-    <t>001m_0110.mp4</t>
-  </si>
-  <si>
-    <t>001m_0110.png</t>
-  </si>
-  <si>
-    <t>UfgFifcmjU0</t>
-  </si>
-  <si>
-    <t>ビットで表現できる数の種類</t>
-  </si>
-  <si>
-    <t>001m_0111.mp4</t>
-  </si>
-  <si>
-    <t>001m_0111.png</t>
-  </si>
-  <si>
-    <t>FrjDuHqH1E4</t>
-  </si>
-  <si>
-    <t>2進数と10進数の変換</t>
-  </si>
-  <si>
-    <t>001m_0112.mp4</t>
-  </si>
-  <si>
-    <t>001m_0112.png</t>
-  </si>
-  <si>
-    <t>mpFgXpQ2tSs</t>
-  </si>
-  <si>
-    <t>10進数の対応</t>
-  </si>
-  <si>
-    <t>001m_0113.mp4</t>
-  </si>
-  <si>
-    <t>001m_0113.png</t>
-  </si>
-  <si>
-    <t>ZHTOQLNQCng</t>
-  </si>
-  <si>
-    <t>10進数から2進数への変換</t>
-  </si>
-  <si>
-    <t>001m_0114.mp4</t>
-  </si>
-  <si>
-    <t>001m_0114.png</t>
-  </si>
-  <si>
-    <t>85l1JkRzTDg</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>章末テスト</t>
-    <rPh sb="0" eb="2">
-      <t>ショウマツ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>IPアドレス、ネットワークアドレス</t>
-  </si>
-  <si>
-    <t>1章の復習</t>
-  </si>
-  <si>
-    <t>001m_0201.mp4</t>
-  </si>
-  <si>
-    <t>001m_0201.png</t>
-  </si>
-  <si>
-    <t>-tumki-skDM</t>
-  </si>
-  <si>
-    <t>IPアドレス</t>
-  </si>
-  <si>
-    <t>001m_0202.mp4</t>
-  </si>
-  <si>
-    <t>001m_0202.png</t>
-  </si>
-  <si>
-    <t>ev3RTZF2nVQ</t>
-  </si>
-  <si>
-    <t>オクテット表記</t>
-  </si>
-  <si>
-    <t>001m_0203.mp4</t>
-  </si>
-  <si>
-    <t>001m_0203.png</t>
-  </si>
-  <si>
-    <t>qsr0Gvyanu0</t>
-  </si>
-  <si>
-    <t>IPアドレスにおける注意点</t>
-  </si>
-  <si>
-    <t>001m_0204.mp4</t>
-  </si>
-  <si>
-    <t>001m_0204.png</t>
-  </si>
-  <si>
-    <t>s0zkVT-4Idw</t>
-  </si>
-  <si>
-    <t>IPアドレスの意味</t>
-  </si>
-  <si>
-    <t>001m_0205.mp4</t>
-  </si>
-  <si>
-    <t>001m_0205.png</t>
-  </si>
-  <si>
-    <t>AzE0D3KnfVE</t>
-  </si>
-  <si>
-    <t>ネットワーク部とホスト部</t>
-  </si>
-  <si>
-    <t>001m_0206.mp4</t>
-  </si>
-  <si>
-    <t>001m_0206.png</t>
-  </si>
-  <si>
-    <t>5rHM4FQZy30</t>
-  </si>
-  <si>
-    <t>ネットマスク</t>
-  </si>
-  <si>
-    <t>001m_0207.mp4</t>
-  </si>
-  <si>
-    <t>001m_0207.png</t>
-  </si>
-  <si>
-    <t>7wVBlai6Ffo</t>
-  </si>
-  <si>
-    <t>ネットワークアドレスの計算</t>
-  </si>
-  <si>
-    <t>001m_0208.mp4</t>
-  </si>
-  <si>
-    <t>001m_0208.png</t>
-  </si>
-  <si>
-    <t>4VDDJ8rRidk</t>
-  </si>
-  <si>
-    <t>2章の復習</t>
-  </si>
-  <si>
-    <t>001m_0301.mp4</t>
-  </si>
-  <si>
-    <t>001m_0301.png</t>
-  </si>
-  <si>
-    <t>AWPovePCCJQ</t>
-  </si>
-  <si>
-    <t>ネットワーク</t>
-  </si>
-  <si>
-    <t>001m_0302.mp4</t>
-  </si>
-  <si>
-    <t>001m_0302.png</t>
-  </si>
-  <si>
-    <t>Z6miHmbWgEQ</t>
-  </si>
-  <si>
-    <t>ネットワークアドレスとネットワーク</t>
-  </si>
-  <si>
-    <t>001m_0303.mp4</t>
-  </si>
-  <si>
-    <t>001m_0303.png</t>
-  </si>
-  <si>
-    <t>E-4Uqm9dV80</t>
-  </si>
-  <si>
-    <t>ルータ</t>
-  </si>
-  <si>
-    <t>001m_0304.mp4</t>
-  </si>
-  <si>
-    <t>001m_0304.png</t>
-  </si>
-  <si>
-    <t>iLHWADNF-kQ</t>
-  </si>
-  <si>
-    <t>ルータの必要性</t>
-  </si>
-  <si>
-    <t>001m_0305.mp4</t>
-  </si>
-  <si>
-    <t>001m_0305.png</t>
-  </si>
-  <si>
-    <t>8KVqUud2quE</t>
-  </si>
-  <si>
-    <t>ネットワークについて考える</t>
-  </si>
-  <si>
-    <t>001m_0306.mp4</t>
-  </si>
-  <si>
-    <t>001m_0306.png</t>
-  </si>
-  <si>
-    <t>I5-3Vy9prTQ</t>
-  </si>
-  <si>
-    <t>ネットワーク通信に必要な3情報</t>
-  </si>
-  <si>
-    <t>001m_0307.mp4</t>
-  </si>
-  <si>
-    <t>001m_0307.png</t>
-  </si>
-  <si>
-    <t>oZPID58cnfw</t>
-  </si>
-  <si>
-    <t>ルータ、ルーティング</t>
-  </si>
-  <si>
-    <t>3章の復習</t>
-  </si>
-  <si>
-    <t>001m_0401.mp4</t>
-  </si>
-  <si>
-    <t>001m_0401.png</t>
-  </si>
-  <si>
-    <t>iL4NA45DSwc</t>
-  </si>
-  <si>
-    <t>経由するルータ</t>
-  </si>
-  <si>
-    <t>001m_0402.mp4</t>
-  </si>
-  <si>
-    <t>001m_0402.png</t>
-  </si>
-  <si>
-    <t>fukDX2dQU7g</t>
-  </si>
-  <si>
-    <t>ルータの2つの仕事</t>
-  </si>
-  <si>
-    <t>001m_0403.mp4</t>
-  </si>
-  <si>
-    <t>001m_0403.png</t>
-  </si>
-  <si>
-    <t>GXCwBgjNcG0</t>
-  </si>
-  <si>
-    <t>ルーティングテーブル</t>
-  </si>
-  <si>
-    <t>001m_0404.mp4</t>
-  </si>
-  <si>
-    <t>001m_0404.png</t>
-  </si>
-  <si>
-    <t>hfLrDnzGWpk</t>
-  </si>
-  <si>
-    <t>スタティックルーティング</t>
-  </si>
-  <si>
-    <t>001m_0405.mp4</t>
-  </si>
-  <si>
-    <t>001m_0405.png</t>
-  </si>
-  <si>
-    <t>bM6vuuP7exs</t>
-  </si>
-  <si>
-    <t>ダイナミックルーティング</t>
-  </si>
-  <si>
-    <t>001m_0406.mp4</t>
-  </si>
-  <si>
-    <t>001m_0406.png</t>
-  </si>
-  <si>
-    <t>yW5LD12OZzQ</t>
-  </si>
-  <si>
-    <t>ルーティングテーブルの長所と短所</t>
-  </si>
-  <si>
-    <t>001m_0407.mp4</t>
-  </si>
-  <si>
-    <t>001m_0407.png</t>
-  </si>
-  <si>
-    <t>C772_GuvH-o</t>
-  </si>
-  <si>
-    <t>ネットワークが3つある場合のルーティングテーブル</t>
-  </si>
-  <si>
-    <t>001m_0408.mp4</t>
-  </si>
-  <si>
-    <t>001m_0408.png</t>
-  </si>
-  <si>
-    <t>vKk-ab2vTTY</t>
-  </si>
-  <si>
-    <t>ネットワークが5つある場合のルーティングテーブル</t>
-  </si>
-  <si>
-    <t>001m_0409.mp4</t>
-  </si>
-  <si>
-    <t>001m_0409.png</t>
-  </si>
-  <si>
-    <t>3ZIteN2E4mI</t>
-  </si>
-  <si>
-    <t>MACアドレス、IPアドレス、ネットワーク各種コマンド</t>
-    <rPh sb="21" eb="23">
-      <t>カクシュ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2段階のアドレス</t>
-  </si>
-  <si>
-    <t>001m_0501.mp4</t>
-  </si>
-  <si>
-    <t>001m_0501.png</t>
-  </si>
-  <si>
-    <t>W68zFlYorKI</t>
-  </si>
-  <si>
-    <t>手紙の例で2段階のアドレスを理解する</t>
-  </si>
-  <si>
-    <t>001m_0502.mp4</t>
-  </si>
-  <si>
-    <t>001m_0502.png</t>
-  </si>
-  <si>
-    <t>xDIjC3w3nDU</t>
-  </si>
-  <si>
-    <t>宛先IPアドレスと送信元IPアドレス</t>
-  </si>
-  <si>
-    <t>001m_0503.mp4</t>
-  </si>
-  <si>
-    <t>001m_0503.png</t>
-  </si>
-  <si>
-    <t>yZaPPX5mEfA</t>
-  </si>
-  <si>
-    <t>IPアドレスとMACアドレス</t>
-  </si>
-  <si>
-    <t>001m_0504.mp4</t>
-  </si>
-  <si>
-    <t>001m_0504.png</t>
-  </si>
-  <si>
-    <t>WluNZs15-rI</t>
-  </si>
-  <si>
-    <t>MACアドレス</t>
-  </si>
-  <si>
-    <t>001m_0505.mp4</t>
-  </si>
-  <si>
-    <t>001m_0505.png</t>
-  </si>
-  <si>
-    <t>FFHMUi0JauE</t>
-  </si>
-  <si>
-    <t>同一ネットワークの場合</t>
-  </si>
-  <si>
-    <t>001m_0506.mp4</t>
-  </si>
-  <si>
-    <t>001m_0506.png</t>
-  </si>
-  <si>
-    <t>jLLRdoRB3HU</t>
-  </si>
-  <si>
-    <t>異なるネットワークの場合</t>
-  </si>
-  <si>
-    <t>001m_0507.mp4</t>
-  </si>
-  <si>
-    <t>001m_0507.png</t>
-  </si>
-  <si>
-    <t>NJM69Iszv_Q</t>
-  </si>
-  <si>
-    <t>カプセル化</t>
-  </si>
-  <si>
-    <t>001m_0508.mp4</t>
-  </si>
-  <si>
-    <t>001m_0508.png</t>
-  </si>
-  <si>
-    <t>uqGK8is9n1I</t>
-  </si>
-  <si>
-    <t>MACアドレスを知る仕組み（ARP）</t>
-  </si>
-  <si>
-    <t>001m_0509.mp4</t>
-  </si>
-  <si>
-    <t>001m_0509.png</t>
-  </si>
-  <si>
-    <t>yiHlY92w9zs</t>
-  </si>
-  <si>
-    <t>ネットワークコマンド：ipconfig</t>
-  </si>
-  <si>
-    <t>001m_0510.mp4</t>
-  </si>
-  <si>
-    <t>001m_0510.png</t>
-  </si>
-  <si>
-    <t>MhPx_MgLpHQ</t>
-  </si>
-  <si>
-    <t>ネットワークコマンド：ping, arp, tracert, nslookup</t>
-  </si>
-  <si>
-    <t>001m_0511.mp4</t>
-  </si>
-  <si>
-    <t>001m_0511.png</t>
-  </si>
-  <si>
-    <t>SPd9rX6LeT4</t>
-  </si>
-  <si>
-    <t>無線LAN</t>
-    <rPh sb="0" eb="2">
-      <t>ムセン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>有線LANと無線LAN</t>
-  </si>
-  <si>
-    <t>001m_0601.mp4</t>
-  </si>
-  <si>
-    <t>001m_0601.png</t>
-  </si>
-  <si>
-    <t>8dEPL45ottk</t>
-  </si>
-  <si>
-    <t>無線LANの規格</t>
-  </si>
-  <si>
-    <t>001m_0602.mp4</t>
-  </si>
-  <si>
-    <t>001m_0602.png</t>
-  </si>
-  <si>
-    <t>iEe9dV-55eA</t>
-  </si>
-  <si>
-    <t>11b, 11a, 11g</t>
-  </si>
-  <si>
-    <t>001m_0603.mp4</t>
-  </si>
-  <si>
-    <t>001m_0603.png</t>
-  </si>
-  <si>
-    <t>L_LhQayZMDE</t>
-  </si>
-  <si>
-    <t>無線LANの弱点</t>
-  </si>
-  <si>
-    <t>001m_0604.mp4</t>
-  </si>
-  <si>
-    <t>001m_0604.png</t>
-  </si>
-  <si>
-    <t>Bc5G-repgb4</t>
-  </si>
-  <si>
-    <t>SSID</t>
-  </si>
-  <si>
-    <t>001m_0605.mp4</t>
-  </si>
-  <si>
-    <t>001m_0605.png</t>
-  </si>
-  <si>
-    <t>uReZCaIPQZE</t>
-  </si>
-  <si>
-    <t>MACアドレスフィルタリング</t>
-  </si>
-  <si>
-    <t>001m_0606.mp4</t>
-  </si>
-  <si>
-    <t>001m_0606.png</t>
-  </si>
-  <si>
-    <t>9FkPyeYrdCU</t>
-  </si>
-  <si>
-    <t>IEEE 802.1X</t>
-  </si>
-  <si>
-    <t>001m_0607.mp4</t>
-  </si>
-  <si>
-    <t>001m_0607.png</t>
-  </si>
-  <si>
-    <t>g7LgfsDWfmQ</t>
-  </si>
-  <si>
-    <t>無線LANセキュリティ</t>
-  </si>
-  <si>
-    <t>001m_0608.mp4</t>
-  </si>
-  <si>
-    <t>001m_0608.png</t>
-  </si>
-  <si>
-    <t>KnNJTUYCAjg</t>
-  </si>
-  <si>
-    <t>自宅でインターネット、ADSL</t>
-  </si>
-  <si>
-    <t>001m_0701.mp4</t>
-  </si>
-  <si>
-    <t>001m_0701.png</t>
-  </si>
-  <si>
-    <t>v1-VoqRjxho</t>
-  </si>
-  <si>
-    <t>電話線を使った接続</t>
-  </si>
-  <si>
-    <t>001m_0702.mp4</t>
-  </si>
-  <si>
-    <t>001m_0702.png</t>
-  </si>
-  <si>
-    <t>5wgAenzPvcQ</t>
-  </si>
-  <si>
-    <t>電話線と周波数</t>
-  </si>
-  <si>
-    <t>001m_0703.mp4</t>
-  </si>
-  <si>
-    <t>001m_0703.png</t>
-  </si>
-  <si>
-    <t>AZVCJ_5k7Pg</t>
-  </si>
-  <si>
-    <t>DSL（Digital Subscriber Line）</t>
-  </si>
-  <si>
-    <t>001m_0704.mp4</t>
-  </si>
-  <si>
-    <t>001m_0704.png</t>
-  </si>
-  <si>
-    <t>_hrbvONQldY</t>
-  </si>
-  <si>
-    <t>アナログデジタル変換</t>
-  </si>
-  <si>
-    <t>001m_0705.mp4</t>
-  </si>
-  <si>
-    <t>001m_0705.png</t>
-  </si>
-  <si>
-    <t>aiMan1tmZwM</t>
-  </si>
-  <si>
-    <t>スプリッタ</t>
-  </si>
-  <si>
-    <t>001m_0706.mp4</t>
-  </si>
-  <si>
-    <t>001m_0706.png</t>
-  </si>
-  <si>
-    <t>hSm9roeLXT0</t>
-  </si>
-  <si>
-    <t>NAT（Network Address Translation）</t>
-  </si>
-  <si>
-    <t>001m_0707.mp4</t>
-  </si>
-  <si>
-    <t>001m_0707.png</t>
-  </si>
-  <si>
-    <t>w3tXjIv2CRg</t>
-  </si>
-  <si>
-    <t>NATの例</t>
-  </si>
-  <si>
-    <t>001m_0708.mp4</t>
-  </si>
-  <si>
-    <t>001m_0708.png</t>
-  </si>
-  <si>
-    <t>eXqezXzbLsA</t>
-  </si>
-  <si>
-    <t>NATの弱点</t>
-  </si>
-  <si>
-    <t>001m_0709.mp4</t>
-  </si>
-  <si>
-    <t>001m_0709.png</t>
-  </si>
-  <si>
-    <t>TQ0EzmoLTn8</t>
-  </si>
-  <si>
-    <t>NAPT（Network Address Port Translation）</t>
-  </si>
-  <si>
-    <t>001m_0710.mp4</t>
-  </si>
-  <si>
-    <t>001m_0710.png</t>
-  </si>
-  <si>
-    <t>nMCZZyEm5Lw</t>
-  </si>
-  <si>
-    <t>IPアドレスを複数のPCで利用する</t>
-  </si>
-  <si>
-    <t>001m_0711.mp4</t>
-  </si>
-  <si>
-    <t>001m_0711.png</t>
-  </si>
-  <si>
-    <t>_wEQ5AWGrXA</t>
-  </si>
-  <si>
-    <t>プライベートIPアドレス</t>
-  </si>
-  <si>
-    <t>001m_0712.mp4</t>
-  </si>
-  <si>
-    <t>001m_0712.png</t>
-  </si>
-  <si>
-    <t>uFpGIB26QUk</t>
-  </si>
-  <si>
-    <t>vol-001-011.txt</t>
-  </si>
-  <si>
-    <t>vol-001-012.txt</t>
-  </si>
-  <si>
-    <t>vol-001-013.txt</t>
-  </si>
-  <si>
-    <t>vol-001-014.txt</t>
-  </si>
-  <si>
-    <t>vol-001-015.txt</t>
-  </si>
-  <si>
-    <t>vol-001-016.txt</t>
-  </si>
-  <si>
-    <t>vol-001-017.txt</t>
-  </si>
-  <si>
-    <t>vol-001-018.txt</t>
-  </si>
-  <si>
-    <t>vol-001-020.txt</t>
-  </si>
-  <si>
-    <t>vol-001-021.txt</t>
-  </si>
-  <si>
-    <t>vol-001-022.txt</t>
-  </si>
-  <si>
-    <t>vol-001-023.txt</t>
-  </si>
-  <si>
-    <t>vol-001-024.txt</t>
-  </si>
-  <si>
-    <t>vol-001-025.txt</t>
-  </si>
-  <si>
-    <t>vol-002-011.txt</t>
-  </si>
-  <si>
-    <t>vol-002-012.txt</t>
-  </si>
-  <si>
-    <t>vol-002-013.txt</t>
-  </si>
-  <si>
-    <t>vol-002-014.txt</t>
-  </si>
-  <si>
-    <t>vol-002-015.txt</t>
-  </si>
-  <si>
-    <t>vol-002-016.txt</t>
-  </si>
-  <si>
-    <t>vol-002-017.txt</t>
-  </si>
-  <si>
-    <t>vol-002-018.txt</t>
-  </si>
-  <si>
-    <t>vol-003-011.txt</t>
-  </si>
-  <si>
-    <t>vol-003-012.txt</t>
-  </si>
-  <si>
-    <t>vol-003-013.txt</t>
-  </si>
-  <si>
-    <t>vol-003-014.txt</t>
-  </si>
-  <si>
-    <t>vol-003-015.txt</t>
-  </si>
-  <si>
-    <t>vol-003-016.txt</t>
-  </si>
-  <si>
-    <t>vol-003-017.txt</t>
-  </si>
-  <si>
-    <t>vol-004-011.txt</t>
-  </si>
-  <si>
-    <t>vol-004-012.txt</t>
-  </si>
-  <si>
-    <t>vol-004-013.txt</t>
-  </si>
-  <si>
-    <t>vol-004-014.txt</t>
-  </si>
-  <si>
-    <t>vol-004-015.txt</t>
-  </si>
-  <si>
-    <t>vol-004-016.txt</t>
-  </si>
-  <si>
-    <t>vol-004-017.txt</t>
-  </si>
-  <si>
-    <t>vol-004-018.txt</t>
-  </si>
-  <si>
-    <t>vol-004-019.txt</t>
-  </si>
-  <si>
-    <t>vol-005-011.txt</t>
-  </si>
-  <si>
-    <t>vol-005-012.txt</t>
-  </si>
-  <si>
-    <t>vol-005-013.txt</t>
-  </si>
-  <si>
-    <t>vol-005-014.txt</t>
-  </si>
-  <si>
-    <t>vol-005-015.txt</t>
-  </si>
-  <si>
-    <t>vol-005-016.txt</t>
-  </si>
-  <si>
-    <t>vol-005-017.txt</t>
-  </si>
-  <si>
-    <t>vol-005-018.txt</t>
-  </si>
-  <si>
-    <t>vol-005-019.txt</t>
-  </si>
-  <si>
-    <t>vol-005-020.txt</t>
-  </si>
-  <si>
-    <t>vol-005-021.txt</t>
-  </si>
-  <si>
-    <t>vol-006-011.txt</t>
-  </si>
-  <si>
-    <t>vol-006-012.txt</t>
-  </si>
-  <si>
-    <t>vol-006-013.txt</t>
-  </si>
-  <si>
-    <t>vol-006-014.txt</t>
-  </si>
-  <si>
-    <t>vol-006-015.txt</t>
-  </si>
-  <si>
-    <t>vol-006-016.txt</t>
-  </si>
-  <si>
-    <t>vol-006-017.txt</t>
-  </si>
-  <si>
-    <t>vol-006-018.txt</t>
-  </si>
-  <si>
-    <t>vol-007-011.txt</t>
-  </si>
-  <si>
-    <t>vol-007-012.txt</t>
-  </si>
-  <si>
-    <t>vol-007-013.txt</t>
-  </si>
-  <si>
-    <t>vol-007-014.txt</t>
-  </si>
-  <si>
-    <t>vol-007-015.txt</t>
-  </si>
-  <si>
-    <t>vol-007-016.txt</t>
-  </si>
-  <si>
-    <t>vol-007-017.txt</t>
-  </si>
-  <si>
-    <t>vol-007-018.txt</t>
-  </si>
-  <si>
-    <t>vol-007-019.txt</t>
-  </si>
-  <si>
-    <t>vol-007-020.txt</t>
-  </si>
-  <si>
-    <t>vol-007-021.txt</t>
-  </si>
-  <si>
-    <t>vol-007-022.txt</t>
-  </si>
-  <si>
-    <t>（必須）CHiLO BookのユニークID。
-──────────────────
-content.opfに設定されます。</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>identifier（必須）</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>http://chilos.jp/en/c/?c=1</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>http://chilos.jp/en/c/?c=1</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>https://dev.chilos.jp/mod/quiz/view.php?id=1058</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>https://dev.chilos.jp/mod/quiz/view.php?id=1060</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>https://dev.chilos.jp/mod/quiz/view.php?id=1061</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>https://dev.chilos.jp/mod/quiz/view.php?id=1062</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>https://dev.chilos.jp/mod/quiz/view.php?id=1063</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>https://dev.chilos.jp/mod/quiz/view.php?id=1064</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>https://dev.chilos.jp/mod/quiz/view.php?id=1065</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>b_quiz.png</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>b_quiz.png</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>b_quiz.png</t>
-    <phoneticPr fontId="4"/>
   </si>
 </sst>
 </file>
@@ -1924,7 +2022,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2068,8 +2166,24 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="2" tint="-0.249977111117893"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="2" tint="-0.249977111117893"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2097,6 +2211,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2365,23 +2485,21 @@
       <right style="thin">
         <color auto="1"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2562,7 +2680,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2699,10 +2817,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="37" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -2764,15 +2878,75 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="37">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="37" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="37" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="37" applyFill="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="37" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="37" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2810,32 +2984,11 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2871,10 +3024,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -3218,7 +3367,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
   <cols>
@@ -3231,192 +3380,186 @@
   <sheetData>
     <row r="1" spans="1:4" ht="39.950000000000003" customHeight="1">
       <c r="A1" s="31" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B1" s="32">
         <v>2.2000000000000002</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D1" s="29" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="21" customHeight="1">
       <c r="A2" s="31" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>79</v>
+        <v>486</v>
       </c>
       <c r="C2" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="21" customHeight="1">
+      <c r="A3" s="54" t="s">
+        <v>477</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>487</v>
+      </c>
+      <c r="C3" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="29" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="21" customHeight="1">
-      <c r="A3" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="33" t="s">
-        <v>80</v>
-      </c>
-      <c r="C3" s="30" t="s">
-        <v>55</v>
-      </c>
       <c r="D3" s="29" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="21" customHeight="1">
       <c r="A4" s="31" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>81</v>
+        <v>488</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="62" t="s">
-        <v>49</v>
+        <v>21</v>
+      </c>
+      <c r="D4" s="80" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="21" customHeight="1">
       <c r="A5" s="31" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>81</v>
+        <v>488</v>
       </c>
       <c r="C5" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="63"/>
+        <v>22</v>
+      </c>
+      <c r="D5" s="81"/>
     </row>
     <row r="6" spans="1:4" ht="21" customHeight="1">
       <c r="A6" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" s="50">
-        <v>41530</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="B6" s="49"/>
       <c r="C6" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6" s="63"/>
+        <v>45</v>
+      </c>
+      <c r="D6" s="81"/>
     </row>
     <row r="7" spans="1:4" ht="21" customHeight="1">
       <c r="A7" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" s="34">
-        <v>42188</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="B7" s="34"/>
       <c r="C7" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="63"/>
+        <v>38</v>
+      </c>
+      <c r="D7" s="81"/>
     </row>
     <row r="8" spans="1:4" ht="21" customHeight="1">
       <c r="A8" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" s="32" t="s">
-        <v>81</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="B8" s="32"/>
       <c r="C8" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="64"/>
+        <v>19</v>
+      </c>
+      <c r="D8" s="82"/>
     </row>
     <row r="9" spans="1:4" ht="21" customHeight="1">
-      <c r="A9" s="55" t="s">
-        <v>60</v>
+      <c r="A9" s="54" t="s">
+        <v>52</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D9" s="29" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="214.5">
       <c r="A10" s="31" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B10" s="35" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D10" s="29" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="21" customHeight="1">
-      <c r="A11" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="41" t="s">
-        <v>84</v>
+      <c r="A11" s="54" t="s">
+        <v>478</v>
+      </c>
+      <c r="B11" s="68" t="s">
+        <v>479</v>
       </c>
       <c r="C11" s="30" t="s">
-        <v>22</v>
+        <v>480</v>
       </c>
       <c r="D11" s="29" t="s">
-        <v>53</v>
+        <v>481</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="21" customHeight="1">
-      <c r="A12" s="31" t="s">
-        <v>0</v>
+      <c r="A12" s="54" t="s">
+        <v>482</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>85</v>
+        <v>485</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>37</v>
+        <v>483</v>
       </c>
       <c r="D12" s="29" t="s">
-        <v>54</v>
+        <v>484</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="28" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C13" s="26"/>
       <c r="D13" s="27"/>
     </row>
     <row r="15" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A15" s="65" t="s">
-        <v>68</v>
-      </c>
-      <c r="B15" s="66"/>
-      <c r="C15" s="67"/>
+      <c r="A15" s="83" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" s="84"/>
+      <c r="C15" s="85"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="68"/>
-      <c r="B16" s="69"/>
-      <c r="C16" s="70"/>
+      <c r="A16" s="86"/>
+      <c r="B16" s="87"/>
+      <c r="C16" s="88"/>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="68"/>
-      <c r="B17" s="69"/>
-      <c r="C17" s="70"/>
+      <c r="A17" s="86"/>
+      <c r="B17" s="87"/>
+      <c r="C17" s="88"/>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="71"/>
-      <c r="B18" s="72"/>
-      <c r="C18" s="73"/>
+      <c r="A18" s="89"/>
+      <c r="B18" s="90"/>
+      <c r="C18" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3445,61 +3588,61 @@
   <sheetData>
     <row r="1" spans="1:3" ht="19.5" thickBot="1">
       <c r="A1" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="15" t="s">
         <v>15</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="19.5" thickTop="1">
       <c r="A2" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="43" t="s">
-        <v>38</v>
+        <v>16</v>
+      </c>
+      <c r="B2" s="42" t="s">
+        <v>33</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="13" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B3" s="13"/>
       <c r="C3" s="13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="13"/>
       <c r="B4" s="13"/>
       <c r="C4" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="13"/>
       <c r="B5" s="13"/>
       <c r="C5" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="13"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="13"/>
       <c r="B7" s="13"/>
       <c r="C7" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3517,11 +3660,9 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="19.5"/>
   <cols>
@@ -3529,243 +3670,348 @@
     <col min="2" max="2" width="56.875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="47" style="2" customWidth="1"/>
     <col min="4" max="4" width="32.625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="43.125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="53.625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="37.875" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="8.875" style="2"/>
+    <col min="7" max="7" width="8.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="10.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="20.25" thickBot="1">
-      <c r="A1" s="57" t="s">
-        <v>7</v>
+    <row r="1" spans="1:14" ht="20.25" thickBot="1">
+      <c r="A1" s="56" t="s">
+        <v>6</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="56" t="s">
+        <v>475</v>
+      </c>
+      <c r="E1" s="56" t="s">
+        <v>456</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="E1" s="57" t="s">
+      <c r="G1" s="66" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="66" t="s">
+        <v>469</v>
+      </c>
+      <c r="I1" s="67" t="s">
+        <v>476</v>
+      </c>
+      <c r="J1" s="66" t="s">
         <v>470</v>
       </c>
-      <c r="F1" s="59" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="48" customHeight="1" thickTop="1">
-      <c r="A2" s="52" t="s">
+      <c r="K1" s="66" t="s">
+        <v>471</v>
+      </c>
+      <c r="L1" s="66" t="s">
+        <v>472</v>
+      </c>
+      <c r="M1" s="66" t="s">
+        <v>473</v>
+      </c>
+      <c r="N1" s="66" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="48" customHeight="1" thickTop="1">
+      <c r="A2" s="51" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="53"/>
+      <c r="D2" s="43" t="s">
+        <v>490</v>
+      </c>
+      <c r="E2" s="51" t="s">
+        <v>75</v>
+      </c>
+      <c r="F2" s="62" t="s">
+        <v>458</v>
+      </c>
+      <c r="G2" s="63"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="64"/>
+    </row>
+    <row r="3" spans="1:14" ht="48" customHeight="1">
+      <c r="A3" s="51" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" s="46" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" s="53"/>
+      <c r="D3" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3" s="51" t="s">
+        <v>79</v>
+      </c>
+      <c r="F3" s="58" t="s">
+        <v>457</v>
+      </c>
+      <c r="G3" s="63"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="64"/>
+      <c r="L3" s="69"/>
+      <c r="M3" s="70"/>
+      <c r="N3" s="64"/>
+    </row>
+    <row r="4" spans="1:14" ht="48" customHeight="1">
+      <c r="A4" s="51" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" s="46" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="53"/>
+      <c r="D4" s="43" t="s">
+        <v>82</v>
+      </c>
+      <c r="E4" s="51" t="s">
+        <v>83</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="G4" s="63"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="64"/>
+      <c r="L4" s="69"/>
+      <c r="M4" s="70"/>
+      <c r="N4" s="64"/>
+    </row>
+    <row r="5" spans="1:14" ht="48" customHeight="1">
+      <c r="A5" s="51" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" s="46" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" s="53"/>
+      <c r="D5" s="43" t="s">
         <v>86</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="E5" s="51" t="s">
         <v>87</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="44" t="s">
+      <c r="F5" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="G5" s="63"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="64"/>
+      <c r="J5" s="64"/>
+      <c r="K5" s="64"/>
+      <c r="L5" s="69"/>
+      <c r="M5" s="70"/>
+      <c r="N5" s="64"/>
+    </row>
+    <row r="6" spans="1:14" ht="48" customHeight="1">
+      <c r="A6" s="51" t="s">
         <v>88</v>
       </c>
-      <c r="E2" s="52" t="s">
+      <c r="B6" s="46" t="s">
         <v>89</v>
       </c>
-      <c r="F2" s="12" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="48" customHeight="1">
-      <c r="A3" s="52" t="s">
+      <c r="C6" s="53"/>
+      <c r="D6" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="B3" s="47" t="s">
+      <c r="E6" s="51" t="s">
         <v>91</v>
       </c>
-      <c r="C3" s="54"/>
-      <c r="D3" s="44" t="s">
+      <c r="F6" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="G6" s="63"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="64"/>
+      <c r="J6" s="64"/>
+      <c r="K6" s="64"/>
+      <c r="L6" s="69"/>
+      <c r="M6" s="70"/>
+      <c r="N6" s="64"/>
+    </row>
+    <row r="7" spans="1:14" ht="48" customHeight="1">
+      <c r="A7" s="51" t="s">
         <v>92</v>
       </c>
-      <c r="E3" s="52" t="s">
+      <c r="B7" s="46" t="s">
         <v>93</v>
       </c>
-      <c r="F3" s="60" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="48" customHeight="1">
-      <c r="A4" s="52" t="s">
+      <c r="C7" s="53"/>
+      <c r="D7" s="43" t="s">
         <v>94</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="E7" s="51" t="s">
         <v>95</v>
       </c>
-      <c r="C4" s="54"/>
-      <c r="D4" s="44" t="s">
+      <c r="F7" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="G7" s="63"/>
+      <c r="H7" s="65"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="64"/>
+      <c r="K7" s="64"/>
+      <c r="L7" s="69"/>
+      <c r="M7" s="70"/>
+      <c r="N7" s="64"/>
+    </row>
+    <row r="8" spans="1:14" ht="48" customHeight="1">
+      <c r="A8" s="51" t="s">
         <v>96</v>
       </c>
-      <c r="E4" s="52" t="s">
+      <c r="B8" s="46" t="s">
         <v>97</v>
       </c>
-      <c r="F4" s="12" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="48" customHeight="1">
-      <c r="A5" s="52" t="s">
+      <c r="C8" s="53"/>
+      <c r="D8" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="B5" s="47" t="s">
+      <c r="E8" s="51" t="s">
         <v>99</v>
       </c>
-      <c r="C5" s="54"/>
-      <c r="D5" s="44" t="s">
-        <v>100</v>
-      </c>
-      <c r="E5" s="52" t="s">
-        <v>101</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="48" customHeight="1">
-      <c r="A6" s="52" t="s">
-        <v>102</v>
-      </c>
-      <c r="B6" s="47" t="s">
-        <v>103</v>
-      </c>
-      <c r="C6" s="54"/>
-      <c r="D6" s="44" t="s">
-        <v>104</v>
-      </c>
-      <c r="E6" s="52" t="s">
-        <v>105</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="48" customHeight="1">
-      <c r="A7" s="52" t="s">
-        <v>106</v>
-      </c>
-      <c r="B7" s="47" t="s">
-        <v>107</v>
-      </c>
-      <c r="C7" s="54"/>
-      <c r="D7" s="44" t="s">
-        <v>108</v>
-      </c>
-      <c r="E7" s="52" t="s">
-        <v>109</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="48" customHeight="1">
-      <c r="A8" s="52" t="s">
-        <v>110</v>
-      </c>
-      <c r="B8" s="47" t="s">
-        <v>111</v>
-      </c>
-      <c r="C8" s="54"/>
-      <c r="D8" s="44" t="s">
-        <v>112</v>
-      </c>
-      <c r="E8" s="52" t="s">
-        <v>113</v>
-      </c>
       <c r="F8" s="12" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="48" customHeight="1">
-      <c r="A9" s="48"/>
-      <c r="B9" s="49"/>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="49"/>
-    </row>
-    <row r="10" spans="1:6" ht="214.5">
+        <v>458</v>
+      </c>
+      <c r="G8" s="63"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="64"/>
+      <c r="J8" s="64"/>
+      <c r="K8" s="64"/>
+      <c r="L8" s="69"/>
+      <c r="M8" s="70"/>
+      <c r="N8" s="64"/>
+    </row>
+    <row r="9" spans="1:14" ht="48" customHeight="1">
+      <c r="A9" s="47"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="61"/>
+      <c r="H9" s="61"/>
+      <c r="I9" s="61"/>
+      <c r="J9" s="61"/>
+      <c r="K9" s="61"/>
+      <c r="L9" s="61"/>
+      <c r="M9" s="61"/>
+      <c r="N9" s="61"/>
+    </row>
+    <row r="10" spans="1:14" ht="214.5">
       <c r="A10" s="20" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>469</v>
+        <v>455</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>58</v>
+      </c>
+      <c r="G10" s="92" t="s">
+        <v>489</v>
+      </c>
+      <c r="H10" s="93"/>
+      <c r="I10" s="93"/>
+      <c r="J10" s="93"/>
+      <c r="K10" s="93"/>
+      <c r="L10" s="93"/>
+      <c r="M10" s="93"/>
+      <c r="N10" s="93"/>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="40"/>
       <c r="B11" s="40"/>
       <c r="C11" s="40"/>
       <c r="D11" s="40"/>
       <c r="F11" s="40"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:14">
       <c r="F12" s="7"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:14">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="F13" s="6"/>
     </row>
-    <row r="14" spans="1:6" ht="14.25" customHeight="1">
+    <row r="14" spans="1:14" ht="14.25" customHeight="1">
       <c r="A14" s="6"/>
-      <c r="B14" s="74" t="s">
-        <v>69</v>
-      </c>
-      <c r="C14" s="75"/>
-      <c r="D14" s="76"/>
-      <c r="F14" s="45"/>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="B14" s="71" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="72"/>
+      <c r="D14" s="73"/>
+      <c r="F14" s="44"/>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" s="6"/>
-      <c r="B15" s="77"/>
-      <c r="C15" s="78"/>
-      <c r="D15" s="79"/>
-      <c r="F15" s="45"/>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="B16" s="77"/>
-      <c r="C16" s="78"/>
-      <c r="D16" s="79"/>
-      <c r="F16" s="45"/>
+      <c r="B15" s="74"/>
+      <c r="C15" s="75"/>
+      <c r="D15" s="76"/>
+      <c r="F15" s="44"/>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="B16" s="74"/>
+      <c r="C16" s="75"/>
+      <c r="D16" s="76"/>
+      <c r="F16" s="44"/>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="77"/>
-      <c r="C17" s="78"/>
-      <c r="D17" s="79"/>
-      <c r="F17" s="45"/>
+      <c r="B17" s="74"/>
+      <c r="C17" s="75"/>
+      <c r="D17" s="76"/>
+      <c r="F17" s="44"/>
     </row>
     <row r="18" spans="2:6">
-      <c r="B18" s="80"/>
-      <c r="C18" s="81"/>
-      <c r="D18" s="82"/>
-      <c r="F18" s="45"/>
+      <c r="B18" s="77"/>
+      <c r="C18" s="78"/>
+      <c r="D18" s="79"/>
+      <c r="F18" s="44"/>
     </row>
     <row r="19" spans="2:6">
-      <c r="F19" s="46"/>
+      <c r="F19" s="45"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="1">
-    <mergeCell ref="B14:D18"/>
+    <mergeCell ref="G10:N10"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <hyperlinks>
@@ -3787,8 +4033,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="19.5"/>
@@ -3809,486 +4055,484 @@
   <sheetData>
     <row r="1" spans="1:11" customFormat="1" ht="20.25" thickBot="1">
       <c r="A1" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="D1" s="53" t="s">
-        <v>45</v>
+        <v>49</v>
+      </c>
+      <c r="D1" s="52" t="s">
+        <v>39</v>
       </c>
       <c r="E1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="G1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="H1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="I1" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="J1" s="15" t="s">
-        <v>5</v>
-      </c>
       <c r="K1" s="3"/>
     </row>
     <row r="2" spans="1:11" ht="20.25" thickTop="1">
-      <c r="A2" s="56" t="s">
-        <v>114</v>
-      </c>
-      <c r="B2" s="56" t="s">
-        <v>115</v>
+      <c r="A2" s="55" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" s="55" t="s">
+        <v>101</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="D2" s="42" t="s">
-        <v>117</v>
+        <v>102</v>
+      </c>
+      <c r="D2" s="41" t="s">
+        <v>103</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>400</v>
+        <v>386</v>
       </c>
       <c r="H2" s="11"/>
       <c r="I2" s="11" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K2" s="10"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="56" t="s">
-        <v>114</v>
-      </c>
-      <c r="B3" s="56" t="s">
-        <v>115</v>
+      <c r="A3" s="55" t="s">
+        <v>100</v>
+      </c>
+      <c r="B3" s="55" t="s">
+        <v>101</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="D3" s="42" t="s">
-        <v>117</v>
+        <v>107</v>
+      </c>
+      <c r="D3" s="41" t="s">
+        <v>103</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>401</v>
+        <v>387</v>
       </c>
       <c r="H3" s="11"/>
       <c r="I3" s="11" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K3" s="10"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="56" t="s">
-        <v>114</v>
-      </c>
-      <c r="B4" s="56" t="s">
-        <v>115</v>
+      <c r="A4" s="55" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4" s="55" t="s">
+        <v>101</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="D4" s="42" t="s">
-        <v>117</v>
+        <v>111</v>
+      </c>
+      <c r="D4" s="41" t="s">
+        <v>103</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>402</v>
+        <v>388</v>
       </c>
       <c r="H4" s="11"/>
       <c r="I4" s="11" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K4" s="10"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="56" t="s">
-        <v>114</v>
-      </c>
-      <c r="B5" s="56" t="s">
+      <c r="A5" s="55" t="s">
+        <v>100</v>
+      </c>
+      <c r="B5" s="55" t="s">
+        <v>101</v>
+      </c>
+      <c r="C5" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="C5" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="D5" s="42" t="s">
+      <c r="D5" s="41" t="s">
+        <v>103</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="F5" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="E5" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>131</v>
-      </c>
       <c r="G5" s="11" t="s">
-        <v>403</v>
+        <v>389</v>
       </c>
       <c r="H5" s="11"/>
       <c r="I5" s="11" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K5" s="10"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="56" t="s">
-        <v>114</v>
-      </c>
-      <c r="B6" s="56" t="s">
-        <v>115</v>
+      <c r="A6" s="55" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6" s="55" t="s">
+        <v>101</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="D6" s="42" t="s">
-        <v>117</v>
+        <v>119</v>
+      </c>
+      <c r="D6" s="41" t="s">
+        <v>103</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>404</v>
+        <v>390</v>
       </c>
       <c r="H6" s="11"/>
       <c r="I6" s="11" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K6" s="10"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="56" t="s">
-        <v>114</v>
-      </c>
-      <c r="B7" s="56" t="s">
-        <v>115</v>
+      <c r="A7" s="55" t="s">
+        <v>100</v>
+      </c>
+      <c r="B7" s="55" t="s">
+        <v>101</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="D7" s="42" t="s">
-        <v>117</v>
+        <v>123</v>
+      </c>
+      <c r="D7" s="41" t="s">
+        <v>103</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>405</v>
+        <v>391</v>
       </c>
       <c r="H7" s="11"/>
       <c r="I7" s="11" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K7" s="10"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="56" t="s">
-        <v>114</v>
-      </c>
-      <c r="B8" s="56" t="s">
-        <v>115</v>
+      <c r="A8" s="55" t="s">
+        <v>100</v>
+      </c>
+      <c r="B8" s="55" t="s">
+        <v>101</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="D8" s="42" t="s">
-        <v>117</v>
+        <v>127</v>
+      </c>
+      <c r="D8" s="41" t="s">
+        <v>103</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>406</v>
+        <v>392</v>
       </c>
       <c r="H8" s="11"/>
       <c r="I8" s="11" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K8" s="10"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="56" t="s">
-        <v>114</v>
-      </c>
-      <c r="B9" s="56" t="s">
-        <v>115</v>
+      <c r="A9" s="55" t="s">
+        <v>100</v>
+      </c>
+      <c r="B9" s="55" t="s">
+        <v>101</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="D9" s="42" t="s">
-        <v>117</v>
+        <v>131</v>
+      </c>
+      <c r="D9" s="41" t="s">
+        <v>103</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>407</v>
+        <v>393</v>
       </c>
       <c r="H9" s="11"/>
       <c r="I9" s="11" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K9" s="10"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="56" t="s">
-        <v>114</v>
-      </c>
-      <c r="B10" s="56" t="s">
-        <v>149</v>
+      <c r="A10" s="55" t="s">
+        <v>100</v>
+      </c>
+      <c r="B10" s="55" t="s">
+        <v>135</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="D10" s="42" t="s">
-        <v>117</v>
+        <v>136</v>
+      </c>
+      <c r="D10" s="41" t="s">
+        <v>103</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>408</v>
+        <v>394</v>
       </c>
       <c r="H10" s="11"/>
       <c r="I10" s="11" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K10" s="10"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="56" t="s">
-        <v>114</v>
-      </c>
-      <c r="B11" s="56" t="s">
-        <v>149</v>
+      <c r="A11" s="55" t="s">
+        <v>100</v>
+      </c>
+      <c r="B11" s="55" t="s">
+        <v>135</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="D11" s="42" t="s">
-        <v>117</v>
+        <v>140</v>
+      </c>
+      <c r="D11" s="41" t="s">
+        <v>103</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>409</v>
+        <v>395</v>
       </c>
       <c r="H11" s="11"/>
       <c r="I11" s="11" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K11" s="10"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="56" t="s">
-        <v>114</v>
-      </c>
-      <c r="B12" s="56" t="s">
-        <v>149</v>
+      <c r="A12" s="55" t="s">
+        <v>100</v>
+      </c>
+      <c r="B12" s="55" t="s">
+        <v>135</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="D12" s="42" t="s">
-        <v>117</v>
+        <v>144</v>
+      </c>
+      <c r="D12" s="41" t="s">
+        <v>103</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="H12" s="11"/>
       <c r="I12" s="11" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K12" s="10"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="56" t="s">
-        <v>114</v>
-      </c>
-      <c r="B13" s="56" t="s">
+      <c r="A13" s="55" t="s">
+        <v>100</v>
+      </c>
+      <c r="B13" s="55" t="s">
+        <v>135</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D13" s="41" t="s">
+        <v>103</v>
+      </c>
+      <c r="E13" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="C13" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="D13" s="42" t="s">
-        <v>117</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>163</v>
-      </c>
       <c r="F13" s="11" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="H13" s="11"/>
       <c r="I13" s="11" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K13" s="10"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="56" t="s">
-        <v>114</v>
-      </c>
-      <c r="B14" s="56" t="s">
-        <v>149</v>
+      <c r="A14" s="55" t="s">
+        <v>100</v>
+      </c>
+      <c r="B14" s="55" t="s">
+        <v>135</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="D14" s="42" t="s">
-        <v>117</v>
+        <v>152</v>
+      </c>
+      <c r="D14" s="41" t="s">
+        <v>103</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="H14" s="11"/>
       <c r="I14" s="11" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K14" s="10"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="56" t="s">
-        <v>114</v>
-      </c>
-      <c r="B15" s="56" t="s">
-        <v>149</v>
+      <c r="A15" s="55" t="s">
+        <v>100</v>
+      </c>
+      <c r="B15" s="55" t="s">
+        <v>135</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="D15" s="42" t="s">
-        <v>117</v>
+        <v>156</v>
+      </c>
+      <c r="D15" s="41" t="s">
+        <v>103</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>413</v>
+        <v>399</v>
       </c>
       <c r="H15" s="11"/>
       <c r="I15" s="11" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K15" s="10"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="56" t="s">
-        <v>174</v>
-      </c>
-      <c r="B16" s="56" t="s">
-        <v>175</v>
+      <c r="A16" s="55" t="s">
+        <v>160</v>
+      </c>
+      <c r="B16" s="55" t="s">
+        <v>161</v>
       </c>
       <c r="C16" s="11"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="61" t="s">
-        <v>473</v>
-      </c>
-      <c r="F16" s="92" t="s">
-        <v>480</v>
-      </c>
+      <c r="D16" s="41"/>
+      <c r="E16" s="59" t="s">
+        <v>459</v>
+      </c>
+      <c r="F16" s="60"/>
       <c r="G16" s="11"/>
       <c r="H16" s="11"/>
       <c r="I16" s="11"/>
@@ -4307,39 +4551,39 @@
       <c r="I17" s="22"/>
       <c r="J17" s="22"/>
       <c r="K17" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:11" s="39" customFormat="1" ht="165" customHeight="1">
       <c r="A18" s="36" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B18" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="C18" s="36" t="s">
-        <v>74</v>
-      </c>
-      <c r="D18" s="37" t="s">
-        <v>70</v>
-      </c>
       <c r="E18" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="F18" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="F18" s="36" t="s">
-        <v>71</v>
-      </c>
       <c r="G18" s="36" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="H18" s="36" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="I18" s="36" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="J18" s="36" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="K18" s="38"/>
     </row>
@@ -4352,48 +4596,48 @@
       <c r="K20" s="18"/>
     </row>
     <row r="21" spans="1:11" ht="14.25" customHeight="1">
-      <c r="B21" s="83" t="s">
-        <v>73</v>
-      </c>
-      <c r="C21" s="84"/>
-      <c r="D21" s="84"/>
-      <c r="E21" s="85"/>
+      <c r="B21" s="94" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" s="95"/>
+      <c r="D21" s="95"/>
+      <c r="E21" s="96"/>
     </row>
     <row r="22" spans="1:11">
-      <c r="B22" s="86"/>
-      <c r="C22" s="87"/>
-      <c r="D22" s="87"/>
-      <c r="E22" s="88"/>
+      <c r="B22" s="97"/>
+      <c r="C22" s="98"/>
+      <c r="D22" s="98"/>
+      <c r="E22" s="99"/>
     </row>
     <row r="23" spans="1:11">
-      <c r="B23" s="86"/>
-      <c r="C23" s="87"/>
-      <c r="D23" s="87"/>
-      <c r="E23" s="88"/>
+      <c r="B23" s="97"/>
+      <c r="C23" s="98"/>
+      <c r="D23" s="98"/>
+      <c r="E23" s="99"/>
     </row>
     <row r="24" spans="1:11">
-      <c r="B24" s="86"/>
-      <c r="C24" s="87"/>
-      <c r="D24" s="87"/>
-      <c r="E24" s="88"/>
+      <c r="B24" s="97"/>
+      <c r="C24" s="98"/>
+      <c r="D24" s="98"/>
+      <c r="E24" s="99"/>
     </row>
     <row r="25" spans="1:11">
-      <c r="B25" s="86"/>
-      <c r="C25" s="87"/>
-      <c r="D25" s="87"/>
-      <c r="E25" s="88"/>
+      <c r="B25" s="97"/>
+      <c r="C25" s="98"/>
+      <c r="D25" s="98"/>
+      <c r="E25" s="99"/>
     </row>
     <row r="26" spans="1:11">
-      <c r="B26" s="86"/>
-      <c r="C26" s="87"/>
-      <c r="D26" s="87"/>
-      <c r="E26" s="88"/>
+      <c r="B26" s="97"/>
+      <c r="C26" s="98"/>
+      <c r="D26" s="98"/>
+      <c r="E26" s="99"/>
     </row>
     <row r="27" spans="1:11">
-      <c r="B27" s="89"/>
-      <c r="C27" s="90"/>
-      <c r="D27" s="90"/>
-      <c r="E27" s="91"/>
+      <c r="B27" s="100"/>
+      <c r="C27" s="101"/>
+      <c r="D27" s="101"/>
+      <c r="E27" s="102"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
@@ -4459,299 +4703,299 @@
   <sheetData>
     <row r="1" spans="1:11" customFormat="1" ht="20.25" thickBot="1">
       <c r="A1" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="D1" s="53" t="s">
-        <v>45</v>
+        <v>49</v>
+      </c>
+      <c r="D1" s="52" t="s">
+        <v>39</v>
       </c>
       <c r="E1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="G1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="H1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="I1" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="J1" s="15" t="s">
-        <v>5</v>
-      </c>
       <c r="K1" s="3"/>
     </row>
     <row r="2" spans="1:11" ht="20.25" thickTop="1">
-      <c r="A2" s="56" t="s">
-        <v>114</v>
-      </c>
-      <c r="B2" s="56" t="s">
-        <v>176</v>
+      <c r="A2" s="55" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" s="55" t="s">
+        <v>162</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="D2" s="42" t="s">
-        <v>117</v>
+        <v>163</v>
+      </c>
+      <c r="D2" s="41" t="s">
+        <v>103</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>414</v>
+        <v>400</v>
       </c>
       <c r="H2" s="11"/>
       <c r="I2" s="11" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K2" s="10"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="56" t="s">
-        <v>114</v>
-      </c>
-      <c r="B3" s="56" t="s">
-        <v>176</v>
+      <c r="A3" s="55" t="s">
+        <v>100</v>
+      </c>
+      <c r="B3" s="55" t="s">
+        <v>162</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="D3" s="42" t="s">
-        <v>117</v>
+        <v>167</v>
+      </c>
+      <c r="D3" s="41" t="s">
+        <v>103</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>415</v>
+        <v>401</v>
       </c>
       <c r="H3" s="11"/>
       <c r="I3" s="11" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K3" s="10"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="56" t="s">
-        <v>114</v>
-      </c>
-      <c r="B4" s="56" t="s">
-        <v>176</v>
+      <c r="A4" s="55" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4" s="55" t="s">
+        <v>162</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="D4" s="42" t="s">
-        <v>117</v>
+        <v>171</v>
+      </c>
+      <c r="D4" s="41" t="s">
+        <v>103</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>416</v>
+        <v>402</v>
       </c>
       <c r="H4" s="11"/>
       <c r="I4" s="11" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K4" s="10"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="56" t="s">
-        <v>114</v>
-      </c>
-      <c r="B5" s="56" t="s">
+      <c r="A5" s="55" t="s">
+        <v>100</v>
+      </c>
+      <c r="B5" s="55" t="s">
+        <v>162</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="D5" s="41" t="s">
+        <v>103</v>
+      </c>
+      <c r="E5" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="C5" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="D5" s="42" t="s">
-        <v>117</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>190</v>
-      </c>
       <c r="F5" s="11" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>417</v>
+        <v>403</v>
       </c>
       <c r="H5" s="11"/>
       <c r="I5" s="11" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K5" s="10"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="56" t="s">
-        <v>114</v>
-      </c>
-      <c r="B6" s="56" t="s">
-        <v>176</v>
+      <c r="A6" s="55" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6" s="55" t="s">
+        <v>162</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="D6" s="42" t="s">
-        <v>117</v>
+        <v>179</v>
+      </c>
+      <c r="D6" s="41" t="s">
+        <v>103</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>418</v>
+        <v>404</v>
       </c>
       <c r="H6" s="11"/>
       <c r="I6" s="11" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K6" s="10"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="56" t="s">
-        <v>114</v>
-      </c>
-      <c r="B7" s="56" t="s">
-        <v>176</v>
+      <c r="A7" s="55" t="s">
+        <v>100</v>
+      </c>
+      <c r="B7" s="55" t="s">
+        <v>162</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="D7" s="42" t="s">
-        <v>117</v>
+        <v>183</v>
+      </c>
+      <c r="D7" s="41" t="s">
+        <v>103</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>419</v>
+        <v>405</v>
       </c>
       <c r="H7" s="11"/>
       <c r="I7" s="11" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K7" s="10"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="56" t="s">
-        <v>114</v>
-      </c>
-      <c r="B8" s="56" t="s">
-        <v>176</v>
+      <c r="A8" s="55" t="s">
+        <v>100</v>
+      </c>
+      <c r="B8" s="55" t="s">
+        <v>162</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="D8" s="42" t="s">
-        <v>117</v>
+        <v>187</v>
+      </c>
+      <c r="D8" s="41" t="s">
+        <v>103</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>420</v>
+        <v>406</v>
       </c>
       <c r="H8" s="11"/>
       <c r="I8" s="11" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K8" s="10"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="56" t="s">
-        <v>114</v>
-      </c>
-      <c r="B9" s="56" t="s">
-        <v>176</v>
+      <c r="A9" s="55" t="s">
+        <v>100</v>
+      </c>
+      <c r="B9" s="55" t="s">
+        <v>162</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="D9" s="42" t="s">
-        <v>117</v>
+        <v>191</v>
+      </c>
+      <c r="D9" s="41" t="s">
+        <v>103</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>421</v>
+        <v>407</v>
       </c>
       <c r="H9" s="11"/>
       <c r="I9" s="11" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K9" s="10"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="56" t="s">
-        <v>174</v>
-      </c>
-      <c r="B10" s="56" t="s">
-        <v>175</v>
+      <c r="A10" s="55" t="s">
+        <v>160</v>
+      </c>
+      <c r="B10" s="55" t="s">
+        <v>161</v>
       </c>
       <c r="C10" s="11"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="58" t="s">
-        <v>474</v>
-      </c>
-      <c r="F10" s="92" t="s">
-        <v>480</v>
+      <c r="D10" s="41"/>
+      <c r="E10" s="57" t="s">
+        <v>460</v>
+      </c>
+      <c r="F10" s="60" t="s">
+        <v>466</v>
       </c>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
@@ -4771,39 +5015,39 @@
       <c r="I11" s="22"/>
       <c r="J11" s="22"/>
       <c r="K11" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:11" s="39" customFormat="1" ht="165" customHeight="1">
       <c r="A12" s="36" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B12" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="C12" s="36" t="s">
-        <v>74</v>
-      </c>
-      <c r="D12" s="37" t="s">
-        <v>70</v>
-      </c>
       <c r="E12" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="F12" s="36" t="s">
-        <v>71</v>
-      </c>
       <c r="G12" s="36" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="H12" s="36" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="I12" s="36" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="J12" s="36" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="K12" s="38"/>
     </row>
@@ -4816,48 +5060,48 @@
       <c r="K14" s="18"/>
     </row>
     <row r="15" spans="1:11" ht="14.25" customHeight="1">
-      <c r="B15" s="83" t="s">
-        <v>73</v>
-      </c>
-      <c r="C15" s="84"/>
-      <c r="D15" s="84"/>
-      <c r="E15" s="85"/>
+      <c r="B15" s="94" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" s="95"/>
+      <c r="D15" s="95"/>
+      <c r="E15" s="96"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="B16" s="86"/>
-      <c r="C16" s="87"/>
-      <c r="D16" s="87"/>
-      <c r="E16" s="88"/>
+      <c r="B16" s="97"/>
+      <c r="C16" s="98"/>
+      <c r="D16" s="98"/>
+      <c r="E16" s="99"/>
     </row>
     <row r="17" spans="2:5">
-      <c r="B17" s="86"/>
-      <c r="C17" s="87"/>
-      <c r="D17" s="87"/>
-      <c r="E17" s="88"/>
+      <c r="B17" s="97"/>
+      <c r="C17" s="98"/>
+      <c r="D17" s="98"/>
+      <c r="E17" s="99"/>
     </row>
     <row r="18" spans="2:5">
-      <c r="B18" s="86"/>
-      <c r="C18" s="87"/>
-      <c r="D18" s="87"/>
-      <c r="E18" s="88"/>
+      <c r="B18" s="97"/>
+      <c r="C18" s="98"/>
+      <c r="D18" s="98"/>
+      <c r="E18" s="99"/>
     </row>
     <row r="19" spans="2:5">
-      <c r="B19" s="86"/>
-      <c r="C19" s="87"/>
-      <c r="D19" s="87"/>
-      <c r="E19" s="88"/>
+      <c r="B19" s="97"/>
+      <c r="C19" s="98"/>
+      <c r="D19" s="98"/>
+      <c r="E19" s="99"/>
     </row>
     <row r="20" spans="2:5">
-      <c r="B20" s="86"/>
-      <c r="C20" s="87"/>
-      <c r="D20" s="87"/>
-      <c r="E20" s="88"/>
+      <c r="B20" s="97"/>
+      <c r="C20" s="98"/>
+      <c r="D20" s="98"/>
+      <c r="E20" s="99"/>
     </row>
     <row r="21" spans="2:5">
-      <c r="B21" s="89"/>
-      <c r="C21" s="90"/>
-      <c r="D21" s="90"/>
-      <c r="E21" s="91"/>
+      <c r="B21" s="100"/>
+      <c r="C21" s="101"/>
+      <c r="D21" s="101"/>
+      <c r="E21" s="102"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
@@ -4923,268 +5167,268 @@
   <sheetData>
     <row r="1" spans="1:11" customFormat="1" ht="20.25" thickBot="1">
       <c r="A1" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="D1" s="53" t="s">
-        <v>45</v>
+        <v>49</v>
+      </c>
+      <c r="D1" s="52" t="s">
+        <v>39</v>
       </c>
       <c r="E1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="G1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="H1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="I1" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="J1" s="15" t="s">
-        <v>5</v>
-      </c>
       <c r="K1" s="3"/>
     </row>
     <row r="2" spans="1:11" ht="20.25" thickTop="1">
-      <c r="A2" s="56" t="s">
-        <v>114</v>
-      </c>
-      <c r="B2" s="56" t="s">
-        <v>95</v>
+      <c r="A2" s="55" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" s="55" t="s">
+        <v>81</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="D2" s="42" t="s">
-        <v>117</v>
+        <v>195</v>
+      </c>
+      <c r="D2" s="41" t="s">
+        <v>103</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="H2" s="11"/>
       <c r="I2" s="11" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K2" s="10"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="56" t="s">
-        <v>114</v>
-      </c>
-      <c r="B3" s="56" t="s">
-        <v>95</v>
+      <c r="A3" s="55" t="s">
+        <v>100</v>
+      </c>
+      <c r="B3" s="55" t="s">
+        <v>81</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>213</v>
-      </c>
-      <c r="D3" s="42" t="s">
-        <v>117</v>
+        <v>199</v>
+      </c>
+      <c r="D3" s="41" t="s">
+        <v>103</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>423</v>
+        <v>409</v>
       </c>
       <c r="H3" s="11"/>
       <c r="I3" s="11" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K3" s="10"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="56" t="s">
-        <v>114</v>
-      </c>
-      <c r="B4" s="56" t="s">
-        <v>95</v>
+      <c r="A4" s="55" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4" s="55" t="s">
+        <v>81</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>217</v>
-      </c>
-      <c r="D4" s="42" t="s">
-        <v>117</v>
+        <v>203</v>
+      </c>
+      <c r="D4" s="41" t="s">
+        <v>103</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>424</v>
+        <v>410</v>
       </c>
       <c r="H4" s="11"/>
       <c r="I4" s="11" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K4" s="10"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="56" t="s">
-        <v>114</v>
-      </c>
-      <c r="B5" s="56" t="s">
-        <v>95</v>
+      <c r="A5" s="55" t="s">
+        <v>100</v>
+      </c>
+      <c r="B5" s="55" t="s">
+        <v>81</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="D5" s="42" t="s">
-        <v>117</v>
+        <v>207</v>
+      </c>
+      <c r="D5" s="41" t="s">
+        <v>103</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>425</v>
+        <v>411</v>
       </c>
       <c r="H5" s="11"/>
       <c r="I5" s="11" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K5" s="10"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="56" t="s">
-        <v>114</v>
-      </c>
-      <c r="B6" s="56" t="s">
-        <v>95</v>
+      <c r="A6" s="55" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6" s="55" t="s">
+        <v>81</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>225</v>
-      </c>
-      <c r="D6" s="42" t="s">
-        <v>117</v>
+        <v>211</v>
+      </c>
+      <c r="D6" s="41" t="s">
+        <v>103</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>426</v>
+        <v>412</v>
       </c>
       <c r="H6" s="11"/>
       <c r="I6" s="11" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K6" s="10"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="56" t="s">
-        <v>114</v>
-      </c>
-      <c r="B7" s="56" t="s">
-        <v>95</v>
+      <c r="A7" s="55" t="s">
+        <v>100</v>
+      </c>
+      <c r="B7" s="55" t="s">
+        <v>81</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>229</v>
-      </c>
-      <c r="D7" s="42" t="s">
-        <v>117</v>
+        <v>215</v>
+      </c>
+      <c r="D7" s="41" t="s">
+        <v>103</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>427</v>
+        <v>413</v>
       </c>
       <c r="H7" s="11"/>
       <c r="I7" s="11" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K7" s="10"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="56" t="s">
-        <v>114</v>
-      </c>
-      <c r="B8" s="56" t="s">
-        <v>95</v>
+      <c r="A8" s="55" t="s">
+        <v>100</v>
+      </c>
+      <c r="B8" s="55" t="s">
+        <v>81</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="D8" s="42" t="s">
-        <v>117</v>
+        <v>219</v>
+      </c>
+      <c r="D8" s="41" t="s">
+        <v>103</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>428</v>
+        <v>414</v>
       </c>
       <c r="H8" s="11"/>
       <c r="I8" s="11" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K8" s="10"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="56" t="s">
-        <v>174</v>
-      </c>
-      <c r="B9" s="56" t="s">
-        <v>175</v>
+      <c r="A9" s="55" t="s">
+        <v>160</v>
+      </c>
+      <c r="B9" s="55" t="s">
+        <v>161</v>
       </c>
       <c r="C9" s="11"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="61" t="s">
-        <v>475</v>
-      </c>
-      <c r="F9" s="92" t="s">
-        <v>480</v>
+      <c r="D9" s="41"/>
+      <c r="E9" s="59" t="s">
+        <v>461</v>
+      </c>
+      <c r="F9" s="60" t="s">
+        <v>466</v>
       </c>
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
@@ -5204,39 +5448,39 @@
       <c r="I10" s="22"/>
       <c r="J10" s="22"/>
       <c r="K10" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="39" customFormat="1" ht="165" customHeight="1">
       <c r="A11" s="36" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B11" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="C11" s="36" t="s">
-        <v>74</v>
-      </c>
-      <c r="D11" s="37" t="s">
-        <v>70</v>
-      </c>
       <c r="E11" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="F11" s="36" t="s">
-        <v>71</v>
-      </c>
       <c r="G11" s="36" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="H11" s="36" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="I11" s="36" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="J11" s="36" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="K11" s="38"/>
     </row>
@@ -5249,48 +5493,48 @@
       <c r="K13" s="18"/>
     </row>
     <row r="14" spans="1:11" ht="14.25" customHeight="1">
-      <c r="B14" s="83" t="s">
-        <v>73</v>
-      </c>
-      <c r="C14" s="84"/>
-      <c r="D14" s="84"/>
-      <c r="E14" s="85"/>
+      <c r="B14" s="94" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="95"/>
+      <c r="D14" s="95"/>
+      <c r="E14" s="96"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="B15" s="86"/>
-      <c r="C15" s="87"/>
-      <c r="D15" s="87"/>
-      <c r="E15" s="88"/>
+      <c r="B15" s="97"/>
+      <c r="C15" s="98"/>
+      <c r="D15" s="98"/>
+      <c r="E15" s="99"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="B16" s="86"/>
-      <c r="C16" s="87"/>
-      <c r="D16" s="87"/>
-      <c r="E16" s="88"/>
+      <c r="B16" s="97"/>
+      <c r="C16" s="98"/>
+      <c r="D16" s="98"/>
+      <c r="E16" s="99"/>
     </row>
     <row r="17" spans="2:5">
-      <c r="B17" s="86"/>
-      <c r="C17" s="87"/>
-      <c r="D17" s="87"/>
-      <c r="E17" s="88"/>
+      <c r="B17" s="97"/>
+      <c r="C17" s="98"/>
+      <c r="D17" s="98"/>
+      <c r="E17" s="99"/>
     </row>
     <row r="18" spans="2:5">
-      <c r="B18" s="86"/>
-      <c r="C18" s="87"/>
-      <c r="D18" s="87"/>
-      <c r="E18" s="88"/>
+      <c r="B18" s="97"/>
+      <c r="C18" s="98"/>
+      <c r="D18" s="98"/>
+      <c r="E18" s="99"/>
     </row>
     <row r="19" spans="2:5">
-      <c r="B19" s="86"/>
-      <c r="C19" s="87"/>
-      <c r="D19" s="87"/>
-      <c r="E19" s="88"/>
+      <c r="B19" s="97"/>
+      <c r="C19" s="98"/>
+      <c r="D19" s="98"/>
+      <c r="E19" s="99"/>
     </row>
     <row r="20" spans="2:5">
-      <c r="B20" s="89"/>
-      <c r="C20" s="90"/>
-      <c r="D20" s="90"/>
-      <c r="E20" s="91"/>
+      <c r="B20" s="100"/>
+      <c r="C20" s="101"/>
+      <c r="D20" s="101"/>
+      <c r="E20" s="102"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
@@ -5356,330 +5600,330 @@
   <sheetData>
     <row r="1" spans="1:11" customFormat="1" ht="20.25" thickBot="1">
       <c r="A1" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="D1" s="53" t="s">
-        <v>45</v>
+        <v>49</v>
+      </c>
+      <c r="D1" s="52" t="s">
+        <v>39</v>
       </c>
       <c r="E1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="G1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="H1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="I1" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="J1" s="15" t="s">
-        <v>5</v>
-      </c>
       <c r="K1" s="3"/>
     </row>
     <row r="2" spans="1:11" ht="20.25" thickTop="1">
-      <c r="A2" s="56" t="s">
-        <v>114</v>
-      </c>
-      <c r="B2" s="56" t="s">
-        <v>237</v>
+      <c r="A2" s="55" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" s="55" t="s">
+        <v>223</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="D2" s="42" t="s">
-        <v>117</v>
+        <v>224</v>
+      </c>
+      <c r="D2" s="41" t="s">
+        <v>103</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>429</v>
+        <v>415</v>
       </c>
       <c r="H2" s="11"/>
       <c r="I2" s="11" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K2" s="10"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="56" t="s">
-        <v>114</v>
-      </c>
-      <c r="B3" s="56" t="s">
-        <v>237</v>
+      <c r="A3" s="55" t="s">
+        <v>100</v>
+      </c>
+      <c r="B3" s="55" t="s">
+        <v>223</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>242</v>
-      </c>
-      <c r="D3" s="42" t="s">
-        <v>117</v>
+        <v>228</v>
+      </c>
+      <c r="D3" s="41" t="s">
+        <v>103</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>430</v>
+        <v>416</v>
       </c>
       <c r="H3" s="11"/>
       <c r="I3" s="11" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K3" s="10"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="56" t="s">
-        <v>114</v>
-      </c>
-      <c r="B4" s="56" t="s">
-        <v>237</v>
+      <c r="A4" s="55" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4" s="55" t="s">
+        <v>223</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="D4" s="42" t="s">
-        <v>117</v>
+        <v>232</v>
+      </c>
+      <c r="D4" s="41" t="s">
+        <v>103</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>431</v>
+        <v>417</v>
       </c>
       <c r="H4" s="11"/>
       <c r="I4" s="11" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K4" s="10"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="56" t="s">
-        <v>114</v>
-      </c>
-      <c r="B5" s="56" t="s">
+      <c r="A5" s="55" t="s">
+        <v>100</v>
+      </c>
+      <c r="B5" s="55" t="s">
+        <v>223</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="D5" s="41" t="s">
+        <v>103</v>
+      </c>
+      <c r="E5" s="11" t="s">
         <v>237</v>
       </c>
-      <c r="C5" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="D5" s="42" t="s">
-        <v>117</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>251</v>
-      </c>
       <c r="F5" s="11" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>432</v>
+        <v>418</v>
       </c>
       <c r="H5" s="11"/>
       <c r="I5" s="11" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K5" s="10"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="56" t="s">
-        <v>114</v>
-      </c>
-      <c r="B6" s="56" t="s">
-        <v>237</v>
+      <c r="A6" s="55" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6" s="55" t="s">
+        <v>223</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>254</v>
-      </c>
-      <c r="D6" s="42" t="s">
-        <v>117</v>
+        <v>240</v>
+      </c>
+      <c r="D6" s="41" t="s">
+        <v>103</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>433</v>
+        <v>419</v>
       </c>
       <c r="H6" s="11"/>
       <c r="I6" s="11" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K6" s="10"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="56" t="s">
-        <v>114</v>
-      </c>
-      <c r="B7" s="56" t="s">
-        <v>237</v>
+      <c r="A7" s="55" t="s">
+        <v>100</v>
+      </c>
+      <c r="B7" s="55" t="s">
+        <v>223</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>258</v>
-      </c>
-      <c r="D7" s="42" t="s">
-        <v>117</v>
+        <v>244</v>
+      </c>
+      <c r="D7" s="41" t="s">
+        <v>103</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>434</v>
+        <v>420</v>
       </c>
       <c r="H7" s="11"/>
       <c r="I7" s="11" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K7" s="10"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="56" t="s">
-        <v>114</v>
-      </c>
-      <c r="B8" s="56" t="s">
-        <v>237</v>
+      <c r="A8" s="55" t="s">
+        <v>100</v>
+      </c>
+      <c r="B8" s="55" t="s">
+        <v>223</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>262</v>
-      </c>
-      <c r="D8" s="42" t="s">
-        <v>117</v>
+        <v>248</v>
+      </c>
+      <c r="D8" s="41" t="s">
+        <v>103</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>435</v>
+        <v>421</v>
       </c>
       <c r="H8" s="11"/>
       <c r="I8" s="11" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K8" s="10"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="56" t="s">
-        <v>114</v>
-      </c>
-      <c r="B9" s="56" t="s">
-        <v>237</v>
+      <c r="A9" s="55" t="s">
+        <v>100</v>
+      </c>
+      <c r="B9" s="55" t="s">
+        <v>223</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>266</v>
-      </c>
-      <c r="D9" s="42" t="s">
-        <v>117</v>
+        <v>252</v>
+      </c>
+      <c r="D9" s="41" t="s">
+        <v>103</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>268</v>
+        <v>254</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>436</v>
+        <v>422</v>
       </c>
       <c r="H9" s="11"/>
       <c r="I9" s="11" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K9" s="10"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="56" t="s">
-        <v>114</v>
-      </c>
-      <c r="B10" s="56" t="s">
-        <v>237</v>
+      <c r="A10" s="55" t="s">
+        <v>100</v>
+      </c>
+      <c r="B10" s="55" t="s">
+        <v>223</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>270</v>
-      </c>
-      <c r="D10" s="42" t="s">
-        <v>117</v>
+        <v>256</v>
+      </c>
+      <c r="D10" s="41" t="s">
+        <v>103</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>271</v>
+        <v>257</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>272</v>
+        <v>258</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>437</v>
+        <v>423</v>
       </c>
       <c r="H10" s="11"/>
       <c r="I10" s="11" t="s">
-        <v>273</v>
+        <v>259</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K10" s="10"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="56" t="s">
-        <v>174</v>
-      </c>
-      <c r="B11" s="56" t="s">
-        <v>175</v>
+      <c r="A11" s="55" t="s">
+        <v>160</v>
+      </c>
+      <c r="B11" s="55" t="s">
+        <v>161</v>
       </c>
       <c r="C11" s="11"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="61" t="s">
-        <v>476</v>
-      </c>
-      <c r="F11" s="92" t="s">
-        <v>481</v>
+      <c r="D11" s="41"/>
+      <c r="E11" s="59" t="s">
+        <v>462</v>
+      </c>
+      <c r="F11" s="60" t="s">
+        <v>467</v>
       </c>
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
@@ -5699,39 +5943,39 @@
       <c r="I12" s="22"/>
       <c r="J12" s="22"/>
       <c r="K12" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:11" s="39" customFormat="1" ht="165" customHeight="1">
       <c r="A13" s="36" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B13" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="C13" s="36" t="s">
-        <v>74</v>
-      </c>
-      <c r="D13" s="37" t="s">
-        <v>70</v>
-      </c>
       <c r="E13" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="F13" s="36" t="s">
-        <v>71</v>
-      </c>
       <c r="G13" s="36" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="H13" s="36" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="I13" s="36" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="J13" s="36" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="K13" s="38"/>
     </row>
@@ -5744,48 +5988,48 @@
       <c r="K15" s="18"/>
     </row>
     <row r="16" spans="1:11" ht="14.25" customHeight="1">
-      <c r="B16" s="83" t="s">
-        <v>73</v>
-      </c>
-      <c r="C16" s="84"/>
-      <c r="D16" s="84"/>
-      <c r="E16" s="85"/>
+      <c r="B16" s="94" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="95"/>
+      <c r="D16" s="95"/>
+      <c r="E16" s="96"/>
     </row>
     <row r="17" spans="2:5">
-      <c r="B17" s="86"/>
-      <c r="C17" s="87"/>
-      <c r="D17" s="87"/>
-      <c r="E17" s="88"/>
+      <c r="B17" s="97"/>
+      <c r="C17" s="98"/>
+      <c r="D17" s="98"/>
+      <c r="E17" s="99"/>
     </row>
     <row r="18" spans="2:5">
-      <c r="B18" s="86"/>
-      <c r="C18" s="87"/>
-      <c r="D18" s="87"/>
-      <c r="E18" s="88"/>
+      <c r="B18" s="97"/>
+      <c r="C18" s="98"/>
+      <c r="D18" s="98"/>
+      <c r="E18" s="99"/>
     </row>
     <row r="19" spans="2:5">
-      <c r="B19" s="86"/>
-      <c r="C19" s="87"/>
-      <c r="D19" s="87"/>
-      <c r="E19" s="88"/>
+      <c r="B19" s="97"/>
+      <c r="C19" s="98"/>
+      <c r="D19" s="98"/>
+      <c r="E19" s="99"/>
     </row>
     <row r="20" spans="2:5">
-      <c r="B20" s="86"/>
-      <c r="C20" s="87"/>
-      <c r="D20" s="87"/>
-      <c r="E20" s="88"/>
+      <c r="B20" s="97"/>
+      <c r="C20" s="98"/>
+      <c r="D20" s="98"/>
+      <c r="E20" s="99"/>
     </row>
     <row r="21" spans="2:5">
-      <c r="B21" s="86"/>
-      <c r="C21" s="87"/>
-      <c r="D21" s="87"/>
-      <c r="E21" s="88"/>
+      <c r="B21" s="97"/>
+      <c r="C21" s="98"/>
+      <c r="D21" s="98"/>
+      <c r="E21" s="99"/>
     </row>
     <row r="22" spans="2:5">
-      <c r="B22" s="89"/>
-      <c r="C22" s="90"/>
-      <c r="D22" s="90"/>
-      <c r="E22" s="91"/>
+      <c r="B22" s="100"/>
+      <c r="C22" s="101"/>
+      <c r="D22" s="101"/>
+      <c r="E22" s="102"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
@@ -5851,392 +6095,392 @@
   <sheetData>
     <row r="1" spans="1:11" customFormat="1" ht="20.25" thickBot="1">
       <c r="A1" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="D1" s="53" t="s">
-        <v>45</v>
+        <v>49</v>
+      </c>
+      <c r="D1" s="52" t="s">
+        <v>39</v>
       </c>
       <c r="E1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="G1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="H1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="I1" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="J1" s="15" t="s">
-        <v>5</v>
-      </c>
       <c r="K1" s="3"/>
     </row>
     <row r="2" spans="1:11" ht="20.25" thickTop="1">
-      <c r="A2" s="56" t="s">
-        <v>114</v>
-      </c>
-      <c r="B2" s="56" t="s">
-        <v>274</v>
+      <c r="A2" s="55" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" s="55" t="s">
+        <v>260</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>275</v>
-      </c>
-      <c r="D2" s="42" t="s">
-        <v>117</v>
+        <v>261</v>
+      </c>
+      <c r="D2" s="41" t="s">
+        <v>103</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>277</v>
+        <v>263</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>438</v>
+        <v>424</v>
       </c>
       <c r="H2" s="11"/>
       <c r="I2" s="11" t="s">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K2" s="10"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="56" t="s">
-        <v>114</v>
-      </c>
-      <c r="B3" s="56" t="s">
-        <v>274</v>
+      <c r="A3" s="55" t="s">
+        <v>100</v>
+      </c>
+      <c r="B3" s="55" t="s">
+        <v>260</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="D3" s="42" t="s">
-        <v>117</v>
+        <v>265</v>
+      </c>
+      <c r="D3" s="41" t="s">
+        <v>103</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>439</v>
+        <v>425</v>
       </c>
       <c r="H3" s="11"/>
       <c r="I3" s="11" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K3" s="10"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="56" t="s">
-        <v>114</v>
-      </c>
-      <c r="B4" s="56" t="s">
-        <v>274</v>
+      <c r="A4" s="55" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4" s="55" t="s">
+        <v>260</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>283</v>
-      </c>
-      <c r="D4" s="42" t="s">
-        <v>117</v>
+        <v>269</v>
+      </c>
+      <c r="D4" s="41" t="s">
+        <v>103</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>440</v>
+        <v>426</v>
       </c>
       <c r="H4" s="11"/>
       <c r="I4" s="11" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K4" s="10"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="56" t="s">
-        <v>114</v>
-      </c>
-      <c r="B5" s="56" t="s">
+      <c r="A5" s="55" t="s">
+        <v>100</v>
+      </c>
+      <c r="B5" s="55" t="s">
+        <v>260</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="D5" s="41" t="s">
+        <v>103</v>
+      </c>
+      <c r="E5" s="11" t="s">
         <v>274</v>
       </c>
-      <c r="C5" s="11" t="s">
-        <v>287</v>
-      </c>
-      <c r="D5" s="42" t="s">
-        <v>117</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>288</v>
-      </c>
       <c r="F5" s="11" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>441</v>
+        <v>427</v>
       </c>
       <c r="H5" s="11"/>
       <c r="I5" s="11" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K5" s="10"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="56" t="s">
-        <v>114</v>
-      </c>
-      <c r="B6" s="56" t="s">
-        <v>274</v>
+      <c r="A6" s="55" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6" s="55" t="s">
+        <v>260</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>291</v>
-      </c>
-      <c r="D6" s="42" t="s">
-        <v>117</v>
+        <v>277</v>
+      </c>
+      <c r="D6" s="41" t="s">
+        <v>103</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>442</v>
+        <v>428</v>
       </c>
       <c r="H6" s="11"/>
       <c r="I6" s="11" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K6" s="10"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="56" t="s">
-        <v>114</v>
-      </c>
-      <c r="B7" s="56" t="s">
-        <v>274</v>
+      <c r="A7" s="55" t="s">
+        <v>100</v>
+      </c>
+      <c r="B7" s="55" t="s">
+        <v>260</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>295</v>
-      </c>
-      <c r="D7" s="42" t="s">
-        <v>117</v>
+        <v>281</v>
+      </c>
+      <c r="D7" s="41" t="s">
+        <v>103</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>297</v>
+        <v>283</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>443</v>
+        <v>429</v>
       </c>
       <c r="H7" s="11"/>
       <c r="I7" s="11" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K7" s="10"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="56" t="s">
-        <v>114</v>
-      </c>
-      <c r="B8" s="56" t="s">
-        <v>274</v>
+      <c r="A8" s="55" t="s">
+        <v>100</v>
+      </c>
+      <c r="B8" s="55" t="s">
+        <v>260</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>299</v>
-      </c>
-      <c r="D8" s="42" t="s">
-        <v>117</v>
+        <v>285</v>
+      </c>
+      <c r="D8" s="41" t="s">
+        <v>103</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>300</v>
+        <v>286</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>444</v>
+        <v>430</v>
       </c>
       <c r="H8" s="11"/>
       <c r="I8" s="11" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K8" s="10"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="56" t="s">
-        <v>114</v>
-      </c>
-      <c r="B9" s="56" t="s">
-        <v>274</v>
+      <c r="A9" s="55" t="s">
+        <v>100</v>
+      </c>
+      <c r="B9" s="55" t="s">
+        <v>260</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>303</v>
-      </c>
-      <c r="D9" s="42" t="s">
-        <v>117</v>
+        <v>289</v>
+      </c>
+      <c r="D9" s="41" t="s">
+        <v>103</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>304</v>
+        <v>290</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>305</v>
+        <v>291</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>445</v>
+        <v>431</v>
       </c>
       <c r="H9" s="11"/>
       <c r="I9" s="11" t="s">
-        <v>306</v>
+        <v>292</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K9" s="10"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="56" t="s">
-        <v>114</v>
-      </c>
-      <c r="B10" s="56" t="s">
-        <v>274</v>
+      <c r="A10" s="55" t="s">
+        <v>100</v>
+      </c>
+      <c r="B10" s="55" t="s">
+        <v>260</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>307</v>
-      </c>
-      <c r="D10" s="42" t="s">
-        <v>117</v>
+        <v>293</v>
+      </c>
+      <c r="D10" s="41" t="s">
+        <v>103</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>308</v>
+        <v>294</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>446</v>
+        <v>432</v>
       </c>
       <c r="H10" s="11"/>
       <c r="I10" s="11" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K10" s="10"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="56" t="s">
-        <v>114</v>
-      </c>
-      <c r="B11" s="56" t="s">
-        <v>274</v>
+      <c r="A11" s="55" t="s">
+        <v>100</v>
+      </c>
+      <c r="B11" s="55" t="s">
+        <v>260</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>311</v>
-      </c>
-      <c r="D11" s="42" t="s">
-        <v>117</v>
+        <v>297</v>
+      </c>
+      <c r="D11" s="41" t="s">
+        <v>103</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>447</v>
+        <v>433</v>
       </c>
       <c r="H11" s="11"/>
       <c r="I11" s="11" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K11" s="10"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="56" t="s">
-        <v>114</v>
-      </c>
-      <c r="B12" s="56" t="s">
-        <v>274</v>
+      <c r="A12" s="55" t="s">
+        <v>100</v>
+      </c>
+      <c r="B12" s="55" t="s">
+        <v>260</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>315</v>
-      </c>
-      <c r="D12" s="42" t="s">
-        <v>117</v>
+        <v>301</v>
+      </c>
+      <c r="D12" s="41" t="s">
+        <v>103</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>317</v>
+        <v>303</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>448</v>
+        <v>434</v>
       </c>
       <c r="H12" s="11"/>
       <c r="I12" s="11" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K12" s="10"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="56" t="s">
-        <v>174</v>
-      </c>
-      <c r="B13" s="56" t="s">
-        <v>175</v>
+      <c r="A13" s="55" t="s">
+        <v>160</v>
+      </c>
+      <c r="B13" s="55" t="s">
+        <v>161</v>
       </c>
       <c r="C13" s="11"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="61" t="s">
-        <v>477</v>
-      </c>
-      <c r="F13" s="92" t="s">
-        <v>480</v>
+      <c r="D13" s="41"/>
+      <c r="E13" s="59" t="s">
+        <v>463</v>
+      </c>
+      <c r="F13" s="60" t="s">
+        <v>466</v>
       </c>
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>
@@ -6256,39 +6500,39 @@
       <c r="I14" s="22"/>
       <c r="J14" s="22"/>
       <c r="K14" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:11" s="39" customFormat="1" ht="165" customHeight="1">
       <c r="A15" s="36" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B15" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="C15" s="36" t="s">
-        <v>74</v>
-      </c>
-      <c r="D15" s="37" t="s">
-        <v>70</v>
-      </c>
       <c r="E15" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="F15" s="36" t="s">
-        <v>71</v>
-      </c>
       <c r="G15" s="36" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="H15" s="36" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="I15" s="36" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="J15" s="36" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="K15" s="38"/>
     </row>
@@ -6301,48 +6545,48 @@
       <c r="K17" s="18"/>
     </row>
     <row r="18" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B18" s="83" t="s">
-        <v>73</v>
-      </c>
-      <c r="C18" s="84"/>
-      <c r="D18" s="84"/>
-      <c r="E18" s="85"/>
+      <c r="B18" s="94" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="95"/>
+      <c r="D18" s="95"/>
+      <c r="E18" s="96"/>
     </row>
     <row r="19" spans="2:11">
-      <c r="B19" s="86"/>
-      <c r="C19" s="87"/>
-      <c r="D19" s="87"/>
-      <c r="E19" s="88"/>
+      <c r="B19" s="97"/>
+      <c r="C19" s="98"/>
+      <c r="D19" s="98"/>
+      <c r="E19" s="99"/>
     </row>
     <row r="20" spans="2:11">
-      <c r="B20" s="86"/>
-      <c r="C20" s="87"/>
-      <c r="D20" s="87"/>
-      <c r="E20" s="88"/>
+      <c r="B20" s="97"/>
+      <c r="C20" s="98"/>
+      <c r="D20" s="98"/>
+      <c r="E20" s="99"/>
     </row>
     <row r="21" spans="2:11">
-      <c r="B21" s="86"/>
-      <c r="C21" s="87"/>
-      <c r="D21" s="87"/>
-      <c r="E21" s="88"/>
+      <c r="B21" s="97"/>
+      <c r="C21" s="98"/>
+      <c r="D21" s="98"/>
+      <c r="E21" s="99"/>
     </row>
     <row r="22" spans="2:11">
-      <c r="B22" s="86"/>
-      <c r="C22" s="87"/>
-      <c r="D22" s="87"/>
-      <c r="E22" s="88"/>
+      <c r="B22" s="97"/>
+      <c r="C22" s="98"/>
+      <c r="D22" s="98"/>
+      <c r="E22" s="99"/>
     </row>
     <row r="23" spans="2:11">
-      <c r="B23" s="86"/>
-      <c r="C23" s="87"/>
-      <c r="D23" s="87"/>
-      <c r="E23" s="88"/>
+      <c r="B23" s="97"/>
+      <c r="C23" s="98"/>
+      <c r="D23" s="98"/>
+      <c r="E23" s="99"/>
     </row>
     <row r="24" spans="2:11">
-      <c r="B24" s="89"/>
-      <c r="C24" s="90"/>
-      <c r="D24" s="90"/>
-      <c r="E24" s="91"/>
+      <c r="B24" s="100"/>
+      <c r="C24" s="101"/>
+      <c r="D24" s="101"/>
+      <c r="E24" s="102"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
@@ -6408,299 +6652,299 @@
   <sheetData>
     <row r="1" spans="1:11" customFormat="1" ht="20.25" thickBot="1">
       <c r="A1" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="D1" s="53" t="s">
-        <v>45</v>
+        <v>49</v>
+      </c>
+      <c r="D1" s="52" t="s">
+        <v>39</v>
       </c>
       <c r="E1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="G1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="H1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="I1" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="J1" s="15" t="s">
-        <v>5</v>
-      </c>
       <c r="K1" s="3"/>
     </row>
     <row r="2" spans="1:11" ht="20.25" thickTop="1">
-      <c r="A2" s="56" t="s">
-        <v>114</v>
-      </c>
-      <c r="B2" s="56" t="s">
-        <v>319</v>
+      <c r="A2" s="55" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" s="55" t="s">
+        <v>305</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>320</v>
-      </c>
-      <c r="D2" s="42" t="s">
-        <v>117</v>
+        <v>306</v>
+      </c>
+      <c r="D2" s="41" t="s">
+        <v>103</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>449</v>
+        <v>435</v>
       </c>
       <c r="H2" s="11"/>
       <c r="I2" s="11" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K2" s="10"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="56" t="s">
-        <v>114</v>
-      </c>
-      <c r="B3" s="56" t="s">
-        <v>319</v>
+      <c r="A3" s="55" t="s">
+        <v>100</v>
+      </c>
+      <c r="B3" s="55" t="s">
+        <v>305</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>324</v>
-      </c>
-      <c r="D3" s="42" t="s">
-        <v>117</v>
+        <v>310</v>
+      </c>
+      <c r="D3" s="41" t="s">
+        <v>103</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>325</v>
+        <v>311</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="H3" s="11"/>
       <c r="I3" s="11" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K3" s="10"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="56" t="s">
-        <v>114</v>
-      </c>
-      <c r="B4" s="56" t="s">
-        <v>319</v>
+      <c r="A4" s="55" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4" s="55" t="s">
+        <v>305</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>328</v>
-      </c>
-      <c r="D4" s="42" t="s">
-        <v>117</v>
+        <v>314</v>
+      </c>
+      <c r="D4" s="41" t="s">
+        <v>103</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>451</v>
+        <v>437</v>
       </c>
       <c r="H4" s="11"/>
       <c r="I4" s="11" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K4" s="10"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="56" t="s">
-        <v>114</v>
-      </c>
-      <c r="B5" s="56" t="s">
+      <c r="A5" s="55" t="s">
+        <v>100</v>
+      </c>
+      <c r="B5" s="55" t="s">
+        <v>305</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="D5" s="41" t="s">
+        <v>103</v>
+      </c>
+      <c r="E5" s="11" t="s">
         <v>319</v>
       </c>
-      <c r="C5" s="11" t="s">
-        <v>332</v>
-      </c>
-      <c r="D5" s="42" t="s">
-        <v>117</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>333</v>
-      </c>
       <c r="F5" s="11" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>452</v>
+        <v>438</v>
       </c>
       <c r="H5" s="11"/>
       <c r="I5" s="11" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K5" s="10"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="56" t="s">
-        <v>114</v>
-      </c>
-      <c r="B6" s="56" t="s">
-        <v>319</v>
+      <c r="A6" s="55" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6" s="55" t="s">
+        <v>305</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>336</v>
-      </c>
-      <c r="D6" s="42" t="s">
-        <v>117</v>
+        <v>322</v>
+      </c>
+      <c r="D6" s="41" t="s">
+        <v>103</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>453</v>
+        <v>439</v>
       </c>
       <c r="H6" s="11"/>
       <c r="I6" s="11" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K6" s="10"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="56" t="s">
-        <v>114</v>
-      </c>
-      <c r="B7" s="56" t="s">
-        <v>319</v>
+      <c r="A7" s="55" t="s">
+        <v>100</v>
+      </c>
+      <c r="B7" s="55" t="s">
+        <v>305</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>340</v>
-      </c>
-      <c r="D7" s="42" t="s">
-        <v>117</v>
+        <v>326</v>
+      </c>
+      <c r="D7" s="41" t="s">
+        <v>103</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>341</v>
+        <v>327</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>454</v>
+        <v>440</v>
       </c>
       <c r="H7" s="11"/>
       <c r="I7" s="11" t="s">
-        <v>343</v>
+        <v>329</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K7" s="10"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="56" t="s">
-        <v>114</v>
-      </c>
-      <c r="B8" s="56" t="s">
-        <v>319</v>
+      <c r="A8" s="55" t="s">
+        <v>100</v>
+      </c>
+      <c r="B8" s="55" t="s">
+        <v>305</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>344</v>
-      </c>
-      <c r="D8" s="42" t="s">
-        <v>117</v>
+        <v>330</v>
+      </c>
+      <c r="D8" s="41" t="s">
+        <v>103</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>455</v>
+        <v>441</v>
       </c>
       <c r="H8" s="11"/>
       <c r="I8" s="11" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K8" s="10"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="56" t="s">
-        <v>114</v>
-      </c>
-      <c r="B9" s="56" t="s">
-        <v>319</v>
+      <c r="A9" s="55" t="s">
+        <v>100</v>
+      </c>
+      <c r="B9" s="55" t="s">
+        <v>305</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>348</v>
-      </c>
-      <c r="D9" s="42" t="s">
-        <v>117</v>
+        <v>334</v>
+      </c>
+      <c r="D9" s="41" t="s">
+        <v>103</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>349</v>
+        <v>335</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>350</v>
+        <v>336</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>456</v>
+        <v>442</v>
       </c>
       <c r="H9" s="11"/>
       <c r="I9" s="11" t="s">
-        <v>351</v>
+        <v>337</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K9" s="10"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="56" t="s">
-        <v>174</v>
-      </c>
-      <c r="B10" s="56" t="s">
-        <v>175</v>
+      <c r="A10" s="55" t="s">
+        <v>160</v>
+      </c>
+      <c r="B10" s="55" t="s">
+        <v>161</v>
       </c>
       <c r="C10" s="11"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="61" t="s">
-        <v>478</v>
-      </c>
-      <c r="F10" s="92" t="s">
-        <v>480</v>
+      <c r="D10" s="41"/>
+      <c r="E10" s="59" t="s">
+        <v>464</v>
+      </c>
+      <c r="F10" s="60" t="s">
+        <v>466</v>
       </c>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
@@ -6720,39 +6964,39 @@
       <c r="I11" s="22"/>
       <c r="J11" s="22"/>
       <c r="K11" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:11" s="39" customFormat="1" ht="165" customHeight="1">
       <c r="A12" s="36" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B12" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="C12" s="36" t="s">
-        <v>74</v>
-      </c>
-      <c r="D12" s="37" t="s">
-        <v>70</v>
-      </c>
       <c r="E12" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="F12" s="36" t="s">
-        <v>71</v>
-      </c>
       <c r="G12" s="36" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="H12" s="36" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="I12" s="36" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="J12" s="36" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="K12" s="38"/>
     </row>
@@ -6765,48 +7009,48 @@
       <c r="K14" s="18"/>
     </row>
     <row r="15" spans="1:11" ht="14.25" customHeight="1">
-      <c r="B15" s="83" t="s">
-        <v>73</v>
-      </c>
-      <c r="C15" s="84"/>
-      <c r="D15" s="84"/>
-      <c r="E15" s="85"/>
+      <c r="B15" s="94" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" s="95"/>
+      <c r="D15" s="95"/>
+      <c r="E15" s="96"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="B16" s="86"/>
-      <c r="C16" s="87"/>
-      <c r="D16" s="87"/>
-      <c r="E16" s="88"/>
+      <c r="B16" s="97"/>
+      <c r="C16" s="98"/>
+      <c r="D16" s="98"/>
+      <c r="E16" s="99"/>
     </row>
     <row r="17" spans="2:5">
-      <c r="B17" s="86"/>
-      <c r="C17" s="87"/>
-      <c r="D17" s="87"/>
-      <c r="E17" s="88"/>
+      <c r="B17" s="97"/>
+      <c r="C17" s="98"/>
+      <c r="D17" s="98"/>
+      <c r="E17" s="99"/>
     </row>
     <row r="18" spans="2:5">
-      <c r="B18" s="86"/>
-      <c r="C18" s="87"/>
-      <c r="D18" s="87"/>
-      <c r="E18" s="88"/>
+      <c r="B18" s="97"/>
+      <c r="C18" s="98"/>
+      <c r="D18" s="98"/>
+      <c r="E18" s="99"/>
     </row>
     <row r="19" spans="2:5">
-      <c r="B19" s="86"/>
-      <c r="C19" s="87"/>
-      <c r="D19" s="87"/>
-      <c r="E19" s="88"/>
+      <c r="B19" s="97"/>
+      <c r="C19" s="98"/>
+      <c r="D19" s="98"/>
+      <c r="E19" s="99"/>
     </row>
     <row r="20" spans="2:5">
-      <c r="B20" s="86"/>
-      <c r="C20" s="87"/>
-      <c r="D20" s="87"/>
-      <c r="E20" s="88"/>
+      <c r="B20" s="97"/>
+      <c r="C20" s="98"/>
+      <c r="D20" s="98"/>
+      <c r="E20" s="99"/>
     </row>
     <row r="21" spans="2:5">
-      <c r="B21" s="89"/>
-      <c r="C21" s="90"/>
-      <c r="D21" s="90"/>
-      <c r="E21" s="91"/>
+      <c r="B21" s="100"/>
+      <c r="C21" s="101"/>
+      <c r="D21" s="101"/>
+      <c r="E21" s="102"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
@@ -6872,423 +7116,423 @@
   <sheetData>
     <row r="1" spans="1:11" customFormat="1" ht="20.25" thickBot="1">
       <c r="A1" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="D1" s="53" t="s">
-        <v>45</v>
+        <v>49</v>
+      </c>
+      <c r="D1" s="52" t="s">
+        <v>39</v>
       </c>
       <c r="E1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="G1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="H1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="I1" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="J1" s="15" t="s">
-        <v>5</v>
-      </c>
       <c r="K1" s="3"/>
     </row>
     <row r="2" spans="1:11" ht="20.25" thickTop="1">
-      <c r="A2" s="56" t="s">
-        <v>114</v>
-      </c>
-      <c r="B2" s="56" t="s">
-        <v>111</v>
+      <c r="A2" s="55" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" s="55" t="s">
+        <v>97</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>352</v>
-      </c>
-      <c r="D2" s="42" t="s">
-        <v>117</v>
+        <v>338</v>
+      </c>
+      <c r="D2" s="41" t="s">
+        <v>103</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>353</v>
+        <v>339</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>354</v>
+        <v>340</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>457</v>
+        <v>443</v>
       </c>
       <c r="H2" s="11"/>
       <c r="I2" s="11" t="s">
-        <v>355</v>
+        <v>341</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K2" s="10"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="56" t="s">
-        <v>114</v>
-      </c>
-      <c r="B3" s="56" t="s">
-        <v>111</v>
+      <c r="A3" s="55" t="s">
+        <v>100</v>
+      </c>
+      <c r="B3" s="55" t="s">
+        <v>97</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>356</v>
-      </c>
-      <c r="D3" s="42" t="s">
-        <v>117</v>
+        <v>342</v>
+      </c>
+      <c r="D3" s="41" t="s">
+        <v>103</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>357</v>
+        <v>343</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>358</v>
+        <v>344</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>458</v>
+        <v>444</v>
       </c>
       <c r="H3" s="11"/>
       <c r="I3" s="11" t="s">
-        <v>359</v>
+        <v>345</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K3" s="10"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="56" t="s">
-        <v>114</v>
-      </c>
-      <c r="B4" s="56" t="s">
-        <v>111</v>
+      <c r="A4" s="55" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4" s="55" t="s">
+        <v>97</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>360</v>
-      </c>
-      <c r="D4" s="42" t="s">
-        <v>117</v>
+        <v>346</v>
+      </c>
+      <c r="D4" s="41" t="s">
+        <v>103</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>362</v>
+        <v>348</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>459</v>
+        <v>445</v>
       </c>
       <c r="H4" s="11"/>
       <c r="I4" s="11" t="s">
-        <v>363</v>
+        <v>349</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K4" s="10"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="56" t="s">
-        <v>114</v>
-      </c>
-      <c r="B5" s="56" t="s">
-        <v>111</v>
+      <c r="A5" s="55" t="s">
+        <v>100</v>
+      </c>
+      <c r="B5" s="55" t="s">
+        <v>97</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>364</v>
-      </c>
-      <c r="D5" s="42" t="s">
-        <v>117</v>
+        <v>350</v>
+      </c>
+      <c r="D5" s="41" t="s">
+        <v>103</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>365</v>
+        <v>351</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>460</v>
+        <v>446</v>
       </c>
       <c r="H5" s="11"/>
       <c r="I5" s="11" t="s">
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K5" s="10"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="56" t="s">
-        <v>114</v>
-      </c>
-      <c r="B6" s="56" t="s">
-        <v>111</v>
+      <c r="A6" s="55" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6" s="55" t="s">
+        <v>97</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>368</v>
-      </c>
-      <c r="D6" s="42" t="s">
-        <v>117</v>
+        <v>354</v>
+      </c>
+      <c r="D6" s="41" t="s">
+        <v>103</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>369</v>
+        <v>355</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>461</v>
+        <v>447</v>
       </c>
       <c r="H6" s="11"/>
       <c r="I6" s="11" t="s">
-        <v>371</v>
+        <v>357</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K6" s="10"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="56" t="s">
-        <v>114</v>
-      </c>
-      <c r="B7" s="56" t="s">
-        <v>111</v>
+      <c r="A7" s="55" t="s">
+        <v>100</v>
+      </c>
+      <c r="B7" s="55" t="s">
+        <v>97</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>372</v>
-      </c>
-      <c r="D7" s="42" t="s">
-        <v>117</v>
+        <v>358</v>
+      </c>
+      <c r="D7" s="41" t="s">
+        <v>103</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>374</v>
+        <v>360</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>462</v>
+        <v>448</v>
       </c>
       <c r="H7" s="11"/>
       <c r="I7" s="11" t="s">
-        <v>375</v>
+        <v>361</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K7" s="10"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="56" t="s">
-        <v>114</v>
-      </c>
-      <c r="B8" s="56" t="s">
-        <v>111</v>
+      <c r="A8" s="55" t="s">
+        <v>100</v>
+      </c>
+      <c r="B8" s="55" t="s">
+        <v>97</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>376</v>
-      </c>
-      <c r="D8" s="42" t="s">
-        <v>117</v>
+        <v>362</v>
+      </c>
+      <c r="D8" s="41" t="s">
+        <v>103</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>377</v>
+        <v>363</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>378</v>
+        <v>364</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>463</v>
+        <v>449</v>
       </c>
       <c r="H8" s="11"/>
       <c r="I8" s="11" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K8" s="10"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="56" t="s">
-        <v>114</v>
-      </c>
-      <c r="B9" s="56" t="s">
-        <v>111</v>
+      <c r="A9" s="55" t="s">
+        <v>100</v>
+      </c>
+      <c r="B9" s="55" t="s">
+        <v>97</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>380</v>
-      </c>
-      <c r="D9" s="42" t="s">
-        <v>117</v>
+        <v>366</v>
+      </c>
+      <c r="D9" s="41" t="s">
+        <v>103</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>381</v>
+        <v>367</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>382</v>
+        <v>368</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>464</v>
+        <v>450</v>
       </c>
       <c r="H9" s="11"/>
       <c r="I9" s="11" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K9" s="10"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="56" t="s">
-        <v>114</v>
-      </c>
-      <c r="B10" s="56" t="s">
-        <v>111</v>
+      <c r="A10" s="55" t="s">
+        <v>100</v>
+      </c>
+      <c r="B10" s="55" t="s">
+        <v>97</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>384</v>
-      </c>
-      <c r="D10" s="42" t="s">
-        <v>117</v>
+        <v>370</v>
+      </c>
+      <c r="D10" s="41" t="s">
+        <v>103</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>385</v>
+        <v>371</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>465</v>
+        <v>451</v>
       </c>
       <c r="H10" s="11"/>
       <c r="I10" s="11" t="s">
-        <v>387</v>
+        <v>373</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K10" s="10"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="56" t="s">
-        <v>114</v>
-      </c>
-      <c r="B11" s="56" t="s">
-        <v>111</v>
+      <c r="A11" s="55" t="s">
+        <v>100</v>
+      </c>
+      <c r="B11" s="55" t="s">
+        <v>97</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>388</v>
-      </c>
-      <c r="D11" s="42" t="s">
-        <v>117</v>
+        <v>374</v>
+      </c>
+      <c r="D11" s="41" t="s">
+        <v>103</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>466</v>
+        <v>452</v>
       </c>
       <c r="H11" s="11"/>
       <c r="I11" s="11" t="s">
-        <v>391</v>
+        <v>377</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K11" s="10"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="56" t="s">
-        <v>114</v>
-      </c>
-      <c r="B12" s="56" t="s">
-        <v>111</v>
+      <c r="A12" s="55" t="s">
+        <v>100</v>
+      </c>
+      <c r="B12" s="55" t="s">
+        <v>97</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>392</v>
-      </c>
-      <c r="D12" s="42" t="s">
-        <v>117</v>
+        <v>378</v>
+      </c>
+      <c r="D12" s="41" t="s">
+        <v>103</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>393</v>
+        <v>379</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>467</v>
+        <v>453</v>
       </c>
       <c r="H12" s="11"/>
       <c r="I12" s="11" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K12" s="10"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="56" t="s">
-        <v>114</v>
-      </c>
-      <c r="B13" s="56" t="s">
-        <v>111</v>
+      <c r="A13" s="55" t="s">
+        <v>100</v>
+      </c>
+      <c r="B13" s="55" t="s">
+        <v>97</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>396</v>
-      </c>
-      <c r="D13" s="42" t="s">
-        <v>117</v>
+        <v>382</v>
+      </c>
+      <c r="D13" s="41" t="s">
+        <v>103</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>397</v>
+        <v>383</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>398</v>
+        <v>384</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>468</v>
+        <v>454</v>
       </c>
       <c r="H13" s="11"/>
       <c r="I13" s="11" t="s">
-        <v>399</v>
+        <v>385</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K13" s="10"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="56" t="s">
-        <v>174</v>
-      </c>
-      <c r="B14" s="56" t="s">
-        <v>175</v>
+      <c r="A14" s="55" t="s">
+        <v>160</v>
+      </c>
+      <c r="B14" s="55" t="s">
+        <v>161</v>
       </c>
       <c r="C14" s="11"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="61" t="s">
-        <v>479</v>
-      </c>
-      <c r="F14" s="92" t="s">
-        <v>482</v>
+      <c r="D14" s="41"/>
+      <c r="E14" s="59" t="s">
+        <v>465</v>
+      </c>
+      <c r="F14" s="60" t="s">
+        <v>468</v>
       </c>
       <c r="G14" s="11"/>
       <c r="H14" s="11"/>
@@ -7308,39 +7552,39 @@
       <c r="I15" s="22"/>
       <c r="J15" s="22"/>
       <c r="K15" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:11" s="39" customFormat="1" ht="165" customHeight="1">
       <c r="A16" s="36" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B16" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="C16" s="36" t="s">
-        <v>74</v>
-      </c>
-      <c r="D16" s="37" t="s">
-        <v>70</v>
-      </c>
       <c r="E16" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="F16" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="F16" s="36" t="s">
-        <v>71</v>
-      </c>
       <c r="G16" s="36" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="H16" s="36" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="I16" s="36" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="J16" s="36" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="K16" s="38"/>
     </row>
@@ -7353,48 +7597,48 @@
       <c r="K18" s="18"/>
     </row>
     <row r="19" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B19" s="83" t="s">
-        <v>73</v>
-      </c>
-      <c r="C19" s="84"/>
-      <c r="D19" s="84"/>
-      <c r="E19" s="85"/>
+      <c r="B19" s="94" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="95"/>
+      <c r="D19" s="95"/>
+      <c r="E19" s="96"/>
     </row>
     <row r="20" spans="2:11">
-      <c r="B20" s="86"/>
-      <c r="C20" s="87"/>
-      <c r="D20" s="87"/>
-      <c r="E20" s="88"/>
+      <c r="B20" s="97"/>
+      <c r="C20" s="98"/>
+      <c r="D20" s="98"/>
+      <c r="E20" s="99"/>
     </row>
     <row r="21" spans="2:11">
-      <c r="B21" s="86"/>
-      <c r="C21" s="87"/>
-      <c r="D21" s="87"/>
-      <c r="E21" s="88"/>
+      <c r="B21" s="97"/>
+      <c r="C21" s="98"/>
+      <c r="D21" s="98"/>
+      <c r="E21" s="99"/>
     </row>
     <row r="22" spans="2:11">
-      <c r="B22" s="86"/>
-      <c r="C22" s="87"/>
-      <c r="D22" s="87"/>
-      <c r="E22" s="88"/>
+      <c r="B22" s="97"/>
+      <c r="C22" s="98"/>
+      <c r="D22" s="98"/>
+      <c r="E22" s="99"/>
     </row>
     <row r="23" spans="2:11">
-      <c r="B23" s="86"/>
-      <c r="C23" s="87"/>
-      <c r="D23" s="87"/>
-      <c r="E23" s="88"/>
+      <c r="B23" s="97"/>
+      <c r="C23" s="98"/>
+      <c r="D23" s="98"/>
+      <c r="E23" s="99"/>
     </row>
     <row r="24" spans="2:11">
-      <c r="B24" s="86"/>
-      <c r="C24" s="87"/>
-      <c r="D24" s="87"/>
-      <c r="E24" s="88"/>
+      <c r="B24" s="97"/>
+      <c r="C24" s="98"/>
+      <c r="D24" s="98"/>
+      <c r="E24" s="99"/>
     </row>
     <row r="25" spans="2:11">
-      <c r="B25" s="89"/>
-      <c r="C25" s="90"/>
-      <c r="D25" s="90"/>
-      <c r="E25" s="91"/>
+      <c r="B25" s="100"/>
+      <c r="C25" s="101"/>
+      <c r="D25" s="101"/>
+      <c r="E25" s="102"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>

--- a/structure-books_network1.xlsx
+++ b/structure-books_network1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CHiLO-Producer_ddd\chiloPro\chilo001\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mitsuhashi\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="913" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="491">
   <si>
     <t>main</t>
   </si>
@@ -1945,27 +1945,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>ja</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>日置慎治</t>
-    <rPh sb="0" eb="2">
-      <t>ヒオキ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>マコト</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ジ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>NPO CCC-TIES</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>章ごとに変更するシリーズ情報
 ────────────
 [series-information]の情報のうち、章ごとに変更したい箇所があればここに記入します。
@@ -2013,6 +1992,15 @@
   </si>
   <si>
     <t>001_cover_image_1.png</t>
+  </si>
+  <si>
+    <t>ja</t>
+  </si>
+  <si>
+    <t>日置慎治</t>
+  </si>
+  <si>
+    <t>NPO CCC-TIES</t>
   </si>
 </sst>
 </file>
@@ -3367,7 +3355,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
   <cols>
@@ -3397,7 +3387,7 @@
         <v>25</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="C2" s="30" t="s">
         <v>41</v>
@@ -3411,7 +3401,7 @@
         <v>477</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="C3" s="30" t="s">
         <v>47</v>
@@ -3425,7 +3415,7 @@
         <v>26</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="C4" s="30" t="s">
         <v>21</v>
@@ -3439,7 +3429,7 @@
         <v>27</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="C5" s="30" t="s">
         <v>22</v>
@@ -3450,7 +3440,9 @@
       <c r="A6" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="49"/>
+      <c r="B6" s="49">
+        <v>41530</v>
+      </c>
       <c r="C6" s="30" t="s">
         <v>45</v>
       </c>
@@ -3460,7 +3452,9 @@
       <c r="A7" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="34"/>
+      <c r="B7" s="34">
+        <v>42656</v>
+      </c>
       <c r="C7" s="30" t="s">
         <v>38</v>
       </c>
@@ -3470,7 +3464,9 @@
       <c r="A8" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="32"/>
+      <c r="B8" s="32" t="s">
+        <v>490</v>
+      </c>
       <c r="C8" s="30" t="s">
         <v>19</v>
       </c>
@@ -3735,7 +3731,7 @@
       </c>
       <c r="C2" s="53"/>
       <c r="D2" s="43" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="E2" s="51" t="s">
         <v>75</v>
@@ -3944,7 +3940,7 @@
         <v>58</v>
       </c>
       <c r="G10" s="92" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="H10" s="93"/>
       <c r="I10" s="93"/>

--- a/structure-books_network1.xlsx
+++ b/structure-books_network1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mitsuhashi\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\chilo-producer\chiloPro\chilo001\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="422">
   <si>
     <t>main</t>
   </si>
@@ -695,9 +695,6 @@
     <t>001m_0101.png</t>
   </si>
   <si>
-    <t>hT7vw_D-GXg</t>
-  </si>
-  <si>
     <t>スプートニックショック</t>
   </si>
   <si>
@@ -707,9 +704,6 @@
     <t>001m_0102.png</t>
   </si>
   <si>
-    <t>4C-Yl_PJCIw</t>
-  </si>
-  <si>
     <t>中央集約型ネットワーク</t>
   </si>
   <si>
@@ -719,9 +713,6 @@
     <t>001m_0103.png</t>
   </si>
   <si>
-    <t>XfN90SUtMQE</t>
-  </si>
-  <si>
     <t>分散型ネットワークの登場</t>
   </si>
   <si>
@@ -731,9 +722,6 @@
     <t>001m_0104.png</t>
   </si>
   <si>
-    <t>yjyoKzAbEUM</t>
-  </si>
-  <si>
     <t>ルータの役割</t>
   </si>
   <si>
@@ -743,9 +731,6 @@
     <t>001m_0105.png</t>
   </si>
   <si>
-    <t>JbxJomDCEjo</t>
-  </si>
-  <si>
     <t>コンピュータが作られた背景</t>
   </si>
   <si>
@@ -755,9 +740,6 @@
     <t>001m_0106.png</t>
   </si>
   <si>
-    <t>djA5g6ee6e4</t>
-  </si>
-  <si>
     <t>コンピュートニック</t>
   </si>
   <si>
@@ -767,9 +749,6 @@
     <t>001m_0107.png</t>
   </si>
   <si>
-    <t>XXVlWce8MBo</t>
-  </si>
-  <si>
     <t>地球シミュレータ</t>
   </si>
   <si>
@@ -779,9 +758,6 @@
     <t>001m_0108.png</t>
   </si>
   <si>
-    <t>y4-41rFGdmI</t>
-  </si>
-  <si>
     <t>ビットの復習</t>
   </si>
   <si>
@@ -794,9 +770,6 @@
     <t>001m_0109.png</t>
   </si>
   <si>
-    <t>FTcGkjv50Bk</t>
-  </si>
-  <si>
     <t>3桁2進数</t>
   </si>
   <si>
@@ -806,9 +779,6 @@
     <t>001m_0110.png</t>
   </si>
   <si>
-    <t>UfgFifcmjU0</t>
-  </si>
-  <si>
     <t>ビットで表現できる数の種類</t>
   </si>
   <si>
@@ -818,9 +788,6 @@
     <t>001m_0111.png</t>
   </si>
   <si>
-    <t>FrjDuHqH1E4</t>
-  </si>
-  <si>
     <t>2進数と10進数の変換</t>
   </si>
   <si>
@@ -830,9 +797,6 @@
     <t>001m_0112.png</t>
   </si>
   <si>
-    <t>mpFgXpQ2tSs</t>
-  </si>
-  <si>
     <t>10進数の対応</t>
   </si>
   <si>
@@ -842,9 +806,6 @@
     <t>001m_0113.png</t>
   </si>
   <si>
-    <t>ZHTOQLNQCng</t>
-  </si>
-  <si>
     <t>10進数から2進数への変換</t>
   </si>
   <si>
@@ -852,9 +813,6 @@
   </si>
   <si>
     <t>001m_0114.png</t>
-  </si>
-  <si>
-    <t>85l1JkRzTDg</t>
   </si>
   <si>
     <t>test</t>
@@ -879,9 +837,6 @@
     <t>001m_0201.png</t>
   </si>
   <si>
-    <t>-tumki-skDM</t>
-  </si>
-  <si>
     <t>IPアドレス</t>
   </si>
   <si>
@@ -891,9 +846,6 @@
     <t>001m_0202.png</t>
   </si>
   <si>
-    <t>ev3RTZF2nVQ</t>
-  </si>
-  <si>
     <t>オクテット表記</t>
   </si>
   <si>
@@ -903,9 +855,6 @@
     <t>001m_0203.png</t>
   </si>
   <si>
-    <t>qsr0Gvyanu0</t>
-  </si>
-  <si>
     <t>IPアドレスにおける注意点</t>
   </si>
   <si>
@@ -915,9 +864,6 @@
     <t>001m_0204.png</t>
   </si>
   <si>
-    <t>s0zkVT-4Idw</t>
-  </si>
-  <si>
     <t>IPアドレスの意味</t>
   </si>
   <si>
@@ -927,9 +873,6 @@
     <t>001m_0205.png</t>
   </si>
   <si>
-    <t>AzE0D3KnfVE</t>
-  </si>
-  <si>
     <t>ネットワーク部とホスト部</t>
   </si>
   <si>
@@ -939,9 +882,6 @@
     <t>001m_0206.png</t>
   </si>
   <si>
-    <t>5rHM4FQZy30</t>
-  </si>
-  <si>
     <t>ネットマスク</t>
   </si>
   <si>
@@ -951,9 +891,6 @@
     <t>001m_0207.png</t>
   </si>
   <si>
-    <t>7wVBlai6Ffo</t>
-  </si>
-  <si>
     <t>ネットワークアドレスの計算</t>
   </si>
   <si>
@@ -963,9 +900,6 @@
     <t>001m_0208.png</t>
   </si>
   <si>
-    <t>4VDDJ8rRidk</t>
-  </si>
-  <si>
     <t>2章の復習</t>
   </si>
   <si>
@@ -975,9 +909,6 @@
     <t>001m_0301.png</t>
   </si>
   <si>
-    <t>AWPovePCCJQ</t>
-  </si>
-  <si>
     <t>ネットワーク</t>
   </si>
   <si>
@@ -987,9 +918,6 @@
     <t>001m_0302.png</t>
   </si>
   <si>
-    <t>Z6miHmbWgEQ</t>
-  </si>
-  <si>
     <t>ネットワークアドレスとネットワーク</t>
   </si>
   <si>
@@ -999,9 +927,6 @@
     <t>001m_0303.png</t>
   </si>
   <si>
-    <t>E-4Uqm9dV80</t>
-  </si>
-  <si>
     <t>ルータ</t>
   </si>
   <si>
@@ -1011,9 +936,6 @@
     <t>001m_0304.png</t>
   </si>
   <si>
-    <t>iLHWADNF-kQ</t>
-  </si>
-  <si>
     <t>ルータの必要性</t>
   </si>
   <si>
@@ -1023,9 +945,6 @@
     <t>001m_0305.png</t>
   </si>
   <si>
-    <t>8KVqUud2quE</t>
-  </si>
-  <si>
     <t>ネットワークについて考える</t>
   </si>
   <si>
@@ -1035,9 +954,6 @@
     <t>001m_0306.png</t>
   </si>
   <si>
-    <t>I5-3Vy9prTQ</t>
-  </si>
-  <si>
     <t>ネットワーク通信に必要な3情報</t>
   </si>
   <si>
@@ -1047,9 +963,6 @@
     <t>001m_0307.png</t>
   </si>
   <si>
-    <t>oZPID58cnfw</t>
-  </si>
-  <si>
     <t>ルータ、ルーティング</t>
   </si>
   <si>
@@ -1062,9 +975,6 @@
     <t>001m_0401.png</t>
   </si>
   <si>
-    <t>iL4NA45DSwc</t>
-  </si>
-  <si>
     <t>経由するルータ</t>
   </si>
   <si>
@@ -1074,9 +984,6 @@
     <t>001m_0402.png</t>
   </si>
   <si>
-    <t>fukDX2dQU7g</t>
-  </si>
-  <si>
     <t>ルータの2つの仕事</t>
   </si>
   <si>
@@ -1086,9 +993,6 @@
     <t>001m_0403.png</t>
   </si>
   <si>
-    <t>GXCwBgjNcG0</t>
-  </si>
-  <si>
     <t>ルーティングテーブル</t>
   </si>
   <si>
@@ -1098,9 +1002,6 @@
     <t>001m_0404.png</t>
   </si>
   <si>
-    <t>hfLrDnzGWpk</t>
-  </si>
-  <si>
     <t>スタティックルーティング</t>
   </si>
   <si>
@@ -1110,9 +1011,6 @@
     <t>001m_0405.png</t>
   </si>
   <si>
-    <t>bM6vuuP7exs</t>
-  </si>
-  <si>
     <t>ダイナミックルーティング</t>
   </si>
   <si>
@@ -1122,9 +1020,6 @@
     <t>001m_0406.png</t>
   </si>
   <si>
-    <t>yW5LD12OZzQ</t>
-  </si>
-  <si>
     <t>ルーティングテーブルの長所と短所</t>
   </si>
   <si>
@@ -1134,9 +1029,6 @@
     <t>001m_0407.png</t>
   </si>
   <si>
-    <t>C772_GuvH-o</t>
-  </si>
-  <si>
     <t>ネットワークが3つある場合のルーティングテーブル</t>
   </si>
   <si>
@@ -1146,9 +1038,6 @@
     <t>001m_0408.png</t>
   </si>
   <si>
-    <t>vKk-ab2vTTY</t>
-  </si>
-  <si>
     <t>ネットワークが5つある場合のルーティングテーブル</t>
   </si>
   <si>
@@ -1156,9 +1045,6 @@
   </si>
   <si>
     <t>001m_0409.png</t>
-  </si>
-  <si>
-    <t>3ZIteN2E4mI</t>
   </si>
   <si>
     <t>MACアドレス、IPアドレス、ネットワーク各種コマンド</t>
@@ -1177,9 +1063,6 @@
     <t>001m_0501.png</t>
   </si>
   <si>
-    <t>W68zFlYorKI</t>
-  </si>
-  <si>
     <t>手紙の例で2段階のアドレスを理解する</t>
   </si>
   <si>
@@ -1189,9 +1072,6 @@
     <t>001m_0502.png</t>
   </si>
   <si>
-    <t>xDIjC3w3nDU</t>
-  </si>
-  <si>
     <t>宛先IPアドレスと送信元IPアドレス</t>
   </si>
   <si>
@@ -1201,9 +1081,6 @@
     <t>001m_0503.png</t>
   </si>
   <si>
-    <t>yZaPPX5mEfA</t>
-  </si>
-  <si>
     <t>IPアドレスとMACアドレス</t>
   </si>
   <si>
@@ -1213,9 +1090,6 @@
     <t>001m_0504.png</t>
   </si>
   <si>
-    <t>WluNZs15-rI</t>
-  </si>
-  <si>
     <t>MACアドレス</t>
   </si>
   <si>
@@ -1225,9 +1099,6 @@
     <t>001m_0505.png</t>
   </si>
   <si>
-    <t>FFHMUi0JauE</t>
-  </si>
-  <si>
     <t>同一ネットワークの場合</t>
   </si>
   <si>
@@ -1237,9 +1108,6 @@
     <t>001m_0506.png</t>
   </si>
   <si>
-    <t>jLLRdoRB3HU</t>
-  </si>
-  <si>
     <t>異なるネットワークの場合</t>
   </si>
   <si>
@@ -1249,9 +1117,6 @@
     <t>001m_0507.png</t>
   </si>
   <si>
-    <t>NJM69Iszv_Q</t>
-  </si>
-  <si>
     <t>カプセル化</t>
   </si>
   <si>
@@ -1261,9 +1126,6 @@
     <t>001m_0508.png</t>
   </si>
   <si>
-    <t>uqGK8is9n1I</t>
-  </si>
-  <si>
     <t>MACアドレスを知る仕組み（ARP）</t>
   </si>
   <si>
@@ -1273,9 +1135,6 @@
     <t>001m_0509.png</t>
   </si>
   <si>
-    <t>yiHlY92w9zs</t>
-  </si>
-  <si>
     <t>ネットワークコマンド：ipconfig</t>
   </si>
   <si>
@@ -1285,9 +1144,6 @@
     <t>001m_0510.png</t>
   </si>
   <si>
-    <t>MhPx_MgLpHQ</t>
-  </si>
-  <si>
     <t>ネットワークコマンド：ping, arp, tracert, nslookup</t>
   </si>
   <si>
@@ -1295,9 +1151,6 @@
   </si>
   <si>
     <t>001m_0511.png</t>
-  </si>
-  <si>
-    <t>SPd9rX6LeT4</t>
   </si>
   <si>
     <t>無線LAN</t>
@@ -1316,9 +1169,6 @@
     <t>001m_0601.png</t>
   </si>
   <si>
-    <t>8dEPL45ottk</t>
-  </si>
-  <si>
     <t>無線LANの規格</t>
   </si>
   <si>
@@ -1328,9 +1178,6 @@
     <t>001m_0602.png</t>
   </si>
   <si>
-    <t>iEe9dV-55eA</t>
-  </si>
-  <si>
     <t>11b, 11a, 11g</t>
   </si>
   <si>
@@ -1340,9 +1187,6 @@
     <t>001m_0603.png</t>
   </si>
   <si>
-    <t>L_LhQayZMDE</t>
-  </si>
-  <si>
     <t>無線LANの弱点</t>
   </si>
   <si>
@@ -1352,9 +1196,6 @@
     <t>001m_0604.png</t>
   </si>
   <si>
-    <t>Bc5G-repgb4</t>
-  </si>
-  <si>
     <t>SSID</t>
   </si>
   <si>
@@ -1364,9 +1205,6 @@
     <t>001m_0605.png</t>
   </si>
   <si>
-    <t>uReZCaIPQZE</t>
-  </si>
-  <si>
     <t>MACアドレスフィルタリング</t>
   </si>
   <si>
@@ -1376,9 +1214,6 @@
     <t>001m_0606.png</t>
   </si>
   <si>
-    <t>9FkPyeYrdCU</t>
-  </si>
-  <si>
     <t>IEEE 802.1X</t>
   </si>
   <si>
@@ -1388,9 +1223,6 @@
     <t>001m_0607.png</t>
   </si>
   <si>
-    <t>g7LgfsDWfmQ</t>
-  </si>
-  <si>
     <t>無線LANセキュリティ</t>
   </si>
   <si>
@@ -1400,9 +1232,6 @@
     <t>001m_0608.png</t>
   </si>
   <si>
-    <t>KnNJTUYCAjg</t>
-  </si>
-  <si>
     <t>自宅でインターネット、ADSL</t>
   </si>
   <si>
@@ -1412,9 +1241,6 @@
     <t>001m_0701.png</t>
   </si>
   <si>
-    <t>v1-VoqRjxho</t>
-  </si>
-  <si>
     <t>電話線を使った接続</t>
   </si>
   <si>
@@ -1424,9 +1250,6 @@
     <t>001m_0702.png</t>
   </si>
   <si>
-    <t>5wgAenzPvcQ</t>
-  </si>
-  <si>
     <t>電話線と周波数</t>
   </si>
   <si>
@@ -1436,9 +1259,6 @@
     <t>001m_0703.png</t>
   </si>
   <si>
-    <t>AZVCJ_5k7Pg</t>
-  </si>
-  <si>
     <t>DSL（Digital Subscriber Line）</t>
   </si>
   <si>
@@ -1448,9 +1268,6 @@
     <t>001m_0704.png</t>
   </si>
   <si>
-    <t>_hrbvONQldY</t>
-  </si>
-  <si>
     <t>アナログデジタル変換</t>
   </si>
   <si>
@@ -1460,9 +1277,6 @@
     <t>001m_0705.png</t>
   </si>
   <si>
-    <t>aiMan1tmZwM</t>
-  </si>
-  <si>
     <t>スプリッタ</t>
   </si>
   <si>
@@ -1472,9 +1286,6 @@
     <t>001m_0706.png</t>
   </si>
   <si>
-    <t>hSm9roeLXT0</t>
-  </si>
-  <si>
     <t>NAT（Network Address Translation）</t>
   </si>
   <si>
@@ -1484,9 +1295,6 @@
     <t>001m_0707.png</t>
   </si>
   <si>
-    <t>w3tXjIv2CRg</t>
-  </si>
-  <si>
     <t>NATの例</t>
   </si>
   <si>
@@ -1496,9 +1304,6 @@
     <t>001m_0708.png</t>
   </si>
   <si>
-    <t>eXqezXzbLsA</t>
-  </si>
-  <si>
     <t>NATの弱点</t>
   </si>
   <si>
@@ -1508,9 +1313,6 @@
     <t>001m_0709.png</t>
   </si>
   <si>
-    <t>TQ0EzmoLTn8</t>
-  </si>
-  <si>
     <t>NAPT（Network Address Port Translation）</t>
   </si>
   <si>
@@ -1520,9 +1322,6 @@
     <t>001m_0710.png</t>
   </si>
   <si>
-    <t>nMCZZyEm5Lw</t>
-  </si>
-  <si>
     <t>IPアドレスを複数のPCで利用する</t>
   </si>
   <si>
@@ -1532,9 +1331,6 @@
     <t>001m_0711.png</t>
   </si>
   <si>
-    <t>_wEQ5AWGrXA</t>
-  </si>
-  <si>
     <t>プライベートIPアドレス</t>
   </si>
   <si>
@@ -1542,9 +1338,6 @@
   </si>
   <si>
     <t>001m_0712.png</t>
-  </si>
-  <si>
-    <t>uFpGIB26QUk</t>
   </si>
   <si>
     <t>vol-001-011.txt</t>
@@ -3373,7 +3166,7 @@
         <v>31</v>
       </c>
       <c r="B1" s="32">
-        <v>2.2000000000000002</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="C1" s="30" t="s">
         <v>50</v>
@@ -3387,7 +3180,7 @@
         <v>25</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>488</v>
+        <v>419</v>
       </c>
       <c r="C2" s="30" t="s">
         <v>41</v>
@@ -3398,10 +3191,10 @@
     </row>
     <row r="3" spans="1:4" ht="21" customHeight="1">
       <c r="A3" s="54" t="s">
-        <v>477</v>
+        <v>408</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>489</v>
+        <v>420</v>
       </c>
       <c r="C3" s="30" t="s">
         <v>47</v>
@@ -3415,7 +3208,7 @@
         <v>26</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>490</v>
+        <v>421</v>
       </c>
       <c r="C4" s="30" t="s">
         <v>21</v>
@@ -3429,7 +3222,7 @@
         <v>27</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>490</v>
+        <v>421</v>
       </c>
       <c r="C5" s="30" t="s">
         <v>22</v>
@@ -3453,7 +3246,7 @@
         <v>37</v>
       </c>
       <c r="B7" s="34">
-        <v>42656</v>
+        <v>42871</v>
       </c>
       <c r="C7" s="30" t="s">
         <v>38</v>
@@ -3465,7 +3258,7 @@
         <v>29</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>490</v>
+        <v>421</v>
       </c>
       <c r="C8" s="30" t="s">
         <v>19</v>
@@ -3502,30 +3295,30 @@
     </row>
     <row r="11" spans="1:4" ht="21" customHeight="1">
       <c r="A11" s="54" t="s">
-        <v>478</v>
+        <v>409</v>
       </c>
       <c r="B11" s="68" t="s">
-        <v>479</v>
+        <v>410</v>
       </c>
       <c r="C11" s="30" t="s">
-        <v>480</v>
+        <v>411</v>
       </c>
       <c r="D11" s="29" t="s">
-        <v>481</v>
+        <v>412</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="21" customHeight="1">
       <c r="A12" s="54" t="s">
-        <v>482</v>
+        <v>413</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>485</v>
+        <v>416</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>483</v>
+        <v>414</v>
       </c>
       <c r="D12" s="29" t="s">
-        <v>484</v>
+        <v>415</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -3689,10 +3482,10 @@
         <v>12</v>
       </c>
       <c r="D1" s="56" t="s">
-        <v>475</v>
+        <v>406</v>
       </c>
       <c r="E1" s="56" t="s">
-        <v>456</v>
+        <v>387</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>13</v>
@@ -3701,25 +3494,25 @@
         <v>31</v>
       </c>
       <c r="H1" s="66" t="s">
-        <v>469</v>
+        <v>400</v>
       </c>
       <c r="I1" s="67" t="s">
-        <v>476</v>
+        <v>407</v>
       </c>
       <c r="J1" s="66" t="s">
-        <v>470</v>
+        <v>401</v>
       </c>
       <c r="K1" s="66" t="s">
-        <v>471</v>
+        <v>402</v>
       </c>
       <c r="L1" s="66" t="s">
-        <v>472</v>
+        <v>403</v>
       </c>
       <c r="M1" s="66" t="s">
-        <v>473</v>
+        <v>404</v>
       </c>
       <c r="N1" s="66" t="s">
-        <v>474</v>
+        <v>405</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="48" customHeight="1" thickTop="1">
@@ -3731,13 +3524,13 @@
       </c>
       <c r="C2" s="53"/>
       <c r="D2" s="43" t="s">
-        <v>487</v>
+        <v>418</v>
       </c>
       <c r="E2" s="51" t="s">
         <v>75</v>
       </c>
       <c r="F2" s="62" t="s">
-        <v>458</v>
+        <v>389</v>
       </c>
       <c r="G2" s="63"/>
       <c r="H2" s="64"/>
@@ -3763,7 +3556,7 @@
         <v>79</v>
       </c>
       <c r="F3" s="58" t="s">
-        <v>457</v>
+        <v>388</v>
       </c>
       <c r="G3" s="63"/>
       <c r="H3" s="65"/>
@@ -3789,7 +3582,7 @@
         <v>83</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>458</v>
+        <v>389</v>
       </c>
       <c r="G4" s="63"/>
       <c r="H4" s="65"/>
@@ -3815,7 +3608,7 @@
         <v>87</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>458</v>
+        <v>389</v>
       </c>
       <c r="G5" s="63"/>
       <c r="H5" s="65"/>
@@ -3841,7 +3634,7 @@
         <v>91</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>458</v>
+        <v>389</v>
       </c>
       <c r="G6" s="63"/>
       <c r="H6" s="65"/>
@@ -3867,7 +3660,7 @@
         <v>95</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>458</v>
+        <v>389</v>
       </c>
       <c r="G7" s="63"/>
       <c r="H7" s="65"/>
@@ -3893,7 +3686,7 @@
         <v>99</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>458</v>
+        <v>389</v>
       </c>
       <c r="G8" s="63"/>
       <c r="H8" s="65"/>
@@ -3934,13 +3727,13 @@
         <v>36</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>455</v>
+        <v>386</v>
       </c>
       <c r="F10" s="20" t="s">
         <v>58</v>
       </c>
       <c r="G10" s="92" t="s">
-        <v>486</v>
+        <v>417</v>
       </c>
       <c r="H10" s="93"/>
       <c r="I10" s="93"/>
@@ -4029,9 +3822,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="19.5"/>
   <cols>
@@ -4043,7 +3834,7 @@
     <col min="6" max="6" width="30.625" style="8" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.125" style="8" customWidth="1"/>
     <col min="8" max="8" width="25" style="8" customWidth="1"/>
-    <col min="9" max="9" width="37.5" style="8" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="16.625" style="8" customWidth="1"/>
     <col min="10" max="10" width="17.875" style="8" customWidth="1"/>
     <col min="11" max="11" width="8.875" style="4"/>
     <col min="12" max="16384" width="8.875" style="8"/>
@@ -4102,12 +3893,10 @@
         <v>105</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>386</v>
+        <v>317</v>
       </c>
       <c r="H2" s="11"/>
-      <c r="I2" s="11" t="s">
-        <v>106</v>
-      </c>
+      <c r="I2" s="11"/>
       <c r="J2" s="11" t="s">
         <v>5</v>
       </c>
@@ -4121,24 +3910,22 @@
         <v>101</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D3" s="41" t="s">
         <v>103</v>
       </c>
       <c r="E3" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="F3" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="F3" s="11" t="s">
-        <v>109</v>
-      </c>
       <c r="G3" s="11" t="s">
-        <v>387</v>
+        <v>318</v>
       </c>
       <c r="H3" s="11"/>
-      <c r="I3" s="11" t="s">
-        <v>110</v>
-      </c>
+      <c r="I3" s="11"/>
       <c r="J3" s="11" t="s">
         <v>5</v>
       </c>
@@ -4152,24 +3939,22 @@
         <v>101</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D4" s="41" t="s">
         <v>103</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>388</v>
+        <v>319</v>
       </c>
       <c r="H4" s="11"/>
-      <c r="I4" s="11" t="s">
-        <v>114</v>
-      </c>
+      <c r="I4" s="11"/>
       <c r="J4" s="11" t="s">
         <v>5</v>
       </c>
@@ -4183,24 +3968,22 @@
         <v>101</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D5" s="41" t="s">
         <v>103</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>389</v>
+        <v>320</v>
       </c>
       <c r="H5" s="11"/>
-      <c r="I5" s="11" t="s">
-        <v>118</v>
-      </c>
+      <c r="I5" s="11"/>
       <c r="J5" s="11" t="s">
         <v>5</v>
       </c>
@@ -4214,24 +3997,22 @@
         <v>101</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D6" s="41" t="s">
         <v>103</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>390</v>
+        <v>321</v>
       </c>
       <c r="H6" s="11"/>
-      <c r="I6" s="11" t="s">
-        <v>122</v>
-      </c>
+      <c r="I6" s="11"/>
       <c r="J6" s="11" t="s">
         <v>5</v>
       </c>
@@ -4245,24 +4026,22 @@
         <v>101</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D7" s="41" t="s">
         <v>103</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>391</v>
+        <v>322</v>
       </c>
       <c r="H7" s="11"/>
-      <c r="I7" s="11" t="s">
-        <v>126</v>
-      </c>
+      <c r="I7" s="11"/>
       <c r="J7" s="11" t="s">
         <v>5</v>
       </c>
@@ -4276,24 +4055,22 @@
         <v>101</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D8" s="41" t="s">
         <v>103</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>392</v>
+        <v>323</v>
       </c>
       <c r="H8" s="11"/>
-      <c r="I8" s="11" t="s">
-        <v>130</v>
-      </c>
+      <c r="I8" s="11"/>
       <c r="J8" s="11" t="s">
         <v>5</v>
       </c>
@@ -4307,24 +4084,22 @@
         <v>101</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="D9" s="41" t="s">
         <v>103</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>393</v>
+        <v>324</v>
       </c>
       <c r="H9" s="11"/>
-      <c r="I9" s="11" t="s">
-        <v>134</v>
-      </c>
+      <c r="I9" s="11"/>
       <c r="J9" s="11" t="s">
         <v>5</v>
       </c>
@@ -4335,27 +4110,25 @@
         <v>100</v>
       </c>
       <c r="B10" s="55" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="D10" s="41" t="s">
         <v>103</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>394</v>
+        <v>325</v>
       </c>
       <c r="H10" s="11"/>
-      <c r="I10" s="11" t="s">
-        <v>139</v>
-      </c>
+      <c r="I10" s="11"/>
       <c r="J10" s="11" t="s">
         <v>5</v>
       </c>
@@ -4366,27 +4139,25 @@
         <v>100</v>
       </c>
       <c r="B11" s="55" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="D11" s="41" t="s">
         <v>103</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>395</v>
+        <v>326</v>
       </c>
       <c r="H11" s="11"/>
-      <c r="I11" s="11" t="s">
-        <v>143</v>
-      </c>
+      <c r="I11" s="11"/>
       <c r="J11" s="11" t="s">
         <v>5</v>
       </c>
@@ -4397,27 +4168,25 @@
         <v>100</v>
       </c>
       <c r="B12" s="55" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="D12" s="41" t="s">
         <v>103</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>396</v>
+        <v>327</v>
       </c>
       <c r="H12" s="11"/>
-      <c r="I12" s="11" t="s">
-        <v>147</v>
-      </c>
+      <c r="I12" s="11"/>
       <c r="J12" s="11" t="s">
         <v>5</v>
       </c>
@@ -4428,27 +4197,25 @@
         <v>100</v>
       </c>
       <c r="B13" s="55" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="D13" s="41" t="s">
         <v>103</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>397</v>
+        <v>328</v>
       </c>
       <c r="H13" s="11"/>
-      <c r="I13" s="11" t="s">
-        <v>151</v>
-      </c>
+      <c r="I13" s="11"/>
       <c r="J13" s="11" t="s">
         <v>5</v>
       </c>
@@ -4459,27 +4226,25 @@
         <v>100</v>
       </c>
       <c r="B14" s="55" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="D14" s="41" t="s">
         <v>103</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>398</v>
+        <v>329</v>
       </c>
       <c r="H14" s="11"/>
-      <c r="I14" s="11" t="s">
-        <v>155</v>
-      </c>
+      <c r="I14" s="11"/>
       <c r="J14" s="11" t="s">
         <v>5</v>
       </c>
@@ -4490,27 +4255,25 @@
         <v>100</v>
       </c>
       <c r="B15" s="55" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="D15" s="41" t="s">
         <v>103</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>399</v>
+        <v>330</v>
       </c>
       <c r="H15" s="11"/>
-      <c r="I15" s="11" t="s">
-        <v>159</v>
-      </c>
+      <c r="I15" s="11"/>
       <c r="J15" s="11" t="s">
         <v>5</v>
       </c>
@@ -4518,15 +4281,15 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="55" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="B16" s="55" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="41"/>
       <c r="E16" s="59" t="s">
-        <v>459</v>
+        <v>390</v>
       </c>
       <c r="F16" s="60"/>
       <c r="G16" s="11"/>
@@ -4677,8 +4440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="19.5"/>
@@ -4691,8 +4454,7 @@
     <col min="6" max="6" width="30.625" style="8" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.125" style="8" customWidth="1"/>
     <col min="8" max="8" width="25" style="8" customWidth="1"/>
-    <col min="9" max="9" width="37.5" style="8" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="17.875" style="8" customWidth="1"/>
+    <col min="9" max="10" width="17.875" style="8" customWidth="1"/>
     <col min="11" max="11" width="8.875" style="4"/>
     <col min="12" max="16384" width="8.875" style="8"/>
   </cols>
@@ -4735,27 +4497,25 @@
         <v>100</v>
       </c>
       <c r="B2" s="55" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="D2" s="41" t="s">
         <v>103</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>400</v>
+        <v>331</v>
       </c>
       <c r="H2" s="11"/>
-      <c r="I2" s="11" t="s">
-        <v>166</v>
-      </c>
+      <c r="I2" s="11"/>
       <c r="J2" s="11" t="s">
         <v>5</v>
       </c>
@@ -4766,27 +4526,25 @@
         <v>100</v>
       </c>
       <c r="B3" s="55" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="D3" s="41" t="s">
         <v>103</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>401</v>
+        <v>332</v>
       </c>
       <c r="H3" s="11"/>
-      <c r="I3" s="11" t="s">
-        <v>170</v>
-      </c>
+      <c r="I3" s="11"/>
       <c r="J3" s="11" t="s">
         <v>5</v>
       </c>
@@ -4797,27 +4555,25 @@
         <v>100</v>
       </c>
       <c r="B4" s="55" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="D4" s="41" t="s">
         <v>103</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>402</v>
+        <v>333</v>
       </c>
       <c r="H4" s="11"/>
-      <c r="I4" s="11" t="s">
-        <v>174</v>
-      </c>
+      <c r="I4" s="11"/>
       <c r="J4" s="11" t="s">
         <v>5</v>
       </c>
@@ -4828,27 +4584,25 @@
         <v>100</v>
       </c>
       <c r="B5" s="55" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="D5" s="41" t="s">
         <v>103</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>403</v>
+        <v>334</v>
       </c>
       <c r="H5" s="11"/>
-      <c r="I5" s="11" t="s">
-        <v>178</v>
-      </c>
+      <c r="I5" s="11"/>
       <c r="J5" s="11" t="s">
         <v>5</v>
       </c>
@@ -4859,27 +4613,25 @@
         <v>100</v>
       </c>
       <c r="B6" s="55" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="D6" s="41" t="s">
         <v>103</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>404</v>
+        <v>335</v>
       </c>
       <c r="H6" s="11"/>
-      <c r="I6" s="11" t="s">
-        <v>182</v>
-      </c>
+      <c r="I6" s="11"/>
       <c r="J6" s="11" t="s">
         <v>5</v>
       </c>
@@ -4890,27 +4642,25 @@
         <v>100</v>
       </c>
       <c r="B7" s="55" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="D7" s="41" t="s">
         <v>103</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>405</v>
+        <v>336</v>
       </c>
       <c r="H7" s="11"/>
-      <c r="I7" s="11" t="s">
-        <v>186</v>
-      </c>
+      <c r="I7" s="11"/>
       <c r="J7" s="11" t="s">
         <v>5</v>
       </c>
@@ -4921,27 +4671,25 @@
         <v>100</v>
       </c>
       <c r="B8" s="55" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>187</v>
+        <v>167</v>
       </c>
       <c r="D8" s="41" t="s">
         <v>103</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>406</v>
+        <v>337</v>
       </c>
       <c r="H8" s="11"/>
-      <c r="I8" s="11" t="s">
-        <v>190</v>
-      </c>
+      <c r="I8" s="11"/>
       <c r="J8" s="11" t="s">
         <v>5</v>
       </c>
@@ -4952,27 +4700,25 @@
         <v>100</v>
       </c>
       <c r="B9" s="55" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
       <c r="D9" s="41" t="s">
         <v>103</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>407</v>
+        <v>338</v>
       </c>
       <c r="H9" s="11"/>
-      <c r="I9" s="11" t="s">
-        <v>194</v>
-      </c>
+      <c r="I9" s="11"/>
       <c r="J9" s="11" t="s">
         <v>5</v>
       </c>
@@ -4980,18 +4726,18 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="55" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="B10" s="55" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="41"/>
       <c r="E10" s="57" t="s">
-        <v>460</v>
+        <v>391</v>
       </c>
       <c r="F10" s="60" t="s">
-        <v>466</v>
+        <v>397</v>
       </c>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
@@ -5141,8 +4887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="19.5"/>
@@ -5155,7 +4901,7 @@
     <col min="6" max="6" width="30.625" style="8" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.125" style="8" customWidth="1"/>
     <col min="8" max="8" width="25" style="8" customWidth="1"/>
-    <col min="9" max="9" width="37.5" style="8" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5" style="8" customWidth="1"/>
     <col min="10" max="10" width="17.875" style="8" customWidth="1"/>
     <col min="11" max="11" width="8.875" style="4"/>
     <col min="12" max="16384" width="8.875" style="8"/>
@@ -5202,24 +4948,22 @@
         <v>81</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
       <c r="D2" s="41" t="s">
         <v>103</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>196</v>
+        <v>174</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>197</v>
+        <v>175</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>408</v>
+        <v>339</v>
       </c>
       <c r="H2" s="11"/>
-      <c r="I2" s="11" t="s">
-        <v>198</v>
-      </c>
+      <c r="I2" s="11"/>
       <c r="J2" s="11" t="s">
         <v>5</v>
       </c>
@@ -5233,24 +4977,22 @@
         <v>81</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>199</v>
+        <v>176</v>
       </c>
       <c r="D3" s="41" t="s">
         <v>103</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>200</v>
+        <v>177</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>409</v>
+        <v>340</v>
       </c>
       <c r="H3" s="11"/>
-      <c r="I3" s="11" t="s">
-        <v>202</v>
-      </c>
+      <c r="I3" s="11"/>
       <c r="J3" s="11" t="s">
         <v>5</v>
       </c>
@@ -5264,24 +5006,22 @@
         <v>81</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>203</v>
+        <v>179</v>
       </c>
       <c r="D4" s="41" t="s">
         <v>103</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>205</v>
+        <v>181</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>410</v>
+        <v>341</v>
       </c>
       <c r="H4" s="11"/>
-      <c r="I4" s="11" t="s">
-        <v>206</v>
-      </c>
+      <c r="I4" s="11"/>
       <c r="J4" s="11" t="s">
         <v>5</v>
       </c>
@@ -5295,24 +5035,22 @@
         <v>81</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>207</v>
+        <v>182</v>
       </c>
       <c r="D5" s="41" t="s">
         <v>103</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>209</v>
+        <v>184</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>411</v>
+        <v>342</v>
       </c>
       <c r="H5" s="11"/>
-      <c r="I5" s="11" t="s">
-        <v>210</v>
-      </c>
+      <c r="I5" s="11"/>
       <c r="J5" s="11" t="s">
         <v>5</v>
       </c>
@@ -5326,24 +5064,22 @@
         <v>81</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>211</v>
+        <v>185</v>
       </c>
       <c r="D6" s="41" t="s">
         <v>103</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>212</v>
+        <v>186</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>213</v>
+        <v>187</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>412</v>
+        <v>343</v>
       </c>
       <c r="H6" s="11"/>
-      <c r="I6" s="11" t="s">
-        <v>214</v>
-      </c>
+      <c r="I6" s="11"/>
       <c r="J6" s="11" t="s">
         <v>5</v>
       </c>
@@ -5357,24 +5093,22 @@
         <v>81</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>215</v>
+        <v>188</v>
       </c>
       <c r="D7" s="41" t="s">
         <v>103</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>216</v>
+        <v>189</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>217</v>
+        <v>190</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>413</v>
+        <v>344</v>
       </c>
       <c r="H7" s="11"/>
-      <c r="I7" s="11" t="s">
-        <v>218</v>
-      </c>
+      <c r="I7" s="11"/>
       <c r="J7" s="11" t="s">
         <v>5</v>
       </c>
@@ -5388,24 +5122,22 @@
         <v>81</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>219</v>
+        <v>191</v>
       </c>
       <c r="D8" s="41" t="s">
         <v>103</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>220</v>
+        <v>192</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>221</v>
+        <v>193</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>414</v>
+        <v>345</v>
       </c>
       <c r="H8" s="11"/>
-      <c r="I8" s="11" t="s">
-        <v>222</v>
-      </c>
+      <c r="I8" s="11"/>
       <c r="J8" s="11" t="s">
         <v>5</v>
       </c>
@@ -5413,18 +5145,18 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="55" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="B9" s="55" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="41"/>
       <c r="E9" s="59" t="s">
-        <v>461</v>
+        <v>392</v>
       </c>
       <c r="F9" s="60" t="s">
-        <v>466</v>
+        <v>397</v>
       </c>
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
@@ -5574,8 +5306,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="19.5"/>
@@ -5588,7 +5320,7 @@
     <col min="6" max="6" width="30.625" style="8" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.125" style="8" customWidth="1"/>
     <col min="8" max="8" width="25" style="8" customWidth="1"/>
-    <col min="9" max="9" width="37.5" style="8" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="29.25" style="8" customWidth="1"/>
     <col min="10" max="10" width="17.875" style="8" customWidth="1"/>
     <col min="11" max="11" width="8.875" style="4"/>
     <col min="12" max="16384" width="8.875" style="8"/>
@@ -5632,27 +5364,25 @@
         <v>100</v>
       </c>
       <c r="B2" s="55" t="s">
-        <v>223</v>
+        <v>194</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>224</v>
+        <v>195</v>
       </c>
       <c r="D2" s="41" t="s">
         <v>103</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>225</v>
+        <v>196</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>226</v>
+        <v>197</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>415</v>
+        <v>346</v>
       </c>
       <c r="H2" s="11"/>
-      <c r="I2" s="11" t="s">
-        <v>227</v>
-      </c>
+      <c r="I2" s="11"/>
       <c r="J2" s="11" t="s">
         <v>5</v>
       </c>
@@ -5663,27 +5393,25 @@
         <v>100</v>
       </c>
       <c r="B3" s="55" t="s">
-        <v>223</v>
+        <v>194</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>228</v>
+        <v>198</v>
       </c>
       <c r="D3" s="41" t="s">
         <v>103</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>416</v>
+        <v>347</v>
       </c>
       <c r="H3" s="11"/>
-      <c r="I3" s="11" t="s">
-        <v>231</v>
-      </c>
+      <c r="I3" s="11"/>
       <c r="J3" s="11" t="s">
         <v>5</v>
       </c>
@@ -5694,27 +5422,25 @@
         <v>100</v>
       </c>
       <c r="B4" s="55" t="s">
-        <v>223</v>
+        <v>194</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>232</v>
+        <v>201</v>
       </c>
       <c r="D4" s="41" t="s">
         <v>103</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>233</v>
+        <v>202</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>234</v>
+        <v>203</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>417</v>
+        <v>348</v>
       </c>
       <c r="H4" s="11"/>
-      <c r="I4" s="11" t="s">
-        <v>235</v>
-      </c>
+      <c r="I4" s="11"/>
       <c r="J4" s="11" t="s">
         <v>5</v>
       </c>
@@ -5725,27 +5451,25 @@
         <v>100</v>
       </c>
       <c r="B5" s="55" t="s">
-        <v>223</v>
+        <v>194</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>236</v>
+        <v>204</v>
       </c>
       <c r="D5" s="41" t="s">
         <v>103</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>237</v>
+        <v>205</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>238</v>
+        <v>206</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>418</v>
+        <v>349</v>
       </c>
       <c r="H5" s="11"/>
-      <c r="I5" s="11" t="s">
-        <v>239</v>
-      </c>
+      <c r="I5" s="11"/>
       <c r="J5" s="11" t="s">
         <v>5</v>
       </c>
@@ -5756,27 +5480,25 @@
         <v>100</v>
       </c>
       <c r="B6" s="55" t="s">
-        <v>223</v>
+        <v>194</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>240</v>
+        <v>207</v>
       </c>
       <c r="D6" s="41" t="s">
         <v>103</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>241</v>
+        <v>208</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>242</v>
+        <v>209</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>419</v>
+        <v>350</v>
       </c>
       <c r="H6" s="11"/>
-      <c r="I6" s="11" t="s">
-        <v>243</v>
-      </c>
+      <c r="I6" s="11"/>
       <c r="J6" s="11" t="s">
         <v>5</v>
       </c>
@@ -5787,27 +5509,25 @@
         <v>100</v>
       </c>
       <c r="B7" s="55" t="s">
-        <v>223</v>
+        <v>194</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>244</v>
+        <v>210</v>
       </c>
       <c r="D7" s="41" t="s">
         <v>103</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>245</v>
+        <v>211</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>246</v>
+        <v>212</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>420</v>
+        <v>351</v>
       </c>
       <c r="H7" s="11"/>
-      <c r="I7" s="11" t="s">
-        <v>247</v>
-      </c>
+      <c r="I7" s="11"/>
       <c r="J7" s="11" t="s">
         <v>5</v>
       </c>
@@ -5818,27 +5538,25 @@
         <v>100</v>
       </c>
       <c r="B8" s="55" t="s">
-        <v>223</v>
+        <v>194</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>248</v>
+        <v>213</v>
       </c>
       <c r="D8" s="41" t="s">
         <v>103</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>249</v>
+        <v>214</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>250</v>
+        <v>215</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>421</v>
+        <v>352</v>
       </c>
       <c r="H8" s="11"/>
-      <c r="I8" s="11" t="s">
-        <v>251</v>
-      </c>
+      <c r="I8" s="11"/>
       <c r="J8" s="11" t="s">
         <v>5</v>
       </c>
@@ -5849,27 +5567,25 @@
         <v>100</v>
       </c>
       <c r="B9" s="55" t="s">
-        <v>223</v>
+        <v>194</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>252</v>
+        <v>216</v>
       </c>
       <c r="D9" s="41" t="s">
         <v>103</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>253</v>
+        <v>217</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>254</v>
+        <v>218</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>422</v>
+        <v>353</v>
       </c>
       <c r="H9" s="11"/>
-      <c r="I9" s="11" t="s">
-        <v>255</v>
-      </c>
+      <c r="I9" s="11"/>
       <c r="J9" s="11" t="s">
         <v>5</v>
       </c>
@@ -5880,27 +5596,25 @@
         <v>100</v>
       </c>
       <c r="B10" s="55" t="s">
-        <v>223</v>
+        <v>194</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>256</v>
+        <v>219</v>
       </c>
       <c r="D10" s="41" t="s">
         <v>103</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>257</v>
+        <v>220</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>258</v>
+        <v>221</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>423</v>
+        <v>354</v>
       </c>
       <c r="H10" s="11"/>
-      <c r="I10" s="11" t="s">
-        <v>259</v>
-      </c>
+      <c r="I10" s="11"/>
       <c r="J10" s="11" t="s">
         <v>5</v>
       </c>
@@ -5908,18 +5622,18 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="55" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="B11" s="55" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="41"/>
       <c r="E11" s="59" t="s">
-        <v>462</v>
+        <v>393</v>
       </c>
       <c r="F11" s="60" t="s">
-        <v>467</v>
+        <v>398</v>
       </c>
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
@@ -6069,8 +5783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="19.5"/>
@@ -6083,7 +5797,7 @@
     <col min="6" max="6" width="30.625" style="8" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.125" style="8" customWidth="1"/>
     <col min="8" max="8" width="25" style="8" customWidth="1"/>
-    <col min="9" max="9" width="37.5" style="8" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="21" style="8" customWidth="1"/>
     <col min="10" max="10" width="17.875" style="8" customWidth="1"/>
     <col min="11" max="11" width="8.875" style="4"/>
     <col min="12" max="16384" width="8.875" style="8"/>
@@ -6127,27 +5841,25 @@
         <v>100</v>
       </c>
       <c r="B2" s="55" t="s">
-        <v>260</v>
+        <v>222</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>261</v>
+        <v>223</v>
       </c>
       <c r="D2" s="41" t="s">
         <v>103</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>262</v>
+        <v>224</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>263</v>
+        <v>225</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>424</v>
+        <v>355</v>
       </c>
       <c r="H2" s="11"/>
-      <c r="I2" s="11" t="s">
-        <v>264</v>
-      </c>
+      <c r="I2" s="11"/>
       <c r="J2" s="11" t="s">
         <v>5</v>
       </c>
@@ -6158,27 +5870,25 @@
         <v>100</v>
       </c>
       <c r="B3" s="55" t="s">
-        <v>260</v>
+        <v>222</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>265</v>
+        <v>226</v>
       </c>
       <c r="D3" s="41" t="s">
         <v>103</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>266</v>
+        <v>227</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>267</v>
+        <v>228</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>425</v>
+        <v>356</v>
       </c>
       <c r="H3" s="11"/>
-      <c r="I3" s="11" t="s">
-        <v>268</v>
-      </c>
+      <c r="I3" s="11"/>
       <c r="J3" s="11" t="s">
         <v>5</v>
       </c>
@@ -6189,27 +5899,25 @@
         <v>100</v>
       </c>
       <c r="B4" s="55" t="s">
-        <v>260</v>
+        <v>222</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>269</v>
+        <v>229</v>
       </c>
       <c r="D4" s="41" t="s">
         <v>103</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>270</v>
+        <v>230</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>271</v>
+        <v>231</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>426</v>
+        <v>357</v>
       </c>
       <c r="H4" s="11"/>
-      <c r="I4" s="11" t="s">
-        <v>272</v>
-      </c>
+      <c r="I4" s="11"/>
       <c r="J4" s="11" t="s">
         <v>5</v>
       </c>
@@ -6220,27 +5928,25 @@
         <v>100</v>
       </c>
       <c r="B5" s="55" t="s">
-        <v>260</v>
+        <v>222</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>273</v>
+        <v>232</v>
       </c>
       <c r="D5" s="41" t="s">
         <v>103</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>274</v>
+        <v>233</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>275</v>
+        <v>234</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>427</v>
+        <v>358</v>
       </c>
       <c r="H5" s="11"/>
-      <c r="I5" s="11" t="s">
-        <v>276</v>
-      </c>
+      <c r="I5" s="11"/>
       <c r="J5" s="11" t="s">
         <v>5</v>
       </c>
@@ -6251,27 +5957,25 @@
         <v>100</v>
       </c>
       <c r="B6" s="55" t="s">
-        <v>260</v>
+        <v>222</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>277</v>
+        <v>235</v>
       </c>
       <c r="D6" s="41" t="s">
         <v>103</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>278</v>
+        <v>236</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>279</v>
+        <v>237</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>428</v>
+        <v>359</v>
       </c>
       <c r="H6" s="11"/>
-      <c r="I6" s="11" t="s">
-        <v>280</v>
-      </c>
+      <c r="I6" s="11"/>
       <c r="J6" s="11" t="s">
         <v>5</v>
       </c>
@@ -6282,27 +5986,25 @@
         <v>100</v>
       </c>
       <c r="B7" s="55" t="s">
-        <v>260</v>
+        <v>222</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>281</v>
+        <v>238</v>
       </c>
       <c r="D7" s="41" t="s">
         <v>103</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>282</v>
+        <v>239</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>283</v>
+        <v>240</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>429</v>
+        <v>360</v>
       </c>
       <c r="H7" s="11"/>
-      <c r="I7" s="11" t="s">
-        <v>284</v>
-      </c>
+      <c r="I7" s="11"/>
       <c r="J7" s="11" t="s">
         <v>5</v>
       </c>
@@ -6313,27 +6015,25 @@
         <v>100</v>
       </c>
       <c r="B8" s="55" t="s">
-        <v>260</v>
+        <v>222</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>285</v>
+        <v>241</v>
       </c>
       <c r="D8" s="41" t="s">
         <v>103</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>286</v>
+        <v>242</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>287</v>
+        <v>243</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>430</v>
+        <v>361</v>
       </c>
       <c r="H8" s="11"/>
-      <c r="I8" s="11" t="s">
-        <v>288</v>
-      </c>
+      <c r="I8" s="11"/>
       <c r="J8" s="11" t="s">
         <v>5</v>
       </c>
@@ -6344,27 +6044,25 @@
         <v>100</v>
       </c>
       <c r="B9" s="55" t="s">
-        <v>260</v>
+        <v>222</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>289</v>
+        <v>244</v>
       </c>
       <c r="D9" s="41" t="s">
         <v>103</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>290</v>
+        <v>245</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>291</v>
+        <v>246</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>431</v>
+        <v>362</v>
       </c>
       <c r="H9" s="11"/>
-      <c r="I9" s="11" t="s">
-        <v>292</v>
-      </c>
+      <c r="I9" s="11"/>
       <c r="J9" s="11" t="s">
         <v>5</v>
       </c>
@@ -6375,27 +6073,25 @@
         <v>100</v>
       </c>
       <c r="B10" s="55" t="s">
-        <v>260</v>
+        <v>222</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>293</v>
+        <v>247</v>
       </c>
       <c r="D10" s="41" t="s">
         <v>103</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>294</v>
+        <v>248</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>295</v>
+        <v>249</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>432</v>
+        <v>363</v>
       </c>
       <c r="H10" s="11"/>
-      <c r="I10" s="11" t="s">
-        <v>296</v>
-      </c>
+      <c r="I10" s="11"/>
       <c r="J10" s="11" t="s">
         <v>5</v>
       </c>
@@ -6406,27 +6102,25 @@
         <v>100</v>
       </c>
       <c r="B11" s="55" t="s">
-        <v>260</v>
+        <v>222</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>297</v>
+        <v>250</v>
       </c>
       <c r="D11" s="41" t="s">
         <v>103</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>298</v>
+        <v>251</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>299</v>
+        <v>252</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>433</v>
+        <v>364</v>
       </c>
       <c r="H11" s="11"/>
-      <c r="I11" s="11" t="s">
-        <v>300</v>
-      </c>
+      <c r="I11" s="11"/>
       <c r="J11" s="11" t="s">
         <v>5</v>
       </c>
@@ -6437,27 +6131,25 @@
         <v>100</v>
       </c>
       <c r="B12" s="55" t="s">
-        <v>260</v>
+        <v>222</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>301</v>
+        <v>253</v>
       </c>
       <c r="D12" s="41" t="s">
         <v>103</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>302</v>
+        <v>254</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>303</v>
+        <v>255</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>434</v>
+        <v>365</v>
       </c>
       <c r="H12" s="11"/>
-      <c r="I12" s="11" t="s">
-        <v>304</v>
-      </c>
+      <c r="I12" s="11"/>
       <c r="J12" s="11" t="s">
         <v>5</v>
       </c>
@@ -6465,18 +6157,18 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="55" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="B13" s="55" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="41"/>
       <c r="E13" s="59" t="s">
-        <v>463</v>
+        <v>394</v>
       </c>
       <c r="F13" s="60" t="s">
-        <v>466</v>
+        <v>397</v>
       </c>
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>
@@ -6626,8 +6318,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="19.5"/>
@@ -6640,7 +6332,7 @@
     <col min="6" max="6" width="30.625" style="8" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.125" style="8" customWidth="1"/>
     <col min="8" max="8" width="25" style="8" customWidth="1"/>
-    <col min="9" max="9" width="37.5" style="8" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="20.125" style="8" customWidth="1"/>
     <col min="10" max="10" width="17.875" style="8" customWidth="1"/>
     <col min="11" max="11" width="8.875" style="4"/>
     <col min="12" max="16384" width="8.875" style="8"/>
@@ -6684,27 +6376,25 @@
         <v>100</v>
       </c>
       <c r="B2" s="55" t="s">
-        <v>305</v>
+        <v>256</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>306</v>
+        <v>257</v>
       </c>
       <c r="D2" s="41" t="s">
         <v>103</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>307</v>
+        <v>258</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>308</v>
+        <v>259</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>435</v>
+        <v>366</v>
       </c>
       <c r="H2" s="11"/>
-      <c r="I2" s="11" t="s">
-        <v>309</v>
-      </c>
+      <c r="I2" s="11"/>
       <c r="J2" s="11" t="s">
         <v>5</v>
       </c>
@@ -6715,27 +6405,25 @@
         <v>100</v>
       </c>
       <c r="B3" s="55" t="s">
-        <v>305</v>
+        <v>256</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>310</v>
+        <v>260</v>
       </c>
       <c r="D3" s="41" t="s">
         <v>103</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>311</v>
+        <v>261</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>312</v>
+        <v>262</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>436</v>
+        <v>367</v>
       </c>
       <c r="H3" s="11"/>
-      <c r="I3" s="11" t="s">
-        <v>313</v>
-      </c>
+      <c r="I3" s="11"/>
       <c r="J3" s="11" t="s">
         <v>5</v>
       </c>
@@ -6746,27 +6434,25 @@
         <v>100</v>
       </c>
       <c r="B4" s="55" t="s">
-        <v>305</v>
+        <v>256</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>314</v>
+        <v>263</v>
       </c>
       <c r="D4" s="41" t="s">
         <v>103</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>315</v>
+        <v>264</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>316</v>
+        <v>265</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>437</v>
+        <v>368</v>
       </c>
       <c r="H4" s="11"/>
-      <c r="I4" s="11" t="s">
-        <v>317</v>
-      </c>
+      <c r="I4" s="11"/>
       <c r="J4" s="11" t="s">
         <v>5</v>
       </c>
@@ -6777,27 +6463,25 @@
         <v>100</v>
       </c>
       <c r="B5" s="55" t="s">
-        <v>305</v>
+        <v>256</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>318</v>
+        <v>266</v>
       </c>
       <c r="D5" s="41" t="s">
         <v>103</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>319</v>
+        <v>267</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>320</v>
+        <v>268</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>438</v>
+        <v>369</v>
       </c>
       <c r="H5" s="11"/>
-      <c r="I5" s="11" t="s">
-        <v>321</v>
-      </c>
+      <c r="I5" s="11"/>
       <c r="J5" s="11" t="s">
         <v>5</v>
       </c>
@@ -6808,27 +6492,25 @@
         <v>100</v>
       </c>
       <c r="B6" s="55" t="s">
-        <v>305</v>
+        <v>256</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>322</v>
+        <v>269</v>
       </c>
       <c r="D6" s="41" t="s">
         <v>103</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>323</v>
+        <v>270</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>324</v>
+        <v>271</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>439</v>
+        <v>370</v>
       </c>
       <c r="H6" s="11"/>
-      <c r="I6" s="11" t="s">
-        <v>325</v>
-      </c>
+      <c r="I6" s="11"/>
       <c r="J6" s="11" t="s">
         <v>5</v>
       </c>
@@ -6839,27 +6521,25 @@
         <v>100</v>
       </c>
       <c r="B7" s="55" t="s">
-        <v>305</v>
+        <v>256</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>326</v>
+        <v>272</v>
       </c>
       <c r="D7" s="41" t="s">
         <v>103</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>327</v>
+        <v>273</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>328</v>
+        <v>274</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>440</v>
+        <v>371</v>
       </c>
       <c r="H7" s="11"/>
-      <c r="I7" s="11" t="s">
-        <v>329</v>
-      </c>
+      <c r="I7" s="11"/>
       <c r="J7" s="11" t="s">
         <v>5</v>
       </c>
@@ -6870,27 +6550,25 @@
         <v>100</v>
       </c>
       <c r="B8" s="55" t="s">
-        <v>305</v>
+        <v>256</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>330</v>
+        <v>275</v>
       </c>
       <c r="D8" s="41" t="s">
         <v>103</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>331</v>
+        <v>276</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>332</v>
+        <v>277</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>441</v>
+        <v>372</v>
       </c>
       <c r="H8" s="11"/>
-      <c r="I8" s="11" t="s">
-        <v>333</v>
-      </c>
+      <c r="I8" s="11"/>
       <c r="J8" s="11" t="s">
         <v>5</v>
       </c>
@@ -6901,27 +6579,25 @@
         <v>100</v>
       </c>
       <c r="B9" s="55" t="s">
-        <v>305</v>
+        <v>256</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>334</v>
+        <v>278</v>
       </c>
       <c r="D9" s="41" t="s">
         <v>103</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>335</v>
+        <v>279</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>336</v>
+        <v>280</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>442</v>
+        <v>373</v>
       </c>
       <c r="H9" s="11"/>
-      <c r="I9" s="11" t="s">
-        <v>337</v>
-      </c>
+      <c r="I9" s="11"/>
       <c r="J9" s="11" t="s">
         <v>5</v>
       </c>
@@ -6929,18 +6605,18 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="55" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="B10" s="55" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="41"/>
       <c r="E10" s="59" t="s">
-        <v>464</v>
+        <v>395</v>
       </c>
       <c r="F10" s="60" t="s">
-        <v>466</v>
+        <v>397</v>
       </c>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
@@ -7090,8 +6766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="19.5"/>
@@ -7104,7 +6780,7 @@
     <col min="6" max="6" width="30.625" style="8" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.125" style="8" customWidth="1"/>
     <col min="8" max="8" width="25" style="8" customWidth="1"/>
-    <col min="9" max="9" width="37.5" style="8" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="18.625" style="8" customWidth="1"/>
     <col min="10" max="10" width="17.875" style="8" customWidth="1"/>
     <col min="11" max="11" width="8.875" style="4"/>
     <col min="12" max="16384" width="8.875" style="8"/>
@@ -7151,24 +6827,22 @@
         <v>97</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>338</v>
+        <v>281</v>
       </c>
       <c r="D2" s="41" t="s">
         <v>103</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>339</v>
+        <v>282</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>340</v>
+        <v>283</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>443</v>
+        <v>374</v>
       </c>
       <c r="H2" s="11"/>
-      <c r="I2" s="11" t="s">
-        <v>341</v>
-      </c>
+      <c r="I2" s="11"/>
       <c r="J2" s="11" t="s">
         <v>5</v>
       </c>
@@ -7182,24 +6856,22 @@
         <v>97</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>342</v>
+        <v>284</v>
       </c>
       <c r="D3" s="41" t="s">
         <v>103</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>343</v>
+        <v>285</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>344</v>
+        <v>286</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>444</v>
+        <v>375</v>
       </c>
       <c r="H3" s="11"/>
-      <c r="I3" s="11" t="s">
-        <v>345</v>
-      </c>
+      <c r="I3" s="11"/>
       <c r="J3" s="11" t="s">
         <v>5</v>
       </c>
@@ -7213,24 +6885,22 @@
         <v>97</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>346</v>
+        <v>287</v>
       </c>
       <c r="D4" s="41" t="s">
         <v>103</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>347</v>
+        <v>288</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>348</v>
+        <v>289</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>445</v>
+        <v>376</v>
       </c>
       <c r="H4" s="11"/>
-      <c r="I4" s="11" t="s">
-        <v>349</v>
-      </c>
+      <c r="I4" s="11"/>
       <c r="J4" s="11" t="s">
         <v>5</v>
       </c>
@@ -7244,24 +6914,22 @@
         <v>97</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>350</v>
+        <v>290</v>
       </c>
       <c r="D5" s="41" t="s">
         <v>103</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>351</v>
+        <v>291</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>352</v>
+        <v>292</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>446</v>
+        <v>377</v>
       </c>
       <c r="H5" s="11"/>
-      <c r="I5" s="11" t="s">
-        <v>353</v>
-      </c>
+      <c r="I5" s="11"/>
       <c r="J5" s="11" t="s">
         <v>5</v>
       </c>
@@ -7275,24 +6943,22 @@
         <v>97</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>354</v>
+        <v>293</v>
       </c>
       <c r="D6" s="41" t="s">
         <v>103</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>355</v>
+        <v>294</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>356</v>
+        <v>295</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>447</v>
+        <v>378</v>
       </c>
       <c r="H6" s="11"/>
-      <c r="I6" s="11" t="s">
-        <v>357</v>
-      </c>
+      <c r="I6" s="11"/>
       <c r="J6" s="11" t="s">
         <v>5</v>
       </c>
@@ -7306,24 +6972,22 @@
         <v>97</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>358</v>
+        <v>296</v>
       </c>
       <c r="D7" s="41" t="s">
         <v>103</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>359</v>
+        <v>297</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>360</v>
+        <v>298</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>448</v>
+        <v>379</v>
       </c>
       <c r="H7" s="11"/>
-      <c r="I7" s="11" t="s">
-        <v>361</v>
-      </c>
+      <c r="I7" s="11"/>
       <c r="J7" s="11" t="s">
         <v>5</v>
       </c>
@@ -7337,24 +7001,22 @@
         <v>97</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>362</v>
+        <v>299</v>
       </c>
       <c r="D8" s="41" t="s">
         <v>103</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>363</v>
+        <v>300</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>364</v>
+        <v>301</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>449</v>
+        <v>380</v>
       </c>
       <c r="H8" s="11"/>
-      <c r="I8" s="11" t="s">
-        <v>365</v>
-      </c>
+      <c r="I8" s="11"/>
       <c r="J8" s="11" t="s">
         <v>5</v>
       </c>
@@ -7368,24 +7030,22 @@
         <v>97</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>366</v>
+        <v>302</v>
       </c>
       <c r="D9" s="41" t="s">
         <v>103</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>367</v>
+        <v>303</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>368</v>
+        <v>304</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>450</v>
+        <v>381</v>
       </c>
       <c r="H9" s="11"/>
-      <c r="I9" s="11" t="s">
-        <v>369</v>
-      </c>
+      <c r="I9" s="11"/>
       <c r="J9" s="11" t="s">
         <v>5</v>
       </c>
@@ -7399,24 +7059,22 @@
         <v>97</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>370</v>
+        <v>305</v>
       </c>
       <c r="D10" s="41" t="s">
         <v>103</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>371</v>
+        <v>306</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>372</v>
+        <v>307</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>451</v>
+        <v>382</v>
       </c>
       <c r="H10" s="11"/>
-      <c r="I10" s="11" t="s">
-        <v>373</v>
-      </c>
+      <c r="I10" s="11"/>
       <c r="J10" s="11" t="s">
         <v>5</v>
       </c>
@@ -7430,24 +7088,22 @@
         <v>97</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>374</v>
+        <v>308</v>
       </c>
       <c r="D11" s="41" t="s">
         <v>103</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>375</v>
+        <v>309</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>376</v>
+        <v>310</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>452</v>
+        <v>383</v>
       </c>
       <c r="H11" s="11"/>
-      <c r="I11" s="11" t="s">
-        <v>377</v>
-      </c>
+      <c r="I11" s="11"/>
       <c r="J11" s="11" t="s">
         <v>5</v>
       </c>
@@ -7461,24 +7117,22 @@
         <v>97</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>378</v>
+        <v>311</v>
       </c>
       <c r="D12" s="41" t="s">
         <v>103</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>379</v>
+        <v>312</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>380</v>
+        <v>313</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>453</v>
+        <v>384</v>
       </c>
       <c r="H12" s="11"/>
-      <c r="I12" s="11" t="s">
-        <v>381</v>
-      </c>
+      <c r="I12" s="11"/>
       <c r="J12" s="11" t="s">
         <v>5</v>
       </c>
@@ -7492,24 +7146,22 @@
         <v>97</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>382</v>
+        <v>314</v>
       </c>
       <c r="D13" s="41" t="s">
         <v>103</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>383</v>
+        <v>315</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>384</v>
+        <v>316</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>454</v>
+        <v>385</v>
       </c>
       <c r="H13" s="11"/>
-      <c r="I13" s="11" t="s">
-        <v>385</v>
-      </c>
+      <c r="I13" s="11"/>
       <c r="J13" s="11" t="s">
         <v>5</v>
       </c>
@@ -7517,18 +7169,18 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="55" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="B14" s="55" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="41"/>
       <c r="E14" s="59" t="s">
-        <v>465</v>
+        <v>396</v>
       </c>
       <c r="F14" s="60" t="s">
-        <v>468</v>
+        <v>399</v>
       </c>
       <c r="G14" s="11"/>
       <c r="H14" s="11"/>

--- a/structure-books_network1.xlsx
+++ b/structure-books_network1.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="423">
   <si>
     <t>main</t>
   </si>
@@ -1794,6 +1794,10 @@
   </si>
   <si>
     <t>NPO CCC-TIES</t>
+  </si>
+  <si>
+    <t>2013 NPO CCC-TIES</t>
+    <phoneticPr fontId="4"/>
   </si>
 </sst>
 </file>
@@ -3149,7 +3153,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
@@ -3258,7 +3262,7 @@
         <v>29</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C8" s="30" t="s">
         <v>19</v>

--- a/structure-books_network1.xlsx
+++ b/structure-books_network1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CHiLO-Producer_pri\chiloPro\chilo001\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\chilo-producer\chiloPro\chilo001\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="180">
   <si>
     <t>main</t>
   </si>
@@ -683,72 +683,48 @@
     <t>TRUE</t>
   </si>
   <si>
-    <t>001m_0101.mp4</t>
-  </si>
-  <si>
     <t>001m_0101.png</t>
   </si>
   <si>
     <t>スプートニックショック</t>
   </si>
   <si>
-    <t>001m_0102.mp4</t>
-  </si>
-  <si>
     <t>001m_0102.png</t>
   </si>
   <si>
     <t>中央集約型ネットワーク</t>
   </si>
   <si>
-    <t>001m_0103.mp4</t>
-  </si>
-  <si>
     <t>001m_0103.png</t>
   </si>
   <si>
     <t>分散型ネットワークの登場</t>
   </si>
   <si>
-    <t>001m_0104.mp4</t>
-  </si>
-  <si>
     <t>001m_0104.png</t>
   </si>
   <si>
     <t>ルータの役割</t>
   </si>
   <si>
-    <t>001m_0105.mp4</t>
-  </si>
-  <si>
     <t>001m_0105.png</t>
   </si>
   <si>
     <t>コンピュータが作られた背景</t>
   </si>
   <si>
-    <t>001m_0106.mp4</t>
-  </si>
-  <si>
     <t>001m_0106.png</t>
   </si>
   <si>
     <t>コンピュートニック</t>
   </si>
   <si>
-    <t>001m_0107.mp4</t>
-  </si>
-  <si>
     <t>001m_0107.png</t>
   </si>
   <si>
     <t>地球シミュレータ</t>
   </si>
   <si>
-    <t>001m_0108.mp4</t>
-  </si>
-  <si>
     <t>001m_0108.png</t>
   </si>
   <si>
@@ -758,52 +734,34 @@
     <t>ビット</t>
   </si>
   <si>
-    <t>001m_0109.mp4</t>
-  </si>
-  <si>
     <t>001m_0109.png</t>
   </si>
   <si>
     <t>3桁2進数</t>
   </si>
   <si>
-    <t>001m_0110.mp4</t>
-  </si>
-  <si>
     <t>001m_0110.png</t>
   </si>
   <si>
     <t>ビットで表現できる数の種類</t>
   </si>
   <si>
-    <t>001m_0111.mp4</t>
-  </si>
-  <si>
     <t>001m_0111.png</t>
   </si>
   <si>
     <t>2進数と10進数の変換</t>
   </si>
   <si>
-    <t>001m_0112.mp4</t>
-  </si>
-  <si>
     <t>001m_0112.png</t>
   </si>
   <si>
     <t>10進数の対応</t>
   </si>
   <si>
-    <t>001m_0113.mp4</t>
-  </si>
-  <si>
     <t>001m_0113.png</t>
   </si>
   <si>
     <t>10進数から2進数への変換</t>
-  </si>
-  <si>
-    <t>001m_0114.mp4</t>
   </si>
   <si>
     <t>001m_0114.png</t>
@@ -1077,6 +1035,22 @@
     <t>2013 NPO CCC-TIES</t>
     <phoneticPr fontId="4"/>
   </si>
+  <si>
+    <t>m001_0101.mp4</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>m001_0101.mp4</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>begin</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>end</t>
+    <phoneticPr fontId="4"/>
+  </si>
 </sst>
 </file>
 
@@ -1085,7 +1059,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1154,14 +1128,6 @@
     <font>
       <sz val="12"/>
       <color theme="0" tint="-0.34998626667073579"/>
-      <name val="Yu Gothic"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFA6A6A6"/>
       <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
@@ -1743,7 +1709,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1751,9 +1717,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
@@ -1777,32 +1740,28 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="37" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="37" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1831,13 +1790,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1849,32 +1808,32 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="15" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1887,11 +1846,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -1909,7 +1868,7 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="15" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="176" fontId="14" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1924,7 +1883,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1945,7 +1904,7 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1981,31 +1940,31 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2044,10 +2003,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2436,198 +2395,198 @@
     <col min="1" max="1" width="21.125" customWidth="1"/>
     <col min="2" max="2" width="55.625" customWidth="1"/>
     <col min="3" max="3" width="46.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="75.625" style="25" customWidth="1"/>
+    <col min="4" max="4" width="75.625" style="23" customWidth="1"/>
     <col min="5" max="5" width="48.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="39.950000000000003" customHeight="1">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="32">
+      <c r="B1" s="30">
         <v>2.2999999999999998</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="27" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="21" customHeight="1">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="33" t="s">
-        <v>186</v>
-      </c>
-      <c r="C2" s="30" t="s">
+      <c r="B2" s="31" t="s">
+        <v>172</v>
+      </c>
+      <c r="C2" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="27" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="21" customHeight="1">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="52" t="s">
+        <v>161</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>173</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="21" customHeight="1">
+      <c r="A4" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="77" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="21" customHeight="1">
+      <c r="A5" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="78"/>
+    </row>
+    <row r="6" spans="1:4" ht="21" customHeight="1">
+      <c r="A6" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="47">
+        <v>41530</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="78"/>
+    </row>
+    <row r="7" spans="1:4" ht="21" customHeight="1">
+      <c r="A7" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="32">
+        <v>42871</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="78"/>
+    </row>
+    <row r="8" spans="1:4" ht="21" customHeight="1">
+      <c r="A8" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="30" t="s">
         <v>175</v>
       </c>
-      <c r="B3" s="33" t="s">
-        <v>187</v>
-      </c>
-      <c r="C3" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="D3" s="29" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="21" customHeight="1">
-      <c r="A4" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="32" t="s">
-        <v>188</v>
-      </c>
-      <c r="C4" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="79" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="21" customHeight="1">
-      <c r="A5" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="32" t="s">
-        <v>188</v>
-      </c>
-      <c r="C5" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="80"/>
-    </row>
-    <row r="6" spans="1:4" ht="21" customHeight="1">
-      <c r="A6" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="49">
-        <v>41530</v>
-      </c>
-      <c r="C6" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" s="80"/>
-    </row>
-    <row r="7" spans="1:4" ht="21" customHeight="1">
-      <c r="A7" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7" s="34">
-        <v>42871</v>
-      </c>
-      <c r="C7" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="80"/>
-    </row>
-    <row r="8" spans="1:4" ht="21" customHeight="1">
-      <c r="A8" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="32" t="s">
-        <v>189</v>
-      </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="81"/>
+      <c r="D8" s="79"/>
     </row>
     <row r="9" spans="1:4" ht="21" customHeight="1">
-      <c r="A9" s="54" t="s">
+      <c r="A9" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="29" t="s">
+      <c r="D9" s="27" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="214.5">
-      <c r="A10" s="31" t="s">
+      <c r="A10" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="35" t="s">
+      <c r="B10" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="29" t="s">
+      <c r="D10" s="27" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="21" customHeight="1">
-      <c r="A11" s="54" t="s">
-        <v>176</v>
-      </c>
-      <c r="B11" s="67" t="s">
-        <v>177</v>
-      </c>
-      <c r="C11" s="30" t="s">
-        <v>178</v>
-      </c>
-      <c r="D11" s="29" t="s">
-        <v>179</v>
+      <c r="A11" s="52" t="s">
+        <v>162</v>
+      </c>
+      <c r="B11" s="65" t="s">
+        <v>163</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="21" customHeight="1">
-      <c r="A12" s="54" t="s">
-        <v>180</v>
-      </c>
-      <c r="B12" s="32" t="s">
-        <v>183</v>
-      </c>
-      <c r="C12" s="30" t="s">
-        <v>181</v>
-      </c>
-      <c r="D12" s="29" t="s">
-        <v>182</v>
+      <c r="A12" s="52" t="s">
+        <v>166</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>169</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="28" t="s">
+      <c r="A13" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="26"/>
-      <c r="D13" s="27"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="25"/>
     </row>
     <row r="15" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A15" s="82" t="s">
+      <c r="A15" s="80" t="s">
         <v>60</v>
       </c>
-      <c r="B15" s="83"/>
-      <c r="C15" s="84"/>
+      <c r="B15" s="81"/>
+      <c r="C15" s="82"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="85"/>
-      <c r="B16" s="86"/>
-      <c r="C16" s="87"/>
+      <c r="A16" s="83"/>
+      <c r="B16" s="84"/>
+      <c r="C16" s="85"/>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="85"/>
-      <c r="B17" s="86"/>
-      <c r="C17" s="87"/>
+      <c r="A17" s="83"/>
+      <c r="B17" s="84"/>
+      <c r="C17" s="85"/>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="88"/>
-      <c r="B18" s="89"/>
-      <c r="C18" s="90"/>
+      <c r="A18" s="86"/>
+      <c r="B18" s="87"/>
+      <c r="C18" s="88"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2666,330 +2625,330 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="20.25" thickBot="1">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="56" t="s">
-        <v>173</v>
-      </c>
-      <c r="E1" s="56" t="s">
-        <v>163</v>
-      </c>
-      <c r="F1" s="5" t="s">
+      <c r="D1" s="54" t="s">
+        <v>159</v>
+      </c>
+      <c r="E1" s="54" t="s">
+        <v>149</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="65" t="s">
+      <c r="G1" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="65" t="s">
-        <v>167</v>
-      </c>
-      <c r="I1" s="66" t="s">
-        <v>174</v>
-      </c>
-      <c r="J1" s="65" t="s">
-        <v>168</v>
-      </c>
-      <c r="K1" s="65" t="s">
-        <v>169</v>
-      </c>
-      <c r="L1" s="65" t="s">
+      <c r="H1" s="63" t="s">
+        <v>153</v>
+      </c>
+      <c r="I1" s="64" t="s">
+        <v>160</v>
+      </c>
+      <c r="J1" s="63" t="s">
+        <v>154</v>
+      </c>
+      <c r="K1" s="63" t="s">
+        <v>155</v>
+      </c>
+      <c r="L1" s="63" t="s">
+        <v>156</v>
+      </c>
+      <c r="M1" s="63" t="s">
+        <v>157</v>
+      </c>
+      <c r="N1" s="63" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="48" customHeight="1" thickTop="1">
+      <c r="A2" s="49" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="51"/>
+      <c r="D2" s="41" t="s">
+        <v>171</v>
+      </c>
+      <c r="E2" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="F2" s="59" t="s">
+        <v>151</v>
+      </c>
+      <c r="G2" s="60"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="67"/>
+      <c r="N2" s="61"/>
+    </row>
+    <row r="3" spans="1:14" ht="48" customHeight="1">
+      <c r="A3" s="49" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" s="51"/>
+      <c r="D3" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="F3" s="55" t="s">
+        <v>150</v>
+      </c>
+      <c r="G3" s="60"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="67"/>
+      <c r="N3" s="61"/>
+    </row>
+    <row r="4" spans="1:14" ht="48" customHeight="1">
+      <c r="A4" s="49" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" s="44" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="51"/>
+      <c r="D4" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="E4" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="G4" s="60"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="61"/>
+      <c r="L4" s="66"/>
+      <c r="M4" s="67"/>
+      <c r="N4" s="61"/>
+    </row>
+    <row r="5" spans="1:14" ht="48" customHeight="1">
+      <c r="A5" s="49" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" s="44" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" s="51"/>
+      <c r="D5" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="E5" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="G5" s="60"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="61"/>
+      <c r="J5" s="61"/>
+      <c r="K5" s="61"/>
+      <c r="L5" s="66"/>
+      <c r="M5" s="67"/>
+      <c r="N5" s="61"/>
+    </row>
+    <row r="6" spans="1:14" ht="48" customHeight="1">
+      <c r="A6" s="49" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" s="51"/>
+      <c r="D6" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="E6" s="49" t="s">
+        <v>91</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="G6" s="60"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="66"/>
+      <c r="M6" s="67"/>
+      <c r="N6" s="61"/>
+    </row>
+    <row r="7" spans="1:14" ht="48" customHeight="1">
+      <c r="A7" s="49" t="s">
+        <v>92</v>
+      </c>
+      <c r="B7" s="44" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7" s="51"/>
+      <c r="D7" s="41" t="s">
+        <v>94</v>
+      </c>
+      <c r="E7" s="49" t="s">
+        <v>95</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="G7" s="60"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="61"/>
+      <c r="K7" s="61"/>
+      <c r="L7" s="66"/>
+      <c r="M7" s="67"/>
+      <c r="N7" s="61"/>
+    </row>
+    <row r="8" spans="1:14" ht="48" customHeight="1">
+      <c r="A8" s="49" t="s">
+        <v>96</v>
+      </c>
+      <c r="B8" s="44" t="s">
+        <v>97</v>
+      </c>
+      <c r="C8" s="51"/>
+      <c r="D8" s="41" t="s">
+        <v>98</v>
+      </c>
+      <c r="E8" s="49" t="s">
+        <v>99</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="G8" s="60"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="61"/>
+      <c r="J8" s="61"/>
+      <c r="K8" s="61"/>
+      <c r="L8" s="66"/>
+      <c r="M8" s="67"/>
+      <c r="N8" s="61"/>
+    </row>
+    <row r="9" spans="1:14" ht="48" customHeight="1">
+      <c r="A9" s="45"/>
+      <c r="B9" s="46"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="58"/>
+      <c r="H9" s="58"/>
+      <c r="I9" s="58"/>
+      <c r="J9" s="58"/>
+      <c r="K9" s="58"/>
+      <c r="L9" s="58"/>
+      <c r="M9" s="58"/>
+      <c r="N9" s="58"/>
+    </row>
+    <row r="10" spans="1:14" ht="214.5">
+      <c r="A10" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="G10" s="89" t="s">
         <v>170</v>
       </c>
-      <c r="M1" s="65" t="s">
-        <v>171</v>
-      </c>
-      <c r="N1" s="65" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="48" customHeight="1" thickTop="1">
-      <c r="A2" s="51" t="s">
-        <v>73</v>
-      </c>
-      <c r="B2" s="46" t="s">
-        <v>74</v>
-      </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="43" t="s">
-        <v>185</v>
-      </c>
-      <c r="E2" s="51" t="s">
-        <v>75</v>
-      </c>
-      <c r="F2" s="61" t="s">
-        <v>165</v>
-      </c>
-      <c r="G2" s="62"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="68"/>
-      <c r="M2" s="69"/>
-      <c r="N2" s="63"/>
-    </row>
-    <row r="3" spans="1:14" ht="48" customHeight="1">
-      <c r="A3" s="51" t="s">
-        <v>76</v>
-      </c>
-      <c r="B3" s="46" t="s">
-        <v>77</v>
-      </c>
-      <c r="C3" s="53"/>
-      <c r="D3" s="43" t="s">
-        <v>78</v>
-      </c>
-      <c r="E3" s="51" t="s">
-        <v>79</v>
-      </c>
-      <c r="F3" s="57" t="s">
-        <v>164</v>
-      </c>
-      <c r="G3" s="62"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="68"/>
-      <c r="M3" s="69"/>
-      <c r="N3" s="63"/>
-    </row>
-    <row r="4" spans="1:14" ht="48" customHeight="1">
-      <c r="A4" s="51" t="s">
-        <v>80</v>
-      </c>
-      <c r="B4" s="46" t="s">
-        <v>81</v>
-      </c>
-      <c r="C4" s="53"/>
-      <c r="D4" s="43" t="s">
-        <v>82</v>
-      </c>
-      <c r="E4" s="51" t="s">
-        <v>83</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="G4" s="62"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="63"/>
-      <c r="K4" s="63"/>
-      <c r="L4" s="68"/>
-      <c r="M4" s="69"/>
-      <c r="N4" s="63"/>
-    </row>
-    <row r="5" spans="1:14" ht="48" customHeight="1">
-      <c r="A5" s="51" t="s">
-        <v>84</v>
-      </c>
-      <c r="B5" s="46" t="s">
-        <v>85</v>
-      </c>
-      <c r="C5" s="53"/>
-      <c r="D5" s="43" t="s">
-        <v>86</v>
-      </c>
-      <c r="E5" s="51" t="s">
-        <v>87</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="G5" s="62"/>
-      <c r="H5" s="64"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="63"/>
-      <c r="K5" s="63"/>
-      <c r="L5" s="68"/>
-      <c r="M5" s="69"/>
-      <c r="N5" s="63"/>
-    </row>
-    <row r="6" spans="1:14" ht="48" customHeight="1">
-      <c r="A6" s="51" t="s">
-        <v>88</v>
-      </c>
-      <c r="B6" s="46" t="s">
-        <v>89</v>
-      </c>
-      <c r="C6" s="53"/>
-      <c r="D6" s="43" t="s">
-        <v>90</v>
-      </c>
-      <c r="E6" s="51" t="s">
-        <v>91</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="G6" s="62"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="63"/>
-      <c r="J6" s="63"/>
-      <c r="K6" s="63"/>
-      <c r="L6" s="68"/>
-      <c r="M6" s="69"/>
-      <c r="N6" s="63"/>
-    </row>
-    <row r="7" spans="1:14" ht="48" customHeight="1">
-      <c r="A7" s="51" t="s">
-        <v>92</v>
-      </c>
-      <c r="B7" s="46" t="s">
-        <v>93</v>
-      </c>
-      <c r="C7" s="53"/>
-      <c r="D7" s="43" t="s">
-        <v>94</v>
-      </c>
-      <c r="E7" s="51" t="s">
-        <v>95</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="G7" s="62"/>
-      <c r="H7" s="64"/>
-      <c r="I7" s="63"/>
-      <c r="J7" s="63"/>
-      <c r="K7" s="63"/>
-      <c r="L7" s="68"/>
-      <c r="M7" s="69"/>
-      <c r="N7" s="63"/>
-    </row>
-    <row r="8" spans="1:14" ht="48" customHeight="1">
-      <c r="A8" s="51" t="s">
-        <v>96</v>
-      </c>
-      <c r="B8" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="C8" s="53"/>
-      <c r="D8" s="43" t="s">
-        <v>98</v>
-      </c>
-      <c r="E8" s="51" t="s">
-        <v>99</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="G8" s="62"/>
-      <c r="H8" s="64"/>
-      <c r="I8" s="63"/>
-      <c r="J8" s="63"/>
-      <c r="K8" s="63"/>
-      <c r="L8" s="68"/>
-      <c r="M8" s="69"/>
-      <c r="N8" s="63"/>
-    </row>
-    <row r="9" spans="1:14" ht="48" customHeight="1">
-      <c r="A9" s="47"/>
-      <c r="B9" s="48"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="60"/>
-      <c r="H9" s="60"/>
-      <c r="I9" s="60"/>
-      <c r="J9" s="60"/>
-      <c r="K9" s="60"/>
-      <c r="L9" s="60"/>
-      <c r="M9" s="60"/>
-      <c r="N9" s="60"/>
-    </row>
-    <row r="10" spans="1:14" ht="214.5">
-      <c r="A10" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="B10" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" s="20" t="s">
-        <v>162</v>
-      </c>
-      <c r="F10" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="G10" s="91" t="s">
-        <v>184</v>
-      </c>
-      <c r="H10" s="92"/>
-      <c r="I10" s="92"/>
-      <c r="J10" s="92"/>
-      <c r="K10" s="92"/>
-      <c r="L10" s="92"/>
-      <c r="M10" s="92"/>
-      <c r="N10" s="92"/>
+      <c r="H10" s="90"/>
+      <c r="I10" s="90"/>
+      <c r="J10" s="90"/>
+      <c r="K10" s="90"/>
+      <c r="L10" s="90"/>
+      <c r="M10" s="90"/>
+      <c r="N10" s="90"/>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="40"/>
-      <c r="B11" s="40"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="F11" s="40"/>
+      <c r="A11" s="38"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="F11" s="38"/>
     </row>
     <row r="12" spans="1:14">
-      <c r="F12" s="7"/>
+      <c r="F12" s="6"/>
     </row>
     <row r="13" spans="1:14">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="F13" s="6"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="F13" s="5"/>
     </row>
     <row r="14" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A14" s="6"/>
-      <c r="B14" s="70" t="s">
+      <c r="A14" s="5"/>
+      <c r="B14" s="68" t="s">
         <v>61</v>
       </c>
-      <c r="C14" s="71"/>
-      <c r="D14" s="72"/>
-      <c r="F14" s="44"/>
+      <c r="C14" s="69"/>
+      <c r="D14" s="70"/>
+      <c r="F14" s="42"/>
     </row>
     <row r="15" spans="1:14">
-      <c r="A15" s="6"/>
-      <c r="B15" s="73"/>
-      <c r="C15" s="74"/>
-      <c r="D15" s="75"/>
-      <c r="F15" s="44"/>
+      <c r="A15" s="5"/>
+      <c r="B15" s="71"/>
+      <c r="C15" s="72"/>
+      <c r="D15" s="73"/>
+      <c r="F15" s="42"/>
     </row>
     <row r="16" spans="1:14">
-      <c r="B16" s="73"/>
-      <c r="C16" s="74"/>
-      <c r="D16" s="75"/>
-      <c r="F16" s="44"/>
+      <c r="B16" s="71"/>
+      <c r="C16" s="72"/>
+      <c r="D16" s="73"/>
+      <c r="F16" s="42"/>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="73"/>
-      <c r="C17" s="74"/>
-      <c r="D17" s="75"/>
-      <c r="F17" s="44"/>
+      <c r="B17" s="71"/>
+      <c r="C17" s="72"/>
+      <c r="D17" s="73"/>
+      <c r="F17" s="42"/>
     </row>
     <row r="18" spans="2:6">
-      <c r="B18" s="76"/>
-      <c r="C18" s="77"/>
-      <c r="D18" s="78"/>
-      <c r="F18" s="44"/>
+      <c r="B18" s="74"/>
+      <c r="C18" s="75"/>
+      <c r="D18" s="76"/>
+      <c r="F18" s="42"/>
     </row>
     <row r="19" spans="2:6">
-      <c r="F19" s="45"/>
+      <c r="F19" s="43"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
@@ -3014,583 +2973,621 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="19.5"/>
   <cols>
-    <col min="1" max="1" width="21.625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="21.375" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.625" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25" style="9" customWidth="1"/>
-    <col min="5" max="5" width="40.625" style="8" customWidth="1"/>
-    <col min="6" max="6" width="30.625" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.125" style="8" customWidth="1"/>
-    <col min="8" max="8" width="25" style="8" customWidth="1"/>
-    <col min="9" max="9" width="16.625" style="8" customWidth="1"/>
-    <col min="10" max="10" width="17.875" style="8" customWidth="1"/>
-    <col min="11" max="11" width="8.875" style="4"/>
-    <col min="12" max="16384" width="8.875" style="8"/>
+    <col min="1" max="1" width="21.625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="21.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25" style="8" customWidth="1"/>
+    <col min="5" max="5" width="40.625" style="7" customWidth="1"/>
+    <col min="6" max="6" width="30.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.125" style="7" customWidth="1"/>
+    <col min="8" max="8" width="25" style="7" customWidth="1"/>
+    <col min="9" max="9" width="16.625" style="7" customWidth="1"/>
+    <col min="10" max="10" width="17.875" style="7" customWidth="1"/>
+    <col min="11" max="11" width="8.875" style="3"/>
+    <col min="12" max="16384" width="8.875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" customFormat="1" ht="20.25" thickBot="1">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:12" customFormat="1" thickBot="1">
+      <c r="A1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="52" t="s">
+      <c r="D1" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="3"/>
-    </row>
-    <row r="2" spans="1:11" ht="20.25" thickTop="1">
-      <c r="A2" s="55" t="s">
+      <c r="K1" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" thickTop="1">
+      <c r="A2" s="53" t="s">
         <v>100</v>
       </c>
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="53" t="s">
         <v>101</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="D2" s="41" t="s">
+      <c r="D2" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="F2" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="G2" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="9">
+        <v>0</v>
+      </c>
+      <c r="L2" s="9">
+        <v>65.55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="18.75">
+      <c r="A3" s="53" t="s">
+        <v>100</v>
+      </c>
+      <c r="B3" s="53" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="G2" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11" t="s">
+      <c r="D3" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="10"/>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="55" t="s">
+      <c r="K3" s="9">
+        <v>65.55</v>
+      </c>
+      <c r="L3" s="9">
+        <v>165.51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="18.75">
+      <c r="A4" s="53" t="s">
         <v>100</v>
       </c>
-      <c r="B3" s="55" t="s">
+      <c r="B4" s="53" t="s">
         <v>101</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="D3" s="41" t="s">
+      <c r="C4" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="D4" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="E3" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="F3" s="11" t="s">
+      <c r="E4" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="F4" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="G3" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11" t="s">
+      <c r="G4" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="10"/>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="55" t="s">
+      <c r="K4" s="9">
+        <v>165.51</v>
+      </c>
+      <c r="L4" s="9">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="18.75">
+      <c r="A5" s="53" t="s">
         <v>100</v>
       </c>
-      <c r="B4" s="55" t="s">
+      <c r="B5" s="53" t="s">
         <v>101</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C5" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="D4" s="41" t="s">
+      <c r="D5" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E5" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="F5" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="G5" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="K5" s="9">
+        <v>253</v>
+      </c>
+      <c r="L5" s="9"/>
+    </row>
+    <row r="6" spans="1:12" ht="18.75">
+      <c r="A6" s="53" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6" s="53" t="s">
+        <v>101</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="G4" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11" t="s">
+      <c r="D6" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="10"/>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="55" t="s">
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+    </row>
+    <row r="7" spans="1:12" ht="18.75">
+      <c r="A7" s="53" t="s">
         <v>100</v>
       </c>
-      <c r="B5" s="55" t="s">
+      <c r="B7" s="53" t="s">
         <v>101</v>
       </c>
-      <c r="C5" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="D5" s="41" t="s">
+      <c r="C7" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="D7" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="E5" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="F5" s="11" t="s">
+      <c r="E7" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="F7" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="G5" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11" t="s">
+      <c r="G7" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="K5" s="10"/>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="55" t="s">
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+    </row>
+    <row r="8" spans="1:12" ht="18.75">
+      <c r="A8" s="53" t="s">
         <v>100</v>
       </c>
-      <c r="B6" s="55" t="s">
+      <c r="B8" s="53" t="s">
         <v>101</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C8" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="D6" s="41" t="s">
+      <c r="D8" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E8" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="F8" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="G8" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+    </row>
+    <row r="9" spans="1:12" ht="18.75">
+      <c r="A9" s="53" t="s">
+        <v>100</v>
+      </c>
+      <c r="B9" s="53" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="D9" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+    </row>
+    <row r="10" spans="1:12" ht="18.75">
+      <c r="A10" s="53" t="s">
+        <v>100</v>
+      </c>
+      <c r="B10" s="53" t="s">
+        <v>119</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="D10" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+    </row>
+    <row r="11" spans="1:12" ht="18.75">
+      <c r="A11" s="53" t="s">
+        <v>100</v>
+      </c>
+      <c r="B11" s="53" t="s">
+        <v>119</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="D11" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+    </row>
+    <row r="12" spans="1:12" ht="18.75">
+      <c r="A12" s="53" t="s">
+        <v>100</v>
+      </c>
+      <c r="B12" s="53" t="s">
+        <v>119</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="D12" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+    </row>
+    <row r="13" spans="1:12" ht="18.75">
+      <c r="A13" s="53" t="s">
+        <v>100</v>
+      </c>
+      <c r="B13" s="53" t="s">
+        <v>119</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="D13" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+    </row>
+    <row r="14" spans="1:12" ht="18.75">
+      <c r="A14" s="53" t="s">
+        <v>100</v>
+      </c>
+      <c r="B14" s="53" t="s">
+        <v>119</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="D14" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+    </row>
+    <row r="15" spans="1:12" ht="18.75">
+      <c r="A15" s="53" t="s">
+        <v>100</v>
+      </c>
+      <c r="B15" s="53" t="s">
+        <v>119</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="D15" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+    </row>
+    <row r="16" spans="1:12" ht="18.75">
+      <c r="A16" s="53" t="s">
+        <v>132</v>
+      </c>
+      <c r="B16" s="53" t="s">
+        <v>133</v>
+      </c>
+      <c r="C16" s="9"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="56" t="s">
         <v>152</v>
       </c>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="K6" s="10"/>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="55" t="s">
-        <v>100</v>
-      </c>
-      <c r="B7" s="55" t="s">
-        <v>101</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="D7" s="41" t="s">
-        <v>103</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="K7" s="10"/>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="55" t="s">
-        <v>100</v>
-      </c>
-      <c r="B8" s="55" t="s">
-        <v>101</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="D8" s="41" t="s">
-        <v>103</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="K8" s="10"/>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="55" t="s">
-        <v>100</v>
-      </c>
-      <c r="B9" s="55" t="s">
-        <v>101</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="D9" s="41" t="s">
-        <v>103</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="K9" s="10"/>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="55" t="s">
-        <v>100</v>
-      </c>
-      <c r="B10" s="55" t="s">
-        <v>127</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="D10" s="41" t="s">
-        <v>103</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="K10" s="10"/>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="55" t="s">
-        <v>100</v>
-      </c>
-      <c r="B11" s="55" t="s">
-        <v>127</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="D11" s="41" t="s">
-        <v>103</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="K11" s="10"/>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="55" t="s">
-        <v>100</v>
-      </c>
-      <c r="B12" s="55" t="s">
-        <v>127</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="D12" s="41" t="s">
-        <v>103</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="K12" s="10"/>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="55" t="s">
-        <v>100</v>
-      </c>
-      <c r="B13" s="55" t="s">
-        <v>127</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="D13" s="41" t="s">
-        <v>103</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="K13" s="10"/>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="55" t="s">
-        <v>100</v>
-      </c>
-      <c r="B14" s="55" t="s">
-        <v>127</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="D14" s="41" t="s">
-        <v>103</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="K14" s="10"/>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="55" t="s">
-        <v>100</v>
-      </c>
-      <c r="B15" s="55" t="s">
-        <v>127</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="D15" s="41" t="s">
-        <v>103</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="K15" s="10"/>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="55" t="s">
-        <v>146</v>
-      </c>
-      <c r="B16" s="55" t="s">
-        <v>147</v>
-      </c>
-      <c r="C16" s="11"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="58" t="s">
-        <v>166</v>
-      </c>
-      <c r="F16" s="59"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="10"/>
-    </row>
-    <row r="17" spans="1:11" s="19" customFormat="1">
-      <c r="A17" s="21"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="1" t="s">
+      <c r="F16" s="57"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+    </row>
+    <row r="17" spans="1:13" s="17" customFormat="1">
+      <c r="A17" s="19"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="39" customFormat="1" ht="165" customHeight="1">
-      <c r="A18" s="36" t="s">
+    <row r="18" spans="1:13" s="37" customFormat="1" ht="165" customHeight="1">
+      <c r="A18" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="B18" s="36" t="s">
+      <c r="B18" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="36" t="s">
+      <c r="C18" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="D18" s="37" t="s">
+      <c r="D18" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="E18" s="36" t="s">
+      <c r="E18" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="F18" s="36" t="s">
+      <c r="F18" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="G18" s="36" t="s">
+      <c r="G18" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="H18" s="36" t="s">
+      <c r="H18" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="I18" s="36" t="s">
+      <c r="I18" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="J18" s="36" t="s">
+      <c r="J18" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="K18" s="38"/>
-    </row>
-    <row r="19" spans="1:11" s="16" customFormat="1">
-      <c r="D19" s="17"/>
-      <c r="K19" s="18"/>
-    </row>
-    <row r="20" spans="1:11" s="16" customFormat="1">
-      <c r="D20" s="17"/>
-      <c r="K20" s="18"/>
-    </row>
-    <row r="21" spans="1:11" ht="14.25" customHeight="1">
-      <c r="B21" s="93" t="s">
+      <c r="K18" s="36"/>
+    </row>
+    <row r="19" spans="1:13" s="14" customFormat="1">
+      <c r="D19" s="15"/>
+      <c r="K19" s="16"/>
+    </row>
+    <row r="20" spans="1:13" s="14" customFormat="1">
+      <c r="D20" s="15"/>
+      <c r="K20" s="16"/>
+    </row>
+    <row r="21" spans="1:13" ht="14.25" customHeight="1">
+      <c r="B21" s="91" t="s">
         <v>65</v>
       </c>
-      <c r="C21" s="94"/>
-      <c r="D21" s="94"/>
-      <c r="E21" s="95"/>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="B22" s="96"/>
-      <c r="C22" s="97"/>
-      <c r="D22" s="97"/>
-      <c r="E22" s="98"/>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="B23" s="96"/>
-      <c r="C23" s="97"/>
-      <c r="D23" s="97"/>
-      <c r="E23" s="98"/>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="B24" s="96"/>
-      <c r="C24" s="97"/>
-      <c r="D24" s="97"/>
-      <c r="E24" s="98"/>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="B25" s="96"/>
-      <c r="C25" s="97"/>
-      <c r="D25" s="97"/>
-      <c r="E25" s="98"/>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="B26" s="96"/>
-      <c r="C26" s="97"/>
-      <c r="D26" s="97"/>
-      <c r="E26" s="98"/>
-    </row>
-    <row r="27" spans="1:11">
-      <c r="B27" s="99"/>
-      <c r="C27" s="100"/>
-      <c r="D27" s="100"/>
-      <c r="E27" s="101"/>
+      <c r="C21" s="92"/>
+      <c r="D21" s="92"/>
+      <c r="E21" s="93"/>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="B22" s="94"/>
+      <c r="C22" s="95"/>
+      <c r="D22" s="95"/>
+      <c r="E22" s="96"/>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="B23" s="94"/>
+      <c r="C23" s="95"/>
+      <c r="D23" s="95"/>
+      <c r="E23" s="96"/>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="B24" s="94"/>
+      <c r="C24" s="95"/>
+      <c r="D24" s="95"/>
+      <c r="E24" s="96"/>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="B25" s="94"/>
+      <c r="C25" s="95"/>
+      <c r="D25" s="95"/>
+      <c r="E25" s="96"/>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="B26" s="94"/>
+      <c r="C26" s="95"/>
+      <c r="D26" s="95"/>
+      <c r="E26" s="96"/>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="B27" s="97"/>
+      <c r="C27" s="98"/>
+      <c r="D27" s="98"/>
+      <c r="E27" s="99"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
@@ -3645,68 +3642,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="19.5" thickBot="1">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="13" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="19.5" thickTop="1">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="12" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13" t="s">
+      <c r="B3" s="11"/>
+      <c r="C3" s="11" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13" t="s">
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13" t="s">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13" t="s">
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13" t="s">
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4"/>

--- a/structure-books_network1.xlsx
+++ b/structure-books_network1.xlsx
@@ -17,7 +17,7 @@
     <sheet name="vol-1" sheetId="33" r:id="rId3"/>
     <sheet name="書籍構成シート選択用" sheetId="35" state="hidden" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
@@ -2975,8 +2975,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" topLeftCell="F4" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="19.5"/>
@@ -3064,7 +3064,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="9">
-        <v>65.55</v>
+        <v>65.8</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="18.75">
@@ -3095,7 +3095,7 @@
         <v>5</v>
       </c>
       <c r="K3" s="9">
-        <v>65.55</v>
+        <v>65.8</v>
       </c>
       <c r="L3" s="9">
         <v>165.51</v>
@@ -3132,7 +3132,7 @@
         <v>165.51</v>
       </c>
       <c r="L4" s="9">
-        <v>253</v>
+        <v>253.5</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="18.75">
@@ -3163,9 +3163,11 @@
         <v>5</v>
       </c>
       <c r="K5" s="9">
-        <v>253</v>
-      </c>
-      <c r="L5" s="9"/>
+        <v>253.5</v>
+      </c>
+      <c r="L5" s="9">
+        <v>314.5</v>
+      </c>
     </row>
     <row r="6" spans="1:12" ht="18.75">
       <c r="A6" s="53" t="s">
@@ -3194,8 +3196,12 @@
       <c r="J6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
+      <c r="K6" s="9">
+        <v>314.5</v>
+      </c>
+      <c r="L6" s="9">
+        <v>408.99</v>
+      </c>
     </row>
     <row r="7" spans="1:12" ht="18.75">
       <c r="A7" s="53" t="s">
@@ -3224,8 +3230,12 @@
       <c r="J7" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
+      <c r="K7" s="9">
+        <v>408.99</v>
+      </c>
+      <c r="L7" s="9">
+        <v>502.9</v>
+      </c>
     </row>
     <row r="8" spans="1:12" ht="18.75">
       <c r="A8" s="53" t="s">
@@ -3254,8 +3264,12 @@
       <c r="J8" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
+      <c r="K8" s="9">
+        <v>502.9</v>
+      </c>
+      <c r="L8" s="9">
+        <v>552.73</v>
+      </c>
     </row>
     <row r="9" spans="1:12" ht="18.75">
       <c r="A9" s="53" t="s">
@@ -3284,8 +3298,12 @@
       <c r="J9" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
+      <c r="K9" s="9">
+        <v>552.73</v>
+      </c>
+      <c r="L9" s="9">
+        <v>603.15</v>
+      </c>
     </row>
     <row r="10" spans="1:12" ht="18.75">
       <c r="A10" s="53" t="s">
@@ -3314,8 +3332,12 @@
       <c r="J10" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
+      <c r="K10" s="9">
+        <v>603.15</v>
+      </c>
+      <c r="L10" s="9">
+        <v>699.35</v>
+      </c>
     </row>
     <row r="11" spans="1:12" ht="18.75">
       <c r="A11" s="53" t="s">
@@ -3344,8 +3366,12 @@
       <c r="J11" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
+      <c r="K11" s="9">
+        <v>699.35</v>
+      </c>
+      <c r="L11" s="9">
+        <v>804.33</v>
+      </c>
     </row>
     <row r="12" spans="1:12" ht="18.75">
       <c r="A12" s="53" t="s">
@@ -3374,8 +3400,12 @@
       <c r="J12" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
+      <c r="K12" s="9">
+        <v>804.33</v>
+      </c>
+      <c r="L12" s="9">
+        <v>891.2</v>
+      </c>
     </row>
     <row r="13" spans="1:12" ht="18.75">
       <c r="A13" s="53" t="s">
@@ -3404,8 +3434,12 @@
       <c r="J13" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
+      <c r="K13" s="9">
+        <v>891.2</v>
+      </c>
+      <c r="L13" s="9">
+        <v>1000.4</v>
+      </c>
     </row>
     <row r="14" spans="1:12" ht="18.75">
       <c r="A14" s="53" t="s">
@@ -3434,8 +3468,12 @@
       <c r="J14" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
+      <c r="K14" s="9">
+        <v>1000.4</v>
+      </c>
+      <c r="L14" s="9">
+        <v>1101.55</v>
+      </c>
     </row>
     <row r="15" spans="1:12" ht="18.75">
       <c r="A15" s="53" t="s">
@@ -3464,8 +3502,12 @@
       <c r="J15" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
+      <c r="K15" s="9">
+        <v>1101.55</v>
+      </c>
+      <c r="L15" s="9">
+        <v>1156</v>
+      </c>
     </row>
     <row r="16" spans="1:12" ht="18.75">
       <c r="A16" s="53" t="s">

--- a/structure-books_network1.xlsx
+++ b/structure-books_network1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\chilo-producer\chiloPro\chilo001\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CHiLO-Producer_pri\chiloPro\chilo001\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="series-information" sheetId="37" r:id="rId1"/>
@@ -592,9 +592,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>urn:uuid:41fe5bb9-686f-47dd-8197-61fc9f817bcd</t>
-  </si>
-  <si>
     <t>vol-2</t>
   </si>
   <si>
@@ -604,9 +601,6 @@
     <t>001_cover_image_2.png</t>
   </si>
   <si>
-    <t>urn:uuid:605c25a1-07a6-4a65-81a4-95cd77ba86b8</t>
-  </si>
-  <si>
     <t>vol-3</t>
   </si>
   <si>
@@ -616,9 +610,6 @@
     <t>001_cover_image_3.png</t>
   </si>
   <si>
-    <t>urn:uuid:1a060993-7cab-4f91-896d-195da30a1978</t>
-  </si>
-  <si>
     <t>vol-4</t>
   </si>
   <si>
@@ -628,9 +619,6 @@
     <t>001_cover_image_4.png</t>
   </si>
   <si>
-    <t>urn:uuid:1842b29a-b875-4a6e-9580-0ba33d193d46</t>
-  </si>
-  <si>
     <t>vol-5</t>
   </si>
   <si>
@@ -640,9 +628,6 @@
     <t>001_cover_image_5.png</t>
   </si>
   <si>
-    <t>urn:uuid:c603ba2c-a8f7-4855-a3f6-ad530da05ded</t>
-  </si>
-  <si>
     <t>vol-6</t>
   </si>
   <si>
@@ -652,9 +637,6 @@
     <t>001_cover_image_6.png</t>
   </si>
   <si>
-    <t>urn:uuid:9c815d35-585b-4209-b87a-0621c76dac5c</t>
-  </si>
-  <si>
     <t>vol-7</t>
   </si>
   <si>
@@ -662,9 +644,6 @@
   </si>
   <si>
     <t>001_cover_image_7.png</t>
-  </si>
-  <si>
-    <t>urn:uuid:303974f7-bac7-4e31-9a39-470bf6a4380f</t>
   </si>
   <si>
     <t>document</t>
@@ -1049,6 +1028,34 @@
   </si>
   <si>
     <t>end</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>41fe5bb9-686f-47dd-8197-61fc9f817bcd</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>605c25a1-07a6-4a65-81a4-95cd77ba86b8</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>1a060993-7cab-4f91-896d-195da30a1978</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>1842b29a-b875-4a6e-9580-0ba33d193d46</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>c603ba2c-a8f7-4855-a3f6-ad530da05ded</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>9c815d35-585b-4209-b87a-0621c76dac5c</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>303974f7-bac7-4e31-9a39-470bf6a4380f</t>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -1709,7 +1716,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2043,6 +2050,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -2386,9 +2397,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
   <cols>
@@ -2418,7 +2427,7 @@
         <v>25</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="C2" s="28" t="s">
         <v>41</v>
@@ -2429,10 +2438,10 @@
     </row>
     <row r="3" spans="1:4" ht="21" customHeight="1">
       <c r="A3" s="52" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="C3" s="28" t="s">
         <v>47</v>
@@ -2446,7 +2455,7 @@
         <v>26</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="C4" s="28" t="s">
         <v>21</v>
@@ -2460,7 +2469,7 @@
         <v>27</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="C5" s="28" t="s">
         <v>22</v>
@@ -2496,7 +2505,7 @@
         <v>29</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="C8" s="28" t="s">
         <v>19</v>
@@ -2533,30 +2542,30 @@
     </row>
     <row r="11" spans="1:4" ht="21" customHeight="1">
       <c r="A11" s="52" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="B11" s="65" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="21" customHeight="1">
       <c r="A12" s="52" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2635,10 +2644,10 @@
         <v>12</v>
       </c>
       <c r="D1" s="54" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="E1" s="54" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>13</v>
@@ -2647,25 +2656,25 @@
         <v>31</v>
       </c>
       <c r="H1" s="63" t="s">
+        <v>146</v>
+      </c>
+      <c r="I1" s="64" t="s">
         <v>153</v>
       </c>
-      <c r="I1" s="64" t="s">
-        <v>160</v>
-      </c>
       <c r="J1" s="63" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="K1" s="63" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="L1" s="63" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="M1" s="63" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="N1" s="63" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="48" customHeight="1" thickTop="1">
@@ -2677,13 +2686,13 @@
       </c>
       <c r="C2" s="51"/>
       <c r="D2" s="41" t="s">
-        <v>171</v>
-      </c>
-      <c r="E2" s="49" t="s">
-        <v>75</v>
+        <v>164</v>
+      </c>
+      <c r="E2" s="100" t="s">
+        <v>173</v>
       </c>
       <c r="F2" s="59" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="G2" s="60"/>
       <c r="H2" s="61"/>
@@ -2696,20 +2705,20 @@
     </row>
     <row r="3" spans="1:14" ht="48" customHeight="1">
       <c r="A3" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" s="44" t="s">
         <v>76</v>
-      </c>
-      <c r="B3" s="44" t="s">
-        <v>77</v>
       </c>
       <c r="C3" s="51"/>
       <c r="D3" s="41" t="s">
-        <v>78</v>
-      </c>
-      <c r="E3" s="49" t="s">
-        <v>79</v>
+        <v>77</v>
+      </c>
+      <c r="E3" s="100" t="s">
+        <v>174</v>
       </c>
       <c r="F3" s="55" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="G3" s="60"/>
       <c r="H3" s="62"/>
@@ -2722,20 +2731,20 @@
     </row>
     <row r="4" spans="1:14" ht="48" customHeight="1">
       <c r="A4" s="49" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B4" s="44" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C4" s="51"/>
       <c r="D4" s="41" t="s">
-        <v>82</v>
-      </c>
-      <c r="E4" s="49" t="s">
-        <v>83</v>
+        <v>80</v>
+      </c>
+      <c r="E4" s="100" t="s">
+        <v>175</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="G4" s="60"/>
       <c r="H4" s="62"/>
@@ -2748,20 +2757,20 @@
     </row>
     <row r="5" spans="1:14" ht="48" customHeight="1">
       <c r="A5" s="49" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B5" s="44" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C5" s="51"/>
       <c r="D5" s="41" t="s">
-        <v>86</v>
-      </c>
-      <c r="E5" s="49" t="s">
-        <v>87</v>
+        <v>83</v>
+      </c>
+      <c r="E5" s="100" t="s">
+        <v>176</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="G5" s="60"/>
       <c r="H5" s="62"/>
@@ -2774,20 +2783,20 @@
     </row>
     <row r="6" spans="1:14" ht="48" customHeight="1">
       <c r="A6" s="49" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B6" s="44" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C6" s="51"/>
       <c r="D6" s="41" t="s">
-        <v>90</v>
-      </c>
-      <c r="E6" s="49" t="s">
-        <v>91</v>
+        <v>86</v>
+      </c>
+      <c r="E6" s="100" t="s">
+        <v>177</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="G6" s="60"/>
       <c r="H6" s="62"/>
@@ -2800,20 +2809,20 @@
     </row>
     <row r="7" spans="1:14" ht="48" customHeight="1">
       <c r="A7" s="49" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B7" s="44" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C7" s="51"/>
       <c r="D7" s="41" t="s">
-        <v>94</v>
-      </c>
-      <c r="E7" s="49" t="s">
-        <v>95</v>
+        <v>89</v>
+      </c>
+      <c r="E7" s="100" t="s">
+        <v>178</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="G7" s="60"/>
       <c r="H7" s="62"/>
@@ -2826,20 +2835,20 @@
     </row>
     <row r="8" spans="1:14" ht="48" customHeight="1">
       <c r="A8" s="49" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B8" s="44" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C8" s="51"/>
       <c r="D8" s="41" t="s">
-        <v>98</v>
-      </c>
-      <c r="E8" s="49" t="s">
-        <v>99</v>
+        <v>92</v>
+      </c>
+      <c r="E8" s="100" t="s">
+        <v>179</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="G8" s="60"/>
       <c r="H8" s="62"/>
@@ -2880,13 +2889,13 @@
         <v>36</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="F10" s="18" t="s">
         <v>58</v>
       </c>
       <c r="G10" s="89" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="H10" s="90"/>
       <c r="I10" s="90"/>
@@ -2975,9 +2984,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F4" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="19.5"/>
   <cols>
@@ -3027,33 +3034,33 @@
         <v>4</v>
       </c>
       <c r="K1" s="13" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="L1" s="13" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="2" spans="1:12" thickTop="1">
       <c r="A2" s="53" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B2" s="53" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D2" s="39" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
@@ -3069,25 +3076,25 @@
     </row>
     <row r="3" spans="1:12" ht="18.75">
       <c r="A3" s="53" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B3" s="53" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D3" s="39" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
@@ -3103,25 +3110,25 @@
     </row>
     <row r="4" spans="1:12" ht="18.75">
       <c r="A4" s="53" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" s="53" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="D4" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="F4" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="D4" s="39" t="s">
-        <v>103</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>108</v>
-      </c>
       <c r="G4" s="9" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
@@ -3137,25 +3144,25 @@
     </row>
     <row r="5" spans="1:12" ht="18.75">
       <c r="A5" s="53" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B5" s="53" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D5" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="F5" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="E5" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>110</v>
-      </c>
       <c r="G5" s="9" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
@@ -3171,25 +3178,25 @@
     </row>
     <row r="6" spans="1:12" ht="18.75">
       <c r="A6" s="53" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B6" s="53" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="D6" s="39" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
@@ -3205,25 +3212,25 @@
     </row>
     <row r="7" spans="1:12" ht="18.75">
       <c r="A7" s="53" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B7" s="53" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="D7" s="39" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
@@ -3239,25 +3246,25 @@
     </row>
     <row r="8" spans="1:12" ht="18.75">
       <c r="A8" s="53" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B8" s="53" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="D8" s="39" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
@@ -3273,25 +3280,25 @@
     </row>
     <row r="9" spans="1:12" ht="18.75">
       <c r="A9" s="53" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B9" s="53" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="D9" s="39" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
@@ -3307,25 +3314,25 @@
     </row>
     <row r="10" spans="1:12" ht="18.75">
       <c r="A10" s="53" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B10" s="53" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="D10" s="39" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
@@ -3341,25 +3348,25 @@
     </row>
     <row r="11" spans="1:12" ht="18.75">
       <c r="A11" s="53" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B11" s="53" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="D11" s="39" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
@@ -3375,25 +3382,25 @@
     </row>
     <row r="12" spans="1:12" ht="18.75">
       <c r="A12" s="53" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B12" s="53" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="D12" s="39" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
@@ -3409,25 +3416,25 @@
     </row>
     <row r="13" spans="1:12" ht="18.75">
       <c r="A13" s="53" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B13" s="53" t="s">
+        <v>112</v>
+      </c>
+      <c r="C13" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="C13" s="9" t="s">
-        <v>126</v>
-      </c>
       <c r="D13" s="39" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
@@ -3443,25 +3450,25 @@
     </row>
     <row r="14" spans="1:12" ht="18.75">
       <c r="A14" s="53" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B14" s="53" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="D14" s="39" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
@@ -3477,25 +3484,25 @@
     </row>
     <row r="15" spans="1:12" ht="18.75">
       <c r="A15" s="53" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B15" s="53" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D15" s="39" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
@@ -3511,15 +3518,15 @@
     </row>
     <row r="16" spans="1:12" ht="18.75">
       <c r="A16" s="53" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="B16" s="53" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="39"/>
       <c r="E16" s="56" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="F16" s="57"/>
       <c r="G16" s="9"/>

--- a/structure-books_network1.xlsx
+++ b/structure-books_network1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\chilo-producer\chiloPro\chilo001\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CHiLO-Producer_pri\chiloPro\chilo001\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -598,9 +598,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>urn:uuid:41fe5bb9-686f-47dd-8197-61fc9f817bcd</t>
-  </si>
-  <si>
     <t>vol-2</t>
   </si>
   <si>
@@ -610,9 +607,6 @@
     <t>001_cover_image_2.png</t>
   </si>
   <si>
-    <t>urn:uuid:605c25a1-07a6-4a65-81a4-95cd77ba86b8</t>
-  </si>
-  <si>
     <t>vol-3</t>
   </si>
   <si>
@@ -622,9 +616,6 @@
     <t>001_cover_image_3.png</t>
   </si>
   <si>
-    <t>urn:uuid:1a060993-7cab-4f91-896d-195da30a1978</t>
-  </si>
-  <si>
     <t>vol-4</t>
   </si>
   <si>
@@ -634,9 +625,6 @@
     <t>001_cover_image_4.png</t>
   </si>
   <si>
-    <t>urn:uuid:1842b29a-b875-4a6e-9580-0ba33d193d46</t>
-  </si>
-  <si>
     <t>vol-5</t>
   </si>
   <si>
@@ -646,9 +634,6 @@
     <t>001_cover_image_5.png</t>
   </si>
   <si>
-    <t>urn:uuid:c603ba2c-a8f7-4855-a3f6-ad530da05ded</t>
-  </si>
-  <si>
     <t>vol-6</t>
   </si>
   <si>
@@ -658,9 +643,6 @@
     <t>001_cover_image_6.png</t>
   </si>
   <si>
-    <t>urn:uuid:9c815d35-585b-4209-b87a-0621c76dac5c</t>
-  </si>
-  <si>
     <t>vol-7</t>
   </si>
   <si>
@@ -668,9 +650,6 @@
   </si>
   <si>
     <t>001_cover_image_7.png</t>
-  </si>
-  <si>
-    <t>urn:uuid:303974f7-bac7-4e31-9a39-470bf6a4380f</t>
   </si>
   <si>
     <t>document</t>
@@ -1797,6 +1776,34 @@
   </si>
   <si>
     <t>2013 NPO CCC-TIES</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>41fe5bb9-686f-47dd-8197-61fc9f817bcd</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>605c25a1-07a6-4a65-81a4-95cd77ba86b8</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>1a060993-7cab-4f91-896d-195da30a1978</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>1842b29a-b875-4a6e-9580-0ba33d193d46</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>c603ba2c-a8f7-4855-a3f6-ad530da05ded</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>9c815d35-585b-4209-b87a-0621c76dac5c</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>303974f7-bac7-4e31-9a39-470bf6a4380f</t>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -2465,7 +2472,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2732,6 +2739,10 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3152,9 +3163,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
   <cols>
@@ -3184,7 +3193,7 @@
         <v>25</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="C2" s="30" t="s">
         <v>41</v>
@@ -3195,10 +3204,10 @@
     </row>
     <row r="3" spans="1:4" ht="21" customHeight="1">
       <c r="A3" s="54" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="C3" s="30" t="s">
         <v>47</v>
@@ -3212,12 +3221,12 @@
         <v>26</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="C4" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="80" t="s">
+      <c r="D4" s="81" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3226,12 +3235,12 @@
         <v>27</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="C5" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="81"/>
+      <c r="D5" s="82"/>
     </row>
     <row r="6" spans="1:4" ht="21" customHeight="1">
       <c r="A6" s="31" t="s">
@@ -3243,7 +3252,7 @@
       <c r="C6" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="D6" s="81"/>
+      <c r="D6" s="82"/>
     </row>
     <row r="7" spans="1:4" ht="21" customHeight="1">
       <c r="A7" s="31" t="s">
@@ -3255,19 +3264,19 @@
       <c r="C7" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="81"/>
+      <c r="D7" s="82"/>
     </row>
     <row r="8" spans="1:4" ht="21" customHeight="1">
       <c r="A8" s="31" t="s">
         <v>29</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="C8" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="82"/>
+      <c r="D8" s="83"/>
     </row>
     <row r="9" spans="1:4" ht="21" customHeight="1">
       <c r="A9" s="54" t="s">
@@ -3299,30 +3308,30 @@
     </row>
     <row r="11" spans="1:4" ht="21" customHeight="1">
       <c r="A11" s="54" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="B11" s="68" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="C11" s="30" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="D11" s="29" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="21" customHeight="1">
       <c r="A12" s="54" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="D12" s="29" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -3333,26 +3342,26 @@
       <c r="D13" s="27"/>
     </row>
     <row r="15" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A15" s="83" t="s">
+      <c r="A15" s="84" t="s">
         <v>60</v>
       </c>
-      <c r="B15" s="84"/>
-      <c r="C15" s="85"/>
+      <c r="B15" s="85"/>
+      <c r="C15" s="86"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="86"/>
-      <c r="B16" s="87"/>
-      <c r="C16" s="88"/>
+      <c r="A16" s="87"/>
+      <c r="B16" s="88"/>
+      <c r="C16" s="89"/>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="86"/>
-      <c r="B17" s="87"/>
-      <c r="C17" s="88"/>
+      <c r="A17" s="87"/>
+      <c r="B17" s="88"/>
+      <c r="C17" s="89"/>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="89"/>
-      <c r="B18" s="90"/>
-      <c r="C18" s="91"/>
+      <c r="A18" s="90"/>
+      <c r="B18" s="91"/>
+      <c r="C18" s="92"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3486,10 +3495,10 @@
         <v>12</v>
       </c>
       <c r="D1" s="56" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="E1" s="56" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>13</v>
@@ -3498,25 +3507,25 @@
         <v>31</v>
       </c>
       <c r="H1" s="66" t="s">
+        <v>393</v>
+      </c>
+      <c r="I1" s="67" t="s">
         <v>400</v>
       </c>
-      <c r="I1" s="67" t="s">
-        <v>407</v>
-      </c>
       <c r="J1" s="66" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="K1" s="66" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="L1" s="66" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="M1" s="66" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="N1" s="66" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="48" customHeight="1" thickTop="1">
@@ -3528,13 +3537,13 @@
       </c>
       <c r="C2" s="53"/>
       <c r="D2" s="43" t="s">
-        <v>418</v>
-      </c>
-      <c r="E2" s="51" t="s">
-        <v>75</v>
+        <v>411</v>
+      </c>
+      <c r="E2" s="80" t="s">
+        <v>416</v>
       </c>
       <c r="F2" s="62" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="G2" s="63"/>
       <c r="H2" s="64"/>
@@ -3547,20 +3556,20 @@
     </row>
     <row r="3" spans="1:14" ht="48" customHeight="1">
       <c r="A3" s="51" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" s="46" t="s">
         <v>76</v>
-      </c>
-      <c r="B3" s="46" t="s">
-        <v>77</v>
       </c>
       <c r="C3" s="53"/>
       <c r="D3" s="43" t="s">
-        <v>78</v>
-      </c>
-      <c r="E3" s="51" t="s">
-        <v>79</v>
+        <v>77</v>
+      </c>
+      <c r="E3" s="80" t="s">
+        <v>417</v>
       </c>
       <c r="F3" s="58" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="G3" s="63"/>
       <c r="H3" s="65"/>
@@ -3573,20 +3582,20 @@
     </row>
     <row r="4" spans="1:14" ht="48" customHeight="1">
       <c r="A4" s="51" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B4" s="46" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C4" s="53"/>
       <c r="D4" s="43" t="s">
-        <v>82</v>
-      </c>
-      <c r="E4" s="51" t="s">
-        <v>83</v>
+        <v>80</v>
+      </c>
+      <c r="E4" s="80" t="s">
+        <v>418</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="G4" s="63"/>
       <c r="H4" s="65"/>
@@ -3599,20 +3608,20 @@
     </row>
     <row r="5" spans="1:14" ht="48" customHeight="1">
       <c r="A5" s="51" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B5" s="46" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C5" s="53"/>
       <c r="D5" s="43" t="s">
-        <v>86</v>
-      </c>
-      <c r="E5" s="51" t="s">
-        <v>87</v>
+        <v>83</v>
+      </c>
+      <c r="E5" s="80" t="s">
+        <v>419</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="G5" s="63"/>
       <c r="H5" s="65"/>
@@ -3625,20 +3634,20 @@
     </row>
     <row r="6" spans="1:14" ht="48" customHeight="1">
       <c r="A6" s="51" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B6" s="46" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C6" s="53"/>
       <c r="D6" s="43" t="s">
-        <v>90</v>
-      </c>
-      <c r="E6" s="51" t="s">
-        <v>91</v>
+        <v>86</v>
+      </c>
+      <c r="E6" s="80" t="s">
+        <v>420</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="G6" s="63"/>
       <c r="H6" s="65"/>
@@ -3651,20 +3660,20 @@
     </row>
     <row r="7" spans="1:14" ht="48" customHeight="1">
       <c r="A7" s="51" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B7" s="46" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C7" s="53"/>
       <c r="D7" s="43" t="s">
-        <v>94</v>
-      </c>
-      <c r="E7" s="51" t="s">
-        <v>95</v>
+        <v>89</v>
+      </c>
+      <c r="E7" s="80" t="s">
+        <v>421</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="G7" s="63"/>
       <c r="H7" s="65"/>
@@ -3677,20 +3686,20 @@
     </row>
     <row r="8" spans="1:14" ht="48" customHeight="1">
       <c r="A8" s="51" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B8" s="46" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C8" s="53"/>
       <c r="D8" s="43" t="s">
-        <v>98</v>
-      </c>
-      <c r="E8" s="51" t="s">
-        <v>99</v>
+        <v>92</v>
+      </c>
+      <c r="E8" s="80" t="s">
+        <v>422</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="G8" s="63"/>
       <c r="H8" s="65"/>
@@ -3731,21 +3740,21 @@
         <v>36</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="F10" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="G10" s="92" t="s">
-        <v>417</v>
-      </c>
-      <c r="H10" s="93"/>
-      <c r="I10" s="93"/>
-      <c r="J10" s="93"/>
-      <c r="K10" s="93"/>
-      <c r="L10" s="93"/>
-      <c r="M10" s="93"/>
-      <c r="N10" s="93"/>
+      <c r="G10" s="93" t="s">
+        <v>410</v>
+      </c>
+      <c r="H10" s="94"/>
+      <c r="I10" s="94"/>
+      <c r="J10" s="94"/>
+      <c r="K10" s="94"/>
+      <c r="L10" s="94"/>
+      <c r="M10" s="94"/>
+      <c r="N10" s="94"/>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="40"/>
@@ -3879,25 +3888,25 @@
     </row>
     <row r="2" spans="1:11" ht="20.25" thickTop="1">
       <c r="A2" s="55" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B2" s="55" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D2" s="41" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="H2" s="11"/>
       <c r="I2" s="11"/>
@@ -3908,25 +3917,25 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="55" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3" s="55" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="E3" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="B3" s="55" t="s">
+      <c r="F3" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="D3" s="41" t="s">
-        <v>103</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>108</v>
-      </c>
       <c r="G3" s="11" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
@@ -3937,25 +3946,25 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="55" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B4" s="55" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D4" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="E4" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="E4" s="11" t="s">
-        <v>110</v>
-      </c>
       <c r="F4" s="11" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
@@ -3966,25 +3975,25 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="55" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B5" s="55" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="D5" s="41" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
@@ -3995,25 +4004,25 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="55" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B6" s="55" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="D6" s="41" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
@@ -4024,25 +4033,25 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="55" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B7" s="55" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="D7" s="41" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
@@ -4053,25 +4062,25 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="55" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B8" s="55" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="D8" s="41" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
@@ -4082,25 +4091,25 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="55" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B9" s="55" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="D9" s="41" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="H9" s="11"/>
       <c r="I9" s="11"/>
@@ -4111,25 +4120,25 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="55" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B10" s="55" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="D10" s="41" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
@@ -4140,25 +4149,25 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="55" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B11" s="55" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="D11" s="41" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
@@ -4169,25 +4178,25 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="55" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B12" s="55" t="s">
+        <v>120</v>
+      </c>
+      <c r="C12" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="C12" s="11" t="s">
-        <v>134</v>
-      </c>
       <c r="D12" s="41" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
@@ -4198,25 +4207,25 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="55" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B13" s="55" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="D13" s="41" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
@@ -4227,25 +4236,25 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="55" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B14" s="55" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="D14" s="41" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="H14" s="11"/>
       <c r="I14" s="11"/>
@@ -4256,25 +4265,25 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="55" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B15" s="55" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="D15" s="41" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="H15" s="11"/>
       <c r="I15" s="11"/>
@@ -4285,15 +4294,15 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="55" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B16" s="55" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="41"/>
       <c r="E16" s="59" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="F16" s="60"/>
       <c r="G16" s="11"/>
@@ -4359,48 +4368,48 @@
       <c r="K20" s="18"/>
     </row>
     <row r="21" spans="1:11" ht="14.25" customHeight="1">
-      <c r="B21" s="94" t="s">
+      <c r="B21" s="95" t="s">
         <v>65</v>
       </c>
-      <c r="C21" s="95"/>
-      <c r="D21" s="95"/>
-      <c r="E21" s="96"/>
+      <c r="C21" s="96"/>
+      <c r="D21" s="96"/>
+      <c r="E21" s="97"/>
     </row>
     <row r="22" spans="1:11">
-      <c r="B22" s="97"/>
-      <c r="C22" s="98"/>
-      <c r="D22" s="98"/>
-      <c r="E22" s="99"/>
+      <c r="B22" s="98"/>
+      <c r="C22" s="99"/>
+      <c r="D22" s="99"/>
+      <c r="E22" s="100"/>
     </row>
     <row r="23" spans="1:11">
-      <c r="B23" s="97"/>
-      <c r="C23" s="98"/>
-      <c r="D23" s="98"/>
-      <c r="E23" s="99"/>
+      <c r="B23" s="98"/>
+      <c r="C23" s="99"/>
+      <c r="D23" s="99"/>
+      <c r="E23" s="100"/>
     </row>
     <row r="24" spans="1:11">
-      <c r="B24" s="97"/>
-      <c r="C24" s="98"/>
-      <c r="D24" s="98"/>
-      <c r="E24" s="99"/>
+      <c r="B24" s="98"/>
+      <c r="C24" s="99"/>
+      <c r="D24" s="99"/>
+      <c r="E24" s="100"/>
     </row>
     <row r="25" spans="1:11">
-      <c r="B25" s="97"/>
-      <c r="C25" s="98"/>
-      <c r="D25" s="98"/>
-      <c r="E25" s="99"/>
+      <c r="B25" s="98"/>
+      <c r="C25" s="99"/>
+      <c r="D25" s="99"/>
+      <c r="E25" s="100"/>
     </row>
     <row r="26" spans="1:11">
-      <c r="B26" s="97"/>
-      <c r="C26" s="98"/>
-      <c r="D26" s="98"/>
-      <c r="E26" s="99"/>
+      <c r="B26" s="98"/>
+      <c r="C26" s="99"/>
+      <c r="D26" s="99"/>
+      <c r="E26" s="100"/>
     </row>
     <row r="27" spans="1:11">
-      <c r="B27" s="100"/>
-      <c r="C27" s="101"/>
-      <c r="D27" s="101"/>
-      <c r="E27" s="102"/>
+      <c r="B27" s="101"/>
+      <c r="C27" s="102"/>
+      <c r="D27" s="102"/>
+      <c r="E27" s="103"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
@@ -4498,25 +4507,25 @@
     </row>
     <row r="2" spans="1:11" ht="20.25" thickTop="1">
       <c r="A2" s="55" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B2" s="55" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="D2" s="41" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="H2" s="11"/>
       <c r="I2" s="11"/>
@@ -4527,25 +4536,25 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="55" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B3" s="55" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="D3" s="41" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
@@ -4556,25 +4565,25 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="55" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B4" s="55" t="s">
+        <v>141</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>155</v>
-      </c>
       <c r="D4" s="41" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
@@ -4585,25 +4594,25 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="55" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B5" s="55" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="D5" s="41" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
@@ -4614,25 +4623,25 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="55" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B6" s="55" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="D6" s="41" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
@@ -4643,25 +4652,25 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="55" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B7" s="55" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="D7" s="41" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
@@ -4672,25 +4681,25 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="55" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B8" s="55" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="D8" s="41" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
@@ -4701,25 +4710,25 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="55" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B9" s="55" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="D9" s="41" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="H9" s="11"/>
       <c r="I9" s="11"/>
@@ -4730,18 +4739,18 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="55" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B10" s="55" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="41"/>
       <c r="E10" s="57" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="F10" s="60" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
@@ -4806,48 +4815,48 @@
       <c r="K14" s="18"/>
     </row>
     <row r="15" spans="1:11" ht="14.25" customHeight="1">
-      <c r="B15" s="94" t="s">
+      <c r="B15" s="95" t="s">
         <v>65</v>
       </c>
-      <c r="C15" s="95"/>
-      <c r="D15" s="95"/>
-      <c r="E15" s="96"/>
+      <c r="C15" s="96"/>
+      <c r="D15" s="96"/>
+      <c r="E15" s="97"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="B16" s="97"/>
-      <c r="C16" s="98"/>
-      <c r="D16" s="98"/>
-      <c r="E16" s="99"/>
+      <c r="B16" s="98"/>
+      <c r="C16" s="99"/>
+      <c r="D16" s="99"/>
+      <c r="E16" s="100"/>
     </row>
     <row r="17" spans="2:5">
-      <c r="B17" s="97"/>
-      <c r="C17" s="98"/>
-      <c r="D17" s="98"/>
-      <c r="E17" s="99"/>
+      <c r="B17" s="98"/>
+      <c r="C17" s="99"/>
+      <c r="D17" s="99"/>
+      <c r="E17" s="100"/>
     </row>
     <row r="18" spans="2:5">
-      <c r="B18" s="97"/>
-      <c r="C18" s="98"/>
-      <c r="D18" s="98"/>
-      <c r="E18" s="99"/>
+      <c r="B18" s="98"/>
+      <c r="C18" s="99"/>
+      <c r="D18" s="99"/>
+      <c r="E18" s="100"/>
     </row>
     <row r="19" spans="2:5">
-      <c r="B19" s="97"/>
-      <c r="C19" s="98"/>
-      <c r="D19" s="98"/>
-      <c r="E19" s="99"/>
+      <c r="B19" s="98"/>
+      <c r="C19" s="99"/>
+      <c r="D19" s="99"/>
+      <c r="E19" s="100"/>
     </row>
     <row r="20" spans="2:5">
-      <c r="B20" s="97"/>
-      <c r="C20" s="98"/>
-      <c r="D20" s="98"/>
-      <c r="E20" s="99"/>
+      <c r="B20" s="98"/>
+      <c r="C20" s="99"/>
+      <c r="D20" s="99"/>
+      <c r="E20" s="100"/>
     </row>
     <row r="21" spans="2:5">
-      <c r="B21" s="100"/>
-      <c r="C21" s="101"/>
-      <c r="D21" s="101"/>
-      <c r="E21" s="102"/>
+      <c r="B21" s="101"/>
+      <c r="C21" s="102"/>
+      <c r="D21" s="102"/>
+      <c r="E21" s="103"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
@@ -4946,25 +4955,25 @@
     </row>
     <row r="2" spans="1:11" ht="20.25" thickTop="1">
       <c r="A2" s="55" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B2" s="55" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="D2" s="41" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="H2" s="11"/>
       <c r="I2" s="11"/>
@@ -4975,25 +4984,25 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="55" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B3" s="55" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="D3" s="41" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
@@ -5004,25 +5013,25 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="55" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B4" s="55" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="D4" s="41" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
@@ -5033,25 +5042,25 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="55" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B5" s="55" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="D5" s="41" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
@@ -5062,25 +5071,25 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="55" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B6" s="55" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="D6" s="41" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
@@ -5091,25 +5100,25 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="55" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B7" s="55" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D7" s="41" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
@@ -5120,25 +5129,25 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="55" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B8" s="55" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="D8" s="41" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
@@ -5149,18 +5158,18 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="55" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B9" s="55" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="41"/>
       <c r="E9" s="59" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="F9" s="60" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
@@ -5225,48 +5234,48 @@
       <c r="K13" s="18"/>
     </row>
     <row r="14" spans="1:11" ht="14.25" customHeight="1">
-      <c r="B14" s="94" t="s">
+      <c r="B14" s="95" t="s">
         <v>65</v>
       </c>
-      <c r="C14" s="95"/>
-      <c r="D14" s="95"/>
-      <c r="E14" s="96"/>
+      <c r="C14" s="96"/>
+      <c r="D14" s="96"/>
+      <c r="E14" s="97"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="B15" s="97"/>
-      <c r="C15" s="98"/>
-      <c r="D15" s="98"/>
-      <c r="E15" s="99"/>
+      <c r="B15" s="98"/>
+      <c r="C15" s="99"/>
+      <c r="D15" s="99"/>
+      <c r="E15" s="100"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="B16" s="97"/>
-      <c r="C16" s="98"/>
-      <c r="D16" s="98"/>
-      <c r="E16" s="99"/>
+      <c r="B16" s="98"/>
+      <c r="C16" s="99"/>
+      <c r="D16" s="99"/>
+      <c r="E16" s="100"/>
     </row>
     <row r="17" spans="2:5">
-      <c r="B17" s="97"/>
-      <c r="C17" s="98"/>
-      <c r="D17" s="98"/>
-      <c r="E17" s="99"/>
+      <c r="B17" s="98"/>
+      <c r="C17" s="99"/>
+      <c r="D17" s="99"/>
+      <c r="E17" s="100"/>
     </row>
     <row r="18" spans="2:5">
-      <c r="B18" s="97"/>
-      <c r="C18" s="98"/>
-      <c r="D18" s="98"/>
-      <c r="E18" s="99"/>
+      <c r="B18" s="98"/>
+      <c r="C18" s="99"/>
+      <c r="D18" s="99"/>
+      <c r="E18" s="100"/>
     </row>
     <row r="19" spans="2:5">
-      <c r="B19" s="97"/>
-      <c r="C19" s="98"/>
-      <c r="D19" s="98"/>
-      <c r="E19" s="99"/>
+      <c r="B19" s="98"/>
+      <c r="C19" s="99"/>
+      <c r="D19" s="99"/>
+      <c r="E19" s="100"/>
     </row>
     <row r="20" spans="2:5">
-      <c r="B20" s="100"/>
-      <c r="C20" s="101"/>
-      <c r="D20" s="101"/>
-      <c r="E20" s="102"/>
+      <c r="B20" s="101"/>
+      <c r="C20" s="102"/>
+      <c r="D20" s="102"/>
+      <c r="E20" s="103"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
@@ -5365,25 +5374,25 @@
     </row>
     <row r="2" spans="1:11" ht="20.25" thickTop="1">
       <c r="A2" s="55" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B2" s="55" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="D2" s="41" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="H2" s="11"/>
       <c r="I2" s="11"/>
@@ -5394,25 +5403,25 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="55" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B3" s="55" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="D3" s="41" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
@@ -5423,25 +5432,25 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="55" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B4" s="55" t="s">
+        <v>187</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>201</v>
-      </c>
       <c r="D4" s="41" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
@@ -5452,25 +5461,25 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="55" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B5" s="55" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="D5" s="41" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
@@ -5481,25 +5490,25 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="55" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B6" s="55" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="D6" s="41" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
@@ -5510,25 +5519,25 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="55" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B7" s="55" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="D7" s="41" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
@@ -5539,25 +5548,25 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="55" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B8" s="55" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="D8" s="41" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
@@ -5568,25 +5577,25 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="55" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B9" s="55" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="D9" s="41" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="H9" s="11"/>
       <c r="I9" s="11"/>
@@ -5597,25 +5606,25 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="55" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B10" s="55" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="D10" s="41" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
@@ -5626,18 +5635,18 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="55" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B11" s="55" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="41"/>
       <c r="E11" s="59" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="F11" s="60" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
@@ -5702,48 +5711,48 @@
       <c r="K15" s="18"/>
     </row>
     <row r="16" spans="1:11" ht="14.25" customHeight="1">
-      <c r="B16" s="94" t="s">
+      <c r="B16" s="95" t="s">
         <v>65</v>
       </c>
-      <c r="C16" s="95"/>
-      <c r="D16" s="95"/>
-      <c r="E16" s="96"/>
+      <c r="C16" s="96"/>
+      <c r="D16" s="96"/>
+      <c r="E16" s="97"/>
     </row>
     <row r="17" spans="2:5">
-      <c r="B17" s="97"/>
-      <c r="C17" s="98"/>
-      <c r="D17" s="98"/>
-      <c r="E17" s="99"/>
+      <c r="B17" s="98"/>
+      <c r="C17" s="99"/>
+      <c r="D17" s="99"/>
+      <c r="E17" s="100"/>
     </row>
     <row r="18" spans="2:5">
-      <c r="B18" s="97"/>
-      <c r="C18" s="98"/>
-      <c r="D18" s="98"/>
-      <c r="E18" s="99"/>
+      <c r="B18" s="98"/>
+      <c r="C18" s="99"/>
+      <c r="D18" s="99"/>
+      <c r="E18" s="100"/>
     </row>
     <row r="19" spans="2:5">
-      <c r="B19" s="97"/>
-      <c r="C19" s="98"/>
-      <c r="D19" s="98"/>
-      <c r="E19" s="99"/>
+      <c r="B19" s="98"/>
+      <c r="C19" s="99"/>
+      <c r="D19" s="99"/>
+      <c r="E19" s="100"/>
     </row>
     <row r="20" spans="2:5">
-      <c r="B20" s="97"/>
-      <c r="C20" s="98"/>
-      <c r="D20" s="98"/>
-      <c r="E20" s="99"/>
+      <c r="B20" s="98"/>
+      <c r="C20" s="99"/>
+      <c r="D20" s="99"/>
+      <c r="E20" s="100"/>
     </row>
     <row r="21" spans="2:5">
-      <c r="B21" s="97"/>
-      <c r="C21" s="98"/>
-      <c r="D21" s="98"/>
-      <c r="E21" s="99"/>
+      <c r="B21" s="98"/>
+      <c r="C21" s="99"/>
+      <c r="D21" s="99"/>
+      <c r="E21" s="100"/>
     </row>
     <row r="22" spans="2:5">
-      <c r="B22" s="100"/>
-      <c r="C22" s="101"/>
-      <c r="D22" s="101"/>
-      <c r="E22" s="102"/>
+      <c r="B22" s="101"/>
+      <c r="C22" s="102"/>
+      <c r="D22" s="102"/>
+      <c r="E22" s="103"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
@@ -5842,25 +5851,25 @@
     </row>
     <row r="2" spans="1:11" ht="20.25" thickTop="1">
       <c r="A2" s="55" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B2" s="55" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="D2" s="41" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="H2" s="11"/>
       <c r="I2" s="11"/>
@@ -5871,25 +5880,25 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="55" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B3" s="55" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="D3" s="41" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
@@ -5900,25 +5909,25 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="55" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B4" s="55" t="s">
+        <v>215</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>222</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>229</v>
-      </c>
       <c r="D4" s="41" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
@@ -5929,25 +5938,25 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="55" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B5" s="55" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="D5" s="41" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
@@ -5958,25 +5967,25 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="55" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B6" s="55" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="D6" s="41" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
@@ -5987,25 +5996,25 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="55" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B7" s="55" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="D7" s="41" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
@@ -6016,25 +6025,25 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="55" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B8" s="55" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="D8" s="41" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
@@ -6045,25 +6054,25 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="55" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B9" s="55" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="D9" s="41" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="H9" s="11"/>
       <c r="I9" s="11"/>
@@ -6074,25 +6083,25 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="55" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B10" s="55" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="D10" s="41" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
@@ -6103,25 +6112,25 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="55" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B11" s="55" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="D11" s="41" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
@@ -6132,25 +6141,25 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="55" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B12" s="55" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="D12" s="41" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
@@ -6161,18 +6170,18 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="55" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B13" s="55" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="41"/>
       <c r="E13" s="59" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="F13" s="60" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>
@@ -6237,48 +6246,48 @@
       <c r="K17" s="18"/>
     </row>
     <row r="18" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B18" s="94" t="s">
+      <c r="B18" s="95" t="s">
         <v>65</v>
       </c>
-      <c r="C18" s="95"/>
-      <c r="D18" s="95"/>
-      <c r="E18" s="96"/>
+      <c r="C18" s="96"/>
+      <c r="D18" s="96"/>
+      <c r="E18" s="97"/>
     </row>
     <row r="19" spans="2:11">
-      <c r="B19" s="97"/>
-      <c r="C19" s="98"/>
-      <c r="D19" s="98"/>
-      <c r="E19" s="99"/>
+      <c r="B19" s="98"/>
+      <c r="C19" s="99"/>
+      <c r="D19" s="99"/>
+      <c r="E19" s="100"/>
     </row>
     <row r="20" spans="2:11">
-      <c r="B20" s="97"/>
-      <c r="C20" s="98"/>
-      <c r="D20" s="98"/>
-      <c r="E20" s="99"/>
+      <c r="B20" s="98"/>
+      <c r="C20" s="99"/>
+      <c r="D20" s="99"/>
+      <c r="E20" s="100"/>
     </row>
     <row r="21" spans="2:11">
-      <c r="B21" s="97"/>
-      <c r="C21" s="98"/>
-      <c r="D21" s="98"/>
-      <c r="E21" s="99"/>
+      <c r="B21" s="98"/>
+      <c r="C21" s="99"/>
+      <c r="D21" s="99"/>
+      <c r="E21" s="100"/>
     </row>
     <row r="22" spans="2:11">
-      <c r="B22" s="97"/>
-      <c r="C22" s="98"/>
-      <c r="D22" s="98"/>
-      <c r="E22" s="99"/>
+      <c r="B22" s="98"/>
+      <c r="C22" s="99"/>
+      <c r="D22" s="99"/>
+      <c r="E22" s="100"/>
     </row>
     <row r="23" spans="2:11">
-      <c r="B23" s="97"/>
-      <c r="C23" s="98"/>
-      <c r="D23" s="98"/>
-      <c r="E23" s="99"/>
+      <c r="B23" s="98"/>
+      <c r="C23" s="99"/>
+      <c r="D23" s="99"/>
+      <c r="E23" s="100"/>
     </row>
     <row r="24" spans="2:11">
-      <c r="B24" s="100"/>
-      <c r="C24" s="101"/>
-      <c r="D24" s="101"/>
-      <c r="E24" s="102"/>
+      <c r="B24" s="101"/>
+      <c r="C24" s="102"/>
+      <c r="D24" s="102"/>
+      <c r="E24" s="103"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
@@ -6377,25 +6386,25 @@
     </row>
     <row r="2" spans="1:11" ht="20.25" thickTop="1">
       <c r="A2" s="55" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B2" s="55" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="D2" s="41" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="H2" s="11"/>
       <c r="I2" s="11"/>
@@ -6406,25 +6415,25 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="55" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B3" s="55" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="D3" s="41" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
@@ -6435,25 +6444,25 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="55" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B4" s="55" t="s">
+        <v>249</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>256</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>263</v>
-      </c>
       <c r="D4" s="41" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
@@ -6464,25 +6473,25 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="55" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B5" s="55" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="D5" s="41" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
@@ -6493,25 +6502,25 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="55" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B6" s="55" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="D6" s="41" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
@@ -6522,25 +6531,25 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="55" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B7" s="55" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="D7" s="41" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
@@ -6551,25 +6560,25 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="55" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B8" s="55" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="D8" s="41" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
@@ -6580,25 +6589,25 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="55" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B9" s="55" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="D9" s="41" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="H9" s="11"/>
       <c r="I9" s="11"/>
@@ -6609,18 +6618,18 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="55" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B10" s="55" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="41"/>
       <c r="E10" s="59" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="F10" s="60" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
@@ -6685,48 +6694,48 @@
       <c r="K14" s="18"/>
     </row>
     <row r="15" spans="1:11" ht="14.25" customHeight="1">
-      <c r="B15" s="94" t="s">
+      <c r="B15" s="95" t="s">
         <v>65</v>
       </c>
-      <c r="C15" s="95"/>
-      <c r="D15" s="95"/>
-      <c r="E15" s="96"/>
+      <c r="C15" s="96"/>
+      <c r="D15" s="96"/>
+      <c r="E15" s="97"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="B16" s="97"/>
-      <c r="C16" s="98"/>
-      <c r="D16" s="98"/>
-      <c r="E16" s="99"/>
+      <c r="B16" s="98"/>
+      <c r="C16" s="99"/>
+      <c r="D16" s="99"/>
+      <c r="E16" s="100"/>
     </row>
     <row r="17" spans="2:5">
-      <c r="B17" s="97"/>
-      <c r="C17" s="98"/>
-      <c r="D17" s="98"/>
-      <c r="E17" s="99"/>
+      <c r="B17" s="98"/>
+      <c r="C17" s="99"/>
+      <c r="D17" s="99"/>
+      <c r="E17" s="100"/>
     </row>
     <row r="18" spans="2:5">
-      <c r="B18" s="97"/>
-      <c r="C18" s="98"/>
-      <c r="D18" s="98"/>
-      <c r="E18" s="99"/>
+      <c r="B18" s="98"/>
+      <c r="C18" s="99"/>
+      <c r="D18" s="99"/>
+      <c r="E18" s="100"/>
     </row>
     <row r="19" spans="2:5">
-      <c r="B19" s="97"/>
-      <c r="C19" s="98"/>
-      <c r="D19" s="98"/>
-      <c r="E19" s="99"/>
+      <c r="B19" s="98"/>
+      <c r="C19" s="99"/>
+      <c r="D19" s="99"/>
+      <c r="E19" s="100"/>
     </row>
     <row r="20" spans="2:5">
-      <c r="B20" s="97"/>
-      <c r="C20" s="98"/>
-      <c r="D20" s="98"/>
-      <c r="E20" s="99"/>
+      <c r="B20" s="98"/>
+      <c r="C20" s="99"/>
+      <c r="D20" s="99"/>
+      <c r="E20" s="100"/>
     </row>
     <row r="21" spans="2:5">
-      <c r="B21" s="100"/>
-      <c r="C21" s="101"/>
-      <c r="D21" s="101"/>
-      <c r="E21" s="102"/>
+      <c r="B21" s="101"/>
+      <c r="C21" s="102"/>
+      <c r="D21" s="102"/>
+      <c r="E21" s="103"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
@@ -6825,25 +6834,25 @@
     </row>
     <row r="2" spans="1:11" ht="20.25" thickTop="1">
       <c r="A2" s="55" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B2" s="55" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="D2" s="41" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="H2" s="11"/>
       <c r="I2" s="11"/>
@@ -6854,25 +6863,25 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="55" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B3" s="55" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="D3" s="41" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
@@ -6883,25 +6892,25 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="55" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B4" s="55" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="D4" s="41" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
@@ -6912,25 +6921,25 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="55" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B5" s="55" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="D5" s="41" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
@@ -6941,25 +6950,25 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="55" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B6" s="55" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="D6" s="41" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
@@ -6970,25 +6979,25 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="55" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B7" s="55" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="D7" s="41" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
@@ -6999,25 +7008,25 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="55" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B8" s="55" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="D8" s="41" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
@@ -7028,25 +7037,25 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="55" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B9" s="55" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="D9" s="41" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="H9" s="11"/>
       <c r="I9" s="11"/>
@@ -7057,25 +7066,25 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="55" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B10" s="55" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="D10" s="41" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
@@ -7086,25 +7095,25 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="55" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B11" s="55" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="D11" s="41" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
@@ -7115,25 +7124,25 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="55" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B12" s="55" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="D12" s="41" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
@@ -7144,25 +7153,25 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="55" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B13" s="55" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="D13" s="41" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
@@ -7173,18 +7182,18 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="55" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B14" s="55" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="41"/>
       <c r="E14" s="59" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="F14" s="60" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="G14" s="11"/>
       <c r="H14" s="11"/>
@@ -7249,48 +7258,48 @@
       <c r="K18" s="18"/>
     </row>
     <row r="19" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B19" s="94" t="s">
+      <c r="B19" s="95" t="s">
         <v>65</v>
       </c>
-      <c r="C19" s="95"/>
-      <c r="D19" s="95"/>
-      <c r="E19" s="96"/>
+      <c r="C19" s="96"/>
+      <c r="D19" s="96"/>
+      <c r="E19" s="97"/>
     </row>
     <row r="20" spans="2:11">
-      <c r="B20" s="97"/>
-      <c r="C20" s="98"/>
-      <c r="D20" s="98"/>
-      <c r="E20" s="99"/>
+      <c r="B20" s="98"/>
+      <c r="C20" s="99"/>
+      <c r="D20" s="99"/>
+      <c r="E20" s="100"/>
     </row>
     <row r="21" spans="2:11">
-      <c r="B21" s="97"/>
-      <c r="C21" s="98"/>
-      <c r="D21" s="98"/>
-      <c r="E21" s="99"/>
+      <c r="B21" s="98"/>
+      <c r="C21" s="99"/>
+      <c r="D21" s="99"/>
+      <c r="E21" s="100"/>
     </row>
     <row r="22" spans="2:11">
-      <c r="B22" s="97"/>
-      <c r="C22" s="98"/>
-      <c r="D22" s="98"/>
-      <c r="E22" s="99"/>
+      <c r="B22" s="98"/>
+      <c r="C22" s="99"/>
+      <c r="D22" s="99"/>
+      <c r="E22" s="100"/>
     </row>
     <row r="23" spans="2:11">
-      <c r="B23" s="97"/>
-      <c r="C23" s="98"/>
-      <c r="D23" s="98"/>
-      <c r="E23" s="99"/>
+      <c r="B23" s="98"/>
+      <c r="C23" s="99"/>
+      <c r="D23" s="99"/>
+      <c r="E23" s="100"/>
     </row>
     <row r="24" spans="2:11">
-      <c r="B24" s="97"/>
-      <c r="C24" s="98"/>
-      <c r="D24" s="98"/>
-      <c r="E24" s="99"/>
+      <c r="B24" s="98"/>
+      <c r="C24" s="99"/>
+      <c r="D24" s="99"/>
+      <c r="E24" s="100"/>
     </row>
     <row r="25" spans="2:11">
-      <c r="B25" s="100"/>
-      <c r="C25" s="101"/>
-      <c r="D25" s="101"/>
-      <c r="E25" s="102"/>
+      <c r="B25" s="101"/>
+      <c r="C25" s="102"/>
+      <c r="D25" s="102"/>
+      <c r="E25" s="103"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>

--- a/structure-books_network1.xlsx
+++ b/structure-books_network1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CHiLO-Producer_pri\chiloPro\chilo001\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\chilo-producer\chiloPro\chilo001\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="series-information" sheetId="37" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="379">
   <si>
     <t>main</t>
   </si>
@@ -668,72 +668,48 @@
     <t>TRUE</t>
   </si>
   <si>
-    <t>001m_0101.mp4</t>
-  </si>
-  <si>
     <t>001m_0101.png</t>
   </si>
   <si>
     <t>スプートニックショック</t>
   </si>
   <si>
-    <t>001m_0102.mp4</t>
-  </si>
-  <si>
     <t>001m_0102.png</t>
   </si>
   <si>
     <t>中央集約型ネットワーク</t>
   </si>
   <si>
-    <t>001m_0103.mp4</t>
-  </si>
-  <si>
     <t>001m_0103.png</t>
   </si>
   <si>
     <t>分散型ネットワークの登場</t>
   </si>
   <si>
-    <t>001m_0104.mp4</t>
-  </si>
-  <si>
     <t>001m_0104.png</t>
   </si>
   <si>
     <t>ルータの役割</t>
   </si>
   <si>
-    <t>001m_0105.mp4</t>
-  </si>
-  <si>
     <t>001m_0105.png</t>
   </si>
   <si>
     <t>コンピュータが作られた背景</t>
   </si>
   <si>
-    <t>001m_0106.mp4</t>
-  </si>
-  <si>
     <t>001m_0106.png</t>
   </si>
   <si>
     <t>コンピュートニック</t>
   </si>
   <si>
-    <t>001m_0107.mp4</t>
-  </si>
-  <si>
     <t>001m_0107.png</t>
   </si>
   <si>
     <t>地球シミュレータ</t>
   </si>
   <si>
-    <t>001m_0108.mp4</t>
-  </si>
-  <si>
     <t>001m_0108.png</t>
   </si>
   <si>
@@ -743,52 +719,34 @@
     <t>ビット</t>
   </si>
   <si>
-    <t>001m_0109.mp4</t>
-  </si>
-  <si>
     <t>001m_0109.png</t>
   </si>
   <si>
     <t>3桁2進数</t>
   </si>
   <si>
-    <t>001m_0110.mp4</t>
-  </si>
-  <si>
     <t>001m_0110.png</t>
   </si>
   <si>
     <t>ビットで表現できる数の種類</t>
   </si>
   <si>
-    <t>001m_0111.mp4</t>
-  </si>
-  <si>
     <t>001m_0111.png</t>
   </si>
   <si>
     <t>2進数と10進数の変換</t>
   </si>
   <si>
-    <t>001m_0112.mp4</t>
-  </si>
-  <si>
     <t>001m_0112.png</t>
   </si>
   <si>
     <t>10進数の対応</t>
   </si>
   <si>
-    <t>001m_0113.mp4</t>
-  </si>
-  <si>
     <t>001m_0113.png</t>
   </si>
   <si>
     <t>10進数から2進数への変換</t>
-  </si>
-  <si>
-    <t>001m_0114.mp4</t>
   </si>
   <si>
     <t>001m_0114.png</t>
@@ -810,135 +768,90 @@
     <t>1章の復習</t>
   </si>
   <si>
-    <t>001m_0201.mp4</t>
-  </si>
-  <si>
     <t>001m_0201.png</t>
   </si>
   <si>
     <t>IPアドレス</t>
   </si>
   <si>
-    <t>001m_0202.mp4</t>
-  </si>
-  <si>
     <t>001m_0202.png</t>
   </si>
   <si>
     <t>オクテット表記</t>
   </si>
   <si>
-    <t>001m_0203.mp4</t>
-  </si>
-  <si>
     <t>001m_0203.png</t>
   </si>
   <si>
     <t>IPアドレスにおける注意点</t>
   </si>
   <si>
-    <t>001m_0204.mp4</t>
-  </si>
-  <si>
     <t>001m_0204.png</t>
   </si>
   <si>
     <t>IPアドレスの意味</t>
   </si>
   <si>
-    <t>001m_0205.mp4</t>
-  </si>
-  <si>
     <t>001m_0205.png</t>
   </si>
   <si>
     <t>ネットワーク部とホスト部</t>
   </si>
   <si>
-    <t>001m_0206.mp4</t>
-  </si>
-  <si>
     <t>001m_0206.png</t>
   </si>
   <si>
     <t>ネットマスク</t>
   </si>
   <si>
-    <t>001m_0207.mp4</t>
-  </si>
-  <si>
     <t>001m_0207.png</t>
   </si>
   <si>
     <t>ネットワークアドレスの計算</t>
   </si>
   <si>
-    <t>001m_0208.mp4</t>
-  </si>
-  <si>
     <t>001m_0208.png</t>
   </si>
   <si>
     <t>2章の復習</t>
   </si>
   <si>
-    <t>001m_0301.mp4</t>
-  </si>
-  <si>
     <t>001m_0301.png</t>
   </si>
   <si>
     <t>ネットワーク</t>
   </si>
   <si>
-    <t>001m_0302.mp4</t>
-  </si>
-  <si>
     <t>001m_0302.png</t>
   </si>
   <si>
     <t>ネットワークアドレスとネットワーク</t>
   </si>
   <si>
-    <t>001m_0303.mp4</t>
-  </si>
-  <si>
     <t>001m_0303.png</t>
   </si>
   <si>
     <t>ルータ</t>
   </si>
   <si>
-    <t>001m_0304.mp4</t>
-  </si>
-  <si>
     <t>001m_0304.png</t>
   </si>
   <si>
     <t>ルータの必要性</t>
   </si>
   <si>
-    <t>001m_0305.mp4</t>
-  </si>
-  <si>
     <t>001m_0305.png</t>
   </si>
   <si>
     <t>ネットワークについて考える</t>
   </si>
   <si>
-    <t>001m_0306.mp4</t>
-  </si>
-  <si>
     <t>001m_0306.png</t>
   </si>
   <si>
     <t>ネットワーク通信に必要な3情報</t>
   </si>
   <si>
-    <t>001m_0307.mp4</t>
-  </si>
-  <si>
     <t>001m_0307.png</t>
   </si>
   <si>
@@ -948,79 +861,52 @@
     <t>3章の復習</t>
   </si>
   <si>
-    <t>001m_0401.mp4</t>
-  </si>
-  <si>
     <t>001m_0401.png</t>
   </si>
   <si>
     <t>経由するルータ</t>
   </si>
   <si>
-    <t>001m_0402.mp4</t>
-  </si>
-  <si>
     <t>001m_0402.png</t>
   </si>
   <si>
     <t>ルータの2つの仕事</t>
   </si>
   <si>
-    <t>001m_0403.mp4</t>
-  </si>
-  <si>
     <t>001m_0403.png</t>
   </si>
   <si>
     <t>ルーティングテーブル</t>
   </si>
   <si>
-    <t>001m_0404.mp4</t>
-  </si>
-  <si>
     <t>001m_0404.png</t>
   </si>
   <si>
     <t>スタティックルーティング</t>
   </si>
   <si>
-    <t>001m_0405.mp4</t>
-  </si>
-  <si>
     <t>001m_0405.png</t>
   </si>
   <si>
     <t>ダイナミックルーティング</t>
   </si>
   <si>
-    <t>001m_0406.mp4</t>
-  </si>
-  <si>
     <t>001m_0406.png</t>
   </si>
   <si>
     <t>ルーティングテーブルの長所と短所</t>
   </si>
   <si>
-    <t>001m_0407.mp4</t>
-  </si>
-  <si>
     <t>001m_0407.png</t>
   </si>
   <si>
     <t>ネットワークが3つある場合のルーティングテーブル</t>
   </si>
   <si>
-    <t>001m_0408.mp4</t>
-  </si>
-  <si>
     <t>001m_0408.png</t>
   </si>
   <si>
     <t>ネットワークが5つある場合のルーティングテーブル</t>
-  </si>
-  <si>
-    <t>001m_0409.mp4</t>
   </si>
   <si>
     <t>001m_0409.png</t>
@@ -1036,97 +922,64 @@
     <t>2段階のアドレス</t>
   </si>
   <si>
-    <t>001m_0501.mp4</t>
-  </si>
-  <si>
     <t>001m_0501.png</t>
   </si>
   <si>
     <t>手紙の例で2段階のアドレスを理解する</t>
   </si>
   <si>
-    <t>001m_0502.mp4</t>
-  </si>
-  <si>
     <t>001m_0502.png</t>
   </si>
   <si>
     <t>宛先IPアドレスと送信元IPアドレス</t>
   </si>
   <si>
-    <t>001m_0503.mp4</t>
-  </si>
-  <si>
     <t>001m_0503.png</t>
   </si>
   <si>
     <t>IPアドレスとMACアドレス</t>
   </si>
   <si>
-    <t>001m_0504.mp4</t>
-  </si>
-  <si>
     <t>001m_0504.png</t>
   </si>
   <si>
     <t>MACアドレス</t>
   </si>
   <si>
-    <t>001m_0505.mp4</t>
-  </si>
-  <si>
     <t>001m_0505.png</t>
   </si>
   <si>
     <t>同一ネットワークの場合</t>
   </si>
   <si>
-    <t>001m_0506.mp4</t>
-  </si>
-  <si>
     <t>001m_0506.png</t>
   </si>
   <si>
     <t>異なるネットワークの場合</t>
   </si>
   <si>
-    <t>001m_0507.mp4</t>
-  </si>
-  <si>
     <t>001m_0507.png</t>
   </si>
   <si>
     <t>カプセル化</t>
   </si>
   <si>
-    <t>001m_0508.mp4</t>
-  </si>
-  <si>
     <t>001m_0508.png</t>
   </si>
   <si>
     <t>MACアドレスを知る仕組み（ARP）</t>
   </si>
   <si>
-    <t>001m_0509.mp4</t>
-  </si>
-  <si>
     <t>001m_0509.png</t>
   </si>
   <si>
     <t>ネットワークコマンド：ipconfig</t>
   </si>
   <si>
-    <t>001m_0510.mp4</t>
-  </si>
-  <si>
     <t>001m_0510.png</t>
   </si>
   <si>
     <t>ネットワークコマンド：ping, arp, tracert, nslookup</t>
-  </si>
-  <si>
-    <t>001m_0511.mp4</t>
   </si>
   <si>
     <t>001m_0511.png</t>
@@ -1142,70 +995,46 @@
     <t>有線LANと無線LAN</t>
   </si>
   <si>
-    <t>001m_0601.mp4</t>
-  </si>
-  <si>
     <t>001m_0601.png</t>
   </si>
   <si>
     <t>無線LANの規格</t>
   </si>
   <si>
-    <t>001m_0602.mp4</t>
-  </si>
-  <si>
     <t>001m_0602.png</t>
   </si>
   <si>
     <t>11b, 11a, 11g</t>
   </si>
   <si>
-    <t>001m_0603.mp4</t>
-  </si>
-  <si>
     <t>001m_0603.png</t>
   </si>
   <si>
     <t>無線LANの弱点</t>
   </si>
   <si>
-    <t>001m_0604.mp4</t>
-  </si>
-  <si>
     <t>001m_0604.png</t>
   </si>
   <si>
     <t>SSID</t>
   </si>
   <si>
-    <t>001m_0605.mp4</t>
-  </si>
-  <si>
     <t>001m_0605.png</t>
   </si>
   <si>
     <t>MACアドレスフィルタリング</t>
   </si>
   <si>
-    <t>001m_0606.mp4</t>
-  </si>
-  <si>
     <t>001m_0606.png</t>
   </si>
   <si>
     <t>IEEE 802.1X</t>
   </si>
   <si>
-    <t>001m_0607.mp4</t>
-  </si>
-  <si>
     <t>001m_0607.png</t>
   </si>
   <si>
     <t>無線LANセキュリティ</t>
-  </si>
-  <si>
-    <t>001m_0608.mp4</t>
   </si>
   <si>
     <t>001m_0608.png</t>
@@ -1806,6 +1635,106 @@
     <t>303974f7-bac7-4e31-9a39-470bf6a4380f</t>
     <phoneticPr fontId="4"/>
   </si>
+  <si>
+    <t>begin</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>end</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>動画分割の開始位置
+─────
+動画をページ毎に分割する場合の、開始位置を秒数で指定します。</t>
+    <rPh sb="0" eb="2">
+      <t>ドウガ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ブンカツ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ドウガ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ゴト</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ブンカツ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ビョウ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>動画分割の終了位置
+─────
+動画をページ分割する場合の、終了位置を秒数で指定します。</t>
+    <rPh sb="0" eb="2">
+      <t>ドウガ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>RgOX6cYxFjs</t>
+  </si>
+  <si>
+    <t>Sx86faH3ggw</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>wepTXbImK54</t>
+  </si>
+  <si>
+    <t>PCjZ9pL4trU</t>
+  </si>
+  <si>
+    <t>PCjZ9pL4trU</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>YUILe2Ej2tc</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>rzjC4vRoVv4</t>
+  </si>
+  <si>
+    <t>rzjC4vRoVv4</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>N3pMnFjnKXE</t>
+    <phoneticPr fontId="4"/>
+  </si>
 </sst>
 </file>
 
@@ -1814,7 +1743,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1974,6 +1903,13 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -2013,7 +1949,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -2292,6 +2228,45 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2472,7 +2447,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2741,6 +2716,39 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -3163,7 +3171,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
   <cols>
@@ -3193,7 +3201,7 @@
         <v>25</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>412</v>
+        <v>355</v>
       </c>
       <c r="C2" s="30" t="s">
         <v>41</v>
@@ -3204,10 +3212,10 @@
     </row>
     <row r="3" spans="1:4" ht="21" customHeight="1">
       <c r="A3" s="54" t="s">
-        <v>401</v>
+        <v>344</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>413</v>
+        <v>356</v>
       </c>
       <c r="C3" s="30" t="s">
         <v>47</v>
@@ -3221,12 +3229,12 @@
         <v>26</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>414</v>
+        <v>357</v>
       </c>
       <c r="C4" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="81" t="s">
+      <c r="D4" s="90" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3235,12 +3243,12 @@
         <v>27</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>414</v>
+        <v>357</v>
       </c>
       <c r="C5" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="82"/>
+      <c r="D5" s="91"/>
     </row>
     <row r="6" spans="1:4" ht="21" customHeight="1">
       <c r="A6" s="31" t="s">
@@ -3252,7 +3260,7 @@
       <c r="C6" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="D6" s="82"/>
+      <c r="D6" s="91"/>
     </row>
     <row r="7" spans="1:4" ht="21" customHeight="1">
       <c r="A7" s="31" t="s">
@@ -3264,19 +3272,19 @@
       <c r="C7" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="82"/>
+      <c r="D7" s="91"/>
     </row>
     <row r="8" spans="1:4" ht="21" customHeight="1">
       <c r="A8" s="31" t="s">
         <v>29</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>415</v>
+        <v>358</v>
       </c>
       <c r="C8" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="83"/>
+      <c r="D8" s="92"/>
     </row>
     <row r="9" spans="1:4" ht="21" customHeight="1">
       <c r="A9" s="54" t="s">
@@ -3308,30 +3316,30 @@
     </row>
     <row r="11" spans="1:4" ht="21" customHeight="1">
       <c r="A11" s="54" t="s">
-        <v>402</v>
+        <v>345</v>
       </c>
       <c r="B11" s="68" t="s">
-        <v>403</v>
+        <v>346</v>
       </c>
       <c r="C11" s="30" t="s">
-        <v>404</v>
+        <v>347</v>
       </c>
       <c r="D11" s="29" t="s">
-        <v>405</v>
+        <v>348</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="21" customHeight="1">
       <c r="A12" s="54" t="s">
-        <v>406</v>
+        <v>349</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>409</v>
+        <v>352</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>407</v>
+        <v>350</v>
       </c>
       <c r="D12" s="29" t="s">
-        <v>408</v>
+        <v>351</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -3342,26 +3350,26 @@
       <c r="D13" s="27"/>
     </row>
     <row r="15" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A15" s="84" t="s">
+      <c r="A15" s="93" t="s">
         <v>60</v>
       </c>
-      <c r="B15" s="85"/>
-      <c r="C15" s="86"/>
+      <c r="B15" s="94"/>
+      <c r="C15" s="95"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="87"/>
-      <c r="B16" s="88"/>
-      <c r="C16" s="89"/>
+      <c r="A16" s="96"/>
+      <c r="B16" s="97"/>
+      <c r="C16" s="98"/>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="87"/>
-      <c r="B17" s="88"/>
-      <c r="C17" s="89"/>
+      <c r="A17" s="96"/>
+      <c r="B17" s="97"/>
+      <c r="C17" s="98"/>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="90"/>
-      <c r="B18" s="91"/>
-      <c r="C18" s="92"/>
+      <c r="A18" s="99"/>
+      <c r="B18" s="100"/>
+      <c r="C18" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3495,10 +3503,10 @@
         <v>12</v>
       </c>
       <c r="D1" s="56" t="s">
-        <v>399</v>
+        <v>342</v>
       </c>
       <c r="E1" s="56" t="s">
-        <v>380</v>
+        <v>323</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>13</v>
@@ -3507,25 +3515,25 @@
         <v>31</v>
       </c>
       <c r="H1" s="66" t="s">
-        <v>393</v>
+        <v>336</v>
       </c>
       <c r="I1" s="67" t="s">
-        <v>400</v>
+        <v>343</v>
       </c>
       <c r="J1" s="66" t="s">
-        <v>394</v>
+        <v>337</v>
       </c>
       <c r="K1" s="66" t="s">
-        <v>395</v>
+        <v>338</v>
       </c>
       <c r="L1" s="66" t="s">
-        <v>396</v>
+        <v>339</v>
       </c>
       <c r="M1" s="66" t="s">
-        <v>397</v>
+        <v>340</v>
       </c>
       <c r="N1" s="66" t="s">
-        <v>398</v>
+        <v>341</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="48" customHeight="1" thickTop="1">
@@ -3537,13 +3545,13 @@
       </c>
       <c r="C2" s="53"/>
       <c r="D2" s="43" t="s">
-        <v>411</v>
+        <v>354</v>
       </c>
       <c r="E2" s="80" t="s">
-        <v>416</v>
+        <v>359</v>
       </c>
       <c r="F2" s="62" t="s">
-        <v>382</v>
+        <v>325</v>
       </c>
       <c r="G2" s="63"/>
       <c r="H2" s="64"/>
@@ -3566,10 +3574,10 @@
         <v>77</v>
       </c>
       <c r="E3" s="80" t="s">
-        <v>417</v>
+        <v>360</v>
       </c>
       <c r="F3" s="58" t="s">
-        <v>381</v>
+        <v>324</v>
       </c>
       <c r="G3" s="63"/>
       <c r="H3" s="65"/>
@@ -3592,10 +3600,10 @@
         <v>80</v>
       </c>
       <c r="E4" s="80" t="s">
-        <v>418</v>
+        <v>361</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>382</v>
+        <v>325</v>
       </c>
       <c r="G4" s="63"/>
       <c r="H4" s="65"/>
@@ -3618,10 +3626,10 @@
         <v>83</v>
       </c>
       <c r="E5" s="80" t="s">
-        <v>419</v>
+        <v>362</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>382</v>
+        <v>325</v>
       </c>
       <c r="G5" s="63"/>
       <c r="H5" s="65"/>
@@ -3644,10 +3652,10 @@
         <v>86</v>
       </c>
       <c r="E6" s="80" t="s">
-        <v>420</v>
+        <v>363</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>382</v>
+        <v>325</v>
       </c>
       <c r="G6" s="63"/>
       <c r="H6" s="65"/>
@@ -3670,10 +3678,10 @@
         <v>89</v>
       </c>
       <c r="E7" s="80" t="s">
-        <v>421</v>
+        <v>364</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>382</v>
+        <v>325</v>
       </c>
       <c r="G7" s="63"/>
       <c r="H7" s="65"/>
@@ -3696,10 +3704,10 @@
         <v>92</v>
       </c>
       <c r="E8" s="80" t="s">
-        <v>422</v>
+        <v>365</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>382</v>
+        <v>325</v>
       </c>
       <c r="G8" s="63"/>
       <c r="H8" s="65"/>
@@ -3740,21 +3748,21 @@
         <v>36</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>379</v>
+        <v>322</v>
       </c>
       <c r="F10" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="G10" s="93" t="s">
-        <v>410</v>
-      </c>
-      <c r="H10" s="94"/>
-      <c r="I10" s="94"/>
-      <c r="J10" s="94"/>
-      <c r="K10" s="94"/>
-      <c r="L10" s="94"/>
-      <c r="M10" s="94"/>
-      <c r="N10" s="94"/>
+      <c r="G10" s="102" t="s">
+        <v>353</v>
+      </c>
+      <c r="H10" s="103"/>
+      <c r="I10" s="103"/>
+      <c r="J10" s="103"/>
+      <c r="K10" s="103"/>
+      <c r="L10" s="103"/>
+      <c r="M10" s="103"/>
+      <c r="N10" s="103"/>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="40"/>
@@ -3833,9 +3841,11 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="19.5"/>
   <cols>
@@ -3853,7 +3863,7 @@
     <col min="12" max="16384" width="8.875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" customFormat="1" ht="20.25" thickBot="1">
+    <row r="1" spans="1:13" customFormat="1" ht="20.25" thickBot="1">
       <c r="A1" s="15" t="s">
         <v>7</v>
       </c>
@@ -3884,9 +3894,15 @@
       <c r="J1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="3"/>
-    </row>
-    <row r="2" spans="1:11" ht="20.25" thickTop="1">
+      <c r="K1" s="15" t="s">
+        <v>366</v>
+      </c>
+      <c r="L1" s="15" t="s">
+        <v>367</v>
+      </c>
+      <c r="M1" s="3"/>
+    </row>
+    <row r="2" spans="1:13" ht="20.25" thickTop="1">
       <c r="A2" s="55" t="s">
         <v>93</v>
       </c>
@@ -3899,23 +3915,29 @@
       <c r="D2" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="11"/>
+      <c r="F2" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="F2" s="11" t="s">
-        <v>98</v>
-      </c>
       <c r="G2" s="11" t="s">
-        <v>310</v>
+        <v>253</v>
       </c>
       <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
+      <c r="I2" s="11" t="s">
+        <v>370</v>
+      </c>
       <c r="J2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="10"/>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="K2" s="11">
+        <v>0</v>
+      </c>
+      <c r="L2" s="11">
+        <v>65.5</v>
+      </c>
+      <c r="M2" s="10"/>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="55" t="s">
         <v>93</v>
       </c>
@@ -3923,28 +3945,34 @@
         <v>94</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D3" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="E3" s="11" t="s">
-        <v>100</v>
-      </c>
+      <c r="E3" s="11"/>
       <c r="F3" s="11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>311</v>
+        <v>254</v>
       </c>
       <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
+      <c r="I3" s="11" t="s">
+        <v>370</v>
+      </c>
       <c r="J3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="10"/>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="K3" s="11">
+        <v>65.5</v>
+      </c>
+      <c r="L3" s="11">
+        <v>165.5</v>
+      </c>
+      <c r="M3" s="10"/>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="55" t="s">
         <v>93</v>
       </c>
@@ -3952,28 +3980,34 @@
         <v>94</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D4" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="E4" s="11" t="s">
-        <v>103</v>
-      </c>
+      <c r="E4" s="11"/>
       <c r="F4" s="11" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>312</v>
+        <v>255</v>
       </c>
       <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
+      <c r="I4" s="11" t="s">
+        <v>370</v>
+      </c>
       <c r="J4" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="10"/>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="K4" s="11">
+        <v>165.5</v>
+      </c>
+      <c r="L4" s="11">
+        <v>254.1</v>
+      </c>
+      <c r="M4" s="10"/>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="55" t="s">
         <v>93</v>
       </c>
@@ -3981,28 +4015,34 @@
         <v>94</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D5" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="E5" s="11" t="s">
-        <v>106</v>
-      </c>
+      <c r="E5" s="11"/>
       <c r="F5" s="11" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>313</v>
+        <v>256</v>
       </c>
       <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
+      <c r="I5" s="11" t="s">
+        <v>370</v>
+      </c>
       <c r="J5" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="K5" s="10"/>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="K5" s="11">
+        <v>254.1</v>
+      </c>
+      <c r="L5" s="11">
+        <v>315.7</v>
+      </c>
+      <c r="M5" s="10"/>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="55" t="s">
         <v>93</v>
       </c>
@@ -4010,28 +4050,34 @@
         <v>94</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D6" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="E6" s="11" t="s">
-        <v>109</v>
-      </c>
+      <c r="E6" s="11"/>
       <c r="F6" s="11" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>314</v>
+        <v>257</v>
       </c>
       <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
+      <c r="I6" s="11" t="s">
+        <v>370</v>
+      </c>
       <c r="J6" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="K6" s="10"/>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="K6" s="11">
+        <v>315.7</v>
+      </c>
+      <c r="L6" s="11">
+        <v>411</v>
+      </c>
+      <c r="M6" s="10"/>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="55" t="s">
         <v>93</v>
       </c>
@@ -4039,28 +4085,34 @@
         <v>94</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D7" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="E7" s="11" t="s">
-        <v>112</v>
-      </c>
+      <c r="E7" s="11"/>
       <c r="F7" s="11" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>315</v>
+        <v>258</v>
       </c>
       <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
+      <c r="I7" s="11" t="s">
+        <v>370</v>
+      </c>
       <c r="J7" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="K7" s="10"/>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="K7" s="11">
+        <v>411</v>
+      </c>
+      <c r="L7" s="11">
+        <v>505.2</v>
+      </c>
+      <c r="M7" s="10"/>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="55" t="s">
         <v>93</v>
       </c>
@@ -4068,28 +4120,34 @@
         <v>94</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D8" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="E8" s="11" t="s">
-        <v>115</v>
-      </c>
+      <c r="E8" s="11"/>
       <c r="F8" s="11" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>316</v>
+        <v>259</v>
       </c>
       <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
+      <c r="I8" s="11" t="s">
+        <v>370</v>
+      </c>
       <c r="J8" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="K8" s="10"/>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="K8" s="11">
+        <v>505.2</v>
+      </c>
+      <c r="L8" s="11">
+        <v>555</v>
+      </c>
+      <c r="M8" s="10"/>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="55" t="s">
         <v>93</v>
       </c>
@@ -4097,221 +4155,265 @@
         <v>94</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="D9" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="E9" s="11" t="s">
-        <v>118</v>
-      </c>
+      <c r="E9" s="11"/>
       <c r="F9" s="11" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>317</v>
+        <v>260</v>
       </c>
       <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
+      <c r="I9" s="11" t="s">
+        <v>370</v>
+      </c>
       <c r="J9" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="K9" s="10"/>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="K9" s="11">
+        <v>555</v>
+      </c>
+      <c r="L9" s="11">
+        <v>606</v>
+      </c>
+      <c r="M9" s="10"/>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="55" t="s">
         <v>93</v>
       </c>
       <c r="B10" s="55" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="D10" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="E10" s="11" t="s">
-        <v>122</v>
-      </c>
+      <c r="E10" s="11"/>
       <c r="F10" s="11" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>318</v>
+        <v>261</v>
       </c>
       <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
+      <c r="I10" s="11" t="s">
+        <v>370</v>
+      </c>
       <c r="J10" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="K10" s="10"/>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="K10" s="11">
+        <v>606</v>
+      </c>
+      <c r="L10" s="11">
+        <v>695.5</v>
+      </c>
+      <c r="M10" s="10"/>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="55" t="s">
         <v>93</v>
       </c>
       <c r="B11" s="55" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="D11" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="E11" s="11" t="s">
-        <v>125</v>
-      </c>
+      <c r="E11" s="11"/>
       <c r="F11" s="11" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>319</v>
+        <v>262</v>
       </c>
       <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
+      <c r="I11" s="11" t="s">
+        <v>370</v>
+      </c>
       <c r="J11" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="K11" s="10"/>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="K11" s="11">
+        <v>695.5</v>
+      </c>
+      <c r="L11" s="11">
+        <v>801.5</v>
+      </c>
+      <c r="M11" s="10"/>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="55" t="s">
         <v>93</v>
       </c>
       <c r="B12" s="55" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="D12" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="E12" s="11" t="s">
-        <v>128</v>
-      </c>
+      <c r="E12" s="11"/>
       <c r="F12" s="11" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>320</v>
+        <v>263</v>
       </c>
       <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
+      <c r="I12" s="11" t="s">
+        <v>370</v>
+      </c>
       <c r="J12" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="K12" s="10"/>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="K12" s="11">
+        <v>801.5</v>
+      </c>
+      <c r="L12" s="11">
+        <v>889.5</v>
+      </c>
+      <c r="M12" s="10"/>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="55" t="s">
         <v>93</v>
       </c>
       <c r="B13" s="55" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="D13" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="E13" s="11" t="s">
-        <v>131</v>
-      </c>
+      <c r="E13" s="11"/>
       <c r="F13" s="11" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>321</v>
+        <v>264</v>
       </c>
       <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
+      <c r="I13" s="11" t="s">
+        <v>370</v>
+      </c>
       <c r="J13" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="K13" s="10"/>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="K13" s="11">
+        <v>889.5</v>
+      </c>
+      <c r="L13" s="11">
+        <v>999.5</v>
+      </c>
+      <c r="M13" s="10"/>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="55" t="s">
         <v>93</v>
       </c>
       <c r="B14" s="55" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="D14" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="E14" s="11" t="s">
-        <v>134</v>
-      </c>
+      <c r="E14" s="11"/>
       <c r="F14" s="11" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>322</v>
+        <v>265</v>
       </c>
       <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
+      <c r="I14" s="11" t="s">
+        <v>370</v>
+      </c>
       <c r="J14" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="K14" s="10"/>
-    </row>
-    <row r="15" spans="1:11">
+      <c r="K14" s="11">
+        <v>999.5</v>
+      </c>
+      <c r="L14" s="11">
+        <v>1101</v>
+      </c>
+      <c r="M14" s="10"/>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="55" t="s">
         <v>93</v>
       </c>
       <c r="B15" s="55" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="D15" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="E15" s="11" t="s">
-        <v>137</v>
-      </c>
+      <c r="E15" s="11"/>
       <c r="F15" s="11" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>323</v>
+        <v>266</v>
       </c>
       <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
+      <c r="I15" s="11" t="s">
+        <v>370</v>
+      </c>
       <c r="J15" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="K15" s="10"/>
-    </row>
-    <row r="16" spans="1:11">
+      <c r="K15" s="11">
+        <v>1101</v>
+      </c>
+      <c r="L15" s="11">
+        <v>1156</v>
+      </c>
+      <c r="M15" s="10"/>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="55" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="B16" s="55" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="41"/>
       <c r="E16" s="59" t="s">
-        <v>383</v>
+        <v>326</v>
       </c>
       <c r="F16" s="60"/>
       <c r="G16" s="11"/>
       <c r="H16" s="11"/>
       <c r="I16" s="11"/>
       <c r="J16" s="11"/>
-      <c r="K16" s="10"/>
-    </row>
-    <row r="17" spans="1:11" s="19" customFormat="1">
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="10"/>
+    </row>
+    <row r="17" spans="1:13" s="19" customFormat="1">
       <c r="A17" s="21"/>
       <c r="B17" s="22"/>
       <c r="C17" s="22"/>
@@ -4322,11 +4424,13 @@
       <c r="H17" s="22"/>
       <c r="I17" s="22"/>
       <c r="J17" s="22"/>
-      <c r="K17" s="1" t="s">
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="39" customFormat="1" ht="165" customHeight="1">
+    <row r="18" spans="1:13" s="39" customFormat="1" ht="165" customHeight="1">
       <c r="A18" s="36" t="s">
         <v>57</v>
       </c>
@@ -4357,59 +4461,65 @@
       <c r="J18" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="K18" s="38"/>
-    </row>
-    <row r="19" spans="1:11" s="16" customFormat="1">
+      <c r="K18" s="36" t="s">
+        <v>368</v>
+      </c>
+      <c r="L18" s="36" t="s">
+        <v>369</v>
+      </c>
+      <c r="M18" s="38"/>
+    </row>
+    <row r="19" spans="1:13" s="16" customFormat="1">
       <c r="D19" s="17"/>
       <c r="K19" s="18"/>
     </row>
-    <row r="20" spans="1:11" s="16" customFormat="1">
+    <row r="20" spans="1:13" s="16" customFormat="1">
       <c r="D20" s="17"/>
       <c r="K20" s="18"/>
     </row>
-    <row r="21" spans="1:11" ht="14.25" customHeight="1">
-      <c r="B21" s="95" t="s">
+    <row r="21" spans="1:13" ht="14.25" customHeight="1">
+      <c r="B21" s="104" t="s">
         <v>65</v>
       </c>
-      <c r="C21" s="96"/>
-      <c r="D21" s="96"/>
-      <c r="E21" s="97"/>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="B22" s="98"/>
-      <c r="C22" s="99"/>
-      <c r="D22" s="99"/>
-      <c r="E22" s="100"/>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="B23" s="98"/>
-      <c r="C23" s="99"/>
-      <c r="D23" s="99"/>
-      <c r="E23" s="100"/>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="B24" s="98"/>
-      <c r="C24" s="99"/>
-      <c r="D24" s="99"/>
-      <c r="E24" s="100"/>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="B25" s="98"/>
-      <c r="C25" s="99"/>
-      <c r="D25" s="99"/>
-      <c r="E25" s="100"/>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="B26" s="98"/>
-      <c r="C26" s="99"/>
-      <c r="D26" s="99"/>
-      <c r="E26" s="100"/>
-    </row>
-    <row r="27" spans="1:11">
-      <c r="B27" s="101"/>
-      <c r="C27" s="102"/>
-      <c r="D27" s="102"/>
-      <c r="E27" s="103"/>
+      <c r="C21" s="105"/>
+      <c r="D21" s="105"/>
+      <c r="E21" s="106"/>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="B22" s="107"/>
+      <c r="C22" s="108"/>
+      <c r="D22" s="108"/>
+      <c r="E22" s="109"/>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="B23" s="107"/>
+      <c r="C23" s="108"/>
+      <c r="D23" s="108"/>
+      <c r="E23" s="109"/>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="B24" s="107"/>
+      <c r="C24" s="108"/>
+      <c r="D24" s="108"/>
+      <c r="E24" s="109"/>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="B25" s="107"/>
+      <c r="C25" s="108"/>
+      <c r="D25" s="108"/>
+      <c r="E25" s="109"/>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="B26" s="107"/>
+      <c r="C26" s="108"/>
+      <c r="D26" s="108"/>
+      <c r="E26" s="109"/>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="B27" s="110"/>
+      <c r="C27" s="111"/>
+      <c r="D27" s="111"/>
+      <c r="E27" s="112"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
@@ -4451,10 +4561,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="19.5"/>
@@ -4467,12 +4577,12 @@
     <col min="6" max="6" width="30.625" style="8" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.125" style="8" customWidth="1"/>
     <col min="8" max="8" width="25" style="8" customWidth="1"/>
-    <col min="9" max="10" width="17.875" style="8" customWidth="1"/>
-    <col min="11" max="11" width="8.875" style="4"/>
-    <col min="12" max="16384" width="8.875" style="8"/>
+    <col min="9" max="12" width="17.875" style="8" customWidth="1"/>
+    <col min="13" max="13" width="8.875" style="4"/>
+    <col min="14" max="16384" width="8.875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" customFormat="1" ht="20.25" thickBot="1">
+    <row r="1" spans="1:13" customFormat="1" ht="20.25" thickBot="1">
       <c r="A1" s="15" t="s">
         <v>7</v>
       </c>
@@ -4503,262 +4613,318 @@
       <c r="J1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="3"/>
-    </row>
-    <row r="2" spans="1:11" ht="20.25" thickTop="1">
+      <c r="K1" s="15" t="s">
+        <v>366</v>
+      </c>
+      <c r="L1" s="15" t="s">
+        <v>367</v>
+      </c>
+      <c r="M1" s="3"/>
+    </row>
+    <row r="2" spans="1:13" ht="20.25" thickTop="1">
       <c r="A2" s="55" t="s">
         <v>93</v>
       </c>
       <c r="B2" s="55" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="D2" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="E2" s="11" t="s">
-        <v>143</v>
-      </c>
+      <c r="E2" s="11"/>
       <c r="F2" s="11" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>324</v>
+        <v>267</v>
       </c>
       <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
+      <c r="I2" s="11" t="s">
+        <v>371</v>
+      </c>
       <c r="J2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="10"/>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="K2" s="86">
+        <v>0</v>
+      </c>
+      <c r="L2" s="86">
+        <v>44</v>
+      </c>
+      <c r="M2" s="10"/>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="55" t="s">
         <v>93</v>
       </c>
       <c r="B3" s="55" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="D3" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="E3" s="11" t="s">
-        <v>146</v>
-      </c>
+      <c r="E3" s="11"/>
       <c r="F3" s="11" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>325</v>
+        <v>268</v>
       </c>
       <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
+      <c r="I3" s="11" t="s">
+        <v>371</v>
+      </c>
       <c r="J3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="10"/>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="K3" s="87">
+        <v>44</v>
+      </c>
+      <c r="L3" s="87">
+        <v>131.5</v>
+      </c>
+      <c r="M3" s="10"/>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="55" t="s">
         <v>93</v>
       </c>
       <c r="B4" s="55" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="D4" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="E4" s="11" t="s">
-        <v>149</v>
-      </c>
+      <c r="E4" s="11"/>
       <c r="F4" s="11" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>326</v>
+        <v>269</v>
       </c>
       <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
+      <c r="I4" s="11" t="s">
+        <v>371</v>
+      </c>
       <c r="J4" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="10"/>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="K4" s="87">
+        <v>131.5</v>
+      </c>
+      <c r="L4" s="87">
+        <v>203</v>
+      </c>
+      <c r="M4" s="10"/>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="55" t="s">
         <v>93</v>
       </c>
       <c r="B5" s="55" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="D5" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="E5" s="11" t="s">
-        <v>152</v>
-      </c>
+      <c r="E5" s="11"/>
       <c r="F5" s="11" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>327</v>
+        <v>270</v>
       </c>
       <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
+      <c r="I5" s="11" t="s">
+        <v>371</v>
+      </c>
       <c r="J5" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="K5" s="10"/>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="K5" s="87">
+        <v>203</v>
+      </c>
+      <c r="L5" s="87">
+        <v>257</v>
+      </c>
+      <c r="M5" s="10"/>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="55" t="s">
         <v>93</v>
       </c>
       <c r="B6" s="55" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="D6" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="E6" s="11" t="s">
-        <v>155</v>
-      </c>
+      <c r="E6" s="11"/>
       <c r="F6" s="11" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>328</v>
+        <v>271</v>
       </c>
       <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
+      <c r="I6" s="11" t="s">
+        <v>371</v>
+      </c>
       <c r="J6" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="K6" s="10"/>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="K6" s="87">
+        <v>257</v>
+      </c>
+      <c r="L6" s="87">
+        <v>312</v>
+      </c>
+      <c r="M6" s="10"/>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="55" t="s">
         <v>93</v>
       </c>
       <c r="B7" s="55" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="D7" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="E7" s="11" t="s">
-        <v>158</v>
-      </c>
+      <c r="E7" s="11"/>
       <c r="F7" s="11" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>329</v>
+        <v>272</v>
       </c>
       <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
+      <c r="I7" s="11" t="s">
+        <v>371</v>
+      </c>
       <c r="J7" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="K7" s="10"/>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="K7" s="87">
+        <v>312</v>
+      </c>
+      <c r="L7" s="87">
+        <v>422</v>
+      </c>
+      <c r="M7" s="10"/>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="55" t="s">
         <v>93</v>
       </c>
       <c r="B8" s="55" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="D8" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="E8" s="11" t="s">
-        <v>161</v>
-      </c>
+      <c r="E8" s="11"/>
       <c r="F8" s="11" t="s">
-        <v>162</v>
+        <v>141</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>330</v>
+        <v>273</v>
       </c>
       <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
+      <c r="I8" s="11" t="s">
+        <v>371</v>
+      </c>
       <c r="J8" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="K8" s="10"/>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="K8" s="87">
+        <v>422</v>
+      </c>
+      <c r="L8" s="87">
+        <v>488.6</v>
+      </c>
+      <c r="M8" s="10"/>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="55" t="s">
         <v>93</v>
       </c>
       <c r="B9" s="55" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="D9" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="E9" s="11" t="s">
-        <v>164</v>
-      </c>
+      <c r="E9" s="11"/>
       <c r="F9" s="11" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>331</v>
+        <v>274</v>
       </c>
       <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
+      <c r="I9" s="11" t="s">
+        <v>371</v>
+      </c>
       <c r="J9" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="K9" s="10"/>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="K9" s="87">
+        <v>488.6</v>
+      </c>
+      <c r="L9" s="87">
+        <v>565</v>
+      </c>
+      <c r="M9" s="10"/>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="55" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="B10" s="55" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="41"/>
       <c r="E10" s="57" t="s">
-        <v>384</v>
+        <v>327</v>
       </c>
       <c r="F10" s="60" t="s">
-        <v>390</v>
+        <v>333</v>
       </c>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
       <c r="J10" s="11"/>
-      <c r="K10" s="10"/>
-    </row>
-    <row r="11" spans="1:11" s="19" customFormat="1">
+      <c r="K10" s="81"/>
+      <c r="L10" s="81"/>
+      <c r="M10" s="10"/>
+    </row>
+    <row r="11" spans="1:13" s="19" customFormat="1">
       <c r="A11" s="21"/>
       <c r="B11" s="22"/>
       <c r="C11" s="22"/>
@@ -4769,11 +4935,13 @@
       <c r="H11" s="22"/>
       <c r="I11" s="22"/>
       <c r="J11" s="22"/>
-      <c r="K11" s="1" t="s">
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="39" customFormat="1" ht="165" customHeight="1">
+    <row r="12" spans="1:13" s="39" customFormat="1" ht="165" customHeight="1">
       <c r="A12" s="36" t="s">
         <v>57</v>
       </c>
@@ -4804,59 +4972,65 @@
       <c r="J12" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="K12" s="38"/>
-    </row>
-    <row r="13" spans="1:11" s="16" customFormat="1">
+      <c r="K12" s="36" t="s">
+        <v>368</v>
+      </c>
+      <c r="L12" s="36" t="s">
+        <v>369</v>
+      </c>
+      <c r="M12" s="38"/>
+    </row>
+    <row r="13" spans="1:13" s="16" customFormat="1">
       <c r="D13" s="17"/>
-      <c r="K13" s="18"/>
-    </row>
-    <row r="14" spans="1:11" s="16" customFormat="1">
+      <c r="M13" s="18"/>
+    </row>
+    <row r="14" spans="1:13" s="16" customFormat="1">
       <c r="D14" s="17"/>
-      <c r="K14" s="18"/>
-    </row>
-    <row r="15" spans="1:11" ht="14.25" customHeight="1">
-      <c r="B15" s="95" t="s">
+      <c r="M14" s="18"/>
+    </row>
+    <row r="15" spans="1:13" ht="14.25" customHeight="1">
+      <c r="B15" s="104" t="s">
         <v>65</v>
       </c>
-      <c r="C15" s="96"/>
-      <c r="D15" s="96"/>
-      <c r="E15" s="97"/>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="B16" s="98"/>
-      <c r="C16" s="99"/>
-      <c r="D16" s="99"/>
-      <c r="E16" s="100"/>
+      <c r="C15" s="105"/>
+      <c r="D15" s="105"/>
+      <c r="E15" s="106"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="B16" s="107"/>
+      <c r="C16" s="108"/>
+      <c r="D16" s="108"/>
+      <c r="E16" s="109"/>
     </row>
     <row r="17" spans="2:5">
-      <c r="B17" s="98"/>
-      <c r="C17" s="99"/>
-      <c r="D17" s="99"/>
-      <c r="E17" s="100"/>
+      <c r="B17" s="107"/>
+      <c r="C17" s="108"/>
+      <c r="D17" s="108"/>
+      <c r="E17" s="109"/>
     </row>
     <row r="18" spans="2:5">
-      <c r="B18" s="98"/>
-      <c r="C18" s="99"/>
-      <c r="D18" s="99"/>
-      <c r="E18" s="100"/>
+      <c r="B18" s="107"/>
+      <c r="C18" s="108"/>
+      <c r="D18" s="108"/>
+      <c r="E18" s="109"/>
     </row>
     <row r="19" spans="2:5">
-      <c r="B19" s="98"/>
-      <c r="C19" s="99"/>
-      <c r="D19" s="99"/>
-      <c r="E19" s="100"/>
+      <c r="B19" s="107"/>
+      <c r="C19" s="108"/>
+      <c r="D19" s="108"/>
+      <c r="E19" s="109"/>
     </row>
     <row r="20" spans="2:5">
-      <c r="B20" s="98"/>
-      <c r="C20" s="99"/>
-      <c r="D20" s="99"/>
-      <c r="E20" s="100"/>
+      <c r="B20" s="107"/>
+      <c r="C20" s="108"/>
+      <c r="D20" s="108"/>
+      <c r="E20" s="109"/>
     </row>
     <row r="21" spans="2:5">
-      <c r="B21" s="101"/>
-      <c r="C21" s="102"/>
-      <c r="D21" s="102"/>
-      <c r="E21" s="103"/>
+      <c r="B21" s="110"/>
+      <c r="C21" s="111"/>
+      <c r="D21" s="111"/>
+      <c r="E21" s="112"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
@@ -4898,10 +5072,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="19.5"/>
@@ -4915,12 +5089,12 @@
     <col min="7" max="7" width="21.125" style="8" customWidth="1"/>
     <col min="8" max="8" width="25" style="8" customWidth="1"/>
     <col min="9" max="9" width="16.5" style="8" customWidth="1"/>
-    <col min="10" max="10" width="17.875" style="8" customWidth="1"/>
-    <col min="11" max="11" width="8.875" style="4"/>
-    <col min="12" max="16384" width="8.875" style="8"/>
+    <col min="10" max="12" width="17.875" style="8" customWidth="1"/>
+    <col min="13" max="13" width="8.875" style="4"/>
+    <col min="14" max="16384" width="8.875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" customFormat="1" ht="20.25" thickBot="1">
+    <row r="1" spans="1:13" customFormat="1" ht="20.25" thickBot="1">
       <c r="A1" s="15" t="s">
         <v>7</v>
       </c>
@@ -4951,9 +5125,15 @@
       <c r="J1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="3"/>
-    </row>
-    <row r="2" spans="1:11" ht="20.25" thickTop="1">
+      <c r="K1" s="15" t="s">
+        <v>366</v>
+      </c>
+      <c r="L1" s="15" t="s">
+        <v>367</v>
+      </c>
+      <c r="M1" s="3"/>
+    </row>
+    <row r="2" spans="1:13" ht="20.25" thickTop="1">
       <c r="A2" s="55" t="s">
         <v>93</v>
       </c>
@@ -4961,28 +5141,34 @@
         <v>79</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>166</v>
+        <v>144</v>
       </c>
       <c r="D2" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="E2" s="11" t="s">
-        <v>167</v>
-      </c>
+      <c r="E2" s="11"/>
       <c r="F2" s="11" t="s">
-        <v>168</v>
+        <v>145</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>332</v>
+        <v>275</v>
       </c>
       <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
+      <c r="I2" s="11" t="s">
+        <v>372</v>
+      </c>
       <c r="J2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="10"/>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="K2" s="86">
+        <v>0</v>
+      </c>
+      <c r="L2" s="86">
+        <v>31.8</v>
+      </c>
+      <c r="M2" s="10"/>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="55" t="s">
         <v>93</v>
       </c>
@@ -4990,28 +5176,34 @@
         <v>79</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>169</v>
+        <v>146</v>
       </c>
       <c r="D3" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="E3" s="11" t="s">
-        <v>170</v>
-      </c>
+      <c r="E3" s="11"/>
       <c r="F3" s="11" t="s">
-        <v>171</v>
+        <v>147</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>333</v>
+        <v>276</v>
       </c>
       <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
+      <c r="I3" s="11" t="s">
+        <v>372</v>
+      </c>
       <c r="J3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="10"/>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="K3" s="87">
+        <v>31.8</v>
+      </c>
+      <c r="L3" s="87">
+        <v>81</v>
+      </c>
+      <c r="M3" s="10"/>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="55" t="s">
         <v>93</v>
       </c>
@@ -5019,28 +5211,34 @@
         <v>79</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>172</v>
+        <v>148</v>
       </c>
       <c r="D4" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="E4" s="11" t="s">
-        <v>173</v>
-      </c>
+      <c r="E4" s="11"/>
       <c r="F4" s="11" t="s">
-        <v>174</v>
+        <v>149</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>334</v>
+        <v>277</v>
       </c>
       <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
+      <c r="I4" s="11" t="s">
+        <v>372</v>
+      </c>
       <c r="J4" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="10"/>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="K4" s="87">
+        <v>81</v>
+      </c>
+      <c r="L4" s="87">
+        <v>151.69999999999999</v>
+      </c>
+      <c r="M4" s="10"/>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="55" t="s">
         <v>93</v>
       </c>
@@ -5048,28 +5246,34 @@
         <v>79</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="D5" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="E5" s="11" t="s">
-        <v>176</v>
-      </c>
+      <c r="E5" s="11"/>
       <c r="F5" s="11" t="s">
-        <v>177</v>
+        <v>151</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>335</v>
+        <v>278</v>
       </c>
       <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
+      <c r="I5" s="11" t="s">
+        <v>372</v>
+      </c>
       <c r="J5" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="K5" s="10"/>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="K5" s="87">
+        <v>151.69999999999999</v>
+      </c>
+      <c r="L5" s="87">
+        <v>186.8</v>
+      </c>
+      <c r="M5" s="10"/>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="55" t="s">
         <v>93</v>
       </c>
@@ -5077,28 +5281,34 @@
         <v>79</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>178</v>
+        <v>152</v>
       </c>
       <c r="D6" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="E6" s="11" t="s">
-        <v>179</v>
-      </c>
+      <c r="E6" s="11"/>
       <c r="F6" s="11" t="s">
-        <v>180</v>
+        <v>153</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>336</v>
+        <v>279</v>
       </c>
       <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
+      <c r="I6" s="11" t="s">
+        <v>372</v>
+      </c>
       <c r="J6" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="K6" s="10"/>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="K6" s="87">
+        <v>186.8</v>
+      </c>
+      <c r="L6" s="87">
+        <v>284</v>
+      </c>
+      <c r="M6" s="10"/>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="55" t="s">
         <v>93</v>
       </c>
@@ -5106,28 +5316,34 @@
         <v>79</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>181</v>
+        <v>154</v>
       </c>
       <c r="D7" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="E7" s="11" t="s">
-        <v>182</v>
-      </c>
+      <c r="E7" s="11"/>
       <c r="F7" s="11" t="s">
-        <v>183</v>
+        <v>155</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>337</v>
+        <v>280</v>
       </c>
       <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
+      <c r="I7" s="11" t="s">
+        <v>372</v>
+      </c>
       <c r="J7" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="K7" s="10"/>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="K7" s="87">
+        <v>284</v>
+      </c>
+      <c r="L7" s="87">
+        <v>379.5</v>
+      </c>
+      <c r="M7" s="10"/>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="55" t="s">
         <v>93</v>
       </c>
@@ -5135,49 +5351,57 @@
         <v>79</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>184</v>
+        <v>156</v>
       </c>
       <c r="D8" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="E8" s="11" t="s">
-        <v>185</v>
-      </c>
+      <c r="E8" s="11"/>
       <c r="F8" s="11" t="s">
-        <v>186</v>
+        <v>157</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>338</v>
+        <v>281</v>
       </c>
       <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
+      <c r="I8" s="11" t="s">
+        <v>372</v>
+      </c>
       <c r="J8" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="K8" s="10"/>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="K8" s="87">
+        <v>379.5</v>
+      </c>
+      <c r="L8" s="87">
+        <v>489</v>
+      </c>
+      <c r="M8" s="10"/>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="55" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="B9" s="55" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="41"/>
       <c r="E9" s="59" t="s">
-        <v>385</v>
+        <v>328</v>
       </c>
       <c r="F9" s="60" t="s">
-        <v>390</v>
+        <v>333</v>
       </c>
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
       <c r="I9" s="11"/>
       <c r="J9" s="11"/>
-      <c r="K9" s="10"/>
-    </row>
-    <row r="10" spans="1:11" s="19" customFormat="1">
+      <c r="K9" s="81"/>
+      <c r="L9" s="81"/>
+      <c r="M9" s="10"/>
+    </row>
+    <row r="10" spans="1:13" s="19" customFormat="1">
       <c r="A10" s="21"/>
       <c r="B10" s="22"/>
       <c r="C10" s="22"/>
@@ -5188,11 +5412,13 @@
       <c r="H10" s="22"/>
       <c r="I10" s="22"/>
       <c r="J10" s="22"/>
-      <c r="K10" s="1" t="s">
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="39" customFormat="1" ht="165" customHeight="1">
+    <row r="11" spans="1:13" s="39" customFormat="1" ht="165" customHeight="1">
       <c r="A11" s="36" t="s">
         <v>57</v>
       </c>
@@ -5223,59 +5449,65 @@
       <c r="J11" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="K11" s="38"/>
-    </row>
-    <row r="12" spans="1:11" s="16" customFormat="1">
+      <c r="K11" s="36" t="s">
+        <v>368</v>
+      </c>
+      <c r="L11" s="36" t="s">
+        <v>369</v>
+      </c>
+      <c r="M11" s="38"/>
+    </row>
+    <row r="12" spans="1:13" s="16" customFormat="1">
       <c r="D12" s="17"/>
-      <c r="K12" s="18"/>
-    </row>
-    <row r="13" spans="1:11" s="16" customFormat="1">
+      <c r="M12" s="18"/>
+    </row>
+    <row r="13" spans="1:13" s="16" customFormat="1">
       <c r="D13" s="17"/>
-      <c r="K13" s="18"/>
-    </row>
-    <row r="14" spans="1:11" ht="14.25" customHeight="1">
-      <c r="B14" s="95" t="s">
+      <c r="M13" s="18"/>
+    </row>
+    <row r="14" spans="1:13" ht="14.25" customHeight="1">
+      <c r="B14" s="104" t="s">
         <v>65</v>
       </c>
-      <c r="C14" s="96"/>
-      <c r="D14" s="96"/>
-      <c r="E14" s="97"/>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="B15" s="98"/>
-      <c r="C15" s="99"/>
-      <c r="D15" s="99"/>
-      <c r="E15" s="100"/>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="B16" s="98"/>
-      <c r="C16" s="99"/>
-      <c r="D16" s="99"/>
-      <c r="E16" s="100"/>
+      <c r="C14" s="105"/>
+      <c r="D14" s="105"/>
+      <c r="E14" s="106"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="B15" s="107"/>
+      <c r="C15" s="108"/>
+      <c r="D15" s="108"/>
+      <c r="E15" s="109"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="B16" s="107"/>
+      <c r="C16" s="108"/>
+      <c r="D16" s="108"/>
+      <c r="E16" s="109"/>
     </row>
     <row r="17" spans="2:5">
-      <c r="B17" s="98"/>
-      <c r="C17" s="99"/>
-      <c r="D17" s="99"/>
-      <c r="E17" s="100"/>
+      <c r="B17" s="107"/>
+      <c r="C17" s="108"/>
+      <c r="D17" s="108"/>
+      <c r="E17" s="109"/>
     </row>
     <row r="18" spans="2:5">
-      <c r="B18" s="98"/>
-      <c r="C18" s="99"/>
-      <c r="D18" s="99"/>
-      <c r="E18" s="100"/>
+      <c r="B18" s="107"/>
+      <c r="C18" s="108"/>
+      <c r="D18" s="108"/>
+      <c r="E18" s="109"/>
     </row>
     <row r="19" spans="2:5">
-      <c r="B19" s="98"/>
-      <c r="C19" s="99"/>
-      <c r="D19" s="99"/>
-      <c r="E19" s="100"/>
+      <c r="B19" s="107"/>
+      <c r="C19" s="108"/>
+      <c r="D19" s="108"/>
+      <c r="E19" s="109"/>
     </row>
     <row r="20" spans="2:5">
-      <c r="B20" s="101"/>
-      <c r="C20" s="102"/>
-      <c r="D20" s="102"/>
-      <c r="E20" s="103"/>
+      <c r="B20" s="110"/>
+      <c r="C20" s="111"/>
+      <c r="D20" s="111"/>
+      <c r="E20" s="112"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
@@ -5317,10 +5549,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="19.5"/>
@@ -5334,12 +5566,12 @@
     <col min="7" max="7" width="21.125" style="8" customWidth="1"/>
     <col min="8" max="8" width="25" style="8" customWidth="1"/>
     <col min="9" max="9" width="29.25" style="8" customWidth="1"/>
-    <col min="10" max="10" width="17.875" style="8" customWidth="1"/>
-    <col min="11" max="11" width="8.875" style="4"/>
-    <col min="12" max="16384" width="8.875" style="8"/>
+    <col min="10" max="12" width="17.875" style="8" customWidth="1"/>
+    <col min="13" max="13" width="8.875" style="4"/>
+    <col min="14" max="16384" width="8.875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" customFormat="1" ht="20.25" thickBot="1">
+    <row r="1" spans="1:13" customFormat="1" ht="20.25" thickBot="1">
       <c r="A1" s="15" t="s">
         <v>7</v>
       </c>
@@ -5370,291 +5602,353 @@
       <c r="J1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="3"/>
-    </row>
-    <row r="2" spans="1:11" ht="20.25" thickTop="1">
+      <c r="K1" s="15" t="s">
+        <v>366</v>
+      </c>
+      <c r="L1" s="15" t="s">
+        <v>367</v>
+      </c>
+      <c r="M1" s="3"/>
+    </row>
+    <row r="2" spans="1:13" ht="20.25" thickTop="1">
       <c r="A2" s="55" t="s">
         <v>93</v>
       </c>
       <c r="B2" s="55" t="s">
-        <v>187</v>
+        <v>158</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>188</v>
+        <v>159</v>
       </c>
       <c r="D2" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="E2" s="11" t="s">
-        <v>189</v>
-      </c>
+      <c r="E2" s="11"/>
       <c r="F2" s="11" t="s">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>339</v>
+        <v>282</v>
       </c>
       <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
+      <c r="I2" s="11" t="s">
+        <v>374</v>
+      </c>
       <c r="J2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="10"/>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="K2" s="86">
+        <v>0</v>
+      </c>
+      <c r="L2" s="86">
+        <v>55.8</v>
+      </c>
+      <c r="M2" s="10"/>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="55" t="s">
         <v>93</v>
       </c>
       <c r="B3" s="55" t="s">
-        <v>187</v>
+        <v>158</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>191</v>
+        <v>161</v>
       </c>
       <c r="D3" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="E3" s="11" t="s">
-        <v>192</v>
-      </c>
+      <c r="E3" s="11"/>
       <c r="F3" s="11" t="s">
-        <v>193</v>
+        <v>162</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>340</v>
+        <v>283</v>
       </c>
       <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
+      <c r="I3" s="11" t="s">
+        <v>373</v>
+      </c>
       <c r="J3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="10"/>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="K3" s="87">
+        <v>55.8</v>
+      </c>
+      <c r="L3" s="87">
+        <v>138</v>
+      </c>
+      <c r="M3" s="10"/>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="55" t="s">
         <v>93</v>
       </c>
       <c r="B4" s="55" t="s">
-        <v>187</v>
+        <v>158</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>194</v>
+        <v>163</v>
       </c>
       <c r="D4" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="E4" s="11" t="s">
-        <v>195</v>
-      </c>
+      <c r="E4" s="11"/>
       <c r="F4" s="11" t="s">
-        <v>196</v>
+        <v>164</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>341</v>
+        <v>284</v>
       </c>
       <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
+      <c r="I4" s="11" t="s">
+        <v>373</v>
+      </c>
       <c r="J4" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="10"/>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="K4" s="87">
+        <v>138</v>
+      </c>
+      <c r="L4" s="87">
+        <v>206</v>
+      </c>
+      <c r="M4" s="10"/>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="55" t="s">
         <v>93</v>
       </c>
       <c r="B5" s="55" t="s">
-        <v>187</v>
+        <v>158</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>197</v>
+        <v>165</v>
       </c>
       <c r="D5" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="E5" s="11" t="s">
-        <v>198</v>
-      </c>
+      <c r="E5" s="11"/>
       <c r="F5" s="11" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>342</v>
+        <v>285</v>
       </c>
       <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
+      <c r="I5" s="11" t="s">
+        <v>373</v>
+      </c>
       <c r="J5" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="K5" s="10"/>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="K5" s="87">
+        <v>206</v>
+      </c>
+      <c r="L5" s="87">
+        <v>264.39999999999998</v>
+      </c>
+      <c r="M5" s="10"/>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="55" t="s">
         <v>93</v>
       </c>
       <c r="B6" s="55" t="s">
-        <v>187</v>
+        <v>158</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>200</v>
+        <v>167</v>
       </c>
       <c r="D6" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="E6" s="11" t="s">
-        <v>201</v>
-      </c>
+      <c r="E6" s="11"/>
       <c r="F6" s="11" t="s">
-        <v>202</v>
+        <v>168</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>343</v>
+        <v>286</v>
       </c>
       <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
+      <c r="I6" s="11" t="s">
+        <v>373</v>
+      </c>
       <c r="J6" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="K6" s="10"/>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="K6" s="87">
+        <v>264.39999999999998</v>
+      </c>
+      <c r="L6" s="87">
+        <v>311.2</v>
+      </c>
+      <c r="M6" s="10"/>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="55" t="s">
         <v>93</v>
       </c>
       <c r="B7" s="55" t="s">
-        <v>187</v>
+        <v>158</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>203</v>
+        <v>169</v>
       </c>
       <c r="D7" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="E7" s="11" t="s">
-        <v>204</v>
-      </c>
+      <c r="E7" s="11"/>
       <c r="F7" s="11" t="s">
-        <v>205</v>
+        <v>170</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>344</v>
+        <v>287</v>
       </c>
       <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
+      <c r="I7" s="11" t="s">
+        <v>373</v>
+      </c>
       <c r="J7" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="K7" s="10"/>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="K7" s="87">
+        <v>311.2</v>
+      </c>
+      <c r="L7" s="87">
+        <v>363.4</v>
+      </c>
+      <c r="M7" s="10"/>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="55" t="s">
         <v>93</v>
       </c>
       <c r="B8" s="55" t="s">
-        <v>187</v>
+        <v>158</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>206</v>
+        <v>171</v>
       </c>
       <c r="D8" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="E8" s="11" t="s">
-        <v>207</v>
-      </c>
+      <c r="E8" s="11"/>
       <c r="F8" s="11" t="s">
-        <v>208</v>
+        <v>172</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>345</v>
+        <v>288</v>
       </c>
       <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
+      <c r="I8" s="11" t="s">
+        <v>373</v>
+      </c>
       <c r="J8" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="K8" s="10"/>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="K8" s="87">
+        <v>363.4</v>
+      </c>
+      <c r="L8" s="87">
+        <v>432.9</v>
+      </c>
+      <c r="M8" s="10"/>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="55" t="s">
         <v>93</v>
       </c>
       <c r="B9" s="55" t="s">
-        <v>187</v>
+        <v>158</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>209</v>
+        <v>173</v>
       </c>
       <c r="D9" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="E9" s="11" t="s">
-        <v>210</v>
-      </c>
+      <c r="E9" s="11"/>
       <c r="F9" s="11" t="s">
-        <v>211</v>
+        <v>174</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>346</v>
+        <v>289</v>
       </c>
       <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
+      <c r="I9" s="11" t="s">
+        <v>373</v>
+      </c>
       <c r="J9" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="K9" s="10"/>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="K9" s="87">
+        <v>432.9</v>
+      </c>
+      <c r="L9" s="87">
+        <v>523.1</v>
+      </c>
+      <c r="M9" s="10"/>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="55" t="s">
         <v>93</v>
       </c>
       <c r="B10" s="55" t="s">
-        <v>187</v>
+        <v>158</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>212</v>
+        <v>175</v>
       </c>
       <c r="D10" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="E10" s="11" t="s">
-        <v>213</v>
-      </c>
+      <c r="E10" s="11"/>
       <c r="F10" s="11" t="s">
-        <v>214</v>
+        <v>176</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>347</v>
+        <v>290</v>
       </c>
       <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
+      <c r="I10" s="11" t="s">
+        <v>373</v>
+      </c>
       <c r="J10" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="K10" s="10"/>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="K10" s="87">
+        <v>523.1</v>
+      </c>
+      <c r="L10" s="87">
+        <v>593</v>
+      </c>
+      <c r="M10" s="10"/>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="55" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="B11" s="55" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="41"/>
       <c r="E11" s="59" t="s">
-        <v>386</v>
+        <v>329</v>
       </c>
       <c r="F11" s="60" t="s">
-        <v>391</v>
+        <v>334</v>
       </c>
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
       <c r="J11" s="11"/>
-      <c r="K11" s="10"/>
-    </row>
-    <row r="12" spans="1:11" s="19" customFormat="1">
+      <c r="K11" s="81"/>
+      <c r="L11" s="81"/>
+      <c r="M11" s="10"/>
+    </row>
+    <row r="12" spans="1:13" s="19" customFormat="1">
       <c r="A12" s="21"/>
       <c r="B12" s="22"/>
       <c r="C12" s="22"/>
@@ -5665,11 +5959,13 @@
       <c r="H12" s="22"/>
       <c r="I12" s="22"/>
       <c r="J12" s="22"/>
-      <c r="K12" s="1" t="s">
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="39" customFormat="1" ht="165" customHeight="1">
+    <row r="13" spans="1:13" s="39" customFormat="1" ht="165" customHeight="1">
       <c r="A13" s="36" t="s">
         <v>57</v>
       </c>
@@ -5700,59 +5996,65 @@
       <c r="J13" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="K13" s="38"/>
-    </row>
-    <row r="14" spans="1:11" s="16" customFormat="1">
+      <c r="K13" s="36" t="s">
+        <v>368</v>
+      </c>
+      <c r="L13" s="36" t="s">
+        <v>369</v>
+      </c>
+      <c r="M13" s="38"/>
+    </row>
+    <row r="14" spans="1:13" s="16" customFormat="1">
       <c r="D14" s="17"/>
-      <c r="K14" s="18"/>
-    </row>
-    <row r="15" spans="1:11" s="16" customFormat="1">
+      <c r="M14" s="18"/>
+    </row>
+    <row r="15" spans="1:13" s="16" customFormat="1">
       <c r="D15" s="17"/>
-      <c r="K15" s="18"/>
-    </row>
-    <row r="16" spans="1:11" ht="14.25" customHeight="1">
-      <c r="B16" s="95" t="s">
+      <c r="M15" s="18"/>
+    </row>
+    <row r="16" spans="1:13" ht="14.25" customHeight="1">
+      <c r="B16" s="104" t="s">
         <v>65</v>
       </c>
-      <c r="C16" s="96"/>
-      <c r="D16" s="96"/>
-      <c r="E16" s="97"/>
+      <c r="C16" s="105"/>
+      <c r="D16" s="105"/>
+      <c r="E16" s="106"/>
     </row>
     <row r="17" spans="2:5">
-      <c r="B17" s="98"/>
-      <c r="C17" s="99"/>
-      <c r="D17" s="99"/>
-      <c r="E17" s="100"/>
+      <c r="B17" s="107"/>
+      <c r="C17" s="108"/>
+      <c r="D17" s="108"/>
+      <c r="E17" s="109"/>
     </row>
     <row r="18" spans="2:5">
-      <c r="B18" s="98"/>
-      <c r="C18" s="99"/>
-      <c r="D18" s="99"/>
-      <c r="E18" s="100"/>
+      <c r="B18" s="107"/>
+      <c r="C18" s="108"/>
+      <c r="D18" s="108"/>
+      <c r="E18" s="109"/>
     </row>
     <row r="19" spans="2:5">
-      <c r="B19" s="98"/>
-      <c r="C19" s="99"/>
-      <c r="D19" s="99"/>
-      <c r="E19" s="100"/>
+      <c r="B19" s="107"/>
+      <c r="C19" s="108"/>
+      <c r="D19" s="108"/>
+      <c r="E19" s="109"/>
     </row>
     <row r="20" spans="2:5">
-      <c r="B20" s="98"/>
-      <c r="C20" s="99"/>
-      <c r="D20" s="99"/>
-      <c r="E20" s="100"/>
+      <c r="B20" s="107"/>
+      <c r="C20" s="108"/>
+      <c r="D20" s="108"/>
+      <c r="E20" s="109"/>
     </row>
     <row r="21" spans="2:5">
-      <c r="B21" s="98"/>
-      <c r="C21" s="99"/>
-      <c r="D21" s="99"/>
-      <c r="E21" s="100"/>
+      <c r="B21" s="107"/>
+      <c r="C21" s="108"/>
+      <c r="D21" s="108"/>
+      <c r="E21" s="109"/>
     </row>
     <row r="22" spans="2:5">
-      <c r="B22" s="101"/>
-      <c r="C22" s="102"/>
-      <c r="D22" s="102"/>
-      <c r="E22" s="103"/>
+      <c r="B22" s="110"/>
+      <c r="C22" s="111"/>
+      <c r="D22" s="111"/>
+      <c r="E22" s="112"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
@@ -5794,10 +6096,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView topLeftCell="F4" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="19.5"/>
@@ -5811,12 +6113,12 @@
     <col min="7" max="7" width="21.125" style="8" customWidth="1"/>
     <col min="8" max="8" width="25" style="8" customWidth="1"/>
     <col min="9" max="9" width="21" style="8" customWidth="1"/>
-    <col min="10" max="10" width="17.875" style="8" customWidth="1"/>
-    <col min="11" max="11" width="8.875" style="4"/>
-    <col min="12" max="16384" width="8.875" style="8"/>
+    <col min="10" max="12" width="17.875" style="8" customWidth="1"/>
+    <col min="13" max="13" width="8.875" style="4"/>
+    <col min="14" max="16384" width="8.875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" customFormat="1" ht="20.25" thickBot="1">
+    <row r="1" spans="1:13" customFormat="1" ht="20.25" thickBot="1">
       <c r="A1" s="15" t="s">
         <v>7</v>
       </c>
@@ -5847,349 +6149,423 @@
       <c r="J1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="3"/>
-    </row>
-    <row r="2" spans="1:11" ht="20.25" thickTop="1">
+      <c r="K1" s="15" t="s">
+        <v>366</v>
+      </c>
+      <c r="L1" s="15" t="s">
+        <v>367</v>
+      </c>
+      <c r="M1" s="3"/>
+    </row>
+    <row r="2" spans="1:13" ht="20.25" thickTop="1">
       <c r="A2" s="55" t="s">
         <v>93</v>
       </c>
       <c r="B2" s="55" t="s">
-        <v>215</v>
+        <v>177</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>216</v>
+        <v>178</v>
       </c>
       <c r="D2" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="E2" s="11" t="s">
-        <v>217</v>
-      </c>
+      <c r="E2" s="11"/>
       <c r="F2" s="11" t="s">
-        <v>218</v>
+        <v>179</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>348</v>
+        <v>291</v>
       </c>
       <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
+      <c r="I2" s="11" t="s">
+        <v>375</v>
+      </c>
       <c r="J2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="10"/>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="K2" s="11">
+        <v>0</v>
+      </c>
+      <c r="L2" s="11">
+        <v>50</v>
+      </c>
+      <c r="M2" s="10"/>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="55" t="s">
         <v>93</v>
       </c>
       <c r="B3" s="55" t="s">
-        <v>215</v>
+        <v>177</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>219</v>
+        <v>180</v>
       </c>
       <c r="D3" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="E3" s="11" t="s">
-        <v>220</v>
-      </c>
+      <c r="E3" s="11"/>
       <c r="F3" s="11" t="s">
-        <v>221</v>
+        <v>181</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>349</v>
+        <v>292</v>
       </c>
       <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
+      <c r="I3" s="11" t="s">
+        <v>375</v>
+      </c>
       <c r="J3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="10"/>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="K3" s="11">
+        <v>50</v>
+      </c>
+      <c r="L3" s="11">
+        <v>143</v>
+      </c>
+      <c r="M3" s="10"/>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="55" t="s">
         <v>93</v>
       </c>
       <c r="B4" s="55" t="s">
-        <v>215</v>
+        <v>177</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>222</v>
+        <v>182</v>
       </c>
       <c r="D4" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="E4" s="11" t="s">
-        <v>223</v>
-      </c>
+      <c r="E4" s="11"/>
       <c r="F4" s="11" t="s">
-        <v>224</v>
+        <v>183</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>350</v>
+        <v>293</v>
       </c>
       <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
+      <c r="I4" s="11" t="s">
+        <v>375</v>
+      </c>
       <c r="J4" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="10"/>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="K4" s="11">
+        <v>143</v>
+      </c>
+      <c r="L4" s="11">
+        <v>187</v>
+      </c>
+      <c r="M4" s="10"/>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="55" t="s">
         <v>93</v>
       </c>
       <c r="B5" s="55" t="s">
-        <v>215</v>
+        <v>177</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>225</v>
+        <v>184</v>
       </c>
       <c r="D5" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="E5" s="11" t="s">
-        <v>226</v>
-      </c>
+      <c r="E5" s="11"/>
       <c r="F5" s="11" t="s">
-        <v>227</v>
+        <v>185</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>351</v>
+        <v>294</v>
       </c>
       <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
+      <c r="I5" s="11" t="s">
+        <v>375</v>
+      </c>
       <c r="J5" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="K5" s="10"/>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="K5" s="11">
+        <v>187</v>
+      </c>
+      <c r="L5" s="11">
+        <v>259.5</v>
+      </c>
+      <c r="M5" s="10"/>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="55" t="s">
         <v>93</v>
       </c>
       <c r="B6" s="55" t="s">
-        <v>215</v>
+        <v>177</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>228</v>
+        <v>186</v>
       </c>
       <c r="D6" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="E6" s="11" t="s">
-        <v>229</v>
-      </c>
+      <c r="E6" s="11"/>
       <c r="F6" s="11" t="s">
-        <v>230</v>
+        <v>187</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>352</v>
+        <v>295</v>
       </c>
       <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
+      <c r="I6" s="11" t="s">
+        <v>375</v>
+      </c>
       <c r="J6" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="K6" s="10"/>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="K6" s="11">
+        <v>259.5</v>
+      </c>
+      <c r="L6" s="11">
+        <v>317.5</v>
+      </c>
+      <c r="M6" s="10"/>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="55" t="s">
         <v>93</v>
       </c>
       <c r="B7" s="55" t="s">
-        <v>215</v>
+        <v>177</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>231</v>
+        <v>188</v>
       </c>
       <c r="D7" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="E7" s="11" t="s">
-        <v>232</v>
-      </c>
+      <c r="E7" s="11"/>
       <c r="F7" s="11" t="s">
-        <v>233</v>
+        <v>189</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>353</v>
+        <v>296</v>
       </c>
       <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
+      <c r="I7" s="11" t="s">
+        <v>375</v>
+      </c>
       <c r="J7" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="K7" s="10"/>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="K7" s="11">
+        <v>317.5</v>
+      </c>
+      <c r="L7" s="11">
+        <v>393</v>
+      </c>
+      <c r="M7" s="10"/>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="55" t="s">
         <v>93</v>
       </c>
       <c r="B8" s="55" t="s">
-        <v>215</v>
+        <v>177</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>234</v>
+        <v>190</v>
       </c>
       <c r="D8" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="E8" s="11" t="s">
-        <v>235</v>
-      </c>
+      <c r="E8" s="11"/>
       <c r="F8" s="11" t="s">
-        <v>236</v>
+        <v>191</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>354</v>
+        <v>297</v>
       </c>
       <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
+      <c r="I8" s="11" t="s">
+        <v>375</v>
+      </c>
       <c r="J8" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="K8" s="10"/>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="K8" s="11">
+        <v>393</v>
+      </c>
+      <c r="L8" s="11">
+        <v>474.5</v>
+      </c>
+      <c r="M8" s="10"/>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="55" t="s">
         <v>93</v>
       </c>
       <c r="B9" s="55" t="s">
-        <v>215</v>
+        <v>177</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>237</v>
+        <v>192</v>
       </c>
       <c r="D9" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="E9" s="11" t="s">
-        <v>238</v>
-      </c>
+      <c r="E9" s="11"/>
       <c r="F9" s="11" t="s">
-        <v>239</v>
+        <v>193</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>355</v>
+        <v>298</v>
       </c>
       <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
+      <c r="I9" s="11" t="s">
+        <v>375</v>
+      </c>
       <c r="J9" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="K9" s="10"/>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="K9" s="11">
+        <v>474.5</v>
+      </c>
+      <c r="L9" s="11">
+        <v>549.9</v>
+      </c>
+      <c r="M9" s="10"/>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="55" t="s">
         <v>93</v>
       </c>
       <c r="B10" s="55" t="s">
-        <v>215</v>
+        <v>177</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>240</v>
+        <v>194</v>
       </c>
       <c r="D10" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="E10" s="11" t="s">
-        <v>241</v>
-      </c>
+      <c r="E10" s="11"/>
       <c r="F10" s="11" t="s">
-        <v>242</v>
+        <v>195</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>356</v>
+        <v>299</v>
       </c>
       <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
+      <c r="I10" s="11" t="s">
+        <v>375</v>
+      </c>
       <c r="J10" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="K10" s="10"/>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="K10" s="11">
+        <v>549.9</v>
+      </c>
+      <c r="L10" s="11">
+        <v>622.5</v>
+      </c>
+      <c r="M10" s="10"/>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="55" t="s">
         <v>93</v>
       </c>
       <c r="B11" s="55" t="s">
-        <v>215</v>
+        <v>177</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>243</v>
+        <v>196</v>
       </c>
       <c r="D11" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="E11" s="11" t="s">
-        <v>244</v>
-      </c>
+      <c r="E11" s="11"/>
       <c r="F11" s="11" t="s">
-        <v>245</v>
+        <v>197</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>357</v>
+        <v>300</v>
       </c>
       <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
+      <c r="I11" s="11" t="s">
+        <v>375</v>
+      </c>
       <c r="J11" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="K11" s="10"/>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="K11" s="11">
+        <v>622.5</v>
+      </c>
+      <c r="L11" s="11">
+        <v>692.1</v>
+      </c>
+      <c r="M11" s="10"/>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="55" t="s">
         <v>93</v>
       </c>
       <c r="B12" s="55" t="s">
-        <v>215</v>
+        <v>177</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>246</v>
+        <v>198</v>
       </c>
       <c r="D12" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="E12" s="11" t="s">
-        <v>247</v>
-      </c>
+      <c r="E12" s="11"/>
       <c r="F12" s="11" t="s">
-        <v>248</v>
+        <v>199</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>358</v>
+        <v>301</v>
       </c>
       <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
+      <c r="I12" s="11" t="s">
+        <v>375</v>
+      </c>
       <c r="J12" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="K12" s="10"/>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="K12" s="11">
+        <v>692.1</v>
+      </c>
+      <c r="L12" s="11">
+        <v>782</v>
+      </c>
+      <c r="M12" s="10"/>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="55" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="B13" s="55" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="41"/>
       <c r="E13" s="59" t="s">
-        <v>387</v>
+        <v>330</v>
       </c>
       <c r="F13" s="60" t="s">
-        <v>390</v>
+        <v>333</v>
       </c>
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
       <c r="J13" s="11"/>
-      <c r="K13" s="10"/>
-    </row>
-    <row r="14" spans="1:11" s="19" customFormat="1">
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="10"/>
+    </row>
+    <row r="14" spans="1:13" s="19" customFormat="1">
       <c r="A14" s="21"/>
       <c r="B14" s="22"/>
       <c r="C14" s="22"/>
@@ -6200,11 +6576,13 @@
       <c r="H14" s="22"/>
       <c r="I14" s="22"/>
       <c r="J14" s="22"/>
-      <c r="K14" s="1" t="s">
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="39" customFormat="1" ht="165" customHeight="1">
+    <row r="15" spans="1:13" s="39" customFormat="1" ht="165" customHeight="1">
       <c r="A15" s="36" t="s">
         <v>57</v>
       </c>
@@ -6235,59 +6613,65 @@
       <c r="J15" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="K15" s="38"/>
-    </row>
-    <row r="16" spans="1:11" s="16" customFormat="1">
+      <c r="K15" s="36" t="s">
+        <v>368</v>
+      </c>
+      <c r="L15" s="36" t="s">
+        <v>369</v>
+      </c>
+      <c r="M15" s="38"/>
+    </row>
+    <row r="16" spans="1:13" s="16" customFormat="1">
       <c r="D16" s="17"/>
-      <c r="K16" s="18"/>
-    </row>
-    <row r="17" spans="2:11" s="16" customFormat="1">
+      <c r="M16" s="18"/>
+    </row>
+    <row r="17" spans="2:13" s="16" customFormat="1">
       <c r="D17" s="17"/>
-      <c r="K17" s="18"/>
-    </row>
-    <row r="18" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B18" s="95" t="s">
+      <c r="M17" s="18"/>
+    </row>
+    <row r="18" spans="2:13" ht="14.25" customHeight="1">
+      <c r="B18" s="104" t="s">
         <v>65</v>
       </c>
-      <c r="C18" s="96"/>
-      <c r="D18" s="96"/>
-      <c r="E18" s="97"/>
-    </row>
-    <row r="19" spans="2:11">
-      <c r="B19" s="98"/>
-      <c r="C19" s="99"/>
-      <c r="D19" s="99"/>
-      <c r="E19" s="100"/>
-    </row>
-    <row r="20" spans="2:11">
-      <c r="B20" s="98"/>
-      <c r="C20" s="99"/>
-      <c r="D20" s="99"/>
-      <c r="E20" s="100"/>
-    </row>
-    <row r="21" spans="2:11">
-      <c r="B21" s="98"/>
-      <c r="C21" s="99"/>
-      <c r="D21" s="99"/>
-      <c r="E21" s="100"/>
-    </row>
-    <row r="22" spans="2:11">
-      <c r="B22" s="98"/>
-      <c r="C22" s="99"/>
-      <c r="D22" s="99"/>
-      <c r="E22" s="100"/>
-    </row>
-    <row r="23" spans="2:11">
-      <c r="B23" s="98"/>
-      <c r="C23" s="99"/>
-      <c r="D23" s="99"/>
-      <c r="E23" s="100"/>
-    </row>
-    <row r="24" spans="2:11">
-      <c r="B24" s="101"/>
-      <c r="C24" s="102"/>
-      <c r="D24" s="102"/>
-      <c r="E24" s="103"/>
+      <c r="C18" s="105"/>
+      <c r="D18" s="105"/>
+      <c r="E18" s="106"/>
+    </row>
+    <row r="19" spans="2:13">
+      <c r="B19" s="107"/>
+      <c r="C19" s="108"/>
+      <c r="D19" s="108"/>
+      <c r="E19" s="109"/>
+    </row>
+    <row r="20" spans="2:13">
+      <c r="B20" s="107"/>
+      <c r="C20" s="108"/>
+      <c r="D20" s="108"/>
+      <c r="E20" s="109"/>
+    </row>
+    <row r="21" spans="2:13">
+      <c r="B21" s="107"/>
+      <c r="C21" s="108"/>
+      <c r="D21" s="108"/>
+      <c r="E21" s="109"/>
+    </row>
+    <row r="22" spans="2:13">
+      <c r="B22" s="107"/>
+      <c r="C22" s="108"/>
+      <c r="D22" s="108"/>
+      <c r="E22" s="109"/>
+    </row>
+    <row r="23" spans="2:13">
+      <c r="B23" s="107"/>
+      <c r="C23" s="108"/>
+      <c r="D23" s="108"/>
+      <c r="E23" s="109"/>
+    </row>
+    <row r="24" spans="2:13">
+      <c r="B24" s="110"/>
+      <c r="C24" s="111"/>
+      <c r="D24" s="111"/>
+      <c r="E24" s="112"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
@@ -6329,10 +6713,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="19.5"/>
@@ -6346,12 +6730,12 @@
     <col min="7" max="7" width="21.125" style="8" customWidth="1"/>
     <col min="8" max="8" width="25" style="8" customWidth="1"/>
     <col min="9" max="9" width="20.125" style="8" customWidth="1"/>
-    <col min="10" max="10" width="17.875" style="8" customWidth="1"/>
-    <col min="11" max="11" width="8.875" style="4"/>
-    <col min="12" max="16384" width="8.875" style="8"/>
+    <col min="10" max="12" width="17.875" style="8" customWidth="1"/>
+    <col min="13" max="13" width="8.875" style="4"/>
+    <col min="14" max="16384" width="8.875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" customFormat="1" ht="20.25" thickBot="1">
+    <row r="1" spans="1:13" customFormat="1" ht="20.25" thickBot="1">
       <c r="A1" s="15" t="s">
         <v>7</v>
       </c>
@@ -6382,262 +6766,318 @@
       <c r="J1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="3"/>
-    </row>
-    <row r="2" spans="1:11" ht="20.25" thickTop="1">
+      <c r="K1" s="15" t="s">
+        <v>366</v>
+      </c>
+      <c r="L1" s="15" t="s">
+        <v>367</v>
+      </c>
+      <c r="M1" s="3"/>
+    </row>
+    <row r="2" spans="1:13" ht="20.25" thickTop="1">
       <c r="A2" s="55" t="s">
         <v>93</v>
       </c>
       <c r="B2" s="55" t="s">
-        <v>249</v>
+        <v>200</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>250</v>
+        <v>201</v>
       </c>
       <c r="D2" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="E2" s="11" t="s">
-        <v>251</v>
-      </c>
+      <c r="E2" s="11"/>
       <c r="F2" s="11" t="s">
-        <v>252</v>
+        <v>202</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>359</v>
+        <v>302</v>
       </c>
       <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
+      <c r="I2" s="11" t="s">
+        <v>376</v>
+      </c>
       <c r="J2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="10"/>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="K2" s="88">
+        <v>0</v>
+      </c>
+      <c r="L2" s="89">
+        <v>110.9</v>
+      </c>
+      <c r="M2" s="10"/>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="55" t="s">
         <v>93</v>
       </c>
       <c r="B3" s="55" t="s">
-        <v>249</v>
+        <v>200</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>253</v>
+        <v>203</v>
       </c>
       <c r="D3" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="E3" s="11" t="s">
-        <v>254</v>
-      </c>
+      <c r="E3" s="11"/>
       <c r="F3" s="11" t="s">
-        <v>255</v>
+        <v>204</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>360</v>
+        <v>303</v>
       </c>
       <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
+      <c r="I3" s="11" t="s">
+        <v>377</v>
+      </c>
       <c r="J3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="10"/>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="K3" s="87">
+        <v>110.9</v>
+      </c>
+      <c r="L3" s="87">
+        <v>189.9</v>
+      </c>
+      <c r="M3" s="10"/>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="55" t="s">
         <v>93</v>
       </c>
       <c r="B4" s="55" t="s">
-        <v>249</v>
+        <v>200</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>256</v>
+        <v>205</v>
       </c>
       <c r="D4" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="E4" s="11" t="s">
-        <v>257</v>
-      </c>
+      <c r="E4" s="11"/>
       <c r="F4" s="11" t="s">
-        <v>258</v>
+        <v>206</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>361</v>
+        <v>304</v>
       </c>
       <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
+      <c r="I4" s="11" t="s">
+        <v>377</v>
+      </c>
       <c r="J4" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="10"/>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="K4" s="87">
+        <v>189.9</v>
+      </c>
+      <c r="L4" s="87">
+        <v>245.9</v>
+      </c>
+      <c r="M4" s="10"/>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="55" t="s">
         <v>93</v>
       </c>
       <c r="B5" s="55" t="s">
-        <v>249</v>
+        <v>200</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>259</v>
+        <v>207</v>
       </c>
       <c r="D5" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="E5" s="11" t="s">
-        <v>260</v>
-      </c>
+      <c r="E5" s="11"/>
       <c r="F5" s="11" t="s">
-        <v>261</v>
+        <v>208</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>362</v>
+        <v>305</v>
       </c>
       <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
+      <c r="I5" s="11" t="s">
+        <v>377</v>
+      </c>
       <c r="J5" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="K5" s="10"/>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="K5" s="87">
+        <v>245.9</v>
+      </c>
+      <c r="L5" s="87">
+        <v>300</v>
+      </c>
+      <c r="M5" s="10"/>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="55" t="s">
         <v>93</v>
       </c>
       <c r="B6" s="55" t="s">
-        <v>249</v>
+        <v>200</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>262</v>
+        <v>209</v>
       </c>
       <c r="D6" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="E6" s="11" t="s">
-        <v>263</v>
-      </c>
+      <c r="E6" s="11"/>
       <c r="F6" s="11" t="s">
-        <v>264</v>
+        <v>210</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>363</v>
+        <v>306</v>
       </c>
       <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
+      <c r="I6" s="11" t="s">
+        <v>377</v>
+      </c>
       <c r="J6" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="K6" s="10"/>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="K6" s="87">
+        <v>300</v>
+      </c>
+      <c r="L6" s="87">
+        <v>389.8</v>
+      </c>
+      <c r="M6" s="10"/>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="55" t="s">
         <v>93</v>
       </c>
       <c r="B7" s="55" t="s">
-        <v>249</v>
+        <v>200</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>265</v>
+        <v>211</v>
       </c>
       <c r="D7" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="E7" s="11" t="s">
-        <v>266</v>
-      </c>
+      <c r="E7" s="11"/>
       <c r="F7" s="11" t="s">
-        <v>267</v>
+        <v>212</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>364</v>
+        <v>307</v>
       </c>
       <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
+      <c r="I7" s="11" t="s">
+        <v>377</v>
+      </c>
       <c r="J7" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="K7" s="10"/>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="K7" s="87">
+        <v>389.8</v>
+      </c>
+      <c r="L7" s="87">
+        <v>436</v>
+      </c>
+      <c r="M7" s="10"/>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="55" t="s">
         <v>93</v>
       </c>
       <c r="B8" s="55" t="s">
-        <v>249</v>
+        <v>200</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>268</v>
+        <v>213</v>
       </c>
       <c r="D8" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="E8" s="11" t="s">
-        <v>269</v>
-      </c>
+      <c r="E8" s="11"/>
       <c r="F8" s="11" t="s">
-        <v>270</v>
+        <v>214</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>365</v>
+        <v>308</v>
       </c>
       <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
+      <c r="I8" s="11" t="s">
+        <v>377</v>
+      </c>
       <c r="J8" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="K8" s="10"/>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="K8" s="87">
+        <v>436</v>
+      </c>
+      <c r="L8" s="87">
+        <v>499.5</v>
+      </c>
+      <c r="M8" s="10"/>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="55" t="s">
         <v>93</v>
       </c>
       <c r="B9" s="55" t="s">
-        <v>249</v>
+        <v>200</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>271</v>
+        <v>215</v>
       </c>
       <c r="D9" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="E9" s="11" t="s">
-        <v>272</v>
-      </c>
+      <c r="E9" s="11"/>
       <c r="F9" s="11" t="s">
-        <v>273</v>
+        <v>216</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>366</v>
+        <v>309</v>
       </c>
       <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
+      <c r="I9" s="11" t="s">
+        <v>377</v>
+      </c>
       <c r="J9" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="K9" s="10"/>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="K9" s="87">
+        <v>499.5</v>
+      </c>
+      <c r="L9" s="87">
+        <v>563</v>
+      </c>
+      <c r="M9" s="10"/>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="55" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="B10" s="55" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="41"/>
       <c r="E10" s="59" t="s">
-        <v>388</v>
+        <v>331</v>
       </c>
       <c r="F10" s="60" t="s">
-        <v>390</v>
+        <v>333</v>
       </c>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
       <c r="J10" s="11"/>
-      <c r="K10" s="10"/>
-    </row>
-    <row r="11" spans="1:11" s="19" customFormat="1">
+      <c r="K10" s="81"/>
+      <c r="L10" s="81"/>
+      <c r="M10" s="10"/>
+    </row>
+    <row r="11" spans="1:13" s="19" customFormat="1">
       <c r="A11" s="21"/>
       <c r="B11" s="22"/>
       <c r="C11" s="22"/>
@@ -6648,11 +7088,13 @@
       <c r="H11" s="22"/>
       <c r="I11" s="22"/>
       <c r="J11" s="22"/>
-      <c r="K11" s="1" t="s">
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="39" customFormat="1" ht="165" customHeight="1">
+    <row r="12" spans="1:13" s="39" customFormat="1" ht="165" customHeight="1">
       <c r="A12" s="36" t="s">
         <v>57</v>
       </c>
@@ -6683,59 +7125,65 @@
       <c r="J12" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="K12" s="38"/>
-    </row>
-    <row r="13" spans="1:11" s="16" customFormat="1">
+      <c r="K12" s="36" t="s">
+        <v>368</v>
+      </c>
+      <c r="L12" s="36" t="s">
+        <v>369</v>
+      </c>
+      <c r="M12" s="38"/>
+    </row>
+    <row r="13" spans="1:13" s="16" customFormat="1">
       <c r="D13" s="17"/>
-      <c r="K13" s="18"/>
-    </row>
-    <row r="14" spans="1:11" s="16" customFormat="1">
+      <c r="M13" s="18"/>
+    </row>
+    <row r="14" spans="1:13" s="16" customFormat="1">
       <c r="D14" s="17"/>
-      <c r="K14" s="18"/>
-    </row>
-    <row r="15" spans="1:11" ht="14.25" customHeight="1">
-      <c r="B15" s="95" t="s">
+      <c r="M14" s="18"/>
+    </row>
+    <row r="15" spans="1:13" ht="14.25" customHeight="1">
+      <c r="B15" s="104" t="s">
         <v>65</v>
       </c>
-      <c r="C15" s="96"/>
-      <c r="D15" s="96"/>
-      <c r="E15" s="97"/>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="B16" s="98"/>
-      <c r="C16" s="99"/>
-      <c r="D16" s="99"/>
-      <c r="E16" s="100"/>
+      <c r="C15" s="105"/>
+      <c r="D15" s="105"/>
+      <c r="E15" s="106"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="B16" s="107"/>
+      <c r="C16" s="108"/>
+      <c r="D16" s="108"/>
+      <c r="E16" s="109"/>
     </row>
     <row r="17" spans="2:5">
-      <c r="B17" s="98"/>
-      <c r="C17" s="99"/>
-      <c r="D17" s="99"/>
-      <c r="E17" s="100"/>
+      <c r="B17" s="107"/>
+      <c r="C17" s="108"/>
+      <c r="D17" s="108"/>
+      <c r="E17" s="109"/>
     </row>
     <row r="18" spans="2:5">
-      <c r="B18" s="98"/>
-      <c r="C18" s="99"/>
-      <c r="D18" s="99"/>
-      <c r="E18" s="100"/>
+      <c r="B18" s="107"/>
+      <c r="C18" s="108"/>
+      <c r="D18" s="108"/>
+      <c r="E18" s="109"/>
     </row>
     <row r="19" spans="2:5">
-      <c r="B19" s="98"/>
-      <c r="C19" s="99"/>
-      <c r="D19" s="99"/>
-      <c r="E19" s="100"/>
+      <c r="B19" s="107"/>
+      <c r="C19" s="108"/>
+      <c r="D19" s="108"/>
+      <c r="E19" s="109"/>
     </row>
     <row r="20" spans="2:5">
-      <c r="B20" s="98"/>
-      <c r="C20" s="99"/>
-      <c r="D20" s="99"/>
-      <c r="E20" s="100"/>
+      <c r="B20" s="107"/>
+      <c r="C20" s="108"/>
+      <c r="D20" s="108"/>
+      <c r="E20" s="109"/>
     </row>
     <row r="21" spans="2:5">
-      <c r="B21" s="101"/>
-      <c r="C21" s="102"/>
-      <c r="D21" s="102"/>
-      <c r="E21" s="103"/>
+      <c r="B21" s="110"/>
+      <c r="C21" s="111"/>
+      <c r="D21" s="111"/>
+      <c r="E21" s="112"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
@@ -6777,10 +7225,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="19.5"/>
@@ -6794,12 +7242,12 @@
     <col min="7" max="7" width="21.125" style="8" customWidth="1"/>
     <col min="8" max="8" width="25" style="8" customWidth="1"/>
     <col min="9" max="9" width="18.625" style="8" customWidth="1"/>
-    <col min="10" max="10" width="17.875" style="8" customWidth="1"/>
-    <col min="11" max="11" width="8.875" style="4"/>
-    <col min="12" max="16384" width="8.875" style="8"/>
+    <col min="10" max="12" width="17.875" style="8" customWidth="1"/>
+    <col min="13" max="13" width="8.875" style="4"/>
+    <col min="14" max="16384" width="8.875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" customFormat="1" ht="20.25" thickBot="1">
+    <row r="1" spans="1:13" customFormat="1" ht="20.25" thickBot="1">
       <c r="A1" s="15" t="s">
         <v>7</v>
       </c>
@@ -6830,9 +7278,15 @@
       <c r="J1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="3"/>
-    </row>
-    <row r="2" spans="1:11" ht="20.25" thickTop="1">
+      <c r="K1" s="15" t="s">
+        <v>366</v>
+      </c>
+      <c r="L1" s="15" t="s">
+        <v>367</v>
+      </c>
+      <c r="M1" s="3"/>
+    </row>
+    <row r="2" spans="1:13" ht="20.25" thickTop="1">
       <c r="A2" s="55" t="s">
         <v>93</v>
       </c>
@@ -6840,28 +7294,36 @@
         <v>91</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>274</v>
+        <v>217</v>
       </c>
       <c r="D2" s="41" t="s">
         <v>96</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>275</v>
+        <v>218</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>276</v>
+        <v>219</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>367</v>
+        <v>310</v>
       </c>
       <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
+      <c r="I2" s="11" t="s">
+        <v>378</v>
+      </c>
       <c r="J2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="10"/>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="K2" s="88">
+        <v>0</v>
+      </c>
+      <c r="L2" s="89">
+        <v>42.9</v>
+      </c>
+      <c r="M2" s="10"/>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="55" t="s">
         <v>93</v>
       </c>
@@ -6869,28 +7331,36 @@
         <v>91</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>277</v>
+        <v>220</v>
       </c>
       <c r="D3" s="41" t="s">
         <v>96</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>278</v>
+        <v>221</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>279</v>
+        <v>222</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>368</v>
+        <v>311</v>
       </c>
       <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11" t="s">
+      <c r="I3" s="11" t="s">
+        <v>378</v>
+      </c>
+      <c r="J3" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="10"/>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="K3" s="87">
+        <v>42.9</v>
+      </c>
+      <c r="L3" s="87">
+        <v>111</v>
+      </c>
+      <c r="M3" s="10"/>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="55" t="s">
         <v>93</v>
       </c>
@@ -6898,28 +7368,36 @@
         <v>91</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>280</v>
+        <v>223</v>
       </c>
       <c r="D4" s="41" t="s">
         <v>96</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>281</v>
+        <v>224</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>282</v>
+        <v>225</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>369</v>
+        <v>312</v>
       </c>
       <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11" t="s">
+      <c r="I4" s="11" t="s">
+        <v>378</v>
+      </c>
+      <c r="J4" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="10"/>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="K4" s="87">
+        <v>111</v>
+      </c>
+      <c r="L4" s="87">
+        <v>162.5</v>
+      </c>
+      <c r="M4" s="10"/>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="55" t="s">
         <v>93</v>
       </c>
@@ -6927,28 +7405,36 @@
         <v>91</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>283</v>
+        <v>226</v>
       </c>
       <c r="D5" s="41" t="s">
         <v>96</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>284</v>
+        <v>227</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>285</v>
+        <v>228</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>370</v>
+        <v>313</v>
       </c>
       <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11" t="s">
+      <c r="I5" s="11" t="s">
+        <v>378</v>
+      </c>
+      <c r="J5" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="K5" s="10"/>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="K5" s="87">
+        <v>162.5</v>
+      </c>
+      <c r="L5" s="87">
+        <v>229</v>
+      </c>
+      <c r="M5" s="10"/>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="55" t="s">
         <v>93</v>
       </c>
@@ -6956,28 +7442,36 @@
         <v>91</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>286</v>
+        <v>229</v>
       </c>
       <c r="D6" s="41" t="s">
         <v>96</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>287</v>
+        <v>230</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>288</v>
+        <v>231</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>371</v>
+        <v>314</v>
       </c>
       <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11" t="s">
+      <c r="I6" s="11" t="s">
+        <v>378</v>
+      </c>
+      <c r="J6" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="K6" s="10"/>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="K6" s="87">
+        <v>229</v>
+      </c>
+      <c r="L6" s="87">
+        <v>322.8</v>
+      </c>
+      <c r="M6" s="10"/>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="55" t="s">
         <v>93</v>
       </c>
@@ -6985,28 +7479,36 @@
         <v>91</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>289</v>
+        <v>232</v>
       </c>
       <c r="D7" s="41" t="s">
         <v>96</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>290</v>
+        <v>233</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>291</v>
+        <v>234</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>372</v>
+        <v>315</v>
       </c>
       <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11" t="s">
+      <c r="I7" s="11" t="s">
+        <v>378</v>
+      </c>
+      <c r="J7" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="K7" s="10"/>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="K7" s="87">
+        <v>322.8</v>
+      </c>
+      <c r="L7" s="87">
+        <v>414</v>
+      </c>
+      <c r="M7" s="10"/>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="55" t="s">
         <v>93</v>
       </c>
@@ -7014,28 +7516,36 @@
         <v>91</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>292</v>
+        <v>235</v>
       </c>
       <c r="D8" s="41" t="s">
         <v>96</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>293</v>
+        <v>236</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>294</v>
+        <v>237</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>373</v>
+        <v>316</v>
       </c>
       <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11" t="s">
+      <c r="I8" s="11" t="s">
+        <v>378</v>
+      </c>
+      <c r="J8" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="K8" s="10"/>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="K8" s="87">
+        <v>414</v>
+      </c>
+      <c r="L8" s="87">
+        <v>479.7</v>
+      </c>
+      <c r="M8" s="10"/>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="55" t="s">
         <v>93</v>
       </c>
@@ -7043,28 +7553,36 @@
         <v>91</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>295</v>
+        <v>238</v>
       </c>
       <c r="D9" s="41" t="s">
         <v>96</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>296</v>
+        <v>239</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>297</v>
+        <v>240</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>374</v>
+        <v>317</v>
       </c>
       <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11" t="s">
+      <c r="I9" s="11" t="s">
+        <v>378</v>
+      </c>
+      <c r="J9" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="K9" s="10"/>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="K9" s="87">
+        <v>479.7</v>
+      </c>
+      <c r="L9" s="87">
+        <v>552</v>
+      </c>
+      <c r="M9" s="10"/>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="55" t="s">
         <v>93</v>
       </c>
@@ -7072,28 +7590,36 @@
         <v>91</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>298</v>
+        <v>241</v>
       </c>
       <c r="D10" s="41" t="s">
         <v>96</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>299</v>
+        <v>242</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>300</v>
+        <v>243</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>375</v>
+        <v>318</v>
       </c>
       <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11" t="s">
+      <c r="I10" s="11" t="s">
+        <v>378</v>
+      </c>
+      <c r="J10" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="K10" s="10"/>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="K10" s="87">
+        <v>552</v>
+      </c>
+      <c r="L10" s="87">
+        <v>598.5</v>
+      </c>
+      <c r="M10" s="10"/>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="55" t="s">
         <v>93</v>
       </c>
@@ -7101,28 +7627,36 @@
         <v>91</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>301</v>
+        <v>244</v>
       </c>
       <c r="D11" s="41" t="s">
         <v>96</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>302</v>
+        <v>245</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>303</v>
+        <v>246</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>376</v>
+        <v>319</v>
       </c>
       <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11" t="s">
+      <c r="I11" s="11" t="s">
+        <v>378</v>
+      </c>
+      <c r="J11" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="K11" s="10"/>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="K11" s="87">
+        <v>598.5</v>
+      </c>
+      <c r="L11" s="87">
+        <v>732.8</v>
+      </c>
+      <c r="M11" s="10"/>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="55" t="s">
         <v>93</v>
       </c>
@@ -7130,28 +7664,36 @@
         <v>91</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>304</v>
+        <v>247</v>
       </c>
       <c r="D12" s="41" t="s">
         <v>96</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>305</v>
+        <v>248</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>306</v>
+        <v>249</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>377</v>
+        <v>320</v>
       </c>
       <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11" t="s">
+      <c r="I12" s="11" t="s">
+        <v>378</v>
+      </c>
+      <c r="J12" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="K12" s="10"/>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="K12" s="87">
+        <v>732.8</v>
+      </c>
+      <c r="L12" s="87">
+        <v>782</v>
+      </c>
+      <c r="M12" s="10"/>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="55" t="s">
         <v>93</v>
       </c>
@@ -7159,49 +7701,59 @@
         <v>91</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>307</v>
+        <v>250</v>
       </c>
       <c r="D13" s="41" t="s">
         <v>96</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>308</v>
+        <v>251</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>309</v>
+        <v>252</v>
       </c>
       <c r="G13" s="11" t="s">
+        <v>321</v>
+      </c>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11" t="s">
         <v>378</v>
       </c>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11" t="s">
+      <c r="J13" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="K13" s="10"/>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="K13" s="87">
+        <v>782</v>
+      </c>
+      <c r="L13" s="87">
+        <v>828.6</v>
+      </c>
+      <c r="M13" s="10"/>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="55" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="B14" s="55" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="41"/>
       <c r="E14" s="59" t="s">
-        <v>389</v>
+        <v>332</v>
       </c>
       <c r="F14" s="60" t="s">
-        <v>392</v>
+        <v>335</v>
       </c>
       <c r="G14" s="11"/>
       <c r="H14" s="11"/>
       <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="10"/>
-    </row>
-    <row r="15" spans="1:11" s="19" customFormat="1">
+      <c r="J14" s="82"/>
+      <c r="K14" s="81"/>
+      <c r="L14" s="81"/>
+      <c r="M14" s="10"/>
+    </row>
+    <row r="15" spans="1:13" s="19" customFormat="1">
       <c r="A15" s="21"/>
       <c r="B15" s="22"/>
       <c r="C15" s="22"/>
@@ -7211,12 +7763,14 @@
       <c r="G15" s="22"/>
       <c r="H15" s="22"/>
       <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="1" t="s">
+      <c r="J15" s="83"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="39" customFormat="1" ht="165" customHeight="1">
+    <row r="16" spans="1:13" s="39" customFormat="1" ht="165" customHeight="1">
       <c r="A16" s="36" t="s">
         <v>57</v>
       </c>
@@ -7244,62 +7798,64 @@
       <c r="I16" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="J16" s="36" t="s">
+      <c r="J16" s="84" t="s">
         <v>67</v>
       </c>
-      <c r="K16" s="38"/>
-    </row>
-    <row r="17" spans="2:11" s="16" customFormat="1">
+      <c r="K16" s="85"/>
+      <c r="L16" s="85"/>
+      <c r="M16" s="38"/>
+    </row>
+    <row r="17" spans="2:13" s="16" customFormat="1">
       <c r="D17" s="17"/>
-      <c r="K17" s="18"/>
-    </row>
-    <row r="18" spans="2:11" s="16" customFormat="1">
+      <c r="M17" s="18"/>
+    </row>
+    <row r="18" spans="2:13" s="16" customFormat="1">
       <c r="D18" s="17"/>
-      <c r="K18" s="18"/>
-    </row>
-    <row r="19" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B19" s="95" t="s">
+      <c r="M18" s="18"/>
+    </row>
+    <row r="19" spans="2:13" ht="14.25" customHeight="1">
+      <c r="B19" s="104" t="s">
         <v>65</v>
       </c>
-      <c r="C19" s="96"/>
-      <c r="D19" s="96"/>
-      <c r="E19" s="97"/>
-    </row>
-    <row r="20" spans="2:11">
-      <c r="B20" s="98"/>
-      <c r="C20" s="99"/>
-      <c r="D20" s="99"/>
-      <c r="E20" s="100"/>
-    </row>
-    <row r="21" spans="2:11">
-      <c r="B21" s="98"/>
-      <c r="C21" s="99"/>
-      <c r="D21" s="99"/>
-      <c r="E21" s="100"/>
-    </row>
-    <row r="22" spans="2:11">
-      <c r="B22" s="98"/>
-      <c r="C22" s="99"/>
-      <c r="D22" s="99"/>
-      <c r="E22" s="100"/>
-    </row>
-    <row r="23" spans="2:11">
-      <c r="B23" s="98"/>
-      <c r="C23" s="99"/>
-      <c r="D23" s="99"/>
-      <c r="E23" s="100"/>
-    </row>
-    <row r="24" spans="2:11">
-      <c r="B24" s="98"/>
-      <c r="C24" s="99"/>
-      <c r="D24" s="99"/>
-      <c r="E24" s="100"/>
-    </row>
-    <row r="25" spans="2:11">
-      <c r="B25" s="101"/>
-      <c r="C25" s="102"/>
-      <c r="D25" s="102"/>
-      <c r="E25" s="103"/>
+      <c r="C19" s="105"/>
+      <c r="D19" s="105"/>
+      <c r="E19" s="106"/>
+    </row>
+    <row r="20" spans="2:13">
+      <c r="B20" s="107"/>
+      <c r="C20" s="108"/>
+      <c r="D20" s="108"/>
+      <c r="E20" s="109"/>
+    </row>
+    <row r="21" spans="2:13">
+      <c r="B21" s="107"/>
+      <c r="C21" s="108"/>
+      <c r="D21" s="108"/>
+      <c r="E21" s="109"/>
+    </row>
+    <row r="22" spans="2:13">
+      <c r="B22" s="107"/>
+      <c r="C22" s="108"/>
+      <c r="D22" s="108"/>
+      <c r="E22" s="109"/>
+    </row>
+    <row r="23" spans="2:13">
+      <c r="B23" s="107"/>
+      <c r="C23" s="108"/>
+      <c r="D23" s="108"/>
+      <c r="E23" s="109"/>
+    </row>
+    <row r="24" spans="2:13">
+      <c r="B24" s="107"/>
+      <c r="C24" s="108"/>
+      <c r="D24" s="108"/>
+      <c r="E24" s="109"/>
+    </row>
+    <row r="25" spans="2:13">
+      <c r="B25" s="110"/>
+      <c r="C25" s="111"/>
+      <c r="D25" s="111"/>
+      <c r="E25" s="112"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>

--- a/structure-books_network1.xlsx
+++ b/structure-books_network1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="series-information" sheetId="37" r:id="rId1"/>
@@ -3171,7 +3171,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
   <cols>
@@ -3187,7 +3189,7 @@
         <v>31</v>
       </c>
       <c r="B1" s="32">
-        <v>2.2999999999999998</v>
+        <v>2.4</v>
       </c>
       <c r="C1" s="30" t="s">
         <v>50</v>
@@ -3267,7 +3269,7 @@
         <v>37</v>
       </c>
       <c r="B7" s="34">
-        <v>42871</v>
+        <v>43291</v>
       </c>
       <c r="C7" s="30" t="s">
         <v>38</v>
@@ -7227,8 +7229,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="19.5"/>

--- a/structure-books_network1.xlsx
+++ b/structure-books_network1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CHiLO-Producer_pri\chiloPro\chilo001\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\chilo-producer\chiloPro\chilo001\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -3163,7 +3163,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
   <cols>
@@ -3179,7 +3181,7 @@
         <v>31</v>
       </c>
       <c r="B1" s="32">
-        <v>2.2999999999999998</v>
+        <v>2.4</v>
       </c>
       <c r="C1" s="30" t="s">
         <v>50</v>
@@ -3259,7 +3261,7 @@
         <v>37</v>
       </c>
       <c r="B7" s="34">
-        <v>42871</v>
+        <v>43291</v>
       </c>
       <c r="C7" s="30" t="s">
         <v>38</v>
